--- a/周数据/《个人上线率统计表》-高阳.xlsx
+++ b/周数据/《个人上线率统计表》-高阳.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370"/>
+    <workbookView windowWidth="20385" windowHeight="7950" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43">
   <si>
     <t>个人上线率分析表</t>
   </si>
@@ -136,22 +136,13 @@
     <t>日期</t>
   </si>
   <si>
-    <t>加班地点/商户名称</t>
-  </si>
-  <si>
     <t>加班内容</t>
   </si>
   <si>
     <t>高阳</t>
   </si>
   <si>
-    <t>南京市建邺区江东门西街3-11/鲜儿牛</t>
-  </si>
-  <si>
     <t>因成都分公司南京项目需要技术支持</t>
-  </si>
-  <si>
-    <t>南京市栖霞区学衡路16号/美美翰尼炸鸡店</t>
   </si>
   <si>
     <t>美美翰尼炸鸡店实施</t>
@@ -162,10 +153,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -374,7 +365,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -384,12 +375,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399945066682943"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -437,18 +422,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -461,12 +434,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -474,12 +441,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -545,31 +506,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -587,12 +530,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="37">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -616,19 +601,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -650,19 +622,6 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
       <top style="medium">
         <color auto="1"/>
       </top>
@@ -795,6 +754,19 @@
       <right style="thin">
         <color auto="1"/>
       </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
       <top style="medium">
         <color auto="1"/>
       </top>
@@ -1074,157 +1046,157 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="31" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="32" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1232,45 +1204,45 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1280,10 +1252,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1295,127 +1270,127 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="9" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="8" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="10" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="9" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="10" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1739,8 +1714,8 @@
   <sheetPr/>
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J18" sqref="J17:J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" outlineLevelRow="7"/>
@@ -1753,274 +1728,264 @@
     <col min="7" max="7" width="15.5083333333333" style="13" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="17.875" style="13" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="17.875" style="13" customWidth="1"/>
-    <col min="10" max="10" width="17.875" style="29" customWidth="1"/>
+    <col min="10" max="10" width="17.875" style="30" customWidth="1"/>
     <col min="11" max="11" width="16" style="13" customWidth="1"/>
     <col min="12" max="12" width="17.875" style="13" customWidth="1"/>
     <col min="13" max="13" width="18.625" style="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:13">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="51"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="52"/>
     </row>
     <row r="2" ht="14.25" spans="1:13">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="35" t="s">
+      <c r="E2" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="36" t="s">
+      <c r="F2" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="36" t="s">
+      <c r="G2" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="37" t="s">
+      <c r="H2" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="52" t="s">
+      <c r="I2" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="53" t="s">
+      <c r="J2" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="54" t="s">
+      <c r="K2" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="55" t="s">
+      <c r="L2" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="56" t="s">
+      <c r="M2" s="57" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="38">
-        <v>12</v>
-      </c>
-      <c r="B3" s="39">
-        <v>52</v>
-      </c>
-      <c r="C3" s="40">
-        <v>1</v>
-      </c>
-      <c r="D3" s="41">
+      <c r="A3" s="39"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42">
+        <f t="shared" ref="E3:E8" si="0">C3-D3</f>
         <v>0</v>
       </c>
-      <c r="E3" s="41">
-        <f t="shared" ref="E3:E8" si="0">C3-D3</f>
-        <v>1</v>
-      </c>
-      <c r="F3" s="42"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="42">
+      <c r="F3" s="43"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="43">
         <f>F3-G3</f>
         <v>0</v>
       </c>
-      <c r="I3" s="57">
-        <v>0</v>
-      </c>
-      <c r="J3" s="58" t="e">
+      <c r="I3" s="58"/>
+      <c r="J3" s="59" t="e">
         <f>I3/L3*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K3" s="59">
+      <c r="K3" s="60">
         <f>C3+G3</f>
-        <v>1</v>
-      </c>
-      <c r="L3" s="60">
+        <v>0</v>
+      </c>
+      <c r="L3" s="61">
         <f>D3+G3</f>
         <v>0</v>
       </c>
-      <c r="M3" s="61">
+      <c r="M3" s="62" t="e">
         <f>L3/K3*100%</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="38"/>
-      <c r="B4" s="39"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41">
+      <c r="A4" s="39"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F4" s="42"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="42">
+      <c r="F4" s="43"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="43">
         <f t="shared" ref="H4:H8" si="1">F4-G4</f>
         <v>0</v>
       </c>
-      <c r="I4" s="57"/>
-      <c r="J4" s="58" t="e">
+      <c r="I4" s="58"/>
+      <c r="J4" s="59" t="e">
         <f>I4/L4*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K4" s="59">
+      <c r="K4" s="60">
         <f t="shared" ref="K4:K8" si="2">C4+G4</f>
         <v>0</v>
       </c>
-      <c r="L4" s="60">
+      <c r="L4" s="61">
         <f t="shared" ref="L4:L8" si="3">D4+G4</f>
         <v>0</v>
       </c>
-      <c r="M4" s="61" t="e">
+      <c r="M4" s="62" t="e">
         <f t="shared" ref="M4:M8" si="4">L4/K4*100%</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="38"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41">
+      <c r="A5" s="39"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F5" s="42"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="42">
+      <c r="F5" s="43"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I5" s="57"/>
-      <c r="J5" s="58" t="e">
+      <c r="I5" s="58"/>
+      <c r="J5" s="59" t="e">
         <f t="shared" ref="J5:J8" si="5">I5/L5*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K5" s="59">
+      <c r="K5" s="60">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L5" s="60">
+      <c r="L5" s="61">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M5" s="61" t="e">
+      <c r="M5" s="62" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="38"/>
-      <c r="B6" s="39"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41">
+      <c r="A6" s="39"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F6" s="42"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="42">
+      <c r="F6" s="43"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I6" s="57"/>
-      <c r="J6" s="58" t="e">
+      <c r="I6" s="58"/>
+      <c r="J6" s="59" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K6" s="59">
+      <c r="K6" s="60">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L6" s="60">
+      <c r="L6" s="61">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M6" s="61" t="e">
+      <c r="M6" s="62" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="38"/>
-      <c r="B7" s="39"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41">
+      <c r="A7" s="39"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F7" s="42"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="42">
+      <c r="F7" s="43"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I7" s="57"/>
-      <c r="J7" s="58" t="e">
+      <c r="I7" s="58"/>
+      <c r="J7" s="59" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K7" s="59">
+      <c r="K7" s="60">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L7" s="60">
+      <c r="L7" s="61">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M7" s="61" t="e">
+      <c r="M7" s="62" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:13">
-      <c r="A8" s="44"/>
-      <c r="B8" s="45"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47">
+      <c r="A8" s="45"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F8" s="48"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="48">
+      <c r="F8" s="49"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="49">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I8" s="62"/>
-      <c r="J8" s="63" t="e">
+      <c r="I8" s="63"/>
+      <c r="J8" s="64" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K8" s="64">
+      <c r="K8" s="65">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L8" s="65">
+      <c r="L8" s="66">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M8" s="66" t="e">
+      <c r="M8" s="67" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -2060,50 +2025,50 @@
     <col min="15" max="16384" width="9.73333333333333"/>
   </cols>
   <sheetData>
-    <row r="1" s="25" customFormat="1" ht="27" spans="1:15">
-      <c r="A1" s="26" t="s">
+    <row r="1" s="26" customFormat="1" ht="27" spans="1:15">
+      <c r="A1" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="28" t="s">
+      <c r="I1" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="J1" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="27" t="s">
+      <c r="K1" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="26" t="s">
+      <c r="L1" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="26" t="s">
+      <c r="M1" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="26" t="s">
+      <c r="N1" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="26" t="s">
+      <c r="O1" s="27" t="s">
         <v>28</v>
       </c>
     </row>
@@ -7272,7 +7237,7 @@
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="7"/>
+      <c r="A3" s="21"/>
       <c r="B3" s="18"/>
       <c r="C3" s="19"/>
       <c r="D3" s="20"/>
@@ -7281,7 +7246,7 @@
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="7">
+      <c r="A4" s="21">
         <v>52</v>
       </c>
       <c r="B4" s="18" t="s">
@@ -7298,34 +7263,34 @@
       <c r="G4" s="1"/>
     </row>
     <row r="5" ht="14.25" spans="1:7">
-      <c r="A5" s="7"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="23"/>
+      <c r="A5" s="21"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="24"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="21"/>
+      <c r="G5" s="22"/>
     </row>
     <row r="6" ht="14.25" spans="1:7">
       <c r="A6" s="17"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="23"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="24"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="21"/>
+      <c r="G6" s="22"/>
     </row>
     <row r="7" ht="14.25" spans="1:7">
-      <c r="A7" s="7"/>
+      <c r="A7" s="21"/>
       <c r="B7" s="18"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="24"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="18"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="7"/>
+      <c r="A8" s="21"/>
       <c r="B8" s="18"/>
       <c r="C8" s="18"/>
       <c r="D8" s="20"/>
@@ -7334,7 +7299,7 @@
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="7"/>
+      <c r="A9" s="21"/>
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
       <c r="D9" s="20"/>
@@ -7343,7 +7308,7 @@
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="7"/>
+      <c r="A10" s="21"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="20"/>
@@ -7352,7 +7317,7 @@
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="7"/>
+      <c r="A11" s="21"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="20"/>
@@ -7361,7 +7326,7 @@
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="7"/>
+      <c r="A12" s="21"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="20"/>
@@ -7370,7 +7335,7 @@
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="7"/>
+      <c r="A13" s="21"/>
       <c r="B13" s="18"/>
       <c r="C13" s="18"/>
       <c r="D13" s="20"/>
@@ -7379,7 +7344,7 @@
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="7"/>
+      <c r="A14" s="21"/>
       <c r="B14" s="18"/>
       <c r="C14" s="18"/>
       <c r="D14" s="20"/>
@@ -7388,7 +7353,7 @@
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="7"/>
+      <c r="A15" s="21"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="20"/>
@@ -7397,7 +7362,7 @@
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="7"/>
+      <c r="A16" s="21"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="20"/>
@@ -7406,7 +7371,7 @@
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="7"/>
+      <c r="A17" s="21"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="20"/>
@@ -7415,7 +7380,7 @@
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="7"/>
+      <c r="A18" s="21"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="20"/>
@@ -7424,7 +7389,7 @@
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="7"/>
+      <c r="A19" s="21"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="20"/>
@@ -7433,7 +7398,7 @@
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="10"/>
+      <c r="A20" s="8"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="20"/>
@@ -7444,23 +7409,23 @@
     <row r="21" ht="14.25" spans="1:7">
       <c r="A21" s="17"/>
       <c r="B21" s="18"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="24"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="18"/>
     </row>
     <row r="22" ht="14.25" spans="1:7">
-      <c r="A22" s="7"/>
+      <c r="A22" s="21"/>
       <c r="B22" s="18"/>
       <c r="C22" s="19"/>
-      <c r="D22" s="23"/>
+      <c r="D22" s="24"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="12"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="7"/>
+      <c r="A23" s="21"/>
       <c r="B23" s="18"/>
       <c r="C23" s="18"/>
       <c r="D23" s="20"/>
@@ -7469,7 +7434,7 @@
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="7"/>
+      <c r="A24" s="21"/>
       <c r="B24" s="18"/>
       <c r="C24" s="18"/>
       <c r="D24" s="20"/>
@@ -7478,7 +7443,7 @@
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="7"/>
+      <c r="A25" s="21"/>
       <c r="B25" s="18"/>
       <c r="C25" s="18"/>
       <c r="D25" s="20"/>
@@ -7487,7 +7452,7 @@
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="7"/>
+      <c r="A26" s="21"/>
       <c r="B26" s="18"/>
       <c r="C26" s="18"/>
       <c r="D26" s="20"/>
@@ -7496,7 +7461,7 @@
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="7"/>
+      <c r="A27" s="21"/>
       <c r="B27" s="18"/>
       <c r="C27" s="18"/>
       <c r="D27" s="20"/>
@@ -7505,7 +7470,7 @@
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="7"/>
+      <c r="A28" s="21"/>
       <c r="B28" s="18"/>
       <c r="C28" s="18"/>
       <c r="D28" s="20"/>
@@ -7514,7 +7479,7 @@
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="7"/>
+      <c r="A29" s="21"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="20"/>
@@ -7523,7 +7488,7 @@
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="7"/>
+      <c r="A30" s="21"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="20"/>
@@ -7532,7 +7497,7 @@
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="7"/>
+      <c r="A31" s="21"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="20"/>
@@ -7541,7 +7506,7 @@
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="7"/>
+      <c r="A32" s="21"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="20"/>
@@ -7550,7 +7515,7 @@
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="7"/>
+      <c r="A33" s="21"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="20"/>
@@ -7559,7 +7524,7 @@
       <c r="G33" s="1"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="7"/>
+      <c r="A34" s="21"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="20"/>
@@ -7568,7 +7533,7 @@
       <c r="G34" s="1"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="10"/>
+      <c r="A35" s="8"/>
       <c r="B35" s="18"/>
       <c r="C35" s="18"/>
       <c r="D35" s="20"/>
@@ -7579,41 +7544,41 @@
     <row r="36" ht="14.25" spans="1:7">
       <c r="A36" s="17"/>
       <c r="B36" s="18"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="23"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="24"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="18"/>
     </row>
     <row r="37" ht="14.25" spans="1:7">
-      <c r="A37" s="7"/>
+      <c r="A37" s="21"/>
       <c r="B37" s="18"/>
       <c r="C37" s="19"/>
-      <c r="D37" s="23"/>
+      <c r="D37" s="24"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="12"/>
     </row>
     <row r="38" ht="14.25" spans="1:7">
-      <c r="A38" s="7"/>
+      <c r="A38" s="21"/>
       <c r="B38" s="18"/>
       <c r="C38" s="19"/>
-      <c r="D38" s="23"/>
+      <c r="D38" s="24"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="12"/>
     </row>
     <row r="39" ht="14.25" spans="1:7">
-      <c r="A39" s="7"/>
+      <c r="A39" s="21"/>
       <c r="B39" s="18"/>
       <c r="C39" s="19"/>
-      <c r="D39" s="23"/>
+      <c r="D39" s="24"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
-      <c r="G39" s="24"/>
+      <c r="G39" s="25"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="7"/>
+      <c r="A40" s="21"/>
       <c r="B40" s="18"/>
       <c r="C40" s="18"/>
       <c r="D40" s="20"/>
@@ -7622,7 +7587,7 @@
       <c r="G40" s="1"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="7"/>
+      <c r="A41" s="21"/>
       <c r="B41" s="18"/>
       <c r="C41" s="18"/>
       <c r="D41" s="20"/>
@@ -7631,7 +7596,7 @@
       <c r="G41" s="1"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="7"/>
+      <c r="A42" s="21"/>
       <c r="B42" s="18"/>
       <c r="C42" s="18"/>
       <c r="D42" s="20"/>
@@ -7640,7 +7605,7 @@
       <c r="G42" s="1"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="7"/>
+      <c r="A43" s="21"/>
       <c r="B43" s="18"/>
       <c r="C43" s="18"/>
       <c r="D43" s="20"/>
@@ -7649,7 +7614,7 @@
       <c r="G43" s="1"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="7"/>
+      <c r="A44" s="21"/>
       <c r="B44" s="18"/>
       <c r="C44" s="18"/>
       <c r="D44" s="20"/>
@@ -7658,7 +7623,7 @@
       <c r="G44" s="1"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="7"/>
+      <c r="A45" s="21"/>
       <c r="B45" s="18"/>
       <c r="C45" s="18"/>
       <c r="D45" s="20"/>
@@ -7667,7 +7632,7 @@
       <c r="G45" s="1"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="7"/>
+      <c r="A46" s="21"/>
       <c r="B46" s="18"/>
       <c r="C46" s="18"/>
       <c r="D46" s="20"/>
@@ -7676,7 +7641,7 @@
       <c r="G46" s="1"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="10"/>
+      <c r="A47" s="8"/>
       <c r="B47" s="18"/>
       <c r="C47" s="18"/>
       <c r="D47" s="20"/>
@@ -7687,41 +7652,41 @@
     <row r="48" ht="14.25" spans="1:7">
       <c r="A48" s="17"/>
       <c r="B48" s="18"/>
-      <c r="C48" s="22"/>
-      <c r="D48" s="23"/>
+      <c r="C48" s="23"/>
+      <c r="D48" s="24"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="18"/>
     </row>
     <row r="49" ht="14.25" spans="1:7">
-      <c r="A49" s="7"/>
+      <c r="A49" s="21"/>
       <c r="B49" s="18"/>
       <c r="C49" s="19"/>
-      <c r="D49" s="23"/>
+      <c r="D49" s="24"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="12"/>
     </row>
     <row r="50" ht="14.25" spans="1:7">
-      <c r="A50" s="7"/>
+      <c r="A50" s="21"/>
       <c r="B50" s="18"/>
       <c r="C50" s="19"/>
-      <c r="D50" s="23"/>
+      <c r="D50" s="24"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
       <c r="G50" s="12"/>
     </row>
     <row r="51" ht="14.25" spans="1:7">
-      <c r="A51" s="7"/>
+      <c r="A51" s="21"/>
       <c r="B51" s="18"/>
       <c r="C51" s="19"/>
-      <c r="D51" s="23"/>
+      <c r="D51" s="24"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
-      <c r="G51" s="24"/>
+      <c r="G51" s="25"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="7"/>
+      <c r="A52" s="21"/>
       <c r="B52" s="18"/>
       <c r="C52" s="18"/>
       <c r="D52" s="20"/>
@@ -7730,7 +7695,7 @@
       <c r="G52" s="1"/>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="7"/>
+      <c r="A53" s="21"/>
       <c r="B53" s="18"/>
       <c r="C53" s="18"/>
       <c r="D53" s="20"/>
@@ -7739,7 +7704,7 @@
       <c r="G53" s="1"/>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="7"/>
+      <c r="A54" s="21"/>
       <c r="B54" s="18"/>
       <c r="C54" s="18"/>
       <c r="D54" s="20"/>
@@ -7748,7 +7713,7 @@
       <c r="G54" s="1"/>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="7"/>
+      <c r="A55" s="21"/>
       <c r="B55" s="18"/>
       <c r="C55" s="18"/>
       <c r="D55" s="20"/>
@@ -7757,7 +7722,7 @@
       <c r="G55" s="1"/>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="7"/>
+      <c r="A56" s="21"/>
       <c r="B56" s="18"/>
       <c r="C56" s="18"/>
       <c r="D56" s="20"/>
@@ -7766,7 +7731,7 @@
       <c r="G56" s="1"/>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="7"/>
+      <c r="A57" s="21"/>
       <c r="B57" s="18"/>
       <c r="C57" s="18"/>
       <c r="D57" s="20"/>
@@ -7775,7 +7740,7 @@
       <c r="G57" s="1"/>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="7"/>
+      <c r="A58" s="21"/>
       <c r="B58" s="18"/>
       <c r="C58" s="18"/>
       <c r="D58" s="20"/>
@@ -7784,7 +7749,7 @@
       <c r="G58" s="1"/>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="10"/>
+      <c r="A59" s="8"/>
       <c r="B59" s="18"/>
       <c r="C59" s="18"/>
       <c r="D59" s="20"/>
@@ -7793,25 +7758,25 @@
       <c r="G59" s="1"/>
     </row>
     <row r="60" ht="14.25" spans="1:7">
-      <c r="A60" s="7"/>
+      <c r="A60" s="21"/>
       <c r="B60" s="18"/>
       <c r="C60" s="19"/>
-      <c r="D60" s="23"/>
+      <c r="D60" s="24"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
       <c r="G60" s="12"/>
     </row>
     <row r="61" ht="14.25" spans="1:7">
-      <c r="A61" s="7"/>
+      <c r="A61" s="21"/>
       <c r="B61" s="18"/>
       <c r="C61" s="19"/>
-      <c r="D61" s="23"/>
+      <c r="D61" s="24"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
-      <c r="G61" s="24"/>
+      <c r="G61" s="25"/>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="7"/>
+      <c r="A62" s="21"/>
       <c r="B62" s="18"/>
       <c r="C62" s="18"/>
       <c r="D62" s="20"/>
@@ -7820,7 +7785,7 @@
       <c r="G62" s="1"/>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="7"/>
+      <c r="A63" s="21"/>
       <c r="B63" s="18"/>
       <c r="C63" s="18"/>
       <c r="D63" s="20"/>
@@ -7829,7 +7794,7 @@
       <c r="G63" s="1"/>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="7"/>
+      <c r="A64" s="21"/>
       <c r="B64" s="18"/>
       <c r="C64" s="18"/>
       <c r="D64" s="20"/>
@@ -7838,7 +7803,7 @@
       <c r="G64" s="1"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="7"/>
+      <c r="A65" s="21"/>
       <c r="B65" s="18"/>
       <c r="C65" s="18"/>
       <c r="D65" s="20"/>
@@ -7847,7 +7812,7 @@
       <c r="G65" s="1"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="7"/>
+      <c r="A66" s="21"/>
       <c r="B66" s="18"/>
       <c r="C66" s="18"/>
       <c r="D66" s="20"/>
@@ -7856,7 +7821,7 @@
       <c r="G66" s="1"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="7"/>
+      <c r="A67" s="21"/>
       <c r="B67" s="18"/>
       <c r="C67" s="18"/>
       <c r="D67" s="20"/>
@@ -7865,7 +7830,7 @@
       <c r="G67" s="1"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="7"/>
+      <c r="A68" s="21"/>
       <c r="B68" s="18"/>
       <c r="C68" s="18"/>
       <c r="D68" s="20"/>
@@ -7874,7 +7839,7 @@
       <c r="G68" s="1"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="10"/>
+      <c r="A69" s="8"/>
       <c r="B69" s="18"/>
       <c r="C69" s="18"/>
       <c r="D69" s="20"/>
@@ -7910,96 +7875,83 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15.125" style="1" customWidth="1"/>
     <col min="3" max="3" width="17" style="1" customWidth="1"/>
     <col min="4" max="4" width="48.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="33.75" style="2" customWidth="1"/>
+    <col min="5" max="5" width="45" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:5">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="6" t="s">
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="5">
+        <v>12</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="7">
-        <v>12</v>
-      </c>
-      <c r="B2" s="7" t="s">
+      <c r="C2" s="7">
+        <v>43084</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="8">
-        <v>43084</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="10"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="9"/>
       <c r="B3" s="10"/>
       <c r="C3" s="11">
         <v>43091</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5">
+      <c r="D3" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-    </row>
-    <row r="5" spans="2:5">
+      <c r="D4" s="12"/>
+    </row>
+    <row r="5" spans="2:4">
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
-      <c r="E5" s="9"/>
-    </row>
-    <row r="6" spans="2:5">
+    </row>
+    <row r="6" spans="2:4">
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
-      <c r="E6" s="9"/>
-    </row>
-    <row r="7" spans="2:5">
+    </row>
+    <row r="7" spans="2:4">
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
-      <c r="E7" s="9"/>
     </row>
     <row r="8" spans="2:4">
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
-      <c r="D8" s="10"/>
+      <c r="D8" s="12"/>
     </row>
     <row r="9" spans="2:4">
       <c r="B9" s="12"/>

--- a/周数据/《个人上线率统计表》-高阳.xlsx
+++ b/周数据/《个人上线率统计表》-高阳.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="7950" activeTab="3"/>
+    <workbookView windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46">
   <si>
     <t>个人上线率分析表</t>
   </si>
@@ -136,13 +136,22 @@
     <t>日期</t>
   </si>
   <si>
+    <t>加班地点/商户名称</t>
+  </si>
+  <si>
     <t>加班内容</t>
   </si>
   <si>
     <t>高阳</t>
   </si>
   <si>
+    <t>南京市建邺区江东门西街3-11/鲜儿牛</t>
+  </si>
+  <si>
     <t>因成都分公司南京项目需要技术支持</t>
+  </si>
+  <si>
+    <t>南京市栖霞区学衡路16号/美美翰尼炸鸡店</t>
   </si>
   <si>
     <t>美美翰尼炸鸡店实施</t>
@@ -153,10 +162,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -365,7 +374,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -375,6 +384,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399945066682943"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -422,6 +437,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -434,6 +461,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -441,6 +474,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -506,13 +545,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -530,54 +587,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="36">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -601,6 +616,19 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -622,6 +650,19 @@
       <right style="thin">
         <color auto="1"/>
       </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
       <top style="medium">
         <color auto="1"/>
       </top>
@@ -754,19 +795,6 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
       <top style="medium">
         <color auto="1"/>
       </top>
@@ -1046,10 +1074,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1058,145 +1086,145 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="32" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="31" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1204,22 +1232,22 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1240,7 +1268,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1252,13 +1280,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1270,71 +1295,65 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1342,55 +1361,61 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="9" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="8" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="10" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="9" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="10" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1714,8 +1739,8 @@
   <sheetPr/>
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J18" sqref="J17:J18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" outlineLevelRow="7"/>
@@ -1728,264 +1753,274 @@
     <col min="7" max="7" width="15.5083333333333" style="13" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="17.875" style="13" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="17.875" style="13" customWidth="1"/>
-    <col min="10" max="10" width="17.875" style="30" customWidth="1"/>
+    <col min="10" max="10" width="17.875" style="29" customWidth="1"/>
     <col min="11" max="11" width="16" style="13" customWidth="1"/>
     <col min="12" max="12" width="17.875" style="13" customWidth="1"/>
     <col min="13" max="13" width="18.625" style="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:13">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="52"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="51"/>
     </row>
     <row r="2" ht="14.25" spans="1:13">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="E2" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="37" t="s">
+      <c r="F2" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="37" t="s">
+      <c r="G2" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="38" t="s">
+      <c r="H2" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="53" t="s">
+      <c r="I2" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="54" t="s">
+      <c r="J2" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="55" t="s">
+      <c r="K2" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="56" t="s">
+      <c r="L2" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="57" t="s">
+      <c r="M2" s="56" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="39"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42">
+      <c r="A3" s="38">
+        <v>12</v>
+      </c>
+      <c r="B3" s="39">
+        <v>52</v>
+      </c>
+      <c r="C3" s="40">
+        <v>1</v>
+      </c>
+      <c r="D3" s="41">
+        <v>0</v>
+      </c>
+      <c r="E3" s="41">
         <f t="shared" ref="E3:E8" si="0">C3-D3</f>
-        <v>0</v>
-      </c>
-      <c r="F3" s="43"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="43">
+        <v>1</v>
+      </c>
+      <c r="F3" s="42"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="42">
         <f>F3-G3</f>
         <v>0</v>
       </c>
-      <c r="I3" s="58"/>
-      <c r="J3" s="59" t="e">
+      <c r="I3" s="57">
+        <v>0</v>
+      </c>
+      <c r="J3" s="58" t="e">
         <f>I3/L3*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K3" s="60">
+      <c r="K3" s="59">
         <f>C3+G3</f>
-        <v>0</v>
-      </c>
-      <c r="L3" s="61">
+        <v>1</v>
+      </c>
+      <c r="L3" s="60">
         <f>D3+G3</f>
         <v>0</v>
       </c>
-      <c r="M3" s="62" t="e">
+      <c r="M3" s="61">
         <f>L3/K3*100%</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="39"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42">
+      <c r="A4" s="38"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F4" s="43"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="43">
+      <c r="F4" s="42"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="42">
         <f t="shared" ref="H4:H8" si="1">F4-G4</f>
         <v>0</v>
       </c>
-      <c r="I4" s="58"/>
-      <c r="J4" s="59" t="e">
+      <c r="I4" s="57"/>
+      <c r="J4" s="58" t="e">
         <f>I4/L4*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K4" s="60">
+      <c r="K4" s="59">
         <f t="shared" ref="K4:K8" si="2">C4+G4</f>
         <v>0</v>
       </c>
-      <c r="L4" s="61">
+      <c r="L4" s="60">
         <f t="shared" ref="L4:L8" si="3">D4+G4</f>
         <v>0</v>
       </c>
-      <c r="M4" s="62" t="e">
+      <c r="M4" s="61" t="e">
         <f t="shared" ref="M4:M8" si="4">L4/K4*100%</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="39"/>
-      <c r="B5" s="40"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42">
+      <c r="A5" s="38"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F5" s="43"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="43">
+      <c r="F5" s="42"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I5" s="58"/>
-      <c r="J5" s="59" t="e">
+      <c r="I5" s="57"/>
+      <c r="J5" s="58" t="e">
         <f t="shared" ref="J5:J8" si="5">I5/L5*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K5" s="60">
+      <c r="K5" s="59">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L5" s="61">
+      <c r="L5" s="60">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M5" s="62" t="e">
+      <c r="M5" s="61" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="39"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42">
+      <c r="A6" s="38"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F6" s="43"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="43">
+      <c r="F6" s="42"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I6" s="58"/>
-      <c r="J6" s="59" t="e">
+      <c r="I6" s="57"/>
+      <c r="J6" s="58" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K6" s="60">
+      <c r="K6" s="59">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L6" s="61">
+      <c r="L6" s="60">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M6" s="62" t="e">
+      <c r="M6" s="61" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="39"/>
-      <c r="B7" s="40"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42">
+      <c r="A7" s="38"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F7" s="43"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="43">
+      <c r="F7" s="42"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I7" s="58"/>
-      <c r="J7" s="59" t="e">
+      <c r="I7" s="57"/>
+      <c r="J7" s="58" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K7" s="60">
+      <c r="K7" s="59">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L7" s="61">
+      <c r="L7" s="60">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M7" s="62" t="e">
+      <c r="M7" s="61" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:13">
-      <c r="A8" s="45"/>
-      <c r="B8" s="46"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48">
+      <c r="A8" s="44"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F8" s="49"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="49">
+      <c r="F8" s="48"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I8" s="63"/>
-      <c r="J8" s="64" t="e">
+      <c r="I8" s="62"/>
+      <c r="J8" s="63" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K8" s="65">
+      <c r="K8" s="64">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L8" s="66">
+      <c r="L8" s="65">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M8" s="67" t="e">
+      <c r="M8" s="66" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -2025,50 +2060,50 @@
     <col min="15" max="16384" width="9.73333333333333"/>
   </cols>
   <sheetData>
-    <row r="1" s="26" customFormat="1" ht="27" spans="1:15">
-      <c r="A1" s="27" t="s">
+    <row r="1" s="25" customFormat="1" ht="27" spans="1:15">
+      <c r="A1" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="I1" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="28" t="s">
+      <c r="J1" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="28" t="s">
+      <c r="K1" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="27" t="s">
+      <c r="L1" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="27" t="s">
+      <c r="M1" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="27" t="s">
+      <c r="N1" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="27" t="s">
+      <c r="O1" s="26" t="s">
         <v>28</v>
       </c>
     </row>
@@ -7237,7 +7272,7 @@
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="21"/>
+      <c r="A3" s="7"/>
       <c r="B3" s="18"/>
       <c r="C3" s="19"/>
       <c r="D3" s="20"/>
@@ -7246,7 +7281,7 @@
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="21">
+      <c r="A4" s="7">
         <v>52</v>
       </c>
       <c r="B4" s="18" t="s">
@@ -7263,34 +7298,34 @@
       <c r="G4" s="1"/>
     </row>
     <row r="5" ht="14.25" spans="1:7">
-      <c r="A5" s="21"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="24"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="23"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="22"/>
+      <c r="G5" s="21"/>
     </row>
     <row r="6" ht="14.25" spans="1:7">
       <c r="A6" s="17"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="24"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="23"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="22"/>
+      <c r="G6" s="21"/>
     </row>
     <row r="7" ht="14.25" spans="1:7">
-      <c r="A7" s="21"/>
+      <c r="A7" s="7"/>
       <c r="B7" s="18"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="24"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="23"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="18"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="21"/>
+      <c r="A8" s="7"/>
       <c r="B8" s="18"/>
       <c r="C8" s="18"/>
       <c r="D8" s="20"/>
@@ -7299,7 +7334,7 @@
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="21"/>
+      <c r="A9" s="7"/>
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
       <c r="D9" s="20"/>
@@ -7308,7 +7343,7 @@
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="21"/>
+      <c r="A10" s="7"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="20"/>
@@ -7317,7 +7352,7 @@
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="21"/>
+      <c r="A11" s="7"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="20"/>
@@ -7326,7 +7361,7 @@
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="21"/>
+      <c r="A12" s="7"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="20"/>
@@ -7335,7 +7370,7 @@
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="21"/>
+      <c r="A13" s="7"/>
       <c r="B13" s="18"/>
       <c r="C13" s="18"/>
       <c r="D13" s="20"/>
@@ -7344,7 +7379,7 @@
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="21"/>
+      <c r="A14" s="7"/>
       <c r="B14" s="18"/>
       <c r="C14" s="18"/>
       <c r="D14" s="20"/>
@@ -7353,7 +7388,7 @@
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="21"/>
+      <c r="A15" s="7"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="20"/>
@@ -7362,7 +7397,7 @@
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="21"/>
+      <c r="A16" s="7"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="20"/>
@@ -7371,7 +7406,7 @@
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="21"/>
+      <c r="A17" s="7"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="20"/>
@@ -7380,7 +7415,7 @@
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="21"/>
+      <c r="A18" s="7"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="20"/>
@@ -7389,7 +7424,7 @@
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="21"/>
+      <c r="A19" s="7"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="20"/>
@@ -7398,7 +7433,7 @@
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="8"/>
+      <c r="A20" s="10"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="20"/>
@@ -7409,23 +7444,23 @@
     <row r="21" ht="14.25" spans="1:7">
       <c r="A21" s="17"/>
       <c r="B21" s="18"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="24"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="23"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="18"/>
     </row>
     <row r="22" ht="14.25" spans="1:7">
-      <c r="A22" s="21"/>
+      <c r="A22" s="7"/>
       <c r="B22" s="18"/>
       <c r="C22" s="19"/>
-      <c r="D22" s="24"/>
+      <c r="D22" s="23"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="12"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="21"/>
+      <c r="A23" s="7"/>
       <c r="B23" s="18"/>
       <c r="C23" s="18"/>
       <c r="D23" s="20"/>
@@ -7434,7 +7469,7 @@
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="21"/>
+      <c r="A24" s="7"/>
       <c r="B24" s="18"/>
       <c r="C24" s="18"/>
       <c r="D24" s="20"/>
@@ -7443,7 +7478,7 @@
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="21"/>
+      <c r="A25" s="7"/>
       <c r="B25" s="18"/>
       <c r="C25" s="18"/>
       <c r="D25" s="20"/>
@@ -7452,7 +7487,7 @@
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="21"/>
+      <c r="A26" s="7"/>
       <c r="B26" s="18"/>
       <c r="C26" s="18"/>
       <c r="D26" s="20"/>
@@ -7461,7 +7496,7 @@
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="21"/>
+      <c r="A27" s="7"/>
       <c r="B27" s="18"/>
       <c r="C27" s="18"/>
       <c r="D27" s="20"/>
@@ -7470,7 +7505,7 @@
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="21"/>
+      <c r="A28" s="7"/>
       <c r="B28" s="18"/>
       <c r="C28" s="18"/>
       <c r="D28" s="20"/>
@@ -7479,7 +7514,7 @@
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="21"/>
+      <c r="A29" s="7"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="20"/>
@@ -7488,7 +7523,7 @@
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="21"/>
+      <c r="A30" s="7"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="20"/>
@@ -7497,7 +7532,7 @@
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="21"/>
+      <c r="A31" s="7"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="20"/>
@@ -7506,7 +7541,7 @@
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="21"/>
+      <c r="A32" s="7"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="20"/>
@@ -7515,7 +7550,7 @@
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="21"/>
+      <c r="A33" s="7"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="20"/>
@@ -7524,7 +7559,7 @@
       <c r="G33" s="1"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="21"/>
+      <c r="A34" s="7"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="20"/>
@@ -7533,7 +7568,7 @@
       <c r="G34" s="1"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="8"/>
+      <c r="A35" s="10"/>
       <c r="B35" s="18"/>
       <c r="C35" s="18"/>
       <c r="D35" s="20"/>
@@ -7544,41 +7579,41 @@
     <row r="36" ht="14.25" spans="1:7">
       <c r="A36" s="17"/>
       <c r="B36" s="18"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="24"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="23"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="18"/>
     </row>
     <row r="37" ht="14.25" spans="1:7">
-      <c r="A37" s="21"/>
+      <c r="A37" s="7"/>
       <c r="B37" s="18"/>
       <c r="C37" s="19"/>
-      <c r="D37" s="24"/>
+      <c r="D37" s="23"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="12"/>
     </row>
     <row r="38" ht="14.25" spans="1:7">
-      <c r="A38" s="21"/>
+      <c r="A38" s="7"/>
       <c r="B38" s="18"/>
       <c r="C38" s="19"/>
-      <c r="D38" s="24"/>
+      <c r="D38" s="23"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="12"/>
     </row>
     <row r="39" ht="14.25" spans="1:7">
-      <c r="A39" s="21"/>
+      <c r="A39" s="7"/>
       <c r="B39" s="18"/>
       <c r="C39" s="19"/>
-      <c r="D39" s="24"/>
+      <c r="D39" s="23"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
-      <c r="G39" s="25"/>
+      <c r="G39" s="24"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="21"/>
+      <c r="A40" s="7"/>
       <c r="B40" s="18"/>
       <c r="C40" s="18"/>
       <c r="D40" s="20"/>
@@ -7587,7 +7622,7 @@
       <c r="G40" s="1"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="21"/>
+      <c r="A41" s="7"/>
       <c r="B41" s="18"/>
       <c r="C41" s="18"/>
       <c r="D41" s="20"/>
@@ -7596,7 +7631,7 @@
       <c r="G41" s="1"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="21"/>
+      <c r="A42" s="7"/>
       <c r="B42" s="18"/>
       <c r="C42" s="18"/>
       <c r="D42" s="20"/>
@@ -7605,7 +7640,7 @@
       <c r="G42" s="1"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="21"/>
+      <c r="A43" s="7"/>
       <c r="B43" s="18"/>
       <c r="C43" s="18"/>
       <c r="D43" s="20"/>
@@ -7614,7 +7649,7 @@
       <c r="G43" s="1"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="21"/>
+      <c r="A44" s="7"/>
       <c r="B44" s="18"/>
       <c r="C44" s="18"/>
       <c r="D44" s="20"/>
@@ -7623,7 +7658,7 @@
       <c r="G44" s="1"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="21"/>
+      <c r="A45" s="7"/>
       <c r="B45" s="18"/>
       <c r="C45" s="18"/>
       <c r="D45" s="20"/>
@@ -7632,7 +7667,7 @@
       <c r="G45" s="1"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="21"/>
+      <c r="A46" s="7"/>
       <c r="B46" s="18"/>
       <c r="C46" s="18"/>
       <c r="D46" s="20"/>
@@ -7641,7 +7676,7 @@
       <c r="G46" s="1"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="8"/>
+      <c r="A47" s="10"/>
       <c r="B47" s="18"/>
       <c r="C47" s="18"/>
       <c r="D47" s="20"/>
@@ -7652,41 +7687,41 @@
     <row r="48" ht="14.25" spans="1:7">
       <c r="A48" s="17"/>
       <c r="B48" s="18"/>
-      <c r="C48" s="23"/>
-      <c r="D48" s="24"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="23"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="18"/>
     </row>
     <row r="49" ht="14.25" spans="1:7">
-      <c r="A49" s="21"/>
+      <c r="A49" s="7"/>
       <c r="B49" s="18"/>
       <c r="C49" s="19"/>
-      <c r="D49" s="24"/>
+      <c r="D49" s="23"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="12"/>
     </row>
     <row r="50" ht="14.25" spans="1:7">
-      <c r="A50" s="21"/>
+      <c r="A50" s="7"/>
       <c r="B50" s="18"/>
       <c r="C50" s="19"/>
-      <c r="D50" s="24"/>
+      <c r="D50" s="23"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
       <c r="G50" s="12"/>
     </row>
     <row r="51" ht="14.25" spans="1:7">
-      <c r="A51" s="21"/>
+      <c r="A51" s="7"/>
       <c r="B51" s="18"/>
       <c r="C51" s="19"/>
-      <c r="D51" s="24"/>
+      <c r="D51" s="23"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
-      <c r="G51" s="25"/>
+      <c r="G51" s="24"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="21"/>
+      <c r="A52" s="7"/>
       <c r="B52" s="18"/>
       <c r="C52" s="18"/>
       <c r="D52" s="20"/>
@@ -7695,7 +7730,7 @@
       <c r="G52" s="1"/>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="21"/>
+      <c r="A53" s="7"/>
       <c r="B53" s="18"/>
       <c r="C53" s="18"/>
       <c r="D53" s="20"/>
@@ -7704,7 +7739,7 @@
       <c r="G53" s="1"/>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="21"/>
+      <c r="A54" s="7"/>
       <c r="B54" s="18"/>
       <c r="C54" s="18"/>
       <c r="D54" s="20"/>
@@ -7713,7 +7748,7 @@
       <c r="G54" s="1"/>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="21"/>
+      <c r="A55" s="7"/>
       <c r="B55" s="18"/>
       <c r="C55" s="18"/>
       <c r="D55" s="20"/>
@@ -7722,7 +7757,7 @@
       <c r="G55" s="1"/>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="21"/>
+      <c r="A56" s="7"/>
       <c r="B56" s="18"/>
       <c r="C56" s="18"/>
       <c r="D56" s="20"/>
@@ -7731,7 +7766,7 @@
       <c r="G56" s="1"/>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="21"/>
+      <c r="A57" s="7"/>
       <c r="B57" s="18"/>
       <c r="C57" s="18"/>
       <c r="D57" s="20"/>
@@ -7740,7 +7775,7 @@
       <c r="G57" s="1"/>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="21"/>
+      <c r="A58" s="7"/>
       <c r="B58" s="18"/>
       <c r="C58" s="18"/>
       <c r="D58" s="20"/>
@@ -7749,7 +7784,7 @@
       <c r="G58" s="1"/>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="8"/>
+      <c r="A59" s="10"/>
       <c r="B59" s="18"/>
       <c r="C59" s="18"/>
       <c r="D59" s="20"/>
@@ -7758,25 +7793,25 @@
       <c r="G59" s="1"/>
     </row>
     <row r="60" ht="14.25" spans="1:7">
-      <c r="A60" s="21"/>
+      <c r="A60" s="7"/>
       <c r="B60" s="18"/>
       <c r="C60" s="19"/>
-      <c r="D60" s="24"/>
+      <c r="D60" s="23"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
       <c r="G60" s="12"/>
     </row>
     <row r="61" ht="14.25" spans="1:7">
-      <c r="A61" s="21"/>
+      <c r="A61" s="7"/>
       <c r="B61" s="18"/>
       <c r="C61" s="19"/>
-      <c r="D61" s="24"/>
+      <c r="D61" s="23"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
-      <c r="G61" s="25"/>
+      <c r="G61" s="24"/>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="21"/>
+      <c r="A62" s="7"/>
       <c r="B62" s="18"/>
       <c r="C62" s="18"/>
       <c r="D62" s="20"/>
@@ -7785,7 +7820,7 @@
       <c r="G62" s="1"/>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="21"/>
+      <c r="A63" s="7"/>
       <c r="B63" s="18"/>
       <c r="C63" s="18"/>
       <c r="D63" s="20"/>
@@ -7794,7 +7829,7 @@
       <c r="G63" s="1"/>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="21"/>
+      <c r="A64" s="7"/>
       <c r="B64" s="18"/>
       <c r="C64" s="18"/>
       <c r="D64" s="20"/>
@@ -7803,7 +7838,7 @@
       <c r="G64" s="1"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="21"/>
+      <c r="A65" s="7"/>
       <c r="B65" s="18"/>
       <c r="C65" s="18"/>
       <c r="D65" s="20"/>
@@ -7812,7 +7847,7 @@
       <c r="G65" s="1"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="21"/>
+      <c r="A66" s="7"/>
       <c r="B66" s="18"/>
       <c r="C66" s="18"/>
       <c r="D66" s="20"/>
@@ -7821,7 +7856,7 @@
       <c r="G66" s="1"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="21"/>
+      <c r="A67" s="7"/>
       <c r="B67" s="18"/>
       <c r="C67" s="18"/>
       <c r="D67" s="20"/>
@@ -7830,7 +7865,7 @@
       <c r="G67" s="1"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="21"/>
+      <c r="A68" s="7"/>
       <c r="B68" s="18"/>
       <c r="C68" s="18"/>
       <c r="D68" s="20"/>
@@ -7839,7 +7874,7 @@
       <c r="G68" s="1"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="8"/>
+      <c r="A69" s="10"/>
       <c r="B69" s="18"/>
       <c r="C69" s="18"/>
       <c r="D69" s="20"/>
@@ -7875,83 +7910,96 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15.125" style="1" customWidth="1"/>
     <col min="3" max="3" width="17" style="1" customWidth="1"/>
     <col min="4" max="4" width="48.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="45" customWidth="1"/>
+    <col min="5" max="5" width="33.75" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="14.25" spans="1:5">
+      <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="5">
+      <c r="E1" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="7">
         <v>12</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="7">
+      <c r="B2" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="8">
         <v>43084</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="9"/>
+      <c r="D2" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="10"/>
       <c r="B3" s="10"/>
       <c r="C3" s="11">
         <v>43091</v>
       </c>
-      <c r="D3" s="12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4">
+      <c r="D3" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-    </row>
-    <row r="5" spans="2:4">
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+    </row>
+    <row r="5" spans="2:5">
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
-    </row>
-    <row r="6" spans="2:4">
+      <c r="E5" s="9"/>
+    </row>
+    <row r="6" spans="2:5">
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
-    </row>
-    <row r="7" spans="2:4">
+      <c r="E6" s="9"/>
+    </row>
+    <row r="7" spans="2:5">
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
+      <c r="E7" s="9"/>
     </row>
     <row r="8" spans="2:4">
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
+      <c r="D8" s="10"/>
     </row>
     <row r="9" spans="2:4">
       <c r="B9" s="12"/>

--- a/周数据/《个人上线率统计表》-高阳.xlsx
+++ b/周数据/《个人上线率统计表》-高阳.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370"/>
+    <workbookView windowWidth="20385" windowHeight="8370" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76">
   <si>
     <t>个人上线率分析表</t>
   </si>
@@ -106,6 +106,57 @@
     <t>新老品牌</t>
   </si>
   <si>
+    <t>2018年1月2号</t>
+  </si>
+  <si>
+    <t>Saas</t>
+  </si>
+  <si>
+    <t>一台戏</t>
+  </si>
+  <si>
+    <t>南京市</t>
+  </si>
+  <si>
+    <t>南京分公司</t>
+  </si>
+  <si>
+    <t>高阳</t>
+  </si>
+  <si>
+    <t>李总</t>
+  </si>
+  <si>
+    <t>老板</t>
+  </si>
+  <si>
+    <t>新品牌</t>
+  </si>
+  <si>
+    <t>美美翰尼炸鸡店</t>
+  </si>
+  <si>
+    <t>美美翰尼</t>
+  </si>
+  <si>
+    <t>美美翰尼仙林店</t>
+  </si>
+  <si>
+    <t>李店长</t>
+  </si>
+  <si>
+    <t>店长</t>
+  </si>
+  <si>
+    <t>2018年1月4号</t>
+  </si>
+  <si>
+    <t>宁信美食联盟</t>
+  </si>
+  <si>
+    <t>孔总</t>
+  </si>
+  <si>
     <t>立项日期</t>
   </si>
   <si>
@@ -121,13 +172,22 @@
     <t>销售人员</t>
   </si>
   <si>
-    <t>宁信美食联盟</t>
+    <t>2017年12月18</t>
   </si>
   <si>
     <t>以实施，但商户未开业</t>
   </si>
   <si>
-    <t>美美翰尼炸鸡店</t>
+    <t>2017年12月23</t>
+  </si>
+  <si>
+    <t>辣么美新概念麻辣烫</t>
+  </si>
+  <si>
+    <t>未实施，等通知</t>
+  </si>
+  <si>
+    <t>小山羊羊肉汤</t>
   </si>
   <si>
     <t>姓名</t>
@@ -142,7 +202,10 @@
     <t>加班内容</t>
   </si>
   <si>
-    <t>高阳</t>
+    <t>12月</t>
+  </si>
+  <si>
+    <t>2017年12月15号</t>
   </si>
   <si>
     <t>南京市建邺区江东门西街3-11/鲜儿牛</t>
@@ -151,10 +214,37 @@
     <t>因成都分公司南京项目需要技术支持</t>
   </si>
   <si>
+    <t>2017年12月22号</t>
+  </si>
+  <si>
     <t>南京市栖霞区学衡路16号/美美翰尼炸鸡店</t>
   </si>
   <si>
     <t>美美翰尼炸鸡店实施</t>
+  </si>
+  <si>
+    <t>2017年12月30号</t>
+  </si>
+  <si>
+    <t>公司</t>
+  </si>
+  <si>
+    <t>值班</t>
+  </si>
+  <si>
+    <t>2017年12月31号</t>
+  </si>
+  <si>
+    <t>1月</t>
+  </si>
+  <si>
+    <t>2018年1月1号</t>
+  </si>
+  <si>
+    <t>南京市建邺区燕山路79-6/一台戏</t>
+  </si>
+  <si>
+    <t>开业驻店</t>
   </si>
 </sst>
 </file>
@@ -164,10 +254,10 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -184,14 +274,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -204,6 +294,12 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -592,7 +688,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -653,9 +749,7 @@
       <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -666,9 +760,7 @@
       <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -681,9 +773,7 @@
       <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -704,6 +794,19 @@
       <right style="thin">
         <color auto="1"/>
       </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom style="thin">
         <color auto="1"/>
@@ -711,16 +814,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
+      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -804,6 +907,34 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -829,22 +960,48 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
+      <right style="medium">
         <color auto="1"/>
       </right>
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="medium">
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
         <color auto="1"/>
       </right>
       <top/>
@@ -858,20 +1015,7 @@
       <right style="medium">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
+      <top style="medium">
         <color auto="1"/>
       </top>
       <bottom style="medium">
@@ -883,32 +1027,6 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="medium">
         <color auto="1"/>
       </right>
@@ -1074,10 +1192,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1086,137 +1204,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="34" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="32" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1241,103 +1359,121 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="31" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1346,76 +1482,76 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="10" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="9" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="10" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="9" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="10" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="9" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="10" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1739,8 +1875,8 @@
   <sheetPr/>
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" outlineLevelRow="7"/>
@@ -1753,282 +1889,290 @@
     <col min="7" max="7" width="15.5083333333333" style="13" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="17.875" style="13" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="17.875" style="13" customWidth="1"/>
-    <col min="10" max="10" width="17.875" style="29" customWidth="1"/>
+    <col min="10" max="10" width="17.875" style="35" customWidth="1"/>
     <col min="11" max="11" width="16" style="13" customWidth="1"/>
     <col min="12" max="12" width="17.875" style="13" customWidth="1"/>
     <col min="13" max="13" width="18.625" style="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:13">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="51"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="57"/>
     </row>
     <row r="2" ht="14.25" spans="1:13">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="35" t="s">
+      <c r="E2" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="36" t="s">
+      <c r="F2" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="36" t="s">
+      <c r="G2" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="37" t="s">
+      <c r="H2" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="52" t="s">
+      <c r="I2" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="53" t="s">
+      <c r="J2" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="54" t="s">
+      <c r="K2" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="55" t="s">
+      <c r="L2" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="56" t="s">
+      <c r="M2" s="62" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="38">
+      <c r="A3" s="44">
         <v>12</v>
       </c>
-      <c r="B3" s="39">
+      <c r="B3" s="45">
         <v>52</v>
       </c>
-      <c r="C3" s="40">
+      <c r="C3" s="46">
         <v>1</v>
       </c>
-      <c r="D3" s="41">
+      <c r="D3" s="47">
         <v>0</v>
       </c>
-      <c r="E3" s="41">
+      <c r="E3" s="47">
         <f t="shared" ref="E3:E8" si="0">C3-D3</f>
         <v>1</v>
       </c>
-      <c r="F3" s="42"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="42">
-        <f>F3-G3</f>
+      <c r="F3" s="48"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="48">
+        <f t="shared" ref="H3:H8" si="1">F3-G3</f>
         <v>0</v>
       </c>
-      <c r="I3" s="57">
+      <c r="I3" s="63">
         <v>0</v>
       </c>
-      <c r="J3" s="58" t="e">
-        <f>I3/L3*100%</f>
+      <c r="J3" s="64" t="e">
+        <f t="shared" ref="J3:J8" si="2">I3/L3*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K3" s="59">
-        <f>C3+G3</f>
+      <c r="K3" s="65">
+        <f t="shared" ref="K3:K8" si="3">C3+G3</f>
         <v>1</v>
       </c>
-      <c r="L3" s="60">
-        <f>D3+G3</f>
+      <c r="L3" s="66">
+        <f t="shared" ref="L3:L8" si="4">D3+G3</f>
         <v>0</v>
       </c>
-      <c r="M3" s="61">
-        <f>L3/K3*100%</f>
+      <c r="M3" s="67">
+        <f t="shared" ref="M3:M8" si="5">L3/K3*100%</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="38"/>
-      <c r="B4" s="39"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41">
+      <c r="A4" s="44">
+        <v>1</v>
+      </c>
+      <c r="B4" s="45">
+        <v>1</v>
+      </c>
+      <c r="C4" s="46">
+        <v>5</v>
+      </c>
+      <c r="D4" s="47">
+        <v>3</v>
+      </c>
+      <c r="E4" s="47">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F4" s="48"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I4" s="63">
+        <v>0</v>
+      </c>
+      <c r="J4" s="64">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K4" s="65">
+        <v>5</v>
+      </c>
+      <c r="L4" s="66">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="M4" s="67">
+        <f t="shared" si="5"/>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="50"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F4" s="42"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="42">
-        <f t="shared" ref="H4:H8" si="1">F4-G4</f>
+      <c r="F5" s="48"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="48">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I4" s="57"/>
-      <c r="J4" s="58" t="e">
-        <f>I4/L4*100%</f>
+      <c r="I5" s="63"/>
+      <c r="J5" s="64" t="e">
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K4" s="59">
-        <f t="shared" ref="K4:K8" si="2">C4+G4</f>
+      <c r="K5" s="65">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L4" s="60">
-        <f t="shared" ref="L4:L8" si="3">D4+G4</f>
+      <c r="L5" s="66">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M4" s="61" t="e">
-        <f t="shared" ref="M4:M8" si="4">L4/K4*100%</f>
+      <c r="M5" s="67" t="e">
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="38"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41">
+    <row r="6" spans="1:13">
+      <c r="A6" s="50"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F5" s="42"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="42">
+      <c r="F6" s="48"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I5" s="57"/>
-      <c r="J5" s="58" t="e">
-        <f t="shared" ref="J5:J8" si="5">I5/L5*100%</f>
+      <c r="I6" s="63"/>
+      <c r="J6" s="64" t="e">
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K5" s="59">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L5" s="60">
+      <c r="K6" s="65">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M5" s="61" t="e">
+      <c r="L6" s="66">
         <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M6" s="67" t="e">
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="38"/>
-      <c r="B6" s="39"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41">
+    <row r="7" spans="1:13">
+      <c r="A7" s="50"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F6" s="42"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="42">
+      <c r="F7" s="48"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I6" s="57"/>
-      <c r="J6" s="58" t="e">
+      <c r="I7" s="63"/>
+      <c r="J7" s="64" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K7" s="65">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L7" s="66">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M7" s="67" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K6" s="59">
+    </row>
+    <row r="8" ht="14.25" spans="1:13">
+      <c r="A8" s="50"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F8" s="54"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="54">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="68"/>
+      <c r="J8" s="69" t="e">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L6" s="60">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K8" s="70">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M6" s="61" t="e">
+      <c r="L8" s="71">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="38"/>
-      <c r="B7" s="39"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F7" s="42"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="42">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I7" s="57"/>
-      <c r="J7" s="58" t="e">
+      <c r="M8" s="72" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K7" s="59">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L7" s="60">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M7" s="61" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="8" ht="14.25" spans="1:13">
-      <c r="A8" s="44"/>
-      <c r="B8" s="45"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F8" s="48"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="48">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I8" s="62"/>
-      <c r="J8" s="63" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K8" s="64">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L8" s="65">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M8" s="66" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A3:A8"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2039,18 +2183,19 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O300"/>
+  <dimension ref="A1:O294"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12.8416666666667" customWidth="1"/>
-    <col min="2" max="3" width="11.4833333333333" customWidth="1"/>
-    <col min="4" max="5" width="9.73333333333333"/>
-    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="2" max="2" width="15.625" customWidth="1"/>
+    <col min="3" max="3" width="11.4833333333333" customWidth="1"/>
+    <col min="4" max="4" width="27.5" customWidth="1"/>
+    <col min="5" max="6" width="15" customWidth="1"/>
     <col min="7" max="7" width="10.2666666666667" customWidth="1"/>
     <col min="8" max="8" width="17.1583333333333" customWidth="1"/>
     <col min="9" max="9" width="9.86666666666667" customWidth="1"/>
@@ -2060,103 +2205,189 @@
     <col min="15" max="16384" width="9.73333333333333"/>
   </cols>
   <sheetData>
-    <row r="1" s="25" customFormat="1" ht="27" spans="1:15">
-      <c r="A1" s="26" t="s">
+    <row r="1" s="29" customFormat="1" ht="27" spans="1:15">
+      <c r="A1" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="28" t="s">
+      <c r="I1" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="J1" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="27" t="s">
+      <c r="K1" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="26" t="s">
+      <c r="L1" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="26" t="s">
+      <c r="M1" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="26" t="s">
+      <c r="N1" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="26" t="s">
+      <c r="O1" s="30" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="1">
+        <v>76120259</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" s="1">
+        <v>15189553449</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" s="1">
+        <v>18018066077</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="1">
+        <v>76118738</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" s="1">
+        <v>15189553449</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N3" s="1">
+        <v>13528537677</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="1">
+        <v>76112895</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" s="1">
+        <v>15189553449</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N4" s="1">
+        <v>15077880787</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1"/>
@@ -7088,120 +7319,18 @@
       <c r="N294" s="1"/>
       <c r="O294" s="1"/>
     </row>
-    <row r="295" spans="1:15">
-      <c r="A295" s="1"/>
-      <c r="B295" s="1"/>
-      <c r="C295" s="1"/>
-      <c r="D295" s="1"/>
-      <c r="E295" s="1"/>
-      <c r="F295" s="1"/>
-      <c r="G295" s="1"/>
-      <c r="H295" s="1"/>
-      <c r="I295" s="1"/>
-      <c r="J295" s="1"/>
-      <c r="K295" s="1"/>
-      <c r="L295" s="1"/>
-      <c r="M295" s="1"/>
-      <c r="N295" s="1"/>
-      <c r="O295" s="1"/>
-    </row>
-    <row r="296" spans="1:15">
-      <c r="A296" s="1"/>
-      <c r="B296" s="1"/>
-      <c r="C296" s="1"/>
-      <c r="D296" s="1"/>
-      <c r="E296" s="1"/>
-      <c r="F296" s="1"/>
-      <c r="G296" s="1"/>
-      <c r="H296" s="1"/>
-      <c r="I296" s="1"/>
-      <c r="J296" s="1"/>
-      <c r="K296" s="1"/>
-      <c r="L296" s="1"/>
-      <c r="M296" s="1"/>
-      <c r="N296" s="1"/>
-      <c r="O296" s="1"/>
-    </row>
-    <row r="297" spans="1:15">
-      <c r="A297" s="1"/>
-      <c r="B297" s="1"/>
-      <c r="C297" s="1"/>
-      <c r="D297" s="1"/>
-      <c r="E297" s="1"/>
-      <c r="F297" s="1"/>
-      <c r="G297" s="1"/>
-      <c r="H297" s="1"/>
-      <c r="I297" s="1"/>
-      <c r="J297" s="1"/>
-      <c r="K297" s="1"/>
-      <c r="L297" s="1"/>
-      <c r="M297" s="1"/>
-      <c r="N297" s="1"/>
-      <c r="O297" s="1"/>
-    </row>
-    <row r="298" spans="1:15">
-      <c r="A298" s="1"/>
-      <c r="B298" s="1"/>
-      <c r="C298" s="1"/>
-      <c r="D298" s="1"/>
-      <c r="E298" s="1"/>
-      <c r="F298" s="1"/>
-      <c r="G298" s="1"/>
-      <c r="H298" s="1"/>
-      <c r="I298" s="1"/>
-      <c r="J298" s="1"/>
-      <c r="K298" s="1"/>
-      <c r="L298" s="1"/>
-      <c r="M298" s="1"/>
-      <c r="N298" s="1"/>
-      <c r="O298" s="1"/>
-    </row>
-    <row r="299" spans="1:15">
-      <c r="A299" s="1"/>
-      <c r="B299" s="1"/>
-      <c r="C299" s="1"/>
-      <c r="D299" s="1"/>
-      <c r="E299" s="1"/>
-      <c r="F299" s="1"/>
-      <c r="G299" s="1"/>
-      <c r="H299" s="1"/>
-      <c r="I299" s="1"/>
-      <c r="J299" s="1"/>
-      <c r="K299" s="1"/>
-      <c r="L299" s="1"/>
-      <c r="M299" s="1"/>
-      <c r="N299" s="1"/>
-      <c r="O299" s="1"/>
-    </row>
-    <row r="300" spans="1:15">
-      <c r="A300" s="1"/>
-      <c r="B300" s="1"/>
-      <c r="C300" s="1"/>
-      <c r="D300" s="1"/>
-      <c r="E300" s="1"/>
-      <c r="F300" s="1"/>
-      <c r="G300" s="1"/>
-      <c r="H300" s="1"/>
-      <c r="I300" s="1"/>
-      <c r="J300" s="1"/>
-      <c r="K300" s="1"/>
-      <c r="L300" s="1"/>
-      <c r="M300" s="1"/>
-      <c r="N300" s="1"/>
-      <c r="O300" s="1"/>
-    </row>
   </sheetData>
-  <dataValidations count="4">
+  <mergeCells count="1">
+    <mergeCell ref="A2:A4"/>
+  </mergeCells>
+  <dataValidations count="3">
     <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1">
       <formula1>42736</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
       <formula1>"SaaS,库存,供应链,饮食通,饮食通老客户上线"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576">
-      <formula1>"单店,小连锁,KA项目"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O4 O5:O1048576">
       <formula1>"新品牌,老品牌"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7214,68 +7343,68 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G69"/>
+  <dimension ref="A1:G57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A5"/>
+      <selection activeCell="C8" sqref="C8:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="8.625" style="13"/>
-    <col min="2" max="2" width="15.625" customWidth="1"/>
-    <col min="3" max="3" width="12.75" customWidth="1"/>
-    <col min="4" max="4" width="35.25" style="14" customWidth="1"/>
+    <col min="2" max="2" width="17.25" customWidth="1"/>
+    <col min="3" max="3" width="19.125" style="14" customWidth="1"/>
+    <col min="4" max="4" width="35.25" style="15" customWidth="1"/>
     <col min="5" max="5" width="13.5083333333333" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="11.375" customWidth="1"/>
+    <col min="7" max="7" width="11.375" style="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>33</v>
+      <c r="C1" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="17">
+      <c r="A2" s="8">
         <v>51</v>
       </c>
-      <c r="B2" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="19">
-        <v>43087</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>35</v>
+      <c r="B2" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>52</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="7"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="20"/>
+      <c r="A3" s="12"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="21"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -7284,14 +7413,14 @@
       <c r="A4" s="7">
         <v>52</v>
       </c>
-      <c r="B4" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="19">
-        <v>43092</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>35</v>
+      <c r="B4" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>52</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -7299,605 +7428,461 @@
     </row>
     <row r="5" ht="14.25" spans="1:7">
       <c r="A5" s="7"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="23"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="25"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="21"/>
-    </row>
-    <row r="6" ht="14.25" spans="1:7">
-      <c r="A6" s="17"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="23"/>
+      <c r="G5" s="23"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="8">
+        <v>1</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="14">
+        <v>43098</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>55</v>
+      </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="21"/>
+      <c r="G6" s="26"/>
     </row>
     <row r="7" ht="14.25" spans="1:7">
       <c r="A7" s="7"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="23"/>
+      <c r="B7" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="14">
+        <v>43102</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>52</v>
+      </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="18"/>
+      <c r="G7" s="22"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="7"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="20"/>
+      <c r="B8" s="22"/>
+      <c r="D8" s="21"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="7"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="20"/>
+      <c r="G8" s="27"/>
+    </row>
+    <row r="9" ht="14.25" spans="1:7">
+      <c r="A9" s="8"/>
+      <c r="B9" s="22"/>
+      <c r="D9" s="25"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="G9" s="22"/>
+    </row>
+    <row r="10" ht="14.25" spans="1:7">
       <c r="A10" s="7"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="20"/>
+      <c r="B10" s="22"/>
+      <c r="D10" s="25"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="G10" s="28"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="7"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="20"/>
+      <c r="B11" s="22"/>
+      <c r="D11" s="21"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="G11" s="27"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="7"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="20"/>
+      <c r="B12" s="22"/>
+      <c r="D12" s="21"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="G12" s="27"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="7"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="20"/>
+      <c r="B13" s="22"/>
+      <c r="D13" s="21"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+      <c r="G13" s="27"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="7"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="20"/>
+      <c r="B14" s="22"/>
+      <c r="D14" s="21"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
+      <c r="G14" s="27"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="7"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="20"/>
+      <c r="B15" s="22"/>
+      <c r="D15" s="21"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
+      <c r="G15" s="27"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="7"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="20"/>
+      <c r="B16" s="22"/>
+      <c r="D16" s="21"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+      <c r="G16" s="27"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="7"/>
       <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="20"/>
+      <c r="D17" s="21"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
+      <c r="G17" s="27"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="7"/>
       <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="20"/>
+      <c r="D18" s="21"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
+      <c r="G18" s="27"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="7"/>
       <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="20"/>
+      <c r="D19" s="21"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
+      <c r="G19" s="27"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="10"/>
+      <c r="A20" s="7"/>
       <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="20"/>
+      <c r="D20" s="21"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" ht="14.25" spans="1:7">
-      <c r="A21" s="17"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="23"/>
+      <c r="G20" s="27"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="7"/>
+      <c r="B21" s="1"/>
+      <c r="D21" s="21"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
-      <c r="G21" s="18"/>
-    </row>
-    <row r="22" ht="14.25" spans="1:7">
+      <c r="G21" s="27"/>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="7"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="23"/>
+      <c r="B22" s="1"/>
+      <c r="D22" s="21"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-      <c r="G22" s="12"/>
+      <c r="G22" s="27"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="7"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="20"/>
+      <c r="A23" s="12"/>
+      <c r="B23" s="22"/>
+      <c r="D23" s="21"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="7"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="20"/>
+      <c r="G23" s="27"/>
+    </row>
+    <row r="24" ht="14.25" spans="1:7">
+      <c r="A24" s="8"/>
+      <c r="B24" s="22"/>
+      <c r="D24" s="25"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="G24" s="22"/>
+    </row>
+    <row r="25" ht="14.25" spans="1:7">
       <c r="A25" s="7"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="20"/>
+      <c r="B25" s="22"/>
+      <c r="D25" s="25"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="G25" s="28"/>
+    </row>
+    <row r="26" ht="14.25" spans="1:7">
       <c r="A26" s="7"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="20"/>
+      <c r="B26" s="22"/>
+      <c r="D26" s="25"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="G26" s="28"/>
+    </row>
+    <row r="27" ht="14.25" spans="1:7">
       <c r="A27" s="7"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="20"/>
+      <c r="B27" s="22"/>
+      <c r="D27" s="25"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
+      <c r="G27" s="28"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="7"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="20"/>
+      <c r="B28" s="22"/>
+      <c r="D28" s="21"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
+      <c r="G28" s="27"/>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="7"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="20"/>
+      <c r="B29" s="22"/>
+      <c r="D29" s="21"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
+      <c r="G29" s="27"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="7"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="20"/>
+      <c r="B30" s="22"/>
+      <c r="D30" s="21"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
+      <c r="G30" s="27"/>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="7"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="20"/>
+      <c r="B31" s="22"/>
+      <c r="D31" s="21"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
+      <c r="G31" s="27"/>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="7"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="20"/>
+      <c r="B32" s="22"/>
+      <c r="D32" s="21"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
+      <c r="G32" s="27"/>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="7"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="20"/>
+      <c r="B33" s="22"/>
+      <c r="D33" s="21"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
+      <c r="G33" s="27"/>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="7"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="20"/>
+      <c r="B34" s="22"/>
+      <c r="D34" s="21"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
+      <c r="G34" s="27"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="10"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="20"/>
+      <c r="A35" s="12"/>
+      <c r="B35" s="22"/>
+      <c r="D35" s="21"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
+      <c r="G35" s="27"/>
     </row>
     <row r="36" ht="14.25" spans="1:7">
-      <c r="A36" s="17"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="23"/>
+      <c r="A36" s="8"/>
+      <c r="B36" s="22"/>
+      <c r="D36" s="25"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
-      <c r="G36" s="18"/>
+      <c r="G36" s="22"/>
     </row>
     <row r="37" ht="14.25" spans="1:7">
       <c r="A37" s="7"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="23"/>
+      <c r="B37" s="22"/>
+      <c r="D37" s="25"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
-      <c r="G37" s="12"/>
+      <c r="G37" s="28"/>
     </row>
     <row r="38" ht="14.25" spans="1:7">
       <c r="A38" s="7"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="23"/>
+      <c r="B38" s="22"/>
+      <c r="D38" s="25"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
-      <c r="G38" s="12"/>
+      <c r="G38" s="28"/>
     </row>
     <row r="39" ht="14.25" spans="1:7">
       <c r="A39" s="7"/>
-      <c r="B39" s="18"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="23"/>
+      <c r="B39" s="22"/>
+      <c r="D39" s="25"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
-      <c r="G39" s="24"/>
+      <c r="G39" s="28"/>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="7"/>
-      <c r="B40" s="18"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="20"/>
+      <c r="B40" s="22"/>
+      <c r="D40" s="21"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
+      <c r="G40" s="27"/>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="7"/>
-      <c r="B41" s="18"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="20"/>
+      <c r="B41" s="22"/>
+      <c r="D41" s="21"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
+      <c r="G41" s="27"/>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="7"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="20"/>
+      <c r="B42" s="22"/>
+      <c r="D42" s="21"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
+      <c r="G42" s="27"/>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="7"/>
-      <c r="B43" s="18"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="20"/>
+      <c r="B43" s="22"/>
+      <c r="D43" s="21"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
+      <c r="G43" s="27"/>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="7"/>
-      <c r="B44" s="18"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="20"/>
+      <c r="B44" s="22"/>
+      <c r="D44" s="21"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
+      <c r="G44" s="27"/>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="7"/>
-      <c r="B45" s="18"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="20"/>
+      <c r="B45" s="22"/>
+      <c r="D45" s="21"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
+      <c r="G45" s="27"/>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="7"/>
-      <c r="B46" s="18"/>
-      <c r="C46" s="18"/>
-      <c r="D46" s="20"/>
+      <c r="B46" s="22"/>
+      <c r="D46" s="21"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
+      <c r="G46" s="27"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="10"/>
-      <c r="B47" s="18"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="20"/>
+      <c r="A47" s="12"/>
+      <c r="B47" s="22"/>
+      <c r="D47" s="21"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
+      <c r="G47" s="27"/>
     </row>
     <row r="48" ht="14.25" spans="1:7">
-      <c r="A48" s="17"/>
-      <c r="B48" s="18"/>
-      <c r="C48" s="22"/>
-      <c r="D48" s="23"/>
+      <c r="A48" s="7"/>
+      <c r="B48" s="22"/>
+      <c r="D48" s="25"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
-      <c r="G48" s="18"/>
+      <c r="G48" s="28"/>
     </row>
     <row r="49" ht="14.25" spans="1:7">
       <c r="A49" s="7"/>
-      <c r="B49" s="18"/>
-      <c r="C49" s="19"/>
-      <c r="D49" s="23"/>
+      <c r="B49" s="22"/>
+      <c r="D49" s="25"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
-      <c r="G49" s="12"/>
-    </row>
-    <row r="50" ht="14.25" spans="1:7">
+      <c r="G49" s="28"/>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="7"/>
-      <c r="B50" s="18"/>
-      <c r="C50" s="19"/>
-      <c r="D50" s="23"/>
+      <c r="B50" s="22"/>
+      <c r="D50" s="21"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
-      <c r="G50" s="12"/>
-    </row>
-    <row r="51" ht="14.25" spans="1:7">
+      <c r="G50" s="27"/>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="7"/>
-      <c r="B51" s="18"/>
-      <c r="C51" s="19"/>
-      <c r="D51" s="23"/>
+      <c r="B51" s="22"/>
+      <c r="D51" s="21"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
-      <c r="G51" s="24"/>
+      <c r="G51" s="27"/>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="7"/>
-      <c r="B52" s="18"/>
-      <c r="C52" s="18"/>
-      <c r="D52" s="20"/>
+      <c r="B52" s="22"/>
+      <c r="D52" s="21"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
+      <c r="G52" s="27"/>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="7"/>
-      <c r="B53" s="18"/>
-      <c r="C53" s="18"/>
-      <c r="D53" s="20"/>
+      <c r="B53" s="22"/>
+      <c r="D53" s="21"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
+      <c r="G53" s="27"/>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="7"/>
-      <c r="B54" s="18"/>
-      <c r="C54" s="18"/>
-      <c r="D54" s="20"/>
+      <c r="B54" s="22"/>
+      <c r="D54" s="21"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
+      <c r="G54" s="27"/>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="7"/>
-      <c r="B55" s="18"/>
-      <c r="C55" s="18"/>
-      <c r="D55" s="20"/>
+      <c r="B55" s="22"/>
+      <c r="D55" s="21"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
+      <c r="G55" s="27"/>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="7"/>
-      <c r="B56" s="18"/>
-      <c r="C56" s="18"/>
-      <c r="D56" s="20"/>
+      <c r="B56" s="22"/>
+      <c r="D56" s="21"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
+      <c r="G56" s="27"/>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="7"/>
-      <c r="B57" s="18"/>
-      <c r="C57" s="18"/>
-      <c r="D57" s="20"/>
+      <c r="A57" s="12"/>
+      <c r="B57" s="22"/>
+      <c r="D57" s="21"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
-    </row>
-    <row r="58" spans="1:7">
-      <c r="A58" s="7"/>
-      <c r="B58" s="18"/>
-      <c r="C58" s="18"/>
-      <c r="D58" s="20"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
-    </row>
-    <row r="59" spans="1:7">
-      <c r="A59" s="10"/>
-      <c r="B59" s="18"/>
-      <c r="C59" s="18"/>
-      <c r="D59" s="20"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
-    </row>
-    <row r="60" ht="14.25" spans="1:7">
-      <c r="A60" s="7"/>
-      <c r="B60" s="18"/>
-      <c r="C60" s="19"/>
-      <c r="D60" s="23"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
-      <c r="G60" s="12"/>
-    </row>
-    <row r="61" ht="14.25" spans="1:7">
-      <c r="A61" s="7"/>
-      <c r="B61" s="18"/>
-      <c r="C61" s="19"/>
-      <c r="D61" s="23"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
-      <c r="G61" s="24"/>
-    </row>
-    <row r="62" spans="1:7">
-      <c r="A62" s="7"/>
-      <c r="B62" s="18"/>
-      <c r="C62" s="18"/>
-      <c r="D62" s="20"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
-    </row>
-    <row r="63" spans="1:7">
-      <c r="A63" s="7"/>
-      <c r="B63" s="18"/>
-      <c r="C63" s="18"/>
-      <c r="D63" s="20"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
-    </row>
-    <row r="64" spans="1:7">
-      <c r="A64" s="7"/>
-      <c r="B64" s="18"/>
-      <c r="C64" s="18"/>
-      <c r="D64" s="20"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
-      <c r="G64" s="1"/>
-    </row>
-    <row r="65" spans="1:7">
-      <c r="A65" s="7"/>
-      <c r="B65" s="18"/>
-      <c r="C65" s="18"/>
-      <c r="D65" s="20"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
-      <c r="G65" s="1"/>
-    </row>
-    <row r="66" spans="1:7">
-      <c r="A66" s="7"/>
-      <c r="B66" s="18"/>
-      <c r="C66" s="18"/>
-      <c r="D66" s="20"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
-      <c r="G66" s="1"/>
-    </row>
-    <row r="67" spans="1:7">
-      <c r="A67" s="7"/>
-      <c r="B67" s="18"/>
-      <c r="C67" s="18"/>
-      <c r="D67" s="20"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
-      <c r="G67" s="1"/>
-    </row>
-    <row r="68" spans="1:7">
-      <c r="A68" s="7"/>
-      <c r="B68" s="18"/>
-      <c r="C68" s="18"/>
-      <c r="D68" s="20"/>
-      <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
-      <c r="G68" s="1"/>
-    </row>
-    <row r="69" spans="1:7">
-      <c r="A69" s="10"/>
-      <c r="B69" s="18"/>
-      <c r="C69" s="18"/>
-      <c r="D69" s="20"/>
-      <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
-      <c r="G69" s="1"/>
+      <c r="G57" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A20"/>
-    <mergeCell ref="A21:A35"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A23"/>
+    <mergeCell ref="A24:A35"/>
     <mergeCell ref="A36:A47"/>
-    <mergeCell ref="A48:A59"/>
-    <mergeCell ref="A60:A69"/>
+    <mergeCell ref="A48:A57"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4 E5 E2:E3 E6:E1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4 E5 E2:E3 E6:E8 E9:E1048576">
       <formula1>"单店,连锁,KA,供应链"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="saas" sqref="F4 F5 F2:F3 F6:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="saas" sqref="F4 F5 F2:F3 F6:F8 F9:F1048576">
       <formula1>"SAAS,供应链,SAAS+微信,SAAS+供应链,SAAS+微信+供应链"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7910,10 +7895,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -7921,8 +7906,8 @@
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15.125" style="1" customWidth="1"/>
     <col min="3" max="3" width="17" style="1" customWidth="1"/>
-    <col min="4" max="4" width="48.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="33.75" style="2" customWidth="1"/>
+    <col min="4" max="4" width="33.75" style="2" customWidth="1"/>
+    <col min="5" max="5" width="65" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" spans="1:5">
@@ -7930,101 +7915,120 @@
         <v>1</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="7">
-        <v>12</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="8">
-        <v>43084</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>42</v>
+      <c r="A2" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>63</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="11">
-        <v>43091</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5">
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-    </row>
-    <row r="5" spans="2:5">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="12"/>
       <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="9"/>
-    </row>
-    <row r="6" spans="2:5">
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="9"/>
+      <c r="C5" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="7" spans="2:5">
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="9"/>
-    </row>
-    <row r="8" spans="2:4">
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="10"/>
-    </row>
-    <row r="9" spans="2:4">
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-    </row>
-    <row r="10" spans="2:4">
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-    </row>
-    <row r="11" spans="2:4">
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-    </row>
-    <row r="12" spans="2:4">
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="E7" s="10"/>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="E8" s="10"/>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="E9" s="10"/>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="E10" s="10"/>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="E11" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="203" verticalDpi="203"/>

--- a/周数据/《个人上线率统计表》-高阳.xlsx
+++ b/周数据/《个人上线率统计表》-高阳.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370" activeTab="3"/>
+    <workbookView windowWidth="20385" windowHeight="8370" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76">
   <si>
     <t>个人上线率分析表</t>
   </si>
@@ -106,16 +106,13 @@
     <t>新老品牌</t>
   </si>
   <si>
-    <t>2017年12月15号</t>
+    <t>2018年1月2号</t>
   </si>
   <si>
     <t>Saas</t>
   </si>
   <si>
-    <t>来福家大食堂</t>
-  </si>
-  <si>
-    <t>来福客中式快餐</t>
+    <t>一台戏</t>
   </si>
   <si>
     <t>南京市</t>
@@ -124,10 +121,10 @@
     <t>南京分公司</t>
   </si>
   <si>
-    <t>陈乾维</t>
+    <t>高阳</t>
   </si>
   <si>
-    <t>马总</t>
+    <t>李总</t>
   </si>
   <si>
     <t>老板</t>
@@ -136,37 +133,28 @@
     <t>新品牌</t>
   </si>
   <si>
-    <t>2017年12月17号</t>
+    <t>美美翰尼炸鸡店</t>
   </si>
   <si>
-    <t>南京鱼百吃餐饮管理有限公司</t>
+    <t>美美翰尼</t>
   </si>
   <si>
-    <t>渝遇鱼</t>
+    <t>美美翰尼仙林店</t>
   </si>
   <si>
-    <t>许总</t>
+    <t>李店长</t>
   </si>
   <si>
-    <t>2017年12月23号</t>
+    <t>店长</t>
   </si>
   <si>
-    <t>茶阡陌</t>
+    <t>2018年1月4号</t>
   </si>
   <si>
-    <t>南京茶阡陌</t>
+    <t>宁信美食联盟</t>
   </si>
   <si>
-    <t>茶阡陌沃尔玛店</t>
-  </si>
-  <si>
-    <t>张总</t>
-  </si>
-  <si>
-    <t>广东猪肚鸡</t>
-  </si>
-  <si>
-    <t>邹总</t>
+    <t>孔总</t>
   </si>
   <si>
     <t>立项日期</t>
@@ -184,13 +172,22 @@
     <t>销售人员</t>
   </si>
   <si>
-    <t>宁信美食联盟</t>
+    <t>2017年12月18</t>
   </si>
   <si>
     <t>以实施，但商户未开业</t>
   </si>
   <si>
-    <t>美美翰尼炸鸡店</t>
+    <t>2017年12月23</t>
+  </si>
+  <si>
+    <t>辣么美新概念麻辣烫</t>
+  </si>
+  <si>
+    <t>未实施，等通知</t>
+  </si>
+  <si>
+    <t>小山羊羊肉汤</t>
   </si>
   <si>
     <t>姓名</t>
@@ -205,7 +202,10 @@
     <t>加班内容</t>
   </si>
   <si>
-    <t>高阳</t>
+    <t>12月</t>
+  </si>
+  <si>
+    <t>2017年12月15号</t>
   </si>
   <si>
     <t>南京市建邺区江东门西街3-11/鲜儿牛</t>
@@ -214,10 +214,37 @@
     <t>因成都分公司南京项目需要技术支持</t>
   </si>
   <si>
+    <t>2017年12月22号</t>
+  </si>
+  <si>
     <t>南京市栖霞区学衡路16号/美美翰尼炸鸡店</t>
   </si>
   <si>
     <t>美美翰尼炸鸡店实施</t>
+  </si>
+  <si>
+    <t>2017年12月30号</t>
+  </si>
+  <si>
+    <t>公司</t>
+  </si>
+  <si>
+    <t>值班</t>
+  </si>
+  <si>
+    <t>2017年12月31号</t>
+  </si>
+  <si>
+    <t>1月</t>
+  </si>
+  <si>
+    <t>2018年1月1号</t>
+  </si>
+  <si>
+    <t>南京市建邺区燕山路79-6/一台戏</t>
+  </si>
+  <si>
+    <t>开业驻店</t>
   </si>
 </sst>
 </file>
@@ -227,8 +254,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -661,7 +688,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -722,9 +749,7 @@
       <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -735,9 +760,7 @@
       <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -750,9 +773,7 @@
       <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -773,10 +794,10 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -786,10 +807,10 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -886,6 +907,34 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -963,6 +1012,21 @@
     </border>
     <border>
       <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right style="medium">
         <color auto="1"/>
       </right>
@@ -1131,7 +1195,7 @@
     <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1161,7 +1225,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="31" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="34" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1179,28 +1243,28 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1209,10 +1273,10 @@
     <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1270,7 +1334,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1295,19 +1359,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1328,9 +1392,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1373,21 +1434,12 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1406,19 +1458,19 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1430,31 +1482,34 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1463,40 +1518,40 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="10" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="9" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="9" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="10" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="9" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="10" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="9" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="10" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="10" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1821,7 +1876,7 @@
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" outlineLevelRow="7"/>
@@ -1834,282 +1889,290 @@
     <col min="7" max="7" width="15.5083333333333" style="13" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="17.875" style="13" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="17.875" style="13" customWidth="1"/>
-    <col min="10" max="10" width="17.875" style="39" customWidth="1"/>
+    <col min="10" max="10" width="17.875" style="35" customWidth="1"/>
     <col min="11" max="11" width="16" style="13" customWidth="1"/>
     <col min="12" max="12" width="17.875" style="13" customWidth="1"/>
     <col min="13" max="13" width="18.625" style="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:13">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="60"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="57"/>
     </row>
     <row r="2" ht="14.25" spans="1:13">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="45" t="s">
+      <c r="D2" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="45" t="s">
+      <c r="E2" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="46" t="s">
+      <c r="F2" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="46" t="s">
+      <c r="G2" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="47" t="s">
+      <c r="H2" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="61" t="s">
+      <c r="I2" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="62" t="s">
+      <c r="J2" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="63" t="s">
+      <c r="K2" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="64" t="s">
+      <c r="L2" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="65" t="s">
+      <c r="M2" s="62" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="48">
+      <c r="A3" s="44">
         <v>12</v>
       </c>
-      <c r="B3" s="49">
+      <c r="B3" s="45">
         <v>52</v>
       </c>
-      <c r="C3" s="50">
+      <c r="C3" s="46">
         <v>1</v>
       </c>
-      <c r="D3" s="51">
+      <c r="D3" s="47">
         <v>0</v>
       </c>
-      <c r="E3" s="51">
+      <c r="E3" s="47">
         <f t="shared" ref="E3:E8" si="0">C3-D3</f>
         <v>1</v>
       </c>
-      <c r="F3" s="52"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="52">
+      <c r="F3" s="48"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="48">
         <f t="shared" ref="H3:H8" si="1">F3-G3</f>
         <v>0</v>
       </c>
-      <c r="I3" s="66">
+      <c r="I3" s="63">
         <v>0</v>
       </c>
-      <c r="J3" s="67" t="e">
+      <c r="J3" s="64" t="e">
         <f t="shared" ref="J3:J8" si="2">I3/L3*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K3" s="68">
+      <c r="K3" s="65">
         <f t="shared" ref="K3:K8" si="3">C3+G3</f>
         <v>1</v>
       </c>
-      <c r="L3" s="69">
+      <c r="L3" s="66">
         <f t="shared" ref="L3:L8" si="4">D3+G3</f>
         <v>0</v>
       </c>
-      <c r="M3" s="70">
+      <c r="M3" s="67">
         <f t="shared" ref="M3:M8" si="5">L3/K3*100%</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="48"/>
-      <c r="B4" s="49"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51">
+      <c r="A4" s="44">
+        <v>1</v>
+      </c>
+      <c r="B4" s="45">
+        <v>1</v>
+      </c>
+      <c r="C4" s="46">
+        <v>5</v>
+      </c>
+      <c r="D4" s="47">
+        <v>3</v>
+      </c>
+      <c r="E4" s="47">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F4" s="48"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I4" s="63">
+        <v>0</v>
+      </c>
+      <c r="J4" s="64">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K4" s="65">
+        <v>5</v>
+      </c>
+      <c r="L4" s="66">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="M4" s="67">
+        <f t="shared" si="5"/>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="50"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F4" s="52"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="52">
+      <c r="F5" s="48"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I4" s="66"/>
-      <c r="J4" s="67" t="e">
+      <c r="I5" s="63"/>
+      <c r="J5" s="64" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K4" s="68">
+      <c r="K5" s="65">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L4" s="69">
+      <c r="L5" s="66">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M4" s="70" t="e">
+      <c r="M5" s="67" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="48"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51">
+    <row r="6" spans="1:13">
+      <c r="A6" s="50"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F5" s="52"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="52">
+      <c r="F6" s="48"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I5" s="66"/>
-      <c r="J5" s="67" t="e">
+      <c r="I6" s="63"/>
+      <c r="J6" s="64" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K5" s="68">
+      <c r="K6" s="65">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L5" s="69">
+      <c r="L6" s="66">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M5" s="70" t="e">
+      <c r="M6" s="67" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="48"/>
-      <c r="B6" s="49"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51">
+    <row r="7" spans="1:13">
+      <c r="A7" s="50"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F6" s="52"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="52">
+      <c r="F7" s="48"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I6" s="66"/>
-      <c r="J6" s="67" t="e">
+      <c r="I7" s="63"/>
+      <c r="J7" s="64" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K6" s="68">
+      <c r="K7" s="65">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L6" s="69">
+      <c r="L7" s="66">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M6" s="70" t="e">
+      <c r="M7" s="67" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="48"/>
-      <c r="B7" s="49"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51">
+    <row r="8" ht="14.25" spans="1:13">
+      <c r="A8" s="50"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F7" s="52"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="52">
+      <c r="F8" s="54"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I7" s="66"/>
-      <c r="J7" s="67" t="e">
+      <c r="I8" s="68"/>
+      <c r="J8" s="69" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K7" s="68">
+      <c r="K8" s="70">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L7" s="69">
+      <c r="L8" s="71">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M7" s="70" t="e">
+      <c r="M8" s="72" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" ht="14.25" spans="1:13">
-      <c r="A8" s="48"/>
-      <c r="B8" s="54"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F8" s="57"/>
-      <c r="G8" s="58"/>
-      <c r="H8" s="57">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I8" s="71"/>
-      <c r="J8" s="72" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K8" s="73">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L8" s="74">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M8" s="75" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A3:A8"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2120,10 +2183,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O299"/>
+  <dimension ref="A1:O294"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:K5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
@@ -2142,58 +2205,58 @@
     <col min="15" max="16384" width="9.73333333333333"/>
   </cols>
   <sheetData>
-    <row r="1" s="30" customFormat="1" ht="27" spans="1:15">
-      <c r="A1" s="31" t="s">
+    <row r="1" s="29" customFormat="1" ht="27" spans="1:15">
+      <c r="A1" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="32" t="s">
+      <c r="G1" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="33" t="s">
+      <c r="H1" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="36" t="s">
+      <c r="I1" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="32" t="s">
+      <c r="J1" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="32" t="s">
+      <c r="K1" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="31" t="s">
+      <c r="L1" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="31" t="s">
+      <c r="M1" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="31" t="s">
+      <c r="N1" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="31" t="s">
+      <c r="O1" s="30" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="19">
-        <v>51</v>
-      </c>
-      <c r="B2" s="34" t="s">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="33" t="s">
         <v>29</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -2203,89 +2266,87 @@
         <v>31</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="G2" s="1">
-        <v>76116790</v>
+        <v>76120259</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>31</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1">
+        <v>15189553449</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="K2" s="1">
-        <v>17551039639</v>
-      </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1">
+        <v>18018066077</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="N2" s="37">
-        <v>13851823460</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>38</v>
-      </c>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="10"/>
-      <c r="B3" s="34" t="s">
-        <v>39</v>
+      <c r="A3" s="7"/>
+      <c r="B3" s="33" t="s">
+        <v>29</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="1">
+        <v>76118738</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="I3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" s="1">
+        <v>15189553449</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" s="1">
-        <v>76108278</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K3" s="1">
-        <v>17551039639</v>
-      </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1">
+        <v>13528537677</v>
+      </c>
+      <c r="O3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="N3" s="38">
-        <v>18510837875</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>38</v>
-      </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="7">
-        <v>52</v>
-      </c>
-      <c r="B4" s="35" t="s">
+      <c r="A4" s="12"/>
+      <c r="B4" s="33" t="s">
         <v>43</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -2295,83 +2356,55 @@
         <v>44</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="1">
+        <v>76112895</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" s="1">
+        <v>15189553449</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" s="1">
-        <v>76112662</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K4" s="1">
-        <v>17551039639</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="M4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N4" s="1">
+        <v>15077880787</v>
+      </c>
+      <c r="O4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="N4" s="1">
-        <v>18260050589</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>38</v>
-      </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="10"/>
-      <c r="B5" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" s="1">
-        <v>76117065</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K5" s="1">
-        <v>17551039639</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="N5" s="1">
-        <v>18726666788</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1"/>
@@ -7286,95 +7319,9 @@
       <c r="N294" s="1"/>
       <c r="O294" s="1"/>
     </row>
-    <row r="295" spans="1:15">
-      <c r="A295" s="1"/>
-      <c r="B295" s="1"/>
-      <c r="C295" s="1"/>
-      <c r="D295" s="1"/>
-      <c r="E295" s="1"/>
-      <c r="F295" s="1"/>
-      <c r="G295" s="1"/>
-      <c r="H295" s="1"/>
-      <c r="I295" s="1"/>
-      <c r="J295" s="1"/>
-      <c r="K295" s="1"/>
-      <c r="L295" s="1"/>
-      <c r="M295" s="1"/>
-      <c r="N295" s="1"/>
-      <c r="O295" s="1"/>
-    </row>
-    <row r="296" spans="1:15">
-      <c r="A296" s="1"/>
-      <c r="B296" s="1"/>
-      <c r="C296" s="1"/>
-      <c r="D296" s="1"/>
-      <c r="E296" s="1"/>
-      <c r="F296" s="1"/>
-      <c r="G296" s="1"/>
-      <c r="H296" s="1"/>
-      <c r="I296" s="1"/>
-      <c r="J296" s="1"/>
-      <c r="K296" s="1"/>
-      <c r="L296" s="1"/>
-      <c r="M296" s="1"/>
-      <c r="N296" s="1"/>
-      <c r="O296" s="1"/>
-    </row>
-    <row r="297" spans="1:15">
-      <c r="A297" s="1"/>
-      <c r="B297" s="1"/>
-      <c r="C297" s="1"/>
-      <c r="D297" s="1"/>
-      <c r="E297" s="1"/>
-      <c r="F297" s="1"/>
-      <c r="G297" s="1"/>
-      <c r="H297" s="1"/>
-      <c r="I297" s="1"/>
-      <c r="J297" s="1"/>
-      <c r="K297" s="1"/>
-      <c r="L297" s="1"/>
-      <c r="M297" s="1"/>
-      <c r="N297" s="1"/>
-      <c r="O297" s="1"/>
-    </row>
-    <row r="298" spans="1:15">
-      <c r="A298" s="1"/>
-      <c r="B298" s="1"/>
-      <c r="C298" s="1"/>
-      <c r="D298" s="1"/>
-      <c r="E298" s="1"/>
-      <c r="F298" s="1"/>
-      <c r="G298" s="1"/>
-      <c r="H298" s="1"/>
-      <c r="I298" s="1"/>
-      <c r="J298" s="1"/>
-      <c r="K298" s="1"/>
-      <c r="L298" s="1"/>
-      <c r="M298" s="1"/>
-      <c r="N298" s="1"/>
-      <c r="O298" s="1"/>
-    </row>
-    <row r="299" spans="1:15">
-      <c r="A299" s="1"/>
-      <c r="B299" s="1"/>
-      <c r="C299" s="1"/>
-      <c r="D299" s="1"/>
-      <c r="E299" s="1"/>
-      <c r="F299" s="1"/>
-      <c r="G299" s="1"/>
-      <c r="H299" s="1"/>
-      <c r="I299" s="1"/>
-      <c r="J299" s="1"/>
-      <c r="K299" s="1"/>
-      <c r="L299" s="1"/>
-      <c r="M299" s="1"/>
-      <c r="N299" s="1"/>
-      <c r="O299" s="1"/>
-    </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A4"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1">
@@ -7383,7 +7330,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
       <formula1>"SaaS,库存,供应链,饮食通,饮食通老客户上线"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O4 O5:O1048576">
       <formula1>"新品牌,老品牌"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7396,16 +7343,16 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G69"/>
+  <dimension ref="A1:G57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C8" sqref="C8:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="8.625" style="13"/>
-    <col min="2" max="2" width="15.625" customWidth="1"/>
+    <col min="2" max="2" width="17.25" customWidth="1"/>
     <col min="3" max="3" width="19.125" style="14" customWidth="1"/>
     <col min="4" max="4" width="35.25" style="15" customWidth="1"/>
     <col min="5" max="5" width="13.5083333333333" customWidth="1"/>
@@ -7421,43 +7368,43 @@
         <v>21</v>
       </c>
       <c r="C1" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="D1" s="18" t="s">
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="8">
         <v>51</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="B2" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="21" t="s">
         <v>52</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="19">
-        <v>51</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" s="21">
-        <v>43087</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>56</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="10"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="22"/>
+      <c r="A3" s="12"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="21"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -7466,14 +7413,14 @@
       <c r="A4" s="7">
         <v>52</v>
       </c>
-      <c r="B4" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="C4" s="21">
-        <v>43092</v>
-      </c>
-      <c r="D4" s="22" t="s">
-        <v>56</v>
+      <c r="B4" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>52</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -7481,543 +7428,461 @@
     </row>
     <row r="5" ht="14.25" spans="1:7">
       <c r="A5" s="7"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="26"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="25"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="24"/>
-    </row>
-    <row r="6" ht="14.25" spans="1:7">
-      <c r="A6" s="19"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="22"/>
+      <c r="G5" s="23"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="8">
+        <v>1</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="14">
+        <v>43098</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>55</v>
+      </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="27"/>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="G6" s="26"/>
+    </row>
+    <row r="7" ht="14.25" spans="1:7">
       <c r="A7" s="7"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="22"/>
+      <c r="B7" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="14">
+        <v>43102</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>52</v>
+      </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="23"/>
+      <c r="G7" s="22"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="7"/>
-      <c r="B8" s="23"/>
-      <c r="D8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="D8" s="21"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="28"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="7"/>
-      <c r="B9" s="23"/>
-      <c r="D9" s="22"/>
+      <c r="G8" s="27"/>
+    </row>
+    <row r="9" ht="14.25" spans="1:7">
+      <c r="A9" s="8"/>
+      <c r="B9" s="22"/>
+      <c r="D9" s="25"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="28"/>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="G9" s="22"/>
+    </row>
+    <row r="10" ht="14.25" spans="1:7">
       <c r="A10" s="7"/>
-      <c r="B10" s="1"/>
-      <c r="D10" s="22"/>
+      <c r="B10" s="22"/>
+      <c r="D10" s="25"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="28"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="7"/>
-      <c r="B11" s="1"/>
-      <c r="D11" s="22"/>
+      <c r="B11" s="22"/>
+      <c r="D11" s="21"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="28"/>
+      <c r="G11" s="27"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="7"/>
-      <c r="B12" s="1"/>
-      <c r="D12" s="22"/>
+      <c r="B12" s="22"/>
+      <c r="D12" s="21"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="28"/>
+      <c r="G12" s="27"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="7"/>
-      <c r="B13" s="23"/>
-      <c r="D13" s="22"/>
+      <c r="B13" s="22"/>
+      <c r="D13" s="21"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="28"/>
+      <c r="G13" s="27"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="7"/>
-      <c r="B14" s="23"/>
-      <c r="D14" s="22"/>
+      <c r="B14" s="22"/>
+      <c r="D14" s="21"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="28"/>
+      <c r="G14" s="27"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="7"/>
-      <c r="B15" s="1"/>
-      <c r="D15" s="22"/>
+      <c r="B15" s="22"/>
+      <c r="D15" s="21"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="28"/>
+      <c r="G15" s="27"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="7"/>
-      <c r="B16" s="1"/>
-      <c r="D16" s="22"/>
+      <c r="B16" s="22"/>
+      <c r="D16" s="21"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="28"/>
+      <c r="G16" s="27"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="7"/>
       <c r="B17" s="1"/>
-      <c r="D17" s="22"/>
+      <c r="D17" s="21"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="28"/>
+      <c r="G17" s="27"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="7"/>
       <c r="B18" s="1"/>
-      <c r="D18" s="22"/>
+      <c r="D18" s="21"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
-      <c r="G18" s="28"/>
+      <c r="G18" s="27"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="7"/>
       <c r="B19" s="1"/>
-      <c r="D19" s="22"/>
+      <c r="D19" s="21"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
-      <c r="G19" s="28"/>
+      <c r="G19" s="27"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="10"/>
+      <c r="A20" s="7"/>
       <c r="B20" s="1"/>
-      <c r="D20" s="22"/>
+      <c r="D20" s="21"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
-      <c r="G20" s="28"/>
-    </row>
-    <row r="21" ht="14.25" spans="1:7">
-      <c r="A21" s="19"/>
-      <c r="B21" s="23"/>
-      <c r="D21" s="26"/>
+      <c r="G20" s="27"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="7"/>
+      <c r="B21" s="1"/>
+      <c r="D21" s="21"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
-      <c r="G21" s="23"/>
-    </row>
-    <row r="22" ht="14.25" spans="1:7">
+      <c r="G21" s="27"/>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="7"/>
-      <c r="B22" s="23"/>
-      <c r="D22" s="26"/>
+      <c r="B22" s="1"/>
+      <c r="D22" s="21"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-      <c r="G22" s="29"/>
+      <c r="G22" s="27"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="7"/>
-      <c r="B23" s="23"/>
-      <c r="D23" s="22"/>
+      <c r="A23" s="12"/>
+      <c r="B23" s="22"/>
+      <c r="D23" s="21"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="28"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="7"/>
-      <c r="B24" s="23"/>
-      <c r="D24" s="22"/>
+      <c r="G23" s="27"/>
+    </row>
+    <row r="24" ht="14.25" spans="1:7">
+      <c r="A24" s="8"/>
+      <c r="B24" s="22"/>
+      <c r="D24" s="25"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
-      <c r="G24" s="28"/>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="G24" s="22"/>
+    </row>
+    <row r="25" ht="14.25" spans="1:7">
       <c r="A25" s="7"/>
-      <c r="B25" s="23"/>
-      <c r="D25" s="22"/>
+      <c r="B25" s="22"/>
+      <c r="D25" s="25"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="28"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" ht="14.25" spans="1:7">
       <c r="A26" s="7"/>
-      <c r="B26" s="23"/>
-      <c r="D26" s="22"/>
+      <c r="B26" s="22"/>
+      <c r="D26" s="25"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="28"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" ht="14.25" spans="1:7">
       <c r="A27" s="7"/>
-      <c r="B27" s="23"/>
-      <c r="D27" s="22"/>
+      <c r="B27" s="22"/>
+      <c r="D27" s="25"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="28"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="7"/>
-      <c r="B28" s="23"/>
-      <c r="D28" s="22"/>
+      <c r="B28" s="22"/>
+      <c r="D28" s="21"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
-      <c r="G28" s="28"/>
+      <c r="G28" s="27"/>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="7"/>
-      <c r="B29" s="1"/>
-      <c r="D29" s="22"/>
+      <c r="B29" s="22"/>
+      <c r="D29" s="21"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
-      <c r="G29" s="28"/>
+      <c r="G29" s="27"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="7"/>
-      <c r="B30" s="1"/>
-      <c r="D30" s="22"/>
+      <c r="B30" s="22"/>
+      <c r="D30" s="21"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
-      <c r="G30" s="28"/>
+      <c r="G30" s="27"/>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="7"/>
-      <c r="B31" s="1"/>
-      <c r="D31" s="22"/>
+      <c r="B31" s="22"/>
+      <c r="D31" s="21"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
-      <c r="G31" s="28"/>
+      <c r="G31" s="27"/>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="7"/>
-      <c r="B32" s="1"/>
-      <c r="D32" s="22"/>
+      <c r="B32" s="22"/>
+      <c r="D32" s="21"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
-      <c r="G32" s="28"/>
+      <c r="G32" s="27"/>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="7"/>
-      <c r="B33" s="1"/>
-      <c r="D33" s="22"/>
+      <c r="B33" s="22"/>
+      <c r="D33" s="21"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
-      <c r="G33" s="28"/>
+      <c r="G33" s="27"/>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="7"/>
-      <c r="B34" s="1"/>
-      <c r="D34" s="22"/>
+      <c r="B34" s="22"/>
+      <c r="D34" s="21"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
-      <c r="G34" s="28"/>
+      <c r="G34" s="27"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="10"/>
-      <c r="B35" s="23"/>
-      <c r="D35" s="22"/>
+      <c r="A35" s="12"/>
+      <c r="B35" s="22"/>
+      <c r="D35" s="21"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
-      <c r="G35" s="28"/>
+      <c r="G35" s="27"/>
     </row>
     <row r="36" ht="14.25" spans="1:7">
-      <c r="A36" s="19"/>
-      <c r="B36" s="23"/>
-      <c r="D36" s="26"/>
+      <c r="A36" s="8"/>
+      <c r="B36" s="22"/>
+      <c r="D36" s="25"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
-      <c r="G36" s="23"/>
+      <c r="G36" s="22"/>
     </row>
     <row r="37" ht="14.25" spans="1:7">
       <c r="A37" s="7"/>
-      <c r="B37" s="23"/>
-      <c r="D37" s="26"/>
+      <c r="B37" s="22"/>
+      <c r="D37" s="25"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
-      <c r="G37" s="29"/>
+      <c r="G37" s="28"/>
     </row>
     <row r="38" ht="14.25" spans="1:7">
       <c r="A38" s="7"/>
-      <c r="B38" s="23"/>
-      <c r="D38" s="26"/>
+      <c r="B38" s="22"/>
+      <c r="D38" s="25"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
-      <c r="G38" s="29"/>
+      <c r="G38" s="28"/>
     </row>
     <row r="39" ht="14.25" spans="1:7">
       <c r="A39" s="7"/>
-      <c r="B39" s="23"/>
-      <c r="D39" s="26"/>
+      <c r="B39" s="22"/>
+      <c r="D39" s="25"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
-      <c r="G39" s="29"/>
+      <c r="G39" s="28"/>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="7"/>
-      <c r="B40" s="23"/>
-      <c r="D40" s="22"/>
+      <c r="B40" s="22"/>
+      <c r="D40" s="21"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
-      <c r="G40" s="28"/>
+      <c r="G40" s="27"/>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="7"/>
-      <c r="B41" s="23"/>
-      <c r="D41" s="22"/>
+      <c r="B41" s="22"/>
+      <c r="D41" s="21"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
-      <c r="G41" s="28"/>
+      <c r="G41" s="27"/>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="7"/>
-      <c r="B42" s="23"/>
-      <c r="D42" s="22"/>
+      <c r="B42" s="22"/>
+      <c r="D42" s="21"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
-      <c r="G42" s="28"/>
+      <c r="G42" s="27"/>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="7"/>
-      <c r="B43" s="23"/>
-      <c r="D43" s="22"/>
+      <c r="B43" s="22"/>
+      <c r="D43" s="21"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
-      <c r="G43" s="28"/>
+      <c r="G43" s="27"/>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="7"/>
-      <c r="B44" s="23"/>
-      <c r="D44" s="22"/>
+      <c r="B44" s="22"/>
+      <c r="D44" s="21"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
-      <c r="G44" s="28"/>
+      <c r="G44" s="27"/>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="7"/>
-      <c r="B45" s="23"/>
-      <c r="D45" s="22"/>
+      <c r="B45" s="22"/>
+      <c r="D45" s="21"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
-      <c r="G45" s="28"/>
+      <c r="G45" s="27"/>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="7"/>
-      <c r="B46" s="23"/>
-      <c r="D46" s="22"/>
+      <c r="B46" s="22"/>
+      <c r="D46" s="21"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
-      <c r="G46" s="28"/>
+      <c r="G46" s="27"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="10"/>
-      <c r="B47" s="23"/>
-      <c r="D47" s="22"/>
+      <c r="A47" s="12"/>
+      <c r="B47" s="22"/>
+      <c r="D47" s="21"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
-      <c r="G47" s="28"/>
+      <c r="G47" s="27"/>
     </row>
     <row r="48" ht="14.25" spans="1:7">
-      <c r="A48" s="19"/>
-      <c r="B48" s="23"/>
-      <c r="D48" s="26"/>
+      <c r="A48" s="7"/>
+      <c r="B48" s="22"/>
+      <c r="D48" s="25"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
-      <c r="G48" s="23"/>
+      <c r="G48" s="28"/>
     </row>
     <row r="49" ht="14.25" spans="1:7">
       <c r="A49" s="7"/>
-      <c r="B49" s="23"/>
-      <c r="D49" s="26"/>
+      <c r="B49" s="22"/>
+      <c r="D49" s="25"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
-      <c r="G49" s="29"/>
-    </row>
-    <row r="50" ht="14.25" spans="1:7">
+      <c r="G49" s="28"/>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="7"/>
-      <c r="B50" s="23"/>
-      <c r="D50" s="26"/>
+      <c r="B50" s="22"/>
+      <c r="D50" s="21"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
-      <c r="G50" s="29"/>
-    </row>
-    <row r="51" ht="14.25" spans="1:7">
+      <c r="G50" s="27"/>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="7"/>
-      <c r="B51" s="23"/>
-      <c r="D51" s="26"/>
+      <c r="B51" s="22"/>
+      <c r="D51" s="21"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
-      <c r="G51" s="29"/>
+      <c r="G51" s="27"/>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="7"/>
-      <c r="B52" s="23"/>
-      <c r="D52" s="22"/>
+      <c r="B52" s="22"/>
+      <c r="D52" s="21"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
-      <c r="G52" s="28"/>
+      <c r="G52" s="27"/>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="7"/>
-      <c r="B53" s="23"/>
-      <c r="D53" s="22"/>
+      <c r="B53" s="22"/>
+      <c r="D53" s="21"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
-      <c r="G53" s="28"/>
+      <c r="G53" s="27"/>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="7"/>
-      <c r="B54" s="23"/>
-      <c r="D54" s="22"/>
+      <c r="B54" s="22"/>
+      <c r="D54" s="21"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
-      <c r="G54" s="28"/>
+      <c r="G54" s="27"/>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="7"/>
-      <c r="B55" s="23"/>
-      <c r="D55" s="22"/>
+      <c r="B55" s="22"/>
+      <c r="D55" s="21"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
-      <c r="G55" s="28"/>
+      <c r="G55" s="27"/>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="7"/>
-      <c r="B56" s="23"/>
-      <c r="D56" s="22"/>
+      <c r="B56" s="22"/>
+      <c r="D56" s="21"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
-      <c r="G56" s="28"/>
+      <c r="G56" s="27"/>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="7"/>
-      <c r="B57" s="23"/>
-      <c r="D57" s="22"/>
+      <c r="A57" s="12"/>
+      <c r="B57" s="22"/>
+      <c r="D57" s="21"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
-      <c r="G57" s="28"/>
-    </row>
-    <row r="58" spans="1:7">
-      <c r="A58" s="7"/>
-      <c r="B58" s="23"/>
-      <c r="D58" s="22"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-      <c r="G58" s="28"/>
-    </row>
-    <row r="59" spans="1:7">
-      <c r="A59" s="10"/>
-      <c r="B59" s="23"/>
-      <c r="D59" s="22"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-      <c r="G59" s="28"/>
-    </row>
-    <row r="60" ht="14.25" spans="1:7">
-      <c r="A60" s="7"/>
-      <c r="B60" s="23"/>
-      <c r="D60" s="26"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
-      <c r="G60" s="29"/>
-    </row>
-    <row r="61" ht="14.25" spans="1:7">
-      <c r="A61" s="7"/>
-      <c r="B61" s="23"/>
-      <c r="D61" s="26"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
-      <c r="G61" s="29"/>
-    </row>
-    <row r="62" spans="1:7">
-      <c r="A62" s="7"/>
-      <c r="B62" s="23"/>
-      <c r="D62" s="22"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
-      <c r="G62" s="28"/>
-    </row>
-    <row r="63" spans="1:7">
-      <c r="A63" s="7"/>
-      <c r="B63" s="23"/>
-      <c r="D63" s="22"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
-      <c r="G63" s="28"/>
-    </row>
-    <row r="64" spans="1:7">
-      <c r="A64" s="7"/>
-      <c r="B64" s="23"/>
-      <c r="D64" s="22"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
-      <c r="G64" s="28"/>
-    </row>
-    <row r="65" spans="1:7">
-      <c r="A65" s="7"/>
-      <c r="B65" s="23"/>
-      <c r="D65" s="22"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
-      <c r="G65" s="28"/>
-    </row>
-    <row r="66" spans="1:7">
-      <c r="A66" s="7"/>
-      <c r="B66" s="23"/>
-      <c r="D66" s="22"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
-      <c r="G66" s="28"/>
-    </row>
-    <row r="67" spans="1:7">
-      <c r="A67" s="7"/>
-      <c r="B67" s="23"/>
-      <c r="D67" s="22"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
-      <c r="G67" s="28"/>
-    </row>
-    <row r="68" spans="1:7">
-      <c r="A68" s="7"/>
-      <c r="B68" s="23"/>
-      <c r="D68" s="22"/>
-      <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
-      <c r="G68" s="28"/>
-    </row>
-    <row r="69" spans="1:7">
-      <c r="A69" s="10"/>
-      <c r="B69" s="23"/>
-      <c r="D69" s="22"/>
-      <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
-      <c r="G69" s="28"/>
+      <c r="G57" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A20"/>
-    <mergeCell ref="A21:A35"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A23"/>
+    <mergeCell ref="A24:A35"/>
     <mergeCell ref="A36:A47"/>
-    <mergeCell ref="A48:A59"/>
-    <mergeCell ref="A60:A69"/>
+    <mergeCell ref="A48:A57"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4 E5 E2:E3 E6:E1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4 E5 E2:E3 E6:E8 E9:E1048576">
       <formula1>"单店,连锁,KA,供应链"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="saas" sqref="F4 F5 F2:F3 F6:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="saas" sqref="F4 F5 F2:F3 F6:F8 F9:F1048576">
       <formula1>"SAAS,供应链,SAAS+微信,SAAS+供应链,SAAS+微信+供应链"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8032,8 +7897,8 @@
   <sheetPr/>
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -8050,29 +7915,29 @@
         <v>1</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="E1" s="6" t="s">
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="7" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="7">
-        <v>12</v>
-      </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="8">
-        <v>43084</v>
-      </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="10" t="s">
         <v>63</v>
       </c>
       <c r="E2" s="10" t="s">
@@ -8080,65 +7945,90 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="11">
-        <v>43091</v>
-      </c>
-      <c r="D3" s="9" t="s">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="D3" s="10" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="4" spans="2:5">
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="12"/>
-    </row>
-    <row r="5" spans="2:5">
+      <c r="E3" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="12"/>
       <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="12"/>
-    </row>
-    <row r="6" spans="2:5">
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="12"/>
+      <c r="C5" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="7" spans="2:5">
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="E7" s="12"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="E7" s="10"/>
     </row>
     <row r="8" spans="2:5">
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="E8" s="12"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="E8" s="10"/>
     </row>
     <row r="9" spans="2:5">
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="E9" s="12"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="E9" s="10"/>
     </row>
     <row r="10" spans="2:5">
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="E10" s="12"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="E10" s="10"/>
     </row>
     <row r="11" spans="2:5">
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="E11" s="12"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="E11" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="203" verticalDpi="203"/>

--- a/周数据/《个人上线率统计表》-高阳.xlsx
+++ b/周数据/《个人上线率统计表》-高阳.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="7950" activeTab="1"/>
+    <workbookView windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77">
   <si>
     <t>个人上线率分析表</t>
   </si>
@@ -148,6 +148,21 @@
     <t>店长</t>
   </si>
   <si>
+    <t>2018年1月5号</t>
+  </si>
+  <si>
+    <t>小山羊羊肉汤</t>
+  </si>
+  <si>
+    <t>范总</t>
+  </si>
+  <si>
+    <t>宁信美食联盟</t>
+  </si>
+  <si>
+    <t>孔总</t>
+  </si>
+  <si>
     <t>立项日期</t>
   </si>
   <si>
@@ -163,9 +178,6 @@
     <t>销售人员</t>
   </si>
   <si>
-    <t>宁信美食联盟</t>
-  </si>
-  <si>
     <t>2017年12月18</t>
   </si>
   <si>
@@ -179,9 +191,6 @@
   </si>
   <si>
     <t>未实施，等通知</t>
-  </si>
-  <si>
-    <t>小山羊羊肉汤</t>
   </si>
   <si>
     <t>姓名</t>
@@ -247,9 +256,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -328,15 +337,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -357,6 +358,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -366,23 +396,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -393,22 +407,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -429,28 +427,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -459,6 +436,38 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -527,7 +536,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -539,19 +590,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -573,114 +690,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="38">
     <border>
@@ -1068,51 +1077,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1129,6 +1097,30 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1157,11 +1149,28 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1176,7 +1185,7 @@
     <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1185,137 +1194,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="33" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="32" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="15" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1415,6 +1424,12 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1461,6 +1476,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1853,8 +1871,8 @@
   <sheetPr/>
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" outlineLevelRow="7"/>
@@ -1867,290 +1885,298 @@
     <col min="7" max="7" width="15.5083333333333" style="13" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="17.875" style="13" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="17.875" style="13" customWidth="1"/>
-    <col min="10" max="10" width="17.875" style="34" customWidth="1"/>
+    <col min="10" max="10" width="17.875" style="36" customWidth="1"/>
     <col min="11" max="11" width="16" style="13" customWidth="1"/>
     <col min="12" max="12" width="17.875" style="13" customWidth="1"/>
     <col min="13" max="13" width="18.625" style="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:13">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="56"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="59"/>
     </row>
     <row r="2" ht="14.25" spans="1:13">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="40" t="s">
+      <c r="E2" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="41" t="s">
+      <c r="F2" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="41" t="s">
+      <c r="G2" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="42" t="s">
+      <c r="H2" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="57" t="s">
+      <c r="I2" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="58" t="s">
+      <c r="J2" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="59" t="s">
+      <c r="K2" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="60" t="s">
+      <c r="L2" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="61" t="s">
+      <c r="M2" s="64" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="43">
+      <c r="A3" s="45">
         <v>12</v>
       </c>
-      <c r="B3" s="44">
+      <c r="B3" s="46">
         <v>52</v>
       </c>
-      <c r="C3" s="45">
+      <c r="C3" s="47">
         <v>1</v>
       </c>
-      <c r="D3" s="46">
+      <c r="D3" s="48">
         <v>0</v>
       </c>
-      <c r="E3" s="46">
+      <c r="E3" s="48">
         <f t="shared" ref="E3:E8" si="0">C3-D3</f>
         <v>1</v>
       </c>
-      <c r="F3" s="47"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="47">
+      <c r="F3" s="49"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="49">
         <f t="shared" ref="H3:H8" si="1">F3-G3</f>
         <v>0</v>
       </c>
-      <c r="I3" s="62">
+      <c r="I3" s="65">
         <v>0</v>
       </c>
-      <c r="J3" s="63" t="e">
+      <c r="J3" s="66" t="e">
         <f t="shared" ref="J3:J8" si="2">I3/L3*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K3" s="64">
+      <c r="K3" s="67">
         <f t="shared" ref="K3:K8" si="3">C3+G3</f>
         <v>1</v>
       </c>
-      <c r="L3" s="65">
+      <c r="L3" s="68">
         <f t="shared" ref="L3:L8" si="4">D3+G3</f>
         <v>0</v>
       </c>
-      <c r="M3" s="66">
+      <c r="M3" s="69">
         <f t="shared" ref="M3:M8" si="5">L3/K3*100%</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="43">
+      <c r="A4" s="51">
         <v>1</v>
       </c>
-      <c r="B4" s="44">
+      <c r="B4" s="46">
         <v>1</v>
       </c>
-      <c r="C4" s="45">
+      <c r="C4" s="47">
         <v>5</v>
       </c>
-      <c r="D4" s="46">
+      <c r="D4" s="48">
         <v>2</v>
       </c>
-      <c r="E4" s="46">
+      <c r="E4" s="48">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F4" s="47"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="47">
+      <c r="F4" s="49"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="49">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I4" s="62">
+      <c r="I4" s="65">
         <v>0</v>
       </c>
-      <c r="J4" s="63">
+      <c r="J4" s="66">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K4" s="64">
+      <c r="K4" s="67">
         <v>5</v>
       </c>
-      <c r="L4" s="65">
+      <c r="L4" s="68">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="M4" s="66">
+      <c r="M4" s="69">
         <f t="shared" si="5"/>
         <v>0.4</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="49"/>
-      <c r="B5" s="44"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46">
+      <c r="A5" s="51"/>
+      <c r="B5" s="46">
+        <v>2</v>
+      </c>
+      <c r="C5" s="47">
+        <v>3</v>
+      </c>
+      <c r="D5" s="48">
+        <v>2</v>
+      </c>
+      <c r="E5" s="48">
+        <v>1</v>
+      </c>
+      <c r="F5" s="49"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I5" s="65">
+        <v>0</v>
+      </c>
+      <c r="J5" s="66">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K5" s="67">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="L5" s="68">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="M5" s="69">
+        <f t="shared" si="5"/>
+        <v>0.666666666666667</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="52"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F5" s="47"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="47">
+      <c r="F6" s="49"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="49">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I5" s="62"/>
-      <c r="J5" s="63" t="e">
+      <c r="I6" s="65"/>
+      <c r="J6" s="66" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K5" s="64">
+      <c r="K6" s="67">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L5" s="65">
+      <c r="L6" s="68">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M5" s="66" t="e">
+      <c r="M6" s="69" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="49"/>
-      <c r="B6" s="44"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46">
+    <row r="7" spans="1:13">
+      <c r="A7" s="52"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F6" s="47"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="47">
+      <c r="F7" s="49"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="49">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I6" s="62"/>
-      <c r="J6" s="63" t="e">
+      <c r="I7" s="65"/>
+      <c r="J7" s="66" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K6" s="64">
+      <c r="K7" s="67">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L6" s="65">
+      <c r="L7" s="68">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M6" s="66" t="e">
+      <c r="M7" s="69" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="49"/>
-      <c r="B7" s="44"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46">
+    <row r="8" ht="14.25" spans="1:13">
+      <c r="A8" s="52"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F7" s="47"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="47">
+      <c r="F8" s="56"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="56">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I7" s="62"/>
-      <c r="J7" s="63" t="e">
+      <c r="I8" s="70"/>
+      <c r="J8" s="71" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K7" s="64">
+      <c r="K8" s="72">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L7" s="65">
+      <c r="L8" s="73">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M7" s="66" t="e">
+      <c r="M8" s="74" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" ht="14.25" spans="1:13">
-      <c r="A8" s="49"/>
-      <c r="B8" s="50"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F8" s="53"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="53">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I8" s="67"/>
-      <c r="J8" s="68" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K8" s="69">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L8" s="70">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M8" s="71" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A4:A5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2161,10 +2187,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O294"/>
+  <dimension ref="A1:O293"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:P4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
@@ -2208,7 +2234,7 @@
       <c r="H1" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="33" t="s">
+      <c r="I1" s="35" t="s">
         <v>22</v>
       </c>
       <c r="J1" s="30" t="s">
@@ -2323,38 +2349,96 @@
       </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="12"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
+      <c r="A4" s="33">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="1">
+        <v>76121072</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" s="1">
+        <v>15189553449</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N4" s="1">
+        <v>18226974951</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
+      <c r="A5" s="34"/>
+      <c r="B5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="1">
+        <v>76112895</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="1">
+        <v>15189553449</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N5" s="1">
+        <v>15077880787</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1"/>
@@ -7252,26 +7336,10 @@
       <c r="N293" s="1"/>
       <c r="O293" s="1"/>
     </row>
-    <row r="294" spans="1:15">
-      <c r="A294" s="1"/>
-      <c r="B294" s="1"/>
-      <c r="C294" s="1"/>
-      <c r="D294" s="1"/>
-      <c r="E294" s="1"/>
-      <c r="F294" s="1"/>
-      <c r="G294" s="1"/>
-      <c r="H294" s="1"/>
-      <c r="I294" s="1"/>
-      <c r="J294" s="1"/>
-      <c r="K294" s="1"/>
-      <c r="L294" s="1"/>
-      <c r="M294" s="1"/>
-      <c r="N294" s="1"/>
-      <c r="O294" s="1"/>
-    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:A4"/>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1">
@@ -7280,7 +7348,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
       <formula1>"SaaS,库存,供应链,饮食通,饮食通老客户上线"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O4 O5:O1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2 O3:O5 O6:O1048576">
       <formula1>"新品牌,老品牌"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7318,19 +7386,19 @@
         <v>21</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G1" s="17" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -7338,13 +7406,13 @@
         <v>51</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -7358,10 +7426,10 @@
         <v>38</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -7370,13 +7438,13 @@
     <row r="4" spans="1:7">
       <c r="A4" s="7"/>
       <c r="B4" s="22" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C4" s="14">
         <v>43098</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -7387,13 +7455,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C5" s="14">
         <v>43102</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -7822,7 +7890,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -7839,89 +7907,89 @@
         <v>1</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="C3" s="9" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="10" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="12"/>
       <c r="B5" s="12"/>
       <c r="C5" s="10" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="10" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="2:5">

--- a/周数据/《个人上线率统计表》-高阳.xlsx
+++ b/周数据/《个人上线率统计表》-高阳.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80">
   <si>
     <t>个人上线率分析表</t>
   </si>
@@ -163,6 +163,15 @@
     <t>孔总</t>
   </si>
   <si>
+    <t>2018年1月12号</t>
+  </si>
+  <si>
+    <t>宽窄巷子串串浦口店</t>
+  </si>
+  <si>
+    <t>宽窄巷子</t>
+  </si>
+  <si>
     <t>立项日期</t>
   </si>
   <si>
@@ -190,7 +199,7 @@
     <t>辣么美新概念麻辣烫</t>
   </si>
   <si>
-    <t>未实施，等通知</t>
+    <t>已停业</t>
   </si>
   <si>
     <t>姓名</t>
@@ -256,9 +265,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -336,8 +345,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -358,8 +368,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -367,7 +378,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -380,8 +406,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -395,18 +422,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -427,7 +447,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -436,38 +477,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -536,31 +545,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -572,7 +563,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -584,91 +575,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -686,7 +599,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1073,15 +1082,6 @@
       <top/>
       <bottom style="medium">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1104,8 +1104,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1121,6 +1136,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1149,28 +1175,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1182,10 +1191,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1194,137 +1203,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="33" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="33" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1424,10 +1433,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1872,7 +1878,7 @@
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" outlineLevelRow="7"/>
@@ -1885,290 +1891,296 @@
     <col min="7" max="7" width="15.5083333333333" style="13" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="17.875" style="13" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="17.875" style="13" customWidth="1"/>
-    <col min="10" max="10" width="17.875" style="36" customWidth="1"/>
+    <col min="10" max="10" width="17.875" style="35" customWidth="1"/>
     <col min="11" max="11" width="16" style="13" customWidth="1"/>
     <col min="12" max="12" width="17.875" style="13" customWidth="1"/>
     <col min="13" max="13" width="18.625" style="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:13">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="59"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="58"/>
     </row>
     <row r="2" ht="14.25" spans="1:13">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="42" t="s">
+      <c r="E2" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="43" t="s">
+      <c r="F2" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="43" t="s">
+      <c r="G2" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="44" t="s">
+      <c r="H2" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="60" t="s">
+      <c r="I2" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="61" t="s">
+      <c r="J2" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="62" t="s">
+      <c r="K2" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="63" t="s">
+      <c r="L2" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="64" t="s">
+      <c r="M2" s="63" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="45">
+      <c r="A3" s="44">
         <v>12</v>
       </c>
-      <c r="B3" s="46">
+      <c r="B3" s="45">
         <v>52</v>
       </c>
-      <c r="C3" s="47">
+      <c r="C3" s="46">
         <v>1</v>
       </c>
-      <c r="D3" s="48">
+      <c r="D3" s="47">
         <v>0</v>
       </c>
-      <c r="E3" s="48">
+      <c r="E3" s="47">
         <f t="shared" ref="E3:E8" si="0">C3-D3</f>
         <v>1</v>
       </c>
-      <c r="F3" s="49"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="49">
+      <c r="F3" s="48"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="48">
         <f t="shared" ref="H3:H8" si="1">F3-G3</f>
         <v>0</v>
       </c>
-      <c r="I3" s="65">
+      <c r="I3" s="64">
         <v>0</v>
       </c>
-      <c r="J3" s="66" t="e">
+      <c r="J3" s="65" t="e">
         <f t="shared" ref="J3:J8" si="2">I3/L3*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K3" s="67">
+      <c r="K3" s="66">
         <f t="shared" ref="K3:K8" si="3">C3+G3</f>
         <v>1</v>
       </c>
-      <c r="L3" s="68">
+      <c r="L3" s="67">
         <f t="shared" ref="L3:L8" si="4">D3+G3</f>
         <v>0</v>
       </c>
-      <c r="M3" s="69">
+      <c r="M3" s="68">
         <f t="shared" ref="M3:M8" si="5">L3/K3*100%</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="51">
+      <c r="A4" s="50">
         <v>1</v>
       </c>
-      <c r="B4" s="46">
+      <c r="B4" s="45">
         <v>1</v>
       </c>
-      <c r="C4" s="47">
+      <c r="C4" s="46">
         <v>5</v>
       </c>
-      <c r="D4" s="48">
+      <c r="D4" s="47">
         <v>2</v>
       </c>
-      <c r="E4" s="48">
+      <c r="E4" s="47">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F4" s="49"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="49">
+      <c r="F4" s="48"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I4" s="65">
+      <c r="I4" s="64">
         <v>0</v>
       </c>
-      <c r="J4" s="66">
+      <c r="J4" s="65">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K4" s="67">
+      <c r="K4" s="66">
         <v>5</v>
       </c>
-      <c r="L4" s="68">
+      <c r="L4" s="67">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="M4" s="69">
+      <c r="M4" s="68">
         <f t="shared" si="5"/>
         <v>0.4</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="51"/>
-      <c r="B5" s="46">
+      <c r="A5" s="50"/>
+      <c r="B5" s="45">
         <v>2</v>
       </c>
-      <c r="C5" s="47">
+      <c r="C5" s="46">
         <v>3</v>
       </c>
-      <c r="D5" s="48">
+      <c r="D5" s="47">
         <v>2</v>
       </c>
-      <c r="E5" s="48">
+      <c r="E5" s="47">
         <v>1</v>
       </c>
-      <c r="F5" s="49"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="49">
+      <c r="F5" s="48"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I5" s="65">
+      <c r="I5" s="64">
         <v>0</v>
       </c>
-      <c r="J5" s="66">
+      <c r="J5" s="65">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K5" s="67">
+      <c r="K5" s="66">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="L5" s="68">
+      <c r="L5" s="67">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="M5" s="69">
+      <c r="M5" s="68">
         <f t="shared" si="5"/>
         <v>0.666666666666667</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="52"/>
-      <c r="B6" s="46"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48">
+      <c r="A6" s="50"/>
+      <c r="B6" s="45">
+        <v>3</v>
+      </c>
+      <c r="C6" s="46">
+        <v>1</v>
+      </c>
+      <c r="D6" s="47">
+        <v>1</v>
+      </c>
+      <c r="E6" s="47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F6" s="49"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="49">
+      <c r="F6" s="48"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I6" s="65"/>
-      <c r="J6" s="66" t="e">
+      <c r="I6" s="64"/>
+      <c r="J6" s="65">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="66">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L6" s="67">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="M6" s="68">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="51"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F7" s="48"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="64"/>
+      <c r="J7" s="65" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K6" s="67">
+      <c r="K7" s="66">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L6" s="68">
+      <c r="L7" s="67">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M6" s="69" t="e">
+      <c r="M7" s="68" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="52"/>
-      <c r="B7" s="46"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48">
+    <row r="8" ht="14.25" spans="1:13">
+      <c r="A8" s="51"/>
+      <c r="B8" s="52"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F7" s="49"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="49">
+      <c r="F8" s="55"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I7" s="65"/>
-      <c r="J7" s="66" t="e">
+      <c r="I8" s="69"/>
+      <c r="J8" s="70" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K7" s="67">
+      <c r="K8" s="71">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L7" s="68">
+      <c r="L8" s="72">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M7" s="69" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="8" ht="14.25" spans="1:13">
-      <c r="A8" s="52"/>
-      <c r="B8" s="53"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F8" s="56"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="56">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I8" s="70"/>
-      <c r="J8" s="71" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K8" s="72">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L8" s="73">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M8" s="74" t="e">
+      <c r="M8" s="73" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -2176,7 +2188,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A4:A6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2190,7 +2202,7 @@
   <dimension ref="A1:O293"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+      <selection activeCell="O5" sqref="O5:O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
@@ -2199,7 +2211,8 @@
     <col min="2" max="2" width="15.625" customWidth="1"/>
     <col min="3" max="3" width="11.4833333333333" customWidth="1"/>
     <col min="4" max="4" width="27.5" customWidth="1"/>
-    <col min="5" max="6" width="15" customWidth="1"/>
+    <col min="5" max="5" width="20.875" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
     <col min="7" max="7" width="10.2666666666667" customWidth="1"/>
     <col min="8" max="8" width="17.1583333333333" customWidth="1"/>
     <col min="9" max="9" width="9.86666666666667" customWidth="1"/>
@@ -2234,7 +2247,7 @@
       <c r="H1" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="35" t="s">
+      <c r="I1" s="34" t="s">
         <v>22</v>
       </c>
       <c r="J1" s="30" t="s">
@@ -2349,7 +2362,7 @@
       </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="33">
+      <c r="A4" s="8">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -2396,7 +2409,7 @@
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="34"/>
+      <c r="A5" s="12"/>
       <c r="B5" s="1" t="s">
         <v>43</v>
       </c>
@@ -2441,21 +2454,51 @@
       </c>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
+      <c r="A6" s="33">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="1">
+        <v>76123362</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" s="1">
+        <v>15189553449</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N6" s="1">
+        <v>13337727177</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1"/>
@@ -7348,7 +7391,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
       <formula1>"SaaS,库存,供应链,饮食通,饮食通老客户上线"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2 O3:O5 O6:O1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2 O3:O4 O5:O6 O7:O1048576">
       <formula1>"新品牌,老品牌"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7364,7 +7407,7 @@
   <dimension ref="A1:G56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -7386,19 +7429,19 @@
         <v>21</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G1" s="17" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -7409,10 +7452,10 @@
         <v>46</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -7426,10 +7469,10 @@
         <v>38</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -7438,13 +7481,13 @@
     <row r="4" spans="1:7">
       <c r="A4" s="7"/>
       <c r="B4" s="22" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C4" s="14">
         <v>43098</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -7461,7 +7504,7 @@
         <v>43102</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -7907,89 +7950,89 @@
         <v>1</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="C3" s="9" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="10" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="12"/>
       <c r="B5" s="12"/>
       <c r="C5" s="10" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="10" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="2:5">

--- a/周数据/《个人上线率统计表》-高阳.xlsx
+++ b/周数据/《个人上线率统计表》-高阳.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370"/>
+    <workbookView windowWidth="19770" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83">
   <si>
     <t>个人上线率分析表</t>
   </si>
@@ -106,19 +106,13 @@
     <t>新老品牌</t>
   </si>
   <si>
-    <t>2018年1月2号</t>
-  </si>
-  <si>
-    <t>Saas</t>
+    <t>SaaS</t>
   </si>
   <si>
     <t>一台戏</t>
   </si>
   <si>
-    <t>南京市</t>
-  </si>
-  <si>
-    <t>南京分公司</t>
+    <t>南京</t>
   </si>
   <si>
     <t>高阳</t>
@@ -148,9 +142,6 @@
     <t>店长</t>
   </si>
   <si>
-    <t>2018年1月5号</t>
-  </si>
-  <si>
     <t>小山羊羊肉汤</t>
   </si>
   <si>
@@ -163,15 +154,21 @@
     <t>孔总</t>
   </si>
   <si>
-    <t>2018年1月12号</t>
-  </si>
-  <si>
     <t>宽窄巷子串串浦口店</t>
   </si>
   <si>
     <t>宽窄巷子</t>
   </si>
   <si>
+    <t>卤味牛肉锅</t>
+  </si>
+  <si>
+    <t>牛好牛卤味牛肉锅</t>
+  </si>
+  <si>
+    <t>徐总</t>
+  </si>
+  <si>
     <t>立项日期</t>
   </si>
   <si>
@@ -187,13 +184,22 @@
     <t>销售人员</t>
   </si>
   <si>
-    <t>2017年12月18</t>
-  </si>
-  <si>
     <t>已实施，但商户未开业</t>
   </si>
   <si>
-    <t>2017年12月23</t>
+    <t>单店</t>
+  </si>
+  <si>
+    <t>SAAS</t>
+  </si>
+  <si>
+    <t>李雪磊</t>
+  </si>
+  <si>
+    <t>SAAS+微信</t>
+  </si>
+  <si>
+    <t>肖如梦</t>
   </si>
   <si>
     <t>辣么美新概念麻辣烫</t>
@@ -202,6 +208,24 @@
     <t>已停业</t>
   </si>
   <si>
+    <t>丁万能</t>
+  </si>
+  <si>
+    <t>汪冰洋</t>
+  </si>
+  <si>
+    <t>家门口百姓菜馆</t>
+  </si>
+  <si>
+    <t>22号签约新项目实施准备中</t>
+  </si>
+  <si>
+    <t>禧满堂</t>
+  </si>
+  <si>
+    <t>23号签约新项目实施准备中</t>
+  </si>
+  <si>
     <t>姓名</t>
   </si>
   <si>
@@ -217,40 +241,25 @@
     <t>12月</t>
   </si>
   <si>
-    <t>2017年12月15号</t>
-  </si>
-  <si>
     <t>南京市建邺区江东门西街3-11/鲜儿牛</t>
   </si>
   <si>
     <t>因成都分公司南京项目需要技术支持</t>
   </si>
   <si>
-    <t>2017年12月22号</t>
-  </si>
-  <si>
     <t>南京市栖霞区学衡路16号/美美翰尼炸鸡店</t>
   </si>
   <si>
     <t>美美翰尼炸鸡店实施</t>
   </si>
   <si>
-    <t>2017年12月30号</t>
-  </si>
-  <si>
     <t>公司</t>
   </si>
   <si>
     <t>值班</t>
   </si>
   <si>
-    <t>2017年12月31号</t>
-  </si>
-  <si>
     <t>1月</t>
-  </si>
-  <si>
-    <t>2018年1月1号</t>
   </si>
   <si>
     <t>南京市建邺区燕山路79-6/一台戏</t>
@@ -263,11 +272,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -545,12 +555,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -564,12 +568,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -653,19 +651,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -696,6 +682,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1191,155 +1201,158 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="33" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="33" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1349,6 +1362,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1361,7 +1377,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1376,7 +1392,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="31" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1388,15 +1404,15 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1421,17 +1437,20 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="176" fontId="8" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1878,309 +1897,315 @@
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" outlineLevelRow="7"/>
   <cols>
-    <col min="1" max="1" width="5.125" style="13" customWidth="1"/>
-    <col min="2" max="2" width="8.125" style="13" customWidth="1"/>
-    <col min="3" max="4" width="16.25" style="13" customWidth="1"/>
-    <col min="5" max="5" width="17.75" style="13" customWidth="1"/>
-    <col min="6" max="6" width="15.875" style="13" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5083333333333" style="13" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="17.875" style="13" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="17.875" style="13" customWidth="1"/>
-    <col min="10" max="10" width="17.875" style="35" customWidth="1"/>
-    <col min="11" max="11" width="16" style="13" customWidth="1"/>
-    <col min="12" max="12" width="17.875" style="13" customWidth="1"/>
-    <col min="13" max="13" width="18.625" style="13" customWidth="1"/>
+    <col min="1" max="1" width="5.125" style="15" customWidth="1"/>
+    <col min="2" max="2" width="8.125" style="15" customWidth="1"/>
+    <col min="3" max="4" width="16.25" style="15" customWidth="1"/>
+    <col min="5" max="5" width="17.75" style="15" customWidth="1"/>
+    <col min="6" max="6" width="15.875" style="15" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5083333333333" style="15" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="17.875" style="15" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="17.875" style="15" customWidth="1"/>
+    <col min="10" max="10" width="17.875" style="38" customWidth="1"/>
+    <col min="11" max="11" width="16" style="15" customWidth="1"/>
+    <col min="12" max="12" width="17.875" style="15" customWidth="1"/>
+    <col min="13" max="13" width="18.625" style="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:13">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="58"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="61"/>
     </row>
     <row r="2" ht="14.25" spans="1:13">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="41" t="s">
+      <c r="E2" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="42" t="s">
+      <c r="F2" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="42" t="s">
+      <c r="G2" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="43" t="s">
+      <c r="H2" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="59" t="s">
+      <c r="I2" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="60" t="s">
+      <c r="J2" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="61" t="s">
+      <c r="K2" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="62" t="s">
+      <c r="L2" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="63" t="s">
+      <c r="M2" s="66" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="44">
+      <c r="A3" s="47">
         <v>12</v>
       </c>
-      <c r="B3" s="45">
+      <c r="B3" s="48">
         <v>52</v>
       </c>
-      <c r="C3" s="46">
+      <c r="C3" s="49">
         <v>1</v>
       </c>
-      <c r="D3" s="47">
+      <c r="D3" s="50">
         <v>0</v>
       </c>
-      <c r="E3" s="47">
+      <c r="E3" s="50">
         <f t="shared" ref="E3:E8" si="0">C3-D3</f>
         <v>1</v>
       </c>
-      <c r="F3" s="48"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="48">
+      <c r="F3" s="51"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="51">
         <f t="shared" ref="H3:H8" si="1">F3-G3</f>
         <v>0</v>
       </c>
-      <c r="I3" s="64">
+      <c r="I3" s="67">
         <v>0</v>
       </c>
-      <c r="J3" s="65" t="e">
+      <c r="J3" s="68" t="e">
         <f t="shared" ref="J3:J8" si="2">I3/L3*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K3" s="66">
+      <c r="K3" s="69">
         <f t="shared" ref="K3:K8" si="3">C3+G3</f>
         <v>1</v>
       </c>
-      <c r="L3" s="67">
+      <c r="L3" s="70">
         <f t="shared" ref="L3:L8" si="4">D3+G3</f>
         <v>0</v>
       </c>
-      <c r="M3" s="68">
+      <c r="M3" s="71">
         <f t="shared" ref="M3:M8" si="5">L3/K3*100%</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="50">
+      <c r="A4" s="53">
         <v>1</v>
       </c>
-      <c r="B4" s="45">
+      <c r="B4" s="48">
         <v>1</v>
       </c>
-      <c r="C4" s="46">
+      <c r="C4" s="49">
         <v>5</v>
       </c>
-      <c r="D4" s="47">
+      <c r="D4" s="50">
         <v>2</v>
       </c>
-      <c r="E4" s="47">
+      <c r="E4" s="50">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F4" s="48"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="48">
+      <c r="F4" s="51"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I4" s="64">
+      <c r="I4" s="67">
         <v>0</v>
       </c>
-      <c r="J4" s="65">
+      <c r="J4" s="68">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K4" s="66">
+      <c r="K4" s="69">
         <v>5</v>
       </c>
-      <c r="L4" s="67">
+      <c r="L4" s="70">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="M4" s="68">
+      <c r="M4" s="71">
         <f t="shared" si="5"/>
         <v>0.4</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="50"/>
-      <c r="B5" s="45">
+      <c r="A5" s="53"/>
+      <c r="B5" s="48">
         <v>2</v>
       </c>
-      <c r="C5" s="46">
+      <c r="C5" s="49">
         <v>3</v>
       </c>
-      <c r="D5" s="47">
+      <c r="D5" s="50">
         <v>2</v>
       </c>
-      <c r="E5" s="47">
+      <c r="E5" s="50">
         <v>1</v>
       </c>
-      <c r="F5" s="48"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="48">
+      <c r="F5" s="51"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I5" s="64">
+      <c r="I5" s="67">
         <v>0</v>
       </c>
-      <c r="J5" s="65">
+      <c r="J5" s="68">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K5" s="66">
+      <c r="K5" s="69">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="L5" s="67">
+      <c r="L5" s="70">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="M5" s="68">
+      <c r="M5" s="71">
         <f t="shared" si="5"/>
         <v>0.666666666666667</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="50"/>
-      <c r="B6" s="45">
+      <c r="A6" s="53"/>
+      <c r="B6" s="48">
         <v>3</v>
       </c>
-      <c r="C6" s="46">
+      <c r="C6" s="49">
         <v>1</v>
       </c>
-      <c r="D6" s="47">
+      <c r="D6" s="50">
         <v>1</v>
       </c>
-      <c r="E6" s="47">
+      <c r="E6" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F6" s="48"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="48">
+      <c r="F6" s="51"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I6" s="64"/>
-      <c r="J6" s="65">
+      <c r="I6" s="67"/>
+      <c r="J6" s="68">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K6" s="66">
+      <c r="K6" s="69">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="L6" s="67">
+      <c r="L6" s="70">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M6" s="68">
+      <c r="M6" s="71">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="51"/>
-      <c r="B7" s="45"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47">
+      <c r="A7" s="53"/>
+      <c r="B7" s="48">
+        <v>4</v>
+      </c>
+      <c r="C7" s="49">
+        <v>3</v>
+      </c>
+      <c r="D7" s="50">
+        <v>1</v>
+      </c>
+      <c r="E7" s="50">
+        <f>C7-D7</f>
+        <v>2</v>
+      </c>
+      <c r="F7" s="51"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="67"/>
+      <c r="J7" s="68">
+        <f>I7/L7*100%</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="69">
+        <f>C7+G7</f>
+        <v>3</v>
+      </c>
+      <c r="L7" s="70">
+        <f>D7+G7</f>
+        <v>1</v>
+      </c>
+      <c r="M7" s="71">
+        <f>L7/K7*100%</f>
+        <v>0.333333333333333</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25" spans="1:13">
+      <c r="A8" s="54"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F7" s="48"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="48">
+      <c r="F8" s="58"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="58">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I7" s="64"/>
-      <c r="J7" s="65" t="e">
+      <c r="I8" s="72"/>
+      <c r="J8" s="73" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K7" s="66">
+      <c r="K8" s="74">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L7" s="67">
+      <c r="L8" s="75">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M7" s="68" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="8" ht="14.25" spans="1:13">
-      <c r="A8" s="51"/>
-      <c r="B8" s="52"/>
-      <c r="C8" s="53"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F8" s="55"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="55">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I8" s="69"/>
-      <c r="J8" s="70" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K8" s="71">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L8" s="72">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M8" s="73" t="e">
+      <c r="M8" s="76" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -2188,7 +2213,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A4:A7"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2202,13 +2227,13 @@
   <dimension ref="A1:O293"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O5" sqref="O5:O6"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12.8416666666667" customWidth="1"/>
-    <col min="2" max="2" width="15.625" customWidth="1"/>
+    <col min="2" max="2" width="15.625" style="31" customWidth="1"/>
     <col min="3" max="3" width="11.4833333333333" customWidth="1"/>
     <col min="4" max="4" width="27.5" customWidth="1"/>
     <col min="5" max="5" width="20.875" customWidth="1"/>
@@ -2222,304 +2247,334 @@
     <col min="15" max="16384" width="9.73333333333333"/>
   </cols>
   <sheetData>
-    <row r="1" s="28" customFormat="1" ht="27" spans="1:15">
-      <c r="A1" s="29" t="s">
+    <row r="1" s="30" customFormat="1" ht="27" spans="1:15">
+      <c r="A1" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="H1" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="34" t="s">
+      <c r="I1" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="30" t="s">
+      <c r="J1" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="30" t="s">
+      <c r="K1" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="29" t="s">
+      <c r="L1" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="29" t="s">
+      <c r="M1" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="29" t="s">
+      <c r="N1" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="29" t="s">
+      <c r="O1" s="32" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="8">
+      <c r="A2" s="10">
         <v>1</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="2">
+        <v>43102</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="G2" s="1">
         <v>76120259</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="J2" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K2" s="1">
         <v>15189553449</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N2" s="1">
         <v>18018066077</v>
       </c>
       <c r="O2" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="9"/>
+      <c r="B3" s="2">
+        <v>43102</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="7"/>
-      <c r="B3" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G3" s="1">
         <v>76118738</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K3" s="1">
         <v>15189553449</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="N3" s="1">
         <v>13528537677</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="8">
+      <c r="A4" s="10">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>43</v>
+      <c r="B4" s="2">
+        <v>43105</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G4" s="1">
         <v>76121072</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K4" s="1">
         <v>15189553449</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N4" s="1">
         <v>18226974951</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="12"/>
-      <c r="B5" s="1" t="s">
+      <c r="A5" s="14"/>
+      <c r="B5" s="2">
+        <v>43105</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G5" s="1">
         <v>76112895</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K5" s="1">
         <v>15189553449</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N5" s="1">
         <v>15077880787</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="33">
+      <c r="A6" s="12">
         <v>3</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>48</v>
+      <c r="B6" s="2">
+        <v>43112</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G6" s="1">
         <v>76123362</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K6" s="1">
         <v>15189553449</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N6" s="1">
         <v>13337727177</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
+      <c r="A7" s="36">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2">
+        <v>43120</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="1">
+        <v>76126655</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" s="1">
+        <v>15189553449</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N7" s="1">
+        <v>13851488518</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
+      <c r="B8" s="2"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -2536,7 +2591,7 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
+      <c r="B9" s="2"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -2553,7 +2608,7 @@
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
+      <c r="B10" s="2"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -2570,7 +2625,7 @@
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
+      <c r="B11" s="2"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -2587,7 +2642,7 @@
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
+      <c r="B12" s="2"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -2604,7 +2659,7 @@
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
+      <c r="B13" s="2"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -2621,7 +2676,7 @@
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
+      <c r="B14" s="2"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -2638,7 +2693,7 @@
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
+      <c r="B15" s="2"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -2655,7 +2710,7 @@
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
+      <c r="B16" s="2"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -2672,7 +2727,7 @@
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
+      <c r="B17" s="2"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -2689,7 +2744,7 @@
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
+      <c r="B18" s="2"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -2706,7 +2761,7 @@
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
+      <c r="B19" s="2"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -2723,7 +2778,7 @@
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
+      <c r="B20" s="2"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -2740,7 +2795,7 @@
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
+      <c r="B21" s="2"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -2757,7 +2812,7 @@
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
+      <c r="B22" s="2"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -2774,7 +2829,7 @@
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
+      <c r="B23" s="2"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -2791,7 +2846,7 @@
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
+      <c r="B24" s="2"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -2808,7 +2863,7 @@
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
+      <c r="B25" s="2"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -2825,7 +2880,7 @@
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
+      <c r="B26" s="2"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -2842,7 +2897,7 @@
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
+      <c r="B27" s="2"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -2859,7 +2914,7 @@
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
+      <c r="B28" s="2"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -2876,7 +2931,7 @@
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
+      <c r="B29" s="2"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -2893,7 +2948,7 @@
     </row>
     <row r="30" spans="1:15">
       <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
+      <c r="B30" s="2"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -2910,7 +2965,7 @@
     </row>
     <row r="31" spans="1:15">
       <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
+      <c r="B31" s="2"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -2927,7 +2982,7 @@
     </row>
     <row r="32" spans="1:15">
       <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
+      <c r="B32" s="2"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -2944,7 +2999,7 @@
     </row>
     <row r="33" spans="1:15">
       <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
+      <c r="B33" s="2"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -2961,7 +3016,7 @@
     </row>
     <row r="34" spans="1:15">
       <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
+      <c r="B34" s="2"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -2978,7 +3033,7 @@
     </row>
     <row r="35" spans="1:15">
       <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
+      <c r="B35" s="2"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -2995,7 +3050,7 @@
     </row>
     <row r="36" spans="1:15">
       <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
+      <c r="B36" s="2"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -3012,7 +3067,7 @@
     </row>
     <row r="37" spans="1:15">
       <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
+      <c r="B37" s="2"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -3029,7 +3084,7 @@
     </row>
     <row r="38" spans="1:15">
       <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
+      <c r="B38" s="2"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -3046,7 +3101,7 @@
     </row>
     <row r="39" spans="1:15">
       <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
+      <c r="B39" s="2"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -3063,7 +3118,7 @@
     </row>
     <row r="40" spans="1:15">
       <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
+      <c r="B40" s="2"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -3080,7 +3135,7 @@
     </row>
     <row r="41" spans="1:15">
       <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
+      <c r="B41" s="2"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -3097,7 +3152,7 @@
     </row>
     <row r="42" spans="1:15">
       <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
+      <c r="B42" s="2"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -3114,7 +3169,7 @@
     </row>
     <row r="43" spans="1:15">
       <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
+      <c r="B43" s="2"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -3131,7 +3186,7 @@
     </row>
     <row r="44" spans="1:15">
       <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
+      <c r="B44" s="2"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -3148,7 +3203,7 @@
     </row>
     <row r="45" spans="1:15">
       <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
+      <c r="B45" s="2"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -3165,7 +3220,7 @@
     </row>
     <row r="46" spans="1:15">
       <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
+      <c r="B46" s="2"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -3182,7 +3237,7 @@
     </row>
     <row r="47" spans="1:15">
       <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
+      <c r="B47" s="2"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -3199,7 +3254,7 @@
     </row>
     <row r="48" spans="1:15">
       <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
+      <c r="B48" s="2"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -3216,7 +3271,7 @@
     </row>
     <row r="49" spans="1:15">
       <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
+      <c r="B49" s="2"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -3233,7 +3288,7 @@
     </row>
     <row r="50" spans="1:15">
       <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
+      <c r="B50" s="2"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
@@ -3250,7 +3305,7 @@
     </row>
     <row r="51" spans="1:15">
       <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
+      <c r="B51" s="2"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -3267,7 +3322,7 @@
     </row>
     <row r="52" spans="1:15">
       <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
+      <c r="B52" s="2"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -3284,7 +3339,7 @@
     </row>
     <row r="53" spans="1:15">
       <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
+      <c r="B53" s="2"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -3301,7 +3356,7 @@
     </row>
     <row r="54" spans="1:15">
       <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
+      <c r="B54" s="2"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
@@ -3318,7 +3373,7 @@
     </row>
     <row r="55" spans="1:15">
       <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
+      <c r="B55" s="2"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -3335,7 +3390,7 @@
     </row>
     <row r="56" spans="1:15">
       <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
+      <c r="B56" s="2"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
@@ -3352,7 +3407,7 @@
     </row>
     <row r="57" spans="1:15">
       <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
+      <c r="B57" s="2"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
@@ -3369,7 +3424,7 @@
     </row>
     <row r="58" spans="1:15">
       <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
+      <c r="B58" s="2"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
@@ -3386,7 +3441,7 @@
     </row>
     <row r="59" spans="1:15">
       <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
+      <c r="B59" s="2"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
@@ -3403,7 +3458,7 @@
     </row>
     <row r="60" spans="1:15">
       <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
+      <c r="B60" s="2"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
@@ -3420,7 +3475,7 @@
     </row>
     <row r="61" spans="1:15">
       <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
+      <c r="B61" s="2"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
@@ -3437,7 +3492,7 @@
     </row>
     <row r="62" spans="1:15">
       <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
+      <c r="B62" s="2"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
@@ -3454,7 +3509,7 @@
     </row>
     <row r="63" spans="1:15">
       <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
+      <c r="B63" s="2"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
@@ -3471,7 +3526,7 @@
     </row>
     <row r="64" spans="1:15">
       <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
+      <c r="B64" s="2"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
@@ -3488,7 +3543,7 @@
     </row>
     <row r="65" spans="1:15">
       <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
+      <c r="B65" s="2"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
@@ -3505,7 +3560,7 @@
     </row>
     <row r="66" spans="1:15">
       <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
+      <c r="B66" s="2"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
@@ -3522,7 +3577,7 @@
     </row>
     <row r="67" spans="1:15">
       <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
+      <c r="B67" s="2"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
@@ -3539,7 +3594,7 @@
     </row>
     <row r="68" spans="1:15">
       <c r="A68" s="1"/>
-      <c r="B68" s="1"/>
+      <c r="B68" s="2"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
@@ -3556,7 +3611,7 @@
     </row>
     <row r="69" spans="1:15">
       <c r="A69" s="1"/>
-      <c r="B69" s="1"/>
+      <c r="B69" s="2"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
@@ -3573,7 +3628,7 @@
     </row>
     <row r="70" spans="1:15">
       <c r="A70" s="1"/>
-      <c r="B70" s="1"/>
+      <c r="B70" s="2"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
@@ -3590,7 +3645,7 @@
     </row>
     <row r="71" spans="1:15">
       <c r="A71" s="1"/>
-      <c r="B71" s="1"/>
+      <c r="B71" s="2"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
@@ -3607,7 +3662,7 @@
     </row>
     <row r="72" spans="1:15">
       <c r="A72" s="1"/>
-      <c r="B72" s="1"/>
+      <c r="B72" s="2"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
@@ -3624,7 +3679,7 @@
     </row>
     <row r="73" spans="1:15">
       <c r="A73" s="1"/>
-      <c r="B73" s="1"/>
+      <c r="B73" s="2"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
@@ -3641,7 +3696,7 @@
     </row>
     <row r="74" spans="1:15">
       <c r="A74" s="1"/>
-      <c r="B74" s="1"/>
+      <c r="B74" s="2"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
@@ -3658,7 +3713,7 @@
     </row>
     <row r="75" spans="1:15">
       <c r="A75" s="1"/>
-      <c r="B75" s="1"/>
+      <c r="B75" s="2"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
@@ -3675,7 +3730,7 @@
     </row>
     <row r="76" spans="1:15">
       <c r="A76" s="1"/>
-      <c r="B76" s="1"/>
+      <c r="B76" s="2"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
@@ -3692,7 +3747,7 @@
     </row>
     <row r="77" spans="1:15">
       <c r="A77" s="1"/>
-      <c r="B77" s="1"/>
+      <c r="B77" s="2"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
@@ -3709,7 +3764,7 @@
     </row>
     <row r="78" spans="1:15">
       <c r="A78" s="1"/>
-      <c r="B78" s="1"/>
+      <c r="B78" s="2"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
@@ -3726,7 +3781,7 @@
     </row>
     <row r="79" spans="1:15">
       <c r="A79" s="1"/>
-      <c r="B79" s="1"/>
+      <c r="B79" s="2"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
@@ -3743,7 +3798,7 @@
     </row>
     <row r="80" spans="1:15">
       <c r="A80" s="1"/>
-      <c r="B80" s="1"/>
+      <c r="B80" s="2"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
@@ -3760,7 +3815,7 @@
     </row>
     <row r="81" spans="1:15">
       <c r="A81" s="1"/>
-      <c r="B81" s="1"/>
+      <c r="B81" s="2"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
@@ -3777,7 +3832,7 @@
     </row>
     <row r="82" spans="1:15">
       <c r="A82" s="1"/>
-      <c r="B82" s="1"/>
+      <c r="B82" s="2"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
@@ -3794,7 +3849,7 @@
     </row>
     <row r="83" spans="1:15">
       <c r="A83" s="1"/>
-      <c r="B83" s="1"/>
+      <c r="B83" s="2"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
@@ -3811,7 +3866,7 @@
     </row>
     <row r="84" spans="1:15">
       <c r="A84" s="1"/>
-      <c r="B84" s="1"/>
+      <c r="B84" s="2"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
@@ -3828,7 +3883,7 @@
     </row>
     <row r="85" spans="1:15">
       <c r="A85" s="1"/>
-      <c r="B85" s="1"/>
+      <c r="B85" s="2"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
@@ -3845,7 +3900,7 @@
     </row>
     <row r="86" spans="1:15">
       <c r="A86" s="1"/>
-      <c r="B86" s="1"/>
+      <c r="B86" s="2"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
@@ -3862,7 +3917,7 @@
     </row>
     <row r="87" spans="1:15">
       <c r="A87" s="1"/>
-      <c r="B87" s="1"/>
+      <c r="B87" s="2"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
@@ -3879,7 +3934,7 @@
     </row>
     <row r="88" spans="1:15">
       <c r="A88" s="1"/>
-      <c r="B88" s="1"/>
+      <c r="B88" s="2"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
@@ -3896,7 +3951,7 @@
     </row>
     <row r="89" spans="1:15">
       <c r="A89" s="1"/>
-      <c r="B89" s="1"/>
+      <c r="B89" s="2"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
@@ -3913,7 +3968,7 @@
     </row>
     <row r="90" spans="1:15">
       <c r="A90" s="1"/>
-      <c r="B90" s="1"/>
+      <c r="B90" s="2"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
@@ -3930,7 +3985,7 @@
     </row>
     <row r="91" spans="1:15">
       <c r="A91" s="1"/>
-      <c r="B91" s="1"/>
+      <c r="B91" s="2"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
@@ -3947,7 +4002,7 @@
     </row>
     <row r="92" spans="1:15">
       <c r="A92" s="1"/>
-      <c r="B92" s="1"/>
+      <c r="B92" s="2"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
@@ -3964,7 +4019,7 @@
     </row>
     <row r="93" spans="1:15">
       <c r="A93" s="1"/>
-      <c r="B93" s="1"/>
+      <c r="B93" s="2"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
@@ -3981,7 +4036,7 @@
     </row>
     <row r="94" spans="1:15">
       <c r="A94" s="1"/>
-      <c r="B94" s="1"/>
+      <c r="B94" s="2"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
@@ -3998,7 +4053,7 @@
     </row>
     <row r="95" spans="1:15">
       <c r="A95" s="1"/>
-      <c r="B95" s="1"/>
+      <c r="B95" s="2"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
@@ -4015,7 +4070,7 @@
     </row>
     <row r="96" spans="1:15">
       <c r="A96" s="1"/>
-      <c r="B96" s="1"/>
+      <c r="B96" s="2"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
@@ -4032,7 +4087,7 @@
     </row>
     <row r="97" spans="1:15">
       <c r="A97" s="1"/>
-      <c r="B97" s="1"/>
+      <c r="B97" s="2"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
@@ -4049,7 +4104,7 @@
     </row>
     <row r="98" spans="1:15">
       <c r="A98" s="1"/>
-      <c r="B98" s="1"/>
+      <c r="B98" s="2"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
@@ -4066,7 +4121,7 @@
     </row>
     <row r="99" spans="1:15">
       <c r="A99" s="1"/>
-      <c r="B99" s="1"/>
+      <c r="B99" s="2"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
@@ -4083,7 +4138,7 @@
     </row>
     <row r="100" spans="1:15">
       <c r="A100" s="1"/>
-      <c r="B100" s="1"/>
+      <c r="B100" s="2"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
@@ -4100,7 +4155,7 @@
     </row>
     <row r="101" spans="1:15">
       <c r="A101" s="1"/>
-      <c r="B101" s="1"/>
+      <c r="B101" s="2"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
@@ -4117,7 +4172,7 @@
     </row>
     <row r="102" spans="1:15">
       <c r="A102" s="1"/>
-      <c r="B102" s="1"/>
+      <c r="B102" s="2"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
@@ -4134,7 +4189,7 @@
     </row>
     <row r="103" spans="1:15">
       <c r="A103" s="1"/>
-      <c r="B103" s="1"/>
+      <c r="B103" s="2"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
@@ -4151,7 +4206,7 @@
     </row>
     <row r="104" spans="1:15">
       <c r="A104" s="1"/>
-      <c r="B104" s="1"/>
+      <c r="B104" s="2"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
@@ -4168,7 +4223,7 @@
     </row>
     <row r="105" spans="1:15">
       <c r="A105" s="1"/>
-      <c r="B105" s="1"/>
+      <c r="B105" s="2"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
@@ -4185,7 +4240,7 @@
     </row>
     <row r="106" spans="1:15">
       <c r="A106" s="1"/>
-      <c r="B106" s="1"/>
+      <c r="B106" s="2"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
@@ -4202,7 +4257,7 @@
     </row>
     <row r="107" spans="1:15">
       <c r="A107" s="1"/>
-      <c r="B107" s="1"/>
+      <c r="B107" s="2"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
@@ -4219,7 +4274,7 @@
     </row>
     <row r="108" spans="1:15">
       <c r="A108" s="1"/>
-      <c r="B108" s="1"/>
+      <c r="B108" s="2"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
@@ -4236,7 +4291,7 @@
     </row>
     <row r="109" spans="1:15">
       <c r="A109" s="1"/>
-      <c r="B109" s="1"/>
+      <c r="B109" s="2"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
@@ -4253,7 +4308,7 @@
     </row>
     <row r="110" spans="1:15">
       <c r="A110" s="1"/>
-      <c r="B110" s="1"/>
+      <c r="B110" s="2"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
@@ -4270,7 +4325,7 @@
     </row>
     <row r="111" spans="1:15">
       <c r="A111" s="1"/>
-      <c r="B111" s="1"/>
+      <c r="B111" s="2"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
@@ -4287,7 +4342,7 @@
     </row>
     <row r="112" spans="1:15">
       <c r="A112" s="1"/>
-      <c r="B112" s="1"/>
+      <c r="B112" s="2"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
@@ -4304,7 +4359,7 @@
     </row>
     <row r="113" spans="1:15">
       <c r="A113" s="1"/>
-      <c r="B113" s="1"/>
+      <c r="B113" s="2"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
@@ -4321,7 +4376,7 @@
     </row>
     <row r="114" spans="1:15">
       <c r="A114" s="1"/>
-      <c r="B114" s="1"/>
+      <c r="B114" s="2"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
@@ -4338,7 +4393,7 @@
     </row>
     <row r="115" spans="1:15">
       <c r="A115" s="1"/>
-      <c r="B115" s="1"/>
+      <c r="B115" s="2"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
@@ -4355,7 +4410,7 @@
     </row>
     <row r="116" spans="1:15">
       <c r="A116" s="1"/>
-      <c r="B116" s="1"/>
+      <c r="B116" s="2"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
@@ -4372,7 +4427,7 @@
     </row>
     <row r="117" spans="1:15">
       <c r="A117" s="1"/>
-      <c r="B117" s="1"/>
+      <c r="B117" s="2"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
@@ -4389,7 +4444,7 @@
     </row>
     <row r="118" spans="1:15">
       <c r="A118" s="1"/>
-      <c r="B118" s="1"/>
+      <c r="B118" s="2"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
@@ -4406,7 +4461,7 @@
     </row>
     <row r="119" spans="1:15">
       <c r="A119" s="1"/>
-      <c r="B119" s="1"/>
+      <c r="B119" s="2"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
@@ -4423,7 +4478,7 @@
     </row>
     <row r="120" spans="1:15">
       <c r="A120" s="1"/>
-      <c r="B120" s="1"/>
+      <c r="B120" s="2"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
@@ -4440,7 +4495,7 @@
     </row>
     <row r="121" spans="1:15">
       <c r="A121" s="1"/>
-      <c r="B121" s="1"/>
+      <c r="B121" s="2"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
@@ -4457,7 +4512,7 @@
     </row>
     <row r="122" spans="1:15">
       <c r="A122" s="1"/>
-      <c r="B122" s="1"/>
+      <c r="B122" s="2"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
@@ -4474,7 +4529,7 @@
     </row>
     <row r="123" spans="1:15">
       <c r="A123" s="1"/>
-      <c r="B123" s="1"/>
+      <c r="B123" s="2"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
@@ -4491,7 +4546,7 @@
     </row>
     <row r="124" spans="1:15">
       <c r="A124" s="1"/>
-      <c r="B124" s="1"/>
+      <c r="B124" s="2"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
@@ -4508,7 +4563,7 @@
     </row>
     <row r="125" spans="1:15">
       <c r="A125" s="1"/>
-      <c r="B125" s="1"/>
+      <c r="B125" s="2"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
@@ -4525,7 +4580,7 @@
     </row>
     <row r="126" spans="1:15">
       <c r="A126" s="1"/>
-      <c r="B126" s="1"/>
+      <c r="B126" s="2"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
@@ -4542,7 +4597,7 @@
     </row>
     <row r="127" spans="1:15">
       <c r="A127" s="1"/>
-      <c r="B127" s="1"/>
+      <c r="B127" s="2"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
@@ -4559,7 +4614,7 @@
     </row>
     <row r="128" spans="1:15">
       <c r="A128" s="1"/>
-      <c r="B128" s="1"/>
+      <c r="B128" s="2"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
@@ -4576,7 +4631,7 @@
     </row>
     <row r="129" spans="1:15">
       <c r="A129" s="1"/>
-      <c r="B129" s="1"/>
+      <c r="B129" s="2"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
@@ -4593,7 +4648,7 @@
     </row>
     <row r="130" spans="1:15">
       <c r="A130" s="1"/>
-      <c r="B130" s="1"/>
+      <c r="B130" s="2"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
@@ -4610,7 +4665,7 @@
     </row>
     <row r="131" spans="1:15">
       <c r="A131" s="1"/>
-      <c r="B131" s="1"/>
+      <c r="B131" s="2"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
@@ -4627,7 +4682,7 @@
     </row>
     <row r="132" spans="1:15">
       <c r="A132" s="1"/>
-      <c r="B132" s="1"/>
+      <c r="B132" s="2"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
@@ -4644,7 +4699,7 @@
     </row>
     <row r="133" spans="1:15">
       <c r="A133" s="1"/>
-      <c r="B133" s="1"/>
+      <c r="B133" s="2"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
@@ -4661,7 +4716,7 @@
     </row>
     <row r="134" spans="1:15">
       <c r="A134" s="1"/>
-      <c r="B134" s="1"/>
+      <c r="B134" s="2"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
@@ -4678,7 +4733,7 @@
     </row>
     <row r="135" spans="1:15">
       <c r="A135" s="1"/>
-      <c r="B135" s="1"/>
+      <c r="B135" s="2"/>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
@@ -4695,7 +4750,7 @@
     </row>
     <row r="136" spans="1:15">
       <c r="A136" s="1"/>
-      <c r="B136" s="1"/>
+      <c r="B136" s="2"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
@@ -4712,7 +4767,7 @@
     </row>
     <row r="137" spans="1:15">
       <c r="A137" s="1"/>
-      <c r="B137" s="1"/>
+      <c r="B137" s="2"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
@@ -4729,7 +4784,7 @@
     </row>
     <row r="138" spans="1:15">
       <c r="A138" s="1"/>
-      <c r="B138" s="1"/>
+      <c r="B138" s="2"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
@@ -4746,7 +4801,7 @@
     </row>
     <row r="139" spans="1:15">
       <c r="A139" s="1"/>
-      <c r="B139" s="1"/>
+      <c r="B139" s="2"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
@@ -4763,7 +4818,7 @@
     </row>
     <row r="140" spans="1:15">
       <c r="A140" s="1"/>
-      <c r="B140" s="1"/>
+      <c r="B140" s="2"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
@@ -4780,7 +4835,7 @@
     </row>
     <row r="141" spans="1:15">
       <c r="A141" s="1"/>
-      <c r="B141" s="1"/>
+      <c r="B141" s="2"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
@@ -4797,7 +4852,7 @@
     </row>
     <row r="142" spans="1:15">
       <c r="A142" s="1"/>
-      <c r="B142" s="1"/>
+      <c r="B142" s="2"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
@@ -4814,7 +4869,7 @@
     </row>
     <row r="143" spans="1:15">
       <c r="A143" s="1"/>
-      <c r="B143" s="1"/>
+      <c r="B143" s="2"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
       <c r="E143" s="1"/>
@@ -4831,7 +4886,7 @@
     </row>
     <row r="144" spans="1:15">
       <c r="A144" s="1"/>
-      <c r="B144" s="1"/>
+      <c r="B144" s="2"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
@@ -4848,7 +4903,7 @@
     </row>
     <row r="145" spans="1:15">
       <c r="A145" s="1"/>
-      <c r="B145" s="1"/>
+      <c r="B145" s="2"/>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
       <c r="E145" s="1"/>
@@ -4865,7 +4920,7 @@
     </row>
     <row r="146" spans="1:15">
       <c r="A146" s="1"/>
-      <c r="B146" s="1"/>
+      <c r="B146" s="2"/>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
       <c r="E146" s="1"/>
@@ -4882,7 +4937,7 @@
     </row>
     <row r="147" spans="1:15">
       <c r="A147" s="1"/>
-      <c r="B147" s="1"/>
+      <c r="B147" s="2"/>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
       <c r="E147" s="1"/>
@@ -4899,7 +4954,7 @@
     </row>
     <row r="148" spans="1:15">
       <c r="A148" s="1"/>
-      <c r="B148" s="1"/>
+      <c r="B148" s="2"/>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
       <c r="E148" s="1"/>
@@ -4916,7 +4971,7 @@
     </row>
     <row r="149" spans="1:15">
       <c r="A149" s="1"/>
-      <c r="B149" s="1"/>
+      <c r="B149" s="2"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
@@ -4933,7 +4988,7 @@
     </row>
     <row r="150" spans="1:15">
       <c r="A150" s="1"/>
-      <c r="B150" s="1"/>
+      <c r="B150" s="2"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
       <c r="E150" s="1"/>
@@ -4950,7 +5005,7 @@
     </row>
     <row r="151" spans="1:15">
       <c r="A151" s="1"/>
-      <c r="B151" s="1"/>
+      <c r="B151" s="2"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
       <c r="E151" s="1"/>
@@ -4967,7 +5022,7 @@
     </row>
     <row r="152" spans="1:15">
       <c r="A152" s="1"/>
-      <c r="B152" s="1"/>
+      <c r="B152" s="2"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
       <c r="E152" s="1"/>
@@ -4984,7 +5039,7 @@
     </row>
     <row r="153" spans="1:15">
       <c r="A153" s="1"/>
-      <c r="B153" s="1"/>
+      <c r="B153" s="2"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
       <c r="E153" s="1"/>
@@ -5001,7 +5056,7 @@
     </row>
     <row r="154" spans="1:15">
       <c r="A154" s="1"/>
-      <c r="B154" s="1"/>
+      <c r="B154" s="2"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
       <c r="E154" s="1"/>
@@ -5018,7 +5073,7 @@
     </row>
     <row r="155" spans="1:15">
       <c r="A155" s="1"/>
-      <c r="B155" s="1"/>
+      <c r="B155" s="2"/>
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
       <c r="E155" s="1"/>
@@ -5035,7 +5090,7 @@
     </row>
     <row r="156" spans="1:15">
       <c r="A156" s="1"/>
-      <c r="B156" s="1"/>
+      <c r="B156" s="2"/>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
       <c r="E156" s="1"/>
@@ -5052,7 +5107,7 @@
     </row>
     <row r="157" spans="1:15">
       <c r="A157" s="1"/>
-      <c r="B157" s="1"/>
+      <c r="B157" s="2"/>
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
       <c r="E157" s="1"/>
@@ -5069,7 +5124,7 @@
     </row>
     <row r="158" spans="1:15">
       <c r="A158" s="1"/>
-      <c r="B158" s="1"/>
+      <c r="B158" s="2"/>
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
       <c r="E158" s="1"/>
@@ -5086,7 +5141,7 @@
     </row>
     <row r="159" spans="1:15">
       <c r="A159" s="1"/>
-      <c r="B159" s="1"/>
+      <c r="B159" s="2"/>
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
       <c r="E159" s="1"/>
@@ -5103,7 +5158,7 @@
     </row>
     <row r="160" spans="1:15">
       <c r="A160" s="1"/>
-      <c r="B160" s="1"/>
+      <c r="B160" s="2"/>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
       <c r="E160" s="1"/>
@@ -5120,7 +5175,7 @@
     </row>
     <row r="161" spans="1:15">
       <c r="A161" s="1"/>
-      <c r="B161" s="1"/>
+      <c r="B161" s="2"/>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
       <c r="E161" s="1"/>
@@ -5137,7 +5192,7 @@
     </row>
     <row r="162" spans="1:15">
       <c r="A162" s="1"/>
-      <c r="B162" s="1"/>
+      <c r="B162" s="2"/>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
       <c r="E162" s="1"/>
@@ -5154,7 +5209,7 @@
     </row>
     <row r="163" spans="1:15">
       <c r="A163" s="1"/>
-      <c r="B163" s="1"/>
+      <c r="B163" s="2"/>
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
       <c r="E163" s="1"/>
@@ -5171,7 +5226,7 @@
     </row>
     <row r="164" spans="1:15">
       <c r="A164" s="1"/>
-      <c r="B164" s="1"/>
+      <c r="B164" s="2"/>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
       <c r="E164" s="1"/>
@@ -5188,7 +5243,7 @@
     </row>
     <row r="165" spans="1:15">
       <c r="A165" s="1"/>
-      <c r="B165" s="1"/>
+      <c r="B165" s="2"/>
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
       <c r="E165" s="1"/>
@@ -5205,7 +5260,7 @@
     </row>
     <row r="166" spans="1:15">
       <c r="A166" s="1"/>
-      <c r="B166" s="1"/>
+      <c r="B166" s="2"/>
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
       <c r="E166" s="1"/>
@@ -5222,7 +5277,7 @@
     </row>
     <row r="167" spans="1:15">
       <c r="A167" s="1"/>
-      <c r="B167" s="1"/>
+      <c r="B167" s="2"/>
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
       <c r="E167" s="1"/>
@@ -5239,7 +5294,7 @@
     </row>
     <row r="168" spans="1:15">
       <c r="A168" s="1"/>
-      <c r="B168" s="1"/>
+      <c r="B168" s="2"/>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
       <c r="E168" s="1"/>
@@ -5256,7 +5311,7 @@
     </row>
     <row r="169" spans="1:15">
       <c r="A169" s="1"/>
-      <c r="B169" s="1"/>
+      <c r="B169" s="2"/>
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
       <c r="E169" s="1"/>
@@ -5273,7 +5328,7 @@
     </row>
     <row r="170" spans="1:15">
       <c r="A170" s="1"/>
-      <c r="B170" s="1"/>
+      <c r="B170" s="2"/>
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
       <c r="E170" s="1"/>
@@ -5290,7 +5345,7 @@
     </row>
     <row r="171" spans="1:15">
       <c r="A171" s="1"/>
-      <c r="B171" s="1"/>
+      <c r="B171" s="2"/>
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
       <c r="E171" s="1"/>
@@ -5307,7 +5362,7 @@
     </row>
     <row r="172" spans="1:15">
       <c r="A172" s="1"/>
-      <c r="B172" s="1"/>
+      <c r="B172" s="2"/>
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
       <c r="E172" s="1"/>
@@ -5324,7 +5379,7 @@
     </row>
     <row r="173" spans="1:15">
       <c r="A173" s="1"/>
-      <c r="B173" s="1"/>
+      <c r="B173" s="2"/>
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
       <c r="E173" s="1"/>
@@ -5341,7 +5396,7 @@
     </row>
     <row r="174" spans="1:15">
       <c r="A174" s="1"/>
-      <c r="B174" s="1"/>
+      <c r="B174" s="2"/>
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
       <c r="E174" s="1"/>
@@ -5358,7 +5413,7 @@
     </row>
     <row r="175" spans="1:15">
       <c r="A175" s="1"/>
-      <c r="B175" s="1"/>
+      <c r="B175" s="2"/>
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
       <c r="E175" s="1"/>
@@ -5375,7 +5430,7 @@
     </row>
     <row r="176" spans="1:15">
       <c r="A176" s="1"/>
-      <c r="B176" s="1"/>
+      <c r="B176" s="2"/>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
       <c r="E176" s="1"/>
@@ -5392,7 +5447,7 @@
     </row>
     <row r="177" spans="1:15">
       <c r="A177" s="1"/>
-      <c r="B177" s="1"/>
+      <c r="B177" s="2"/>
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
       <c r="E177" s="1"/>
@@ -5409,7 +5464,7 @@
     </row>
     <row r="178" spans="1:15">
       <c r="A178" s="1"/>
-      <c r="B178" s="1"/>
+      <c r="B178" s="2"/>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
       <c r="E178" s="1"/>
@@ -5426,7 +5481,7 @@
     </row>
     <row r="179" spans="1:15">
       <c r="A179" s="1"/>
-      <c r="B179" s="1"/>
+      <c r="B179" s="2"/>
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
       <c r="E179" s="1"/>
@@ -5443,7 +5498,7 @@
     </row>
     <row r="180" spans="1:15">
       <c r="A180" s="1"/>
-      <c r="B180" s="1"/>
+      <c r="B180" s="2"/>
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
       <c r="E180" s="1"/>
@@ -5460,7 +5515,7 @@
     </row>
     <row r="181" spans="1:15">
       <c r="A181" s="1"/>
-      <c r="B181" s="1"/>
+      <c r="B181" s="2"/>
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
       <c r="E181" s="1"/>
@@ -5477,7 +5532,7 @@
     </row>
     <row r="182" spans="1:15">
       <c r="A182" s="1"/>
-      <c r="B182" s="1"/>
+      <c r="B182" s="2"/>
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
       <c r="E182" s="1"/>
@@ -5494,7 +5549,7 @@
     </row>
     <row r="183" spans="1:15">
       <c r="A183" s="1"/>
-      <c r="B183" s="1"/>
+      <c r="B183" s="2"/>
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
       <c r="E183" s="1"/>
@@ -5511,7 +5566,7 @@
     </row>
     <row r="184" spans="1:15">
       <c r="A184" s="1"/>
-      <c r="B184" s="1"/>
+      <c r="B184" s="2"/>
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
       <c r="E184" s="1"/>
@@ -5528,7 +5583,7 @@
     </row>
     <row r="185" spans="1:15">
       <c r="A185" s="1"/>
-      <c r="B185" s="1"/>
+      <c r="B185" s="2"/>
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
       <c r="E185" s="1"/>
@@ -5545,7 +5600,7 @@
     </row>
     <row r="186" spans="1:15">
       <c r="A186" s="1"/>
-      <c r="B186" s="1"/>
+      <c r="B186" s="2"/>
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
       <c r="E186" s="1"/>
@@ -5562,7 +5617,7 @@
     </row>
     <row r="187" spans="1:15">
       <c r="A187" s="1"/>
-      <c r="B187" s="1"/>
+      <c r="B187" s="2"/>
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
       <c r="E187" s="1"/>
@@ -5579,7 +5634,7 @@
     </row>
     <row r="188" spans="1:15">
       <c r="A188" s="1"/>
-      <c r="B188" s="1"/>
+      <c r="B188" s="2"/>
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
       <c r="E188" s="1"/>
@@ -5596,7 +5651,7 @@
     </row>
     <row r="189" spans="1:15">
       <c r="A189" s="1"/>
-      <c r="B189" s="1"/>
+      <c r="B189" s="2"/>
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
       <c r="E189" s="1"/>
@@ -5613,7 +5668,7 @@
     </row>
     <row r="190" spans="1:15">
       <c r="A190" s="1"/>
-      <c r="B190" s="1"/>
+      <c r="B190" s="2"/>
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
       <c r="E190" s="1"/>
@@ -5630,7 +5685,7 @@
     </row>
     <row r="191" spans="1:15">
       <c r="A191" s="1"/>
-      <c r="B191" s="1"/>
+      <c r="B191" s="2"/>
       <c r="C191" s="1"/>
       <c r="D191" s="1"/>
       <c r="E191" s="1"/>
@@ -5647,7 +5702,7 @@
     </row>
     <row r="192" spans="1:15">
       <c r="A192" s="1"/>
-      <c r="B192" s="1"/>
+      <c r="B192" s="2"/>
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
       <c r="E192" s="1"/>
@@ -5664,7 +5719,7 @@
     </row>
     <row r="193" spans="1:15">
       <c r="A193" s="1"/>
-      <c r="B193" s="1"/>
+      <c r="B193" s="2"/>
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
       <c r="E193" s="1"/>
@@ -5681,7 +5736,7 @@
     </row>
     <row r="194" spans="1:15">
       <c r="A194" s="1"/>
-      <c r="B194" s="1"/>
+      <c r="B194" s="2"/>
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
       <c r="E194" s="1"/>
@@ -5698,7 +5753,7 @@
     </row>
     <row r="195" spans="1:15">
       <c r="A195" s="1"/>
-      <c r="B195" s="1"/>
+      <c r="B195" s="2"/>
       <c r="C195" s="1"/>
       <c r="D195" s="1"/>
       <c r="E195" s="1"/>
@@ -5715,7 +5770,7 @@
     </row>
     <row r="196" spans="1:15">
       <c r="A196" s="1"/>
-      <c r="B196" s="1"/>
+      <c r="B196" s="2"/>
       <c r="C196" s="1"/>
       <c r="D196" s="1"/>
       <c r="E196" s="1"/>
@@ -5732,7 +5787,7 @@
     </row>
     <row r="197" spans="1:15">
       <c r="A197" s="1"/>
-      <c r="B197" s="1"/>
+      <c r="B197" s="2"/>
       <c r="C197" s="1"/>
       <c r="D197" s="1"/>
       <c r="E197" s="1"/>
@@ -5749,7 +5804,7 @@
     </row>
     <row r="198" spans="1:15">
       <c r="A198" s="1"/>
-      <c r="B198" s="1"/>
+      <c r="B198" s="2"/>
       <c r="C198" s="1"/>
       <c r="D198" s="1"/>
       <c r="E198" s="1"/>
@@ -5766,7 +5821,7 @@
     </row>
     <row r="199" spans="1:15">
       <c r="A199" s="1"/>
-      <c r="B199" s="1"/>
+      <c r="B199" s="2"/>
       <c r="C199" s="1"/>
       <c r="D199" s="1"/>
       <c r="E199" s="1"/>
@@ -5783,7 +5838,7 @@
     </row>
     <row r="200" spans="1:15">
       <c r="A200" s="1"/>
-      <c r="B200" s="1"/>
+      <c r="B200" s="2"/>
       <c r="C200" s="1"/>
       <c r="D200" s="1"/>
       <c r="E200" s="1"/>
@@ -5800,7 +5855,7 @@
     </row>
     <row r="201" spans="1:15">
       <c r="A201" s="1"/>
-      <c r="B201" s="1"/>
+      <c r="B201" s="2"/>
       <c r="C201" s="1"/>
       <c r="D201" s="1"/>
       <c r="E201" s="1"/>
@@ -5817,7 +5872,7 @@
     </row>
     <row r="202" spans="1:15">
       <c r="A202" s="1"/>
-      <c r="B202" s="1"/>
+      <c r="B202" s="2"/>
       <c r="C202" s="1"/>
       <c r="D202" s="1"/>
       <c r="E202" s="1"/>
@@ -5834,7 +5889,7 @@
     </row>
     <row r="203" spans="1:15">
       <c r="A203" s="1"/>
-      <c r="B203" s="1"/>
+      <c r="B203" s="2"/>
       <c r="C203" s="1"/>
       <c r="D203" s="1"/>
       <c r="E203" s="1"/>
@@ -5851,7 +5906,7 @@
     </row>
     <row r="204" spans="1:15">
       <c r="A204" s="1"/>
-      <c r="B204" s="1"/>
+      <c r="B204" s="2"/>
       <c r="C204" s="1"/>
       <c r="D204" s="1"/>
       <c r="E204" s="1"/>
@@ -5868,7 +5923,7 @@
     </row>
     <row r="205" spans="1:15">
       <c r="A205" s="1"/>
-      <c r="B205" s="1"/>
+      <c r="B205" s="2"/>
       <c r="C205" s="1"/>
       <c r="D205" s="1"/>
       <c r="E205" s="1"/>
@@ -5885,7 +5940,7 @@
     </row>
     <row r="206" spans="1:15">
       <c r="A206" s="1"/>
-      <c r="B206" s="1"/>
+      <c r="B206" s="2"/>
       <c r="C206" s="1"/>
       <c r="D206" s="1"/>
       <c r="E206" s="1"/>
@@ -5902,7 +5957,7 @@
     </row>
     <row r="207" spans="1:15">
       <c r="A207" s="1"/>
-      <c r="B207" s="1"/>
+      <c r="B207" s="2"/>
       <c r="C207" s="1"/>
       <c r="D207" s="1"/>
       <c r="E207" s="1"/>
@@ -5919,7 +5974,7 @@
     </row>
     <row r="208" spans="1:15">
       <c r="A208" s="1"/>
-      <c r="B208" s="1"/>
+      <c r="B208" s="2"/>
       <c r="C208" s="1"/>
       <c r="D208" s="1"/>
       <c r="E208" s="1"/>
@@ -5936,7 +5991,7 @@
     </row>
     <row r="209" spans="1:15">
       <c r="A209" s="1"/>
-      <c r="B209" s="1"/>
+      <c r="B209" s="2"/>
       <c r="C209" s="1"/>
       <c r="D209" s="1"/>
       <c r="E209" s="1"/>
@@ -5953,7 +6008,7 @@
     </row>
     <row r="210" spans="1:15">
       <c r="A210" s="1"/>
-      <c r="B210" s="1"/>
+      <c r="B210" s="2"/>
       <c r="C210" s="1"/>
       <c r="D210" s="1"/>
       <c r="E210" s="1"/>
@@ -5970,7 +6025,7 @@
     </row>
     <row r="211" spans="1:15">
       <c r="A211" s="1"/>
-      <c r="B211" s="1"/>
+      <c r="B211" s="2"/>
       <c r="C211" s="1"/>
       <c r="D211" s="1"/>
       <c r="E211" s="1"/>
@@ -5987,7 +6042,7 @@
     </row>
     <row r="212" spans="1:15">
       <c r="A212" s="1"/>
-      <c r="B212" s="1"/>
+      <c r="B212" s="2"/>
       <c r="C212" s="1"/>
       <c r="D212" s="1"/>
       <c r="E212" s="1"/>
@@ -6004,7 +6059,7 @@
     </row>
     <row r="213" spans="1:15">
       <c r="A213" s="1"/>
-      <c r="B213" s="1"/>
+      <c r="B213" s="2"/>
       <c r="C213" s="1"/>
       <c r="D213" s="1"/>
       <c r="E213" s="1"/>
@@ -6021,7 +6076,7 @@
     </row>
     <row r="214" spans="1:15">
       <c r="A214" s="1"/>
-      <c r="B214" s="1"/>
+      <c r="B214" s="2"/>
       <c r="C214" s="1"/>
       <c r="D214" s="1"/>
       <c r="E214" s="1"/>
@@ -6038,7 +6093,7 @@
     </row>
     <row r="215" spans="1:15">
       <c r="A215" s="1"/>
-      <c r="B215" s="1"/>
+      <c r="B215" s="2"/>
       <c r="C215" s="1"/>
       <c r="D215" s="1"/>
       <c r="E215" s="1"/>
@@ -6055,7 +6110,7 @@
     </row>
     <row r="216" spans="1:15">
       <c r="A216" s="1"/>
-      <c r="B216" s="1"/>
+      <c r="B216" s="2"/>
       <c r="C216" s="1"/>
       <c r="D216" s="1"/>
       <c r="E216" s="1"/>
@@ -6072,7 +6127,7 @@
     </row>
     <row r="217" spans="1:15">
       <c r="A217" s="1"/>
-      <c r="B217" s="1"/>
+      <c r="B217" s="2"/>
       <c r="C217" s="1"/>
       <c r="D217" s="1"/>
       <c r="E217" s="1"/>
@@ -6089,7 +6144,7 @@
     </row>
     <row r="218" spans="1:15">
       <c r="A218" s="1"/>
-      <c r="B218" s="1"/>
+      <c r="B218" s="2"/>
       <c r="C218" s="1"/>
       <c r="D218" s="1"/>
       <c r="E218" s="1"/>
@@ -6106,7 +6161,7 @@
     </row>
     <row r="219" spans="1:15">
       <c r="A219" s="1"/>
-      <c r="B219" s="1"/>
+      <c r="B219" s="2"/>
       <c r="C219" s="1"/>
       <c r="D219" s="1"/>
       <c r="E219" s="1"/>
@@ -6123,7 +6178,7 @@
     </row>
     <row r="220" spans="1:15">
       <c r="A220" s="1"/>
-      <c r="B220" s="1"/>
+      <c r="B220" s="2"/>
       <c r="C220" s="1"/>
       <c r="D220" s="1"/>
       <c r="E220" s="1"/>
@@ -6140,7 +6195,7 @@
     </row>
     <row r="221" spans="1:15">
       <c r="A221" s="1"/>
-      <c r="B221" s="1"/>
+      <c r="B221" s="2"/>
       <c r="C221" s="1"/>
       <c r="D221" s="1"/>
       <c r="E221" s="1"/>
@@ -6157,7 +6212,7 @@
     </row>
     <row r="222" spans="1:15">
       <c r="A222" s="1"/>
-      <c r="B222" s="1"/>
+      <c r="B222" s="2"/>
       <c r="C222" s="1"/>
       <c r="D222" s="1"/>
       <c r="E222" s="1"/>
@@ -6174,7 +6229,7 @@
     </row>
     <row r="223" spans="1:15">
       <c r="A223" s="1"/>
-      <c r="B223" s="1"/>
+      <c r="B223" s="2"/>
       <c r="C223" s="1"/>
       <c r="D223" s="1"/>
       <c r="E223" s="1"/>
@@ -6191,7 +6246,7 @@
     </row>
     <row r="224" spans="1:15">
       <c r="A224" s="1"/>
-      <c r="B224" s="1"/>
+      <c r="B224" s="2"/>
       <c r="C224" s="1"/>
       <c r="D224" s="1"/>
       <c r="E224" s="1"/>
@@ -6208,7 +6263,7 @@
     </row>
     <row r="225" spans="1:15">
       <c r="A225" s="1"/>
-      <c r="B225" s="1"/>
+      <c r="B225" s="2"/>
       <c r="C225" s="1"/>
       <c r="D225" s="1"/>
       <c r="E225" s="1"/>
@@ -6225,7 +6280,7 @@
     </row>
     <row r="226" spans="1:15">
       <c r="A226" s="1"/>
-      <c r="B226" s="1"/>
+      <c r="B226" s="2"/>
       <c r="C226" s="1"/>
       <c r="D226" s="1"/>
       <c r="E226" s="1"/>
@@ -6242,7 +6297,7 @@
     </row>
     <row r="227" spans="1:15">
       <c r="A227" s="1"/>
-      <c r="B227" s="1"/>
+      <c r="B227" s="2"/>
       <c r="C227" s="1"/>
       <c r="D227" s="1"/>
       <c r="E227" s="1"/>
@@ -6259,7 +6314,7 @@
     </row>
     <row r="228" spans="1:15">
       <c r="A228" s="1"/>
-      <c r="B228" s="1"/>
+      <c r="B228" s="2"/>
       <c r="C228" s="1"/>
       <c r="D228" s="1"/>
       <c r="E228" s="1"/>
@@ -6276,7 +6331,7 @@
     </row>
     <row r="229" spans="1:15">
       <c r="A229" s="1"/>
-      <c r="B229" s="1"/>
+      <c r="B229" s="2"/>
       <c r="C229" s="1"/>
       <c r="D229" s="1"/>
       <c r="E229" s="1"/>
@@ -6293,7 +6348,7 @@
     </row>
     <row r="230" spans="1:15">
       <c r="A230" s="1"/>
-      <c r="B230" s="1"/>
+      <c r="B230" s="2"/>
       <c r="C230" s="1"/>
       <c r="D230" s="1"/>
       <c r="E230" s="1"/>
@@ -6310,7 +6365,7 @@
     </row>
     <row r="231" spans="1:15">
       <c r="A231" s="1"/>
-      <c r="B231" s="1"/>
+      <c r="B231" s="2"/>
       <c r="C231" s="1"/>
       <c r="D231" s="1"/>
       <c r="E231" s="1"/>
@@ -6327,7 +6382,7 @@
     </row>
     <row r="232" spans="1:15">
       <c r="A232" s="1"/>
-      <c r="B232" s="1"/>
+      <c r="B232" s="2"/>
       <c r="C232" s="1"/>
       <c r="D232" s="1"/>
       <c r="E232" s="1"/>
@@ -6344,7 +6399,7 @@
     </row>
     <row r="233" spans="1:15">
       <c r="A233" s="1"/>
-      <c r="B233" s="1"/>
+      <c r="B233" s="2"/>
       <c r="C233" s="1"/>
       <c r="D233" s="1"/>
       <c r="E233" s="1"/>
@@ -6361,7 +6416,7 @@
     </row>
     <row r="234" spans="1:15">
       <c r="A234" s="1"/>
-      <c r="B234" s="1"/>
+      <c r="B234" s="2"/>
       <c r="C234" s="1"/>
       <c r="D234" s="1"/>
       <c r="E234" s="1"/>
@@ -6378,7 +6433,7 @@
     </row>
     <row r="235" spans="1:15">
       <c r="A235" s="1"/>
-      <c r="B235" s="1"/>
+      <c r="B235" s="2"/>
       <c r="C235" s="1"/>
       <c r="D235" s="1"/>
       <c r="E235" s="1"/>
@@ -6395,7 +6450,7 @@
     </row>
     <row r="236" spans="1:15">
       <c r="A236" s="1"/>
-      <c r="B236" s="1"/>
+      <c r="B236" s="2"/>
       <c r="C236" s="1"/>
       <c r="D236" s="1"/>
       <c r="E236" s="1"/>
@@ -6412,7 +6467,7 @@
     </row>
     <row r="237" spans="1:15">
       <c r="A237" s="1"/>
-      <c r="B237" s="1"/>
+      <c r="B237" s="2"/>
       <c r="C237" s="1"/>
       <c r="D237" s="1"/>
       <c r="E237" s="1"/>
@@ -6429,7 +6484,7 @@
     </row>
     <row r="238" spans="1:15">
       <c r="A238" s="1"/>
-      <c r="B238" s="1"/>
+      <c r="B238" s="2"/>
       <c r="C238" s="1"/>
       <c r="D238" s="1"/>
       <c r="E238" s="1"/>
@@ -6446,7 +6501,7 @@
     </row>
     <row r="239" spans="1:15">
       <c r="A239" s="1"/>
-      <c r="B239" s="1"/>
+      <c r="B239" s="2"/>
       <c r="C239" s="1"/>
       <c r="D239" s="1"/>
       <c r="E239" s="1"/>
@@ -6463,7 +6518,7 @@
     </row>
     <row r="240" spans="1:15">
       <c r="A240" s="1"/>
-      <c r="B240" s="1"/>
+      <c r="B240" s="2"/>
       <c r="C240" s="1"/>
       <c r="D240" s="1"/>
       <c r="E240" s="1"/>
@@ -6480,7 +6535,7 @@
     </row>
     <row r="241" spans="1:15">
       <c r="A241" s="1"/>
-      <c r="B241" s="1"/>
+      <c r="B241" s="2"/>
       <c r="C241" s="1"/>
       <c r="D241" s="1"/>
       <c r="E241" s="1"/>
@@ -6497,7 +6552,7 @@
     </row>
     <row r="242" spans="1:15">
       <c r="A242" s="1"/>
-      <c r="B242" s="1"/>
+      <c r="B242" s="2"/>
       <c r="C242" s="1"/>
       <c r="D242" s="1"/>
       <c r="E242" s="1"/>
@@ -6514,7 +6569,7 @@
     </row>
     <row r="243" spans="1:15">
       <c r="A243" s="1"/>
-      <c r="B243" s="1"/>
+      <c r="B243" s="2"/>
       <c r="C243" s="1"/>
       <c r="D243" s="1"/>
       <c r="E243" s="1"/>
@@ -6531,7 +6586,7 @@
     </row>
     <row r="244" spans="1:15">
       <c r="A244" s="1"/>
-      <c r="B244" s="1"/>
+      <c r="B244" s="2"/>
       <c r="C244" s="1"/>
       <c r="D244" s="1"/>
       <c r="E244" s="1"/>
@@ -6548,7 +6603,7 @@
     </row>
     <row r="245" spans="1:15">
       <c r="A245" s="1"/>
-      <c r="B245" s="1"/>
+      <c r="B245" s="2"/>
       <c r="C245" s="1"/>
       <c r="D245" s="1"/>
       <c r="E245" s="1"/>
@@ -6565,7 +6620,7 @@
     </row>
     <row r="246" spans="1:15">
       <c r="A246" s="1"/>
-      <c r="B246" s="1"/>
+      <c r="B246" s="2"/>
       <c r="C246" s="1"/>
       <c r="D246" s="1"/>
       <c r="E246" s="1"/>
@@ -6582,7 +6637,7 @@
     </row>
     <row r="247" spans="1:15">
       <c r="A247" s="1"/>
-      <c r="B247" s="1"/>
+      <c r="B247" s="2"/>
       <c r="C247" s="1"/>
       <c r="D247" s="1"/>
       <c r="E247" s="1"/>
@@ -6599,7 +6654,7 @@
     </row>
     <row r="248" spans="1:15">
       <c r="A248" s="1"/>
-      <c r="B248" s="1"/>
+      <c r="B248" s="2"/>
       <c r="C248" s="1"/>
       <c r="D248" s="1"/>
       <c r="E248" s="1"/>
@@ -6616,7 +6671,7 @@
     </row>
     <row r="249" spans="1:15">
       <c r="A249" s="1"/>
-      <c r="B249" s="1"/>
+      <c r="B249" s="2"/>
       <c r="C249" s="1"/>
       <c r="D249" s="1"/>
       <c r="E249" s="1"/>
@@ -6633,7 +6688,7 @@
     </row>
     <row r="250" spans="1:15">
       <c r="A250" s="1"/>
-      <c r="B250" s="1"/>
+      <c r="B250" s="2"/>
       <c r="C250" s="1"/>
       <c r="D250" s="1"/>
       <c r="E250" s="1"/>
@@ -6650,7 +6705,7 @@
     </row>
     <row r="251" spans="1:15">
       <c r="A251" s="1"/>
-      <c r="B251" s="1"/>
+      <c r="B251" s="2"/>
       <c r="C251" s="1"/>
       <c r="D251" s="1"/>
       <c r="E251" s="1"/>
@@ -6667,7 +6722,7 @@
     </row>
     <row r="252" spans="1:15">
       <c r="A252" s="1"/>
-      <c r="B252" s="1"/>
+      <c r="B252" s="2"/>
       <c r="C252" s="1"/>
       <c r="D252" s="1"/>
       <c r="E252" s="1"/>
@@ -6684,7 +6739,7 @@
     </row>
     <row r="253" spans="1:15">
       <c r="A253" s="1"/>
-      <c r="B253" s="1"/>
+      <c r="B253" s="2"/>
       <c r="C253" s="1"/>
       <c r="D253" s="1"/>
       <c r="E253" s="1"/>
@@ -6701,7 +6756,7 @@
     </row>
     <row r="254" spans="1:15">
       <c r="A254" s="1"/>
-      <c r="B254" s="1"/>
+      <c r="B254" s="2"/>
       <c r="C254" s="1"/>
       <c r="D254" s="1"/>
       <c r="E254" s="1"/>
@@ -6718,7 +6773,7 @@
     </row>
     <row r="255" spans="1:15">
       <c r="A255" s="1"/>
-      <c r="B255" s="1"/>
+      <c r="B255" s="2"/>
       <c r="C255" s="1"/>
       <c r="D255" s="1"/>
       <c r="E255" s="1"/>
@@ -6735,7 +6790,7 @@
     </row>
     <row r="256" spans="1:15">
       <c r="A256" s="1"/>
-      <c r="B256" s="1"/>
+      <c r="B256" s="2"/>
       <c r="C256" s="1"/>
       <c r="D256" s="1"/>
       <c r="E256" s="1"/>
@@ -6752,7 +6807,7 @@
     </row>
     <row r="257" spans="1:15">
       <c r="A257" s="1"/>
-      <c r="B257" s="1"/>
+      <c r="B257" s="2"/>
       <c r="C257" s="1"/>
       <c r="D257" s="1"/>
       <c r="E257" s="1"/>
@@ -6769,7 +6824,7 @@
     </row>
     <row r="258" spans="1:15">
       <c r="A258" s="1"/>
-      <c r="B258" s="1"/>
+      <c r="B258" s="2"/>
       <c r="C258" s="1"/>
       <c r="D258" s="1"/>
       <c r="E258" s="1"/>
@@ -6786,7 +6841,7 @@
     </row>
     <row r="259" spans="1:15">
       <c r="A259" s="1"/>
-      <c r="B259" s="1"/>
+      <c r="B259" s="2"/>
       <c r="C259" s="1"/>
       <c r="D259" s="1"/>
       <c r="E259" s="1"/>
@@ -6803,7 +6858,7 @@
     </row>
     <row r="260" spans="1:15">
       <c r="A260" s="1"/>
-      <c r="B260" s="1"/>
+      <c r="B260" s="2"/>
       <c r="C260" s="1"/>
       <c r="D260" s="1"/>
       <c r="E260" s="1"/>
@@ -6820,7 +6875,7 @@
     </row>
     <row r="261" spans="1:15">
       <c r="A261" s="1"/>
-      <c r="B261" s="1"/>
+      <c r="B261" s="2"/>
       <c r="C261" s="1"/>
       <c r="D261" s="1"/>
       <c r="E261" s="1"/>
@@ -6837,7 +6892,7 @@
     </row>
     <row r="262" spans="1:15">
       <c r="A262" s="1"/>
-      <c r="B262" s="1"/>
+      <c r="B262" s="2"/>
       <c r="C262" s="1"/>
       <c r="D262" s="1"/>
       <c r="E262" s="1"/>
@@ -6854,7 +6909,7 @@
     </row>
     <row r="263" spans="1:15">
       <c r="A263" s="1"/>
-      <c r="B263" s="1"/>
+      <c r="B263" s="2"/>
       <c r="C263" s="1"/>
       <c r="D263" s="1"/>
       <c r="E263" s="1"/>
@@ -6871,7 +6926,7 @@
     </row>
     <row r="264" spans="1:15">
       <c r="A264" s="1"/>
-      <c r="B264" s="1"/>
+      <c r="B264" s="2"/>
       <c r="C264" s="1"/>
       <c r="D264" s="1"/>
       <c r="E264" s="1"/>
@@ -6888,7 +6943,7 @@
     </row>
     <row r="265" spans="1:15">
       <c r="A265" s="1"/>
-      <c r="B265" s="1"/>
+      <c r="B265" s="2"/>
       <c r="C265" s="1"/>
       <c r="D265" s="1"/>
       <c r="E265" s="1"/>
@@ -6905,7 +6960,7 @@
     </row>
     <row r="266" spans="1:15">
       <c r="A266" s="1"/>
-      <c r="B266" s="1"/>
+      <c r="B266" s="2"/>
       <c r="C266" s="1"/>
       <c r="D266" s="1"/>
       <c r="E266" s="1"/>
@@ -6922,7 +6977,7 @@
     </row>
     <row r="267" spans="1:15">
       <c r="A267" s="1"/>
-      <c r="B267" s="1"/>
+      <c r="B267" s="2"/>
       <c r="C267" s="1"/>
       <c r="D267" s="1"/>
       <c r="E267" s="1"/>
@@ -6939,7 +6994,7 @@
     </row>
     <row r="268" spans="1:15">
       <c r="A268" s="1"/>
-      <c r="B268" s="1"/>
+      <c r="B268" s="2"/>
       <c r="C268" s="1"/>
       <c r="D268" s="1"/>
       <c r="E268" s="1"/>
@@ -6956,7 +7011,7 @@
     </row>
     <row r="269" spans="1:15">
       <c r="A269" s="1"/>
-      <c r="B269" s="1"/>
+      <c r="B269" s="2"/>
       <c r="C269" s="1"/>
       <c r="D269" s="1"/>
       <c r="E269" s="1"/>
@@ -6973,7 +7028,7 @@
     </row>
     <row r="270" spans="1:15">
       <c r="A270" s="1"/>
-      <c r="B270" s="1"/>
+      <c r="B270" s="2"/>
       <c r="C270" s="1"/>
       <c r="D270" s="1"/>
       <c r="E270" s="1"/>
@@ -6990,7 +7045,7 @@
     </row>
     <row r="271" spans="1:15">
       <c r="A271" s="1"/>
-      <c r="B271" s="1"/>
+      <c r="B271" s="2"/>
       <c r="C271" s="1"/>
       <c r="D271" s="1"/>
       <c r="E271" s="1"/>
@@ -7007,7 +7062,7 @@
     </row>
     <row r="272" spans="1:15">
       <c r="A272" s="1"/>
-      <c r="B272" s="1"/>
+      <c r="B272" s="2"/>
       <c r="C272" s="1"/>
       <c r="D272" s="1"/>
       <c r="E272" s="1"/>
@@ -7024,7 +7079,7 @@
     </row>
     <row r="273" spans="1:15">
       <c r="A273" s="1"/>
-      <c r="B273" s="1"/>
+      <c r="B273" s="2"/>
       <c r="C273" s="1"/>
       <c r="D273" s="1"/>
       <c r="E273" s="1"/>
@@ -7041,7 +7096,7 @@
     </row>
     <row r="274" spans="1:15">
       <c r="A274" s="1"/>
-      <c r="B274" s="1"/>
+      <c r="B274" s="2"/>
       <c r="C274" s="1"/>
       <c r="D274" s="1"/>
       <c r="E274" s="1"/>
@@ -7058,7 +7113,7 @@
     </row>
     <row r="275" spans="1:15">
       <c r="A275" s="1"/>
-      <c r="B275" s="1"/>
+      <c r="B275" s="2"/>
       <c r="C275" s="1"/>
       <c r="D275" s="1"/>
       <c r="E275" s="1"/>
@@ -7075,7 +7130,7 @@
     </row>
     <row r="276" spans="1:15">
       <c r="A276" s="1"/>
-      <c r="B276" s="1"/>
+      <c r="B276" s="2"/>
       <c r="C276" s="1"/>
       <c r="D276" s="1"/>
       <c r="E276" s="1"/>
@@ -7092,7 +7147,7 @@
     </row>
     <row r="277" spans="1:15">
       <c r="A277" s="1"/>
-      <c r="B277" s="1"/>
+      <c r="B277" s="2"/>
       <c r="C277" s="1"/>
       <c r="D277" s="1"/>
       <c r="E277" s="1"/>
@@ -7109,7 +7164,7 @@
     </row>
     <row r="278" spans="1:15">
       <c r="A278" s="1"/>
-      <c r="B278" s="1"/>
+      <c r="B278" s="2"/>
       <c r="C278" s="1"/>
       <c r="D278" s="1"/>
       <c r="E278" s="1"/>
@@ -7126,7 +7181,7 @@
     </row>
     <row r="279" spans="1:15">
       <c r="A279" s="1"/>
-      <c r="B279" s="1"/>
+      <c r="B279" s="2"/>
       <c r="C279" s="1"/>
       <c r="D279" s="1"/>
       <c r="E279" s="1"/>
@@ -7143,7 +7198,7 @@
     </row>
     <row r="280" spans="1:15">
       <c r="A280" s="1"/>
-      <c r="B280" s="1"/>
+      <c r="B280" s="2"/>
       <c r="C280" s="1"/>
       <c r="D280" s="1"/>
       <c r="E280" s="1"/>
@@ -7160,7 +7215,7 @@
     </row>
     <row r="281" spans="1:15">
       <c r="A281" s="1"/>
-      <c r="B281" s="1"/>
+      <c r="B281" s="2"/>
       <c r="C281" s="1"/>
       <c r="D281" s="1"/>
       <c r="E281" s="1"/>
@@ -7177,7 +7232,7 @@
     </row>
     <row r="282" spans="1:15">
       <c r="A282" s="1"/>
-      <c r="B282" s="1"/>
+      <c r="B282" s="2"/>
       <c r="C282" s="1"/>
       <c r="D282" s="1"/>
       <c r="E282" s="1"/>
@@ -7194,7 +7249,7 @@
     </row>
     <row r="283" spans="1:15">
       <c r="A283" s="1"/>
-      <c r="B283" s="1"/>
+      <c r="B283" s="2"/>
       <c r="C283" s="1"/>
       <c r="D283" s="1"/>
       <c r="E283" s="1"/>
@@ -7211,7 +7266,7 @@
     </row>
     <row r="284" spans="1:15">
       <c r="A284" s="1"/>
-      <c r="B284" s="1"/>
+      <c r="B284" s="2"/>
       <c r="C284" s="1"/>
       <c r="D284" s="1"/>
       <c r="E284" s="1"/>
@@ -7228,7 +7283,7 @@
     </row>
     <row r="285" spans="1:15">
       <c r="A285" s="1"/>
-      <c r="B285" s="1"/>
+      <c r="B285" s="2"/>
       <c r="C285" s="1"/>
       <c r="D285" s="1"/>
       <c r="E285" s="1"/>
@@ -7245,7 +7300,7 @@
     </row>
     <row r="286" spans="1:15">
       <c r="A286" s="1"/>
-      <c r="B286" s="1"/>
+      <c r="B286" s="2"/>
       <c r="C286" s="1"/>
       <c r="D286" s="1"/>
       <c r="E286" s="1"/>
@@ -7262,7 +7317,7 @@
     </row>
     <row r="287" spans="1:15">
       <c r="A287" s="1"/>
-      <c r="B287" s="1"/>
+      <c r="B287" s="2"/>
       <c r="C287" s="1"/>
       <c r="D287" s="1"/>
       <c r="E287" s="1"/>
@@ -7279,7 +7334,7 @@
     </row>
     <row r="288" spans="1:15">
       <c r="A288" s="1"/>
-      <c r="B288" s="1"/>
+      <c r="B288" s="2"/>
       <c r="C288" s="1"/>
       <c r="D288" s="1"/>
       <c r="E288" s="1"/>
@@ -7296,7 +7351,7 @@
     </row>
     <row r="289" spans="1:15">
       <c r="A289" s="1"/>
-      <c r="B289" s="1"/>
+      <c r="B289" s="2"/>
       <c r="C289" s="1"/>
       <c r="D289" s="1"/>
       <c r="E289" s="1"/>
@@ -7313,7 +7368,7 @@
     </row>
     <row r="290" spans="1:15">
       <c r="A290" s="1"/>
-      <c r="B290" s="1"/>
+      <c r="B290" s="2"/>
       <c r="C290" s="1"/>
       <c r="D290" s="1"/>
       <c r="E290" s="1"/>
@@ -7330,7 +7385,7 @@
     </row>
     <row r="291" spans="1:15">
       <c r="A291" s="1"/>
-      <c r="B291" s="1"/>
+      <c r="B291" s="2"/>
       <c r="C291" s="1"/>
       <c r="D291" s="1"/>
       <c r="E291" s="1"/>
@@ -7347,7 +7402,7 @@
     </row>
     <row r="292" spans="1:15">
       <c r="A292" s="1"/>
-      <c r="B292" s="1"/>
+      <c r="B292" s="2"/>
       <c r="C292" s="1"/>
       <c r="D292" s="1"/>
       <c r="E292" s="1"/>
@@ -7364,7 +7419,7 @@
     </row>
     <row r="293" spans="1:15">
       <c r="A293" s="1"/>
-      <c r="B293" s="1"/>
+      <c r="B293" s="2"/>
       <c r="C293" s="1"/>
       <c r="D293" s="1"/>
       <c r="E293" s="1"/>
@@ -7391,7 +7446,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
       <formula1>"SaaS,库存,供应链,饮食通,饮食通老客户上线"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2 O3:O4 O5:O6 O7:O1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2 O5 O3:O4 O6:O7 O8:O1048576">
       <formula1>"新品牌,老品牌"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7404,520 +7459,476 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G56"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="8.625" style="13"/>
+    <col min="1" max="1" width="8.625" style="15"/>
     <col min="2" max="2" width="17.25" customWidth="1"/>
-    <col min="3" max="3" width="19.125" style="14" customWidth="1"/>
-    <col min="4" max="4" width="35.25" style="15" customWidth="1"/>
+    <col min="3" max="3" width="19.125" style="16" customWidth="1"/>
+    <col min="4" max="4" width="35.25" style="17" customWidth="1"/>
     <col min="5" max="5" width="13.5083333333333" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="11.375" style="16" customWidth="1"/>
+    <col min="7" max="7" width="11.375" style="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="E1" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="F1" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="G1" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="17" t="s">
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="10">
+        <v>51</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="16">
+        <v>43087</v>
+      </c>
+      <c r="D2" s="23" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="8">
-        <v>51</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="20" t="s">
+      <c r="E2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="F2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="7">
+      <c r="A3" s="9">
         <v>52</v>
       </c>
-      <c r="B3" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="D3" s="21" t="s">
+      <c r="B3" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="16">
+        <v>43092</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="9"/>
+      <c r="B4" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="16">
+        <v>43098</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="7"/>
-      <c r="B4" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="C4" s="14">
-        <v>43098</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="23"/>
+      <c r="G4" s="25" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="5" ht="14.25" spans="1:7">
-      <c r="A5" s="8">
+      <c r="A5" s="10">
         <v>1</v>
       </c>
-      <c r="B5" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="14">
+      <c r="B5" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="16">
         <v>43102</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="22"/>
+      <c r="G5" s="24" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="6" ht="14.25" spans="1:7">
-      <c r="A6" s="7"/>
-      <c r="B6" s="22"/>
-      <c r="D6" s="25"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="24"/>
+      <c r="D6" s="27"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="26"/>
+      <c r="G6" s="28"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="7"/>
-      <c r="B7" s="22"/>
-      <c r="D7" s="21"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="24"/>
+      <c r="D7" s="23"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="27"/>
+      <c r="G7" s="29"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="8"/>
-      <c r="B8" s="22"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="27"/>
+      <c r="A8" s="10">
+        <v>4</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="16">
+        <v>43123</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G8" s="29" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="7"/>
-      <c r="B9" s="22"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="27"/>
+      <c r="A9" s="9"/>
+      <c r="B9" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="16">
+        <v>43123</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" s="29" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="7"/>
-      <c r="B10" s="22"/>
-      <c r="D10" s="21"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="24"/>
+      <c r="D10" s="23"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="27"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="7"/>
-      <c r="B11" s="22"/>
-      <c r="D11" s="21"/>
+      <c r="G10" s="29"/>
+    </row>
+    <row r="11" ht="14.25" spans="1:7">
+      <c r="A11" s="10"/>
+      <c r="B11" s="24"/>
+      <c r="D11" s="27"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="27"/>
+      <c r="G11" s="28"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="7"/>
-      <c r="B12" s="22"/>
-      <c r="D12" s="21"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="24"/>
+      <c r="D12" s="23"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="27"/>
+      <c r="G12" s="29"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="7"/>
-      <c r="B13" s="1"/>
-      <c r="D13" s="21"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="24"/>
+      <c r="D13" s="23"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="27"/>
+      <c r="G13" s="29"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="7"/>
-      <c r="B14" s="1"/>
-      <c r="D14" s="21"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="24"/>
+      <c r="D14" s="23"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="27"/>
+      <c r="G14" s="29"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="7"/>
-      <c r="B15" s="1"/>
-      <c r="D15" s="21"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="24"/>
+      <c r="D15" s="23"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="27"/>
+      <c r="G15" s="29"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="7"/>
-      <c r="B16" s="1"/>
-      <c r="D16" s="21"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="24"/>
+      <c r="D16" s="23"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="27"/>
+      <c r="G16" s="29"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="7"/>
-      <c r="B17" s="1"/>
-      <c r="D17" s="21"/>
+      <c r="A17" s="9"/>
+      <c r="B17" s="24"/>
+      <c r="D17" s="23"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="27"/>
+      <c r="G17" s="29"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="7"/>
-      <c r="B18" s="1"/>
-      <c r="D18" s="21"/>
+      <c r="A18" s="9"/>
+      <c r="B18" s="24"/>
+      <c r="D18" s="23"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
-      <c r="G18" s="27"/>
+      <c r="G18" s="29"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="7"/>
-      <c r="B19" s="22"/>
-      <c r="D19" s="21"/>
+      <c r="A19" s="9"/>
+      <c r="B19" s="24"/>
+      <c r="D19" s="23"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
-      <c r="G19" s="27"/>
+      <c r="G19" s="29"/>
     </row>
     <row r="20" ht="14.25" spans="1:7">
-      <c r="A20" s="7"/>
-      <c r="B20" s="22"/>
-      <c r="D20" s="25"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="24"/>
+      <c r="D20" s="27"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
-      <c r="G20" s="22"/>
+      <c r="G20" s="24"/>
     </row>
     <row r="21" ht="14.25" spans="1:7">
-      <c r="A21" s="7"/>
-      <c r="B21" s="22"/>
-      <c r="D21" s="25"/>
+      <c r="A21" s="9"/>
+      <c r="B21" s="24"/>
+      <c r="D21" s="27"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
-      <c r="G21" s="26"/>
+      <c r="G21" s="28"/>
     </row>
     <row r="22" ht="14.25" spans="1:7">
-      <c r="A22" s="12"/>
-      <c r="B22" s="22"/>
-      <c r="D22" s="25"/>
+      <c r="A22" s="14"/>
+      <c r="B22" s="24"/>
+      <c r="D22" s="27"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-      <c r="G22" s="26"/>
+      <c r="G22" s="28"/>
     </row>
     <row r="23" ht="14.25" spans="1:7">
-      <c r="A23" s="8"/>
-      <c r="B23" s="22"/>
-      <c r="D23" s="25"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="24"/>
+      <c r="D23" s="27"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="26"/>
+      <c r="G23" s="28"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="7"/>
-      <c r="B24" s="22"/>
-      <c r="D24" s="21"/>
+      <c r="A24" s="9"/>
+      <c r="B24" s="24"/>
+      <c r="D24" s="23"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
-      <c r="G24" s="27"/>
+      <c r="G24" s="29"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="7"/>
-      <c r="B25" s="22"/>
-      <c r="D25" s="21"/>
+      <c r="A25" s="9"/>
+      <c r="B25" s="24"/>
+      <c r="D25" s="23"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
-      <c r="G25" s="27"/>
+      <c r="G25" s="29"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="7"/>
-      <c r="B26" s="22"/>
-      <c r="D26" s="21"/>
+      <c r="A26" s="9"/>
+      <c r="B26" s="24"/>
+      <c r="D26" s="23"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
-      <c r="G26" s="27"/>
+      <c r="G26" s="29"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="7"/>
-      <c r="B27" s="22"/>
-      <c r="D27" s="21"/>
+      <c r="A27" s="9"/>
+      <c r="B27" s="24"/>
+      <c r="D27" s="23"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
-      <c r="G27" s="27"/>
+      <c r="G27" s="29"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="7"/>
-      <c r="B28" s="22"/>
-      <c r="D28" s="21"/>
+      <c r="A28" s="9"/>
+      <c r="B28" s="24"/>
+      <c r="D28" s="23"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
-      <c r="G28" s="27"/>
+      <c r="G28" s="29"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="7"/>
-      <c r="B29" s="22"/>
-      <c r="D29" s="21"/>
+      <c r="A29" s="9"/>
+      <c r="B29" s="24"/>
+      <c r="D29" s="23"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
-      <c r="G29" s="27"/>
+      <c r="G29" s="29"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="7"/>
-      <c r="B30" s="22"/>
-      <c r="D30" s="21"/>
+      <c r="A30" s="9"/>
+      <c r="B30" s="24"/>
+      <c r="D30" s="23"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
-      <c r="G30" s="27"/>
+      <c r="G30" s="29"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="7"/>
-      <c r="B31" s="22"/>
-      <c r="D31" s="21"/>
+      <c r="A31" s="9"/>
+      <c r="B31" s="24"/>
+      <c r="D31" s="23"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
-      <c r="G31" s="27"/>
+      <c r="G31" s="29"/>
     </row>
     <row r="32" ht="14.25" spans="1:7">
-      <c r="A32" s="7"/>
-      <c r="B32" s="22"/>
-      <c r="D32" s="25"/>
+      <c r="A32" s="9"/>
+      <c r="B32" s="24"/>
+      <c r="D32" s="27"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
-      <c r="G32" s="22"/>
+      <c r="G32" s="28"/>
     </row>
     <row r="33" ht="14.25" spans="1:7">
-      <c r="A33" s="7"/>
-      <c r="B33" s="22"/>
-      <c r="D33" s="25"/>
+      <c r="A33" s="9"/>
+      <c r="B33" s="24"/>
+      <c r="D33" s="27"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
-      <c r="G33" s="26"/>
-    </row>
-    <row r="34" ht="14.25" spans="1:7">
-      <c r="A34" s="12"/>
-      <c r="B34" s="22"/>
-      <c r="D34" s="25"/>
+      <c r="G33" s="28"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="14"/>
+      <c r="B34" s="24"/>
+      <c r="D34" s="23"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
-      <c r="G34" s="26"/>
-    </row>
-    <row r="35" ht="14.25" spans="1:7">
-      <c r="A35" s="8"/>
-      <c r="B35" s="22"/>
-      <c r="D35" s="25"/>
+      <c r="G34" s="29"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="9"/>
+      <c r="B35" s="24"/>
+      <c r="D35" s="23"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
-      <c r="G35" s="26"/>
+      <c r="G35" s="29"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="7"/>
-      <c r="B36" s="22"/>
-      <c r="D36" s="21"/>
+      <c r="A36" s="9"/>
+      <c r="B36" s="24"/>
+      <c r="D36" s="23"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
-      <c r="G36" s="27"/>
+      <c r="G36" s="29"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="7"/>
-      <c r="B37" s="22"/>
-      <c r="D37" s="21"/>
+      <c r="A37" s="9"/>
+      <c r="B37" s="24"/>
+      <c r="D37" s="23"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
-      <c r="G37" s="27"/>
+      <c r="G37" s="29"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="7"/>
-      <c r="B38" s="22"/>
-      <c r="D38" s="21"/>
+      <c r="A38" s="9"/>
+      <c r="B38" s="24"/>
+      <c r="D38" s="23"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
-      <c r="G38" s="27"/>
+      <c r="G38" s="29"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="7"/>
-      <c r="B39" s="22"/>
-      <c r="D39" s="21"/>
+      <c r="A39" s="9"/>
+      <c r="B39" s="24"/>
+      <c r="D39" s="23"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
-      <c r="G39" s="27"/>
+      <c r="G39" s="29"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="7"/>
-      <c r="B40" s="22"/>
-      <c r="D40" s="21"/>
+      <c r="A40" s="9"/>
+      <c r="B40" s="24"/>
+      <c r="D40" s="23"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
-      <c r="G40" s="27"/>
+      <c r="G40" s="29"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="7"/>
-      <c r="B41" s="22"/>
-      <c r="D41" s="21"/>
+      <c r="A41" s="9"/>
+      <c r="B41" s="24"/>
+      <c r="D41" s="23"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
-      <c r="G41" s="27"/>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="7"/>
-      <c r="B42" s="22"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="27"/>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="7"/>
-      <c r="B43" s="22"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="27"/>
-    </row>
-    <row r="44" ht="14.25" spans="1:7">
-      <c r="A44" s="7"/>
-      <c r="B44" s="22"/>
-      <c r="D44" s="25"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="26"/>
-    </row>
-    <row r="45" ht="14.25" spans="1:7">
-      <c r="A45" s="7"/>
-      <c r="B45" s="22"/>
-      <c r="D45" s="25"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="26"/>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="12"/>
-      <c r="B46" s="22"/>
-      <c r="D46" s="21"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="27"/>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="7"/>
-      <c r="B47" s="22"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="27"/>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48" s="7"/>
-      <c r="B48" s="22"/>
-      <c r="D48" s="21"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="27"/>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49" s="7"/>
-      <c r="B49" s="22"/>
-      <c r="D49" s="21"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="27"/>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50" s="7"/>
-      <c r="B50" s="22"/>
-      <c r="D50" s="21"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="27"/>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51" s="7"/>
-      <c r="B51" s="22"/>
-      <c r="D51" s="21"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="27"/>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52" s="7"/>
-      <c r="B52" s="22"/>
-      <c r="D52" s="21"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="27"/>
-    </row>
-    <row r="53" spans="1:7">
-      <c r="A53" s="7"/>
-      <c r="B53" s="22"/>
-      <c r="D53" s="21"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="27"/>
-    </row>
-    <row r="54" spans="1:1">
-      <c r="A54" s="7"/>
-    </row>
-    <row r="55" spans="1:1">
-      <c r="A55" s="7"/>
-    </row>
-    <row r="56" spans="1:1">
-      <c r="A56" s="12"/>
+      <c r="G41" s="29"/>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="9"/>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="9"/>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A22"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A22"/>
     <mergeCell ref="A23:A34"/>
-    <mergeCell ref="A35:A46"/>
-    <mergeCell ref="A47:A56"/>
+    <mergeCell ref="A35:A44"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2 E3 E4:E5 E6:E1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E10 E2:E5 E6:E7 E8:E9 E11:E1048576">
       <formula1>"单店,连锁,KA,供应链"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="saas" sqref="F2 F3 F4:F5 F6:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="saas" sqref="F2:F5 F6:F10 F11:F1048576">
       <formula1>"SAAS,供应链,SAAS+微信,SAAS+供应链,SAAS+微信+供应链"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7933,132 +7944,132 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17" style="1" customWidth="1"/>
-    <col min="4" max="4" width="33.75" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17" style="2" customWidth="1"/>
+    <col min="4" max="4" width="33.75" style="3" customWidth="1"/>
     <col min="5" max="5" width="65" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" spans="1:5">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>64</v>
+      <c r="B1" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>68</v>
+      <c r="A2" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="11">
+        <v>43084</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>71</v>
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="11">
+        <v>43091</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>74</v>
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="11">
+        <v>43099</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>74</v>
+      <c r="A5" s="14"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="11">
+        <v>43100</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>79</v>
+      <c r="A6" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="11">
+        <v>43101</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="2:5">
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="E7" s="10"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="11"/>
+      <c r="E7" s="12"/>
     </row>
     <row r="8" spans="2:5">
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="E8" s="10"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="11"/>
+      <c r="E8" s="12"/>
     </row>
     <row r="9" spans="2:5">
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="E9" s="10"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="11"/>
+      <c r="E9" s="12"/>
     </row>
     <row r="10" spans="2:5">
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="E10" s="10"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="11"/>
+      <c r="E10" s="12"/>
     </row>
     <row r="11" spans="2:5">
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="E11" s="10"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="11"/>
+      <c r="E11" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/周数据/《个人上线率统计表》-高阳.xlsx
+++ b/周数据/《个人上线率统计表》-高阳.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="19770" windowHeight="8370"/>
+    <workbookView windowWidth="19770" windowHeight="8370" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86">
   <si>
     <t>个人上线率分析表</t>
   </si>
@@ -167,6 +167,15 @@
   </si>
   <si>
     <t>徐总</t>
+  </si>
+  <si>
+    <t>美美翰尼江宁店</t>
+  </si>
+  <si>
+    <t>胡总</t>
+  </si>
+  <si>
+    <t>老品牌</t>
   </si>
   <si>
     <t>立项日期</t>
@@ -273,10 +282,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="29">
@@ -349,7 +358,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -357,7 +373,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -378,25 +394,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -410,15 +416,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -434,9 +432,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -456,27 +462,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -485,6 +487,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -555,7 +564,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -567,7 +612,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -585,7 +630,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -603,19 +696,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -627,90 +708,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="38">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -871,9 +880,7 @@
       <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -882,141 +889,7 @@
       <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1027,71 +900,60 @@
       <top style="medium">
         <color auto="1"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color auto="1"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="medium">
-        <color auto="1"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="medium">
-        <color auto="1"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="medium">
-        <color auto="1"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
       <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1115,37 +977,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1164,30 +996,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -1201,10 +1009,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1213,137 +1021,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="33" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1452,9 +1260,6 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1467,112 +1272,46 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="10" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="9" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="10" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="9" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="10" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1894,13 +1633,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5.125" style="15" customWidth="1"/>
     <col min="2" max="2" width="8.125" style="15" customWidth="1"/>
@@ -1910,310 +1649,374 @@
     <col min="7" max="7" width="15.5083333333333" style="15" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="17.875" style="15" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="17.875" style="15" customWidth="1"/>
-    <col min="10" max="10" width="17.875" style="38" customWidth="1"/>
+    <col min="10" max="10" width="17.875" style="37" customWidth="1"/>
     <col min="11" max="11" width="16" style="15" customWidth="1"/>
     <col min="12" max="12" width="17.875" style="15" customWidth="1"/>
     <col min="13" max="13" width="18.625" style="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:13">
-      <c r="A1" s="39" t="s">
+    <row r="1" ht="14.25" spans="1:13">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="61"/>
-    </row>
-    <row r="2" ht="14.25" spans="1:13">
-      <c r="A2" s="41" t="s">
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="49"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="44" t="s">
+      <c r="D2" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="44" t="s">
+      <c r="E2" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="45" t="s">
+      <c r="F2" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="45" t="s">
+      <c r="G2" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="46" t="s">
+      <c r="H2" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="62" t="s">
+      <c r="I2" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="63" t="s">
+      <c r="J2" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="64" t="s">
+      <c r="K2" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="65" t="s">
+      <c r="L2" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="66" t="s">
+      <c r="M2" s="53" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="47">
+      <c r="A3" s="40">
         <v>12</v>
       </c>
-      <c r="B3" s="48">
+      <c r="B3" s="44">
         <v>52</v>
       </c>
-      <c r="C3" s="49">
+      <c r="C3" s="42">
         <v>1</v>
       </c>
-      <c r="D3" s="50">
+      <c r="D3" s="42">
         <v>0</v>
       </c>
-      <c r="E3" s="50">
+      <c r="E3" s="42">
         <f t="shared" ref="E3:E8" si="0">C3-D3</f>
         <v>1</v>
       </c>
-      <c r="F3" s="51"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="51">
-        <f t="shared" ref="H3:H8" si="1">F3-G3</f>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43">
+        <f t="shared" ref="H3:H11" si="1">F3-G3</f>
         <v>0</v>
       </c>
-      <c r="I3" s="67">
+      <c r="I3" s="50">
         <v>0</v>
       </c>
-      <c r="J3" s="68" t="e">
-        <f t="shared" ref="J3:J8" si="2">I3/L3*100%</f>
+      <c r="J3" s="51" t="e">
+        <f t="shared" ref="J3:J11" si="2">I3/L3*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K3" s="69">
+      <c r="K3" s="52">
         <f t="shared" ref="K3:K8" si="3">C3+G3</f>
         <v>1</v>
       </c>
-      <c r="L3" s="70">
-        <f t="shared" ref="L3:L8" si="4">D3+G3</f>
+      <c r="L3" s="52">
+        <f t="shared" ref="L3:L11" si="4">D3+G3</f>
         <v>0</v>
       </c>
-      <c r="M3" s="71">
-        <f t="shared" ref="M3:M8" si="5">L3/K3*100%</f>
+      <c r="M3" s="53">
+        <f t="shared" ref="M3:M11" si="5">L3/K3*100%</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="53">
+      <c r="A4" s="45">
         <v>1</v>
       </c>
-      <c r="B4" s="48">
+      <c r="B4" s="44">
         <v>1</v>
       </c>
-      <c r="C4" s="49">
+      <c r="C4" s="42">
         <v>5</v>
       </c>
-      <c r="D4" s="50">
+      <c r="D4" s="42">
         <v>2</v>
       </c>
-      <c r="E4" s="50">
+      <c r="E4" s="42">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F4" s="51"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="51">
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I4" s="67">
+      <c r="I4" s="50">
         <v>0</v>
       </c>
-      <c r="J4" s="68">
+      <c r="J4" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K4" s="69">
+      <c r="K4" s="52">
         <v>5</v>
       </c>
-      <c r="L4" s="70">
+      <c r="L4" s="52">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="M4" s="71">
+      <c r="M4" s="53">
         <f t="shared" si="5"/>
         <v>0.4</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="53"/>
-      <c r="B5" s="48">
+      <c r="A5" s="46"/>
+      <c r="B5" s="44">
         <v>2</v>
       </c>
-      <c r="C5" s="49">
+      <c r="C5" s="42">
         <v>3</v>
       </c>
-      <c r="D5" s="50">
+      <c r="D5" s="42">
         <v>2</v>
       </c>
-      <c r="E5" s="50">
+      <c r="E5" s="42">
         <v>1</v>
       </c>
-      <c r="F5" s="51"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="51">
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I5" s="67">
+      <c r="I5" s="50">
         <v>0</v>
       </c>
-      <c r="J5" s="68">
+      <c r="J5" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K5" s="69">
+      <c r="K5" s="52">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="L5" s="70">
+      <c r="L5" s="52">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="M5" s="71">
+      <c r="M5" s="53">
         <f t="shared" si="5"/>
         <v>0.666666666666667</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="53"/>
-      <c r="B6" s="48">
+      <c r="A6" s="46"/>
+      <c r="B6" s="44">
         <v>3</v>
       </c>
-      <c r="C6" s="49">
+      <c r="C6" s="42">
         <v>1</v>
       </c>
-      <c r="D6" s="50">
+      <c r="D6" s="42">
         <v>1</v>
       </c>
-      <c r="E6" s="50">
+      <c r="E6" s="42">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F6" s="51"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="51">
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I6" s="67"/>
-      <c r="J6" s="68">
+      <c r="I6" s="50">
+        <v>0</v>
+      </c>
+      <c r="J6" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K6" s="69">
+      <c r="K6" s="52">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="L6" s="70">
+      <c r="L6" s="52">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M6" s="71">
+      <c r="M6" s="53">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="53"/>
-      <c r="B7" s="48">
+      <c r="A7" s="46"/>
+      <c r="B7" s="44">
         <v>4</v>
       </c>
-      <c r="C7" s="49">
+      <c r="C7" s="42">
         <v>3</v>
       </c>
-      <c r="D7" s="50">
+      <c r="D7" s="42">
         <v>1</v>
       </c>
-      <c r="E7" s="50">
-        <f>C7-D7</f>
+      <c r="E7" s="42">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F7" s="51"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="51">
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I7" s="67"/>
-      <c r="J7" s="68">
-        <f>I7/L7*100%</f>
+      <c r="I7" s="50">
         <v>0</v>
       </c>
-      <c r="K7" s="69">
-        <f>C7+G7</f>
+      <c r="J7" s="51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="52">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="L7" s="70">
-        <f>D7+G7</f>
+      <c r="L7" s="52">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M7" s="71">
-        <f>L7/K7*100%</f>
+      <c r="M7" s="53">
+        <f t="shared" si="5"/>
         <v>0.333333333333333</v>
       </c>
     </row>
-    <row r="8" ht="14.25" spans="1:13">
-      <c r="A8" s="54"/>
-      <c r="B8" s="55"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F8" s="58"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="58">
+    <row r="8" spans="1:13">
+      <c r="A8" s="46"/>
+      <c r="B8" s="44">
+        <v>5</v>
+      </c>
+      <c r="C8" s="42">
+        <v>3</v>
+      </c>
+      <c r="D8" s="42">
+        <v>1</v>
+      </c>
+      <c r="E8" s="42">
+        <v>2</v>
+      </c>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I8" s="72"/>
-      <c r="J8" s="73" t="e">
+      <c r="I8" s="50">
+        <v>0</v>
+      </c>
+      <c r="J8" s="51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="52">
+        <v>3</v>
+      </c>
+      <c r="L8" s="52">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="M8" s="53">
+        <f t="shared" si="5"/>
+        <v>0.333333333333333</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="46"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="51" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K8" s="74">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L8" s="75">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M8" s="76" t="e">
-        <f t="shared" si="5"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="53"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="46"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="51" t="e">
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="K10" s="52"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="53"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="47"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="51" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K11" s="52"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A4:A11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2226,8 +2029,8 @@
   <sheetPr/>
   <dimension ref="A1:O293"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
@@ -2272,7 +2075,7 @@
       <c r="H1" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="37" t="s">
+      <c r="I1" s="36" t="s">
         <v>22</v>
       </c>
       <c r="J1" s="34" t="s">
@@ -2526,7 +2329,7 @@
       </c>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="36">
+      <c r="A7" s="12">
         <v>4</v>
       </c>
       <c r="B7" s="2">
@@ -2573,21 +2376,51 @@
       </c>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="1"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
+      <c r="A8" s="12">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2">
+        <v>43130</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="1">
+        <v>76129193</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" s="1">
+        <v>15189553449</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N8" s="1">
+        <v>18651618831</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1"/>
@@ -7484,19 +7317,19 @@
         <v>21</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F1" s="19" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G1" s="19" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -7510,16 +7343,16 @@
         <v>43087</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -7533,37 +7366,37 @@
         <v>43092</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="9"/>
       <c r="B4" s="24" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C4" s="16">
         <v>43098</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G4" s="25" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:7">
@@ -7577,16 +7410,16 @@
         <v>43102</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G5" s="24" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:7">
@@ -7610,43 +7443,43 @@
         <v>4</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C8" s="16">
         <v>43123</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G8" s="29" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="9"/>
       <c r="B9" s="24" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C9" s="16">
         <v>43123</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G9" s="29" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -7961,21 +7794,21 @@
         <v>1</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="9" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>32</v>
@@ -7984,10 +7817,10 @@
         <v>43084</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -7997,10 +7830,10 @@
         <v>43091</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -8010,10 +7843,10 @@
         <v>43099</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -8023,15 +7856,15 @@
         <v>43100</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="12" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>32</v>
@@ -8040,10 +7873,10 @@
         <v>43101</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="2:5">

--- a/周数据/《个人上线率统计表》-高阳.xlsx
+++ b/周数据/《个人上线率统计表》-高阳.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="19770" windowHeight="8370" activeTab="1"/>
+    <workbookView windowWidth="19530" windowHeight="7380" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87">
   <si>
     <t>个人上线率分析表</t>
   </si>
@@ -275,6 +275,9 @@
   </si>
   <si>
     <t>开业驻店</t>
+  </si>
+  <si>
+    <t>江苏省南京市江宁区金盛路95号</t>
   </si>
 </sst>
 </file>
@@ -282,10 +285,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="29">
@@ -358,14 +361,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -373,7 +369,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -394,15 +390,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -416,7 +422,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -432,17 +446,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -462,23 +468,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -487,13 +497,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -564,43 +567,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -612,7 +585,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -630,13 +609,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -654,13 +681,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -672,49 +705,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -904,6 +907,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -919,11 +946,37 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -943,56 +996,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1009,10 +1012,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1021,137 +1024,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1195,6 +1198,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1641,377 +1653,377 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="5.125" style="15" customWidth="1"/>
-    <col min="2" max="2" width="8.125" style="15" customWidth="1"/>
-    <col min="3" max="4" width="16.25" style="15" customWidth="1"/>
-    <col min="5" max="5" width="17.75" style="15" customWidth="1"/>
-    <col min="6" max="6" width="15.875" style="15" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5083333333333" style="15" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="17.875" style="15" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="17.875" style="15" customWidth="1"/>
-    <col min="10" max="10" width="17.875" style="37" customWidth="1"/>
-    <col min="11" max="11" width="16" style="15" customWidth="1"/>
-    <col min="12" max="12" width="17.875" style="15" customWidth="1"/>
-    <col min="13" max="13" width="18.625" style="15" customWidth="1"/>
+    <col min="1" max="1" width="5.125" style="18" customWidth="1"/>
+    <col min="2" max="2" width="8.125" style="18" customWidth="1"/>
+    <col min="3" max="4" width="16.25" style="18" customWidth="1"/>
+    <col min="5" max="5" width="17.75" style="18" customWidth="1"/>
+    <col min="6" max="6" width="15.875" style="18" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5083333333333" style="18" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="17.875" style="18" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="17.875" style="18" customWidth="1"/>
+    <col min="10" max="10" width="17.875" style="40" customWidth="1"/>
+    <col min="11" max="11" width="16" style="18" customWidth="1"/>
+    <col min="12" max="12" width="17.875" style="18" customWidth="1"/>
+    <col min="13" max="13" width="18.625" style="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" spans="1:13">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="49"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="52"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="42" t="s">
+      <c r="E2" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="43" t="s">
+      <c r="F2" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="43" t="s">
+      <c r="G2" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="43" t="s">
+      <c r="H2" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="50" t="s">
+      <c r="I2" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="51" t="s">
+      <c r="J2" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="52" t="s">
+      <c r="K2" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="52" t="s">
+      <c r="L2" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="53" t="s">
+      <c r="M2" s="56" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="40">
+      <c r="A3" s="43">
         <v>12</v>
       </c>
-      <c r="B3" s="44">
+      <c r="B3" s="47">
         <v>52</v>
       </c>
-      <c r="C3" s="42">
+      <c r="C3" s="45">
         <v>1</v>
       </c>
-      <c r="D3" s="42">
+      <c r="D3" s="45">
         <v>0</v>
       </c>
-      <c r="E3" s="42">
+      <c r="E3" s="45">
         <f t="shared" ref="E3:E8" si="0">C3-D3</f>
         <v>1</v>
       </c>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43">
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46">
         <f t="shared" ref="H3:H11" si="1">F3-G3</f>
         <v>0</v>
       </c>
-      <c r="I3" s="50">
+      <c r="I3" s="53">
         <v>0</v>
       </c>
-      <c r="J3" s="51" t="e">
+      <c r="J3" s="54" t="e">
         <f t="shared" ref="J3:J11" si="2">I3/L3*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K3" s="52">
+      <c r="K3" s="55">
         <f t="shared" ref="K3:K8" si="3">C3+G3</f>
         <v>1</v>
       </c>
-      <c r="L3" s="52">
+      <c r="L3" s="55">
         <f t="shared" ref="L3:L11" si="4">D3+G3</f>
         <v>0</v>
       </c>
-      <c r="M3" s="53">
+      <c r="M3" s="56">
         <f t="shared" ref="M3:M11" si="5">L3/K3*100%</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="45">
+      <c r="A4" s="48">
         <v>1</v>
       </c>
-      <c r="B4" s="44">
+      <c r="B4" s="47">
         <v>1</v>
       </c>
-      <c r="C4" s="42">
+      <c r="C4" s="45">
         <v>5</v>
       </c>
-      <c r="D4" s="42">
+      <c r="D4" s="45">
         <v>2</v>
       </c>
-      <c r="E4" s="42">
+      <c r="E4" s="45">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43">
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I4" s="50">
+      <c r="I4" s="53">
         <v>0</v>
       </c>
-      <c r="J4" s="51">
+      <c r="J4" s="54">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K4" s="52">
+      <c r="K4" s="55">
         <v>5</v>
       </c>
-      <c r="L4" s="52">
+      <c r="L4" s="55">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="M4" s="53">
+      <c r="M4" s="56">
         <f t="shared" si="5"/>
         <v>0.4</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="46"/>
-      <c r="B5" s="44">
+      <c r="A5" s="49"/>
+      <c r="B5" s="47">
         <v>2</v>
       </c>
-      <c r="C5" s="42">
+      <c r="C5" s="45">
         <v>3</v>
       </c>
-      <c r="D5" s="42">
+      <c r="D5" s="45">
         <v>2</v>
       </c>
-      <c r="E5" s="42">
+      <c r="E5" s="45">
         <v>1</v>
       </c>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43">
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I5" s="50">
+      <c r="I5" s="53">
         <v>0</v>
       </c>
-      <c r="J5" s="51">
+      <c r="J5" s="54">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K5" s="52">
+      <c r="K5" s="55">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="L5" s="52">
+      <c r="L5" s="55">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="M5" s="53">
+      <c r="M5" s="56">
         <f t="shared" si="5"/>
         <v>0.666666666666667</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="46"/>
-      <c r="B6" s="44">
+      <c r="A6" s="49"/>
+      <c r="B6" s="47">
         <v>3</v>
       </c>
-      <c r="C6" s="42">
+      <c r="C6" s="45">
         <v>1</v>
       </c>
-      <c r="D6" s="42">
+      <c r="D6" s="45">
         <v>1</v>
       </c>
-      <c r="E6" s="42">
+      <c r="E6" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43">
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I6" s="50">
+      <c r="I6" s="53">
         <v>0</v>
       </c>
-      <c r="J6" s="51">
+      <c r="J6" s="54">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K6" s="52">
+      <c r="K6" s="55">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="L6" s="52">
+      <c r="L6" s="55">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M6" s="53">
+      <c r="M6" s="56">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="46"/>
-      <c r="B7" s="44">
+      <c r="A7" s="49"/>
+      <c r="B7" s="47">
         <v>4</v>
       </c>
-      <c r="C7" s="42">
+      <c r="C7" s="45">
         <v>3</v>
       </c>
-      <c r="D7" s="42">
+      <c r="D7" s="45">
         <v>1</v>
       </c>
-      <c r="E7" s="42">
+      <c r="E7" s="45">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43">
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I7" s="50">
+      <c r="I7" s="53">
         <v>0</v>
       </c>
-      <c r="J7" s="51">
+      <c r="J7" s="54">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K7" s="52">
+      <c r="K7" s="55">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="L7" s="52">
+      <c r="L7" s="55">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M7" s="53">
+      <c r="M7" s="56">
         <f t="shared" si="5"/>
         <v>0.333333333333333</v>
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="46"/>
-      <c r="B8" s="44">
+      <c r="A8" s="49"/>
+      <c r="B8" s="47">
         <v>5</v>
       </c>
-      <c r="C8" s="42">
+      <c r="C8" s="45">
         <v>3</v>
       </c>
-      <c r="D8" s="42">
+      <c r="D8" s="45">
         <v>1</v>
       </c>
-      <c r="E8" s="42">
+      <c r="E8" s="45">
         <v>2</v>
       </c>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43">
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I8" s="50">
+      <c r="I8" s="53">
         <v>0</v>
       </c>
-      <c r="J8" s="51">
+      <c r="J8" s="54">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K8" s="52">
+      <c r="K8" s="55">
         <v>3</v>
       </c>
-      <c r="L8" s="52">
+      <c r="L8" s="55">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M8" s="53">
+      <c r="M8" s="56">
         <f t="shared" si="5"/>
         <v>0.333333333333333</v>
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="46"/>
-      <c r="B9" s="44"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="51" t="e">
+      <c r="A9" s="49"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="54" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K9" s="52"/>
-      <c r="L9" s="52"/>
-      <c r="M9" s="53"/>
+      <c r="K9" s="55"/>
+      <c r="L9" s="55"/>
+      <c r="M9" s="56"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="46"/>
-      <c r="B10" s="44"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="50"/>
-      <c r="J10" s="51" t="e">
+      <c r="A10" s="49"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="54" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K10" s="52"/>
-      <c r="L10" s="52"/>
-      <c r="M10" s="53"/>
+      <c r="K10" s="55"/>
+      <c r="L10" s="55"/>
+      <c r="M10" s="56"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="47"/>
-      <c r="B11" s="44"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="51" t="e">
+      <c r="A11" s="50"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="54" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K11" s="52"/>
-      <c r="L11" s="52"/>
-      <c r="M11" s="53"/>
+      <c r="K11" s="55"/>
+      <c r="L11" s="55"/>
+      <c r="M11" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2029,14 +2041,14 @@
   <sheetPr/>
   <dimension ref="A1:O293"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12.8416666666667" customWidth="1"/>
-    <col min="2" max="2" width="15.625" style="31" customWidth="1"/>
+    <col min="2" max="2" width="15.625" style="34" customWidth="1"/>
     <col min="3" max="3" width="11.4833333333333" customWidth="1"/>
     <col min="4" max="4" width="27.5" customWidth="1"/>
     <col min="5" max="5" width="20.875" customWidth="1"/>
@@ -2050,50 +2062,50 @@
     <col min="15" max="16384" width="9.73333333333333"/>
   </cols>
   <sheetData>
-    <row r="1" s="30" customFormat="1" ht="27" spans="1:15">
-      <c r="A1" s="32" t="s">
+    <row r="1" s="33" customFormat="1" ht="27" spans="1:15">
+      <c r="A1" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="35" t="s">
+      <c r="H1" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="36" t="s">
+      <c r="I1" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="34" t="s">
+      <c r="J1" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="34" t="s">
+      <c r="K1" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="32" t="s">
+      <c r="L1" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="32" t="s">
+      <c r="M1" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="32" t="s">
+      <c r="N1" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="32" t="s">
+      <c r="O1" s="35" t="s">
         <v>28</v>
       </c>
     </row>
@@ -7300,35 +7312,35 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="8.625" style="15"/>
+    <col min="1" max="1" width="8.625" style="18"/>
     <col min="2" max="2" width="17.25" customWidth="1"/>
-    <col min="3" max="3" width="19.125" style="16" customWidth="1"/>
-    <col min="4" max="4" width="35.25" style="17" customWidth="1"/>
+    <col min="3" max="3" width="19.125" style="19" customWidth="1"/>
+    <col min="4" max="4" width="35.25" style="20" customWidth="1"/>
     <col min="5" max="5" width="13.5083333333333" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="11.375" style="18" customWidth="1"/>
+    <col min="7" max="7" width="11.375" style="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="22" t="s">
         <v>57</v>
       </c>
     </row>
@@ -7336,13 +7348,13 @@
       <c r="A2" s="10">
         <v>51</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2" s="19">
         <v>43087</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="26" t="s">
         <v>58</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -7359,13 +7371,13 @@
       <c r="A3" s="9">
         <v>52</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="19">
         <v>43092</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="26" t="s">
         <v>58</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -7380,13 +7392,13 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="9"/>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="19">
         <v>43098</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="26" t="s">
         <v>65</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -7395,7 +7407,7 @@
       <c r="F4" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G4" s="25" t="s">
+      <c r="G4" s="28" t="s">
         <v>66</v>
       </c>
     </row>
@@ -7403,13 +7415,13 @@
       <c r="A5" s="10">
         <v>1</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="19">
         <v>43102</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="26" t="s">
         <v>58</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -7418,37 +7430,37 @@
       <c r="F5" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G5" s="24" t="s">
+      <c r="G5" s="27" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:7">
       <c r="A6" s="9"/>
-      <c r="B6" s="24"/>
-      <c r="D6" s="27"/>
+      <c r="B6" s="27"/>
+      <c r="D6" s="30"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="28"/>
+      <c r="G6" s="31"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="9"/>
-      <c r="B7" s="24"/>
-      <c r="D7" s="23"/>
+      <c r="B7" s="27"/>
+      <c r="D7" s="26"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="29"/>
+      <c r="G7" s="32"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="10">
         <v>4</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="19">
         <v>43123</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="26" t="s">
         <v>69</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -7457,19 +7469,19 @@
       <c r="F8" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G8" s="29" t="s">
+      <c r="G8" s="32" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="9"/>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="19">
         <v>43123</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="26" t="s">
         <v>71</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -7478,265 +7490,265 @@
       <c r="F9" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G9" s="29" t="s">
+      <c r="G9" s="32" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="9"/>
-      <c r="B10" s="24"/>
-      <c r="D10" s="23"/>
+      <c r="B10" s="27"/>
+      <c r="D10" s="26"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="29"/>
+      <c r="G10" s="32"/>
     </row>
     <row r="11" ht="14.25" spans="1:7">
       <c r="A11" s="10"/>
-      <c r="B11" s="24"/>
-      <c r="D11" s="27"/>
+      <c r="B11" s="27"/>
+      <c r="D11" s="30"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="28"/>
+      <c r="G11" s="31"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="9"/>
-      <c r="B12" s="24"/>
-      <c r="D12" s="23"/>
+      <c r="B12" s="27"/>
+      <c r="D12" s="26"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="29"/>
+      <c r="G12" s="32"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="9"/>
-      <c r="B13" s="24"/>
-      <c r="D13" s="23"/>
+      <c r="B13" s="27"/>
+      <c r="D13" s="26"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="29"/>
+      <c r="G13" s="32"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="9"/>
-      <c r="B14" s="24"/>
-      <c r="D14" s="23"/>
+      <c r="B14" s="27"/>
+      <c r="D14" s="26"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="29"/>
+      <c r="G14" s="32"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="9"/>
-      <c r="B15" s="24"/>
-      <c r="D15" s="23"/>
+      <c r="B15" s="27"/>
+      <c r="D15" s="26"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="29"/>
+      <c r="G15" s="32"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="9"/>
-      <c r="B16" s="24"/>
-      <c r="D16" s="23"/>
+      <c r="B16" s="27"/>
+      <c r="D16" s="26"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="29"/>
+      <c r="G16" s="32"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="9"/>
-      <c r="B17" s="24"/>
-      <c r="D17" s="23"/>
+      <c r="B17" s="27"/>
+      <c r="D17" s="26"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="29"/>
+      <c r="G17" s="32"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="9"/>
-      <c r="B18" s="24"/>
-      <c r="D18" s="23"/>
+      <c r="B18" s="27"/>
+      <c r="D18" s="26"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
-      <c r="G18" s="29"/>
+      <c r="G18" s="32"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="9"/>
-      <c r="B19" s="24"/>
-      <c r="D19" s="23"/>
+      <c r="B19" s="27"/>
+      <c r="D19" s="26"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
-      <c r="G19" s="29"/>
+      <c r="G19" s="32"/>
     </row>
     <row r="20" ht="14.25" spans="1:7">
       <c r="A20" s="9"/>
-      <c r="B20" s="24"/>
-      <c r="D20" s="27"/>
+      <c r="B20" s="27"/>
+      <c r="D20" s="30"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
-      <c r="G20" s="24"/>
+      <c r="G20" s="27"/>
     </row>
     <row r="21" ht="14.25" spans="1:7">
       <c r="A21" s="9"/>
-      <c r="B21" s="24"/>
-      <c r="D21" s="27"/>
+      <c r="B21" s="27"/>
+      <c r="D21" s="30"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
-      <c r="G21" s="28"/>
+      <c r="G21" s="31"/>
     </row>
     <row r="22" ht="14.25" spans="1:7">
       <c r="A22" s="14"/>
-      <c r="B22" s="24"/>
-      <c r="D22" s="27"/>
+      <c r="B22" s="27"/>
+      <c r="D22" s="30"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-      <c r="G22" s="28"/>
+      <c r="G22" s="31"/>
     </row>
     <row r="23" ht="14.25" spans="1:7">
       <c r="A23" s="10"/>
-      <c r="B23" s="24"/>
-      <c r="D23" s="27"/>
+      <c r="B23" s="27"/>
+      <c r="D23" s="30"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="28"/>
+      <c r="G23" s="31"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="9"/>
-      <c r="B24" s="24"/>
-      <c r="D24" s="23"/>
+      <c r="B24" s="27"/>
+      <c r="D24" s="26"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
-      <c r="G24" s="29"/>
+      <c r="G24" s="32"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="9"/>
-      <c r="B25" s="24"/>
-      <c r="D25" s="23"/>
+      <c r="B25" s="27"/>
+      <c r="D25" s="26"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
-      <c r="G25" s="29"/>
+      <c r="G25" s="32"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="9"/>
-      <c r="B26" s="24"/>
-      <c r="D26" s="23"/>
+      <c r="B26" s="27"/>
+      <c r="D26" s="26"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
-      <c r="G26" s="29"/>
+      <c r="G26" s="32"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="9"/>
-      <c r="B27" s="24"/>
-      <c r="D27" s="23"/>
+      <c r="B27" s="27"/>
+      <c r="D27" s="26"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
-      <c r="G27" s="29"/>
+      <c r="G27" s="32"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="9"/>
-      <c r="B28" s="24"/>
-      <c r="D28" s="23"/>
+      <c r="B28" s="27"/>
+      <c r="D28" s="26"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
-      <c r="G28" s="29"/>
+      <c r="G28" s="32"/>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="9"/>
-      <c r="B29" s="24"/>
-      <c r="D29" s="23"/>
+      <c r="B29" s="27"/>
+      <c r="D29" s="26"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
-      <c r="G29" s="29"/>
+      <c r="G29" s="32"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="9"/>
-      <c r="B30" s="24"/>
-      <c r="D30" s="23"/>
+      <c r="B30" s="27"/>
+      <c r="D30" s="26"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
-      <c r="G30" s="29"/>
+      <c r="G30" s="32"/>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="9"/>
-      <c r="B31" s="24"/>
-      <c r="D31" s="23"/>
+      <c r="B31" s="27"/>
+      <c r="D31" s="26"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
-      <c r="G31" s="29"/>
+      <c r="G31" s="32"/>
     </row>
     <row r="32" ht="14.25" spans="1:7">
       <c r="A32" s="9"/>
-      <c r="B32" s="24"/>
-      <c r="D32" s="27"/>
+      <c r="B32" s="27"/>
+      <c r="D32" s="30"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
-      <c r="G32" s="28"/>
+      <c r="G32" s="31"/>
     </row>
     <row r="33" ht="14.25" spans="1:7">
       <c r="A33" s="9"/>
-      <c r="B33" s="24"/>
-      <c r="D33" s="27"/>
+      <c r="B33" s="27"/>
+      <c r="D33" s="30"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
-      <c r="G33" s="28"/>
+      <c r="G33" s="31"/>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="14"/>
-      <c r="B34" s="24"/>
-      <c r="D34" s="23"/>
+      <c r="B34" s="27"/>
+      <c r="D34" s="26"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
-      <c r="G34" s="29"/>
+      <c r="G34" s="32"/>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="9"/>
-      <c r="B35" s="24"/>
-      <c r="D35" s="23"/>
+      <c r="B35" s="27"/>
+      <c r="D35" s="26"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
-      <c r="G35" s="29"/>
+      <c r="G35" s="32"/>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="9"/>
-      <c r="B36" s="24"/>
-      <c r="D36" s="23"/>
+      <c r="B36" s="27"/>
+      <c r="D36" s="26"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
-      <c r="G36" s="29"/>
+      <c r="G36" s="32"/>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="9"/>
-      <c r="B37" s="24"/>
-      <c r="D37" s="23"/>
+      <c r="B37" s="27"/>
+      <c r="D37" s="26"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
-      <c r="G37" s="29"/>
+      <c r="G37" s="32"/>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="9"/>
-      <c r="B38" s="24"/>
-      <c r="D38" s="23"/>
+      <c r="B38" s="27"/>
+      <c r="D38" s="26"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
-      <c r="G38" s="29"/>
+      <c r="G38" s="32"/>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="9"/>
-      <c r="B39" s="24"/>
-      <c r="D39" s="23"/>
+      <c r="B39" s="27"/>
+      <c r="D39" s="26"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
-      <c r="G39" s="29"/>
+      <c r="G39" s="32"/>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="9"/>
-      <c r="B40" s="24"/>
-      <c r="D40" s="23"/>
+      <c r="B40" s="27"/>
+      <c r="D40" s="26"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
-      <c r="G40" s="29"/>
+      <c r="G40" s="32"/>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="9"/>
-      <c r="B41" s="24"/>
-      <c r="D41" s="23"/>
+      <c r="B41" s="27"/>
+      <c r="D41" s="26"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
-      <c r="G41" s="29"/>
+      <c r="G41" s="32"/>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="9"/>
@@ -7776,8 +7788,8 @@
   <sheetPr/>
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -7863,10 +7875,10 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="15" t="s">
         <v>32</v>
       </c>
       <c r="C6" s="11">
@@ -7879,10 +7891,18 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="2:5">
-      <c r="B7" s="12"/>
-      <c r="C7" s="11"/>
-      <c r="E7" s="12"/>
+    <row r="7" spans="1:5">
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="11">
+        <v>43120</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="8" spans="2:5">
       <c r="B8" s="12"/>
@@ -7905,9 +7925,11 @@
       <c r="E11" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B6:B7"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="203" verticalDpi="203"/>

--- a/周数据/《个人上线率统计表》-高阳.xlsx
+++ b/周数据/《个人上线率统计表》-高阳.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="19530" windowHeight="7380" activeTab="3"/>
+    <workbookView windowWidth="19770" windowHeight="9390" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89">
   <si>
     <t>个人上线率分析表</t>
   </si>
@@ -178,6 +178,15 @@
     <t>老品牌</t>
   </si>
   <si>
+    <t>南京市浦口区王丽娟饭店</t>
+  </si>
+  <si>
+    <t>禧满堂</t>
+  </si>
+  <si>
+    <t>王总</t>
+  </si>
+  <si>
     <t>立项日期</t>
   </si>
   <si>
@@ -229,9 +238,6 @@
     <t>22号签约新项目实施准备中</t>
   </si>
   <si>
-    <t>禧满堂</t>
-  </si>
-  <si>
     <t>23号签约新项目实施准备中</t>
   </si>
   <si>
@@ -277,7 +283,7 @@
     <t>开业驻店</t>
   </si>
   <si>
-    <t>江苏省南京市江宁区金盛路95号</t>
+    <t>江苏省南京市江宁区金盛路95号/卤味牛肉锅</t>
   </si>
 </sst>
 </file>
@@ -286,9 +292,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="29">
@@ -1154,7 +1160,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1200,15 +1206,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1272,6 +1269,9 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1324,6 +1324,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1648,382 +1651,397 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="5.125" style="18" customWidth="1"/>
-    <col min="2" max="2" width="8.125" style="18" customWidth="1"/>
-    <col min="3" max="4" width="16.25" style="18" customWidth="1"/>
-    <col min="5" max="5" width="17.75" style="18" customWidth="1"/>
-    <col min="6" max="6" width="15.875" style="18" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5083333333333" style="18" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="17.875" style="18" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="17.875" style="18" customWidth="1"/>
-    <col min="10" max="10" width="17.875" style="40" customWidth="1"/>
-    <col min="11" max="11" width="16" style="18" customWidth="1"/>
-    <col min="12" max="12" width="17.875" style="18" customWidth="1"/>
-    <col min="13" max="13" width="18.625" style="18" customWidth="1"/>
+    <col min="1" max="1" width="5.125" style="15" customWidth="1"/>
+    <col min="2" max="2" width="8.125" style="15" customWidth="1"/>
+    <col min="3" max="4" width="16.25" style="15" customWidth="1"/>
+    <col min="5" max="5" width="17.75" style="15" customWidth="1"/>
+    <col min="6" max="6" width="15.875" style="15" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5083333333333" style="15" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="17.875" style="15" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="17.875" style="15" customWidth="1"/>
+    <col min="10" max="10" width="17.875" style="38" customWidth="1"/>
+    <col min="11" max="11" width="16" style="15" customWidth="1"/>
+    <col min="12" max="12" width="17.875" style="15" customWidth="1"/>
+    <col min="13" max="13" width="18.625" style="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" spans="1:13">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="52"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="50"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="45" t="s">
+      <c r="D2" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="45" t="s">
+      <c r="E2" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="46" t="s">
+      <c r="F2" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="46" t="s">
+      <c r="G2" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="46" t="s">
+      <c r="H2" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="53" t="s">
+      <c r="I2" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="54" t="s">
+      <c r="J2" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="55" t="s">
+      <c r="K2" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="55" t="s">
+      <c r="L2" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="56" t="s">
+      <c r="M2" s="54" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="43">
+      <c r="A3" s="41">
         <v>12</v>
       </c>
-      <c r="B3" s="47">
+      <c r="B3" s="45">
         <v>52</v>
       </c>
-      <c r="C3" s="45">
+      <c r="C3" s="43">
         <v>1</v>
       </c>
-      <c r="D3" s="45">
+      <c r="D3" s="43">
         <v>0</v>
       </c>
-      <c r="E3" s="45">
+      <c r="E3" s="43">
         <f t="shared" ref="E3:E8" si="0">C3-D3</f>
         <v>1</v>
       </c>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46">
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44">
         <f t="shared" ref="H3:H11" si="1">F3-G3</f>
         <v>0</v>
       </c>
-      <c r="I3" s="53">
+      <c r="I3" s="51">
         <v>0</v>
       </c>
-      <c r="J3" s="54" t="e">
+      <c r="J3" s="52" t="e">
         <f t="shared" ref="J3:J11" si="2">I3/L3*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K3" s="55">
+      <c r="K3" s="53">
         <f t="shared" ref="K3:K8" si="3">C3+G3</f>
         <v>1</v>
       </c>
-      <c r="L3" s="55">
+      <c r="L3" s="53">
         <f t="shared" ref="L3:L11" si="4">D3+G3</f>
         <v>0</v>
       </c>
-      <c r="M3" s="56">
+      <c r="M3" s="54">
         <f t="shared" ref="M3:M11" si="5">L3/K3*100%</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="48">
+      <c r="A4" s="46">
         <v>1</v>
       </c>
-      <c r="B4" s="47">
+      <c r="B4" s="45">
         <v>1</v>
       </c>
-      <c r="C4" s="45">
+      <c r="C4" s="43">
         <v>5</v>
       </c>
-      <c r="D4" s="45">
+      <c r="D4" s="43">
         <v>2</v>
       </c>
-      <c r="E4" s="45">
+      <c r="E4" s="43">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46">
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I4" s="53">
+      <c r="I4" s="51">
         <v>0</v>
       </c>
-      <c r="J4" s="54">
+      <c r="J4" s="52">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K4" s="55">
+      <c r="K4" s="53">
         <v>5</v>
       </c>
-      <c r="L4" s="55">
+      <c r="L4" s="53">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="M4" s="56">
+      <c r="M4" s="54">
         <f t="shared" si="5"/>
         <v>0.4</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="49"/>
-      <c r="B5" s="47">
+      <c r="A5" s="47"/>
+      <c r="B5" s="45">
         <v>2</v>
       </c>
-      <c r="C5" s="45">
+      <c r="C5" s="43">
         <v>3</v>
       </c>
-      <c r="D5" s="45">
+      <c r="D5" s="43">
         <v>2</v>
       </c>
-      <c r="E5" s="45">
+      <c r="E5" s="43">
         <v>1</v>
       </c>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46">
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I5" s="53">
+      <c r="I5" s="51">
         <v>0</v>
       </c>
-      <c r="J5" s="54">
+      <c r="J5" s="52">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K5" s="55">
+      <c r="K5" s="53">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="L5" s="55">
+      <c r="L5" s="53">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="M5" s="56">
+      <c r="M5" s="54">
         <f t="shared" si="5"/>
         <v>0.666666666666667</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="49"/>
-      <c r="B6" s="47">
+      <c r="A6" s="47"/>
+      <c r="B6" s="45">
         <v>3</v>
       </c>
-      <c r="C6" s="45">
+      <c r="C6" s="43">
         <v>1</v>
       </c>
-      <c r="D6" s="45">
+      <c r="D6" s="43">
         <v>1</v>
       </c>
-      <c r="E6" s="45">
+      <c r="E6" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46">
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I6" s="53">
+      <c r="I6" s="51">
         <v>0</v>
       </c>
-      <c r="J6" s="54">
+      <c r="J6" s="52">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K6" s="55">
+      <c r="K6" s="53">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="L6" s="55">
+      <c r="L6" s="53">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M6" s="56">
+      <c r="M6" s="54">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="49"/>
-      <c r="B7" s="47">
+      <c r="A7" s="47"/>
+      <c r="B7" s="45">
         <v>4</v>
       </c>
-      <c r="C7" s="45">
+      <c r="C7" s="43">
         <v>3</v>
       </c>
-      <c r="D7" s="45">
+      <c r="D7" s="43">
         <v>1</v>
       </c>
-      <c r="E7" s="45">
+      <c r="E7" s="43">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46">
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I7" s="53">
+      <c r="I7" s="51">
         <v>0</v>
       </c>
-      <c r="J7" s="54">
+      <c r="J7" s="52">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K7" s="55">
+      <c r="K7" s="53">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="L7" s="55">
+      <c r="L7" s="53">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M7" s="56">
+      <c r="M7" s="54">
         <f t="shared" si="5"/>
         <v>0.333333333333333</v>
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="49"/>
-      <c r="B8" s="47">
+      <c r="A8" s="47"/>
+      <c r="B8" s="45">
         <v>5</v>
       </c>
-      <c r="C8" s="45">
+      <c r="C8" s="43">
         <v>3</v>
       </c>
-      <c r="D8" s="45">
+      <c r="D8" s="43">
         <v>1</v>
       </c>
-      <c r="E8" s="45">
+      <c r="E8" s="43">
         <v>2</v>
       </c>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46">
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I8" s="53">
+      <c r="I8" s="51">
         <v>0</v>
       </c>
-      <c r="J8" s="54">
+      <c r="J8" s="52">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K8" s="55">
+      <c r="K8" s="53">
         <v>3</v>
       </c>
-      <c r="L8" s="55">
+      <c r="L8" s="53">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M8" s="56">
-        <f t="shared" si="5"/>
-        <v>0.333333333333333</v>
+      <c r="M8" s="54">
+        <v>0.33</v>
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="49"/>
-      <c r="B9" s="47"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="54" t="e">
+      <c r="A9" s="47"/>
+      <c r="B9" s="45">
+        <v>2</v>
+      </c>
+      <c r="C9" s="43">
+        <v>2</v>
+      </c>
+      <c r="D9" s="43">
+        <v>1</v>
+      </c>
+      <c r="E9" s="43">
+        <v>1</v>
+      </c>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="51">
+        <v>0</v>
+      </c>
+      <c r="J9" s="52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="53">
+        <v>2</v>
+      </c>
+      <c r="L9" s="53">
+        <v>1</v>
+      </c>
+      <c r="M9" s="55">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="47"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="52" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K9" s="55"/>
-      <c r="L9" s="55"/>
-      <c r="M9" s="56"/>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="49"/>
-      <c r="B10" s="47"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="54" t="e">
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="54"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="48"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="52" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K10" s="55"/>
-      <c r="L10" s="55"/>
-      <c r="M10" s="56"/>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="50"/>
-      <c r="B11" s="47"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="54" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K11" s="55"/>
-      <c r="L11" s="55"/>
-      <c r="M11" s="56"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2041,14 +2059,14 @@
   <sheetPr/>
   <dimension ref="A1:O293"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12.8416666666667" customWidth="1"/>
-    <col min="2" max="2" width="15.625" style="34" customWidth="1"/>
+    <col min="2" max="2" width="15.625" style="31" customWidth="1"/>
     <col min="3" max="3" width="11.4833333333333" customWidth="1"/>
     <col min="4" max="4" width="27.5" customWidth="1"/>
     <col min="5" max="5" width="20.875" customWidth="1"/>
@@ -2062,50 +2080,50 @@
     <col min="15" max="16384" width="9.73333333333333"/>
   </cols>
   <sheetData>
-    <row r="1" s="33" customFormat="1" ht="27" spans="1:15">
-      <c r="A1" s="35" t="s">
+    <row r="1" s="30" customFormat="1" ht="27" spans="1:15">
+      <c r="A1" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="E1" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="G1" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="38" t="s">
+      <c r="H1" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="39" t="s">
+      <c r="I1" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="37" t="s">
+      <c r="J1" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="37" t="s">
+      <c r="K1" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="35" t="s">
+      <c r="L1" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="35" t="s">
+      <c r="M1" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="35" t="s">
+      <c r="N1" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="35" t="s">
+      <c r="O1" s="32" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2435,21 +2453,51 @@
       </c>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="1"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
+      <c r="A9" s="36">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2">
+        <v>43132</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="1">
+        <v>76128311</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" s="1">
+        <v>15189553449</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N9" s="1">
+        <v>17351787770</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1"/>
@@ -7304,476 +7352,420 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="8.625" style="18"/>
+    <col min="1" max="1" width="8.625" style="15"/>
     <col min="2" max="2" width="17.25" customWidth="1"/>
-    <col min="3" max="3" width="19.125" style="19" customWidth="1"/>
-    <col min="4" max="4" width="35.25" style="20" customWidth="1"/>
+    <col min="3" max="3" width="19.125" style="16" customWidth="1"/>
+    <col min="4" max="4" width="35.25" style="17" customWidth="1"/>
     <col min="5" max="5" width="13.5083333333333" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="11.375" style="21" customWidth="1"/>
+    <col min="7" max="7" width="11.375" style="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="F1" s="22" t="s">
+      <c r="C1" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="D1" s="21" t="s">
         <v>57</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="10">
         <v>51</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="19">
+      <c r="C2" s="16">
         <v>43087</v>
       </c>
-      <c r="D2" s="26" t="s">
-        <v>58</v>
+      <c r="D2" s="23" t="s">
+        <v>61</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="9">
         <v>52</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="19">
+      <c r="C3" s="16">
         <v>43092</v>
       </c>
-      <c r="D3" s="26" t="s">
-        <v>58</v>
+      <c r="D3" s="23" t="s">
+        <v>61</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="9"/>
-      <c r="B4" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="C4" s="19">
+      <c r="B4" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="16">
         <v>43098</v>
       </c>
-      <c r="D4" s="26" t="s">
-        <v>65</v>
+      <c r="D4" s="23" t="s">
+        <v>68</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>66</v>
+        <v>63</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:7">
       <c r="A5" s="10">
         <v>1</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="16">
         <v>43102</v>
       </c>
-      <c r="D5" s="26" t="s">
-        <v>58</v>
+      <c r="D5" s="23" t="s">
+        <v>61</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G5" s="27" t="s">
-        <v>67</v>
+        <v>63</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:7">
       <c r="A6" s="9"/>
-      <c r="B6" s="27"/>
-      <c r="D6" s="30"/>
+      <c r="B6" s="24"/>
+      <c r="D6" s="27"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="31"/>
+      <c r="G6" s="28"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="9"/>
-      <c r="B7" s="27"/>
-      <c r="D7" s="26"/>
+      <c r="B7" s="24"/>
+      <c r="D7" s="23"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="32"/>
+      <c r="G7" s="29"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="10">
         <v>4</v>
       </c>
-      <c r="B8" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="C8" s="19">
+      <c r="B8" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="16">
         <v>43123</v>
       </c>
-      <c r="D8" s="26" t="s">
-        <v>69</v>
+      <c r="D8" s="23" t="s">
+        <v>72</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G8" s="32" t="s">
-        <v>67</v>
+        <v>65</v>
+      </c>
+      <c r="G8" s="29" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="9"/>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="16">
+        <v>43123</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G9" s="29" t="s">
         <v>70</v>
-      </c>
-      <c r="C9" s="19">
-        <v>43123</v>
-      </c>
-      <c r="D9" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G9" s="32" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="9"/>
-      <c r="B10" s="27"/>
-      <c r="D10" s="26"/>
+      <c r="B10" s="24"/>
+      <c r="D10" s="23"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="32"/>
+      <c r="G10" s="29"/>
     </row>
     <row r="11" ht="14.25" spans="1:7">
       <c r="A11" s="10"/>
-      <c r="B11" s="27"/>
-      <c r="D11" s="30"/>
+      <c r="B11" s="24"/>
+      <c r="D11" s="27"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="31"/>
+      <c r="G11" s="28"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="9"/>
-      <c r="B12" s="27"/>
-      <c r="D12" s="26"/>
+      <c r="B12" s="24"/>
+      <c r="D12" s="23"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="32"/>
+      <c r="G12" s="29"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="9"/>
-      <c r="B13" s="27"/>
-      <c r="D13" s="26"/>
+      <c r="B13" s="24"/>
+      <c r="D13" s="23"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="32"/>
+      <c r="G13" s="29"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="9"/>
-      <c r="B14" s="27"/>
-      <c r="D14" s="26"/>
+      <c r="B14" s="24"/>
+      <c r="D14" s="23"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="32"/>
+      <c r="G14" s="29"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="9"/>
-      <c r="B15" s="27"/>
-      <c r="D15" s="26"/>
+      <c r="B15" s="24"/>
+      <c r="D15" s="23"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="32"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="9"/>
-      <c r="B16" s="27"/>
-      <c r="D16" s="26"/>
+      <c r="G15" s="29"/>
+    </row>
+    <row r="16" ht="14.25" spans="1:7">
+      <c r="A16" s="10"/>
+      <c r="B16" s="24"/>
+      <c r="D16" s="27"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="32"/>
+      <c r="G16" s="28"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="9"/>
-      <c r="B17" s="27"/>
-      <c r="D17" s="26"/>
+      <c r="B17" s="24"/>
+      <c r="D17" s="23"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="32"/>
+      <c r="G17" s="29"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="9"/>
-      <c r="B18" s="27"/>
-      <c r="D18" s="26"/>
+      <c r="B18" s="24"/>
+      <c r="D18" s="23"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
-      <c r="G18" s="32"/>
+      <c r="G18" s="29"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="9"/>
-      <c r="B19" s="27"/>
-      <c r="D19" s="26"/>
+      <c r="B19" s="24"/>
+      <c r="D19" s="23"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
-      <c r="G19" s="32"/>
-    </row>
-    <row r="20" ht="14.25" spans="1:7">
+      <c r="G19" s="29"/>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="9"/>
-      <c r="B20" s="27"/>
-      <c r="D20" s="30"/>
+      <c r="B20" s="24"/>
+      <c r="D20" s="23"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
-      <c r="G20" s="27"/>
-    </row>
-    <row r="21" ht="14.25" spans="1:7">
+      <c r="G20" s="29"/>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="9"/>
-      <c r="B21" s="27"/>
-      <c r="D21" s="30"/>
+      <c r="B21" s="24"/>
+      <c r="D21" s="23"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
-      <c r="G21" s="31"/>
-    </row>
-    <row r="22" ht="14.25" spans="1:7">
-      <c r="A22" s="14"/>
-      <c r="B22" s="27"/>
-      <c r="D22" s="30"/>
+      <c r="G21" s="29"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="9"/>
+      <c r="B22" s="24"/>
+      <c r="D22" s="23"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-      <c r="G22" s="31"/>
-    </row>
-    <row r="23" ht="14.25" spans="1:7">
-      <c r="A23" s="10"/>
-      <c r="B23" s="27"/>
-      <c r="D23" s="30"/>
+      <c r="G22" s="29"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="9"/>
+      <c r="B23" s="24"/>
+      <c r="D23" s="23"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="31"/>
+      <c r="G23" s="29"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="9"/>
-      <c r="B24" s="27"/>
-      <c r="D24" s="26"/>
+      <c r="B24" s="24"/>
+      <c r="D24" s="23"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
-      <c r="G24" s="32"/>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="G24" s="29"/>
+    </row>
+    <row r="25" ht="14.25" spans="1:7">
       <c r="A25" s="9"/>
-      <c r="B25" s="27"/>
-      <c r="D25" s="26"/>
+      <c r="B25" s="24"/>
+      <c r="D25" s="27"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
-      <c r="G25" s="32"/>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="G25" s="28"/>
+    </row>
+    <row r="26" ht="14.25" spans="1:7">
       <c r="A26" s="9"/>
-      <c r="B26" s="27"/>
-      <c r="D26" s="26"/>
+      <c r="B26" s="24"/>
+      <c r="D26" s="27"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
-      <c r="G26" s="32"/>
+      <c r="G26" s="28"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="9"/>
-      <c r="B27" s="27"/>
-      <c r="D27" s="26"/>
+      <c r="A27" s="14"/>
+      <c r="B27" s="24"/>
+      <c r="D27" s="23"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
-      <c r="G27" s="32"/>
+      <c r="G27" s="29"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="9"/>
-      <c r="B28" s="27"/>
-      <c r="D28" s="26"/>
+      <c r="B28" s="24"/>
+      <c r="D28" s="23"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
-      <c r="G28" s="32"/>
+      <c r="G28" s="29"/>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="9"/>
-      <c r="B29" s="27"/>
-      <c r="D29" s="26"/>
+      <c r="B29" s="24"/>
+      <c r="D29" s="23"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
-      <c r="G29" s="32"/>
+      <c r="G29" s="29"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="9"/>
-      <c r="B30" s="27"/>
-      <c r="D30" s="26"/>
+      <c r="B30" s="24"/>
+      <c r="D30" s="23"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
-      <c r="G30" s="32"/>
+      <c r="G30" s="29"/>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="9"/>
-      <c r="B31" s="27"/>
-      <c r="D31" s="26"/>
+      <c r="B31" s="24"/>
+      <c r="D31" s="23"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
-      <c r="G31" s="32"/>
-    </row>
-    <row r="32" ht="14.25" spans="1:7">
+      <c r="G31" s="29"/>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="9"/>
-      <c r="B32" s="27"/>
-      <c r="D32" s="30"/>
+      <c r="B32" s="24"/>
+      <c r="D32" s="23"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
-      <c r="G32" s="31"/>
-    </row>
-    <row r="33" ht="14.25" spans="1:7">
+      <c r="G32" s="29"/>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="9"/>
-      <c r="B33" s="27"/>
-      <c r="D33" s="30"/>
+      <c r="B33" s="24"/>
+      <c r="D33" s="23"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
-      <c r="G33" s="31"/>
+      <c r="G33" s="29"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="14"/>
-      <c r="B34" s="27"/>
-      <c r="D34" s="26"/>
+      <c r="A34" s="9"/>
+      <c r="B34" s="24"/>
+      <c r="D34" s="23"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
-      <c r="G34" s="32"/>
-    </row>
-    <row r="35" spans="1:7">
+      <c r="G34" s="29"/>
+    </row>
+    <row r="35" spans="1:1">
       <c r="A35" s="9"/>
-      <c r="B35" s="27"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="32"/>
-    </row>
-    <row r="36" spans="1:7">
+    </row>
+    <row r="36" spans="1:1">
       <c r="A36" s="9"/>
-      <c r="B36" s="27"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="32"/>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="9"/>
-      <c r="B37" s="27"/>
-      <c r="D37" s="26"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="32"/>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="9"/>
-      <c r="B38" s="27"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="32"/>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="9"/>
-      <c r="B39" s="27"/>
-      <c r="D39" s="26"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="32"/>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="9"/>
-      <c r="B40" s="27"/>
-      <c r="D40" s="26"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="32"/>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="9"/>
-      <c r="B41" s="27"/>
-      <c r="D41" s="26"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="32"/>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" s="9"/>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" s="9"/>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" s="14"/>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A22"/>
-    <mergeCell ref="A23:A34"/>
-    <mergeCell ref="A35:A44"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="A16:A27"/>
+    <mergeCell ref="A28:A37"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E10 E2:E5 E6:E7 E8:E9 E11:E1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E10 E2:E5 E6:E7 E8:E9 E11:E15 E16:E1048576">
       <formula1>"单店,连锁,KA,供应链"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="saas" sqref="F2:F5 F6:F10 F11:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="saas" sqref="F2:F5 F6:F10 F11:F15 F16:F1048576">
       <formula1>"SAAS,供应链,SAAS+微信,SAAS+供应链,SAAS+微信+供应链"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7788,8 +7780,8 @@
   <sheetPr/>
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -7797,7 +7789,7 @@
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15.125" style="1" customWidth="1"/>
     <col min="3" max="3" width="17" style="2" customWidth="1"/>
-    <col min="4" max="4" width="33.75" style="3" customWidth="1"/>
+    <col min="4" max="4" width="42.125" style="3" customWidth="1"/>
     <col min="5" max="5" width="65" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7806,21 +7798,21 @@
         <v>1</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="9" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>32</v>
@@ -7829,10 +7821,10 @@
         <v>43084</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -7842,10 +7834,10 @@
         <v>43091</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -7855,10 +7847,10 @@
         <v>43099</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -7868,40 +7860,40 @@
         <v>43100</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="B6" s="15" t="s">
+      <c r="A6" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>32</v>
       </c>
       <c r="C6" s="11">
         <v>43101</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
       <c r="C7" s="11">
         <v>43120</v>
       </c>
-      <c r="D7" s="17" t="s">
-        <v>86</v>
+      <c r="D7" s="13" t="s">
+        <v>88</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="2:5">

--- a/周数据/《个人上线率统计表》-高阳.xlsx
+++ b/周数据/《个人上线率统计表》-高阳.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="19770" windowHeight="9390" activeTab="2"/>
+    <workbookView windowWidth="19770" windowHeight="9390" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93">
   <si>
     <t>个人上线率分析表</t>
   </si>
@@ -185,6 +185,18 @@
   </si>
   <si>
     <t>王总</t>
+  </si>
+  <si>
+    <t>沈丘槐店王婆餐饮管理有限公司</t>
+  </si>
+  <si>
+    <t>槐店王婆大虾</t>
+  </si>
+  <si>
+    <t>阜阳</t>
+  </si>
+  <si>
+    <t>槐店王婆大虾颖州店</t>
   </si>
   <si>
     <t>立项日期</t>
@@ -291,10 +303,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="29">
@@ -367,90 +379,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -466,6 +400,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -474,15 +437,65 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -502,9 +515,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -573,7 +585,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -585,7 +633,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -597,19 +669,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -621,7 +681,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -633,19 +711,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -657,73 +729,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -913,41 +925,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -969,10 +968,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -988,16 +985,31 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1018,10 +1030,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1030,137 +1042,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1269,7 +1281,10 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1664,384 +1679,384 @@
     <col min="7" max="7" width="15.5083333333333" style="15" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="17.875" style="15" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="17.875" style="15" customWidth="1"/>
-    <col min="10" max="10" width="17.875" style="38" customWidth="1"/>
+    <col min="10" max="10" width="17.875" style="39" customWidth="1"/>
     <col min="11" max="11" width="16" style="15" customWidth="1"/>
     <col min="12" max="12" width="17.875" style="15" customWidth="1"/>
     <col min="13" max="13" width="18.625" style="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" spans="1:13">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="50"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="51"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="43" t="s">
+      <c r="E2" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="44" t="s">
+      <c r="F2" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="44" t="s">
+      <c r="G2" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="44" t="s">
+      <c r="H2" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="51" t="s">
+      <c r="I2" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="52" t="s">
+      <c r="J2" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="53" t="s">
+      <c r="K2" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="53" t="s">
+      <c r="L2" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="54" t="s">
+      <c r="M2" s="55" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="41">
+      <c r="A3" s="42">
         <v>12</v>
       </c>
-      <c r="B3" s="45">
+      <c r="B3" s="46">
         <v>52</v>
       </c>
-      <c r="C3" s="43">
+      <c r="C3" s="44">
         <v>1</v>
       </c>
-      <c r="D3" s="43">
+      <c r="D3" s="44">
         <v>0</v>
       </c>
-      <c r="E3" s="43">
+      <c r="E3" s="44">
         <f t="shared" ref="E3:E8" si="0">C3-D3</f>
         <v>1</v>
       </c>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44">
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45">
         <f t="shared" ref="H3:H11" si="1">F3-G3</f>
         <v>0</v>
       </c>
-      <c r="I3" s="51">
+      <c r="I3" s="52">
         <v>0</v>
       </c>
-      <c r="J3" s="52" t="e">
+      <c r="J3" s="53" t="e">
         <f t="shared" ref="J3:J11" si="2">I3/L3*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K3" s="53">
+      <c r="K3" s="54">
         <f t="shared" ref="K3:K8" si="3">C3+G3</f>
         <v>1</v>
       </c>
-      <c r="L3" s="53">
+      <c r="L3" s="54">
         <f t="shared" ref="L3:L11" si="4">D3+G3</f>
         <v>0</v>
       </c>
-      <c r="M3" s="54">
+      <c r="M3" s="55">
         <f t="shared" ref="M3:M11" si="5">L3/K3*100%</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="46">
+      <c r="A4" s="47">
         <v>1</v>
       </c>
-      <c r="B4" s="45">
+      <c r="B4" s="46">
         <v>1</v>
       </c>
-      <c r="C4" s="43">
+      <c r="C4" s="44">
         <v>5</v>
       </c>
-      <c r="D4" s="43">
+      <c r="D4" s="44">
         <v>2</v>
       </c>
-      <c r="E4" s="43">
+      <c r="E4" s="44">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44">
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I4" s="51">
+      <c r="I4" s="52">
         <v>0</v>
       </c>
-      <c r="J4" s="52">
+      <c r="J4" s="53">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K4" s="53">
+      <c r="K4" s="54">
         <v>5</v>
       </c>
-      <c r="L4" s="53">
+      <c r="L4" s="54">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="M4" s="54">
+      <c r="M4" s="55">
         <f t="shared" si="5"/>
         <v>0.4</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="47"/>
-      <c r="B5" s="45">
+      <c r="A5" s="48"/>
+      <c r="B5" s="46">
         <v>2</v>
       </c>
-      <c r="C5" s="43">
+      <c r="C5" s="44">
         <v>3</v>
       </c>
-      <c r="D5" s="43">
+      <c r="D5" s="44">
         <v>2</v>
       </c>
-      <c r="E5" s="43">
+      <c r="E5" s="44">
         <v>1</v>
       </c>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44">
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I5" s="51">
+      <c r="I5" s="52">
         <v>0</v>
       </c>
-      <c r="J5" s="52">
+      <c r="J5" s="53">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K5" s="53">
+      <c r="K5" s="54">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="L5" s="53">
+      <c r="L5" s="54">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="M5" s="54">
-        <f t="shared" si="5"/>
+      <c r="M5" s="55">
+        <f>L5/K5*100%</f>
         <v>0.666666666666667</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="47"/>
-      <c r="B6" s="45">
+      <c r="A6" s="48"/>
+      <c r="B6" s="46">
         <v>3</v>
       </c>
-      <c r="C6" s="43">
+      <c r="C6" s="44">
         <v>1</v>
       </c>
-      <c r="D6" s="43">
+      <c r="D6" s="44">
         <v>1</v>
       </c>
-      <c r="E6" s="43">
+      <c r="E6" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44">
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I6" s="51">
+      <c r="I6" s="52">
         <v>0</v>
       </c>
-      <c r="J6" s="52">
+      <c r="J6" s="53">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K6" s="53">
+      <c r="K6" s="54">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="L6" s="53">
+      <c r="L6" s="54">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M6" s="54">
+      <c r="M6" s="55">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="47"/>
-      <c r="B7" s="45">
+      <c r="A7" s="48"/>
+      <c r="B7" s="46">
         <v>4</v>
       </c>
-      <c r="C7" s="43">
+      <c r="C7" s="44">
         <v>3</v>
       </c>
-      <c r="D7" s="43">
+      <c r="D7" s="44">
         <v>1</v>
       </c>
-      <c r="E7" s="43">
+      <c r="E7" s="44">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44">
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I7" s="51">
+      <c r="I7" s="52">
         <v>0</v>
       </c>
-      <c r="J7" s="52">
+      <c r="J7" s="53">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K7" s="53">
+      <c r="K7" s="54">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="L7" s="53">
+      <c r="L7" s="54">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M7" s="54">
+      <c r="M7" s="55">
         <f t="shared" si="5"/>
         <v>0.333333333333333</v>
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="47"/>
-      <c r="B8" s="45">
+      <c r="A8" s="48"/>
+      <c r="B8" s="46">
         <v>5</v>
       </c>
-      <c r="C8" s="43">
+      <c r="C8" s="44">
         <v>3</v>
       </c>
-      <c r="D8" s="43">
+      <c r="D8" s="44">
         <v>1</v>
       </c>
-      <c r="E8" s="43">
+      <c r="E8" s="44">
         <v>2</v>
       </c>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44">
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I8" s="51">
+      <c r="I8" s="52">
         <v>0</v>
       </c>
-      <c r="J8" s="52">
+      <c r="J8" s="53">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K8" s="53">
+      <c r="K8" s="54">
         <v>3</v>
       </c>
-      <c r="L8" s="53">
+      <c r="L8" s="54">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M8" s="54">
+      <c r="M8" s="55">
         <v>0.33</v>
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="47"/>
-      <c r="B9" s="45">
+      <c r="A9" s="48"/>
+      <c r="B9" s="46">
+        <v>6</v>
+      </c>
+      <c r="C9" s="44">
+        <v>3</v>
+      </c>
+      <c r="D9" s="44">
         <v>2</v>
       </c>
-      <c r="C9" s="43">
-        <v>2</v>
-      </c>
-      <c r="D9" s="43">
+      <c r="E9" s="44">
         <v>1</v>
       </c>
-      <c r="E9" s="43">
-        <v>1</v>
-      </c>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="51">
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="52">
         <v>0</v>
       </c>
-      <c r="J9" s="52">
+      <c r="J9" s="53">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K9" s="53">
+      <c r="K9" s="54">
+        <v>3</v>
+      </c>
+      <c r="L9" s="54">
         <v>2</v>
       </c>
-      <c r="L9" s="53">
-        <v>1</v>
-      </c>
-      <c r="M9" s="55">
-        <v>0.5</v>
+      <c r="M9" s="56">
+        <v>0.67</v>
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="47"/>
-      <c r="B10" s="45"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="52" t="e">
+      <c r="A10" s="48"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="53" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="54"/>
+      <c r="K10" s="54"/>
+      <c r="L10" s="54"/>
+      <c r="M10" s="55"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="48"/>
-      <c r="B11" s="45"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="52" t="e">
+      <c r="A11" s="49"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="53" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="54"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2059,8 +2074,8 @@
   <sheetPr/>
   <dimension ref="A1:O293"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
@@ -2105,7 +2120,7 @@
       <c r="H1" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="37" t="s">
+      <c r="I1" s="38" t="s">
         <v>22</v>
       </c>
       <c r="J1" s="34" t="s">
@@ -2500,21 +2515,49 @@
       </c>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="1"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
+      <c r="A10" s="37"/>
+      <c r="B10" s="2">
+        <v>43137</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" s="1">
+        <v>76128381</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" s="1">
+        <v>15189553449</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N10" s="1">
+        <v>13665586009</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1"/>
@@ -7328,9 +7371,10 @@
       <c r="O293" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A9:A10"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1">
@@ -7354,7 +7398,7 @@
   <sheetPr/>
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
@@ -7377,19 +7421,19 @@
         <v>21</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F1" s="19" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G1" s="19" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -7403,16 +7447,16 @@
         <v>43087</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -7426,37 +7470,37 @@
         <v>43092</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="9"/>
       <c r="B4" s="24" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C4" s="16">
         <v>43098</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G4" s="25" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:7">
@@ -7470,16 +7514,16 @@
         <v>43102</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G5" s="24" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:7">
@@ -7503,22 +7547,22 @@
         <v>4</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C8" s="16">
         <v>43123</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G8" s="29" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -7530,16 +7574,16 @@
         <v>43123</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G9" s="29" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -7798,21 +7842,21 @@
         <v>1</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="9" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>32</v>
@@ -7821,10 +7865,10 @@
         <v>43084</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -7834,10 +7878,10 @@
         <v>43091</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -7847,10 +7891,10 @@
         <v>43099</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -7860,15 +7904,15 @@
         <v>43100</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="10" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>32</v>
@@ -7877,10 +7921,10 @@
         <v>43101</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -7890,10 +7934,10 @@
         <v>43120</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="2:5">

--- a/周数据/《个人上线率统计表》-高阳.xlsx
+++ b/周数据/《个人上线率统计表》-高阳.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="19770" windowHeight="9390" activeTab="1"/>
+    <workbookView windowWidth="19770" windowHeight="9390" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95">
   <si>
     <t>个人上线率分析表</t>
   </si>
@@ -251,6 +251,12 @@
   </si>
   <si>
     <t>23号签约新项目实施准备中</t>
+  </si>
+  <si>
+    <t>桂花鸭</t>
+  </si>
+  <si>
+    <t>沈芳芳</t>
   </si>
   <si>
     <t>姓名</t>
@@ -379,7 +385,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -393,32 +421,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -429,9 +435,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -453,39 +505,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -501,22 +520,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -585,37 +591,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -633,19 +651,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -657,85 +735,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -925,6 +931,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -936,17 +951,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -970,6 +974,17 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -978,23 +993,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1014,11 +1014,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1030,10 +1036,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1042,137 +1048,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1263,6 +1269,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1280,12 +1289,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1679,384 +1682,384 @@
     <col min="7" max="7" width="15.5083333333333" style="15" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="17.875" style="15" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="17.875" style="15" customWidth="1"/>
-    <col min="10" max="10" width="17.875" style="39" customWidth="1"/>
+    <col min="10" max="10" width="17.875" style="38" customWidth="1"/>
     <col min="11" max="11" width="16" style="15" customWidth="1"/>
     <col min="12" max="12" width="17.875" style="15" customWidth="1"/>
     <col min="13" max="13" width="18.625" style="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" spans="1:13">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="51"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="50"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="44" t="s">
+      <c r="D2" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="44" t="s">
+      <c r="E2" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="45" t="s">
+      <c r="F2" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="45" t="s">
+      <c r="G2" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="45" t="s">
+      <c r="H2" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="52" t="s">
+      <c r="I2" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="53" t="s">
+      <c r="J2" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="54" t="s">
+      <c r="K2" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="54" t="s">
+      <c r="L2" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="55" t="s">
+      <c r="M2" s="54" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="42">
+      <c r="A3" s="41">
         <v>12</v>
       </c>
-      <c r="B3" s="46">
+      <c r="B3" s="45">
         <v>52</v>
       </c>
-      <c r="C3" s="44">
+      <c r="C3" s="43">
         <v>1</v>
       </c>
-      <c r="D3" s="44">
+      <c r="D3" s="43">
         <v>0</v>
       </c>
-      <c r="E3" s="44">
+      <c r="E3" s="43">
         <f t="shared" ref="E3:E8" si="0">C3-D3</f>
         <v>1</v>
       </c>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45">
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44">
         <f t="shared" ref="H3:H11" si="1">F3-G3</f>
         <v>0</v>
       </c>
-      <c r="I3" s="52">
+      <c r="I3" s="51">
         <v>0</v>
       </c>
-      <c r="J3" s="53" t="e">
+      <c r="J3" s="52" t="e">
         <f t="shared" ref="J3:J11" si="2">I3/L3*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K3" s="54">
+      <c r="K3" s="53">
         <f t="shared" ref="K3:K8" si="3">C3+G3</f>
         <v>1</v>
       </c>
-      <c r="L3" s="54">
+      <c r="L3" s="53">
         <f t="shared" ref="L3:L11" si="4">D3+G3</f>
         <v>0</v>
       </c>
-      <c r="M3" s="55">
+      <c r="M3" s="54">
         <f t="shared" ref="M3:M11" si="5">L3/K3*100%</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="47">
+      <c r="A4" s="46">
         <v>1</v>
       </c>
-      <c r="B4" s="46">
+      <c r="B4" s="45">
         <v>1</v>
       </c>
-      <c r="C4" s="44">
+      <c r="C4" s="43">
         <v>5</v>
       </c>
-      <c r="D4" s="44">
+      <c r="D4" s="43">
         <v>2</v>
       </c>
-      <c r="E4" s="44">
+      <c r="E4" s="43">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45">
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I4" s="52">
+      <c r="I4" s="51">
         <v>0</v>
       </c>
-      <c r="J4" s="53">
+      <c r="J4" s="52">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K4" s="54">
+      <c r="K4" s="53">
         <v>5</v>
       </c>
-      <c r="L4" s="54">
+      <c r="L4" s="53">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="M4" s="55">
+      <c r="M4" s="54">
         <f t="shared" si="5"/>
         <v>0.4</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="48"/>
-      <c r="B5" s="46">
+      <c r="A5" s="47"/>
+      <c r="B5" s="45">
         <v>2</v>
       </c>
-      <c r="C5" s="44">
+      <c r="C5" s="43">
         <v>3</v>
       </c>
-      <c r="D5" s="44">
+      <c r="D5" s="43">
         <v>2</v>
       </c>
-      <c r="E5" s="44">
+      <c r="E5" s="43">
         <v>1</v>
       </c>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45">
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I5" s="52">
+      <c r="I5" s="51">
         <v>0</v>
       </c>
-      <c r="J5" s="53">
+      <c r="J5" s="52">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K5" s="54">
+      <c r="K5" s="53">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="L5" s="54">
+      <c r="L5" s="53">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="M5" s="55">
-        <f>L5/K5*100%</f>
+      <c r="M5" s="54">
+        <f t="shared" si="5"/>
         <v>0.666666666666667</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="48"/>
-      <c r="B6" s="46">
+      <c r="A6" s="47"/>
+      <c r="B6" s="45">
         <v>3</v>
       </c>
-      <c r="C6" s="44">
+      <c r="C6" s="43">
         <v>1</v>
       </c>
-      <c r="D6" s="44">
+      <c r="D6" s="43">
         <v>1</v>
       </c>
-      <c r="E6" s="44">
+      <c r="E6" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45">
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I6" s="52">
+      <c r="I6" s="51">
         <v>0</v>
       </c>
-      <c r="J6" s="53">
+      <c r="J6" s="52">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K6" s="54">
+      <c r="K6" s="53">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="L6" s="54">
+      <c r="L6" s="53">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M6" s="55">
+      <c r="M6" s="54">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="48"/>
-      <c r="B7" s="46">
+      <c r="A7" s="47"/>
+      <c r="B7" s="45">
         <v>4</v>
       </c>
-      <c r="C7" s="44">
+      <c r="C7" s="43">
         <v>3</v>
       </c>
-      <c r="D7" s="44">
+      <c r="D7" s="43">
         <v>1</v>
       </c>
-      <c r="E7" s="44">
+      <c r="E7" s="43">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45">
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I7" s="52">
+      <c r="I7" s="51">
         <v>0</v>
       </c>
-      <c r="J7" s="53">
+      <c r="J7" s="52">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K7" s="54">
+      <c r="K7" s="53">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="L7" s="54">
+      <c r="L7" s="53">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M7" s="55">
+      <c r="M7" s="54">
         <f t="shared" si="5"/>
         <v>0.333333333333333</v>
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="48"/>
-      <c r="B8" s="46">
+      <c r="A8" s="47"/>
+      <c r="B8" s="45">
         <v>5</v>
       </c>
-      <c r="C8" s="44">
+      <c r="C8" s="43">
         <v>3</v>
       </c>
-      <c r="D8" s="44">
+      <c r="D8" s="43">
         <v>1</v>
       </c>
-      <c r="E8" s="44">
+      <c r="E8" s="43">
         <v>2</v>
       </c>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45">
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I8" s="52">
+      <c r="I8" s="51">
         <v>0</v>
       </c>
-      <c r="J8" s="53">
+      <c r="J8" s="52">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K8" s="54">
+      <c r="K8" s="53">
         <v>3</v>
       </c>
-      <c r="L8" s="54">
+      <c r="L8" s="53">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M8" s="55">
+      <c r="M8" s="54">
         <v>0.33</v>
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="48"/>
-      <c r="B9" s="46">
+      <c r="A9" s="47"/>
+      <c r="B9" s="45">
         <v>6</v>
       </c>
-      <c r="C9" s="44">
+      <c r="C9" s="43">
         <v>3</v>
       </c>
-      <c r="D9" s="44">
+      <c r="D9" s="43">
         <v>2</v>
       </c>
-      <c r="E9" s="44">
+      <c r="E9" s="43">
         <v>1</v>
       </c>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="52">
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="51">
         <v>0</v>
       </c>
-      <c r="J9" s="53">
+      <c r="J9" s="52">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K9" s="54">
+      <c r="K9" s="53">
         <v>3</v>
       </c>
-      <c r="L9" s="54">
+      <c r="L9" s="53">
         <v>2</v>
       </c>
-      <c r="M9" s="56">
+      <c r="M9" s="55">
         <v>0.67</v>
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="48"/>
-      <c r="B10" s="46"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="52"/>
-      <c r="J10" s="53" t="e">
+      <c r="A10" s="47"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="52" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K10" s="54"/>
-      <c r="L10" s="54"/>
-      <c r="M10" s="55"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="54"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="49"/>
-      <c r="B11" s="46"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="52"/>
-      <c r="J11" s="53" t="e">
+      <c r="A11" s="48"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="52" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K11" s="54"/>
-      <c r="L11" s="54"/>
-      <c r="M11" s="55"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2074,14 +2077,14 @@
   <sheetPr/>
   <dimension ref="A1:O293"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12.8416666666667" customWidth="1"/>
-    <col min="2" max="2" width="15.625" style="31" customWidth="1"/>
+    <col min="2" max="2" width="15.625" style="32" customWidth="1"/>
     <col min="3" max="3" width="11.4833333333333" customWidth="1"/>
     <col min="4" max="4" width="27.5" customWidth="1"/>
     <col min="5" max="5" width="20.875" customWidth="1"/>
@@ -2095,50 +2098,50 @@
     <col min="15" max="16384" width="9.73333333333333"/>
   </cols>
   <sheetData>
-    <row r="1" s="30" customFormat="1" ht="27" spans="1:15">
-      <c r="A1" s="32" t="s">
+    <row r="1" s="31" customFormat="1" ht="27" spans="1:15">
+      <c r="A1" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="35" t="s">
+      <c r="H1" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="38" t="s">
+      <c r="I1" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="34" t="s">
+      <c r="J1" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="34" t="s">
+      <c r="K1" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="32" t="s">
+      <c r="L1" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="32" t="s">
+      <c r="M1" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="32" t="s">
+      <c r="N1" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="32" t="s">
+      <c r="O1" s="33" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2468,7 +2471,7 @@
       </c>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="36">
+      <c r="A9" s="10">
         <v>6</v>
       </c>
       <c r="B9" s="2">
@@ -2515,7 +2518,7 @@
       </c>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="37"/>
+      <c r="A10" s="14"/>
       <c r="B10" s="2">
         <v>43137</v>
       </c>
@@ -7396,16 +7399,16 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="8.625" style="15"/>
-    <col min="2" max="2" width="17.25" customWidth="1"/>
+    <col min="2" max="2" width="27.625" customWidth="1"/>
     <col min="3" max="3" width="19.125" style="16" customWidth="1"/>
     <col min="4" max="4" width="35.25" style="17" customWidth="1"/>
     <col min="5" max="5" width="13.5083333333333" customWidth="1"/>
@@ -7594,13 +7597,28 @@
       <c r="F10" s="1"/>
       <c r="G10" s="29"/>
     </row>
-    <row r="11" ht="14.25" spans="1:7">
-      <c r="A11" s="10"/>
-      <c r="B11" s="24"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="28"/>
+    <row r="11" spans="1:7">
+      <c r="A11" s="10">
+        <v>6</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" s="16">
+        <v>43137</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G11" s="28" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="9"/>
@@ -7610,13 +7628,14 @@
       <c r="F12" s="1"/>
       <c r="G12" s="29"/>
     </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="9"/>
+    <row r="13" ht="14.25" spans="1:7">
+      <c r="A13" s="10"/>
       <c r="B13" s="24"/>
-      <c r="D13" s="23"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="27"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="29"/>
+      <c r="G13" s="28"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="9"/>
@@ -7634,13 +7653,13 @@
       <c r="F15" s="1"/>
       <c r="G15" s="29"/>
     </row>
-    <row r="16" ht="14.25" spans="1:7">
-      <c r="A16" s="10"/>
+    <row r="16" spans="1:7">
+      <c r="A16" s="9"/>
       <c r="B16" s="24"/>
-      <c r="D16" s="27"/>
+      <c r="D16" s="23"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="28"/>
+      <c r="G16" s="29"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="9"/>
@@ -7682,134 +7701,30 @@
       <c r="F21" s="1"/>
       <c r="G21" s="29"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:1">
       <c r="A22" s="9"/>
-      <c r="B22" s="24"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="29"/>
-    </row>
-    <row r="23" spans="1:7">
+    </row>
+    <row r="23" spans="1:1">
       <c r="A23" s="9"/>
-      <c r="B23" s="24"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="29"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="9"/>
-      <c r="B24" s="24"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="29"/>
-    </row>
-    <row r="25" ht="14.25" spans="1:7">
-      <c r="A25" s="9"/>
-      <c r="B25" s="24"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="28"/>
-    </row>
-    <row r="26" ht="14.25" spans="1:7">
-      <c r="A26" s="9"/>
-      <c r="B26" s="24"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="28"/>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="14"/>
-      <c r="B27" s="24"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="29"/>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="9"/>
-      <c r="B28" s="24"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="29"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="9"/>
-      <c r="B29" s="24"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="29"/>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="9"/>
-      <c r="B30" s="24"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="29"/>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="9"/>
-      <c r="B31" s="24"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="29"/>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="9"/>
-      <c r="B32" s="24"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="29"/>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="9"/>
-      <c r="B33" s="24"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="29"/>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="9"/>
-      <c r="B34" s="24"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="29"/>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="9"/>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="9"/>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="14"/>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A15"/>
-    <mergeCell ref="A16:A27"/>
-    <mergeCell ref="A28:A37"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A24"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E10 E2:E5 E6:E7 E8:E9 E11:E15 E16:E1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E10 E2:E5 E6:E7 E8:E9 E11:E12 E13:E14 E15:E1048576">
       <formula1>"单店,连锁,KA,供应链"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="saas" sqref="F2:F5 F6:F10 F11:F15 F16:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="saas" sqref="F2:F5 F6:F10 F11:F12 F13:F14 F15:F1048576">
       <formula1>"SAAS,供应链,SAAS+微信,SAAS+供应链,SAAS+微信+供应链"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7842,21 +7757,21 @@
         <v>1</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="9" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>32</v>
@@ -7865,10 +7780,10 @@
         <v>43084</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -7878,10 +7793,10 @@
         <v>43091</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -7891,10 +7806,10 @@
         <v>43099</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -7904,15 +7819,15 @@
         <v>43100</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="10" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>32</v>
@@ -7921,10 +7836,10 @@
         <v>43101</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -7934,10 +7849,10 @@
         <v>43120</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="2:5">

--- a/周数据/《个人上线率统计表》-高阳.xlsx
+++ b/周数据/《个人上线率统计表》-高阳.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="19770" windowHeight="9390" activeTab="2"/>
+    <workbookView windowWidth="20385" windowHeight="9390"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98">
   <si>
     <t>个人上线率分析表</t>
   </si>
@@ -197,6 +197,15 @@
   </si>
   <si>
     <t>槐店王婆大虾颖州店</t>
+  </si>
+  <si>
+    <t>南京福怡阁餐饮管理有限公司</t>
+  </si>
+  <si>
+    <t>福怡阁</t>
+  </si>
+  <si>
+    <t>南京市福怡阁餐饮管理有限公司</t>
   </si>
   <si>
     <t>立项日期</t>
@@ -309,10 +318,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="29">
@@ -385,7 +394,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -406,15 +423,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -428,26 +477,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -468,38 +502,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -514,15 +531,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -591,31 +600,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -627,7 +612,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -645,7 +630,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -657,31 +660,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -699,31 +684,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -741,7 +714,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -931,6 +940,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -941,16 +965,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -972,15 +996,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -993,38 +1008,32 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1036,10 +1045,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1048,133 +1057,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1290,6 +1299,9 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1321,9 +1333,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1666,10 +1675,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
@@ -1682,52 +1691,52 @@
     <col min="7" max="7" width="15.5083333333333" style="15" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="17.875" style="15" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="17.875" style="15" customWidth="1"/>
-    <col min="10" max="10" width="17.875" style="38" customWidth="1"/>
+    <col min="10" max="10" width="17.875" style="39" customWidth="1"/>
     <col min="11" max="11" width="16" style="15" customWidth="1"/>
     <col min="12" max="12" width="17.875" style="15" customWidth="1"/>
     <col min="13" max="13" width="18.625" style="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" spans="1:13">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
       <c r="J1" s="49"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
       <c r="M1" s="50"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="43" t="s">
+      <c r="E2" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="44" t="s">
+      <c r="F2" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="44" t="s">
+      <c r="G2" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="44" t="s">
+      <c r="H2" s="45" t="s">
         <v>8</v>
       </c>
       <c r="I2" s="51" t="s">
@@ -1747,25 +1756,25 @@
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="41">
+      <c r="A3" s="42">
         <v>12</v>
       </c>
-      <c r="B3" s="45">
+      <c r="B3" s="46">
         <v>52</v>
       </c>
-      <c r="C3" s="43">
+      <c r="C3" s="44">
         <v>1</v>
       </c>
-      <c r="D3" s="43">
+      <c r="D3" s="44">
         <v>0</v>
       </c>
-      <c r="E3" s="43">
+      <c r="E3" s="44">
         <f t="shared" ref="E3:E8" si="0">C3-D3</f>
         <v>1</v>
       </c>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44">
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45">
         <f t="shared" ref="H3:H11" si="1">F3-G3</f>
         <v>0</v>
       </c>
@@ -1773,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="52" t="e">
-        <f t="shared" ref="J3:J11" si="2">I3/L3*100%</f>
+        <f t="shared" ref="J3:J15" si="2">I3/L3*100%</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K3" s="53">
@@ -1785,30 +1794,30 @@
         <v>0</v>
       </c>
       <c r="M3" s="54">
-        <f t="shared" ref="M3:M11" si="5">L3/K3*100%</f>
+        <f>L3/K3*100%</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="46">
+      <c r="A4" s="47">
         <v>1</v>
       </c>
-      <c r="B4" s="45">
+      <c r="B4" s="46">
         <v>1</v>
       </c>
-      <c r="C4" s="43">
+      <c r="C4" s="44">
         <v>5</v>
       </c>
-      <c r="D4" s="43">
+      <c r="D4" s="44">
         <v>2</v>
       </c>
-      <c r="E4" s="43">
+      <c r="E4" s="44">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44">
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1827,27 +1836,27 @@
         <v>2</v>
       </c>
       <c r="M4" s="54">
-        <f t="shared" si="5"/>
+        <f>L4/K4*100%</f>
         <v>0.4</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="47"/>
-      <c r="B5" s="45">
+      <c r="A5" s="48"/>
+      <c r="B5" s="46">
         <v>2</v>
       </c>
-      <c r="C5" s="43">
+      <c r="C5" s="44">
         <v>3</v>
       </c>
-      <c r="D5" s="43">
+      <c r="D5" s="44">
         <v>2</v>
       </c>
-      <c r="E5" s="43">
+      <c r="E5" s="44">
         <v>1</v>
       </c>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44">
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1867,28 +1876,28 @@
         <v>2</v>
       </c>
       <c r="M5" s="54">
-        <f t="shared" si="5"/>
+        <f>L5/K5*100%</f>
         <v>0.666666666666667</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="47"/>
-      <c r="B6" s="45">
+      <c r="A6" s="48"/>
+      <c r="B6" s="46">
         <v>3</v>
       </c>
-      <c r="C6" s="43">
+      <c r="C6" s="44">
         <v>1</v>
       </c>
-      <c r="D6" s="43">
+      <c r="D6" s="44">
         <v>1</v>
       </c>
-      <c r="E6" s="43">
+      <c r="E6" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44">
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1908,28 +1917,28 @@
         <v>1</v>
       </c>
       <c r="M6" s="54">
-        <f t="shared" si="5"/>
+        <f>L6/K6*100%</f>
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="47"/>
-      <c r="B7" s="45">
+      <c r="A7" s="48"/>
+      <c r="B7" s="46">
         <v>4</v>
       </c>
-      <c r="C7" s="43">
+      <c r="C7" s="44">
         <v>3</v>
       </c>
-      <c r="D7" s="43">
+      <c r="D7" s="44">
         <v>1</v>
       </c>
-      <c r="E7" s="43">
+      <c r="E7" s="44">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44">
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1949,27 +1958,27 @@
         <v>1</v>
       </c>
       <c r="M7" s="54">
-        <f t="shared" si="5"/>
+        <f>L7/K7*100%</f>
         <v>0.333333333333333</v>
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="47"/>
-      <c r="B8" s="45">
+      <c r="A8" s="48"/>
+      <c r="B8" s="46">
         <v>5</v>
       </c>
-      <c r="C8" s="43">
+      <c r="C8" s="44">
         <v>3</v>
       </c>
-      <c r="D8" s="43">
+      <c r="D8" s="44">
         <v>1</v>
       </c>
-      <c r="E8" s="43">
+      <c r="E8" s="44">
         <v>2</v>
       </c>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44">
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1992,22 +2001,22 @@
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="47"/>
-      <c r="B9" s="45">
+      <c r="A9" s="48"/>
+      <c r="B9" s="46">
         <v>6</v>
       </c>
-      <c r="C9" s="43">
+      <c r="C9" s="44">
         <v>3</v>
       </c>
-      <c r="D9" s="43">
+      <c r="D9" s="44">
         <v>2</v>
       </c>
-      <c r="E9" s="43">
+      <c r="E9" s="44">
         <v>1</v>
       </c>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
       <c r="I9" s="51">
         <v>0</v>
       </c>
@@ -2026,45 +2035,121 @@
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="47"/>
-      <c r="B10" s="45"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="52" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="54"/>
+      <c r="A10" s="47">
+        <v>3</v>
+      </c>
+      <c r="B10" s="46">
+        <v>10</v>
+      </c>
+      <c r="C10" s="44">
+        <v>1</v>
+      </c>
+      <c r="D10" s="44">
+        <v>1</v>
+      </c>
+      <c r="E10" s="44">
+        <f>C10-D10</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45">
+        <f>F10-G10</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="51">
+        <v>0</v>
+      </c>
+      <c r="J10" s="52">
+        <f>I10/L10*100%</f>
+        <v>0</v>
+      </c>
+      <c r="K10" s="53">
+        <v>1</v>
+      </c>
+      <c r="L10" s="53">
+        <f>D10+G10</f>
+        <v>1</v>
+      </c>
+      <c r="M10" s="54">
+        <f>L10/K10*100%</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="48"/>
-      <c r="B11" s="45"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="51"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44">
+        <f>C11-D11</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45">
+        <f>F11-G11</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="51">
+        <v>0</v>
+      </c>
       <c r="J11" s="52" t="e">
-        <f t="shared" si="2"/>
+        <f>I11/L11*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="54"/>
+      <c r="K11" s="53">
+        <f>C11+G11</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="53">
+        <f>D11+G11</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="54" t="e">
+        <f>L11/K11*100%</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="48"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44">
+        <f>C12-D12</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="45">
+        <f>F12-G12</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="51">
+        <v>0</v>
+      </c>
+      <c r="J12" s="52" t="e">
+        <f>I12/L12*100%</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K12" s="53">
+        <f>C12+G12</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="53">
+        <f>D12+G12</f>
+        <v>0</v>
+      </c>
+      <c r="M12" s="54" t="e">
+        <f>L12/K12*100%</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A4:A9"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2078,7 +2163,7 @@
   <dimension ref="A1:O293"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
@@ -2090,7 +2175,7 @@
     <col min="5" max="5" width="20.875" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
     <col min="7" max="7" width="10.2666666666667" customWidth="1"/>
-    <col min="8" max="8" width="17.1583333333333" customWidth="1"/>
+    <col min="8" max="8" width="28.25" customWidth="1"/>
     <col min="9" max="9" width="9.86666666666667" customWidth="1"/>
     <col min="10" max="10" width="13.9166666666667" customWidth="1"/>
     <col min="11" max="11" width="17.975" customWidth="1"/>
@@ -2123,7 +2208,7 @@
       <c r="H1" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="37" t="s">
+      <c r="I1" s="38" t="s">
         <v>22</v>
       </c>
       <c r="J1" s="35" t="s">
@@ -2563,21 +2648,51 @@
       </c>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="1"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
+      <c r="A11" s="37">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2">
+        <v>43165</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="1">
+        <v>76132691</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K11" s="1">
+        <v>15189553449</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N11" s="1">
+        <v>15851877626</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1"/>
@@ -7386,7 +7501,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
       <formula1>"SaaS,库存,供应链,饮食通,饮食通老客户上线"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2 O5 O3:O4 O6:O7 O8:O1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2 O5 O3:O4 O6:O7 O8:O9 O10:O11 O12:O1048576">
       <formula1>"新品牌,老品牌"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7401,7 +7516,7 @@
   <sheetPr/>
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
@@ -7424,19 +7539,19 @@
         <v>21</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F1" s="19" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G1" s="19" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -7450,16 +7565,16 @@
         <v>43087</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -7473,37 +7588,37 @@
         <v>43092</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="9"/>
       <c r="B4" s="24" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C4" s="16">
         <v>43098</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G4" s="25" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:7">
@@ -7517,16 +7632,16 @@
         <v>43102</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G5" s="24" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:7">
@@ -7550,22 +7665,22 @@
         <v>4</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C8" s="16">
         <v>43123</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G8" s="29" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -7577,16 +7692,16 @@
         <v>43123</v>
       </c>
       <c r="D9" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G9" s="29" t="s">
         <v>77</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G9" s="29" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -7602,22 +7717,22 @@
         <v>6</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C11" s="16">
         <v>43137</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G11" s="28" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -7631,7 +7746,6 @@
     <row r="13" ht="14.25" spans="1:7">
       <c r="A13" s="10"/>
       <c r="B13" s="24"/>
-      <c r="C13" s="16"/>
       <c r="D13" s="27"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -7757,21 +7871,21 @@
         <v>1</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="9" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>32</v>
@@ -7780,10 +7894,10 @@
         <v>43084</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -7793,10 +7907,10 @@
         <v>43091</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -7806,10 +7920,10 @@
         <v>43099</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -7819,15 +7933,15 @@
         <v>43100</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="10" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>32</v>
@@ -7836,10 +7950,10 @@
         <v>43101</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -7849,10 +7963,10 @@
         <v>43120</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="2:5">

--- a/周数据/《个人上线率统计表》-高阳.xlsx
+++ b/周数据/《个人上线率统计表》-高阳.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="9390"/>
+    <workbookView windowWidth="20385" windowHeight="9390" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101">
   <si>
     <t>个人上线率分析表</t>
   </si>
@@ -311,6 +311,15 @@
   </si>
   <si>
     <t>江苏省南京市江宁区金盛路95号/卤味牛肉锅</t>
+  </si>
+  <si>
+    <t>3月</t>
+  </si>
+  <si>
+    <t>南京市江宁区江宁街道润寿路1115/南京市福怡阁餐饮管理有限公司</t>
+  </si>
+  <si>
+    <t>上线实施</t>
   </si>
 </sst>
 </file>
@@ -318,11 +327,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -600,12 +609,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -625,18 +628,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -678,12 +669,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -702,13 +687,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -732,13 +717,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1045,135 +1054,135 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1187,7 +1196,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1233,6 +1242,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1298,9 +1313,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1677,471 +1689,471 @@
   <sheetPr/>
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="5.125" style="15" customWidth="1"/>
-    <col min="2" max="2" width="8.125" style="15" customWidth="1"/>
-    <col min="3" max="4" width="16.25" style="15" customWidth="1"/>
-    <col min="5" max="5" width="17.75" style="15" customWidth="1"/>
-    <col min="6" max="6" width="15.875" style="15" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5083333333333" style="15" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="17.875" style="15" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="17.875" style="15" customWidth="1"/>
-    <col min="10" max="10" width="17.875" style="39" customWidth="1"/>
-    <col min="11" max="11" width="16" style="15" customWidth="1"/>
-    <col min="12" max="12" width="17.875" style="15" customWidth="1"/>
-    <col min="13" max="13" width="18.625" style="15" customWidth="1"/>
+    <col min="1" max="1" width="5.125" style="17" customWidth="1"/>
+    <col min="2" max="2" width="8.125" style="17" customWidth="1"/>
+    <col min="3" max="4" width="16.25" style="17" customWidth="1"/>
+    <col min="5" max="5" width="17.75" style="17" customWidth="1"/>
+    <col min="6" max="6" width="15.875" style="17" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5083333333333" style="17" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="17.875" style="17" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="17.875" style="17" customWidth="1"/>
+    <col min="10" max="10" width="17.875" style="40" customWidth="1"/>
+    <col min="11" max="11" width="16" style="17" customWidth="1"/>
+    <col min="12" max="12" width="17.875" style="17" customWidth="1"/>
+    <col min="13" max="13" width="18.625" style="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" spans="1:13">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="50"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="51"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="44" t="s">
+      <c r="D2" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="44" t="s">
+      <c r="E2" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="45" t="s">
+      <c r="F2" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="45" t="s">
+      <c r="G2" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="45" t="s">
+      <c r="H2" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="51" t="s">
+      <c r="I2" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="52" t="s">
+      <c r="J2" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="53" t="s">
+      <c r="K2" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="53" t="s">
+      <c r="L2" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="54" t="s">
+      <c r="M2" s="55" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="42">
+      <c r="A3" s="43">
         <v>12</v>
       </c>
-      <c r="B3" s="46">
+      <c r="B3" s="47">
         <v>52</v>
       </c>
-      <c r="C3" s="44">
+      <c r="C3" s="45">
         <v>1</v>
       </c>
-      <c r="D3" s="44">
+      <c r="D3" s="45">
         <v>0</v>
       </c>
-      <c r="E3" s="44">
+      <c r="E3" s="45">
         <f t="shared" ref="E3:E8" si="0">C3-D3</f>
         <v>1</v>
       </c>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45">
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46">
         <f t="shared" ref="H3:H11" si="1">F3-G3</f>
         <v>0</v>
       </c>
-      <c r="I3" s="51">
+      <c r="I3" s="52">
         <v>0</v>
       </c>
-      <c r="J3" s="52" t="e">
+      <c r="J3" s="53" t="e">
         <f t="shared" ref="J3:J15" si="2">I3/L3*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K3" s="53">
+      <c r="K3" s="54">
         <f t="shared" ref="K3:K8" si="3">C3+G3</f>
         <v>1</v>
       </c>
-      <c r="L3" s="53">
+      <c r="L3" s="54">
         <f t="shared" ref="L3:L11" si="4">D3+G3</f>
         <v>0</v>
       </c>
-      <c r="M3" s="54">
+      <c r="M3" s="55">
         <f>L3/K3*100%</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="47">
+      <c r="A4" s="48">
         <v>1</v>
       </c>
-      <c r="B4" s="46">
+      <c r="B4" s="47">
         <v>1</v>
       </c>
-      <c r="C4" s="44">
+      <c r="C4" s="45">
         <v>5</v>
       </c>
-      <c r="D4" s="44">
+      <c r="D4" s="45">
         <v>2</v>
       </c>
-      <c r="E4" s="44">
+      <c r="E4" s="45">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45">
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I4" s="51">
+      <c r="I4" s="52">
         <v>0</v>
       </c>
-      <c r="J4" s="52">
+      <c r="J4" s="53">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K4" s="53">
+      <c r="K4" s="54">
         <v>5</v>
       </c>
-      <c r="L4" s="53">
+      <c r="L4" s="54">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="M4" s="54">
+      <c r="M4" s="55">
         <f>L4/K4*100%</f>
         <v>0.4</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="48"/>
-      <c r="B5" s="46">
+      <c r="A5" s="49"/>
+      <c r="B5" s="47">
         <v>2</v>
       </c>
-      <c r="C5" s="44">
+      <c r="C5" s="45">
         <v>3</v>
       </c>
-      <c r="D5" s="44">
+      <c r="D5" s="45">
         <v>2</v>
       </c>
-      <c r="E5" s="44">
+      <c r="E5" s="45">
         <v>1</v>
       </c>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45">
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I5" s="51">
+      <c r="I5" s="52">
         <v>0</v>
       </c>
-      <c r="J5" s="52">
+      <c r="J5" s="53">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K5" s="53">
+      <c r="K5" s="54">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="L5" s="53">
+      <c r="L5" s="54">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="M5" s="54">
+      <c r="M5" s="55">
         <f>L5/K5*100%</f>
         <v>0.666666666666667</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="48"/>
-      <c r="B6" s="46">
+      <c r="A6" s="49"/>
+      <c r="B6" s="47">
         <v>3</v>
       </c>
-      <c r="C6" s="44">
+      <c r="C6" s="45">
         <v>1</v>
       </c>
-      <c r="D6" s="44">
+      <c r="D6" s="45">
         <v>1</v>
       </c>
-      <c r="E6" s="44">
+      <c r="E6" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45">
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I6" s="51">
+      <c r="I6" s="52">
         <v>0</v>
       </c>
-      <c r="J6" s="52">
+      <c r="J6" s="53">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K6" s="53">
+      <c r="K6" s="54">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="L6" s="53">
+      <c r="L6" s="54">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M6" s="54">
+      <c r="M6" s="55">
         <f>L6/K6*100%</f>
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="48"/>
-      <c r="B7" s="46">
+      <c r="A7" s="49"/>
+      <c r="B7" s="47">
         <v>4</v>
       </c>
-      <c r="C7" s="44">
+      <c r="C7" s="45">
         <v>3</v>
       </c>
-      <c r="D7" s="44">
+      <c r="D7" s="45">
         <v>1</v>
       </c>
-      <c r="E7" s="44">
+      <c r="E7" s="45">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45">
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I7" s="51">
+      <c r="I7" s="52">
         <v>0</v>
       </c>
-      <c r="J7" s="52">
+      <c r="J7" s="53">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K7" s="53">
+      <c r="K7" s="54">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="L7" s="53">
+      <c r="L7" s="54">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M7" s="54">
+      <c r="M7" s="55">
         <f>L7/K7*100%</f>
         <v>0.333333333333333</v>
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="48"/>
-      <c r="B8" s="46">
+      <c r="A8" s="49"/>
+      <c r="B8" s="47">
         <v>5</v>
       </c>
-      <c r="C8" s="44">
+      <c r="C8" s="45">
         <v>3</v>
       </c>
-      <c r="D8" s="44">
+      <c r="D8" s="45">
         <v>1</v>
       </c>
-      <c r="E8" s="44">
+      <c r="E8" s="45">
         <v>2</v>
       </c>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45">
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I8" s="51">
+      <c r="I8" s="52">
         <v>0</v>
       </c>
-      <c r="J8" s="52">
+      <c r="J8" s="53">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K8" s="53">
+      <c r="K8" s="54">
         <v>3</v>
       </c>
-      <c r="L8" s="53">
+      <c r="L8" s="54">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M8" s="54">
+      <c r="M8" s="55">
         <v>0.33</v>
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="48"/>
-      <c r="B9" s="46">
+      <c r="A9" s="49"/>
+      <c r="B9" s="47">
         <v>6</v>
       </c>
-      <c r="C9" s="44">
+      <c r="C9" s="45">
         <v>3</v>
       </c>
-      <c r="D9" s="44">
+      <c r="D9" s="45">
         <v>2</v>
       </c>
-      <c r="E9" s="44">
+      <c r="E9" s="45">
         <v>1</v>
       </c>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="51">
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="52">
         <v>0</v>
       </c>
-      <c r="J9" s="52">
+      <c r="J9" s="53">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K9" s="53">
+      <c r="K9" s="54">
         <v>3</v>
       </c>
-      <c r="L9" s="53">
+      <c r="L9" s="54">
         <v>2</v>
       </c>
-      <c r="M9" s="55">
+      <c r="M9" s="56">
         <v>0.67</v>
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="47">
+      <c r="A10" s="48">
         <v>3</v>
       </c>
-      <c r="B10" s="46">
+      <c r="B10" s="47">
         <v>10</v>
       </c>
-      <c r="C10" s="44">
+      <c r="C10" s="45">
         <v>1</v>
       </c>
-      <c r="D10" s="44">
+      <c r="D10" s="45">
         <v>1</v>
       </c>
-      <c r="E10" s="44">
+      <c r="E10" s="45">
         <f>C10-D10</f>
         <v>0</v>
       </c>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45">
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46">
         <f>F10-G10</f>
         <v>0</v>
       </c>
-      <c r="I10" s="51">
+      <c r="I10" s="52">
         <v>0</v>
       </c>
-      <c r="J10" s="52">
-        <f>I10/L10*100%</f>
+      <c r="J10" s="53">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K10" s="53">
+      <c r="K10" s="54">
         <v>1</v>
       </c>
-      <c r="L10" s="53">
+      <c r="L10" s="54">
         <f>D10+G10</f>
         <v>1</v>
       </c>
-      <c r="M10" s="54">
+      <c r="M10" s="55">
         <f>L10/K10*100%</f>
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="48"/>
-      <c r="B11" s="46"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44">
+      <c r="A11" s="49"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45">
         <f>C11-D11</f>
         <v>0</v>
       </c>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="45">
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46">
         <f>F11-G11</f>
         <v>0</v>
       </c>
-      <c r="I11" s="51">
+      <c r="I11" s="52">
         <v>0</v>
       </c>
-      <c r="J11" s="52" t="e">
-        <f>I11/L11*100%</f>
+      <c r="J11" s="53" t="e">
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K11" s="53">
+      <c r="K11" s="54">
         <f>C11+G11</f>
         <v>0</v>
       </c>
-      <c r="L11" s="53">
+      <c r="L11" s="54">
         <f>D11+G11</f>
         <v>0</v>
       </c>
-      <c r="M11" s="54" t="e">
+      <c r="M11" s="55" t="e">
         <f>L11/K11*100%</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="48"/>
-      <c r="B12" s="46"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44">
+      <c r="A12" s="49"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45">
         <f>C12-D12</f>
         <v>0</v>
       </c>
-      <c r="F12" s="45"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="45">
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46">
         <f>F12-G12</f>
         <v>0</v>
       </c>
-      <c r="I12" s="51">
+      <c r="I12" s="52">
         <v>0</v>
       </c>
-      <c r="J12" s="52" t="e">
-        <f>I12/L12*100%</f>
+      <c r="J12" s="53" t="e">
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K12" s="53">
+      <c r="K12" s="54">
         <f>C12+G12</f>
         <v>0</v>
       </c>
-      <c r="L12" s="53">
+      <c r="L12" s="54">
         <f>D12+G12</f>
         <v>0</v>
       </c>
-      <c r="M12" s="54" t="e">
+      <c r="M12" s="55" t="e">
         <f>L12/K12*100%</f>
         <v>#DIV/0!</v>
       </c>
@@ -2162,14 +2174,14 @@
   <sheetPr/>
   <dimension ref="A1:O293"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12.8416666666667" customWidth="1"/>
-    <col min="2" max="2" width="15.625" style="32" customWidth="1"/>
+    <col min="2" max="2" width="15.625" style="34" customWidth="1"/>
     <col min="3" max="3" width="11.4833333333333" customWidth="1"/>
     <col min="4" max="4" width="27.5" customWidth="1"/>
     <col min="5" max="5" width="20.875" customWidth="1"/>
@@ -2183,50 +2195,50 @@
     <col min="15" max="16384" width="9.73333333333333"/>
   </cols>
   <sheetData>
-    <row r="1" s="31" customFormat="1" ht="27" spans="1:15">
-      <c r="A1" s="33" t="s">
+    <row r="1" s="33" customFormat="1" ht="27" spans="1:15">
+      <c r="A1" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="F1" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="35" t="s">
+      <c r="G1" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="36" t="s">
+      <c r="H1" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="38" t="s">
+      <c r="I1" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="35" t="s">
+      <c r="J1" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="35" t="s">
+      <c r="K1" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="33" t="s">
+      <c r="L1" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="33" t="s">
+      <c r="M1" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="33" t="s">
+      <c r="N1" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="33" t="s">
+      <c r="O1" s="35" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2648,7 +2660,7 @@
       </c>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="37">
+      <c r="A11" s="12">
         <v>10</v>
       </c>
       <c r="B11" s="2">
@@ -7522,35 +7534,35 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="8.625" style="15"/>
+    <col min="1" max="1" width="8.625" style="17"/>
     <col min="2" max="2" width="27.625" customWidth="1"/>
-    <col min="3" max="3" width="19.125" style="16" customWidth="1"/>
-    <col min="4" max="4" width="35.25" style="17" customWidth="1"/>
+    <col min="3" max="3" width="19.125" style="18" customWidth="1"/>
+    <col min="4" max="4" width="35.25" style="19" customWidth="1"/>
     <col min="5" max="5" width="13.5083333333333" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="11.375" style="18" customWidth="1"/>
+    <col min="7" max="7" width="11.375" style="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="21" t="s">
         <v>67</v>
       </c>
     </row>
@@ -7558,13 +7570,13 @@
       <c r="A2" s="10">
         <v>51</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2" s="18">
         <v>43087</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="25" t="s">
         <v>68</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -7581,13 +7593,13 @@
       <c r="A3" s="9">
         <v>52</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="18">
         <v>43092</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="25" t="s">
         <v>68</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -7602,13 +7614,13 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="9"/>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="18">
         <v>43098</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="25" t="s">
         <v>75</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -7617,7 +7629,7 @@
       <c r="F4" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="G4" s="25" t="s">
+      <c r="G4" s="27" t="s">
         <v>76</v>
       </c>
     </row>
@@ -7625,13 +7637,13 @@
       <c r="A5" s="10">
         <v>1</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="18">
         <v>43102</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="25" t="s">
         <v>68</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -7640,37 +7652,37 @@
       <c r="F5" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="G5" s="24" t="s">
+      <c r="G5" s="26" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:7">
       <c r="A6" s="9"/>
-      <c r="B6" s="24"/>
-      <c r="D6" s="27"/>
+      <c r="B6" s="26"/>
+      <c r="D6" s="29"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="28"/>
+      <c r="G6" s="30"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="9"/>
-      <c r="B7" s="24"/>
-      <c r="D7" s="23"/>
+      <c r="B7" s="26"/>
+      <c r="D7" s="25"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="29"/>
+      <c r="G7" s="31"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="10">
         <v>4</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="18">
         <v>43123</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="25" t="s">
         <v>79</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -7679,19 +7691,19 @@
       <c r="F8" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G8" s="29" t="s">
+      <c r="G8" s="31" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="9"/>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="18">
         <v>43123</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="25" t="s">
         <v>80</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -7700,29 +7712,29 @@
       <c r="F9" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G9" s="29" t="s">
+      <c r="G9" s="31" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="9"/>
-      <c r="B10" s="24"/>
-      <c r="D10" s="23"/>
+      <c r="B10" s="26"/>
+      <c r="D10" s="25"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="29"/>
+      <c r="G10" s="31"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="10">
         <v>6</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="18">
         <v>43137</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="32" t="s">
         <v>68</v>
       </c>
       <c r="E11" s="1" t="s">
@@ -7731,89 +7743,89 @@
       <c r="F11" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="G11" s="28" t="s">
+      <c r="G11" s="30" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="9"/>
-      <c r="B12" s="24"/>
-      <c r="D12" s="23"/>
+      <c r="B12" s="26"/>
+      <c r="D12" s="25"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="29"/>
+      <c r="G12" s="31"/>
     </row>
     <row r="13" ht="14.25" spans="1:7">
       <c r="A13" s="10"/>
-      <c r="B13" s="24"/>
-      <c r="D13" s="27"/>
+      <c r="B13" s="26"/>
+      <c r="D13" s="29"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="28"/>
+      <c r="G13" s="30"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="9"/>
-      <c r="B14" s="24"/>
-      <c r="D14" s="23"/>
+      <c r="B14" s="26"/>
+      <c r="D14" s="25"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="29"/>
+      <c r="G14" s="31"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="9"/>
-      <c r="B15" s="24"/>
-      <c r="D15" s="23"/>
+      <c r="B15" s="26"/>
+      <c r="D15" s="25"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="29"/>
+      <c r="G15" s="31"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="9"/>
-      <c r="B16" s="24"/>
-      <c r="D16" s="23"/>
+      <c r="B16" s="26"/>
+      <c r="D16" s="25"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="29"/>
+      <c r="G16" s="31"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="9"/>
-      <c r="B17" s="24"/>
-      <c r="D17" s="23"/>
+      <c r="B17" s="26"/>
+      <c r="D17" s="25"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="29"/>
+      <c r="G17" s="31"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="9"/>
-      <c r="B18" s="24"/>
-      <c r="D18" s="23"/>
+      <c r="B18" s="26"/>
+      <c r="D18" s="25"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
-      <c r="G18" s="29"/>
+      <c r="G18" s="31"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="9"/>
-      <c r="B19" s="24"/>
-      <c r="D19" s="23"/>
+      <c r="B19" s="26"/>
+      <c r="D19" s="25"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
-      <c r="G19" s="29"/>
+      <c r="G19" s="31"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="9"/>
-      <c r="B20" s="24"/>
-      <c r="D20" s="23"/>
+      <c r="B20" s="26"/>
+      <c r="D20" s="25"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
-      <c r="G20" s="29"/>
+      <c r="G20" s="31"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="9"/>
-      <c r="B21" s="24"/>
-      <c r="D21" s="23"/>
+      <c r="B21" s="26"/>
+      <c r="D21" s="25"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
-      <c r="G21" s="29"/>
+      <c r="G21" s="31"/>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="9"/>
@@ -7853,8 +7865,8 @@
   <sheetPr/>
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -7862,7 +7874,7 @@
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15.125" style="1" customWidth="1"/>
     <col min="3" max="3" width="17" style="2" customWidth="1"/>
-    <col min="4" max="4" width="42.125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="59.875" style="3" customWidth="1"/>
     <col min="5" max="5" width="65" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7969,13 +7981,26 @@
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="2:5">
-      <c r="B8" s="12"/>
-      <c r="C8" s="11"/>
-      <c r="E8" s="12"/>
-    </row>
-    <row r="9" spans="2:5">
-      <c r="B9" s="12"/>
+    <row r="8" spans="1:5">
+      <c r="A8" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="11">
+        <v>43163</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="16"/>
+      <c r="B9" s="14"/>
       <c r="C9" s="11"/>
       <c r="E9" s="12"/>
     </row>
@@ -7990,11 +8015,13 @@
       <c r="E11" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="203" verticalDpi="203"/>

--- a/周数据/《个人上线率统计表》-高阳.xlsx
+++ b/周数据/《个人上线率统计表》-高阳.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="9390" firstSheet="1" activeTab="1"/>
+    <workbookView windowWidth="20385" windowHeight="9390"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="2" r:id="rId1"/>
@@ -376,11 +376,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -452,9 +452,48 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -474,7 +513,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -482,74 +521,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -564,24 +536,52 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -658,7 +658,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -670,37 +736,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -718,19 +778,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -742,31 +790,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -778,37 +802,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -998,6 +998,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1015,20 +1054,20 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1051,47 +1090,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1103,10 +1103,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1115,137 +1115,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1357,27 +1357,12 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1407,6 +1392,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1756,8 +1747,8 @@
   <sheetPr/>
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
@@ -1770,465 +1761,477 @@
     <col min="7" max="7" width="15.5083333333333" style="15" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="17.875" style="15" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="17.875" style="15" customWidth="1"/>
-    <col min="10" max="10" width="17.875" style="46" customWidth="1"/>
+    <col min="10" max="10" width="17.875" style="41" customWidth="1"/>
     <col min="11" max="11" width="16" style="15" customWidth="1"/>
     <col min="12" max="12" width="17.875" style="15" customWidth="1"/>
     <col min="13" max="13" width="18.625" style="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" spans="1:13">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="57"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="54"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="51" t="s">
+      <c r="D2" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="51" t="s">
+      <c r="E2" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="52" t="s">
+      <c r="F2" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="52" t="s">
+      <c r="G2" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="52" t="s">
+      <c r="H2" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="58" t="s">
+      <c r="I2" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="59" t="s">
+      <c r="J2" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="60" t="s">
+      <c r="K2" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="60" t="s">
+      <c r="L2" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="61" t="s">
+      <c r="M2" s="58" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="49">
+      <c r="A3" s="44">
         <v>12</v>
       </c>
-      <c r="B3" s="53">
+      <c r="B3" s="48">
         <v>52</v>
       </c>
-      <c r="C3" s="51">
+      <c r="C3" s="46">
         <v>1</v>
       </c>
-      <c r="D3" s="51">
+      <c r="D3" s="46">
         <v>0</v>
       </c>
-      <c r="E3" s="51">
+      <c r="E3" s="46">
         <f t="shared" ref="E3:E8" si="0">C3-D3</f>
         <v>1</v>
       </c>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52">
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47">
         <f t="shared" ref="H3:H11" si="1">F3-G3</f>
         <v>0</v>
       </c>
-      <c r="I3" s="58">
+      <c r="I3" s="55">
         <v>0</v>
       </c>
-      <c r="J3" s="59" t="e">
+      <c r="J3" s="56" t="e">
         <f t="shared" ref="J3:J15" si="2">I3/L3*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K3" s="60">
+      <c r="K3" s="57">
         <f t="shared" ref="K3:K8" si="3">C3+G3</f>
         <v>1</v>
       </c>
-      <c r="L3" s="60">
+      <c r="L3" s="57">
         <f t="shared" ref="L3:L11" si="4">D3+G3</f>
         <v>0</v>
       </c>
-      <c r="M3" s="61">
+      <c r="M3" s="58">
         <f>L3/K3*100%</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="54">
+      <c r="A4" s="49">
         <v>1</v>
       </c>
-      <c r="B4" s="53">
+      <c r="B4" s="48">
         <v>1</v>
       </c>
-      <c r="C4" s="51">
+      <c r="C4" s="46">
         <v>5</v>
       </c>
-      <c r="D4" s="51">
+      <c r="D4" s="46">
         <v>2</v>
       </c>
-      <c r="E4" s="51">
+      <c r="E4" s="46">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52">
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I4" s="58">
+      <c r="I4" s="55">
         <v>0</v>
       </c>
-      <c r="J4" s="59">
+      <c r="J4" s="56">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K4" s="60">
+      <c r="K4" s="57">
         <v>5</v>
       </c>
-      <c r="L4" s="60">
+      <c r="L4" s="57">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="M4" s="61">
+      <c r="M4" s="58">
         <f>L4/K4*100%</f>
         <v>0.4</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="55"/>
-      <c r="B5" s="53">
+      <c r="A5" s="50"/>
+      <c r="B5" s="48">
         <v>2</v>
       </c>
-      <c r="C5" s="51">
+      <c r="C5" s="46">
         <v>3</v>
       </c>
-      <c r="D5" s="51">
+      <c r="D5" s="46">
         <v>2</v>
       </c>
-      <c r="E5" s="51">
+      <c r="E5" s="46">
         <v>1</v>
       </c>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="52">
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I5" s="58">
+      <c r="I5" s="55">
         <v>0</v>
       </c>
-      <c r="J5" s="59">
+      <c r="J5" s="56">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K5" s="60">
+      <c r="K5" s="57">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="L5" s="60">
+      <c r="L5" s="57">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="M5" s="61">
+      <c r="M5" s="58">
         <f>L5/K5*100%</f>
         <v>0.666666666666667</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="55"/>
-      <c r="B6" s="53">
+      <c r="A6" s="50"/>
+      <c r="B6" s="48">
         <v>3</v>
       </c>
-      <c r="C6" s="51">
+      <c r="C6" s="46">
         <v>1</v>
       </c>
-      <c r="D6" s="51">
+      <c r="D6" s="46">
         <v>1</v>
       </c>
-      <c r="E6" s="51">
+      <c r="E6" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52">
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I6" s="58">
+      <c r="I6" s="55">
         <v>0</v>
       </c>
-      <c r="J6" s="59">
+      <c r="J6" s="56">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K6" s="60">
+      <c r="K6" s="57">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="L6" s="60">
+      <c r="L6" s="57">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M6" s="61">
+      <c r="M6" s="58">
         <f>L6/K6*100%</f>
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="55"/>
-      <c r="B7" s="53">
+      <c r="A7" s="50"/>
+      <c r="B7" s="48">
         <v>4</v>
       </c>
-      <c r="C7" s="51">
+      <c r="C7" s="46">
         <v>3</v>
       </c>
-      <c r="D7" s="51">
+      <c r="D7" s="46">
         <v>1</v>
       </c>
-      <c r="E7" s="51">
+      <c r="E7" s="46">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52">
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I7" s="58">
+      <c r="I7" s="55">
         <v>0</v>
       </c>
-      <c r="J7" s="59">
+      <c r="J7" s="56">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K7" s="60">
+      <c r="K7" s="57">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="L7" s="60">
+      <c r="L7" s="57">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M7" s="61">
+      <c r="M7" s="58">
         <f>L7/K7*100%</f>
         <v>0.333333333333333</v>
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="55"/>
-      <c r="B8" s="53">
+      <c r="A8" s="50"/>
+      <c r="B8" s="48">
         <v>5</v>
       </c>
-      <c r="C8" s="51">
+      <c r="C8" s="46">
         <v>3</v>
       </c>
-      <c r="D8" s="51">
+      <c r="D8" s="46">
         <v>1</v>
       </c>
-      <c r="E8" s="51">
+      <c r="E8" s="46">
         <v>2</v>
       </c>
-      <c r="F8" s="52"/>
-      <c r="G8" s="52"/>
-      <c r="H8" s="52">
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I8" s="58">
+      <c r="I8" s="55">
         <v>0</v>
       </c>
-      <c r="J8" s="59">
+      <c r="J8" s="56">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K8" s="60">
+      <c r="K8" s="57">
         <v>3</v>
       </c>
-      <c r="L8" s="60">
+      <c r="L8" s="57">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M8" s="61">
+      <c r="M8" s="58">
         <v>0.33</v>
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="55"/>
-      <c r="B9" s="53">
+      <c r="A9" s="50"/>
+      <c r="B9" s="48">
         <v>6</v>
       </c>
-      <c r="C9" s="51">
+      <c r="C9" s="46">
         <v>3</v>
       </c>
-      <c r="D9" s="51">
+      <c r="D9" s="46">
         <v>2</v>
       </c>
-      <c r="E9" s="51">
+      <c r="E9" s="46">
         <v>1</v>
       </c>
-      <c r="F9" s="52"/>
-      <c r="G9" s="52"/>
-      <c r="H9" s="52"/>
-      <c r="I9" s="58">
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="55">
         <v>0</v>
       </c>
-      <c r="J9" s="59">
+      <c r="J9" s="56">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K9" s="60">
+      <c r="K9" s="57">
         <v>3</v>
       </c>
-      <c r="L9" s="60">
+      <c r="L9" s="57">
         <v>2</v>
       </c>
-      <c r="M9" s="62">
+      <c r="M9" s="59">
         <v>0.67</v>
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="54">
+      <c r="A10" s="51">
         <v>3</v>
       </c>
-      <c r="B10" s="53">
+      <c r="B10" s="48">
         <v>10</v>
       </c>
-      <c r="C10" s="51">
+      <c r="C10" s="46">
         <v>1</v>
       </c>
-      <c r="D10" s="51">
+      <c r="D10" s="46">
         <v>1</v>
       </c>
-      <c r="E10" s="51">
+      <c r="E10" s="46">
         <f>C10-D10</f>
         <v>0</v>
       </c>
-      <c r="F10" s="52"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="52">
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47">
         <f>F10-G10</f>
         <v>0</v>
       </c>
-      <c r="I10" s="58">
+      <c r="I10" s="55">
         <v>0</v>
       </c>
-      <c r="J10" s="59">
+      <c r="J10" s="56">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K10" s="60">
+      <c r="K10" s="57">
         <v>1</v>
       </c>
-      <c r="L10" s="60">
+      <c r="L10" s="57">
         <f>D10+G10</f>
         <v>1</v>
       </c>
-      <c r="M10" s="61">
+      <c r="M10" s="58">
         <f>L10/K10*100%</f>
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="55"/>
-      <c r="B11" s="53"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51">
-        <f>C11-D11</f>
+      <c r="A11" s="52"/>
+      <c r="B11" s="48">
+        <v>12</v>
+      </c>
+      <c r="C11" s="46">
+        <v>1</v>
+      </c>
+      <c r="D11" s="46">
+        <v>1</v>
+      </c>
+      <c r="E11" s="46">
         <v>0</v>
       </c>
-      <c r="F11" s="52"/>
-      <c r="G11" s="52"/>
-      <c r="H11" s="52">
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="47">
         <f>F11-G11</f>
         <v>0</v>
       </c>
-      <c r="I11" s="58">
+      <c r="I11" s="55">
         <v>0</v>
       </c>
-      <c r="J11" s="59" t="e">
+      <c r="J11" s="56">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K11" s="60">
+        <v>0</v>
+      </c>
+      <c r="K11" s="57">
         <f>C11+G11</f>
-        <v>0</v>
-      </c>
-      <c r="L11" s="60">
+        <v>1</v>
+      </c>
+      <c r="L11" s="57">
         <f>D11+G11</f>
-        <v>0</v>
-      </c>
-      <c r="M11" s="61" t="e">
+        <v>1</v>
+      </c>
+      <c r="M11" s="58">
         <f>L11/K11*100%</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="55"/>
-      <c r="B12" s="53"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51">
+      <c r="A12" s="52"/>
+      <c r="B12" s="48">
+        <v>13</v>
+      </c>
+      <c r="C12" s="46">
+        <v>5</v>
+      </c>
+      <c r="D12" s="46">
+        <v>5</v>
+      </c>
+      <c r="E12" s="46">
         <f>C12-D12</f>
         <v>0</v>
       </c>
-      <c r="F12" s="52"/>
-      <c r="G12" s="52"/>
-      <c r="H12" s="52">
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="47">
         <f>F12-G12</f>
         <v>0</v>
       </c>
-      <c r="I12" s="58">
+      <c r="I12" s="55">
         <v>0</v>
       </c>
-      <c r="J12" s="59" t="e">
+      <c r="J12" s="56">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K12" s="60">
+        <v>0</v>
+      </c>
+      <c r="K12" s="57">
         <f>C12+G12</f>
-        <v>0</v>
-      </c>
-      <c r="L12" s="60">
+        <v>5</v>
+      </c>
+      <c r="L12" s="57">
         <f>D12+G12</f>
-        <v>0</v>
-      </c>
-      <c r="M12" s="61" t="e">
+        <v>5</v>
+      </c>
+      <c r="M12" s="58">
         <f>L12/K12*100%</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A10:A12"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2241,8 +2244,8 @@
   <sheetPr/>
   <dimension ref="A1:O293"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
@@ -2287,7 +2290,7 @@
       <c r="H1" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="45" t="s">
+      <c r="I1" s="40" t="s">
         <v>22</v>
       </c>
       <c r="J1" s="35" t="s">
@@ -2774,7 +2777,7 @@
       </c>
     </row>
     <row r="12" ht="19" customHeight="1" spans="1:15">
-      <c r="A12" s="37">
+      <c r="A12" s="12">
         <v>12</v>
       </c>
       <c r="B12" s="2">
@@ -2783,7 +2786,7 @@
       <c r="C12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="38" t="s">
+      <c r="D12" s="23" t="s">
         <v>63</v>
       </c>
       <c r="E12" s="1" t="s">
@@ -2821,16 +2824,16 @@
       </c>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="39">
+      <c r="A13" s="10">
         <v>13</v>
       </c>
-      <c r="B13" s="40">
+      <c r="B13" s="37">
         <v>43185</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="39" t="s">
+      <c r="D13" s="10" t="s">
         <v>66</v>
       </c>
       <c r="E13" s="1" t="s">
@@ -2868,12 +2871,12 @@
       </c>
     </row>
     <row r="14" spans="1:15">
-      <c r="A14" s="41"/>
-      <c r="B14" s="42"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="38"/>
       <c r="C14" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="41"/>
+      <c r="D14" s="9"/>
       <c r="E14" s="1" t="s">
         <v>69</v>
       </c>
@@ -2909,12 +2912,12 @@
       </c>
     </row>
     <row r="15" spans="1:15">
-      <c r="A15" s="41"/>
-      <c r="B15" s="42"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="38"/>
       <c r="C15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="41"/>
+      <c r="D15" s="9"/>
       <c r="E15" s="1" t="s">
         <v>71</v>
       </c>
@@ -2950,12 +2953,12 @@
       </c>
     </row>
     <row r="16" spans="1:15">
-      <c r="A16" s="41"/>
-      <c r="B16" s="42"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="38"/>
       <c r="C16" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="41"/>
+      <c r="D16" s="9"/>
       <c r="E16" s="1" t="s">
         <v>74</v>
       </c>
@@ -2991,12 +2994,12 @@
       </c>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="43"/>
-      <c r="B17" s="44"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="39"/>
       <c r="C17" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="43"/>
+      <c r="D17" s="14"/>
       <c r="E17" s="1" t="s">
         <v>76</v>
       </c>

--- a/周数据/《个人上线率统计表》-高阳.xlsx
+++ b/周数据/《个人上线率统计表》-高阳.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="9390"/>
+    <workbookView windowWidth="20385" windowHeight="9390" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121">
   <si>
     <t>个人上线率分析表</t>
   </si>
@@ -257,6 +257,12 @@
     <t>黄总</t>
   </si>
   <si>
+    <t>馨之源龙虾城</t>
+  </si>
+  <si>
+    <t>凡总</t>
+  </si>
+  <si>
     <t>立项日期</t>
   </si>
   <si>
@@ -317,6 +323,9 @@
     <t>沈芳芳</t>
   </si>
   <si>
+    <t>外星儿童乐园</t>
+  </si>
+  <si>
     <t>姓名</t>
   </si>
   <si>
@@ -369,6 +378,9 @@
   </si>
   <si>
     <t>上线实施</t>
+  </si>
+  <si>
+    <t>4月</t>
   </si>
 </sst>
 </file>
@@ -376,11 +388,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -1245,7 +1257,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1291,6 +1303,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1300,8 +1318,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1312,33 +1330,45 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1358,13 +1388,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1392,12 +1422,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1745,493 +1769,558 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="5.125" style="15" customWidth="1"/>
-    <col min="2" max="2" width="8.125" style="15" customWidth="1"/>
-    <col min="3" max="4" width="16.25" style="15" customWidth="1"/>
-    <col min="5" max="5" width="17.75" style="15" customWidth="1"/>
-    <col min="6" max="6" width="15.875" style="15" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5083333333333" style="15" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="17.875" style="15" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="17.875" style="15" customWidth="1"/>
-    <col min="10" max="10" width="17.875" style="41" customWidth="1"/>
-    <col min="11" max="11" width="16" style="15" customWidth="1"/>
-    <col min="12" max="12" width="17.875" style="15" customWidth="1"/>
-    <col min="13" max="13" width="18.625" style="15" customWidth="1"/>
+    <col min="1" max="1" width="5.125" style="17" customWidth="1"/>
+    <col min="2" max="2" width="8.125" style="17" customWidth="1"/>
+    <col min="3" max="4" width="16.25" style="17" customWidth="1"/>
+    <col min="5" max="5" width="17.75" style="17" customWidth="1"/>
+    <col min="6" max="6" width="15.875" style="17" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5083333333333" style="17" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="17.875" style="17" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="17.875" style="17" customWidth="1"/>
+    <col min="10" max="10" width="17.875" style="47" customWidth="1"/>
+    <col min="11" max="11" width="16" style="17" customWidth="1"/>
+    <col min="12" max="12" width="17.875" style="17" customWidth="1"/>
+    <col min="13" max="13" width="18.625" style="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" spans="1:13">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="54"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="58"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="46" t="s">
+      <c r="E2" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="47" t="s">
+      <c r="F2" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="47" t="s">
+      <c r="G2" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="47" t="s">
+      <c r="H2" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="55" t="s">
+      <c r="I2" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="56" t="s">
+      <c r="J2" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="57" t="s">
+      <c r="K2" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="57" t="s">
+      <c r="L2" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="58" t="s">
+      <c r="M2" s="62" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="44">
+      <c r="A3" s="50">
         <v>12</v>
       </c>
-      <c r="B3" s="48">
+      <c r="B3" s="54">
         <v>52</v>
       </c>
-      <c r="C3" s="46">
+      <c r="C3" s="52">
         <v>1</v>
       </c>
-      <c r="D3" s="46">
+      <c r="D3" s="52">
         <v>0</v>
       </c>
-      <c r="E3" s="46">
+      <c r="E3" s="52">
         <f t="shared" ref="E3:E8" si="0">C3-D3</f>
         <v>1</v>
       </c>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47">
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53">
         <f t="shared" ref="H3:H11" si="1">F3-G3</f>
         <v>0</v>
       </c>
-      <c r="I3" s="55">
+      <c r="I3" s="59">
         <v>0</v>
       </c>
-      <c r="J3" s="56" t="e">
+      <c r="J3" s="60" t="e">
         <f t="shared" ref="J3:J15" si="2">I3/L3*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K3" s="57">
+      <c r="K3" s="61">
         <f t="shared" ref="K3:K8" si="3">C3+G3</f>
         <v>1</v>
       </c>
-      <c r="L3" s="57">
+      <c r="L3" s="61">
         <f t="shared" ref="L3:L11" si="4">D3+G3</f>
         <v>0</v>
       </c>
-      <c r="M3" s="58">
+      <c r="M3" s="62">
         <f>L3/K3*100%</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="49">
+      <c r="A4" s="55">
         <v>1</v>
       </c>
-      <c r="B4" s="48">
+      <c r="B4" s="54">
         <v>1</v>
       </c>
-      <c r="C4" s="46">
+      <c r="C4" s="52">
         <v>5</v>
       </c>
-      <c r="D4" s="46">
+      <c r="D4" s="52">
         <v>2</v>
       </c>
-      <c r="E4" s="46">
+      <c r="E4" s="52">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47">
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I4" s="55">
+      <c r="I4" s="59">
         <v>0</v>
       </c>
-      <c r="J4" s="56">
+      <c r="J4" s="60">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K4" s="57">
+      <c r="K4" s="61">
         <v>5</v>
       </c>
-      <c r="L4" s="57">
+      <c r="L4" s="61">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="M4" s="58">
+      <c r="M4" s="62">
         <f>L4/K4*100%</f>
         <v>0.4</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="50"/>
-      <c r="B5" s="48">
+      <c r="A5" s="56"/>
+      <c r="B5" s="54">
         <v>2</v>
       </c>
-      <c r="C5" s="46">
+      <c r="C5" s="52">
         <v>3</v>
       </c>
-      <c r="D5" s="46">
+      <c r="D5" s="52">
         <v>2</v>
       </c>
-      <c r="E5" s="46">
+      <c r="E5" s="52">
         <v>1</v>
       </c>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47">
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I5" s="55">
+      <c r="I5" s="59">
         <v>0</v>
       </c>
-      <c r="J5" s="56">
+      <c r="J5" s="60">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K5" s="57">
+      <c r="K5" s="61">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="L5" s="57">
+      <c r="L5" s="61">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="M5" s="58">
+      <c r="M5" s="62">
         <f>L5/K5*100%</f>
         <v>0.666666666666667</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="50"/>
-      <c r="B6" s="48">
+      <c r="A6" s="56"/>
+      <c r="B6" s="54">
         <v>3</v>
       </c>
-      <c r="C6" s="46">
+      <c r="C6" s="52">
         <v>1</v>
       </c>
-      <c r="D6" s="46">
+      <c r="D6" s="52">
         <v>1</v>
       </c>
-      <c r="E6" s="46">
+      <c r="E6" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47">
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I6" s="55">
+      <c r="I6" s="59">
         <v>0</v>
       </c>
-      <c r="J6" s="56">
+      <c r="J6" s="60">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K6" s="57">
+      <c r="K6" s="61">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="L6" s="57">
+      <c r="L6" s="61">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M6" s="58">
+      <c r="M6" s="62">
         <f>L6/K6*100%</f>
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="50"/>
-      <c r="B7" s="48">
+      <c r="A7" s="56"/>
+      <c r="B7" s="54">
         <v>4</v>
       </c>
-      <c r="C7" s="46">
+      <c r="C7" s="52">
         <v>3</v>
       </c>
-      <c r="D7" s="46">
+      <c r="D7" s="52">
         <v>1</v>
       </c>
-      <c r="E7" s="46">
+      <c r="E7" s="52">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47">
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I7" s="55">
+      <c r="I7" s="59">
         <v>0</v>
       </c>
-      <c r="J7" s="56">
+      <c r="J7" s="60">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K7" s="57">
+      <c r="K7" s="61">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="L7" s="57">
+      <c r="L7" s="61">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M7" s="58">
+      <c r="M7" s="62">
         <f>L7/K7*100%</f>
         <v>0.333333333333333</v>
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="50"/>
-      <c r="B8" s="48">
+      <c r="A8" s="56"/>
+      <c r="B8" s="54">
         <v>5</v>
       </c>
-      <c r="C8" s="46">
+      <c r="C8" s="52">
         <v>3</v>
       </c>
-      <c r="D8" s="46">
+      <c r="D8" s="52">
         <v>1</v>
       </c>
-      <c r="E8" s="46">
+      <c r="E8" s="52">
         <v>2</v>
       </c>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47">
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I8" s="55">
+      <c r="I8" s="59">
         <v>0</v>
       </c>
-      <c r="J8" s="56">
+      <c r="J8" s="60">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K8" s="57">
+      <c r="K8" s="61">
         <v>3</v>
       </c>
-      <c r="L8" s="57">
+      <c r="L8" s="61">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M8" s="58">
+      <c r="M8" s="62">
         <v>0.33</v>
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="50"/>
-      <c r="B9" s="48">
+      <c r="A9" s="56"/>
+      <c r="B9" s="54">
         <v>6</v>
       </c>
-      <c r="C9" s="46">
+      <c r="C9" s="52">
         <v>3</v>
       </c>
-      <c r="D9" s="46">
+      <c r="D9" s="52">
         <v>2</v>
       </c>
-      <c r="E9" s="46">
+      <c r="E9" s="52">
         <v>1</v>
       </c>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="55">
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="59">
         <v>0</v>
       </c>
-      <c r="J9" s="56">
+      <c r="J9" s="60">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K9" s="57">
+      <c r="K9" s="61">
         <v>3</v>
       </c>
-      <c r="L9" s="57">
+      <c r="L9" s="61">
         <v>2</v>
       </c>
-      <c r="M9" s="59">
+      <c r="M9" s="63">
         <v>0.67</v>
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="51">
+      <c r="A10" s="55">
         <v>3</v>
       </c>
-      <c r="B10" s="48">
+      <c r="B10" s="54">
         <v>10</v>
       </c>
-      <c r="C10" s="46">
+      <c r="C10" s="52">
         <v>1</v>
       </c>
-      <c r="D10" s="46">
+      <c r="D10" s="52">
         <v>1</v>
       </c>
-      <c r="E10" s="46">
-        <f>C10-D10</f>
+      <c r="E10" s="52">
+        <f t="shared" ref="E10:E13" si="5">C10-D10</f>
         <v>0</v>
       </c>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47">
-        <f>F10-G10</f>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53">
+        <f t="shared" ref="H10:H15" si="6">F10-G10</f>
         <v>0</v>
       </c>
-      <c r="I10" s="55">
+      <c r="I10" s="59">
         <v>0</v>
       </c>
-      <c r="J10" s="56">
+      <c r="J10" s="60">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K10" s="57">
+      <c r="K10" s="61">
         <v>1</v>
       </c>
-      <c r="L10" s="57">
-        <f>D10+G10</f>
+      <c r="L10" s="61">
+        <f t="shared" ref="L10:L15" si="7">D10+G10</f>
         <v>1</v>
       </c>
-      <c r="M10" s="58">
+      <c r="M10" s="62">
         <f>L10/K10*100%</f>
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="52"/>
-      <c r="B11" s="48">
+      <c r="A11" s="56"/>
+      <c r="B11" s="54">
         <v>12</v>
       </c>
-      <c r="C11" s="46">
+      <c r="C11" s="52">
         <v>1</v>
       </c>
-      <c r="D11" s="46">
+      <c r="D11" s="52">
         <v>1</v>
       </c>
-      <c r="E11" s="46">
+      <c r="E11" s="52">
         <v>0</v>
       </c>
-      <c r="F11" s="47"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="47">
-        <f>F11-G11</f>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I11" s="55">
+      <c r="I11" s="59">
         <v>0</v>
       </c>
-      <c r="J11" s="56">
+      <c r="J11" s="60">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K11" s="57">
-        <f>C11+G11</f>
+      <c r="K11" s="61">
+        <f t="shared" ref="K11:K15" si="8">C11+G11</f>
         <v>1</v>
       </c>
-      <c r="L11" s="57">
-        <f>D11+G11</f>
+      <c r="L11" s="61">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="M11" s="58">
+      <c r="M11" s="62">
         <f>L11/K11*100%</f>
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="52"/>
-      <c r="B12" s="48">
+      <c r="A12" s="56"/>
+      <c r="B12" s="54">
         <v>13</v>
       </c>
-      <c r="C12" s="46">
+      <c r="C12" s="52">
         <v>5</v>
       </c>
-      <c r="D12" s="46">
+      <c r="D12" s="52">
         <v>5</v>
       </c>
-      <c r="E12" s="46">
-        <f>C12-D12</f>
+      <c r="E12" s="52">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="47">
-        <f>F12-G12</f>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I12" s="55">
+      <c r="I12" s="59">
         <v>0</v>
       </c>
-      <c r="J12" s="56">
+      <c r="J12" s="60">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K12" s="57">
-        <f>C12+G12</f>
+      <c r="K12" s="61">
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="L12" s="57">
-        <f>D12+G12</f>
+      <c r="L12" s="61">
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="M12" s="58">
+      <c r="M12" s="62">
         <f>L12/K12*100%</f>
         <v>1</v>
       </c>
     </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="55">
+        <v>4</v>
+      </c>
+      <c r="B13" s="54">
+        <v>14</v>
+      </c>
+      <c r="C13" s="52">
+        <v>2</v>
+      </c>
+      <c r="D13" s="52">
+        <v>0</v>
+      </c>
+      <c r="E13" s="52">
+        <v>0</v>
+      </c>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="59">
+        <v>0</v>
+      </c>
+      <c r="J13" s="60" t="e">
+        <f>I13/L13*100%</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K13" s="61">
+        <v>0</v>
+      </c>
+      <c r="L13" s="61"/>
+      <c r="M13" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="56"/>
+      <c r="B14" s="54"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="61"/>
+      <c r="L14" s="61"/>
+      <c r="M14" s="62"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="56"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="60"/>
+      <c r="K15" s="61"/>
+      <c r="L15" s="61"/>
+      <c r="M15" s="62"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A4:A9"/>
     <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2244,14 +2333,14 @@
   <sheetPr/>
   <dimension ref="A1:O293"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12.8416666666667" customWidth="1"/>
-    <col min="2" max="2" width="15.625" style="32" customWidth="1"/>
+    <col min="2" max="2" width="15.625" style="38" customWidth="1"/>
     <col min="3" max="3" width="11.4833333333333" customWidth="1"/>
     <col min="4" max="4" width="27.5" customWidth="1"/>
     <col min="5" max="5" width="20.875" customWidth="1"/>
@@ -2265,50 +2354,50 @@
     <col min="15" max="16384" width="9.73333333333333"/>
   </cols>
   <sheetData>
-    <row r="1" s="31" customFormat="1" ht="27" spans="1:15">
-      <c r="A1" s="33" t="s">
+    <row r="1" s="37" customFormat="1" ht="27" spans="1:15">
+      <c r="A1" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="F1" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="35" t="s">
+      <c r="G1" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="36" t="s">
+      <c r="H1" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="40" t="s">
+      <c r="I1" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="35" t="s">
+      <c r="J1" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="35" t="s">
+      <c r="K1" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="33" t="s">
+      <c r="L1" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="33" t="s">
+      <c r="M1" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="33" t="s">
+      <c r="N1" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="33" t="s">
+      <c r="O1" s="39" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2786,7 +2875,7 @@
       <c r="C12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="26" t="s">
         <v>63</v>
       </c>
       <c r="E12" s="1" t="s">
@@ -2827,7 +2916,7 @@
       <c r="A13" s="10">
         <v>13</v>
       </c>
-      <c r="B13" s="37">
+      <c r="B13" s="43">
         <v>43185</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -2872,7 +2961,7 @@
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="9"/>
-      <c r="B14" s="38"/>
+      <c r="B14" s="44"/>
       <c r="C14" s="1" t="s">
         <v>29</v>
       </c>
@@ -2913,7 +3002,7 @@
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="9"/>
-      <c r="B15" s="38"/>
+      <c r="B15" s="44"/>
       <c r="C15" s="1" t="s">
         <v>29</v>
       </c>
@@ -2954,7 +3043,7 @@
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="9"/>
-      <c r="B16" s="38"/>
+      <c r="B16" s="44"/>
       <c r="C16" s="1" t="s">
         <v>29</v>
       </c>
@@ -2995,7 +3084,7 @@
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="14"/>
-      <c r="B17" s="39"/>
+      <c r="B17" s="45"/>
       <c r="C17" s="1" t="s">
         <v>29</v>
       </c>
@@ -3035,21 +3124,51 @@
       </c>
     </row>
     <row r="18" spans="1:15">
-      <c r="A18" s="1"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
+      <c r="A18" s="15">
+        <v>14</v>
+      </c>
+      <c r="B18" s="2">
+        <v>43198</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" s="1">
+        <v>76155860</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K18" s="1">
+        <v>15189553449</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N18" s="1">
+        <v>15005160358</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="1"/>
@@ -7755,315 +7874,296 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="8.625" style="15"/>
+    <col min="1" max="1" width="8.625" style="17"/>
     <col min="2" max="2" width="27.625" customWidth="1"/>
-    <col min="3" max="3" width="19.125" style="16" customWidth="1"/>
-    <col min="4" max="4" width="35.25" style="17" customWidth="1"/>
+    <col min="3" max="3" width="19.125" style="18" customWidth="1"/>
+    <col min="4" max="4" width="35.25" style="19" customWidth="1"/>
     <col min="5" max="5" width="13.5083333333333" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="11.375" style="18" customWidth="1"/>
+    <col min="7" max="7" width="11.375" style="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="E1" s="19" t="s">
+      <c r="C1" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="D1" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="E1" s="21" t="s">
         <v>83</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="10">
         <v>51</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2" s="18">
         <v>43087</v>
       </c>
-      <c r="D2" s="23" t="s">
-        <v>84</v>
+      <c r="D2" s="26" t="s">
+        <v>86</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="9">
         <v>52</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="18">
         <v>43092</v>
       </c>
-      <c r="D3" s="23" t="s">
-        <v>84</v>
+      <c r="D3" s="26" t="s">
+        <v>86</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="9"/>
-      <c r="B4" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="C4" s="16">
+      <c r="B4" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="18">
         <v>43098</v>
       </c>
-      <c r="D4" s="23" t="s">
-        <v>91</v>
+      <c r="D4" s="26" t="s">
+        <v>93</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="G4" s="25" t="s">
-        <v>92</v>
+        <v>88</v>
+      </c>
+      <c r="G4" s="29" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:7">
       <c r="A5" s="10">
         <v>1</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="18">
         <v>43102</v>
       </c>
-      <c r="D5" s="23" t="s">
-        <v>84</v>
+      <c r="D5" s="26" t="s">
+        <v>86</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="G5" s="24" t="s">
-        <v>93</v>
+        <v>88</v>
+      </c>
+      <c r="G5" s="31" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:7">
       <c r="A6" s="9"/>
-      <c r="B6" s="24"/>
-      <c r="D6" s="27"/>
+      <c r="B6" s="28"/>
+      <c r="D6" s="32"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="28"/>
+      <c r="G6" s="33"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="9"/>
-      <c r="B7" s="24"/>
-      <c r="D7" s="23"/>
+      <c r="B7" s="28"/>
+      <c r="D7" s="26"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="29"/>
+      <c r="G7" s="34"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="10">
         <v>4</v>
       </c>
-      <c r="B8" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="C8" s="16">
+      <c r="B8" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" s="18">
         <v>43123</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G8" s="34" t="s">
         <v>95</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="G8" s="29" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="9"/>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="18">
         <v>43123</v>
       </c>
-      <c r="D9" s="23" t="s">
-        <v>96</v>
+      <c r="D9" s="26" t="s">
+        <v>98</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="G9" s="29" t="s">
-        <v>93</v>
+        <v>90</v>
+      </c>
+      <c r="G9" s="34" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="9"/>
-      <c r="B10" s="24"/>
-      <c r="D10" s="23"/>
+      <c r="B10" s="28"/>
+      <c r="D10" s="26"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="29"/>
+      <c r="G10" s="34"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="10">
         <v>6</v>
       </c>
-      <c r="B11" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="C11" s="16">
+      <c r="B11" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11" s="18">
         <v>43137</v>
       </c>
-      <c r="D11" s="30" t="s">
-        <v>84</v>
+      <c r="D11" s="35" t="s">
+        <v>86</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="G11" s="28" t="s">
-        <v>98</v>
+        <v>88</v>
+      </c>
+      <c r="G11" s="33" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="9"/>
-      <c r="B12" s="24"/>
-      <c r="D12" s="23"/>
+      <c r="B12" s="28"/>
+      <c r="D12" s="26"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="29"/>
+      <c r="G12" s="34"/>
     </row>
     <row r="13" ht="14.25" spans="1:7">
-      <c r="A13" s="10"/>
-      <c r="B13" s="24"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="28"/>
+      <c r="A13" s="12">
+        <v>13</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13" s="18">
+        <v>43189</v>
+      </c>
+      <c r="D13" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G13" s="33" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="9"/>
-      <c r="B14" s="24"/>
-      <c r="D14" s="23"/>
+      <c r="A14" s="12"/>
+      <c r="B14" s="28"/>
+      <c r="D14" s="26"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="29"/>
+      <c r="G14" s="34"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="9"/>
-      <c r="B15" s="24"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="29"/>
+      <c r="A15" s="12">
+        <v>14</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="18">
+        <v>43194</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G15" s="34" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="9"/>
-      <c r="B16" s="24"/>
-      <c r="D16" s="23"/>
+      <c r="A16" s="12"/>
+      <c r="B16" s="28"/>
+      <c r="D16" s="26"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="29"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="9"/>
-      <c r="B17" s="24"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="29"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="9"/>
-      <c r="B18" s="24"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="29"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="9"/>
-      <c r="B19" s="24"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="29"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="9"/>
-      <c r="B20" s="24"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="29"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="9"/>
-      <c r="B21" s="24"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="29"/>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="9"/>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="9"/>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="14"/>
+      <c r="G16" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -8072,14 +8172,14 @@
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A24"/>
+    <mergeCell ref="A15:A16"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E10 E2:E5 E6:E7 E8:E9 E11:E12 E13:E14 E15:E1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E10 E2:E5 E6:E7 E8:E9 E11:E12 E13:E14 E15:E16 E17:E1048576">
       <formula1>"单店,连锁,KA,供应链"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="saas" sqref="F2:F5 F6:F10 F11:F12 F13:F14 F15:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="saas" sqref="F2:F5 F6:F10 F11:F12 F13:F14 F15:F16 F17:F1048576">
       <formula1>"SAAS,供应链,SAAS+微信,SAAS+供应链,SAAS+微信+供应链"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8094,8 +8194,8 @@
   <sheetPr/>
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -8112,21 +8212,21 @@
         <v>1</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="9" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>32</v>
@@ -8135,10 +8235,10 @@
         <v>43084</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -8148,10 +8248,10 @@
         <v>43091</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -8161,10 +8261,10 @@
         <v>43099</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -8174,15 +8274,15 @@
         <v>43100</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="10" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>32</v>
@@ -8191,10 +8291,10 @@
         <v>43101</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -8204,15 +8304,15 @@
         <v>43120</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="10" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>32</v>
@@ -8221,10 +8321,10 @@
         <v>43163</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -8233,10 +8333,22 @@
       <c r="C9" s="11"/>
       <c r="E9" s="12"/>
     </row>
-    <row r="10" spans="2:5">
-      <c r="B10" s="12"/>
-      <c r="C10" s="11"/>
-      <c r="E10" s="12"/>
+    <row r="10" spans="1:5">
+      <c r="A10" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="11">
+        <v>43197</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="11" spans="2:5">
       <c r="B11" s="12"/>

--- a/周数据/《个人上线率统计表》-高阳.xlsx
+++ b/周数据/《个人上线率统计表》-高阳.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122">
   <si>
     <t>个人上线率分析表</t>
   </si>
@@ -263,6 +263,12 @@
     <t>凡总</t>
   </si>
   <si>
+    <t>外星儿童乐园</t>
+  </si>
+  <si>
+    <t>负责人</t>
+  </si>
+  <si>
     <t>立项日期</t>
   </si>
   <si>
@@ -321,9 +327,6 @@
   </si>
   <si>
     <t>沈芳芳</t>
-  </si>
-  <si>
-    <t>外星儿童乐园</t>
   </si>
   <si>
     <t>姓名</t>
@@ -388,11 +391,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -470,29 +473,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -547,6 +527,50 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -566,27 +590,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -670,30 +673,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -748,12 +727,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -785,6 +758,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1010,16 +1013,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1035,21 +1038,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1060,6 +1048,36 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1084,21 +1102,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1115,10 +1118,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1127,91 +1130,91 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1223,41 +1226,41 @@
     <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1303,12 +1306,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1356,9 +1353,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1777,543 +1771,543 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="5.125" style="17" customWidth="1"/>
-    <col min="2" max="2" width="8.125" style="17" customWidth="1"/>
-    <col min="3" max="4" width="16.25" style="17" customWidth="1"/>
-    <col min="5" max="5" width="17.75" style="17" customWidth="1"/>
-    <col min="6" max="6" width="15.875" style="17" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5083333333333" style="17" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="17.875" style="17" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="17.875" style="17" customWidth="1"/>
-    <col min="10" max="10" width="17.875" style="47" customWidth="1"/>
-    <col min="11" max="11" width="16" style="17" customWidth="1"/>
-    <col min="12" max="12" width="17.875" style="17" customWidth="1"/>
-    <col min="13" max="13" width="18.625" style="17" customWidth="1"/>
+    <col min="1" max="1" width="5.125" style="15" customWidth="1"/>
+    <col min="2" max="2" width="8.125" style="15" customWidth="1"/>
+    <col min="3" max="4" width="16.25" style="15" customWidth="1"/>
+    <col min="5" max="5" width="17.75" style="15" customWidth="1"/>
+    <col min="6" max="6" width="15.875" style="15" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5083333333333" style="15" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="17.875" style="15" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="17.875" style="15" customWidth="1"/>
+    <col min="10" max="10" width="17.875" style="44" customWidth="1"/>
+    <col min="11" max="11" width="16" style="15" customWidth="1"/>
+    <col min="12" max="12" width="17.875" style="15" customWidth="1"/>
+    <col min="13" max="13" width="18.625" style="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" spans="1:13">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="58"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="55"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="52" t="s">
+      <c r="D2" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="52" t="s">
+      <c r="E2" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="53" t="s">
+      <c r="F2" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="53" t="s">
+      <c r="G2" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="53" t="s">
+      <c r="H2" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="59" t="s">
+      <c r="I2" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="60" t="s">
+      <c r="J2" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="61" t="s">
+      <c r="K2" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="61" t="s">
+      <c r="L2" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="62" t="s">
+      <c r="M2" s="59" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="50">
+      <c r="A3" s="47">
         <v>12</v>
       </c>
-      <c r="B3" s="54">
+      <c r="B3" s="51">
         <v>52</v>
       </c>
-      <c r="C3" s="52">
+      <c r="C3" s="49">
         <v>1</v>
       </c>
-      <c r="D3" s="52">
+      <c r="D3" s="49">
         <v>0</v>
       </c>
-      <c r="E3" s="52">
+      <c r="E3" s="49">
         <f t="shared" ref="E3:E8" si="0">C3-D3</f>
         <v>1</v>
       </c>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53">
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50">
         <f t="shared" ref="H3:H11" si="1">F3-G3</f>
         <v>0</v>
       </c>
-      <c r="I3" s="59">
+      <c r="I3" s="56">
         <v>0</v>
       </c>
-      <c r="J3" s="60" t="e">
+      <c r="J3" s="57" t="e">
         <f t="shared" ref="J3:J15" si="2">I3/L3*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K3" s="61">
+      <c r="K3" s="58">
         <f t="shared" ref="K3:K8" si="3">C3+G3</f>
         <v>1</v>
       </c>
-      <c r="L3" s="61">
+      <c r="L3" s="58">
         <f t="shared" ref="L3:L11" si="4">D3+G3</f>
         <v>0</v>
       </c>
-      <c r="M3" s="62">
+      <c r="M3" s="59">
         <f>L3/K3*100%</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="55">
+      <c r="A4" s="52">
         <v>1</v>
       </c>
-      <c r="B4" s="54">
+      <c r="B4" s="51">
         <v>1</v>
       </c>
-      <c r="C4" s="52">
+      <c r="C4" s="49">
         <v>5</v>
       </c>
-      <c r="D4" s="52">
+      <c r="D4" s="49">
         <v>2</v>
       </c>
-      <c r="E4" s="52">
+      <c r="E4" s="49">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53">
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I4" s="59">
+      <c r="I4" s="56">
         <v>0</v>
       </c>
-      <c r="J4" s="60">
+      <c r="J4" s="57">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K4" s="61">
+      <c r="K4" s="58">
         <v>5</v>
       </c>
-      <c r="L4" s="61">
+      <c r="L4" s="58">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="M4" s="62">
+      <c r="M4" s="59">
         <f>L4/K4*100%</f>
         <v>0.4</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="56"/>
-      <c r="B5" s="54">
+      <c r="A5" s="53"/>
+      <c r="B5" s="51">
         <v>2</v>
       </c>
-      <c r="C5" s="52">
+      <c r="C5" s="49">
         <v>3</v>
       </c>
-      <c r="D5" s="52">
+      <c r="D5" s="49">
         <v>2</v>
       </c>
-      <c r="E5" s="52">
+      <c r="E5" s="49">
         <v>1</v>
       </c>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53">
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I5" s="59">
+      <c r="I5" s="56">
         <v>0</v>
       </c>
-      <c r="J5" s="60">
+      <c r="J5" s="57">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K5" s="61">
+      <c r="K5" s="58">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="L5" s="61">
+      <c r="L5" s="58">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="M5" s="62">
+      <c r="M5" s="59">
         <f>L5/K5*100%</f>
         <v>0.666666666666667</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="56"/>
-      <c r="B6" s="54">
+      <c r="A6" s="53"/>
+      <c r="B6" s="51">
         <v>3</v>
       </c>
-      <c r="C6" s="52">
+      <c r="C6" s="49">
         <v>1</v>
       </c>
-      <c r="D6" s="52">
+      <c r="D6" s="49">
         <v>1</v>
       </c>
-      <c r="E6" s="52">
+      <c r="E6" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53">
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I6" s="59">
+      <c r="I6" s="56">
         <v>0</v>
       </c>
-      <c r="J6" s="60">
+      <c r="J6" s="57">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K6" s="61">
+      <c r="K6" s="58">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="L6" s="61">
+      <c r="L6" s="58">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M6" s="62">
+      <c r="M6" s="59">
         <f>L6/K6*100%</f>
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="56"/>
-      <c r="B7" s="54">
+      <c r="A7" s="53"/>
+      <c r="B7" s="51">
         <v>4</v>
       </c>
-      <c r="C7" s="52">
+      <c r="C7" s="49">
         <v>3</v>
       </c>
-      <c r="D7" s="52">
+      <c r="D7" s="49">
         <v>1</v>
       </c>
-      <c r="E7" s="52">
+      <c r="E7" s="49">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53">
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I7" s="59">
+      <c r="I7" s="56">
         <v>0</v>
       </c>
-      <c r="J7" s="60">
+      <c r="J7" s="57">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K7" s="61">
+      <c r="K7" s="58">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="L7" s="61">
+      <c r="L7" s="58">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M7" s="62">
+      <c r="M7" s="59">
         <f>L7/K7*100%</f>
         <v>0.333333333333333</v>
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="56"/>
-      <c r="B8" s="54">
+      <c r="A8" s="53"/>
+      <c r="B8" s="51">
         <v>5</v>
       </c>
-      <c r="C8" s="52">
+      <c r="C8" s="49">
         <v>3</v>
       </c>
-      <c r="D8" s="52">
+      <c r="D8" s="49">
         <v>1</v>
       </c>
-      <c r="E8" s="52">
+      <c r="E8" s="49">
         <v>2</v>
       </c>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53">
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I8" s="59">
+      <c r="I8" s="56">
         <v>0</v>
       </c>
-      <c r="J8" s="60">
+      <c r="J8" s="57">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K8" s="61">
+      <c r="K8" s="58">
         <v>3</v>
       </c>
-      <c r="L8" s="61">
+      <c r="L8" s="58">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M8" s="62">
+      <c r="M8" s="59">
         <v>0.33</v>
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="56"/>
-      <c r="B9" s="54">
+      <c r="A9" s="53"/>
+      <c r="B9" s="51">
         <v>6</v>
       </c>
-      <c r="C9" s="52">
+      <c r="C9" s="49">
         <v>3</v>
       </c>
-      <c r="D9" s="52">
+      <c r="D9" s="49">
         <v>2</v>
       </c>
-      <c r="E9" s="52">
+      <c r="E9" s="49">
         <v>1</v>
       </c>
-      <c r="F9" s="53"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="59">
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="56">
         <v>0</v>
       </c>
-      <c r="J9" s="60">
+      <c r="J9" s="57">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K9" s="61">
+      <c r="K9" s="58">
         <v>3</v>
       </c>
-      <c r="L9" s="61">
+      <c r="L9" s="58">
         <v>2</v>
       </c>
-      <c r="M9" s="63">
+      <c r="M9" s="60">
         <v>0.67</v>
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="55">
+      <c r="A10" s="52">
         <v>3</v>
       </c>
-      <c r="B10" s="54">
+      <c r="B10" s="51">
         <v>10</v>
       </c>
-      <c r="C10" s="52">
+      <c r="C10" s="49">
         <v>1</v>
       </c>
-      <c r="D10" s="52">
+      <c r="D10" s="49">
         <v>1</v>
       </c>
-      <c r="E10" s="52">
+      <c r="E10" s="49">
         <f t="shared" ref="E10:E13" si="5">C10-D10</f>
         <v>0</v>
       </c>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53">
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50">
         <f t="shared" ref="H10:H15" si="6">F10-G10</f>
         <v>0</v>
       </c>
-      <c r="I10" s="59">
+      <c r="I10" s="56">
         <v>0</v>
       </c>
-      <c r="J10" s="60">
+      <c r="J10" s="57">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K10" s="61">
+      <c r="K10" s="58">
         <v>1</v>
       </c>
-      <c r="L10" s="61">
+      <c r="L10" s="58">
         <f t="shared" ref="L10:L15" si="7">D10+G10</f>
         <v>1</v>
       </c>
-      <c r="M10" s="62">
+      <c r="M10" s="59">
         <f>L10/K10*100%</f>
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="56"/>
-      <c r="B11" s="54">
+      <c r="A11" s="53"/>
+      <c r="B11" s="51">
         <v>12</v>
       </c>
-      <c r="C11" s="52">
+      <c r="C11" s="49">
         <v>1</v>
       </c>
-      <c r="D11" s="52">
+      <c r="D11" s="49">
         <v>1</v>
       </c>
-      <c r="E11" s="52">
+      <c r="E11" s="49">
         <v>0</v>
       </c>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53">
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I11" s="59">
+      <c r="I11" s="56">
         <v>0</v>
       </c>
-      <c r="J11" s="60">
+      <c r="J11" s="57">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K11" s="61">
+      <c r="K11" s="58">
         <f t="shared" ref="K11:K15" si="8">C11+G11</f>
         <v>1</v>
       </c>
-      <c r="L11" s="61">
+      <c r="L11" s="58">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="M11" s="62">
+      <c r="M11" s="59">
         <f>L11/K11*100%</f>
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="56"/>
-      <c r="B12" s="54">
+      <c r="A12" s="53"/>
+      <c r="B12" s="51">
         <v>13</v>
       </c>
-      <c r="C12" s="52">
+      <c r="C12" s="49">
         <v>5</v>
       </c>
-      <c r="D12" s="52">
+      <c r="D12" s="49">
         <v>5</v>
       </c>
-      <c r="E12" s="52">
+      <c r="E12" s="49">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="53">
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I12" s="59">
+      <c r="I12" s="56">
         <v>0</v>
       </c>
-      <c r="J12" s="60">
+      <c r="J12" s="57">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K12" s="61">
+      <c r="K12" s="58">
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="L12" s="61">
+      <c r="L12" s="58">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="M12" s="62">
+      <c r="M12" s="59">
         <f>L12/K12*100%</f>
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="55">
+      <c r="A13" s="52">
         <v>4</v>
       </c>
-      <c r="B13" s="54">
+      <c r="B13" s="51">
         <v>14</v>
       </c>
-      <c r="C13" s="52">
+      <c r="C13" s="49">
         <v>2</v>
       </c>
-      <c r="D13" s="52">
+      <c r="D13" s="49">
         <v>0</v>
       </c>
-      <c r="E13" s="52">
+      <c r="E13" s="49">
         <v>0</v>
       </c>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="59">
+      <c r="F13" s="50"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="56">
         <v>0</v>
       </c>
-      <c r="J13" s="60" t="e">
-        <f>I13/L13*100%</f>
+      <c r="J13" s="57" t="e">
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K13" s="61">
+      <c r="K13" s="58">
         <v>0</v>
       </c>
-      <c r="L13" s="61"/>
-      <c r="M13" s="63">
+      <c r="L13" s="58"/>
+      <c r="M13" s="60">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="56"/>
-      <c r="B14" s="54"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="59"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="61"/>
-      <c r="L14" s="61"/>
-      <c r="M14" s="62"/>
+      <c r="A14" s="53"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="58"/>
+      <c r="L14" s="58"/>
+      <c r="M14" s="59"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="56"/>
-      <c r="B15" s="54"/>
-      <c r="C15" s="52"/>
-      <c r="D15" s="52"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="53"/>
-      <c r="H15" s="53"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="60"/>
-      <c r="K15" s="61"/>
-      <c r="L15" s="61"/>
-      <c r="M15" s="62"/>
+      <c r="A15" s="53"/>
+      <c r="B15" s="51"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="58"/>
+      <c r="L15" s="58"/>
+      <c r="M15" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2333,14 +2327,14 @@
   <sheetPr/>
   <dimension ref="A1:O293"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12.8416666666667" customWidth="1"/>
-    <col min="2" max="2" width="15.625" style="38" customWidth="1"/>
+    <col min="2" max="2" width="15.625" style="35" customWidth="1"/>
     <col min="3" max="3" width="11.4833333333333" customWidth="1"/>
     <col min="4" max="4" width="27.5" customWidth="1"/>
     <col min="5" max="5" width="20.875" customWidth="1"/>
@@ -2354,50 +2348,50 @@
     <col min="15" max="16384" width="9.73333333333333"/>
   </cols>
   <sheetData>
-    <row r="1" s="37" customFormat="1" ht="27" spans="1:15">
-      <c r="A1" s="39" t="s">
+    <row r="1" s="34" customFormat="1" ht="27" spans="1:15">
+      <c r="A1" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="F1" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="41" t="s">
+      <c r="G1" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="42" t="s">
+      <c r="H1" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="46" t="s">
+      <c r="I1" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="41" t="s">
+      <c r="J1" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="41" t="s">
+      <c r="K1" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="39" t="s">
+      <c r="L1" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="39" t="s">
+      <c r="M1" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="39" t="s">
+      <c r="N1" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="39" t="s">
+      <c r="O1" s="36" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2875,7 +2869,7 @@
       <c r="C12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="26" t="s">
+      <c r="D12" s="24" t="s">
         <v>63</v>
       </c>
       <c r="E12" s="1" t="s">
@@ -2916,7 +2910,7 @@
       <c r="A13" s="10">
         <v>13</v>
       </c>
-      <c r="B13" s="43">
+      <c r="B13" s="40">
         <v>43185</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -2961,7 +2955,7 @@
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="9"/>
-      <c r="B14" s="44"/>
+      <c r="B14" s="41"/>
       <c r="C14" s="1" t="s">
         <v>29</v>
       </c>
@@ -3002,7 +2996,7 @@
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="9"/>
-      <c r="B15" s="44"/>
+      <c r="B15" s="41"/>
       <c r="C15" s="1" t="s">
         <v>29</v>
       </c>
@@ -3043,7 +3037,7 @@
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="9"/>
-      <c r="B16" s="44"/>
+      <c r="B16" s="41"/>
       <c r="C16" s="1" t="s">
         <v>29</v>
       </c>
@@ -3084,7 +3078,7 @@
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="14"/>
-      <c r="B17" s="45"/>
+      <c r="B17" s="42"/>
       <c r="C17" s="1" t="s">
         <v>29</v>
       </c>
@@ -3124,7 +3118,7 @@
       </c>
     </row>
     <row r="18" spans="1:15">
-      <c r="A18" s="15">
+      <c r="A18" s="12">
         <v>14</v>
       </c>
       <c r="B18" s="2">
@@ -3171,21 +3165,51 @@
       </c>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="1"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
+      <c r="A19" s="12">
+        <v>15</v>
+      </c>
+      <c r="B19" s="2">
+        <v>43199</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19" s="1">
+        <v>76152878</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K19" s="1">
+        <v>15189553449</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="N19" s="1">
+        <v>15071236167</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="1"/>
@@ -7882,288 +7906,288 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="8.625" style="17"/>
+    <col min="1" max="1" width="8.625" style="15"/>
     <col min="2" max="2" width="27.625" customWidth="1"/>
-    <col min="3" max="3" width="19.125" style="18" customWidth="1"/>
-    <col min="4" max="4" width="35.25" style="19" customWidth="1"/>
+    <col min="3" max="3" width="19.125" style="16" customWidth="1"/>
+    <col min="4" max="4" width="35.25" style="17" customWidth="1"/>
     <col min="5" max="5" width="13.5083333333333" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="11.375" style="20" customWidth="1"/>
+    <col min="7" max="7" width="11.375" style="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1" s="21" t="s">
+      <c r="C1" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="D1" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="E1" s="19" t="s">
         <v>85</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="10">
         <v>51</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="18">
+      <c r="C2" s="16">
         <v>43087</v>
       </c>
-      <c r="D2" s="26" t="s">
-        <v>86</v>
+      <c r="D2" s="24" t="s">
+        <v>88</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="G2" s="27" t="s">
-        <v>89</v>
+        <v>90</v>
+      </c>
+      <c r="G2" s="25" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="9">
         <v>52</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="16">
         <v>43092</v>
       </c>
-      <c r="D3" s="26" t="s">
-        <v>86</v>
+      <c r="D3" s="24" t="s">
+        <v>88</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G3" s="27" t="s">
-        <v>91</v>
+        <v>92</v>
+      </c>
+      <c r="G3" s="25" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="9"/>
-      <c r="B4" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="C4" s="18">
+      <c r="B4" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="16">
         <v>43098</v>
       </c>
-      <c r="D4" s="26" t="s">
-        <v>93</v>
+      <c r="D4" s="24" t="s">
+        <v>95</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="G4" s="29" t="s">
-        <v>94</v>
+        <v>90</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:7">
       <c r="A5" s="10">
         <v>1</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="16">
         <v>43102</v>
       </c>
-      <c r="D5" s="26" t="s">
-        <v>86</v>
+      <c r="D5" s="24" t="s">
+        <v>88</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="G5" s="31" t="s">
-        <v>95</v>
+        <v>90</v>
+      </c>
+      <c r="G5" s="29" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:7">
       <c r="A6" s="9"/>
-      <c r="B6" s="28"/>
-      <c r="D6" s="32"/>
+      <c r="B6" s="26"/>
+      <c r="D6" s="30"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="33"/>
+      <c r="G6" s="31"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="9"/>
-      <c r="B7" s="28"/>
-      <c r="D7" s="26"/>
+      <c r="B7" s="26"/>
+      <c r="D7" s="24"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="34"/>
+      <c r="G7" s="31"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="10">
         <v>4</v>
       </c>
-      <c r="B8" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="C8" s="18">
+      <c r="B8" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" s="16">
         <v>43123</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G8" s="31" t="s">
         <v>97</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G8" s="34" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="9"/>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="16">
         <v>43123</v>
       </c>
-      <c r="D9" s="26" t="s">
-        <v>98</v>
+      <c r="D9" s="24" t="s">
+        <v>100</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G9" s="34" t="s">
-        <v>95</v>
+        <v>92</v>
+      </c>
+      <c r="G9" s="31" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="9"/>
-      <c r="B10" s="28"/>
-      <c r="D10" s="26"/>
+      <c r="B10" s="26"/>
+      <c r="D10" s="24"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="34"/>
+      <c r="G10" s="31"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="10">
         <v>6</v>
       </c>
-      <c r="B11" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="C11" s="18">
+      <c r="B11" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11" s="16">
         <v>43137</v>
       </c>
-      <c r="D11" s="35" t="s">
-        <v>86</v>
+      <c r="D11" s="32" t="s">
+        <v>88</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="G11" s="33" t="s">
-        <v>100</v>
+        <v>90</v>
+      </c>
+      <c r="G11" s="31" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="9"/>
-      <c r="B12" s="28"/>
-      <c r="D12" s="26"/>
+      <c r="B12" s="26"/>
+      <c r="D12" s="24"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="34"/>
+      <c r="G12" s="31"/>
     </row>
     <row r="13" ht="14.25" spans="1:7">
       <c r="A13" s="12">
         <v>13</v>
       </c>
-      <c r="B13" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="C13" s="18">
+      <c r="B13" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" s="16">
         <v>43189</v>
       </c>
-      <c r="D13" s="36" t="s">
-        <v>86</v>
+      <c r="D13" s="33" t="s">
+        <v>88</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="G13" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
+      </c>
+      <c r="G13" s="31" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="12"/>
-      <c r="B14" s="28"/>
-      <c r="D14" s="26"/>
+      <c r="B14" s="26"/>
+      <c r="D14" s="24"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="34"/>
+      <c r="G14" s="31"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="12">
         <v>14</v>
       </c>
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="C15" s="18">
+      <c r="C15" s="16">
         <v>43194</v>
       </c>
-      <c r="D15" s="26" t="s">
-        <v>86</v>
+      <c r="D15" s="24" t="s">
+        <v>88</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="G15" s="34" t="s">
-        <v>100</v>
+        <v>90</v>
+      </c>
+      <c r="G15" s="31" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="12"/>
-      <c r="B16" s="28"/>
-      <c r="D16" s="26"/>
+      <c r="B16" s="26"/>
+      <c r="D16" s="24"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="34"/>
+      <c r="G16" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -8212,21 +8236,21 @@
         <v>1</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>32</v>
@@ -8235,10 +8259,10 @@
         <v>43084</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -8248,10 +8272,10 @@
         <v>43091</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -8261,10 +8285,10 @@
         <v>43099</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -8274,15 +8298,15 @@
         <v>43100</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>32</v>
@@ -8291,10 +8315,10 @@
         <v>43101</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -8304,15 +8328,15 @@
         <v>43120</v>
       </c>
       <c r="D7" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="E7" s="12" t="s">
         <v>116</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="10" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>32</v>
@@ -8321,10 +8345,10 @@
         <v>43163</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -8334,8 +8358,8 @@
       <c r="E9" s="12"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="15" t="s">
-        <v>120</v>
+      <c r="A10" s="12" t="s">
+        <v>121</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>32</v>
@@ -8343,11 +8367,11 @@
       <c r="C10" s="11">
         <v>43197</v>
       </c>
-      <c r="D10" s="16" t="s">
-        <v>111</v>
+      <c r="D10" s="13" t="s">
+        <v>112</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="2:5">

--- a/周数据/《个人上线率统计表》-高阳.xlsx
+++ b/周数据/《个人上线率统计表》-高阳.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144">
   <si>
     <t>个人上线率分析表</t>
   </si>
@@ -269,6 +269,45 @@
     <t>负责人</t>
   </si>
   <si>
+    <t>快餐世家</t>
+  </si>
+  <si>
+    <t>董总</t>
+  </si>
+  <si>
+    <t>蟹甲plus</t>
+  </si>
+  <si>
+    <t>蟹甲plus（马台街店）</t>
+  </si>
+  <si>
+    <t>两个天堂餐饮管理有限公司</t>
+  </si>
+  <si>
+    <t>三千粉</t>
+  </si>
+  <si>
+    <t>无锡</t>
+  </si>
+  <si>
+    <t>三千粉无锡苏宁店</t>
+  </si>
+  <si>
+    <t>王化洲</t>
+  </si>
+  <si>
+    <t>IT负责人</t>
+  </si>
+  <si>
+    <t>KA项目之前已回访，后期无需回访</t>
+  </si>
+  <si>
+    <t>如东</t>
+  </si>
+  <si>
+    <t>三千粉南通如东欧尚超市店</t>
+  </si>
+  <si>
     <t>立项日期</t>
   </si>
   <si>
@@ -329,6 +368,30 @@
     <t>沈芳芳</t>
   </si>
   <si>
+    <t>鲜货俚火锅</t>
+  </si>
+  <si>
+    <t>武耀</t>
+  </si>
+  <si>
+    <t>王婆大虾樾河路店</t>
+  </si>
+  <si>
+    <t>4月26日实施</t>
+  </si>
+  <si>
+    <t>连锁</t>
+  </si>
+  <si>
+    <t>石燕芳</t>
+  </si>
+  <si>
+    <t>沙县小吃（云食集）</t>
+  </si>
+  <si>
+    <t>哈尔滨水饺（云食集）</t>
+  </si>
+  <si>
     <t>姓名</t>
   </si>
   <si>
@@ -384,6 +447,9 @@
   </si>
   <si>
     <t>4月</t>
+  </si>
+  <si>
+    <t>张家港市沙洲中路223号/鲜货俚火锅</t>
   </si>
 </sst>
 </file>
@@ -391,11 +457,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -1270,8 +1336,8 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1300,9 +1366,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1362,6 +1425,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1766,23 +1832,23 @@
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="5.125" style="15" customWidth="1"/>
-    <col min="2" max="2" width="8.125" style="15" customWidth="1"/>
-    <col min="3" max="4" width="16.25" style="15" customWidth="1"/>
-    <col min="5" max="5" width="17.75" style="15" customWidth="1"/>
-    <col min="6" max="6" width="15.875" style="15" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5083333333333" style="15" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="17.875" style="15" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="17.875" style="15" customWidth="1"/>
+    <col min="1" max="1" width="5.125" style="14" customWidth="1"/>
+    <col min="2" max="2" width="8.125" style="14" customWidth="1"/>
+    <col min="3" max="4" width="16.25" style="14" customWidth="1"/>
+    <col min="5" max="5" width="17.75" style="14" customWidth="1"/>
+    <col min="6" max="6" width="15.875" style="14" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5083333333333" style="14" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="17.875" style="14" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="17.875" style="14" customWidth="1"/>
     <col min="10" max="10" width="17.875" style="44" customWidth="1"/>
-    <col min="11" max="11" width="16" style="15" customWidth="1"/>
-    <col min="12" max="12" width="17.875" style="15" customWidth="1"/>
-    <col min="13" max="13" width="18.625" style="15" customWidth="1"/>
+    <col min="11" max="11" width="16" style="14" customWidth="1"/>
+    <col min="12" max="12" width="17.875" style="14" customWidth="1"/>
+    <col min="13" max="13" width="18.625" style="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" spans="1:13">
@@ -2274,40 +2340,70 @@
       <c r="K13" s="58">
         <v>0</v>
       </c>
-      <c r="L13" s="58"/>
+      <c r="L13" s="58">
+        <v>0</v>
+      </c>
       <c r="M13" s="60">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="53"/>
-      <c r="B14" s="51"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
+      <c r="B14" s="51">
+        <v>15</v>
+      </c>
+      <c r="C14" s="49">
+        <v>1</v>
+      </c>
+      <c r="D14" s="49">
+        <v>0</v>
+      </c>
+      <c r="E14" s="49">
+        <v>1</v>
+      </c>
       <c r="F14" s="50"/>
       <c r="G14" s="50"/>
       <c r="H14" s="50"/>
       <c r="I14" s="56"/>
       <c r="J14" s="57"/>
-      <c r="K14" s="58"/>
-      <c r="L14" s="58"/>
-      <c r="M14" s="59"/>
+      <c r="K14" s="58">
+        <v>1</v>
+      </c>
+      <c r="L14" s="58">
+        <v>0</v>
+      </c>
+      <c r="M14" s="60">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="53"/>
-      <c r="B15" s="51"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
+      <c r="B15" s="51">
+        <v>16</v>
+      </c>
+      <c r="C15" s="49">
+        <v>2</v>
+      </c>
+      <c r="D15" s="49">
+        <v>0</v>
+      </c>
+      <c r="E15" s="49">
+        <v>2</v>
+      </c>
       <c r="F15" s="50"/>
       <c r="G15" s="50"/>
       <c r="H15" s="50"/>
       <c r="I15" s="56"/>
       <c r="J15" s="57"/>
-      <c r="K15" s="58"/>
-      <c r="L15" s="58"/>
-      <c r="M15" s="59"/>
+      <c r="K15" s="58">
+        <v>2</v>
+      </c>
+      <c r="L15" s="58">
+        <v>2</v>
+      </c>
+      <c r="M15" s="60">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2325,10 +2421,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O293"/>
+  <dimension ref="A1:P294"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+      <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
@@ -2535,7 +2631,7 @@
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="14"/>
+      <c r="A5" s="13"/>
       <c r="B5" s="2">
         <v>43105</v>
       </c>
@@ -2768,7 +2864,7 @@
       </c>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="14"/>
+      <c r="A10" s="13"/>
       <c r="B10" s="2">
         <v>43137</v>
       </c>
@@ -2869,7 +2965,7 @@
       <c r="C12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="D12" s="23" t="s">
         <v>63</v>
       </c>
       <c r="E12" s="1" t="s">
@@ -3077,12 +3173,12 @@
       </c>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="14"/>
+      <c r="A17" s="13"/>
       <c r="B17" s="42"/>
       <c r="C17" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="14"/>
+      <c r="D17" s="13"/>
       <c r="E17" s="1" t="s">
         <v>76</v>
       </c>
@@ -3212,72 +3308,194 @@
       </c>
     </row>
     <row r="20" spans="1:15">
-      <c r="A20" s="1"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
+      <c r="A20" s="12">
+        <v>16</v>
+      </c>
+      <c r="B20" s="2">
+        <v>43210</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G20" s="1">
+        <v>76159290</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K20" s="1">
+        <v>15189553449</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N20" s="1">
+        <v>17342701977</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="21" spans="1:15">
-      <c r="A21" s="1"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="A21" s="1">
+        <v>17</v>
+      </c>
+      <c r="B21" s="2">
+        <v>43213</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G21" s="1">
+        <v>76159011</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K21" s="1">
+        <v>15189553449</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N21" s="1">
+        <v>15805191899</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" s="1"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="B22" s="2">
+        <v>43215</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G22" s="1">
+        <v>76138830</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K22" s="1">
+        <v>15189553449</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="N22" s="1">
+        <v>18020275119</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="P22" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" s="1"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
+      <c r="B23" s="2">
+        <v>43215</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G23" s="1">
+        <v>76132999</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K23" s="1">
+        <v>15189553449</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="N23" s="1">
+        <v>18020275119</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="P23" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="1"/>
@@ -7869,6 +8087,23 @@
       <c r="N293" s="1"/>
       <c r="O293" s="1"/>
     </row>
+    <row r="294" spans="1:15">
+      <c r="A294" s="1"/>
+      <c r="B294" s="2"/>
+      <c r="C294" s="1"/>
+      <c r="D294" s="1"/>
+      <c r="E294" s="1"/>
+      <c r="F294" s="1"/>
+      <c r="G294" s="1"/>
+      <c r="H294" s="1"/>
+      <c r="I294" s="1"/>
+      <c r="J294" s="1"/>
+      <c r="K294" s="1"/>
+      <c r="L294" s="1"/>
+      <c r="M294" s="1"/>
+      <c r="N294" s="1"/>
+      <c r="O294" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A2:A3"/>
@@ -7885,7 +8120,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
       <formula1>"SaaS,库存,供应链,饮食通,饮食通老客户上线"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2 O5 O12 O3:O4 O6:O7 O8:O9 O10:O11 O13:O17 O18:O1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2 O5 O12 O20 O3:O4 O6:O7 O8:O9 O10:O11 O13:O17 O18:O19 O21:O1048576">
       <formula1>"新品牌,老品牌"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7898,296 +8133,597 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="8.625" style="15"/>
-    <col min="2" max="2" width="27.625" customWidth="1"/>
-    <col min="3" max="3" width="19.125" style="16" customWidth="1"/>
-    <col min="4" max="4" width="35.25" style="17" customWidth="1"/>
+    <col min="1" max="1" width="8.625" style="14"/>
+    <col min="2" max="2" width="27.625" style="14" customWidth="1"/>
+    <col min="3" max="3" width="19.125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="35.25" style="16" customWidth="1"/>
     <col min="5" max="5" width="13.5083333333333" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="11.375" style="18" customWidth="1"/>
+    <col min="7" max="7" width="11.375" style="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="G1" s="22" t="s">
-        <v>87</v>
+      <c r="C1" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="10">
         <v>51</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2" s="15">
         <v>43087</v>
       </c>
-      <c r="D2" s="24" t="s">
-        <v>88</v>
+      <c r="D2" s="23" t="s">
+        <v>101</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G2" s="25" t="s">
-        <v>91</v>
+        <v>103</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="9">
         <v>52</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="15">
         <v>43092</v>
       </c>
-      <c r="D3" s="24" t="s">
-        <v>88</v>
+      <c r="D3" s="23" t="s">
+        <v>101</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G3" s="25" t="s">
-        <v>93</v>
+        <v>105</v>
+      </c>
+      <c r="G3" s="24" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="9"/>
-      <c r="B4" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="C4" s="16">
+      <c r="B4" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" s="15">
         <v>43098</v>
       </c>
-      <c r="D4" s="24" t="s">
-        <v>95</v>
+      <c r="D4" s="23" t="s">
+        <v>108</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G4" s="27" t="s">
-        <v>96</v>
+        <v>103</v>
+      </c>
+      <c r="G4" s="26" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:7">
       <c r="A5" s="10">
         <v>1</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="15">
         <v>43102</v>
       </c>
-      <c r="D5" s="24" t="s">
-        <v>88</v>
+      <c r="D5" s="23" t="s">
+        <v>101</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G5" s="29" t="s">
-        <v>97</v>
+        <v>103</v>
+      </c>
+      <c r="G5" s="28" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:7">
       <c r="A6" s="9"/>
-      <c r="B6" s="26"/>
-      <c r="D6" s="30"/>
+      <c r="B6" s="25"/>
+      <c r="D6" s="29"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="31"/>
+      <c r="G6" s="30"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="9"/>
-      <c r="B7" s="26"/>
-      <c r="D7" s="24"/>
+      <c r="B7" s="25"/>
+      <c r="D7" s="23"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="31"/>
+      <c r="G7" s="30"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="10">
         <v>4</v>
       </c>
-      <c r="B8" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="C8" s="16">
+      <c r="B8" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="C8" s="15">
         <v>43123</v>
       </c>
-      <c r="D8" s="24" t="s">
-        <v>99</v>
+      <c r="D8" s="23" t="s">
+        <v>112</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G8" s="31" t="s">
-        <v>97</v>
+        <v>105</v>
+      </c>
+      <c r="G8" s="30" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="9"/>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="15">
         <v>43123</v>
       </c>
-      <c r="D9" s="24" t="s">
-        <v>100</v>
+      <c r="D9" s="23" t="s">
+        <v>113</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G9" s="31" t="s">
-        <v>97</v>
+        <v>105</v>
+      </c>
+      <c r="G9" s="30" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="9"/>
-      <c r="B10" s="26"/>
-      <c r="D10" s="24"/>
+      <c r="B10" s="25"/>
+      <c r="D10" s="23"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="31"/>
+      <c r="G10" s="30"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="10">
         <v>6</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="C11" s="15">
+        <v>43137</v>
+      </c>
+      <c r="D11" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="C11" s="16">
-        <v>43137</v>
-      </c>
-      <c r="D11" s="32" t="s">
-        <v>88</v>
-      </c>
       <c r="E11" s="1" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G11" s="31" t="s">
-        <v>102</v>
+        <v>103</v>
+      </c>
+      <c r="G11" s="30" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="9"/>
-      <c r="B12" s="26"/>
-      <c r="D12" s="24"/>
+      <c r="B12" s="25"/>
+      <c r="D12" s="23"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="31"/>
+      <c r="G12" s="30"/>
     </row>
     <row r="13" ht="14.25" spans="1:7">
       <c r="A13" s="12">
         <v>13</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="C13" s="16">
+      <c r="C13" s="15">
         <v>43189</v>
       </c>
-      <c r="D13" s="33" t="s">
-        <v>88</v>
+      <c r="D13" s="32" t="s">
+        <v>101</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G13" s="31" t="s">
-        <v>93</v>
+        <v>103</v>
+      </c>
+      <c r="G13" s="30" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="12"/>
-      <c r="B14" s="26"/>
-      <c r="D14" s="24"/>
+      <c r="B14" s="25"/>
+      <c r="D14" s="23"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="31"/>
+      <c r="G14" s="30"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="12">
         <v>14</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="C15" s="16">
+      <c r="C15" s="15">
         <v>43194</v>
       </c>
-      <c r="D15" s="24" t="s">
-        <v>88</v>
+      <c r="D15" s="23" t="s">
+        <v>101</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G15" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="G15" s="30" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="12">
+        <v>15</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="C16" s="15">
+        <v>43203</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="12"/>
-      <c r="B16" s="26"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="31"/>
+      <c r="F16" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G16" s="30" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="10">
+        <v>16</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" s="15">
+        <v>43206</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G17" s="30" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="9"/>
+      <c r="B18" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" s="15">
+        <v>43207</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G18" s="30" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="9"/>
+      <c r="B19" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="C19" s="15">
+        <v>43209</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G19" s="30" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="9"/>
+      <c r="B20" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C20" s="15">
+        <v>43209</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G20" s="30" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="13"/>
+      <c r="B21" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="C21" s="15">
+        <v>43211</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G21" s="30" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="30"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="30"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="30"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="12"/>
+      <c r="B25" s="12"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="30"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="30"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="30"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="12"/>
+      <c r="B28" s="12"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="30"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="12"/>
+      <c r="B29" s="12"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="30"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="12"/>
+      <c r="B30" s="12"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="30"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="12"/>
+      <c r="B31" s="12"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="30"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="12"/>
+      <c r="B32" s="12"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="30"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="12"/>
+      <c r="B33" s="12"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="30"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="12"/>
+      <c r="B34" s="12"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="30"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="12"/>
+      <c r="B35" s="12"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="30"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="12"/>
+      <c r="B36" s="12"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="30"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="12"/>
+      <c r="B37" s="12"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="30"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="12"/>
+      <c r="B38" s="12"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="30"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="12"/>
+      <c r="B39" s="12"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="30"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="12"/>
+      <c r="B40" s="12"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="30"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="12"/>
+      <c r="B41" s="12"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="30"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="12"/>
+      <c r="B42" s="12"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="30"/>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="12"/>
+      <c r="B43" s="12"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="30"/>
+    </row>
+    <row r="44" spans="3:3">
+      <c r="C44" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -8196,14 +8732,14 @@
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A21"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E10 E2:E5 E6:E7 E8:E9 E11:E12 E13:E14 E15:E16 E17:E1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E10 E15 E18 E19 E20 E2:E5 E6:E7 E8:E9 E11:E12 E13:E14 E16:E17 E21:E1048576">
       <formula1>"单店,连锁,KA,供应链"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="saas" sqref="F2:F5 F6:F10 F11:F12 F13:F14 F15:F16 F17:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="saas" sqref="F15 F18 F19 F20 F2:F5 F6:F10 F11:F12 F13:F14 F16:F17 F21:F1048576">
       <formula1>"SAAS,供应链,SAAS+微信,SAAS+供应链,SAAS+微信+供应链"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8219,7 +8755,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -8236,21 +8772,21 @@
         <v>1</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="9" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>32</v>
@@ -8259,10 +8795,10 @@
         <v>43084</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>109</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -8272,10 +8808,10 @@
         <v>43091</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -8284,29 +8820,29 @@
       <c r="C4" s="11">
         <v>43099</v>
       </c>
-      <c r="D4" s="13" t="s">
-        <v>112</v>
+      <c r="D4" s="3" t="s">
+        <v>133</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
       <c r="C5" s="11">
         <v>43100</v>
       </c>
-      <c r="D5" s="13" t="s">
-        <v>112</v>
+      <c r="D5" s="3" t="s">
+        <v>133</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="10" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>32</v>
@@ -8314,29 +8850,29 @@
       <c r="C6" s="11">
         <v>43101</v>
       </c>
-      <c r="D6" s="13" t="s">
-        <v>115</v>
+      <c r="D6" s="3" t="s">
+        <v>136</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
       <c r="C7" s="11">
         <v>43120</v>
       </c>
-      <c r="D7" s="13" t="s">
-        <v>117</v>
+      <c r="D7" s="3" t="s">
+        <v>138</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="10" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>32</v>
@@ -8345,21 +8881,21 @@
         <v>43163</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>119</v>
+        <v>140</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
       <c r="C9" s="11"/>
       <c r="E9" s="12"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="12" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>32</v>
@@ -8367,17 +8903,26 @@
       <c r="C10" s="11">
         <v>43197</v>
       </c>
-      <c r="D10" s="13" t="s">
-        <v>112</v>
+      <c r="D10" s="3" t="s">
+        <v>133</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="2:5">
-      <c r="B11" s="12"/>
-      <c r="C11" s="11"/>
-      <c r="E11" s="12"/>
+      <c r="B11" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="11">
+        <v>43204</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>141</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/周数据/《个人上线率统计表》-高阳.xlsx
+++ b/周数据/《个人上线率统计表》-高阳.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157">
   <si>
     <t>个人上线率分析表</t>
   </si>
@@ -308,6 +308,48 @@
     <t>三千粉南通如东欧尚超市店</t>
   </si>
   <si>
+    <t>哈尔滨水饺云食集店</t>
+  </si>
+  <si>
+    <t>哈尔滨水饺（云食集店）</t>
+  </si>
+  <si>
+    <t>沙县小吃</t>
+  </si>
+  <si>
+    <t>沙县小吃云食集店</t>
+  </si>
+  <si>
+    <t>杨总</t>
+  </si>
+  <si>
+    <t>张家港市杨舍镇鲜货俚火锅</t>
+  </si>
+  <si>
+    <t>鲜货俚火锅</t>
+  </si>
+  <si>
+    <t>张家港</t>
+  </si>
+  <si>
+    <t>鲜货俚火锅店</t>
+  </si>
+  <si>
+    <t>向经理</t>
+  </si>
+  <si>
+    <t>经理</t>
+  </si>
+  <si>
+    <t>昆山</t>
+  </si>
+  <si>
+    <t>槐店王婆大虾樾河路店</t>
+  </si>
+  <si>
+    <t>高总</t>
+  </si>
+  <si>
     <t>立项日期</t>
   </si>
   <si>
@@ -366,9 +408,6 @@
   </si>
   <si>
     <t>沈芳芳</t>
-  </si>
-  <si>
-    <t>鲜货俚火锅</t>
   </si>
   <si>
     <t>武耀</t>
@@ -457,11 +496,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -539,6 +578,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -564,13 +633,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -579,7 +641,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -593,53 +655,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -662,7 +680,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -671,6 +696,20 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -739,96 +778,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -847,7 +796,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -859,13 +844,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -883,13 +916,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1079,56 +1118,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1159,11 +1153,56 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1184,10 +1223,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1196,137 +1235,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="18" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1455,6 +1494,15 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1845,563 +1893,563 @@
     <col min="7" max="7" width="15.5083333333333" style="14" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="17.875" style="14" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="17.875" style="14" customWidth="1"/>
-    <col min="10" max="10" width="17.875" style="44" customWidth="1"/>
+    <col min="10" max="10" width="17.875" style="47" customWidth="1"/>
     <col min="11" max="11" width="16" style="14" customWidth="1"/>
     <col min="12" max="12" width="17.875" style="14" customWidth="1"/>
     <col min="13" max="13" width="18.625" style="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" spans="1:13">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="55"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="58"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="49" t="s">
+      <c r="E2" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="50" t="s">
+      <c r="F2" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="50" t="s">
+      <c r="G2" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="50" t="s">
+      <c r="H2" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="56" t="s">
+      <c r="I2" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="57" t="s">
+      <c r="J2" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="58" t="s">
+      <c r="K2" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="58" t="s">
+      <c r="L2" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="59" t="s">
+      <c r="M2" s="62" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="47">
+      <c r="A3" s="50">
         <v>12</v>
       </c>
-      <c r="B3" s="51">
+      <c r="B3" s="54">
         <v>52</v>
       </c>
-      <c r="C3" s="49">
+      <c r="C3" s="52">
         <v>1</v>
       </c>
-      <c r="D3" s="49">
+      <c r="D3" s="52">
         <v>0</v>
       </c>
-      <c r="E3" s="49">
+      <c r="E3" s="52">
         <f t="shared" ref="E3:E8" si="0">C3-D3</f>
         <v>1</v>
       </c>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50">
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53">
         <f t="shared" ref="H3:H11" si="1">F3-G3</f>
         <v>0</v>
       </c>
-      <c r="I3" s="56">
+      <c r="I3" s="59">
         <v>0</v>
       </c>
-      <c r="J3" s="57" t="e">
+      <c r="J3" s="60" t="e">
         <f t="shared" ref="J3:J15" si="2">I3/L3*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K3" s="58">
+      <c r="K3" s="61">
         <f t="shared" ref="K3:K8" si="3">C3+G3</f>
         <v>1</v>
       </c>
-      <c r="L3" s="58">
+      <c r="L3" s="61">
         <f t="shared" ref="L3:L11" si="4">D3+G3</f>
         <v>0</v>
       </c>
-      <c r="M3" s="59">
+      <c r="M3" s="62">
         <f>L3/K3*100%</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="52">
+      <c r="A4" s="55">
         <v>1</v>
       </c>
-      <c r="B4" s="51">
+      <c r="B4" s="54">
         <v>1</v>
       </c>
-      <c r="C4" s="49">
+      <c r="C4" s="52">
         <v>5</v>
       </c>
-      <c r="D4" s="49">
+      <c r="D4" s="52">
         <v>2</v>
       </c>
-      <c r="E4" s="49">
+      <c r="E4" s="52">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50">
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I4" s="56">
+      <c r="I4" s="59">
         <v>0</v>
       </c>
-      <c r="J4" s="57">
+      <c r="J4" s="60">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K4" s="58">
+      <c r="K4" s="61">
         <v>5</v>
       </c>
-      <c r="L4" s="58">
+      <c r="L4" s="61">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="M4" s="59">
+      <c r="M4" s="62">
         <f>L4/K4*100%</f>
         <v>0.4</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="53"/>
-      <c r="B5" s="51">
+      <c r="A5" s="56"/>
+      <c r="B5" s="54">
         <v>2</v>
       </c>
-      <c r="C5" s="49">
+      <c r="C5" s="52">
         <v>3</v>
       </c>
-      <c r="D5" s="49">
+      <c r="D5" s="52">
         <v>2</v>
       </c>
-      <c r="E5" s="49">
+      <c r="E5" s="52">
         <v>1</v>
       </c>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50">
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I5" s="56">
+      <c r="I5" s="59">
         <v>0</v>
       </c>
-      <c r="J5" s="57">
+      <c r="J5" s="60">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K5" s="58">
+      <c r="K5" s="61">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="L5" s="58">
+      <c r="L5" s="61">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="M5" s="59">
+      <c r="M5" s="62">
         <f>L5/K5*100%</f>
         <v>0.666666666666667</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="53"/>
-      <c r="B6" s="51">
+      <c r="A6" s="56"/>
+      <c r="B6" s="54">
         <v>3</v>
       </c>
-      <c r="C6" s="49">
+      <c r="C6" s="52">
         <v>1</v>
       </c>
-      <c r="D6" s="49">
+      <c r="D6" s="52">
         <v>1</v>
       </c>
-      <c r="E6" s="49">
+      <c r="E6" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50">
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I6" s="56">
+      <c r="I6" s="59">
         <v>0</v>
       </c>
-      <c r="J6" s="57">
+      <c r="J6" s="60">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K6" s="58">
+      <c r="K6" s="61">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="L6" s="58">
+      <c r="L6" s="61">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M6" s="59">
+      <c r="M6" s="62">
         <f>L6/K6*100%</f>
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="53"/>
-      <c r="B7" s="51">
+      <c r="A7" s="56"/>
+      <c r="B7" s="54">
         <v>4</v>
       </c>
-      <c r="C7" s="49">
+      <c r="C7" s="52">
         <v>3</v>
       </c>
-      <c r="D7" s="49">
+      <c r="D7" s="52">
         <v>1</v>
       </c>
-      <c r="E7" s="49">
+      <c r="E7" s="52">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50">
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I7" s="56">
+      <c r="I7" s="59">
         <v>0</v>
       </c>
-      <c r="J7" s="57">
+      <c r="J7" s="60">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K7" s="58">
+      <c r="K7" s="61">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="L7" s="58">
+      <c r="L7" s="61">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M7" s="59">
+      <c r="M7" s="62">
         <f>L7/K7*100%</f>
         <v>0.333333333333333</v>
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="53"/>
-      <c r="B8" s="51">
+      <c r="A8" s="56"/>
+      <c r="B8" s="54">
         <v>5</v>
       </c>
-      <c r="C8" s="49">
+      <c r="C8" s="52">
         <v>3</v>
       </c>
-      <c r="D8" s="49">
+      <c r="D8" s="52">
         <v>1</v>
       </c>
-      <c r="E8" s="49">
+      <c r="E8" s="52">
         <v>2</v>
       </c>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50">
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I8" s="56">
+      <c r="I8" s="59">
         <v>0</v>
       </c>
-      <c r="J8" s="57">
+      <c r="J8" s="60">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K8" s="58">
+      <c r="K8" s="61">
         <v>3</v>
       </c>
-      <c r="L8" s="58">
+      <c r="L8" s="61">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M8" s="59">
+      <c r="M8" s="62">
         <v>0.33</v>
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="53"/>
-      <c r="B9" s="51">
+      <c r="A9" s="56"/>
+      <c r="B9" s="54">
         <v>6</v>
       </c>
-      <c r="C9" s="49">
+      <c r="C9" s="52">
         <v>3</v>
       </c>
-      <c r="D9" s="49">
+      <c r="D9" s="52">
         <v>2</v>
       </c>
-      <c r="E9" s="49">
+      <c r="E9" s="52">
         <v>1</v>
       </c>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="56">
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="59">
         <v>0</v>
       </c>
-      <c r="J9" s="57">
+      <c r="J9" s="60">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K9" s="58">
+      <c r="K9" s="61">
         <v>3</v>
       </c>
-      <c r="L9" s="58">
+      <c r="L9" s="61">
         <v>2</v>
       </c>
-      <c r="M9" s="60">
+      <c r="M9" s="63">
         <v>0.67</v>
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="52">
+      <c r="A10" s="55">
         <v>3</v>
       </c>
-      <c r="B10" s="51">
+      <c r="B10" s="54">
         <v>10</v>
       </c>
-      <c r="C10" s="49">
+      <c r="C10" s="52">
         <v>1</v>
       </c>
-      <c r="D10" s="49">
+      <c r="D10" s="52">
         <v>1</v>
       </c>
-      <c r="E10" s="49">
+      <c r="E10" s="52">
         <f t="shared" ref="E10:E13" si="5">C10-D10</f>
         <v>0</v>
       </c>
-      <c r="F10" s="50"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="50">
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53">
         <f t="shared" ref="H10:H15" si="6">F10-G10</f>
         <v>0</v>
       </c>
-      <c r="I10" s="56">
+      <c r="I10" s="59">
         <v>0</v>
       </c>
-      <c r="J10" s="57">
+      <c r="J10" s="60">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K10" s="58">
+      <c r="K10" s="61">
         <v>1</v>
       </c>
-      <c r="L10" s="58">
+      <c r="L10" s="61">
         <f t="shared" ref="L10:L15" si="7">D10+G10</f>
         <v>1</v>
       </c>
-      <c r="M10" s="59">
+      <c r="M10" s="62">
         <f>L10/K10*100%</f>
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="53"/>
-      <c r="B11" s="51">
+      <c r="A11" s="56"/>
+      <c r="B11" s="54">
         <v>12</v>
       </c>
-      <c r="C11" s="49">
+      <c r="C11" s="52">
         <v>1</v>
       </c>
-      <c r="D11" s="49">
+      <c r="D11" s="52">
         <v>1</v>
       </c>
-      <c r="E11" s="49">
+      <c r="E11" s="52">
         <v>0</v>
       </c>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="50">
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I11" s="56">
+      <c r="I11" s="59">
         <v>0</v>
       </c>
-      <c r="J11" s="57">
+      <c r="J11" s="60">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K11" s="58">
+      <c r="K11" s="61">
         <f t="shared" ref="K11:K15" si="8">C11+G11</f>
         <v>1</v>
       </c>
-      <c r="L11" s="58">
+      <c r="L11" s="61">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="M11" s="59">
+      <c r="M11" s="62">
         <f>L11/K11*100%</f>
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="53"/>
-      <c r="B12" s="51">
+      <c r="A12" s="56"/>
+      <c r="B12" s="54">
         <v>13</v>
       </c>
-      <c r="C12" s="49">
+      <c r="C12" s="52">
         <v>5</v>
       </c>
-      <c r="D12" s="49">
+      <c r="D12" s="52">
         <v>5</v>
       </c>
-      <c r="E12" s="49">
+      <c r="E12" s="52">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F12" s="50"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="50">
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I12" s="56">
+      <c r="I12" s="59">
         <v>0</v>
       </c>
-      <c r="J12" s="57">
+      <c r="J12" s="60">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K12" s="58">
+      <c r="K12" s="61">
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="L12" s="58">
+      <c r="L12" s="61">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="M12" s="59">
+      <c r="M12" s="62">
         <f>L12/K12*100%</f>
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="52">
+      <c r="A13" s="55">
         <v>4</v>
       </c>
-      <c r="B13" s="51">
+      <c r="B13" s="54">
         <v>14</v>
       </c>
-      <c r="C13" s="49">
+      <c r="C13" s="52">
         <v>2</v>
       </c>
-      <c r="D13" s="49">
+      <c r="D13" s="52">
         <v>0</v>
       </c>
-      <c r="E13" s="49">
+      <c r="E13" s="52">
         <v>0</v>
       </c>
-      <c r="F13" s="50"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="50"/>
-      <c r="I13" s="56">
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="59">
         <v>0</v>
       </c>
-      <c r="J13" s="57" t="e">
+      <c r="J13" s="60" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K13" s="58">
+      <c r="K13" s="61">
         <v>0</v>
       </c>
-      <c r="L13" s="58">
+      <c r="L13" s="61">
         <v>0</v>
       </c>
-      <c r="M13" s="60">
+      <c r="M13" s="63">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="53"/>
-      <c r="B14" s="51">
+      <c r="A14" s="56"/>
+      <c r="B14" s="54">
         <v>15</v>
       </c>
-      <c r="C14" s="49">
+      <c r="C14" s="52">
         <v>1</v>
       </c>
-      <c r="D14" s="49">
+      <c r="D14" s="52">
         <v>0</v>
       </c>
-      <c r="E14" s="49">
+      <c r="E14" s="52">
         <v>1</v>
       </c>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="57"/>
-      <c r="K14" s="58">
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="61">
         <v>1</v>
       </c>
-      <c r="L14" s="58">
+      <c r="L14" s="61">
         <v>0</v>
       </c>
-      <c r="M14" s="60">
+      <c r="M14" s="63">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="53"/>
-      <c r="B15" s="51">
+      <c r="A15" s="56"/>
+      <c r="B15" s="54">
         <v>16</v>
       </c>
-      <c r="C15" s="49">
+      <c r="C15" s="52">
         <v>2</v>
       </c>
-      <c r="D15" s="49">
+      <c r="D15" s="52">
         <v>0</v>
       </c>
-      <c r="E15" s="49">
+      <c r="E15" s="52">
         <v>2</v>
       </c>
-      <c r="F15" s="50"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="56"/>
-      <c r="J15" s="57"/>
-      <c r="K15" s="58">
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="60"/>
+      <c r="K15" s="61">
         <v>2</v>
       </c>
-      <c r="L15" s="58">
+      <c r="L15" s="61">
         <v>2</v>
       </c>
-      <c r="M15" s="60">
+      <c r="M15" s="63">
         <v>0</v>
       </c>
     </row>
@@ -2423,8 +2471,8 @@
   <sheetPr/>
   <dimension ref="A1:P294"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
@@ -2469,7 +2517,7 @@
       <c r="H1" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="43" t="s">
+      <c r="I1" s="46" t="s">
         <v>22</v>
       </c>
       <c r="J1" s="38" t="s">
@@ -3355,7 +3403,7 @@
       </c>
     </row>
     <row r="21" spans="1:15">
-      <c r="A21" s="1">
+      <c r="A21" s="43">
         <v>17</v>
       </c>
       <c r="B21" s="2">
@@ -3402,7 +3450,7 @@
       </c>
     </row>
     <row r="22" spans="1:16">
-      <c r="A22" s="1"/>
+      <c r="A22" s="44"/>
       <c r="B22" s="2">
         <v>43215</v>
       </c>
@@ -3450,7 +3498,7 @@
       </c>
     </row>
     <row r="23" spans="1:16">
-      <c r="A23" s="1"/>
+      <c r="A23" s="44"/>
       <c r="B23" s="2">
         <v>43215</v>
       </c>
@@ -3498,72 +3546,182 @@
       </c>
     </row>
     <row r="24" spans="1:15">
-      <c r="A24" s="1"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
+      <c r="A24" s="44"/>
+      <c r="B24" s="2">
+        <v>43218</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G24" s="1">
+        <v>76161101</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K24" s="1">
+        <v>15189553449</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N24" s="1">
+        <v>18502527718</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="25" spans="1:15">
-      <c r="A25" s="1"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
+      <c r="A25" s="44"/>
+      <c r="B25" s="2">
+        <v>43218</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="13"/>
+      <c r="E25" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G25" s="1">
+        <v>76159399</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K25" s="1">
+        <v>15189553449</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N25" s="1">
+        <v>18751981936</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="26" spans="1:15">
-      <c r="A26" s="1"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
+      <c r="A26" s="44"/>
+      <c r="B26" s="2">
+        <v>43218</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G26" s="1">
+        <v>76157763</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K26" s="1">
+        <v>15189553449</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N26" s="1">
+        <v>13263366335</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="27" spans="1:15">
-      <c r="A27" s="1"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
+      <c r="A27" s="45"/>
+      <c r="B27" s="2">
+        <v>43219</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G27" s="1">
+        <v>76160160</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K27" s="1">
+        <v>15189553449</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N27" s="1">
+        <v>15051626196</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="1"/>
@@ -8105,13 +8263,15 @@
       <c r="O294" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A13:A17"/>
+    <mergeCell ref="A21:A27"/>
     <mergeCell ref="B13:B17"/>
     <mergeCell ref="D13:D17"/>
+    <mergeCell ref="D24:D25"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1">
@@ -8158,19 +8318,19 @@
         <v>21</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -8184,16 +8344,16 @@
         <v>43087</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="G2" s="24" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -8207,37 +8367,37 @@
         <v>43092</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="G3" s="24" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="9"/>
       <c r="B4" s="25" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="C4" s="15">
         <v>43098</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="G4" s="26" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:7">
@@ -8251,16 +8411,16 @@
         <v>43102</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="G5" s="28" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:7">
@@ -8284,22 +8444,22 @@
         <v>4</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="C8" s="15">
         <v>43123</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="G8" s="30" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -8311,16 +8471,16 @@
         <v>43123</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="G9" s="30" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -8336,22 +8496,22 @@
         <v>6</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="C11" s="15">
         <v>43137</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="G11" s="30" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -8373,16 +8533,16 @@
         <v>43189</v>
       </c>
       <c r="D13" s="32" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="G13" s="30" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -8404,16 +8564,16 @@
         <v>43194</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="G15" s="30" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -8421,22 +8581,22 @@
         <v>15</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="C16" s="15">
         <v>43203</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="G16" s="30" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -8450,16 +8610,16 @@
         <v>43206</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="G17" s="30" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -8471,79 +8631,79 @@
         <v>43207</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="G18" s="30" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="9"/>
       <c r="B19" s="12" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="C19" s="15">
         <v>43209</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="G19" s="30" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="9"/>
       <c r="B20" s="12" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="C20" s="15">
         <v>43209</v>
       </c>
       <c r="D20" s="23" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="G20" s="30" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="13"/>
       <c r="B21" s="12" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="C21" s="15">
         <v>43211</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="G21" s="30" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -8772,21 +8932,21 @@
         <v>1</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="9" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>32</v>
@@ -8795,10 +8955,10 @@
         <v>43084</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -8808,10 +8968,10 @@
         <v>43091</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -8821,10 +8981,10 @@
         <v>43099</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -8834,15 +8994,15 @@
         <v>43100</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="10" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>32</v>
@@ -8851,10 +9011,10 @@
         <v>43101</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -8864,15 +9024,15 @@
         <v>43120</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="10" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>32</v>
@@ -8881,10 +9041,10 @@
         <v>43163</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -8895,7 +9055,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="12" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>32</v>
@@ -8904,10 +9064,10 @@
         <v>43197</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="2:5">
@@ -8918,10 +9078,10 @@
         <v>43204</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>

--- a/周数据/《个人上线率统计表》-高阳.xlsx
+++ b/周数据/《个人上线率统计表》-高阳.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="9390" activeTab="1"/>
+    <workbookView windowWidth="19770" windowHeight="8370" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173">
   <si>
     <t>个人上线率分析表</t>
   </si>
@@ -350,6 +350,51 @@
     <t>高总</t>
   </si>
   <si>
+    <t>泰州</t>
+  </si>
+  <si>
+    <t>槐店王婆大虾泰州店</t>
+  </si>
+  <si>
+    <t>吴总</t>
+  </si>
+  <si>
+    <t>华食企业管理有限公司</t>
+  </si>
+  <si>
+    <t>哈姆特</t>
+  </si>
+  <si>
+    <t>哈姆特（天赋广场店）</t>
+  </si>
+  <si>
+    <t>南京御品殿餐饮管理有限公司</t>
+  </si>
+  <si>
+    <t>京茶山</t>
+  </si>
+  <si>
+    <t>京茶山手作茶物（马群新街店）</t>
+  </si>
+  <si>
+    <t>骆总</t>
+  </si>
+  <si>
+    <t>京茶山手作茶物（南京南店）</t>
+  </si>
+  <si>
+    <t>刘经理</t>
+  </si>
+  <si>
+    <t>京茶山手作茶物（湖塘吾悦广场店）</t>
+  </si>
+  <si>
+    <t>常州</t>
+  </si>
+  <si>
+    <t>陈总</t>
+  </si>
+  <si>
     <t>立项日期</t>
   </si>
   <si>
@@ -489,6 +534,9 @@
   </si>
   <si>
     <t>张家港市沙洲中路223号/鲜货俚火锅</t>
+  </si>
+  <si>
+    <t>泰州姜堰市锦江花园06-09室/槐店王婆大虾泰州店</t>
   </si>
 </sst>
 </file>
@@ -496,11 +544,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -572,6 +620,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -594,15 +650,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -624,24 +672,52 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -657,17 +733,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -679,37 +747,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -778,66 +826,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -850,13 +838,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -874,19 +898,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -898,7 +916,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -910,7 +940,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -922,13 +952,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1120,30 +1168,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1153,17 +1177,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1186,32 +1228,38 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1223,10 +1271,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1235,275 +1283,275 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1530,6 +1578,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1877,26 +1931,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="5.125" style="14" customWidth="1"/>
-    <col min="2" max="2" width="8.125" style="14" customWidth="1"/>
-    <col min="3" max="4" width="16.25" style="14" customWidth="1"/>
-    <col min="5" max="5" width="17.75" style="14" customWidth="1"/>
-    <col min="6" max="6" width="15.875" style="14" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5083333333333" style="14" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="17.875" style="14" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="17.875" style="14" customWidth="1"/>
+    <col min="1" max="1" width="5.125" style="13" customWidth="1"/>
+    <col min="2" max="2" width="8.125" style="13" customWidth="1"/>
+    <col min="3" max="4" width="16.25" style="13" customWidth="1"/>
+    <col min="5" max="5" width="17.75" style="13" customWidth="1"/>
+    <col min="6" max="6" width="15.875" style="13" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5083333333333" style="13" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="17.875" style="13" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="17.875" style="13" customWidth="1"/>
     <col min="10" max="10" width="17.875" style="47" customWidth="1"/>
-    <col min="11" max="11" width="16" style="14" customWidth="1"/>
-    <col min="12" max="12" width="17.875" style="14" customWidth="1"/>
-    <col min="13" max="13" width="18.625" style="14" customWidth="1"/>
+    <col min="11" max="11" width="16" style="13" customWidth="1"/>
+    <col min="12" max="12" width="17.875" style="13" customWidth="1"/>
+    <col min="13" max="13" width="18.625" style="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" spans="1:13">
@@ -1911,10 +1965,10 @@
       <c r="G1" s="49"/>
       <c r="H1" s="49"/>
       <c r="I1" s="49"/>
-      <c r="J1" s="57"/>
+      <c r="J1" s="59"/>
       <c r="K1" s="49"/>
       <c r="L1" s="49"/>
-      <c r="M1" s="58"/>
+      <c r="M1" s="60"/>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="50" t="s">
@@ -1941,19 +1995,19 @@
       <c r="H2" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="59" t="s">
+      <c r="I2" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="60" t="s">
+      <c r="J2" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="61" t="s">
+      <c r="K2" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="61" t="s">
+      <c r="L2" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="62" t="s">
+      <c r="M2" s="64" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1980,22 +2034,22 @@
         <f t="shared" ref="H3:H11" si="1">F3-G3</f>
         <v>0</v>
       </c>
-      <c r="I3" s="59">
+      <c r="I3" s="61">
         <v>0</v>
       </c>
-      <c r="J3" s="60" t="e">
+      <c r="J3" s="62" t="e">
         <f t="shared" ref="J3:J15" si="2">I3/L3*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K3" s="61">
+      <c r="K3" s="63">
         <f t="shared" ref="K3:K8" si="3">C3+G3</f>
         <v>1</v>
       </c>
-      <c r="L3" s="61">
+      <c r="L3" s="63">
         <f t="shared" ref="L3:L11" si="4">D3+G3</f>
         <v>0</v>
       </c>
-      <c r="M3" s="62">
+      <c r="M3" s="64">
         <f>L3/K3*100%</f>
         <v>0</v>
       </c>
@@ -2023,21 +2077,21 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I4" s="59">
+      <c r="I4" s="61">
         <v>0</v>
       </c>
-      <c r="J4" s="60">
+      <c r="J4" s="62">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K4" s="61">
+      <c r="K4" s="63">
         <v>5</v>
       </c>
-      <c r="L4" s="61">
+      <c r="L4" s="63">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="M4" s="62">
+      <c r="M4" s="64">
         <f>L4/K4*100%</f>
         <v>0.4</v>
       </c>
@@ -2062,22 +2116,22 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I5" s="59">
+      <c r="I5" s="61">
         <v>0</v>
       </c>
-      <c r="J5" s="60">
+      <c r="J5" s="62">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K5" s="61">
+      <c r="K5" s="63">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="L5" s="61">
+      <c r="L5" s="63">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="M5" s="62">
+      <c r="M5" s="64">
         <f>L5/K5*100%</f>
         <v>0.666666666666667</v>
       </c>
@@ -2103,22 +2157,22 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I6" s="59">
+      <c r="I6" s="61">
         <v>0</v>
       </c>
-      <c r="J6" s="60">
+      <c r="J6" s="62">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K6" s="61">
+      <c r="K6" s="63">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="L6" s="61">
+      <c r="L6" s="63">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M6" s="62">
+      <c r="M6" s="64">
         <f>L6/K6*100%</f>
         <v>1</v>
       </c>
@@ -2144,22 +2198,22 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I7" s="59">
+      <c r="I7" s="61">
         <v>0</v>
       </c>
-      <c r="J7" s="60">
+      <c r="J7" s="62">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K7" s="61">
+      <c r="K7" s="63">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="L7" s="61">
+      <c r="L7" s="63">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M7" s="62">
+      <c r="M7" s="64">
         <f>L7/K7*100%</f>
         <v>0.333333333333333</v>
       </c>
@@ -2184,21 +2238,21 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I8" s="59">
+      <c r="I8" s="61">
         <v>0</v>
       </c>
-      <c r="J8" s="60">
+      <c r="J8" s="62">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K8" s="61">
+      <c r="K8" s="63">
         <v>3</v>
       </c>
-      <c r="L8" s="61">
+      <c r="L8" s="63">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M8" s="62">
+      <c r="M8" s="64">
         <v>0.33</v>
       </c>
     </row>
@@ -2219,20 +2273,20 @@
       <c r="F9" s="53"/>
       <c r="G9" s="53"/>
       <c r="H9" s="53"/>
-      <c r="I9" s="59">
+      <c r="I9" s="61">
         <v>0</v>
       </c>
-      <c r="J9" s="60">
+      <c r="J9" s="62">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K9" s="61">
+      <c r="K9" s="63">
         <v>3</v>
       </c>
-      <c r="L9" s="61">
+      <c r="L9" s="63">
         <v>2</v>
       </c>
-      <c r="M9" s="63">
+      <c r="M9" s="65">
         <v>0.67</v>
       </c>
     </row>
@@ -2259,21 +2313,21 @@
         <f t="shared" ref="H10:H15" si="6">F10-G10</f>
         <v>0</v>
       </c>
-      <c r="I10" s="59">
+      <c r="I10" s="61">
         <v>0</v>
       </c>
-      <c r="J10" s="60">
+      <c r="J10" s="62">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K10" s="61">
+      <c r="K10" s="63">
         <v>1</v>
       </c>
-      <c r="L10" s="61">
+      <c r="L10" s="63">
         <f t="shared" ref="L10:L15" si="7">D10+G10</f>
         <v>1</v>
       </c>
-      <c r="M10" s="62">
+      <c r="M10" s="64">
         <f>L10/K10*100%</f>
         <v>1</v>
       </c>
@@ -2298,23 +2352,23 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I11" s="59">
+      <c r="I11" s="61">
         <v>0</v>
       </c>
-      <c r="J11" s="60">
+      <c r="J11" s="62">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K11" s="61">
+      <c r="K11" s="63">
         <f t="shared" ref="K11:K15" si="8">C11+G11</f>
         <v>1</v>
       </c>
-      <c r="L11" s="61">
+      <c r="L11" s="63">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="M11" s="62">
-        <f>L11/K11*100%</f>
+      <c r="M11" s="64">
+        <f t="shared" ref="M11:M20" si="9">L11/K11*100%</f>
         <v>1</v>
       </c>
     </row>
@@ -2339,23 +2393,23 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I12" s="59">
+      <c r="I12" s="61">
         <v>0</v>
       </c>
-      <c r="J12" s="60">
+      <c r="J12" s="62">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K12" s="61">
+      <c r="K12" s="63">
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="L12" s="61">
+      <c r="L12" s="63">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="M12" s="62">
-        <f>L12/K12*100%</f>
+      <c r="M12" s="64">
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -2378,20 +2432,20 @@
       <c r="F13" s="53"/>
       <c r="G13" s="53"/>
       <c r="H13" s="53"/>
-      <c r="I13" s="59">
+      <c r="I13" s="61">
         <v>0</v>
       </c>
-      <c r="J13" s="60" t="e">
+      <c r="J13" s="62" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K13" s="61">
+      <c r="K13" s="63">
         <v>0</v>
       </c>
-      <c r="L13" s="61">
+      <c r="L13" s="63">
         <v>0</v>
       </c>
-      <c r="M13" s="63">
+      <c r="M13" s="65">
         <v>0</v>
       </c>
     </row>
@@ -2412,15 +2466,15 @@
       <c r="F14" s="53"/>
       <c r="G14" s="53"/>
       <c r="H14" s="53"/>
-      <c r="I14" s="59"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="61">
+      <c r="I14" s="61"/>
+      <c r="J14" s="62"/>
+      <c r="K14" s="63">
         <v>1</v>
       </c>
-      <c r="L14" s="61">
+      <c r="L14" s="63">
         <v>0</v>
       </c>
-      <c r="M14" s="63">
+      <c r="M14" s="65">
         <v>0</v>
       </c>
     </row>
@@ -2441,24 +2495,259 @@
       <c r="F15" s="53"/>
       <c r="G15" s="53"/>
       <c r="H15" s="53"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="60"/>
-      <c r="K15" s="61">
+      <c r="I15" s="61"/>
+      <c r="J15" s="62"/>
+      <c r="K15" s="63">
         <v>2</v>
       </c>
-      <c r="L15" s="61">
+      <c r="L15" s="63">
         <v>2</v>
       </c>
-      <c r="M15" s="63">
+      <c r="M15" s="65">
         <v>0</v>
       </c>
     </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="57">
+        <v>5</v>
+      </c>
+      <c r="B16" s="54">
+        <v>17</v>
+      </c>
+      <c r="C16" s="52">
+        <v>7</v>
+      </c>
+      <c r="D16" s="52">
+        <v>7</v>
+      </c>
+      <c r="E16" s="52">
+        <f t="shared" ref="E16:E20" si="10">C16-D16</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="53"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="53">
+        <f t="shared" ref="H16:H21" si="11">F16-G16</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="61">
+        <v>0</v>
+      </c>
+      <c r="J16" s="62">
+        <f t="shared" ref="J16:J21" si="12">I16/L16*100%</f>
+        <v>0</v>
+      </c>
+      <c r="K16" s="63">
+        <f t="shared" ref="K16:K20" si="13">C16+G16</f>
+        <v>7</v>
+      </c>
+      <c r="L16" s="63">
+        <f t="shared" ref="L16:L21" si="14">D16+G16</f>
+        <v>7</v>
+      </c>
+      <c r="M16" s="64">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="58"/>
+      <c r="B17" s="54">
+        <v>18</v>
+      </c>
+      <c r="C17" s="52">
+        <v>5</v>
+      </c>
+      <c r="D17" s="52">
+        <v>5</v>
+      </c>
+      <c r="E17" s="52">
+        <v>0</v>
+      </c>
+      <c r="F17" s="53"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="53">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="61">
+        <v>0</v>
+      </c>
+      <c r="J17" s="62">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K17" s="63">
+        <v>5</v>
+      </c>
+      <c r="L17" s="63">
+        <f t="shared" si="14"/>
+        <v>5</v>
+      </c>
+      <c r="M17" s="64">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="56"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="52">
+        <v>0</v>
+      </c>
+      <c r="D18" s="52">
+        <v>0</v>
+      </c>
+      <c r="E18" s="52">
+        <v>0</v>
+      </c>
+      <c r="F18" s="53"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="53">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="61">
+        <v>0</v>
+      </c>
+      <c r="J18" s="62" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K18" s="63">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L18" s="63">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="M18" s="64" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="56"/>
+      <c r="B19" s="54"/>
+      <c r="C19" s="52">
+        <v>0</v>
+      </c>
+      <c r="D19" s="52">
+        <v>0</v>
+      </c>
+      <c r="E19" s="52">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F19" s="53"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="53">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="61">
+        <v>0</v>
+      </c>
+      <c r="J19" s="62" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K19" s="63">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L19" s="63">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="64" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="56"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="52">
+        <v>0</v>
+      </c>
+      <c r="D20" s="52">
+        <v>0</v>
+      </c>
+      <c r="E20" s="52">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F20" s="53"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="53">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I20" s="61">
+        <v>0</v>
+      </c>
+      <c r="J20" s="62" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K20" s="63">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L20" s="63">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="M20" s="64" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="56"/>
+      <c r="B21" s="54"/>
+      <c r="C21" s="52">
+        <v>0</v>
+      </c>
+      <c r="D21" s="52">
+        <v>0</v>
+      </c>
+      <c r="E21" s="52">
+        <v>0</v>
+      </c>
+      <c r="F21" s="53"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="53">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I21" s="61">
+        <v>0</v>
+      </c>
+      <c r="J21" s="62" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K21" s="63">
+        <v>0</v>
+      </c>
+      <c r="L21" s="63">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="M21" s="64">
+        <v>0.33</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A4:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A17"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2471,14 +2760,14 @@
   <sheetPr/>
   <dimension ref="A1:P294"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" topLeftCell="G19" workbookViewId="0">
+      <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12.8416666666667" customWidth="1"/>
-    <col min="2" max="2" width="15.625" style="35" customWidth="1"/>
+    <col min="2" max="2" width="15.625" style="34" customWidth="1"/>
     <col min="3" max="3" width="11.4833333333333" customWidth="1"/>
     <col min="4" max="4" width="27.5" customWidth="1"/>
     <col min="5" max="5" width="20.875" customWidth="1"/>
@@ -2492,50 +2781,50 @@
     <col min="15" max="16384" width="9.73333333333333"/>
   </cols>
   <sheetData>
-    <row r="1" s="34" customFormat="1" ht="27" spans="1:15">
-      <c r="A1" s="36" t="s">
+    <row r="1" s="33" customFormat="1" ht="27" spans="1:15">
+      <c r="A1" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="38" t="s">
+      <c r="F1" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="38" t="s">
+      <c r="G1" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="39" t="s">
+      <c r="H1" s="38" t="s">
         <v>21</v>
       </c>
       <c r="I1" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="38" t="s">
+      <c r="J1" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="38" t="s">
+      <c r="K1" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="36" t="s">
+      <c r="L1" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="36" t="s">
+      <c r="M1" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="36" t="s">
+      <c r="N1" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="36" t="s">
+      <c r="O1" s="35" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2543,7 +2832,7 @@
       <c r="A2" s="10">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="39">
         <v>43102</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -2588,7 +2877,7 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="9"/>
-      <c r="B3" s="2">
+      <c r="B3" s="39">
         <v>43102</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -2635,7 +2924,7 @@
       <c r="A4" s="10">
         <v>2</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="39">
         <v>43105</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -2679,8 +2968,8 @@
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="13"/>
-      <c r="B5" s="2">
+      <c r="A5" s="12"/>
+      <c r="B5" s="39">
         <v>43105</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -2724,10 +3013,10 @@
       </c>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="12">
+      <c r="A6" s="11">
         <v>3</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="39">
         <v>43112</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -2771,10 +3060,10 @@
       </c>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="12">
+      <c r="A7" s="11">
         <v>4</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="39">
         <v>43120</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -2818,10 +3107,10 @@
       </c>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="12">
+      <c r="A8" s="11">
         <v>5</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="39">
         <v>43130</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -2868,7 +3157,7 @@
       <c r="A9" s="10">
         <v>6</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="39">
         <v>43132</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -2912,8 +3201,8 @@
       </c>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="13"/>
-      <c r="B10" s="2">
+      <c r="A10" s="12"/>
+      <c r="B10" s="39">
         <v>43137</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -2957,10 +3246,10 @@
       </c>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="12">
+      <c r="A11" s="11">
         <v>10</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="39">
         <v>43165</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -3004,16 +3293,16 @@
       </c>
     </row>
     <row r="12" ht="19" customHeight="1" spans="1:15">
-      <c r="A12" s="12">
+      <c r="A12" s="11">
         <v>12</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="39">
         <v>43182</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="22" t="s">
         <v>63</v>
       </c>
       <c r="E12" s="1" t="s">
@@ -3221,12 +3510,12 @@
       </c>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="13"/>
+      <c r="A17" s="12"/>
       <c r="B17" s="42"/>
       <c r="C17" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="13"/>
+      <c r="D17" s="12"/>
       <c r="E17" s="1" t="s">
         <v>76</v>
       </c>
@@ -3262,10 +3551,10 @@
       </c>
     </row>
     <row r="18" spans="1:15">
-      <c r="A18" s="12">
+      <c r="A18" s="11">
         <v>14</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="39">
         <v>43198</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -3309,10 +3598,10 @@
       </c>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="12">
+      <c r="A19" s="11">
         <v>15</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="39">
         <v>43199</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -3356,10 +3645,10 @@
       </c>
     </row>
     <row r="20" spans="1:15">
-      <c r="A20" s="12">
+      <c r="A20" s="11">
         <v>16</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="39">
         <v>43210</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -3403,10 +3692,10 @@
       </c>
     </row>
     <row r="21" spans="1:15">
-      <c r="A21" s="43">
+      <c r="A21" s="10">
         <v>17</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="39">
         <v>43213</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -3450,8 +3739,8 @@
       </c>
     </row>
     <row r="22" spans="1:16">
-      <c r="A22" s="44"/>
-      <c r="B22" s="2">
+      <c r="A22" s="9"/>
+      <c r="B22" s="39">
         <v>43215</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -3498,8 +3787,8 @@
       </c>
     </row>
     <row r="23" spans="1:16">
-      <c r="A23" s="44"/>
-      <c r="B23" s="2">
+      <c r="A23" s="9"/>
+      <c r="B23" s="39">
         <v>43215</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -3546,8 +3835,8 @@
       </c>
     </row>
     <row r="24" spans="1:15">
-      <c r="A24" s="44"/>
-      <c r="B24" s="2">
+      <c r="A24" s="9"/>
+      <c r="B24" s="39">
         <v>43218</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -3591,14 +3880,14 @@
       </c>
     </row>
     <row r="25" spans="1:15">
-      <c r="A25" s="44"/>
-      <c r="B25" s="2">
+      <c r="A25" s="9"/>
+      <c r="B25" s="39">
         <v>43218</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D25" s="13"/>
+      <c r="D25" s="12"/>
       <c r="E25" s="1" t="s">
         <v>98</v>
       </c>
@@ -3634,8 +3923,8 @@
       </c>
     </row>
     <row r="26" spans="1:15">
-      <c r="A26" s="44"/>
-      <c r="B26" s="2">
+      <c r="A26" s="9"/>
+      <c r="B26" s="39">
         <v>43218</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -3679,8 +3968,8 @@
       </c>
     </row>
     <row r="27" spans="1:15">
-      <c r="A27" s="45"/>
-      <c r="B27" s="2">
+      <c r="A27" s="12"/>
+      <c r="B27" s="39">
         <v>43219</v>
       </c>
       <c r="C27" s="1" t="s">
@@ -3724,93 +4013,235 @@
       </c>
     </row>
     <row r="28" spans="1:15">
-      <c r="A28" s="1"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
+      <c r="A28" s="43">
+        <v>18</v>
+      </c>
+      <c r="B28" s="39">
+        <v>43224</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G28" s="1">
+        <v>76162769</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K28" s="1">
+        <v>15189553449</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N28" s="1">
+        <v>13912196802</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="29" spans="1:15">
-      <c r="A29" s="1"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
+      <c r="A29" s="44"/>
+      <c r="B29" s="39">
+        <v>43226</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="1">
+        <v>76167212</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K29" s="1">
+        <v>15189553449</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N29" s="1">
+        <v>13057581993</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="30" spans="1:15">
-      <c r="A30" s="1"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
+      <c r="A30" s="44"/>
+      <c r="B30" s="39">
+        <v>43229</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G30" s="1">
+        <v>76162973</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K30" s="1">
+        <v>15189553449</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N30" s="1">
+        <v>15895867930</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="31" spans="1:15">
-      <c r="A31" s="1"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
+      <c r="A31" s="44"/>
+      <c r="B31" s="39">
+        <v>43229</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G31" s="1">
+        <v>76162958</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K31" s="1">
+        <v>15189553449</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="N31" s="1">
+        <v>15952031799</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="32" spans="1:15">
-      <c r="A32" s="1"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
+      <c r="A32" s="45"/>
+      <c r="B32" s="39">
+        <v>43229</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G32" s="1">
+        <v>76167603</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K32" s="1">
+        <v>15189553449</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N32" s="1">
+        <v>15961157058</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="33" spans="1:15">
       <c r="A33" s="1"/>
-      <c r="B33" s="2"/>
+      <c r="B33" s="39"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -3827,7 +4258,7 @@
     </row>
     <row r="34" spans="1:15">
       <c r="A34" s="1"/>
-      <c r="B34" s="2"/>
+      <c r="B34" s="39"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -3844,7 +4275,7 @@
     </row>
     <row r="35" spans="1:15">
       <c r="A35" s="1"/>
-      <c r="B35" s="2"/>
+      <c r="B35" s="39"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -3861,7 +4292,7 @@
     </row>
     <row r="36" spans="1:15">
       <c r="A36" s="1"/>
-      <c r="B36" s="2"/>
+      <c r="B36" s="39"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -3878,7 +4309,7 @@
     </row>
     <row r="37" spans="1:15">
       <c r="A37" s="1"/>
-      <c r="B37" s="2"/>
+      <c r="B37" s="39"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -3895,7 +4326,7 @@
     </row>
     <row r="38" spans="1:15">
       <c r="A38" s="1"/>
-      <c r="B38" s="2"/>
+      <c r="B38" s="39"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -3912,7 +4343,7 @@
     </row>
     <row r="39" spans="1:15">
       <c r="A39" s="1"/>
-      <c r="B39" s="2"/>
+      <c r="B39" s="39"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -3929,7 +4360,7 @@
     </row>
     <row r="40" spans="1:15">
       <c r="A40" s="1"/>
-      <c r="B40" s="2"/>
+      <c r="B40" s="39"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -3946,7 +4377,7 @@
     </row>
     <row r="41" spans="1:15">
       <c r="A41" s="1"/>
-      <c r="B41" s="2"/>
+      <c r="B41" s="39"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -3963,7 +4394,7 @@
     </row>
     <row r="42" spans="1:15">
       <c r="A42" s="1"/>
-      <c r="B42" s="2"/>
+      <c r="B42" s="39"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -3980,7 +4411,7 @@
     </row>
     <row r="43" spans="1:15">
       <c r="A43" s="1"/>
-      <c r="B43" s="2"/>
+      <c r="B43" s="39"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -3997,7 +4428,7 @@
     </row>
     <row r="44" spans="1:15">
       <c r="A44" s="1"/>
-      <c r="B44" s="2"/>
+      <c r="B44" s="39"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -4014,7 +4445,7 @@
     </row>
     <row r="45" spans="1:15">
       <c r="A45" s="1"/>
-      <c r="B45" s="2"/>
+      <c r="B45" s="39"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -4031,7 +4462,7 @@
     </row>
     <row r="46" spans="1:15">
       <c r="A46" s="1"/>
-      <c r="B46" s="2"/>
+      <c r="B46" s="39"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -4048,7 +4479,7 @@
     </row>
     <row r="47" spans="1:15">
       <c r="A47" s="1"/>
-      <c r="B47" s="2"/>
+      <c r="B47" s="39"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -4065,7 +4496,7 @@
     </row>
     <row r="48" spans="1:15">
       <c r="A48" s="1"/>
-      <c r="B48" s="2"/>
+      <c r="B48" s="39"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -4082,7 +4513,7 @@
     </row>
     <row r="49" spans="1:15">
       <c r="A49" s="1"/>
-      <c r="B49" s="2"/>
+      <c r="B49" s="39"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -4099,7 +4530,7 @@
     </row>
     <row r="50" spans="1:15">
       <c r="A50" s="1"/>
-      <c r="B50" s="2"/>
+      <c r="B50" s="39"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
@@ -4116,7 +4547,7 @@
     </row>
     <row r="51" spans="1:15">
       <c r="A51" s="1"/>
-      <c r="B51" s="2"/>
+      <c r="B51" s="39"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -4133,7 +4564,7 @@
     </row>
     <row r="52" spans="1:15">
       <c r="A52" s="1"/>
-      <c r="B52" s="2"/>
+      <c r="B52" s="39"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -4150,7 +4581,7 @@
     </row>
     <row r="53" spans="1:15">
       <c r="A53" s="1"/>
-      <c r="B53" s="2"/>
+      <c r="B53" s="39"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -4167,7 +4598,7 @@
     </row>
     <row r="54" spans="1:15">
       <c r="A54" s="1"/>
-      <c r="B54" s="2"/>
+      <c r="B54" s="39"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
@@ -4184,7 +4615,7 @@
     </row>
     <row r="55" spans="1:15">
       <c r="A55" s="1"/>
-      <c r="B55" s="2"/>
+      <c r="B55" s="39"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -4201,7 +4632,7 @@
     </row>
     <row r="56" spans="1:15">
       <c r="A56" s="1"/>
-      <c r="B56" s="2"/>
+      <c r="B56" s="39"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
@@ -4218,7 +4649,7 @@
     </row>
     <row r="57" spans="1:15">
       <c r="A57" s="1"/>
-      <c r="B57" s="2"/>
+      <c r="B57" s="39"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
@@ -4235,7 +4666,7 @@
     </row>
     <row r="58" spans="1:15">
       <c r="A58" s="1"/>
-      <c r="B58" s="2"/>
+      <c r="B58" s="39"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
@@ -4252,7 +4683,7 @@
     </row>
     <row r="59" spans="1:15">
       <c r="A59" s="1"/>
-      <c r="B59" s="2"/>
+      <c r="B59" s="39"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
@@ -4269,7 +4700,7 @@
     </row>
     <row r="60" spans="1:15">
       <c r="A60" s="1"/>
-      <c r="B60" s="2"/>
+      <c r="B60" s="39"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
@@ -4286,7 +4717,7 @@
     </row>
     <row r="61" spans="1:15">
       <c r="A61" s="1"/>
-      <c r="B61" s="2"/>
+      <c r="B61" s="39"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
@@ -4303,7 +4734,7 @@
     </row>
     <row r="62" spans="1:15">
       <c r="A62" s="1"/>
-      <c r="B62" s="2"/>
+      <c r="B62" s="39"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
@@ -4320,7 +4751,7 @@
     </row>
     <row r="63" spans="1:15">
       <c r="A63" s="1"/>
-      <c r="B63" s="2"/>
+      <c r="B63" s="39"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
@@ -4337,7 +4768,7 @@
     </row>
     <row r="64" spans="1:15">
       <c r="A64" s="1"/>
-      <c r="B64" s="2"/>
+      <c r="B64" s="39"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
@@ -4354,7 +4785,7 @@
     </row>
     <row r="65" spans="1:15">
       <c r="A65" s="1"/>
-      <c r="B65" s="2"/>
+      <c r="B65" s="39"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
@@ -4371,7 +4802,7 @@
     </row>
     <row r="66" spans="1:15">
       <c r="A66" s="1"/>
-      <c r="B66" s="2"/>
+      <c r="B66" s="39"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
@@ -4388,7 +4819,7 @@
     </row>
     <row r="67" spans="1:15">
       <c r="A67" s="1"/>
-      <c r="B67" s="2"/>
+      <c r="B67" s="39"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
@@ -4405,7 +4836,7 @@
     </row>
     <row r="68" spans="1:15">
       <c r="A68" s="1"/>
-      <c r="B68" s="2"/>
+      <c r="B68" s="39"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
@@ -4422,7 +4853,7 @@
     </row>
     <row r="69" spans="1:15">
       <c r="A69" s="1"/>
-      <c r="B69" s="2"/>
+      <c r="B69" s="39"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
@@ -4439,7 +4870,7 @@
     </row>
     <row r="70" spans="1:15">
       <c r="A70" s="1"/>
-      <c r="B70" s="2"/>
+      <c r="B70" s="39"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
@@ -4456,7 +4887,7 @@
     </row>
     <row r="71" spans="1:15">
       <c r="A71" s="1"/>
-      <c r="B71" s="2"/>
+      <c r="B71" s="39"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
@@ -4473,7 +4904,7 @@
     </row>
     <row r="72" spans="1:15">
       <c r="A72" s="1"/>
-      <c r="B72" s="2"/>
+      <c r="B72" s="39"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
@@ -4490,7 +4921,7 @@
     </row>
     <row r="73" spans="1:15">
       <c r="A73" s="1"/>
-      <c r="B73" s="2"/>
+      <c r="B73" s="39"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
@@ -4507,7 +4938,7 @@
     </row>
     <row r="74" spans="1:15">
       <c r="A74" s="1"/>
-      <c r="B74" s="2"/>
+      <c r="B74" s="39"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
@@ -4524,7 +4955,7 @@
     </row>
     <row r="75" spans="1:15">
       <c r="A75" s="1"/>
-      <c r="B75" s="2"/>
+      <c r="B75" s="39"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
@@ -4541,7 +4972,7 @@
     </row>
     <row r="76" spans="1:15">
       <c r="A76" s="1"/>
-      <c r="B76" s="2"/>
+      <c r="B76" s="39"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
@@ -4558,7 +4989,7 @@
     </row>
     <row r="77" spans="1:15">
       <c r="A77" s="1"/>
-      <c r="B77" s="2"/>
+      <c r="B77" s="39"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
@@ -4575,7 +5006,7 @@
     </row>
     <row r="78" spans="1:15">
       <c r="A78" s="1"/>
-      <c r="B78" s="2"/>
+      <c r="B78" s="39"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
@@ -4592,7 +5023,7 @@
     </row>
     <row r="79" spans="1:15">
       <c r="A79" s="1"/>
-      <c r="B79" s="2"/>
+      <c r="B79" s="39"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
@@ -4609,7 +5040,7 @@
     </row>
     <row r="80" spans="1:15">
       <c r="A80" s="1"/>
-      <c r="B80" s="2"/>
+      <c r="B80" s="39"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
@@ -4626,7 +5057,7 @@
     </row>
     <row r="81" spans="1:15">
       <c r="A81" s="1"/>
-      <c r="B81" s="2"/>
+      <c r="B81" s="39"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
@@ -4643,7 +5074,7 @@
     </row>
     <row r="82" spans="1:15">
       <c r="A82" s="1"/>
-      <c r="B82" s="2"/>
+      <c r="B82" s="39"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
@@ -4660,7 +5091,7 @@
     </row>
     <row r="83" spans="1:15">
       <c r="A83" s="1"/>
-      <c r="B83" s="2"/>
+      <c r="B83" s="39"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
@@ -4677,7 +5108,7 @@
     </row>
     <row r="84" spans="1:15">
       <c r="A84" s="1"/>
-      <c r="B84" s="2"/>
+      <c r="B84" s="39"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
@@ -4694,7 +5125,7 @@
     </row>
     <row r="85" spans="1:15">
       <c r="A85" s="1"/>
-      <c r="B85" s="2"/>
+      <c r="B85" s="39"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
@@ -4711,7 +5142,7 @@
     </row>
     <row r="86" spans="1:15">
       <c r="A86" s="1"/>
-      <c r="B86" s="2"/>
+      <c r="B86" s="39"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
@@ -4728,7 +5159,7 @@
     </row>
     <row r="87" spans="1:15">
       <c r="A87" s="1"/>
-      <c r="B87" s="2"/>
+      <c r="B87" s="39"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
@@ -4745,7 +5176,7 @@
     </row>
     <row r="88" spans="1:15">
       <c r="A88" s="1"/>
-      <c r="B88" s="2"/>
+      <c r="B88" s="39"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
@@ -4762,7 +5193,7 @@
     </row>
     <row r="89" spans="1:15">
       <c r="A89" s="1"/>
-      <c r="B89" s="2"/>
+      <c r="B89" s="39"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
@@ -4779,7 +5210,7 @@
     </row>
     <row r="90" spans="1:15">
       <c r="A90" s="1"/>
-      <c r="B90" s="2"/>
+      <c r="B90" s="39"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
@@ -4796,7 +5227,7 @@
     </row>
     <row r="91" spans="1:15">
       <c r="A91" s="1"/>
-      <c r="B91" s="2"/>
+      <c r="B91" s="39"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
@@ -4813,7 +5244,7 @@
     </row>
     <row r="92" spans="1:15">
       <c r="A92" s="1"/>
-      <c r="B92" s="2"/>
+      <c r="B92" s="39"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
@@ -4830,7 +5261,7 @@
     </row>
     <row r="93" spans="1:15">
       <c r="A93" s="1"/>
-      <c r="B93" s="2"/>
+      <c r="B93" s="39"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
@@ -4847,7 +5278,7 @@
     </row>
     <row r="94" spans="1:15">
       <c r="A94" s="1"/>
-      <c r="B94" s="2"/>
+      <c r="B94" s="39"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
@@ -4864,7 +5295,7 @@
     </row>
     <row r="95" spans="1:15">
       <c r="A95" s="1"/>
-      <c r="B95" s="2"/>
+      <c r="B95" s="39"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
@@ -4881,7 +5312,7 @@
     </row>
     <row r="96" spans="1:15">
       <c r="A96" s="1"/>
-      <c r="B96" s="2"/>
+      <c r="B96" s="39"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
@@ -4898,7 +5329,7 @@
     </row>
     <row r="97" spans="1:15">
       <c r="A97" s="1"/>
-      <c r="B97" s="2"/>
+      <c r="B97" s="39"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
@@ -4915,7 +5346,7 @@
     </row>
     <row r="98" spans="1:15">
       <c r="A98" s="1"/>
-      <c r="B98" s="2"/>
+      <c r="B98" s="39"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
@@ -4932,7 +5363,7 @@
     </row>
     <row r="99" spans="1:15">
       <c r="A99" s="1"/>
-      <c r="B99" s="2"/>
+      <c r="B99" s="39"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
@@ -4949,7 +5380,7 @@
     </row>
     <row r="100" spans="1:15">
       <c r="A100" s="1"/>
-      <c r="B100" s="2"/>
+      <c r="B100" s="39"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
@@ -4966,7 +5397,7 @@
     </row>
     <row r="101" spans="1:15">
       <c r="A101" s="1"/>
-      <c r="B101" s="2"/>
+      <c r="B101" s="39"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
@@ -4983,7 +5414,7 @@
     </row>
     <row r="102" spans="1:15">
       <c r="A102" s="1"/>
-      <c r="B102" s="2"/>
+      <c r="B102" s="39"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
@@ -5000,7 +5431,7 @@
     </row>
     <row r="103" spans="1:15">
       <c r="A103" s="1"/>
-      <c r="B103" s="2"/>
+      <c r="B103" s="39"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
@@ -5017,7 +5448,7 @@
     </row>
     <row r="104" spans="1:15">
       <c r="A104" s="1"/>
-      <c r="B104" s="2"/>
+      <c r="B104" s="39"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
@@ -5034,7 +5465,7 @@
     </row>
     <row r="105" spans="1:15">
       <c r="A105" s="1"/>
-      <c r="B105" s="2"/>
+      <c r="B105" s="39"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
@@ -5051,7 +5482,7 @@
     </row>
     <row r="106" spans="1:15">
       <c r="A106" s="1"/>
-      <c r="B106" s="2"/>
+      <c r="B106" s="39"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
@@ -5068,7 +5499,7 @@
     </row>
     <row r="107" spans="1:15">
       <c r="A107" s="1"/>
-      <c r="B107" s="2"/>
+      <c r="B107" s="39"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
@@ -5085,7 +5516,7 @@
     </row>
     <row r="108" spans="1:15">
       <c r="A108" s="1"/>
-      <c r="B108" s="2"/>
+      <c r="B108" s="39"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
@@ -5102,7 +5533,7 @@
     </row>
     <row r="109" spans="1:15">
       <c r="A109" s="1"/>
-      <c r="B109" s="2"/>
+      <c r="B109" s="39"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
@@ -5119,7 +5550,7 @@
     </row>
     <row r="110" spans="1:15">
       <c r="A110" s="1"/>
-      <c r="B110" s="2"/>
+      <c r="B110" s="39"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
@@ -5136,7 +5567,7 @@
     </row>
     <row r="111" spans="1:15">
       <c r="A111" s="1"/>
-      <c r="B111" s="2"/>
+      <c r="B111" s="39"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
@@ -5153,7 +5584,7 @@
     </row>
     <row r="112" spans="1:15">
       <c r="A112" s="1"/>
-      <c r="B112" s="2"/>
+      <c r="B112" s="39"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
@@ -5170,7 +5601,7 @@
     </row>
     <row r="113" spans="1:15">
       <c r="A113" s="1"/>
-      <c r="B113" s="2"/>
+      <c r="B113" s="39"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
@@ -5187,7 +5618,7 @@
     </row>
     <row r="114" spans="1:15">
       <c r="A114" s="1"/>
-      <c r="B114" s="2"/>
+      <c r="B114" s="39"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
@@ -5204,7 +5635,7 @@
     </row>
     <row r="115" spans="1:15">
       <c r="A115" s="1"/>
-      <c r="B115" s="2"/>
+      <c r="B115" s="39"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
@@ -5221,7 +5652,7 @@
     </row>
     <row r="116" spans="1:15">
       <c r="A116" s="1"/>
-      <c r="B116" s="2"/>
+      <c r="B116" s="39"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
@@ -5238,7 +5669,7 @@
     </row>
     <row r="117" spans="1:15">
       <c r="A117" s="1"/>
-      <c r="B117" s="2"/>
+      <c r="B117" s="39"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
@@ -5255,7 +5686,7 @@
     </row>
     <row r="118" spans="1:15">
       <c r="A118" s="1"/>
-      <c r="B118" s="2"/>
+      <c r="B118" s="39"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
@@ -5272,7 +5703,7 @@
     </row>
     <row r="119" spans="1:15">
       <c r="A119" s="1"/>
-      <c r="B119" s="2"/>
+      <c r="B119" s="39"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
@@ -5289,7 +5720,7 @@
     </row>
     <row r="120" spans="1:15">
       <c r="A120" s="1"/>
-      <c r="B120" s="2"/>
+      <c r="B120" s="39"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
@@ -5306,7 +5737,7 @@
     </row>
     <row r="121" spans="1:15">
       <c r="A121" s="1"/>
-      <c r="B121" s="2"/>
+      <c r="B121" s="39"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
@@ -5323,7 +5754,7 @@
     </row>
     <row r="122" spans="1:15">
       <c r="A122" s="1"/>
-      <c r="B122" s="2"/>
+      <c r="B122" s="39"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
@@ -5340,7 +5771,7 @@
     </row>
     <row r="123" spans="1:15">
       <c r="A123" s="1"/>
-      <c r="B123" s="2"/>
+      <c r="B123" s="39"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
@@ -5357,7 +5788,7 @@
     </row>
     <row r="124" spans="1:15">
       <c r="A124" s="1"/>
-      <c r="B124" s="2"/>
+      <c r="B124" s="39"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
@@ -5374,7 +5805,7 @@
     </row>
     <row r="125" spans="1:15">
       <c r="A125" s="1"/>
-      <c r="B125" s="2"/>
+      <c r="B125" s="39"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
@@ -5391,7 +5822,7 @@
     </row>
     <row r="126" spans="1:15">
       <c r="A126" s="1"/>
-      <c r="B126" s="2"/>
+      <c r="B126" s="39"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
@@ -5408,7 +5839,7 @@
     </row>
     <row r="127" spans="1:15">
       <c r="A127" s="1"/>
-      <c r="B127" s="2"/>
+      <c r="B127" s="39"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
@@ -5425,7 +5856,7 @@
     </row>
     <row r="128" spans="1:15">
       <c r="A128" s="1"/>
-      <c r="B128" s="2"/>
+      <c r="B128" s="39"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
@@ -5442,7 +5873,7 @@
     </row>
     <row r="129" spans="1:15">
       <c r="A129" s="1"/>
-      <c r="B129" s="2"/>
+      <c r="B129" s="39"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
@@ -5459,7 +5890,7 @@
     </row>
     <row r="130" spans="1:15">
       <c r="A130" s="1"/>
-      <c r="B130" s="2"/>
+      <c r="B130" s="39"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
@@ -5476,7 +5907,7 @@
     </row>
     <row r="131" spans="1:15">
       <c r="A131" s="1"/>
-      <c r="B131" s="2"/>
+      <c r="B131" s="39"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
@@ -5493,7 +5924,7 @@
     </row>
     <row r="132" spans="1:15">
       <c r="A132" s="1"/>
-      <c r="B132" s="2"/>
+      <c r="B132" s="39"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
@@ -5510,7 +5941,7 @@
     </row>
     <row r="133" spans="1:15">
       <c r="A133" s="1"/>
-      <c r="B133" s="2"/>
+      <c r="B133" s="39"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
@@ -5527,7 +5958,7 @@
     </row>
     <row r="134" spans="1:15">
       <c r="A134" s="1"/>
-      <c r="B134" s="2"/>
+      <c r="B134" s="39"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
@@ -5544,7 +5975,7 @@
     </row>
     <row r="135" spans="1:15">
       <c r="A135" s="1"/>
-      <c r="B135" s="2"/>
+      <c r="B135" s="39"/>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
@@ -5561,7 +5992,7 @@
     </row>
     <row r="136" spans="1:15">
       <c r="A136" s="1"/>
-      <c r="B136" s="2"/>
+      <c r="B136" s="39"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
@@ -5578,7 +6009,7 @@
     </row>
     <row r="137" spans="1:15">
       <c r="A137" s="1"/>
-      <c r="B137" s="2"/>
+      <c r="B137" s="39"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
@@ -5595,7 +6026,7 @@
     </row>
     <row r="138" spans="1:15">
       <c r="A138" s="1"/>
-      <c r="B138" s="2"/>
+      <c r="B138" s="39"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
@@ -5612,7 +6043,7 @@
     </row>
     <row r="139" spans="1:15">
       <c r="A139" s="1"/>
-      <c r="B139" s="2"/>
+      <c r="B139" s="39"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
@@ -5629,7 +6060,7 @@
     </row>
     <row r="140" spans="1:15">
       <c r="A140" s="1"/>
-      <c r="B140" s="2"/>
+      <c r="B140" s="39"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
@@ -5646,7 +6077,7 @@
     </row>
     <row r="141" spans="1:15">
       <c r="A141" s="1"/>
-      <c r="B141" s="2"/>
+      <c r="B141" s="39"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
@@ -5663,7 +6094,7 @@
     </row>
     <row r="142" spans="1:15">
       <c r="A142" s="1"/>
-      <c r="B142" s="2"/>
+      <c r="B142" s="39"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
@@ -5680,7 +6111,7 @@
     </row>
     <row r="143" spans="1:15">
       <c r="A143" s="1"/>
-      <c r="B143" s="2"/>
+      <c r="B143" s="39"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
       <c r="E143" s="1"/>
@@ -5697,7 +6128,7 @@
     </row>
     <row r="144" spans="1:15">
       <c r="A144" s="1"/>
-      <c r="B144" s="2"/>
+      <c r="B144" s="39"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
@@ -5714,7 +6145,7 @@
     </row>
     <row r="145" spans="1:15">
       <c r="A145" s="1"/>
-      <c r="B145" s="2"/>
+      <c r="B145" s="39"/>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
       <c r="E145" s="1"/>
@@ -5731,7 +6162,7 @@
     </row>
     <row r="146" spans="1:15">
       <c r="A146" s="1"/>
-      <c r="B146" s="2"/>
+      <c r="B146" s="39"/>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
       <c r="E146" s="1"/>
@@ -5748,7 +6179,7 @@
     </row>
     <row r="147" spans="1:15">
       <c r="A147" s="1"/>
-      <c r="B147" s="2"/>
+      <c r="B147" s="39"/>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
       <c r="E147" s="1"/>
@@ -5765,7 +6196,7 @@
     </row>
     <row r="148" spans="1:15">
       <c r="A148" s="1"/>
-      <c r="B148" s="2"/>
+      <c r="B148" s="39"/>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
       <c r="E148" s="1"/>
@@ -5782,7 +6213,7 @@
     </row>
     <row r="149" spans="1:15">
       <c r="A149" s="1"/>
-      <c r="B149" s="2"/>
+      <c r="B149" s="39"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
@@ -5799,7 +6230,7 @@
     </row>
     <row r="150" spans="1:15">
       <c r="A150" s="1"/>
-      <c r="B150" s="2"/>
+      <c r="B150" s="39"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
       <c r="E150" s="1"/>
@@ -5816,7 +6247,7 @@
     </row>
     <row r="151" spans="1:15">
       <c r="A151" s="1"/>
-      <c r="B151" s="2"/>
+      <c r="B151" s="39"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
       <c r="E151" s="1"/>
@@ -5833,7 +6264,7 @@
     </row>
     <row r="152" spans="1:15">
       <c r="A152" s="1"/>
-      <c r="B152" s="2"/>
+      <c r="B152" s="39"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
       <c r="E152" s="1"/>
@@ -5850,7 +6281,7 @@
     </row>
     <row r="153" spans="1:15">
       <c r="A153" s="1"/>
-      <c r="B153" s="2"/>
+      <c r="B153" s="39"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
       <c r="E153" s="1"/>
@@ -5867,7 +6298,7 @@
     </row>
     <row r="154" spans="1:15">
       <c r="A154" s="1"/>
-      <c r="B154" s="2"/>
+      <c r="B154" s="39"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
       <c r="E154" s="1"/>
@@ -5884,7 +6315,7 @@
     </row>
     <row r="155" spans="1:15">
       <c r="A155" s="1"/>
-      <c r="B155" s="2"/>
+      <c r="B155" s="39"/>
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
       <c r="E155" s="1"/>
@@ -5901,7 +6332,7 @@
     </row>
     <row r="156" spans="1:15">
       <c r="A156" s="1"/>
-      <c r="B156" s="2"/>
+      <c r="B156" s="39"/>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
       <c r="E156" s="1"/>
@@ -5918,7 +6349,7 @@
     </row>
     <row r="157" spans="1:15">
       <c r="A157" s="1"/>
-      <c r="B157" s="2"/>
+      <c r="B157" s="39"/>
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
       <c r="E157" s="1"/>
@@ -5935,7 +6366,7 @@
     </row>
     <row r="158" spans="1:15">
       <c r="A158" s="1"/>
-      <c r="B158" s="2"/>
+      <c r="B158" s="39"/>
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
       <c r="E158" s="1"/>
@@ -5952,7 +6383,7 @@
     </row>
     <row r="159" spans="1:15">
       <c r="A159" s="1"/>
-      <c r="B159" s="2"/>
+      <c r="B159" s="39"/>
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
       <c r="E159" s="1"/>
@@ -5969,7 +6400,7 @@
     </row>
     <row r="160" spans="1:15">
       <c r="A160" s="1"/>
-      <c r="B160" s="2"/>
+      <c r="B160" s="39"/>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
       <c r="E160" s="1"/>
@@ -5986,7 +6417,7 @@
     </row>
     <row r="161" spans="1:15">
       <c r="A161" s="1"/>
-      <c r="B161" s="2"/>
+      <c r="B161" s="39"/>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
       <c r="E161" s="1"/>
@@ -6003,7 +6434,7 @@
     </row>
     <row r="162" spans="1:15">
       <c r="A162" s="1"/>
-      <c r="B162" s="2"/>
+      <c r="B162" s="39"/>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
       <c r="E162" s="1"/>
@@ -6020,7 +6451,7 @@
     </row>
     <row r="163" spans="1:15">
       <c r="A163" s="1"/>
-      <c r="B163" s="2"/>
+      <c r="B163" s="39"/>
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
       <c r="E163" s="1"/>
@@ -6037,7 +6468,7 @@
     </row>
     <row r="164" spans="1:15">
       <c r="A164" s="1"/>
-      <c r="B164" s="2"/>
+      <c r="B164" s="39"/>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
       <c r="E164" s="1"/>
@@ -6054,7 +6485,7 @@
     </row>
     <row r="165" spans="1:15">
       <c r="A165" s="1"/>
-      <c r="B165" s="2"/>
+      <c r="B165" s="39"/>
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
       <c r="E165" s="1"/>
@@ -6071,7 +6502,7 @@
     </row>
     <row r="166" spans="1:15">
       <c r="A166" s="1"/>
-      <c r="B166" s="2"/>
+      <c r="B166" s="39"/>
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
       <c r="E166" s="1"/>
@@ -6088,7 +6519,7 @@
     </row>
     <row r="167" spans="1:15">
       <c r="A167" s="1"/>
-      <c r="B167" s="2"/>
+      <c r="B167" s="39"/>
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
       <c r="E167" s="1"/>
@@ -6105,7 +6536,7 @@
     </row>
     <row r="168" spans="1:15">
       <c r="A168" s="1"/>
-      <c r="B168" s="2"/>
+      <c r="B168" s="39"/>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
       <c r="E168" s="1"/>
@@ -6122,7 +6553,7 @@
     </row>
     <row r="169" spans="1:15">
       <c r="A169" s="1"/>
-      <c r="B169" s="2"/>
+      <c r="B169" s="39"/>
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
       <c r="E169" s="1"/>
@@ -6139,7 +6570,7 @@
     </row>
     <row r="170" spans="1:15">
       <c r="A170" s="1"/>
-      <c r="B170" s="2"/>
+      <c r="B170" s="39"/>
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
       <c r="E170" s="1"/>
@@ -6156,7 +6587,7 @@
     </row>
     <row r="171" spans="1:15">
       <c r="A171" s="1"/>
-      <c r="B171" s="2"/>
+      <c r="B171" s="39"/>
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
       <c r="E171" s="1"/>
@@ -6173,7 +6604,7 @@
     </row>
     <row r="172" spans="1:15">
       <c r="A172" s="1"/>
-      <c r="B172" s="2"/>
+      <c r="B172" s="39"/>
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
       <c r="E172" s="1"/>
@@ -6190,7 +6621,7 @@
     </row>
     <row r="173" spans="1:15">
       <c r="A173" s="1"/>
-      <c r="B173" s="2"/>
+      <c r="B173" s="39"/>
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
       <c r="E173" s="1"/>
@@ -6207,7 +6638,7 @@
     </row>
     <row r="174" spans="1:15">
       <c r="A174" s="1"/>
-      <c r="B174" s="2"/>
+      <c r="B174" s="39"/>
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
       <c r="E174" s="1"/>
@@ -6224,7 +6655,7 @@
     </row>
     <row r="175" spans="1:15">
       <c r="A175" s="1"/>
-      <c r="B175" s="2"/>
+      <c r="B175" s="39"/>
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
       <c r="E175" s="1"/>
@@ -6241,7 +6672,7 @@
     </row>
     <row r="176" spans="1:15">
       <c r="A176" s="1"/>
-      <c r="B176" s="2"/>
+      <c r="B176" s="39"/>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
       <c r="E176" s="1"/>
@@ -6258,7 +6689,7 @@
     </row>
     <row r="177" spans="1:15">
       <c r="A177" s="1"/>
-      <c r="B177" s="2"/>
+      <c r="B177" s="39"/>
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
       <c r="E177" s="1"/>
@@ -6275,7 +6706,7 @@
     </row>
     <row r="178" spans="1:15">
       <c r="A178" s="1"/>
-      <c r="B178" s="2"/>
+      <c r="B178" s="39"/>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
       <c r="E178" s="1"/>
@@ -6292,7 +6723,7 @@
     </row>
     <row r="179" spans="1:15">
       <c r="A179" s="1"/>
-      <c r="B179" s="2"/>
+      <c r="B179" s="39"/>
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
       <c r="E179" s="1"/>
@@ -6309,7 +6740,7 @@
     </row>
     <row r="180" spans="1:15">
       <c r="A180" s="1"/>
-      <c r="B180" s="2"/>
+      <c r="B180" s="39"/>
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
       <c r="E180" s="1"/>
@@ -6326,7 +6757,7 @@
     </row>
     <row r="181" spans="1:15">
       <c r="A181" s="1"/>
-      <c r="B181" s="2"/>
+      <c r="B181" s="39"/>
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
       <c r="E181" s="1"/>
@@ -6343,7 +6774,7 @@
     </row>
     <row r="182" spans="1:15">
       <c r="A182" s="1"/>
-      <c r="B182" s="2"/>
+      <c r="B182" s="39"/>
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
       <c r="E182" s="1"/>
@@ -6360,7 +6791,7 @@
     </row>
     <row r="183" spans="1:15">
       <c r="A183" s="1"/>
-      <c r="B183" s="2"/>
+      <c r="B183" s="39"/>
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
       <c r="E183" s="1"/>
@@ -6377,7 +6808,7 @@
     </row>
     <row r="184" spans="1:15">
       <c r="A184" s="1"/>
-      <c r="B184" s="2"/>
+      <c r="B184" s="39"/>
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
       <c r="E184" s="1"/>
@@ -6394,7 +6825,7 @@
     </row>
     <row r="185" spans="1:15">
       <c r="A185" s="1"/>
-      <c r="B185" s="2"/>
+      <c r="B185" s="39"/>
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
       <c r="E185" s="1"/>
@@ -6411,7 +6842,7 @@
     </row>
     <row r="186" spans="1:15">
       <c r="A186" s="1"/>
-      <c r="B186" s="2"/>
+      <c r="B186" s="39"/>
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
       <c r="E186" s="1"/>
@@ -6428,7 +6859,7 @@
     </row>
     <row r="187" spans="1:15">
       <c r="A187" s="1"/>
-      <c r="B187" s="2"/>
+      <c r="B187" s="39"/>
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
       <c r="E187" s="1"/>
@@ -6445,7 +6876,7 @@
     </row>
     <row r="188" spans="1:15">
       <c r="A188" s="1"/>
-      <c r="B188" s="2"/>
+      <c r="B188" s="39"/>
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
       <c r="E188" s="1"/>
@@ -6462,7 +6893,7 @@
     </row>
     <row r="189" spans="1:15">
       <c r="A189" s="1"/>
-      <c r="B189" s="2"/>
+      <c r="B189" s="39"/>
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
       <c r="E189" s="1"/>
@@ -6479,7 +6910,7 @@
     </row>
     <row r="190" spans="1:15">
       <c r="A190" s="1"/>
-      <c r="B190" s="2"/>
+      <c r="B190" s="39"/>
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
       <c r="E190" s="1"/>
@@ -6496,7 +6927,7 @@
     </row>
     <row r="191" spans="1:15">
       <c r="A191" s="1"/>
-      <c r="B191" s="2"/>
+      <c r="B191" s="39"/>
       <c r="C191" s="1"/>
       <c r="D191" s="1"/>
       <c r="E191" s="1"/>
@@ -6513,7 +6944,7 @@
     </row>
     <row r="192" spans="1:15">
       <c r="A192" s="1"/>
-      <c r="B192" s="2"/>
+      <c r="B192" s="39"/>
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
       <c r="E192" s="1"/>
@@ -6530,7 +6961,7 @@
     </row>
     <row r="193" spans="1:15">
       <c r="A193" s="1"/>
-      <c r="B193" s="2"/>
+      <c r="B193" s="39"/>
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
       <c r="E193" s="1"/>
@@ -6547,7 +6978,7 @@
     </row>
     <row r="194" spans="1:15">
       <c r="A194" s="1"/>
-      <c r="B194" s="2"/>
+      <c r="B194" s="39"/>
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
       <c r="E194" s="1"/>
@@ -6564,7 +6995,7 @@
     </row>
     <row r="195" spans="1:15">
       <c r="A195" s="1"/>
-      <c r="B195" s="2"/>
+      <c r="B195" s="39"/>
       <c r="C195" s="1"/>
       <c r="D195" s="1"/>
       <c r="E195" s="1"/>
@@ -6581,7 +7012,7 @@
     </row>
     <row r="196" spans="1:15">
       <c r="A196" s="1"/>
-      <c r="B196" s="2"/>
+      <c r="B196" s="39"/>
       <c r="C196" s="1"/>
       <c r="D196" s="1"/>
       <c r="E196" s="1"/>
@@ -6598,7 +7029,7 @@
     </row>
     <row r="197" spans="1:15">
       <c r="A197" s="1"/>
-      <c r="B197" s="2"/>
+      <c r="B197" s="39"/>
       <c r="C197" s="1"/>
       <c r="D197" s="1"/>
       <c r="E197" s="1"/>
@@ -6615,7 +7046,7 @@
     </row>
     <row r="198" spans="1:15">
       <c r="A198" s="1"/>
-      <c r="B198" s="2"/>
+      <c r="B198" s="39"/>
       <c r="C198" s="1"/>
       <c r="D198" s="1"/>
       <c r="E198" s="1"/>
@@ -6632,7 +7063,7 @@
     </row>
     <row r="199" spans="1:15">
       <c r="A199" s="1"/>
-      <c r="B199" s="2"/>
+      <c r="B199" s="39"/>
       <c r="C199" s="1"/>
       <c r="D199" s="1"/>
       <c r="E199" s="1"/>
@@ -6649,7 +7080,7 @@
     </row>
     <row r="200" spans="1:15">
       <c r="A200" s="1"/>
-      <c r="B200" s="2"/>
+      <c r="B200" s="39"/>
       <c r="C200" s="1"/>
       <c r="D200" s="1"/>
       <c r="E200" s="1"/>
@@ -6666,7 +7097,7 @@
     </row>
     <row r="201" spans="1:15">
       <c r="A201" s="1"/>
-      <c r="B201" s="2"/>
+      <c r="B201" s="39"/>
       <c r="C201" s="1"/>
       <c r="D201" s="1"/>
       <c r="E201" s="1"/>
@@ -6683,7 +7114,7 @@
     </row>
     <row r="202" spans="1:15">
       <c r="A202" s="1"/>
-      <c r="B202" s="2"/>
+      <c r="B202" s="39"/>
       <c r="C202" s="1"/>
       <c r="D202" s="1"/>
       <c r="E202" s="1"/>
@@ -6700,7 +7131,7 @@
     </row>
     <row r="203" spans="1:15">
       <c r="A203" s="1"/>
-      <c r="B203" s="2"/>
+      <c r="B203" s="39"/>
       <c r="C203" s="1"/>
       <c r="D203" s="1"/>
       <c r="E203" s="1"/>
@@ -6717,7 +7148,7 @@
     </row>
     <row r="204" spans="1:15">
       <c r="A204" s="1"/>
-      <c r="B204" s="2"/>
+      <c r="B204" s="39"/>
       <c r="C204" s="1"/>
       <c r="D204" s="1"/>
       <c r="E204" s="1"/>
@@ -6734,7 +7165,7 @@
     </row>
     <row r="205" spans="1:15">
       <c r="A205" s="1"/>
-      <c r="B205" s="2"/>
+      <c r="B205" s="39"/>
       <c r="C205" s="1"/>
       <c r="D205" s="1"/>
       <c r="E205" s="1"/>
@@ -6751,7 +7182,7 @@
     </row>
     <row r="206" spans="1:15">
       <c r="A206" s="1"/>
-      <c r="B206" s="2"/>
+      <c r="B206" s="39"/>
       <c r="C206" s="1"/>
       <c r="D206" s="1"/>
       <c r="E206" s="1"/>
@@ -6768,7 +7199,7 @@
     </row>
     <row r="207" spans="1:15">
       <c r="A207" s="1"/>
-      <c r="B207" s="2"/>
+      <c r="B207" s="39"/>
       <c r="C207" s="1"/>
       <c r="D207" s="1"/>
       <c r="E207" s="1"/>
@@ -6785,7 +7216,7 @@
     </row>
     <row r="208" spans="1:15">
       <c r="A208" s="1"/>
-      <c r="B208" s="2"/>
+      <c r="B208" s="39"/>
       <c r="C208" s="1"/>
       <c r="D208" s="1"/>
       <c r="E208" s="1"/>
@@ -6802,7 +7233,7 @@
     </row>
     <row r="209" spans="1:15">
       <c r="A209" s="1"/>
-      <c r="B209" s="2"/>
+      <c r="B209" s="39"/>
       <c r="C209" s="1"/>
       <c r="D209" s="1"/>
       <c r="E209" s="1"/>
@@ -6819,7 +7250,7 @@
     </row>
     <row r="210" spans="1:15">
       <c r="A210" s="1"/>
-      <c r="B210" s="2"/>
+      <c r="B210" s="39"/>
       <c r="C210" s="1"/>
       <c r="D210" s="1"/>
       <c r="E210" s="1"/>
@@ -6836,7 +7267,7 @@
     </row>
     <row r="211" spans="1:15">
       <c r="A211" s="1"/>
-      <c r="B211" s="2"/>
+      <c r="B211" s="39"/>
       <c r="C211" s="1"/>
       <c r="D211" s="1"/>
       <c r="E211" s="1"/>
@@ -6853,7 +7284,7 @@
     </row>
     <row r="212" spans="1:15">
       <c r="A212" s="1"/>
-      <c r="B212" s="2"/>
+      <c r="B212" s="39"/>
       <c r="C212" s="1"/>
       <c r="D212" s="1"/>
       <c r="E212" s="1"/>
@@ -6870,7 +7301,7 @@
     </row>
     <row r="213" spans="1:15">
       <c r="A213" s="1"/>
-      <c r="B213" s="2"/>
+      <c r="B213" s="39"/>
       <c r="C213" s="1"/>
       <c r="D213" s="1"/>
       <c r="E213" s="1"/>
@@ -6887,7 +7318,7 @@
     </row>
     <row r="214" spans="1:15">
       <c r="A214" s="1"/>
-      <c r="B214" s="2"/>
+      <c r="B214" s="39"/>
       <c r="C214" s="1"/>
       <c r="D214" s="1"/>
       <c r="E214" s="1"/>
@@ -6904,7 +7335,7 @@
     </row>
     <row r="215" spans="1:15">
       <c r="A215" s="1"/>
-      <c r="B215" s="2"/>
+      <c r="B215" s="39"/>
       <c r="C215" s="1"/>
       <c r="D215" s="1"/>
       <c r="E215" s="1"/>
@@ -6921,7 +7352,7 @@
     </row>
     <row r="216" spans="1:15">
       <c r="A216" s="1"/>
-      <c r="B216" s="2"/>
+      <c r="B216" s="39"/>
       <c r="C216" s="1"/>
       <c r="D216" s="1"/>
       <c r="E216" s="1"/>
@@ -6938,7 +7369,7 @@
     </row>
     <row r="217" spans="1:15">
       <c r="A217" s="1"/>
-      <c r="B217" s="2"/>
+      <c r="B217" s="39"/>
       <c r="C217" s="1"/>
       <c r="D217" s="1"/>
       <c r="E217" s="1"/>
@@ -6955,7 +7386,7 @@
     </row>
     <row r="218" spans="1:15">
       <c r="A218" s="1"/>
-      <c r="B218" s="2"/>
+      <c r="B218" s="39"/>
       <c r="C218" s="1"/>
       <c r="D218" s="1"/>
       <c r="E218" s="1"/>
@@ -6972,7 +7403,7 @@
     </row>
     <row r="219" spans="1:15">
       <c r="A219" s="1"/>
-      <c r="B219" s="2"/>
+      <c r="B219" s="39"/>
       <c r="C219" s="1"/>
       <c r="D219" s="1"/>
       <c r="E219" s="1"/>
@@ -6989,7 +7420,7 @@
     </row>
     <row r="220" spans="1:15">
       <c r="A220" s="1"/>
-      <c r="B220" s="2"/>
+      <c r="B220" s="39"/>
       <c r="C220" s="1"/>
       <c r="D220" s="1"/>
       <c r="E220" s="1"/>
@@ -7006,7 +7437,7 @@
     </row>
     <row r="221" spans="1:15">
       <c r="A221" s="1"/>
-      <c r="B221" s="2"/>
+      <c r="B221" s="39"/>
       <c r="C221" s="1"/>
       <c r="D221" s="1"/>
       <c r="E221" s="1"/>
@@ -7023,7 +7454,7 @@
     </row>
     <row r="222" spans="1:15">
       <c r="A222" s="1"/>
-      <c r="B222" s="2"/>
+      <c r="B222" s="39"/>
       <c r="C222" s="1"/>
       <c r="D222" s="1"/>
       <c r="E222" s="1"/>
@@ -7040,7 +7471,7 @@
     </row>
     <row r="223" spans="1:15">
       <c r="A223" s="1"/>
-      <c r="B223" s="2"/>
+      <c r="B223" s="39"/>
       <c r="C223" s="1"/>
       <c r="D223" s="1"/>
       <c r="E223" s="1"/>
@@ -7057,7 +7488,7 @@
     </row>
     <row r="224" spans="1:15">
       <c r="A224" s="1"/>
-      <c r="B224" s="2"/>
+      <c r="B224" s="39"/>
       <c r="C224" s="1"/>
       <c r="D224" s="1"/>
       <c r="E224" s="1"/>
@@ -7074,7 +7505,7 @@
     </row>
     <row r="225" spans="1:15">
       <c r="A225" s="1"/>
-      <c r="B225" s="2"/>
+      <c r="B225" s="39"/>
       <c r="C225" s="1"/>
       <c r="D225" s="1"/>
       <c r="E225" s="1"/>
@@ -7091,7 +7522,7 @@
     </row>
     <row r="226" spans="1:15">
       <c r="A226" s="1"/>
-      <c r="B226" s="2"/>
+      <c r="B226" s="39"/>
       <c r="C226" s="1"/>
       <c r="D226" s="1"/>
       <c r="E226" s="1"/>
@@ -7108,7 +7539,7 @@
     </row>
     <row r="227" spans="1:15">
       <c r="A227" s="1"/>
-      <c r="B227" s="2"/>
+      <c r="B227" s="39"/>
       <c r="C227" s="1"/>
       <c r="D227" s="1"/>
       <c r="E227" s="1"/>
@@ -7125,7 +7556,7 @@
     </row>
     <row r="228" spans="1:15">
       <c r="A228" s="1"/>
-      <c r="B228" s="2"/>
+      <c r="B228" s="39"/>
       <c r="C228" s="1"/>
       <c r="D228" s="1"/>
       <c r="E228" s="1"/>
@@ -7142,7 +7573,7 @@
     </row>
     <row r="229" spans="1:15">
       <c r="A229" s="1"/>
-      <c r="B229" s="2"/>
+      <c r="B229" s="39"/>
       <c r="C229" s="1"/>
       <c r="D229" s="1"/>
       <c r="E229" s="1"/>
@@ -7159,7 +7590,7 @@
     </row>
     <row r="230" spans="1:15">
       <c r="A230" s="1"/>
-      <c r="B230" s="2"/>
+      <c r="B230" s="39"/>
       <c r="C230" s="1"/>
       <c r="D230" s="1"/>
       <c r="E230" s="1"/>
@@ -7176,7 +7607,7 @@
     </row>
     <row r="231" spans="1:15">
       <c r="A231" s="1"/>
-      <c r="B231" s="2"/>
+      <c r="B231" s="39"/>
       <c r="C231" s="1"/>
       <c r="D231" s="1"/>
       <c r="E231" s="1"/>
@@ -7193,7 +7624,7 @@
     </row>
     <row r="232" spans="1:15">
       <c r="A232" s="1"/>
-      <c r="B232" s="2"/>
+      <c r="B232" s="39"/>
       <c r="C232" s="1"/>
       <c r="D232" s="1"/>
       <c r="E232" s="1"/>
@@ -7210,7 +7641,7 @@
     </row>
     <row r="233" spans="1:15">
       <c r="A233" s="1"/>
-      <c r="B233" s="2"/>
+      <c r="B233" s="39"/>
       <c r="C233" s="1"/>
       <c r="D233" s="1"/>
       <c r="E233" s="1"/>
@@ -7227,7 +7658,7 @@
     </row>
     <row r="234" spans="1:15">
       <c r="A234" s="1"/>
-      <c r="B234" s="2"/>
+      <c r="B234" s="39"/>
       <c r="C234" s="1"/>
       <c r="D234" s="1"/>
       <c r="E234" s="1"/>
@@ -7244,7 +7675,7 @@
     </row>
     <row r="235" spans="1:15">
       <c r="A235" s="1"/>
-      <c r="B235" s="2"/>
+      <c r="B235" s="39"/>
       <c r="C235" s="1"/>
       <c r="D235" s="1"/>
       <c r="E235" s="1"/>
@@ -7261,7 +7692,7 @@
     </row>
     <row r="236" spans="1:15">
       <c r="A236" s="1"/>
-      <c r="B236" s="2"/>
+      <c r="B236" s="39"/>
       <c r="C236" s="1"/>
       <c r="D236" s="1"/>
       <c r="E236" s="1"/>
@@ -7278,7 +7709,7 @@
     </row>
     <row r="237" spans="1:15">
       <c r="A237" s="1"/>
-      <c r="B237" s="2"/>
+      <c r="B237" s="39"/>
       <c r="C237" s="1"/>
       <c r="D237" s="1"/>
       <c r="E237" s="1"/>
@@ -7295,7 +7726,7 @@
     </row>
     <row r="238" spans="1:15">
       <c r="A238" s="1"/>
-      <c r="B238" s="2"/>
+      <c r="B238" s="39"/>
       <c r="C238" s="1"/>
       <c r="D238" s="1"/>
       <c r="E238" s="1"/>
@@ -7312,7 +7743,7 @@
     </row>
     <row r="239" spans="1:15">
       <c r="A239" s="1"/>
-      <c r="B239" s="2"/>
+      <c r="B239" s="39"/>
       <c r="C239" s="1"/>
       <c r="D239" s="1"/>
       <c r="E239" s="1"/>
@@ -7329,7 +7760,7 @@
     </row>
     <row r="240" spans="1:15">
       <c r="A240" s="1"/>
-      <c r="B240" s="2"/>
+      <c r="B240" s="39"/>
       <c r="C240" s="1"/>
       <c r="D240" s="1"/>
       <c r="E240" s="1"/>
@@ -7346,7 +7777,7 @@
     </row>
     <row r="241" spans="1:15">
       <c r="A241" s="1"/>
-      <c r="B241" s="2"/>
+      <c r="B241" s="39"/>
       <c r="C241" s="1"/>
       <c r="D241" s="1"/>
       <c r="E241" s="1"/>
@@ -7363,7 +7794,7 @@
     </row>
     <row r="242" spans="1:15">
       <c r="A242" s="1"/>
-      <c r="B242" s="2"/>
+      <c r="B242" s="39"/>
       <c r="C242" s="1"/>
       <c r="D242" s="1"/>
       <c r="E242" s="1"/>
@@ -7380,7 +7811,7 @@
     </row>
     <row r="243" spans="1:15">
       <c r="A243" s="1"/>
-      <c r="B243" s="2"/>
+      <c r="B243" s="39"/>
       <c r="C243" s="1"/>
       <c r="D243" s="1"/>
       <c r="E243" s="1"/>
@@ -7397,7 +7828,7 @@
     </row>
     <row r="244" spans="1:15">
       <c r="A244" s="1"/>
-      <c r="B244" s="2"/>
+      <c r="B244" s="39"/>
       <c r="C244" s="1"/>
       <c r="D244" s="1"/>
       <c r="E244" s="1"/>
@@ -7414,7 +7845,7 @@
     </row>
     <row r="245" spans="1:15">
       <c r="A245" s="1"/>
-      <c r="B245" s="2"/>
+      <c r="B245" s="39"/>
       <c r="C245" s="1"/>
       <c r="D245" s="1"/>
       <c r="E245" s="1"/>
@@ -7431,7 +7862,7 @@
     </row>
     <row r="246" spans="1:15">
       <c r="A246" s="1"/>
-      <c r="B246" s="2"/>
+      <c r="B246" s="39"/>
       <c r="C246" s="1"/>
       <c r="D246" s="1"/>
       <c r="E246" s="1"/>
@@ -7448,7 +7879,7 @@
     </row>
     <row r="247" spans="1:15">
       <c r="A247" s="1"/>
-      <c r="B247" s="2"/>
+      <c r="B247" s="39"/>
       <c r="C247" s="1"/>
       <c r="D247" s="1"/>
       <c r="E247" s="1"/>
@@ -7465,7 +7896,7 @@
     </row>
     <row r="248" spans="1:15">
       <c r="A248" s="1"/>
-      <c r="B248" s="2"/>
+      <c r="B248" s="39"/>
       <c r="C248" s="1"/>
       <c r="D248" s="1"/>
       <c r="E248" s="1"/>
@@ -7482,7 +7913,7 @@
     </row>
     <row r="249" spans="1:15">
       <c r="A249" s="1"/>
-      <c r="B249" s="2"/>
+      <c r="B249" s="39"/>
       <c r="C249" s="1"/>
       <c r="D249" s="1"/>
       <c r="E249" s="1"/>
@@ -7499,7 +7930,7 @@
     </row>
     <row r="250" spans="1:15">
       <c r="A250" s="1"/>
-      <c r="B250" s="2"/>
+      <c r="B250" s="39"/>
       <c r="C250" s="1"/>
       <c r="D250" s="1"/>
       <c r="E250" s="1"/>
@@ -7516,7 +7947,7 @@
     </row>
     <row r="251" spans="1:15">
       <c r="A251" s="1"/>
-      <c r="B251" s="2"/>
+      <c r="B251" s="39"/>
       <c r="C251" s="1"/>
       <c r="D251" s="1"/>
       <c r="E251" s="1"/>
@@ -7533,7 +7964,7 @@
     </row>
     <row r="252" spans="1:15">
       <c r="A252" s="1"/>
-      <c r="B252" s="2"/>
+      <c r="B252" s="39"/>
       <c r="C252" s="1"/>
       <c r="D252" s="1"/>
       <c r="E252" s="1"/>
@@ -7550,7 +7981,7 @@
     </row>
     <row r="253" spans="1:15">
       <c r="A253" s="1"/>
-      <c r="B253" s="2"/>
+      <c r="B253" s="39"/>
       <c r="C253" s="1"/>
       <c r="D253" s="1"/>
       <c r="E253" s="1"/>
@@ -7567,7 +7998,7 @@
     </row>
     <row r="254" spans="1:15">
       <c r="A254" s="1"/>
-      <c r="B254" s="2"/>
+      <c r="B254" s="39"/>
       <c r="C254" s="1"/>
       <c r="D254" s="1"/>
       <c r="E254" s="1"/>
@@ -7584,7 +8015,7 @@
     </row>
     <row r="255" spans="1:15">
       <c r="A255" s="1"/>
-      <c r="B255" s="2"/>
+      <c r="B255" s="39"/>
       <c r="C255" s="1"/>
       <c r="D255" s="1"/>
       <c r="E255" s="1"/>
@@ -7601,7 +8032,7 @@
     </row>
     <row r="256" spans="1:15">
       <c r="A256" s="1"/>
-      <c r="B256" s="2"/>
+      <c r="B256" s="39"/>
       <c r="C256" s="1"/>
       <c r="D256" s="1"/>
       <c r="E256" s="1"/>
@@ -7618,7 +8049,7 @@
     </row>
     <row r="257" spans="1:15">
       <c r="A257" s="1"/>
-      <c r="B257" s="2"/>
+      <c r="B257" s="39"/>
       <c r="C257" s="1"/>
       <c r="D257" s="1"/>
       <c r="E257" s="1"/>
@@ -7635,7 +8066,7 @@
     </row>
     <row r="258" spans="1:15">
       <c r="A258" s="1"/>
-      <c r="B258" s="2"/>
+      <c r="B258" s="39"/>
       <c r="C258" s="1"/>
       <c r="D258" s="1"/>
       <c r="E258" s="1"/>
@@ -7652,7 +8083,7 @@
     </row>
     <row r="259" spans="1:15">
       <c r="A259" s="1"/>
-      <c r="B259" s="2"/>
+      <c r="B259" s="39"/>
       <c r="C259" s="1"/>
       <c r="D259" s="1"/>
       <c r="E259" s="1"/>
@@ -7669,7 +8100,7 @@
     </row>
     <row r="260" spans="1:15">
       <c r="A260" s="1"/>
-      <c r="B260" s="2"/>
+      <c r="B260" s="39"/>
       <c r="C260" s="1"/>
       <c r="D260" s="1"/>
       <c r="E260" s="1"/>
@@ -7686,7 +8117,7 @@
     </row>
     <row r="261" spans="1:15">
       <c r="A261" s="1"/>
-      <c r="B261" s="2"/>
+      <c r="B261" s="39"/>
       <c r="C261" s="1"/>
       <c r="D261" s="1"/>
       <c r="E261" s="1"/>
@@ -7703,7 +8134,7 @@
     </row>
     <row r="262" spans="1:15">
       <c r="A262" s="1"/>
-      <c r="B262" s="2"/>
+      <c r="B262" s="39"/>
       <c r="C262" s="1"/>
       <c r="D262" s="1"/>
       <c r="E262" s="1"/>
@@ -7720,7 +8151,7 @@
     </row>
     <row r="263" spans="1:15">
       <c r="A263" s="1"/>
-      <c r="B263" s="2"/>
+      <c r="B263" s="39"/>
       <c r="C263" s="1"/>
       <c r="D263" s="1"/>
       <c r="E263" s="1"/>
@@ -7737,7 +8168,7 @@
     </row>
     <row r="264" spans="1:15">
       <c r="A264" s="1"/>
-      <c r="B264" s="2"/>
+      <c r="B264" s="39"/>
       <c r="C264" s="1"/>
       <c r="D264" s="1"/>
       <c r="E264" s="1"/>
@@ -7754,7 +8185,7 @@
     </row>
     <row r="265" spans="1:15">
       <c r="A265" s="1"/>
-      <c r="B265" s="2"/>
+      <c r="B265" s="39"/>
       <c r="C265" s="1"/>
       <c r="D265" s="1"/>
       <c r="E265" s="1"/>
@@ -7771,7 +8202,7 @@
     </row>
     <row r="266" spans="1:15">
       <c r="A266" s="1"/>
-      <c r="B266" s="2"/>
+      <c r="B266" s="39"/>
       <c r="C266" s="1"/>
       <c r="D266" s="1"/>
       <c r="E266" s="1"/>
@@ -7788,7 +8219,7 @@
     </row>
     <row r="267" spans="1:15">
       <c r="A267" s="1"/>
-      <c r="B267" s="2"/>
+      <c r="B267" s="39"/>
       <c r="C267" s="1"/>
       <c r="D267" s="1"/>
       <c r="E267" s="1"/>
@@ -7805,7 +8236,7 @@
     </row>
     <row r="268" spans="1:15">
       <c r="A268" s="1"/>
-      <c r="B268" s="2"/>
+      <c r="B268" s="39"/>
       <c r="C268" s="1"/>
       <c r="D268" s="1"/>
       <c r="E268" s="1"/>
@@ -7822,7 +8253,7 @@
     </row>
     <row r="269" spans="1:15">
       <c r="A269" s="1"/>
-      <c r="B269" s="2"/>
+      <c r="B269" s="39"/>
       <c r="C269" s="1"/>
       <c r="D269" s="1"/>
       <c r="E269" s="1"/>
@@ -7839,7 +8270,7 @@
     </row>
     <row r="270" spans="1:15">
       <c r="A270" s="1"/>
-      <c r="B270" s="2"/>
+      <c r="B270" s="39"/>
       <c r="C270" s="1"/>
       <c r="D270" s="1"/>
       <c r="E270" s="1"/>
@@ -7856,7 +8287,7 @@
     </row>
     <row r="271" spans="1:15">
       <c r="A271" s="1"/>
-      <c r="B271" s="2"/>
+      <c r="B271" s="39"/>
       <c r="C271" s="1"/>
       <c r="D271" s="1"/>
       <c r="E271" s="1"/>
@@ -7873,7 +8304,7 @@
     </row>
     <row r="272" spans="1:15">
       <c r="A272" s="1"/>
-      <c r="B272" s="2"/>
+      <c r="B272" s="39"/>
       <c r="C272" s="1"/>
       <c r="D272" s="1"/>
       <c r="E272" s="1"/>
@@ -7890,7 +8321,7 @@
     </row>
     <row r="273" spans="1:15">
       <c r="A273" s="1"/>
-      <c r="B273" s="2"/>
+      <c r="B273" s="39"/>
       <c r="C273" s="1"/>
       <c r="D273" s="1"/>
       <c r="E273" s="1"/>
@@ -7907,7 +8338,7 @@
     </row>
     <row r="274" spans="1:15">
       <c r="A274" s="1"/>
-      <c r="B274" s="2"/>
+      <c r="B274" s="39"/>
       <c r="C274" s="1"/>
       <c r="D274" s="1"/>
       <c r="E274" s="1"/>
@@ -7924,7 +8355,7 @@
     </row>
     <row r="275" spans="1:15">
       <c r="A275" s="1"/>
-      <c r="B275" s="2"/>
+      <c r="B275" s="39"/>
       <c r="C275" s="1"/>
       <c r="D275" s="1"/>
       <c r="E275" s="1"/>
@@ -7941,7 +8372,7 @@
     </row>
     <row r="276" spans="1:15">
       <c r="A276" s="1"/>
-      <c r="B276" s="2"/>
+      <c r="B276" s="39"/>
       <c r="C276" s="1"/>
       <c r="D276" s="1"/>
       <c r="E276" s="1"/>
@@ -7958,7 +8389,7 @@
     </row>
     <row r="277" spans="1:15">
       <c r="A277" s="1"/>
-      <c r="B277" s="2"/>
+      <c r="B277" s="39"/>
       <c r="C277" s="1"/>
       <c r="D277" s="1"/>
       <c r="E277" s="1"/>
@@ -7975,7 +8406,7 @@
     </row>
     <row r="278" spans="1:15">
       <c r="A278" s="1"/>
-      <c r="B278" s="2"/>
+      <c r="B278" s="39"/>
       <c r="C278" s="1"/>
       <c r="D278" s="1"/>
       <c r="E278" s="1"/>
@@ -7992,7 +8423,7 @@
     </row>
     <row r="279" spans="1:15">
       <c r="A279" s="1"/>
-      <c r="B279" s="2"/>
+      <c r="B279" s="39"/>
       <c r="C279" s="1"/>
       <c r="D279" s="1"/>
       <c r="E279" s="1"/>
@@ -8009,7 +8440,7 @@
     </row>
     <row r="280" spans="1:15">
       <c r="A280" s="1"/>
-      <c r="B280" s="2"/>
+      <c r="B280" s="39"/>
       <c r="C280" s="1"/>
       <c r="D280" s="1"/>
       <c r="E280" s="1"/>
@@ -8026,7 +8457,7 @@
     </row>
     <row r="281" spans="1:15">
       <c r="A281" s="1"/>
-      <c r="B281" s="2"/>
+      <c r="B281" s="39"/>
       <c r="C281" s="1"/>
       <c r="D281" s="1"/>
       <c r="E281" s="1"/>
@@ -8043,7 +8474,7 @@
     </row>
     <row r="282" spans="1:15">
       <c r="A282" s="1"/>
-      <c r="B282" s="2"/>
+      <c r="B282" s="39"/>
       <c r="C282" s="1"/>
       <c r="D282" s="1"/>
       <c r="E282" s="1"/>
@@ -8060,7 +8491,7 @@
     </row>
     <row r="283" spans="1:15">
       <c r="A283" s="1"/>
-      <c r="B283" s="2"/>
+      <c r="B283" s="39"/>
       <c r="C283" s="1"/>
       <c r="D283" s="1"/>
       <c r="E283" s="1"/>
@@ -8077,7 +8508,7 @@
     </row>
     <row r="284" spans="1:15">
       <c r="A284" s="1"/>
-      <c r="B284" s="2"/>
+      <c r="B284" s="39"/>
       <c r="C284" s="1"/>
       <c r="D284" s="1"/>
       <c r="E284" s="1"/>
@@ -8094,7 +8525,7 @@
     </row>
     <row r="285" spans="1:15">
       <c r="A285" s="1"/>
-      <c r="B285" s="2"/>
+      <c r="B285" s="39"/>
       <c r="C285" s="1"/>
       <c r="D285" s="1"/>
       <c r="E285" s="1"/>
@@ -8111,7 +8542,7 @@
     </row>
     <row r="286" spans="1:15">
       <c r="A286" s="1"/>
-      <c r="B286" s="2"/>
+      <c r="B286" s="39"/>
       <c r="C286" s="1"/>
       <c r="D286" s="1"/>
       <c r="E286" s="1"/>
@@ -8128,7 +8559,7 @@
     </row>
     <row r="287" spans="1:15">
       <c r="A287" s="1"/>
-      <c r="B287" s="2"/>
+      <c r="B287" s="39"/>
       <c r="C287" s="1"/>
       <c r="D287" s="1"/>
       <c r="E287" s="1"/>
@@ -8145,7 +8576,7 @@
     </row>
     <row r="288" spans="1:15">
       <c r="A288" s="1"/>
-      <c r="B288" s="2"/>
+      <c r="B288" s="39"/>
       <c r="C288" s="1"/>
       <c r="D288" s="1"/>
       <c r="E288" s="1"/>
@@ -8162,7 +8593,7 @@
     </row>
     <row r="289" spans="1:15">
       <c r="A289" s="1"/>
-      <c r="B289" s="2"/>
+      <c r="B289" s="39"/>
       <c r="C289" s="1"/>
       <c r="D289" s="1"/>
       <c r="E289" s="1"/>
@@ -8179,7 +8610,7 @@
     </row>
     <row r="290" spans="1:15">
       <c r="A290" s="1"/>
-      <c r="B290" s="2"/>
+      <c r="B290" s="39"/>
       <c r="C290" s="1"/>
       <c r="D290" s="1"/>
       <c r="E290" s="1"/>
@@ -8196,7 +8627,7 @@
     </row>
     <row r="291" spans="1:15">
       <c r="A291" s="1"/>
-      <c r="B291" s="2"/>
+      <c r="B291" s="39"/>
       <c r="C291" s="1"/>
       <c r="D291" s="1"/>
       <c r="E291" s="1"/>
@@ -8213,7 +8644,7 @@
     </row>
     <row r="292" spans="1:15">
       <c r="A292" s="1"/>
-      <c r="B292" s="2"/>
+      <c r="B292" s="39"/>
       <c r="C292" s="1"/>
       <c r="D292" s="1"/>
       <c r="E292" s="1"/>
@@ -8230,7 +8661,7 @@
     </row>
     <row r="293" spans="1:15">
       <c r="A293" s="1"/>
-      <c r="B293" s="2"/>
+      <c r="B293" s="39"/>
       <c r="C293" s="1"/>
       <c r="D293" s="1"/>
       <c r="E293" s="1"/>
@@ -8247,7 +8678,7 @@
     </row>
     <row r="294" spans="1:15">
       <c r="A294" s="1"/>
-      <c r="B294" s="2"/>
+      <c r="B294" s="39"/>
       <c r="C294" s="1"/>
       <c r="D294" s="1"/>
       <c r="E294" s="1"/>
@@ -8263,12 +8694,13 @@
       <c r="O294" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A13:A17"/>
     <mergeCell ref="A21:A27"/>
+    <mergeCell ref="A28:A32"/>
     <mergeCell ref="B13:B17"/>
     <mergeCell ref="D13:D17"/>
     <mergeCell ref="D24:D25"/>
@@ -8301,589 +8733,589 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="8.625" style="14"/>
-    <col min="2" max="2" width="27.625" style="14" customWidth="1"/>
-    <col min="3" max="3" width="19.125" style="15" customWidth="1"/>
-    <col min="4" max="4" width="35.25" style="16" customWidth="1"/>
+    <col min="1" max="1" width="8.625" style="13"/>
+    <col min="2" max="2" width="27.625" style="13" customWidth="1"/>
+    <col min="3" max="3" width="19.125" style="14" customWidth="1"/>
+    <col min="4" max="4" width="35.25" style="15" customWidth="1"/>
     <col min="5" max="5" width="13.5083333333333" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="11.375" style="17" customWidth="1"/>
+    <col min="7" max="7" width="11.375" style="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>114</v>
+      <c r="C1" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="10">
         <v>51</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="14">
         <v>43087</v>
       </c>
-      <c r="D2" s="23" t="s">
-        <v>115</v>
+      <c r="D2" s="22" t="s">
+        <v>130</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G2" s="24" t="s">
-        <v>118</v>
+        <v>132</v>
+      </c>
+      <c r="G2" s="23" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="9">
         <v>52</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="14">
         <v>43092</v>
       </c>
-      <c r="D3" s="23" t="s">
-        <v>115</v>
+      <c r="D3" s="22" t="s">
+        <v>130</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G3" s="24" t="s">
-        <v>120</v>
+        <v>134</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="9"/>
-      <c r="B4" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="C4" s="15">
+      <c r="B4" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="C4" s="14">
         <v>43098</v>
       </c>
-      <c r="D4" s="23" t="s">
-        <v>122</v>
+      <c r="D4" s="22" t="s">
+        <v>137</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G4" s="26" t="s">
-        <v>123</v>
+        <v>132</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:7">
       <c r="A5" s="10">
         <v>1</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="14">
         <v>43102</v>
       </c>
-      <c r="D5" s="23" t="s">
-        <v>115</v>
+      <c r="D5" s="22" t="s">
+        <v>130</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G5" s="28" t="s">
-        <v>124</v>
+        <v>132</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:7">
       <c r="A6" s="9"/>
-      <c r="B6" s="25"/>
-      <c r="D6" s="29"/>
+      <c r="B6" s="24"/>
+      <c r="D6" s="28"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="30"/>
+      <c r="G6" s="29"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="9"/>
-      <c r="B7" s="25"/>
-      <c r="D7" s="23"/>
+      <c r="B7" s="24"/>
+      <c r="D7" s="22"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="30"/>
+      <c r="G7" s="29"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="10">
         <v>4</v>
       </c>
-      <c r="B8" s="25" t="s">
-        <v>125</v>
-      </c>
-      <c r="C8" s="15">
+      <c r="B8" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="C8" s="14">
         <v>43123</v>
       </c>
-      <c r="D8" s="23" t="s">
-        <v>126</v>
+      <c r="D8" s="22" t="s">
+        <v>141</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G8" s="30" t="s">
-        <v>124</v>
+        <v>134</v>
+      </c>
+      <c r="G8" s="29" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="9"/>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="14">
         <v>43123</v>
       </c>
-      <c r="D9" s="23" t="s">
-        <v>127</v>
+      <c r="D9" s="22" t="s">
+        <v>142</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G9" s="30" t="s">
-        <v>124</v>
+        <v>134</v>
+      </c>
+      <c r="G9" s="29" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="9"/>
-      <c r="B10" s="25"/>
-      <c r="D10" s="23"/>
+      <c r="B10" s="24"/>
+      <c r="D10" s="22"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="30"/>
+      <c r="G10" s="29"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="10">
         <v>6</v>
       </c>
-      <c r="B11" s="25" t="s">
-        <v>128</v>
-      </c>
-      <c r="C11" s="15">
+      <c r="B11" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="C11" s="14">
         <v>43137</v>
       </c>
-      <c r="D11" s="31" t="s">
-        <v>115</v>
+      <c r="D11" s="30" t="s">
+        <v>130</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G11" s="30" t="s">
-        <v>129</v>
+        <v>132</v>
+      </c>
+      <c r="G11" s="29" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="9"/>
-      <c r="B12" s="25"/>
-      <c r="D12" s="23"/>
+      <c r="B12" s="24"/>
+      <c r="D12" s="22"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="30"/>
+      <c r="G12" s="29"/>
     </row>
     <row r="13" ht="14.25" spans="1:7">
-      <c r="A13" s="12">
+      <c r="A13" s="11">
         <v>13</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="14">
         <v>43189</v>
       </c>
-      <c r="D13" s="32" t="s">
-        <v>115</v>
+      <c r="D13" s="31" t="s">
+        <v>130</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G13" s="30" t="s">
-        <v>120</v>
+        <v>132</v>
+      </c>
+      <c r="G13" s="29" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="12"/>
-      <c r="B14" s="25"/>
-      <c r="D14" s="23"/>
+      <c r="A14" s="11"/>
+      <c r="B14" s="24"/>
+      <c r="D14" s="22"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="30"/>
+      <c r="G14" s="29"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="12">
+      <c r="A15" s="11">
         <v>14</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C15" s="14">
         <v>43194</v>
       </c>
-      <c r="D15" s="23" t="s">
-        <v>115</v>
+      <c r="D15" s="22" t="s">
+        <v>130</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G15" s="30" t="s">
-        <v>129</v>
+        <v>132</v>
+      </c>
+      <c r="G15" s="29" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="12">
+      <c r="A16" s="11">
         <v>15</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="C16" s="15">
+      <c r="C16" s="14">
         <v>43203</v>
       </c>
-      <c r="D16" s="23" t="s">
-        <v>115</v>
+      <c r="D16" s="22" t="s">
+        <v>130</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G16" s="30" t="s">
-        <v>129</v>
+        <v>132</v>
+      </c>
+      <c r="G16" s="29" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="10">
         <v>16</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="C17" s="15">
+      <c r="C17" s="14">
         <v>43206</v>
       </c>
-      <c r="D17" s="23" t="s">
-        <v>115</v>
+      <c r="D17" s="22" t="s">
+        <v>130</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G17" s="30" t="s">
-        <v>130</v>
+        <v>132</v>
+      </c>
+      <c r="G17" s="29" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="9"/>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="C18" s="15">
+      <c r="C18" s="14">
         <v>43207</v>
       </c>
-      <c r="D18" s="23" t="s">
-        <v>115</v>
+      <c r="D18" s="22" t="s">
+        <v>130</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G18" s="30" t="s">
-        <v>120</v>
+        <v>132</v>
+      </c>
+      <c r="G18" s="29" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="9"/>
-      <c r="B19" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="C19" s="15">
+      <c r="B19" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="C19" s="14">
         <v>43209</v>
       </c>
-      <c r="D19" s="23" t="s">
+      <c r="D19" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G19" s="30" t="s">
-        <v>134</v>
+      <c r="G19" s="29" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="9"/>
-      <c r="B20" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="C20" s="15">
+      <c r="B20" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="C20" s="14">
         <v>43209</v>
       </c>
-      <c r="D20" s="23" t="s">
-        <v>115</v>
+      <c r="D20" s="22" t="s">
+        <v>130</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G20" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="G20" s="29" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="12"/>
+      <c r="B21" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="C21" s="14">
+        <v>43211</v>
+      </c>
+      <c r="D21" s="22" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="13"/>
-      <c r="B21" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="C21" s="15">
-        <v>43211</v>
-      </c>
-      <c r="D21" s="23" t="s">
-        <v>115</v>
-      </c>
       <c r="E21" s="1" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G21" s="30" t="s">
-        <v>130</v>
+        <v>132</v>
+      </c>
+      <c r="G21" s="29" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
-      <c r="D22" s="23"/>
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
+      <c r="D22" s="22"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-      <c r="G22" s="30"/>
+      <c r="G22" s="29"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12"/>
-      <c r="D23" s="23"/>
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="D23" s="22"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="30"/>
+      <c r="G23" s="29"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12"/>
-      <c r="D24" s="23"/>
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="D24" s="22"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
-      <c r="G24" s="30"/>
+      <c r="G24" s="29"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="12"/>
-      <c r="B25" s="12"/>
-      <c r="D25" s="23"/>
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="D25" s="22"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
-      <c r="G25" s="30"/>
+      <c r="G25" s="29"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="12"/>
-      <c r="B26" s="12"/>
-      <c r="D26" s="23"/>
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
+      <c r="D26" s="22"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
-      <c r="G26" s="30"/>
+      <c r="G26" s="29"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12"/>
-      <c r="D27" s="23"/>
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
+      <c r="D27" s="22"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
-      <c r="G27" s="30"/>
+      <c r="G27" s="29"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="12"/>
-      <c r="B28" s="12"/>
-      <c r="D28" s="23"/>
+      <c r="A28" s="11"/>
+      <c r="B28" s="11"/>
+      <c r="D28" s="22"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
-      <c r="G28" s="30"/>
+      <c r="G28" s="29"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="12"/>
-      <c r="B29" s="12"/>
-      <c r="D29" s="23"/>
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
+      <c r="D29" s="22"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
-      <c r="G29" s="30"/>
+      <c r="G29" s="29"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="12"/>
-      <c r="B30" s="12"/>
-      <c r="D30" s="23"/>
+      <c r="A30" s="11"/>
+      <c r="B30" s="11"/>
+      <c r="D30" s="22"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
-      <c r="G30" s="30"/>
+      <c r="G30" s="29"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="12"/>
-      <c r="B31" s="12"/>
-      <c r="D31" s="23"/>
+      <c r="A31" s="11"/>
+      <c r="B31" s="11"/>
+      <c r="D31" s="22"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
-      <c r="G31" s="30"/>
+      <c r="G31" s="29"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="12"/>
-      <c r="B32" s="12"/>
-      <c r="D32" s="23"/>
+      <c r="A32" s="11"/>
+      <c r="B32" s="11"/>
+      <c r="D32" s="22"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
-      <c r="G32" s="30"/>
+      <c r="G32" s="29"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="12"/>
-      <c r="B33" s="12"/>
-      <c r="D33" s="23"/>
+      <c r="A33" s="11"/>
+      <c r="B33" s="11"/>
+      <c r="D33" s="22"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
-      <c r="G33" s="30"/>
+      <c r="G33" s="29"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="12"/>
-      <c r="B34" s="12"/>
-      <c r="D34" s="23"/>
+      <c r="A34" s="11"/>
+      <c r="B34" s="11"/>
+      <c r="D34" s="22"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
-      <c r="G34" s="30"/>
+      <c r="G34" s="29"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="12"/>
-      <c r="B35" s="12"/>
-      <c r="D35" s="23"/>
+      <c r="A35" s="11"/>
+      <c r="B35" s="11"/>
+      <c r="D35" s="22"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
-      <c r="G35" s="30"/>
+      <c r="G35" s="29"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="12"/>
-      <c r="B36" s="12"/>
-      <c r="D36" s="23"/>
+      <c r="A36" s="11"/>
+      <c r="B36" s="11"/>
+      <c r="D36" s="22"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
-      <c r="G36" s="30"/>
+      <c r="G36" s="29"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="12"/>
-      <c r="B37" s="12"/>
-      <c r="D37" s="23"/>
+      <c r="A37" s="11"/>
+      <c r="B37" s="11"/>
+      <c r="D37" s="22"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
-      <c r="G37" s="30"/>
+      <c r="G37" s="29"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="12"/>
-      <c r="B38" s="12"/>
-      <c r="D38" s="23"/>
+      <c r="A38" s="11"/>
+      <c r="B38" s="11"/>
+      <c r="D38" s="22"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
-      <c r="G38" s="30"/>
+      <c r="G38" s="29"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="12"/>
-      <c r="B39" s="12"/>
-      <c r="D39" s="23"/>
+      <c r="A39" s="11"/>
+      <c r="B39" s="11"/>
+      <c r="D39" s="22"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
-      <c r="G39" s="30"/>
+      <c r="G39" s="29"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="12"/>
-      <c r="B40" s="12"/>
-      <c r="D40" s="23"/>
+      <c r="A40" s="11"/>
+      <c r="B40" s="11"/>
+      <c r="D40" s="22"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
-      <c r="G40" s="30"/>
+      <c r="G40" s="29"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="12"/>
-      <c r="B41" s="12"/>
-      <c r="D41" s="23"/>
+      <c r="A41" s="11"/>
+      <c r="B41" s="11"/>
+      <c r="D41" s="22"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
-      <c r="G41" s="30"/>
+      <c r="G41" s="29"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="12"/>
-      <c r="B42" s="12"/>
-      <c r="D42" s="23"/>
+      <c r="A42" s="11"/>
+      <c r="B42" s="11"/>
+      <c r="D42" s="22"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
-      <c r="G42" s="30"/>
+      <c r="G42" s="29"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="12"/>
-      <c r="B43" s="12"/>
-      <c r="D43" s="23"/>
+      <c r="A43" s="11"/>
+      <c r="B43" s="11"/>
+      <c r="D43" s="22"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
-      <c r="G43" s="30"/>
+      <c r="G43" s="29"/>
     </row>
     <row r="44" spans="3:3">
-      <c r="C44" s="33"/>
+      <c r="C44" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -8912,10 +9344,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="C1" sqref="C$1:C$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -8932,156 +9364,183 @@
         <v>1</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="9" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="2">
         <v>43084</v>
       </c>
-      <c r="D2" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>143</v>
+      <c r="D2" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="9"/>
       <c r="B3" s="9"/>
-      <c r="C3" s="11">
+      <c r="C3" s="2">
         <v>43091</v>
       </c>
-      <c r="D3" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>145</v>
+      <c r="D3" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
-      <c r="C4" s="11">
+      <c r="C4" s="2">
         <v>43099</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>147</v>
+        <v>161</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="11">
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="2">
         <v>43100</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>147</v>
+        <v>161</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="10" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="2">
         <v>43101</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>150</v>
+        <v>164</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="11">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="2">
         <v>43120</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>150</v>
+        <v>166</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="10" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="2">
         <v>43163</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>154</v>
+        <v>168</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="11"/>
-      <c r="E9" s="12"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="E9" s="11"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="B10" s="12" t="s">
+      <c r="A10" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="B10" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="2">
         <v>43197</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>147</v>
+        <v>161</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="2:5">
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="2">
         <v>43204</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>154</v>
+        <v>171</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="2">
+        <v>43220</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="2">
+        <v>43221</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>169</v>
       </c>
     </row>
   </sheetData>

--- a/周数据/《个人上线率统计表》-高阳.xlsx
+++ b/周数据/《个人上线率统计表》-高阳.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="19770" windowHeight="8370" activeTab="1"/>
+    <workbookView windowWidth="19770" windowHeight="8370" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175">
   <si>
     <t>个人上线率分析表</t>
   </si>
@@ -536,7 +536,13 @@
     <t>张家港市沙洲中路223号/鲜货俚火锅</t>
   </si>
   <si>
+    <t>南京市浦口区团结路99号/哈尔滨水饺（云食集店）</t>
+  </si>
+  <si>
     <t>泰州姜堰市锦江花园06-09室/槐店王婆大虾泰州店</t>
+  </si>
+  <si>
+    <t>南京市建邺区庐山路130号/天荟茶饮设备迁移实施培训</t>
   </si>
 </sst>
 </file>
@@ -544,11 +550,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -620,36 +626,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -664,53 +640,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -723,17 +654,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -755,11 +684,88 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -826,13 +832,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -844,7 +844,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -856,19 +880,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -886,37 +916,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -928,25 +964,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -958,25 +982,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1168,20 +1174,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1201,11 +1211,28 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1228,38 +1255,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1271,10 +1277,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1283,137 +1289,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1543,15 +1549,6 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1578,12 +1575,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1947,797 +1938,797 @@
     <col min="7" max="7" width="15.5083333333333" style="13" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="17.875" style="13" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="17.875" style="13" customWidth="1"/>
-    <col min="10" max="10" width="17.875" style="47" customWidth="1"/>
+    <col min="10" max="10" width="17.875" style="44" customWidth="1"/>
     <col min="11" max="11" width="16" style="13" customWidth="1"/>
     <col min="12" max="12" width="17.875" style="13" customWidth="1"/>
     <col min="13" max="13" width="18.625" style="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" spans="1:13">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="60"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="55"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="52" t="s">
+      <c r="D2" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="52" t="s">
+      <c r="E2" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="53" t="s">
+      <c r="F2" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="53" t="s">
+      <c r="G2" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="53" t="s">
+      <c r="H2" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="61" t="s">
+      <c r="I2" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="62" t="s">
+      <c r="J2" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="63" t="s">
+      <c r="K2" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="63" t="s">
+      <c r="L2" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="64" t="s">
+      <c r="M2" s="59" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="50">
+      <c r="A3" s="47">
         <v>12</v>
       </c>
-      <c r="B3" s="54">
+      <c r="B3" s="51">
         <v>52</v>
       </c>
-      <c r="C3" s="52">
+      <c r="C3" s="49">
         <v>1</v>
       </c>
-      <c r="D3" s="52">
+      <c r="D3" s="49">
         <v>0</v>
       </c>
-      <c r="E3" s="52">
+      <c r="E3" s="49">
         <f t="shared" ref="E3:E8" si="0">C3-D3</f>
         <v>1</v>
       </c>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53">
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50">
         <f t="shared" ref="H3:H11" si="1">F3-G3</f>
         <v>0</v>
       </c>
-      <c r="I3" s="61">
+      <c r="I3" s="56">
         <v>0</v>
       </c>
-      <c r="J3" s="62" t="e">
+      <c r="J3" s="57" t="e">
         <f t="shared" ref="J3:J15" si="2">I3/L3*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K3" s="63">
+      <c r="K3" s="58">
         <f t="shared" ref="K3:K8" si="3">C3+G3</f>
         <v>1</v>
       </c>
-      <c r="L3" s="63">
+      <c r="L3" s="58">
         <f t="shared" ref="L3:L11" si="4">D3+G3</f>
         <v>0</v>
       </c>
-      <c r="M3" s="64">
+      <c r="M3" s="59">
         <f>L3/K3*100%</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="55">
+      <c r="A4" s="52">
         <v>1</v>
       </c>
-      <c r="B4" s="54">
+      <c r="B4" s="51">
         <v>1</v>
       </c>
-      <c r="C4" s="52">
+      <c r="C4" s="49">
         <v>5</v>
       </c>
-      <c r="D4" s="52">
+      <c r="D4" s="49">
         <v>2</v>
       </c>
-      <c r="E4" s="52">
+      <c r="E4" s="49">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53">
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I4" s="61">
+      <c r="I4" s="56">
         <v>0</v>
       </c>
-      <c r="J4" s="62">
+      <c r="J4" s="57">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K4" s="63">
+      <c r="K4" s="58">
         <v>5</v>
       </c>
-      <c r="L4" s="63">
+      <c r="L4" s="58">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="M4" s="64">
+      <c r="M4" s="59">
         <f>L4/K4*100%</f>
         <v>0.4</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="56"/>
-      <c r="B5" s="54">
+      <c r="A5" s="53"/>
+      <c r="B5" s="51">
         <v>2</v>
       </c>
-      <c r="C5" s="52">
+      <c r="C5" s="49">
         <v>3</v>
       </c>
-      <c r="D5" s="52">
+      <c r="D5" s="49">
         <v>2</v>
       </c>
-      <c r="E5" s="52">
+      <c r="E5" s="49">
         <v>1</v>
       </c>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53">
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I5" s="61">
+      <c r="I5" s="56">
         <v>0</v>
       </c>
-      <c r="J5" s="62">
+      <c r="J5" s="57">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K5" s="63">
+      <c r="K5" s="58">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="L5" s="63">
+      <c r="L5" s="58">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="M5" s="64">
+      <c r="M5" s="59">
         <f>L5/K5*100%</f>
         <v>0.666666666666667</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="56"/>
-      <c r="B6" s="54">
+      <c r="A6" s="53"/>
+      <c r="B6" s="51">
         <v>3</v>
       </c>
-      <c r="C6" s="52">
+      <c r="C6" s="49">
         <v>1</v>
       </c>
-      <c r="D6" s="52">
+      <c r="D6" s="49">
         <v>1</v>
       </c>
-      <c r="E6" s="52">
+      <c r="E6" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53">
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I6" s="61">
+      <c r="I6" s="56">
         <v>0</v>
       </c>
-      <c r="J6" s="62">
+      <c r="J6" s="57">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K6" s="63">
+      <c r="K6" s="58">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="L6" s="63">
+      <c r="L6" s="58">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M6" s="64">
+      <c r="M6" s="59">
         <f>L6/K6*100%</f>
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="56"/>
-      <c r="B7" s="54">
+      <c r="A7" s="53"/>
+      <c r="B7" s="51">
         <v>4</v>
       </c>
-      <c r="C7" s="52">
+      <c r="C7" s="49">
         <v>3</v>
       </c>
-      <c r="D7" s="52">
+      <c r="D7" s="49">
         <v>1</v>
       </c>
-      <c r="E7" s="52">
+      <c r="E7" s="49">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53">
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I7" s="61">
+      <c r="I7" s="56">
         <v>0</v>
       </c>
-      <c r="J7" s="62">
+      <c r="J7" s="57">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K7" s="63">
+      <c r="K7" s="58">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="L7" s="63">
+      <c r="L7" s="58">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M7" s="64">
+      <c r="M7" s="59">
         <f>L7/K7*100%</f>
         <v>0.333333333333333</v>
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="56"/>
-      <c r="B8" s="54">
+      <c r="A8" s="53"/>
+      <c r="B8" s="51">
         <v>5</v>
       </c>
-      <c r="C8" s="52">
+      <c r="C8" s="49">
         <v>3</v>
       </c>
-      <c r="D8" s="52">
+      <c r="D8" s="49">
         <v>1</v>
       </c>
-      <c r="E8" s="52">
+      <c r="E8" s="49">
         <v>2</v>
       </c>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53">
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I8" s="61">
+      <c r="I8" s="56">
         <v>0</v>
       </c>
-      <c r="J8" s="62">
+      <c r="J8" s="57">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K8" s="63">
+      <c r="K8" s="58">
         <v>3</v>
       </c>
-      <c r="L8" s="63">
+      <c r="L8" s="58">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M8" s="64">
+      <c r="M8" s="59">
         <v>0.33</v>
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="56"/>
-      <c r="B9" s="54">
+      <c r="A9" s="53"/>
+      <c r="B9" s="51">
         <v>6</v>
       </c>
-      <c r="C9" s="52">
+      <c r="C9" s="49">
         <v>3</v>
       </c>
-      <c r="D9" s="52">
+      <c r="D9" s="49">
         <v>2</v>
       </c>
-      <c r="E9" s="52">
+      <c r="E9" s="49">
         <v>1</v>
       </c>
-      <c r="F9" s="53"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="61">
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="56">
         <v>0</v>
       </c>
-      <c r="J9" s="62">
+      <c r="J9" s="57">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K9" s="63">
+      <c r="K9" s="58">
         <v>3</v>
       </c>
-      <c r="L9" s="63">
+      <c r="L9" s="58">
         <v>2</v>
       </c>
-      <c r="M9" s="65">
+      <c r="M9" s="60">
         <v>0.67</v>
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="55">
+      <c r="A10" s="52">
         <v>3</v>
       </c>
-      <c r="B10" s="54">
+      <c r="B10" s="51">
         <v>10</v>
       </c>
-      <c r="C10" s="52">
+      <c r="C10" s="49">
         <v>1</v>
       </c>
-      <c r="D10" s="52">
+      <c r="D10" s="49">
         <v>1</v>
       </c>
-      <c r="E10" s="52">
+      <c r="E10" s="49">
         <f t="shared" ref="E10:E13" si="5">C10-D10</f>
         <v>0</v>
       </c>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53">
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50">
         <f t="shared" ref="H10:H15" si="6">F10-G10</f>
         <v>0</v>
       </c>
-      <c r="I10" s="61">
+      <c r="I10" s="56">
         <v>0</v>
       </c>
-      <c r="J10" s="62">
+      <c r="J10" s="57">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K10" s="63">
+      <c r="K10" s="58">
         <v>1</v>
       </c>
-      <c r="L10" s="63">
+      <c r="L10" s="58">
         <f t="shared" ref="L10:L15" si="7">D10+G10</f>
         <v>1</v>
       </c>
-      <c r="M10" s="64">
+      <c r="M10" s="59">
         <f>L10/K10*100%</f>
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="56"/>
-      <c r="B11" s="54">
+      <c r="A11" s="53"/>
+      <c r="B11" s="51">
         <v>12</v>
       </c>
-      <c r="C11" s="52">
+      <c r="C11" s="49">
         <v>1</v>
       </c>
-      <c r="D11" s="52">
+      <c r="D11" s="49">
         <v>1</v>
       </c>
-      <c r="E11" s="52">
+      <c r="E11" s="49">
         <v>0</v>
       </c>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53">
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I11" s="61">
+      <c r="I11" s="56">
         <v>0</v>
       </c>
-      <c r="J11" s="62">
+      <c r="J11" s="57">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K11" s="63">
+      <c r="K11" s="58">
         <f t="shared" ref="K11:K15" si="8">C11+G11</f>
         <v>1</v>
       </c>
-      <c r="L11" s="63">
+      <c r="L11" s="58">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="M11" s="64">
+      <c r="M11" s="59">
         <f t="shared" ref="M11:M20" si="9">L11/K11*100%</f>
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="56"/>
-      <c r="B12" s="54">
+      <c r="A12" s="53"/>
+      <c r="B12" s="51">
         <v>13</v>
       </c>
-      <c r="C12" s="52">
+      <c r="C12" s="49">
         <v>5</v>
       </c>
-      <c r="D12" s="52">
+      <c r="D12" s="49">
         <v>5</v>
       </c>
-      <c r="E12" s="52">
+      <c r="E12" s="49">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="53">
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I12" s="61">
+      <c r="I12" s="56">
         <v>0</v>
       </c>
-      <c r="J12" s="62">
+      <c r="J12" s="57">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K12" s="63">
+      <c r="K12" s="58">
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="L12" s="63">
+      <c r="L12" s="58">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="M12" s="64">
+      <c r="M12" s="59">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="55">
+      <c r="A13" s="52">
         <v>4</v>
       </c>
-      <c r="B13" s="54">
+      <c r="B13" s="51">
         <v>14</v>
       </c>
-      <c r="C13" s="52">
+      <c r="C13" s="49">
         <v>2</v>
       </c>
-      <c r="D13" s="52">
+      <c r="D13" s="49">
         <v>0</v>
       </c>
-      <c r="E13" s="52">
+      <c r="E13" s="49">
         <v>0</v>
       </c>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="61">
+      <c r="F13" s="50"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="56">
         <v>0</v>
       </c>
-      <c r="J13" s="62" t="e">
+      <c r="J13" s="57" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K13" s="63">
+      <c r="K13" s="58">
         <v>0</v>
       </c>
-      <c r="L13" s="63">
+      <c r="L13" s="58">
         <v>0</v>
       </c>
-      <c r="M13" s="65">
+      <c r="M13" s="60">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="56"/>
-      <c r="B14" s="54">
+      <c r="A14" s="53"/>
+      <c r="B14" s="51">
         <v>15</v>
       </c>
-      <c r="C14" s="52">
+      <c r="C14" s="49">
         <v>1</v>
       </c>
-      <c r="D14" s="52">
+      <c r="D14" s="49">
         <v>0</v>
       </c>
-      <c r="E14" s="52">
+      <c r="E14" s="49">
         <v>1</v>
       </c>
-      <c r="F14" s="53"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="61"/>
-      <c r="J14" s="62"/>
-      <c r="K14" s="63">
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="58">
         <v>1</v>
       </c>
-      <c r="L14" s="63">
+      <c r="L14" s="58">
         <v>0</v>
       </c>
-      <c r="M14" s="65">
+      <c r="M14" s="60">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="56"/>
-      <c r="B15" s="54">
+      <c r="A15" s="53"/>
+      <c r="B15" s="51">
         <v>16</v>
       </c>
-      <c r="C15" s="52">
+      <c r="C15" s="49">
         <v>2</v>
       </c>
-      <c r="D15" s="52">
+      <c r="D15" s="49">
         <v>0</v>
       </c>
-      <c r="E15" s="52">
+      <c r="E15" s="49">
         <v>2</v>
       </c>
-      <c r="F15" s="53"/>
-      <c r="G15" s="53"/>
-      <c r="H15" s="53"/>
-      <c r="I15" s="61"/>
-      <c r="J15" s="62"/>
-      <c r="K15" s="63">
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="58">
         <v>2</v>
       </c>
-      <c r="L15" s="63">
+      <c r="L15" s="58">
         <v>2</v>
       </c>
-      <c r="M15" s="65">
+      <c r="M15" s="60">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="57">
+      <c r="A16" s="52">
         <v>5</v>
       </c>
-      <c r="B16" s="54">
+      <c r="B16" s="51">
         <v>17</v>
       </c>
-      <c r="C16" s="52">
+      <c r="C16" s="49">
         <v>7</v>
       </c>
-      <c r="D16" s="52">
+      <c r="D16" s="49">
         <v>7</v>
       </c>
-      <c r="E16" s="52">
+      <c r="E16" s="49">
         <f t="shared" ref="E16:E20" si="10">C16-D16</f>
         <v>0</v>
       </c>
-      <c r="F16" s="53"/>
-      <c r="G16" s="53"/>
-      <c r="H16" s="53">
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="50">
         <f t="shared" ref="H16:H21" si="11">F16-G16</f>
         <v>0</v>
       </c>
-      <c r="I16" s="61">
+      <c r="I16" s="56">
         <v>0</v>
       </c>
-      <c r="J16" s="62">
+      <c r="J16" s="57">
         <f t="shared" ref="J16:J21" si="12">I16/L16*100%</f>
         <v>0</v>
       </c>
-      <c r="K16" s="63">
+      <c r="K16" s="58">
         <f t="shared" ref="K16:K20" si="13">C16+G16</f>
         <v>7</v>
       </c>
-      <c r="L16" s="63">
+      <c r="L16" s="58">
         <f t="shared" ref="L16:L21" si="14">D16+G16</f>
         <v>7</v>
       </c>
-      <c r="M16" s="64">
+      <c r="M16" s="59">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="58"/>
-      <c r="B17" s="54">
+      <c r="A17" s="53"/>
+      <c r="B17" s="51">
         <v>18</v>
       </c>
-      <c r="C17" s="52">
+      <c r="C17" s="49">
         <v>5</v>
       </c>
-      <c r="D17" s="52">
+      <c r="D17" s="49">
         <v>5</v>
       </c>
-      <c r="E17" s="52">
+      <c r="E17" s="49">
         <v>0</v>
       </c>
-      <c r="F17" s="53"/>
-      <c r="G17" s="53"/>
-      <c r="H17" s="53">
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="I17" s="61">
+      <c r="I17" s="56">
         <v>0</v>
       </c>
-      <c r="J17" s="62">
+      <c r="J17" s="57">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="K17" s="63">
+      <c r="K17" s="58">
         <v>5</v>
       </c>
-      <c r="L17" s="63">
+      <c r="L17" s="58">
         <f t="shared" si="14"/>
         <v>5</v>
       </c>
-      <c r="M17" s="64">
+      <c r="M17" s="59">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="56"/>
-      <c r="B18" s="54"/>
-      <c r="C18" s="52">
+      <c r="A18" s="53"/>
+      <c r="B18" s="51"/>
+      <c r="C18" s="49">
         <v>0</v>
       </c>
-      <c r="D18" s="52">
+      <c r="D18" s="49">
         <v>0</v>
       </c>
-      <c r="E18" s="52">
+      <c r="E18" s="49">
         <v>0</v>
       </c>
-      <c r="F18" s="53"/>
-      <c r="G18" s="53"/>
-      <c r="H18" s="53">
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="50">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="I18" s="61">
+      <c r="I18" s="56">
         <v>0</v>
       </c>
-      <c r="J18" s="62" t="e">
+      <c r="J18" s="57" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K18" s="63">
+      <c r="K18" s="58">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="L18" s="63">
+      <c r="L18" s="58">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="M18" s="64" t="e">
+      <c r="M18" s="59" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="56"/>
-      <c r="B19" s="54"/>
-      <c r="C19" s="52">
+      <c r="A19" s="53"/>
+      <c r="B19" s="51"/>
+      <c r="C19" s="49">
         <v>0</v>
       </c>
-      <c r="D19" s="52">
+      <c r="D19" s="49">
         <v>0</v>
       </c>
-      <c r="E19" s="52">
+      <c r="E19" s="49">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F19" s="53"/>
-      <c r="G19" s="53"/>
-      <c r="H19" s="53">
+      <c r="F19" s="50"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="50">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="I19" s="61">
+      <c r="I19" s="56">
         <v>0</v>
       </c>
-      <c r="J19" s="62" t="e">
+      <c r="J19" s="57" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K19" s="63">
+      <c r="K19" s="58">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="L19" s="63">
+      <c r="L19" s="58">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="M19" s="64" t="e">
+      <c r="M19" s="59" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="56"/>
-      <c r="B20" s="54"/>
-      <c r="C20" s="52">
+      <c r="A20" s="53"/>
+      <c r="B20" s="51"/>
+      <c r="C20" s="49">
         <v>0</v>
       </c>
-      <c r="D20" s="52">
+      <c r="D20" s="49">
         <v>0</v>
       </c>
-      <c r="E20" s="52">
+      <c r="E20" s="49">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F20" s="53"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="53">
+      <c r="F20" s="50"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="50">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="I20" s="61">
+      <c r="I20" s="56">
         <v>0</v>
       </c>
-      <c r="J20" s="62" t="e">
+      <c r="J20" s="57" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K20" s="63">
+      <c r="K20" s="58">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="L20" s="63">
+      <c r="L20" s="58">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="M20" s="64" t="e">
+      <c r="M20" s="59" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="56"/>
-      <c r="B21" s="54"/>
-      <c r="C21" s="52">
+      <c r="A21" s="53"/>
+      <c r="B21" s="51"/>
+      <c r="C21" s="49">
         <v>0</v>
       </c>
-      <c r="D21" s="52">
+      <c r="D21" s="49">
         <v>0</v>
       </c>
-      <c r="E21" s="52">
+      <c r="E21" s="49">
         <v>0</v>
       </c>
-      <c r="F21" s="53"/>
-      <c r="G21" s="53"/>
-      <c r="H21" s="53">
+      <c r="F21" s="50"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="50">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="I21" s="61">
+      <c r="I21" s="56">
         <v>0</v>
       </c>
-      <c r="J21" s="62" t="e">
+      <c r="J21" s="57" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K21" s="63">
+      <c r="K21" s="58">
         <v>0</v>
       </c>
-      <c r="L21" s="63">
+      <c r="L21" s="58">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="M21" s="64">
+      <c r="M21" s="59">
         <v>0.33</v>
       </c>
     </row>
@@ -2760,7 +2751,7 @@
   <sheetPr/>
   <dimension ref="A1:P294"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
@@ -2806,7 +2797,7 @@
       <c r="H1" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="46" t="s">
+      <c r="I1" s="43" t="s">
         <v>22</v>
       </c>
       <c r="J1" s="37" t="s">
@@ -4013,7 +4004,7 @@
       </c>
     </row>
     <row r="28" spans="1:15">
-      <c r="A28" s="43">
+      <c r="A28" s="10">
         <v>18</v>
       </c>
       <c r="B28" s="39">
@@ -4060,7 +4051,7 @@
       </c>
     </row>
     <row r="29" spans="1:15">
-      <c r="A29" s="44"/>
+      <c r="A29" s="9"/>
       <c r="B29" s="39">
         <v>43226</v>
       </c>
@@ -4105,7 +4096,7 @@
       </c>
     </row>
     <row r="30" spans="1:15">
-      <c r="A30" s="44"/>
+      <c r="A30" s="9"/>
       <c r="B30" s="39">
         <v>43229</v>
       </c>
@@ -4150,7 +4141,7 @@
       </c>
     </row>
     <row r="31" spans="1:15">
-      <c r="A31" s="44"/>
+      <c r="A31" s="9"/>
       <c r="B31" s="39">
         <v>43229</v>
       </c>
@@ -4195,7 +4186,7 @@
       </c>
     </row>
     <row r="32" spans="1:15">
-      <c r="A32" s="45"/>
+      <c r="A32" s="12"/>
       <c r="B32" s="39">
         <v>43229</v>
       </c>
@@ -9344,10 +9335,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C$1:C$1048576"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -9520,7 +9511,7 @@
         <v>32</v>
       </c>
       <c r="C12" s="2">
-        <v>43220</v>
+        <v>43211</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>172</v>
@@ -9534,12 +9525,40 @@
         <v>32</v>
       </c>
       <c r="C13" s="2">
+        <v>43220</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="2">
         <v>43221</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="E13" s="11" t="s">
+      <c r="D14" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="2">
+        <v>43225</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E15" s="11" t="s">
         <v>169</v>
       </c>
     </row>

--- a/周数据/《个人上线率统计表》-高阳.xlsx
+++ b/周数据/《个人上线率统计表》-高阳.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19226"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\hualala\NanJing\周数据\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{335E444F-8CE5-48BA-AA0D-13BB14D00779}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="19770" windowHeight="8370" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19770" windowHeight="8370" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="2" r:id="rId1"/>
@@ -12,12 +18,12 @@
     <sheet name="未上线项目明细" sheetId="3" r:id="rId3"/>
     <sheet name="加班明细" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="176">
   <si>
     <t>个人上线率分析表</t>
   </si>
@@ -389,174 +395,175 @@
     <t>京茶山手作茶物（湖塘吾悦广场店）</t>
   </si>
   <si>
+    <t>陈总</t>
+  </si>
+  <si>
+    <t>立项日期</t>
+  </si>
+  <si>
+    <t>未完成原因</t>
+  </si>
+  <si>
+    <t>项目类型</t>
+  </si>
+  <si>
+    <t>上线模块</t>
+  </si>
+  <si>
+    <t>销售人员</t>
+  </si>
+  <si>
+    <t>已实施，但商户未开业</t>
+  </si>
+  <si>
+    <t>单店</t>
+  </si>
+  <si>
+    <t>SAAS</t>
+  </si>
+  <si>
+    <t>李雪磊</t>
+  </si>
+  <si>
+    <t>SAAS+微信</t>
+  </si>
+  <si>
+    <t>肖如梦</t>
+  </si>
+  <si>
+    <t>辣么美新概念麻辣烫</t>
+  </si>
+  <si>
+    <t>已停业</t>
+  </si>
+  <si>
+    <t>丁万能</t>
+  </si>
+  <si>
+    <t>汪冰洋</t>
+  </si>
+  <si>
+    <t>家门口百姓菜馆</t>
+  </si>
+  <si>
+    <t>22号签约新项目实施准备中</t>
+  </si>
+  <si>
+    <t>23号签约新项目实施准备中</t>
+  </si>
+  <si>
+    <t>桂花鸭</t>
+  </si>
+  <si>
+    <t>沈芳芳</t>
+  </si>
+  <si>
+    <t>武耀</t>
+  </si>
+  <si>
+    <t>王婆大虾樾河路店</t>
+  </si>
+  <si>
+    <t>4月26日实施</t>
+  </si>
+  <si>
+    <t>连锁</t>
+  </si>
+  <si>
+    <t>石燕芳</t>
+  </si>
+  <si>
+    <t>沙县小吃（云食集）</t>
+  </si>
+  <si>
+    <t>哈尔滨水饺（云食集）</t>
+  </si>
+  <si>
+    <t>姓名</t>
+  </si>
+  <si>
+    <t>日期</t>
+  </si>
+  <si>
+    <t>加班地点/商户名称</t>
+  </si>
+  <si>
+    <t>加班内容</t>
+  </si>
+  <si>
+    <t>12月</t>
+  </si>
+  <si>
+    <t>南京市建邺区江东门西街3-11/鲜儿牛</t>
+  </si>
+  <si>
+    <t>因成都分公司南京项目需要技术支持</t>
+  </si>
+  <si>
+    <t>南京市栖霞区学衡路16号/美美翰尼炸鸡店</t>
+  </si>
+  <si>
+    <t>美美翰尼炸鸡店实施</t>
+  </si>
+  <si>
+    <t>公司</t>
+  </si>
+  <si>
+    <t>值班</t>
+  </si>
+  <si>
+    <t>1月</t>
+  </si>
+  <si>
+    <t>南京市建邺区燕山路79-6/一台戏</t>
+  </si>
+  <si>
+    <t>开业驻店</t>
+  </si>
+  <si>
+    <t>江苏省南京市江宁区金盛路95号/卤味牛肉锅</t>
+  </si>
+  <si>
+    <t>3月</t>
+  </si>
+  <si>
+    <t>南京市江宁区江宁街道润寿路1115/南京市福怡阁餐饮管理有限公司</t>
+  </si>
+  <si>
+    <t>上线实施</t>
+  </si>
+  <si>
+    <t>4月</t>
+  </si>
+  <si>
+    <t>张家港市沙洲中路223号/鲜货俚火锅</t>
+  </si>
+  <si>
+    <t>南京市浦口区团结路99号/哈尔滨水饺（云食集店）</t>
+  </si>
+  <si>
+    <t>泰州姜堰市锦江花园06-09室/槐店王婆大虾泰州店</t>
+  </si>
+  <si>
+    <t>南京市建邺区庐山路130号/天荟茶饮设备迁移实施培训</t>
+  </si>
+  <si>
+    <t>南京</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
     <t>常州</t>
-  </si>
-  <si>
-    <t>陈总</t>
-  </si>
-  <si>
-    <t>立项日期</t>
-  </si>
-  <si>
-    <t>未完成原因</t>
-  </si>
-  <si>
-    <t>项目类型</t>
-  </si>
-  <si>
-    <t>上线模块</t>
-  </si>
-  <si>
-    <t>销售人员</t>
-  </si>
-  <si>
-    <t>已实施，但商户未开业</t>
-  </si>
-  <si>
-    <t>单店</t>
-  </si>
-  <si>
-    <t>SAAS</t>
-  </si>
-  <si>
-    <t>李雪磊</t>
-  </si>
-  <si>
-    <t>SAAS+微信</t>
-  </si>
-  <si>
-    <t>肖如梦</t>
-  </si>
-  <si>
-    <t>辣么美新概念麻辣烫</t>
-  </si>
-  <si>
-    <t>已停业</t>
-  </si>
-  <si>
-    <t>丁万能</t>
-  </si>
-  <si>
-    <t>汪冰洋</t>
-  </si>
-  <si>
-    <t>家门口百姓菜馆</t>
-  </si>
-  <si>
-    <t>22号签约新项目实施准备中</t>
-  </si>
-  <si>
-    <t>23号签约新项目实施准备中</t>
-  </si>
-  <si>
-    <t>桂花鸭</t>
-  </si>
-  <si>
-    <t>沈芳芳</t>
-  </si>
-  <si>
-    <t>武耀</t>
-  </si>
-  <si>
-    <t>王婆大虾樾河路店</t>
-  </si>
-  <si>
-    <t>4月26日实施</t>
-  </si>
-  <si>
-    <t>连锁</t>
-  </si>
-  <si>
-    <t>石燕芳</t>
-  </si>
-  <si>
-    <t>沙县小吃（云食集）</t>
-  </si>
-  <si>
-    <t>哈尔滨水饺（云食集）</t>
-  </si>
-  <si>
-    <t>姓名</t>
-  </si>
-  <si>
-    <t>日期</t>
-  </si>
-  <si>
-    <t>加班地点/商户名称</t>
-  </si>
-  <si>
-    <t>加班内容</t>
-  </si>
-  <si>
-    <t>12月</t>
-  </si>
-  <si>
-    <t>南京市建邺区江东门西街3-11/鲜儿牛</t>
-  </si>
-  <si>
-    <t>因成都分公司南京项目需要技术支持</t>
-  </si>
-  <si>
-    <t>南京市栖霞区学衡路16号/美美翰尼炸鸡店</t>
-  </si>
-  <si>
-    <t>美美翰尼炸鸡店实施</t>
-  </si>
-  <si>
-    <t>公司</t>
-  </si>
-  <si>
-    <t>值班</t>
-  </si>
-  <si>
-    <t>1月</t>
-  </si>
-  <si>
-    <t>南京市建邺区燕山路79-6/一台戏</t>
-  </si>
-  <si>
-    <t>开业驻店</t>
-  </si>
-  <si>
-    <t>江苏省南京市江宁区金盛路95号/卤味牛肉锅</t>
-  </si>
-  <si>
-    <t>3月</t>
-  </si>
-  <si>
-    <t>南京市江宁区江宁街道润寿路1115/南京市福怡阁餐饮管理有限公司</t>
-  </si>
-  <si>
-    <t>上线实施</t>
-  </si>
-  <si>
-    <t>4月</t>
-  </si>
-  <si>
-    <t>张家港市沙洲中路223号/鲜货俚火锅</t>
-  </si>
-  <si>
-    <t>南京市浦口区团结路99号/哈尔滨水饺（云食集店）</t>
-  </si>
-  <si>
-    <t>泰州姜堰市锦江花园06-09室/槐店王婆大虾泰州店</t>
-  </si>
-  <si>
-    <t>南京市建邺区庐山路130号/天荟茶饮设备迁移实施培训</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="178" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -569,12 +576,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -582,18 +591,21 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -601,12 +613,14 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -614,6 +628,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -621,6 +636,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -628,148 +644,19 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -778,13 +665,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399945066682943"/>
+        <fgColor theme="4" tint="0.39991454817346722"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -802,13 +689,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -820,7 +707,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -830,164 +717,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="23">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1136,7 +867,7 @@
         <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.399975585192419"/>
+        <color theme="4" tint="0.39994506668294322"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1171,262 +902,20 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1438,7 +927,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1447,22 +936,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1474,7 +957,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1516,19 +999,19 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="8" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1537,28 +1020,13 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1576,16 +1044,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1603,62 +1062,60 @@
     <xf numFmtId="9" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1916,819 +1373,819 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="5.125" style="13" customWidth="1"/>
-    <col min="2" max="2" width="8.125" style="13" customWidth="1"/>
-    <col min="3" max="4" width="16.25" style="13" customWidth="1"/>
-    <col min="5" max="5" width="17.75" style="13" customWidth="1"/>
-    <col min="6" max="6" width="15.875" style="13" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5083333333333" style="13" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="17.875" style="13" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="17.875" style="13" customWidth="1"/>
-    <col min="10" max="10" width="17.875" style="44" customWidth="1"/>
-    <col min="11" max="11" width="16" style="13" customWidth="1"/>
-    <col min="12" max="12" width="17.875" style="13" customWidth="1"/>
-    <col min="13" max="13" width="18.625" style="13" customWidth="1"/>
+    <col min="1" max="1" width="5.125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="8.125" style="11" customWidth="1"/>
+    <col min="3" max="4" width="16.25" style="11" customWidth="1"/>
+    <col min="5" max="5" width="17.75" style="11" customWidth="1"/>
+    <col min="6" max="6" width="15.875" style="11" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5" style="11" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="17.875" style="11" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="17.875" style="11" customWidth="1"/>
+    <col min="10" max="10" width="17.875" style="39" customWidth="1"/>
+    <col min="11" max="11" width="16" style="11" customWidth="1"/>
+    <col min="12" max="12" width="17.875" style="11" customWidth="1"/>
+    <col min="13" max="13" width="18.625" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:13">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="55"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="47" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="54"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A2" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="49" t="s">
+      <c r="E2" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="50" t="s">
+      <c r="F2" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="50" t="s">
+      <c r="G2" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="50" t="s">
+      <c r="H2" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="56" t="s">
+      <c r="I2" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="57" t="s">
+      <c r="J2" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="58" t="s">
+      <c r="K2" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="58" t="s">
+      <c r="L2" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="59" t="s">
+      <c r="M2" s="49" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="47">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A3" s="40">
         <v>12</v>
       </c>
-      <c r="B3" s="51">
+      <c r="B3" s="44">
         <v>52</v>
       </c>
-      <c r="C3" s="49">
+      <c r="C3" s="42">
         <v>1</v>
       </c>
-      <c r="D3" s="49">
+      <c r="D3" s="42">
         <v>0</v>
       </c>
-      <c r="E3" s="49">
-        <f t="shared" ref="E3:E8" si="0">C3-D3</f>
+      <c r="E3" s="42">
+        <f t="shared" ref="E3:E7" si="0">C3-D3</f>
         <v>1</v>
       </c>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50">
-        <f t="shared" ref="H3:H11" si="1">F3-G3</f>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43">
+        <f t="shared" ref="H3:H8" si="1">F3-G3</f>
         <v>0</v>
       </c>
-      <c r="I3" s="56">
+      <c r="I3" s="46">
         <v>0</v>
       </c>
-      <c r="J3" s="57" t="e">
-        <f t="shared" ref="J3:J15" si="2">I3/L3*100%</f>
+      <c r="J3" s="47" t="e">
+        <f t="shared" ref="J3:J13" si="2">I3/L3*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K3" s="58">
-        <f t="shared" ref="K3:K8" si="3">C3+G3</f>
+      <c r="K3" s="48">
+        <f t="shared" ref="K3:K7" si="3">C3+G3</f>
         <v>1</v>
       </c>
-      <c r="L3" s="58">
-        <f t="shared" ref="L3:L11" si="4">D3+G3</f>
+      <c r="L3" s="48">
+        <f t="shared" ref="L3:L8" si="4">D3+G3</f>
         <v>0</v>
       </c>
-      <c r="M3" s="59">
+      <c r="M3" s="49">
         <f>L3/K3*100%</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="52">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A4" s="55">
         <v>1</v>
       </c>
-      <c r="B4" s="51">
+      <c r="B4" s="44">
         <v>1</v>
       </c>
-      <c r="C4" s="49">
+      <c r="C4" s="42">
         <v>5</v>
       </c>
-      <c r="D4" s="49">
+      <c r="D4" s="42">
         <v>2</v>
       </c>
-      <c r="E4" s="49">
+      <c r="E4" s="42">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50">
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I4" s="56">
+      <c r="I4" s="46">
         <v>0</v>
       </c>
-      <c r="J4" s="57">
+      <c r="J4" s="47">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K4" s="58">
+      <c r="K4" s="48">
         <v>5</v>
       </c>
-      <c r="L4" s="58">
+      <c r="L4" s="48">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="M4" s="59">
+      <c r="M4" s="49">
         <f>L4/K4*100%</f>
         <v>0.4</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="53"/>
-      <c r="B5" s="51">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A5" s="56"/>
+      <c r="B5" s="44">
         <v>2</v>
       </c>
-      <c r="C5" s="49">
+      <c r="C5" s="42">
         <v>3</v>
       </c>
-      <c r="D5" s="49">
+      <c r="D5" s="42">
         <v>2</v>
       </c>
-      <c r="E5" s="49">
+      <c r="E5" s="42">
         <v>1</v>
       </c>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50">
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I5" s="56">
+      <c r="I5" s="46">
         <v>0</v>
       </c>
-      <c r="J5" s="57">
+      <c r="J5" s="47">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K5" s="58">
+      <c r="K5" s="48">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="L5" s="58">
+      <c r="L5" s="48">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="M5" s="59">
+      <c r="M5" s="49">
         <f>L5/K5*100%</f>
-        <v>0.666666666666667</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="53"/>
-      <c r="B6" s="51">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A6" s="56"/>
+      <c r="B6" s="44">
         <v>3</v>
       </c>
-      <c r="C6" s="49">
+      <c r="C6" s="42">
         <v>1</v>
       </c>
-      <c r="D6" s="49">
+      <c r="D6" s="42">
         <v>1</v>
       </c>
-      <c r="E6" s="49">
+      <c r="E6" s="42">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50">
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I6" s="56">
+      <c r="I6" s="46">
         <v>0</v>
       </c>
-      <c r="J6" s="57">
+      <c r="J6" s="47">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K6" s="58">
+      <c r="K6" s="48">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="L6" s="58">
+      <c r="L6" s="48">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M6" s="59">
+      <c r="M6" s="49">
         <f>L6/K6*100%</f>
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="53"/>
-      <c r="B7" s="51">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A7" s="56"/>
+      <c r="B7" s="44">
         <v>4</v>
       </c>
-      <c r="C7" s="49">
+      <c r="C7" s="42">
         <v>3</v>
       </c>
-      <c r="D7" s="49">
+      <c r="D7" s="42">
         <v>1</v>
       </c>
-      <c r="E7" s="49">
+      <c r="E7" s="42">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50">
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I7" s="56">
+      <c r="I7" s="46">
         <v>0</v>
       </c>
-      <c r="J7" s="57">
+      <c r="J7" s="47">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K7" s="58">
+      <c r="K7" s="48">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="L7" s="58">
+      <c r="L7" s="48">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M7" s="59">
+      <c r="M7" s="49">
         <f>L7/K7*100%</f>
-        <v>0.333333333333333</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="53"/>
-      <c r="B8" s="51">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A8" s="56"/>
+      <c r="B8" s="44">
         <v>5</v>
       </c>
-      <c r="C8" s="49">
+      <c r="C8" s="42">
         <v>3</v>
       </c>
-      <c r="D8" s="49">
+      <c r="D8" s="42">
         <v>1</v>
       </c>
-      <c r="E8" s="49">
+      <c r="E8" s="42">
         <v>2</v>
       </c>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50">
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I8" s="56">
+      <c r="I8" s="46">
         <v>0</v>
       </c>
-      <c r="J8" s="57">
+      <c r="J8" s="47">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K8" s="58">
+      <c r="K8" s="48">
         <v>3</v>
       </c>
-      <c r="L8" s="58">
+      <c r="L8" s="48">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M8" s="59">
+      <c r="M8" s="49">
         <v>0.33</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="53"/>
-      <c r="B9" s="51">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A9" s="56"/>
+      <c r="B9" s="44">
         <v>6</v>
       </c>
-      <c r="C9" s="49">
+      <c r="C9" s="42">
         <v>3</v>
       </c>
-      <c r="D9" s="49">
+      <c r="D9" s="42">
         <v>2</v>
       </c>
-      <c r="E9" s="49">
+      <c r="E9" s="42">
         <v>1</v>
       </c>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="56">
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="46">
         <v>0</v>
       </c>
-      <c r="J9" s="57">
+      <c r="J9" s="47">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K9" s="58">
+      <c r="K9" s="48">
         <v>3</v>
       </c>
-      <c r="L9" s="58">
+      <c r="L9" s="48">
         <v>2</v>
       </c>
-      <c r="M9" s="60">
+      <c r="M9" s="50">
         <v>0.67</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="52">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A10" s="55">
         <v>3</v>
       </c>
-      <c r="B10" s="51">
+      <c r="B10" s="44">
         <v>10</v>
       </c>
-      <c r="C10" s="49">
+      <c r="C10" s="42">
         <v>1</v>
       </c>
-      <c r="D10" s="49">
+      <c r="D10" s="42">
         <v>1</v>
       </c>
-      <c r="E10" s="49">
-        <f t="shared" ref="E10:E13" si="5">C10-D10</f>
+      <c r="E10" s="42">
+        <f t="shared" ref="E10:E12" si="5">C10-D10</f>
         <v>0</v>
       </c>
-      <c r="F10" s="50"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="50">
-        <f t="shared" ref="H10:H15" si="6">F10-G10</f>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43">
+        <f t="shared" ref="H10:H12" si="6">F10-G10</f>
         <v>0</v>
       </c>
-      <c r="I10" s="56">
+      <c r="I10" s="46">
         <v>0</v>
       </c>
-      <c r="J10" s="57">
+      <c r="J10" s="47">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K10" s="58">
+      <c r="K10" s="48">
         <v>1</v>
       </c>
-      <c r="L10" s="58">
-        <f t="shared" ref="L10:L15" si="7">D10+G10</f>
+      <c r="L10" s="48">
+        <f t="shared" ref="L10:L12" si="7">D10+G10</f>
         <v>1</v>
       </c>
-      <c r="M10" s="59">
+      <c r="M10" s="49">
         <f>L10/K10*100%</f>
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="53"/>
-      <c r="B11" s="51">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A11" s="56"/>
+      <c r="B11" s="44">
         <v>12</v>
       </c>
-      <c r="C11" s="49">
+      <c r="C11" s="42">
         <v>1</v>
       </c>
-      <c r="D11" s="49">
+      <c r="D11" s="42">
         <v>1</v>
       </c>
-      <c r="E11" s="49">
+      <c r="E11" s="42">
         <v>0</v>
       </c>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="50">
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I11" s="56">
+      <c r="I11" s="46">
         <v>0</v>
       </c>
-      <c r="J11" s="57">
+      <c r="J11" s="47">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K11" s="58">
-        <f t="shared" ref="K11:K15" si="8">C11+G11</f>
+      <c r="K11" s="48">
+        <f t="shared" ref="K11:K12" si="8">C11+G11</f>
         <v>1</v>
       </c>
-      <c r="L11" s="58">
+      <c r="L11" s="48">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="M11" s="59">
+      <c r="M11" s="49">
         <f t="shared" ref="M11:M20" si="9">L11/K11*100%</f>
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="53"/>
-      <c r="B12" s="51">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A12" s="56"/>
+      <c r="B12" s="44">
         <v>13</v>
       </c>
-      <c r="C12" s="49">
+      <c r="C12" s="42">
         <v>5</v>
       </c>
-      <c r="D12" s="49">
+      <c r="D12" s="42">
         <v>5</v>
       </c>
-      <c r="E12" s="49">
+      <c r="E12" s="42">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F12" s="50"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="50">
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I12" s="56">
+      <c r="I12" s="46">
         <v>0</v>
       </c>
-      <c r="J12" s="57">
+      <c r="J12" s="47">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K12" s="58">
+      <c r="K12" s="48">
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="L12" s="58">
+      <c r="L12" s="48">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="M12" s="59">
+      <c r="M12" s="49">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="52">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A13" s="55">
         <v>4</v>
       </c>
-      <c r="B13" s="51">
+      <c r="B13" s="44">
         <v>14</v>
       </c>
-      <c r="C13" s="49">
+      <c r="C13" s="42">
         <v>2</v>
       </c>
-      <c r="D13" s="49">
+      <c r="D13" s="42">
         <v>0</v>
       </c>
-      <c r="E13" s="49">
+      <c r="E13" s="42">
         <v>0</v>
       </c>
-      <c r="F13" s="50"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="50"/>
-      <c r="I13" s="56">
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="46">
         <v>0</v>
       </c>
-      <c r="J13" s="57" t="e">
+      <c r="J13" s="47" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K13" s="58">
+      <c r="K13" s="48">
         <v>0</v>
       </c>
-      <c r="L13" s="58">
+      <c r="L13" s="48">
         <v>0</v>
       </c>
-      <c r="M13" s="60">
+      <c r="M13" s="50">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="53"/>
-      <c r="B14" s="51">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A14" s="56"/>
+      <c r="B14" s="44">
         <v>15</v>
       </c>
-      <c r="C14" s="49">
+      <c r="C14" s="42">
         <v>1</v>
       </c>
-      <c r="D14" s="49">
+      <c r="D14" s="42">
         <v>0</v>
       </c>
-      <c r="E14" s="49">
+      <c r="E14" s="42">
         <v>1</v>
       </c>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="57"/>
-      <c r="K14" s="58">
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="48">
         <v>1</v>
       </c>
-      <c r="L14" s="58">
+      <c r="L14" s="48">
         <v>0</v>
       </c>
-      <c r="M14" s="60">
+      <c r="M14" s="50">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="53"/>
-      <c r="B15" s="51">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A15" s="56"/>
+      <c r="B15" s="44">
         <v>16</v>
       </c>
-      <c r="C15" s="49">
+      <c r="C15" s="42">
         <v>2</v>
       </c>
-      <c r="D15" s="49">
+      <c r="D15" s="42">
         <v>0</v>
       </c>
-      <c r="E15" s="49">
+      <c r="E15" s="42">
         <v>2</v>
       </c>
-      <c r="F15" s="50"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="56"/>
-      <c r="J15" s="57"/>
-      <c r="K15" s="58">
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="48">
         <v>2</v>
       </c>
-      <c r="L15" s="58">
+      <c r="L15" s="48">
         <v>2</v>
       </c>
-      <c r="M15" s="60">
+      <c r="M15" s="50">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="52">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A16" s="55">
         <v>5</v>
       </c>
-      <c r="B16" s="51">
+      <c r="B16" s="44">
         <v>17</v>
       </c>
-      <c r="C16" s="49">
+      <c r="C16" s="42">
         <v>7</v>
       </c>
-      <c r="D16" s="49">
+      <c r="D16" s="42">
         <v>7</v>
       </c>
-      <c r="E16" s="49">
+      <c r="E16" s="42">
         <f t="shared" ref="E16:E20" si="10">C16-D16</f>
         <v>0</v>
       </c>
-      <c r="F16" s="50"/>
-      <c r="G16" s="50"/>
-      <c r="H16" s="50">
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43">
         <f t="shared" ref="H16:H21" si="11">F16-G16</f>
         <v>0</v>
       </c>
-      <c r="I16" s="56">
+      <c r="I16" s="46">
         <v>0</v>
       </c>
-      <c r="J16" s="57">
+      <c r="J16" s="47">
         <f t="shared" ref="J16:J21" si="12">I16/L16*100%</f>
         <v>0</v>
       </c>
-      <c r="K16" s="58">
+      <c r="K16" s="48">
         <f t="shared" ref="K16:K20" si="13">C16+G16</f>
         <v>7</v>
       </c>
-      <c r="L16" s="58">
+      <c r="L16" s="48">
         <f t="shared" ref="L16:L21" si="14">D16+G16</f>
         <v>7</v>
       </c>
-      <c r="M16" s="59">
+      <c r="M16" s="49">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="53"/>
-      <c r="B17" s="51">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A17" s="56"/>
+      <c r="B17" s="44">
         <v>18</v>
       </c>
-      <c r="C17" s="49">
+      <c r="C17" s="42">
         <v>5</v>
       </c>
-      <c r="D17" s="49">
+      <c r="D17" s="42">
         <v>5</v>
       </c>
-      <c r="E17" s="49">
+      <c r="E17" s="42">
         <v>0</v>
       </c>
-      <c r="F17" s="50"/>
-      <c r="G17" s="50"/>
-      <c r="H17" s="50">
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="I17" s="56">
+      <c r="I17" s="46">
         <v>0</v>
       </c>
-      <c r="J17" s="57">
+      <c r="J17" s="47">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="K17" s="58">
+      <c r="K17" s="48">
         <v>5</v>
       </c>
-      <c r="L17" s="58">
+      <c r="L17" s="48">
         <f t="shared" si="14"/>
         <v>5</v>
       </c>
-      <c r="M17" s="59">
+      <c r="M17" s="49">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="53"/>
-      <c r="B18" s="51"/>
-      <c r="C18" s="49">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A18" s="45"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="42">
         <v>0</v>
       </c>
-      <c r="D18" s="49">
+      <c r="D18" s="42">
         <v>0</v>
       </c>
-      <c r="E18" s="49">
+      <c r="E18" s="42">
         <v>0</v>
       </c>
-      <c r="F18" s="50"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="50">
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="43">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="I18" s="56">
+      <c r="I18" s="46">
         <v>0</v>
       </c>
-      <c r="J18" s="57" t="e">
+      <c r="J18" s="47" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K18" s="58">
+      <c r="K18" s="48">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="L18" s="58">
+      <c r="L18" s="48">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="M18" s="59" t="e">
+      <c r="M18" s="49" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
-      <c r="A19" s="53"/>
-      <c r="B19" s="51"/>
-      <c r="C19" s="49">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A19" s="45"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="42">
         <v>0</v>
       </c>
-      <c r="D19" s="49">
+      <c r="D19" s="42">
         <v>0</v>
       </c>
-      <c r="E19" s="49">
+      <c r="E19" s="42">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F19" s="50"/>
-      <c r="G19" s="50"/>
-      <c r="H19" s="50">
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="43">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="I19" s="56">
+      <c r="I19" s="46">
         <v>0</v>
       </c>
-      <c r="J19" s="57" t="e">
+      <c r="J19" s="47" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K19" s="58">
+      <c r="K19" s="48">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="L19" s="58">
+      <c r="L19" s="48">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="M19" s="59" t="e">
+      <c r="M19" s="49" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="53"/>
-      <c r="B20" s="51"/>
-      <c r="C20" s="49">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A20" s="45"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="42">
         <v>0</v>
       </c>
-      <c r="D20" s="49">
+      <c r="D20" s="42">
         <v>0</v>
       </c>
-      <c r="E20" s="49">
+      <c r="E20" s="42">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F20" s="50"/>
-      <c r="G20" s="50"/>
-      <c r="H20" s="50">
+      <c r="F20" s="43"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="43">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="I20" s="56">
+      <c r="I20" s="46">
         <v>0</v>
       </c>
-      <c r="J20" s="57" t="e">
+      <c r="J20" s="47" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K20" s="58">
+      <c r="K20" s="48">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="L20" s="58">
+      <c r="L20" s="48">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="M20" s="59" t="e">
+      <c r="M20" s="49" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
-      <c r="A21" s="53"/>
-      <c r="B21" s="51"/>
-      <c r="C21" s="49">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A21" s="45"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="42">
         <v>0</v>
       </c>
-      <c r="D21" s="49">
+      <c r="D21" s="42">
         <v>0</v>
       </c>
-      <c r="E21" s="49">
+      <c r="E21" s="42">
         <v>0</v>
       </c>
-      <c r="F21" s="50"/>
-      <c r="G21" s="50"/>
-      <c r="H21" s="50">
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="43">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="I21" s="56">
+      <c r="I21" s="46">
         <v>0</v>
       </c>
-      <c r="J21" s="57" t="e">
+      <c r="J21" s="47" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K21" s="58">
+      <c r="K21" s="48">
         <v>0</v>
       </c>
-      <c r="L21" s="58">
+      <c r="L21" s="48">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="M21" s="59">
+      <c r="M21" s="49">
         <v>0.33</v>
       </c>
     </row>
@@ -2740,90 +2197,88 @@
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A17"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P294"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="N31" sqref="N31"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.8416666666667" customWidth="1"/>
-    <col min="2" max="2" width="15.625" style="34" customWidth="1"/>
-    <col min="3" max="3" width="11.4833333333333" customWidth="1"/>
+    <col min="1" max="1" width="12.875" customWidth="1"/>
+    <col min="2" max="2" width="15.625" style="32" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
     <col min="4" max="4" width="27.5" customWidth="1"/>
     <col min="5" max="5" width="20.875" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="10.2666666666667" customWidth="1"/>
+    <col min="7" max="7" width="10.25" customWidth="1"/>
     <col min="8" max="8" width="28.25" customWidth="1"/>
-    <col min="9" max="9" width="9.86666666666667" customWidth="1"/>
-    <col min="10" max="10" width="13.9166666666667" customWidth="1"/>
-    <col min="11" max="11" width="17.975" customWidth="1"/>
+    <col min="9" max="9" width="9.875" customWidth="1"/>
+    <col min="10" max="10" width="13.875" customWidth="1"/>
+    <col min="11" max="11" width="18" customWidth="1"/>
     <col min="12" max="14" width="15" customWidth="1"/>
-    <col min="15" max="16384" width="9.73333333333333"/>
   </cols>
   <sheetData>
-    <row r="1" s="33" customFormat="1" ht="27" spans="1:15">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:15" s="31" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="E1" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="G1" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="38" t="s">
+      <c r="H1" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="43" t="s">
+      <c r="I1" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="37" t="s">
+      <c r="J1" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="37" t="s">
+      <c r="K1" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="35" t="s">
+      <c r="L1" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="35" t="s">
+      <c r="M1" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="35" t="s">
+      <c r="N1" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="35" t="s">
+      <c r="O1" s="33" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="10">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A2" s="57">
         <v>1</v>
       </c>
-      <c r="B2" s="39">
+      <c r="B2" s="37">
         <v>43102</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -2866,9 +2321,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="9"/>
-      <c r="B3" s="39">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A3" s="58"/>
+      <c r="B3" s="37">
         <v>43102</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -2911,11 +2366,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="10">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A4" s="57">
         <v>2</v>
       </c>
-      <c r="B4" s="39">
+      <c r="B4" s="37">
         <v>43105</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -2958,9 +2413,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="12"/>
-      <c r="B5" s="39">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A5" s="59"/>
+      <c r="B5" s="37">
         <v>43105</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -3003,11 +2458,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="11">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A6" s="10">
         <v>3</v>
       </c>
-      <c r="B6" s="39">
+      <c r="B6" s="37">
         <v>43112</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -3050,11 +2505,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="11">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A7" s="10">
         <v>4</v>
       </c>
-      <c r="B7" s="39">
+      <c r="B7" s="37">
         <v>43120</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -3097,11 +2552,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="11">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A8" s="10">
         <v>5</v>
       </c>
-      <c r="B8" s="39">
+      <c r="B8" s="37">
         <v>43130</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -3144,11 +2599,11 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="10">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A9" s="57">
         <v>6</v>
       </c>
-      <c r="B9" s="39">
+      <c r="B9" s="37">
         <v>43132</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -3191,9 +2646,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="12"/>
-      <c r="B10" s="39">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A10" s="59"/>
+      <c r="B10" s="37">
         <v>43137</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -3236,11 +2691,11 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
-      <c r="A11" s="11">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A11" s="10">
         <v>10</v>
       </c>
-      <c r="B11" s="39">
+      <c r="B11" s="37">
         <v>43165</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -3283,17 +2738,17 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" ht="19" customHeight="1" spans="1:15">
-      <c r="A12" s="11">
+    <row r="12" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="10">
         <v>12</v>
       </c>
-      <c r="B12" s="39">
+      <c r="B12" s="37">
         <v>43182</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="20" t="s">
         <v>63</v>
       </c>
       <c r="E12" s="1" t="s">
@@ -3330,17 +2785,17 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
-      <c r="A13" s="10">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A13" s="57">
         <v>13</v>
       </c>
-      <c r="B13" s="40">
+      <c r="B13" s="60">
         <v>43185</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="57" t="s">
         <v>66</v>
       </c>
       <c r="E13" s="1" t="s">
@@ -3377,13 +2832,13 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
-      <c r="A14" s="9"/>
-      <c r="B14" s="41"/>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A14" s="58"/>
+      <c r="B14" s="61"/>
       <c r="C14" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="9"/>
+      <c r="D14" s="58"/>
       <c r="E14" s="1" t="s">
         <v>69</v>
       </c>
@@ -3418,13 +2873,13 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
-      <c r="A15" s="9"/>
-      <c r="B15" s="41"/>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A15" s="58"/>
+      <c r="B15" s="61"/>
       <c r="C15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="9"/>
+      <c r="D15" s="58"/>
       <c r="E15" s="1" t="s">
         <v>71</v>
       </c>
@@ -3459,13 +2914,13 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
-      <c r="A16" s="9"/>
-      <c r="B16" s="41"/>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A16" s="58"/>
+      <c r="B16" s="61"/>
       <c r="C16" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="9"/>
+      <c r="D16" s="58"/>
       <c r="E16" s="1" t="s">
         <v>74</v>
       </c>
@@ -3500,13 +2955,13 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
-      <c r="A17" s="12"/>
-      <c r="B17" s="42"/>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A17" s="59"/>
+      <c r="B17" s="62"/>
       <c r="C17" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="12"/>
+      <c r="D17" s="59"/>
       <c r="E17" s="1" t="s">
         <v>76</v>
       </c>
@@ -3541,11 +2996,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
-      <c r="A18" s="11">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A18" s="10">
         <v>14</v>
       </c>
-      <c r="B18" s="39">
+      <c r="B18" s="37">
         <v>43198</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -3588,11 +3043,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
-      <c r="A19" s="11">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A19" s="10">
         <v>15</v>
       </c>
-      <c r="B19" s="39">
+      <c r="B19" s="37">
         <v>43199</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -3635,11 +3090,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
-      <c r="A20" s="11">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A20" s="10">
         <v>16</v>
       </c>
-      <c r="B20" s="39">
+      <c r="B20" s="37">
         <v>43210</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -3682,11 +3137,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
-      <c r="A21" s="10">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A21" s="57">
         <v>17</v>
       </c>
-      <c r="B21" s="39">
+      <c r="B21" s="37">
         <v>43213</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -3729,9 +3184,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
-      <c r="A22" s="9"/>
-      <c r="B22" s="39">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A22" s="58"/>
+      <c r="B22" s="37">
         <v>43215</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -3777,9 +3232,9 @@
         <v>93</v>
       </c>
     </row>
-    <row r="23" spans="1:16">
-      <c r="A23" s="9"/>
-      <c r="B23" s="39">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A23" s="58"/>
+      <c r="B23" s="37">
         <v>43215</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -3825,15 +3280,15 @@
         <v>93</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
-      <c r="A24" s="9"/>
-      <c r="B24" s="39">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A24" s="58"/>
+      <c r="B24" s="37">
         <v>43218</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="D24" s="57" t="s">
         <v>66</v>
       </c>
       <c r="E24" s="1" t="s">
@@ -3870,15 +3325,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
-      <c r="A25" s="9"/>
-      <c r="B25" s="39">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A25" s="58"/>
+      <c r="B25" s="37">
         <v>43218</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D25" s="12"/>
+      <c r="D25" s="59"/>
       <c r="E25" s="1" t="s">
         <v>98</v>
       </c>
@@ -3913,9 +3368,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
-      <c r="A26" s="9"/>
-      <c r="B26" s="39">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A26" s="58"/>
+      <c r="B26" s="37">
         <v>43218</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -3958,9 +3413,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
-      <c r="A27" s="12"/>
-      <c r="B27" s="39">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A27" s="59"/>
+      <c r="B27" s="37">
         <v>43219</v>
       </c>
       <c r="C27" s="1" t="s">
@@ -4003,11 +3458,11 @@
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
-      <c r="A28" s="10">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A28" s="57">
         <v>18</v>
       </c>
-      <c r="B28" s="39">
+      <c r="B28" s="37">
         <v>43224</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -4050,9 +3505,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
-      <c r="A29" s="9"/>
-      <c r="B29" s="39">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A29" s="58"/>
+      <c r="B29" s="37">
         <v>43226</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -4095,9 +3550,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
-      <c r="A30" s="9"/>
-      <c r="B30" s="39">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A30" s="58"/>
+      <c r="B30" s="37">
         <v>43229</v>
       </c>
       <c r="C30" s="1" t="s">
@@ -4140,9 +3595,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
-      <c r="A31" s="9"/>
-      <c r="B31" s="39">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A31" s="58"/>
+      <c r="B31" s="37">
         <v>43229</v>
       </c>
       <c r="C31" s="1" t="s">
@@ -4185,9 +3640,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
-      <c r="A32" s="12"/>
-      <c r="B32" s="39">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A32" s="59"/>
+      <c r="B32" s="37">
         <v>43229</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -4199,8 +3654,8 @@
       <c r="E32" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="F32" s="1" t="s">
-        <v>31</v>
+      <c r="F32" s="64" t="s">
+        <v>175</v>
       </c>
       <c r="G32" s="1">
         <v>76167603</v>
@@ -4208,8 +3663,8 @@
       <c r="H32" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="I32" s="1" t="s">
-        <v>123</v>
+      <c r="I32" s="64" t="s">
+        <v>174</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>32</v>
@@ -4218,7 +3673,7 @@
         <v>15189553449</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M32" s="1" t="s">
         <v>34</v>
@@ -4230,9 +3685,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A33" s="1"/>
-      <c r="B33" s="39"/>
+      <c r="B33" s="37"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -4247,9 +3702,9 @@
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A34" s="1"/>
-      <c r="B34" s="39"/>
+      <c r="B34" s="37"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -4264,9 +3719,9 @@
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A35" s="1"/>
-      <c r="B35" s="39"/>
+      <c r="B35" s="37"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -4281,9 +3736,9 @@
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A36" s="1"/>
-      <c r="B36" s="39"/>
+      <c r="B36" s="37"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -4298,9 +3753,9 @@
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
     </row>
-    <row r="37" spans="1:15">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A37" s="1"/>
-      <c r="B37" s="39"/>
+      <c r="B37" s="37"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -4315,9 +3770,9 @@
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A38" s="1"/>
-      <c r="B38" s="39"/>
+      <c r="B38" s="37"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -4332,9 +3787,9 @@
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A39" s="1"/>
-      <c r="B39" s="39"/>
+      <c r="B39" s="37"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -4349,9 +3804,9 @@
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
     </row>
-    <row r="40" spans="1:15">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A40" s="1"/>
-      <c r="B40" s="39"/>
+      <c r="B40" s="37"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -4366,9 +3821,9 @@
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A41" s="1"/>
-      <c r="B41" s="39"/>
+      <c r="B41" s="37"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -4383,9 +3838,9 @@
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
     </row>
-    <row r="42" spans="1:15">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A42" s="1"/>
-      <c r="B42" s="39"/>
+      <c r="B42" s="37"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -4400,9 +3855,9 @@
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
     </row>
-    <row r="43" spans="1:15">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A43" s="1"/>
-      <c r="B43" s="39"/>
+      <c r="B43" s="37"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -4417,9 +3872,9 @@
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
     </row>
-    <row r="44" spans="1:15">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A44" s="1"/>
-      <c r="B44" s="39"/>
+      <c r="B44" s="37"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -4434,9 +3889,9 @@
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
     </row>
-    <row r="45" spans="1:15">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A45" s="1"/>
-      <c r="B45" s="39"/>
+      <c r="B45" s="37"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -4451,9 +3906,9 @@
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
     </row>
-    <row r="46" spans="1:15">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A46" s="1"/>
-      <c r="B46" s="39"/>
+      <c r="B46" s="37"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -4468,9 +3923,9 @@
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
     </row>
-    <row r="47" spans="1:15">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A47" s="1"/>
-      <c r="B47" s="39"/>
+      <c r="B47" s="37"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -4485,9 +3940,9 @@
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
     </row>
-    <row r="48" spans="1:15">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A48" s="1"/>
-      <c r="B48" s="39"/>
+      <c r="B48" s="37"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -4502,9 +3957,9 @@
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
     </row>
-    <row r="49" spans="1:15">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A49" s="1"/>
-      <c r="B49" s="39"/>
+      <c r="B49" s="37"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -4519,9 +3974,9 @@
       <c r="N49" s="1"/>
       <c r="O49" s="1"/>
     </row>
-    <row r="50" spans="1:15">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A50" s="1"/>
-      <c r="B50" s="39"/>
+      <c r="B50" s="37"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
@@ -4536,9 +3991,9 @@
       <c r="N50" s="1"/>
       <c r="O50" s="1"/>
     </row>
-    <row r="51" spans="1:15">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A51" s="1"/>
-      <c r="B51" s="39"/>
+      <c r="B51" s="37"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -4553,9 +4008,9 @@
       <c r="N51" s="1"/>
       <c r="O51" s="1"/>
     </row>
-    <row r="52" spans="1:15">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A52" s="1"/>
-      <c r="B52" s="39"/>
+      <c r="B52" s="37"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -4570,9 +4025,9 @@
       <c r="N52" s="1"/>
       <c r="O52" s="1"/>
     </row>
-    <row r="53" spans="1:15">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A53" s="1"/>
-      <c r="B53" s="39"/>
+      <c r="B53" s="37"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -4587,9 +4042,9 @@
       <c r="N53" s="1"/>
       <c r="O53" s="1"/>
     </row>
-    <row r="54" spans="1:15">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A54" s="1"/>
-      <c r="B54" s="39"/>
+      <c r="B54" s="37"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
@@ -4604,9 +4059,9 @@
       <c r="N54" s="1"/>
       <c r="O54" s="1"/>
     </row>
-    <row r="55" spans="1:15">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A55" s="1"/>
-      <c r="B55" s="39"/>
+      <c r="B55" s="37"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -4621,9 +4076,9 @@
       <c r="N55" s="1"/>
       <c r="O55" s="1"/>
     </row>
-    <row r="56" spans="1:15">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A56" s="1"/>
-      <c r="B56" s="39"/>
+      <c r="B56" s="37"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
@@ -4638,9 +4093,9 @@
       <c r="N56" s="1"/>
       <c r="O56" s="1"/>
     </row>
-    <row r="57" spans="1:15">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A57" s="1"/>
-      <c r="B57" s="39"/>
+      <c r="B57" s="37"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
@@ -4655,9 +4110,9 @@
       <c r="N57" s="1"/>
       <c r="O57" s="1"/>
     </row>
-    <row r="58" spans="1:15">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A58" s="1"/>
-      <c r="B58" s="39"/>
+      <c r="B58" s="37"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
@@ -4672,9 +4127,9 @@
       <c r="N58" s="1"/>
       <c r="O58" s="1"/>
     </row>
-    <row r="59" spans="1:15">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A59" s="1"/>
-      <c r="B59" s="39"/>
+      <c r="B59" s="37"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
@@ -4689,9 +4144,9 @@
       <c r="N59" s="1"/>
       <c r="O59" s="1"/>
     </row>
-    <row r="60" spans="1:15">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A60" s="1"/>
-      <c r="B60" s="39"/>
+      <c r="B60" s="37"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
@@ -4706,9 +4161,9 @@
       <c r="N60" s="1"/>
       <c r="O60" s="1"/>
     </row>
-    <row r="61" spans="1:15">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A61" s="1"/>
-      <c r="B61" s="39"/>
+      <c r="B61" s="37"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
@@ -4723,9 +4178,9 @@
       <c r="N61" s="1"/>
       <c r="O61" s="1"/>
     </row>
-    <row r="62" spans="1:15">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A62" s="1"/>
-      <c r="B62" s="39"/>
+      <c r="B62" s="37"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
@@ -4740,9 +4195,9 @@
       <c r="N62" s="1"/>
       <c r="O62" s="1"/>
     </row>
-    <row r="63" spans="1:15">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A63" s="1"/>
-      <c r="B63" s="39"/>
+      <c r="B63" s="37"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
@@ -4757,9 +4212,9 @@
       <c r="N63" s="1"/>
       <c r="O63" s="1"/>
     </row>
-    <row r="64" spans="1:15">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A64" s="1"/>
-      <c r="B64" s="39"/>
+      <c r="B64" s="37"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
@@ -4774,9 +4229,9 @@
       <c r="N64" s="1"/>
       <c r="O64" s="1"/>
     </row>
-    <row r="65" spans="1:15">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A65" s="1"/>
-      <c r="B65" s="39"/>
+      <c r="B65" s="37"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
@@ -4791,9 +4246,9 @@
       <c r="N65" s="1"/>
       <c r="O65" s="1"/>
     </row>
-    <row r="66" spans="1:15">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A66" s="1"/>
-      <c r="B66" s="39"/>
+      <c r="B66" s="37"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
@@ -4808,9 +4263,9 @@
       <c r="N66" s="1"/>
       <c r="O66" s="1"/>
     </row>
-    <row r="67" spans="1:15">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A67" s="1"/>
-      <c r="B67" s="39"/>
+      <c r="B67" s="37"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
@@ -4825,9 +4280,9 @@
       <c r="N67" s="1"/>
       <c r="O67" s="1"/>
     </row>
-    <row r="68" spans="1:15">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A68" s="1"/>
-      <c r="B68" s="39"/>
+      <c r="B68" s="37"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
@@ -4842,9 +4297,9 @@
       <c r="N68" s="1"/>
       <c r="O68" s="1"/>
     </row>
-    <row r="69" spans="1:15">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A69" s="1"/>
-      <c r="B69" s="39"/>
+      <c r="B69" s="37"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
@@ -4859,9 +4314,9 @@
       <c r="N69" s="1"/>
       <c r="O69" s="1"/>
     </row>
-    <row r="70" spans="1:15">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A70" s="1"/>
-      <c r="B70" s="39"/>
+      <c r="B70" s="37"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
@@ -4876,9 +4331,9 @@
       <c r="N70" s="1"/>
       <c r="O70" s="1"/>
     </row>
-    <row r="71" spans="1:15">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A71" s="1"/>
-      <c r="B71" s="39"/>
+      <c r="B71" s="37"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
@@ -4893,9 +4348,9 @@
       <c r="N71" s="1"/>
       <c r="O71" s="1"/>
     </row>
-    <row r="72" spans="1:15">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A72" s="1"/>
-      <c r="B72" s="39"/>
+      <c r="B72" s="37"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
@@ -4910,9 +4365,9 @@
       <c r="N72" s="1"/>
       <c r="O72" s="1"/>
     </row>
-    <row r="73" spans="1:15">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A73" s="1"/>
-      <c r="B73" s="39"/>
+      <c r="B73" s="37"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
@@ -4927,9 +4382,9 @@
       <c r="N73" s="1"/>
       <c r="O73" s="1"/>
     </row>
-    <row r="74" spans="1:15">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A74" s="1"/>
-      <c r="B74" s="39"/>
+      <c r="B74" s="37"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
@@ -4944,9 +4399,9 @@
       <c r="N74" s="1"/>
       <c r="O74" s="1"/>
     </row>
-    <row r="75" spans="1:15">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A75" s="1"/>
-      <c r="B75" s="39"/>
+      <c r="B75" s="37"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
@@ -4961,9 +4416,9 @@
       <c r="N75" s="1"/>
       <c r="O75" s="1"/>
     </row>
-    <row r="76" spans="1:15">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A76" s="1"/>
-      <c r="B76" s="39"/>
+      <c r="B76" s="37"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
@@ -4978,9 +4433,9 @@
       <c r="N76" s="1"/>
       <c r="O76" s="1"/>
     </row>
-    <row r="77" spans="1:15">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A77" s="1"/>
-      <c r="B77" s="39"/>
+      <c r="B77" s="37"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
@@ -4995,9 +4450,9 @@
       <c r="N77" s="1"/>
       <c r="O77" s="1"/>
     </row>
-    <row r="78" spans="1:15">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A78" s="1"/>
-      <c r="B78" s="39"/>
+      <c r="B78" s="37"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
@@ -5012,9 +4467,9 @@
       <c r="N78" s="1"/>
       <c r="O78" s="1"/>
     </row>
-    <row r="79" spans="1:15">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A79" s="1"/>
-      <c r="B79" s="39"/>
+      <c r="B79" s="37"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
@@ -5029,9 +4484,9 @@
       <c r="N79" s="1"/>
       <c r="O79" s="1"/>
     </row>
-    <row r="80" spans="1:15">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A80" s="1"/>
-      <c r="B80" s="39"/>
+      <c r="B80" s="37"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
@@ -5046,9 +4501,9 @@
       <c r="N80" s="1"/>
       <c r="O80" s="1"/>
     </row>
-    <row r="81" spans="1:15">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A81" s="1"/>
-      <c r="B81" s="39"/>
+      <c r="B81" s="37"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
@@ -5063,9 +4518,9 @@
       <c r="N81" s="1"/>
       <c r="O81" s="1"/>
     </row>
-    <row r="82" spans="1:15">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A82" s="1"/>
-      <c r="B82" s="39"/>
+      <c r="B82" s="37"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
@@ -5080,9 +4535,9 @@
       <c r="N82" s="1"/>
       <c r="O82" s="1"/>
     </row>
-    <row r="83" spans="1:15">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A83" s="1"/>
-      <c r="B83" s="39"/>
+      <c r="B83" s="37"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
@@ -5097,9 +4552,9 @@
       <c r="N83" s="1"/>
       <c r="O83" s="1"/>
     </row>
-    <row r="84" spans="1:15">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A84" s="1"/>
-      <c r="B84" s="39"/>
+      <c r="B84" s="37"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
@@ -5114,9 +4569,9 @@
       <c r="N84" s="1"/>
       <c r="O84" s="1"/>
     </row>
-    <row r="85" spans="1:15">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A85" s="1"/>
-      <c r="B85" s="39"/>
+      <c r="B85" s="37"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
@@ -5131,9 +4586,9 @@
       <c r="N85" s="1"/>
       <c r="O85" s="1"/>
     </row>
-    <row r="86" spans="1:15">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A86" s="1"/>
-      <c r="B86" s="39"/>
+      <c r="B86" s="37"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
@@ -5148,9 +4603,9 @@
       <c r="N86" s="1"/>
       <c r="O86" s="1"/>
     </row>
-    <row r="87" spans="1:15">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A87" s="1"/>
-      <c r="B87" s="39"/>
+      <c r="B87" s="37"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
@@ -5165,9 +4620,9 @@
       <c r="N87" s="1"/>
       <c r="O87" s="1"/>
     </row>
-    <row r="88" spans="1:15">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A88" s="1"/>
-      <c r="B88" s="39"/>
+      <c r="B88" s="37"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
@@ -5182,9 +4637,9 @@
       <c r="N88" s="1"/>
       <c r="O88" s="1"/>
     </row>
-    <row r="89" spans="1:15">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A89" s="1"/>
-      <c r="B89" s="39"/>
+      <c r="B89" s="37"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
@@ -5199,9 +4654,9 @@
       <c r="N89" s="1"/>
       <c r="O89" s="1"/>
     </row>
-    <row r="90" spans="1:15">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A90" s="1"/>
-      <c r="B90" s="39"/>
+      <c r="B90" s="37"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
@@ -5216,9 +4671,9 @@
       <c r="N90" s="1"/>
       <c r="O90" s="1"/>
     </row>
-    <row r="91" spans="1:15">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A91" s="1"/>
-      <c r="B91" s="39"/>
+      <c r="B91" s="37"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
@@ -5233,9 +4688,9 @@
       <c r="N91" s="1"/>
       <c r="O91" s="1"/>
     </row>
-    <row r="92" spans="1:15">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A92" s="1"/>
-      <c r="B92" s="39"/>
+      <c r="B92" s="37"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
@@ -5250,9 +4705,9 @@
       <c r="N92" s="1"/>
       <c r="O92" s="1"/>
     </row>
-    <row r="93" spans="1:15">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A93" s="1"/>
-      <c r="B93" s="39"/>
+      <c r="B93" s="37"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
@@ -5267,9 +4722,9 @@
       <c r="N93" s="1"/>
       <c r="O93" s="1"/>
     </row>
-    <row r="94" spans="1:15">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A94" s="1"/>
-      <c r="B94" s="39"/>
+      <c r="B94" s="37"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
@@ -5284,9 +4739,9 @@
       <c r="N94" s="1"/>
       <c r="O94" s="1"/>
     </row>
-    <row r="95" spans="1:15">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A95" s="1"/>
-      <c r="B95" s="39"/>
+      <c r="B95" s="37"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
@@ -5301,9 +4756,9 @@
       <c r="N95" s="1"/>
       <c r="O95" s="1"/>
     </row>
-    <row r="96" spans="1:15">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A96" s="1"/>
-      <c r="B96" s="39"/>
+      <c r="B96" s="37"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
@@ -5318,9 +4773,9 @@
       <c r="N96" s="1"/>
       <c r="O96" s="1"/>
     </row>
-    <row r="97" spans="1:15">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A97" s="1"/>
-      <c r="B97" s="39"/>
+      <c r="B97" s="37"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
@@ -5335,9 +4790,9 @@
       <c r="N97" s="1"/>
       <c r="O97" s="1"/>
     </row>
-    <row r="98" spans="1:15">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A98" s="1"/>
-      <c r="B98" s="39"/>
+      <c r="B98" s="37"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
@@ -5352,9 +4807,9 @@
       <c r="N98" s="1"/>
       <c r="O98" s="1"/>
     </row>
-    <row r="99" spans="1:15">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A99" s="1"/>
-      <c r="B99" s="39"/>
+      <c r="B99" s="37"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
@@ -5369,9 +4824,9 @@
       <c r="N99" s="1"/>
       <c r="O99" s="1"/>
     </row>
-    <row r="100" spans="1:15">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A100" s="1"/>
-      <c r="B100" s="39"/>
+      <c r="B100" s="37"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
@@ -5386,9 +4841,9 @@
       <c r="N100" s="1"/>
       <c r="O100" s="1"/>
     </row>
-    <row r="101" spans="1:15">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A101" s="1"/>
-      <c r="B101" s="39"/>
+      <c r="B101" s="37"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
@@ -5403,9 +4858,9 @@
       <c r="N101" s="1"/>
       <c r="O101" s="1"/>
     </row>
-    <row r="102" spans="1:15">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A102" s="1"/>
-      <c r="B102" s="39"/>
+      <c r="B102" s="37"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
@@ -5420,9 +4875,9 @@
       <c r="N102" s="1"/>
       <c r="O102" s="1"/>
     </row>
-    <row r="103" spans="1:15">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A103" s="1"/>
-      <c r="B103" s="39"/>
+      <c r="B103" s="37"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
@@ -5437,9 +4892,9 @@
       <c r="N103" s="1"/>
       <c r="O103" s="1"/>
     </row>
-    <row r="104" spans="1:15">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A104" s="1"/>
-      <c r="B104" s="39"/>
+      <c r="B104" s="37"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
@@ -5454,9 +4909,9 @@
       <c r="N104" s="1"/>
       <c r="O104" s="1"/>
     </row>
-    <row r="105" spans="1:15">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A105" s="1"/>
-      <c r="B105" s="39"/>
+      <c r="B105" s="37"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
@@ -5471,9 +4926,9 @@
       <c r="N105" s="1"/>
       <c r="O105" s="1"/>
     </row>
-    <row r="106" spans="1:15">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A106" s="1"/>
-      <c r="B106" s="39"/>
+      <c r="B106" s="37"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
@@ -5488,9 +4943,9 @@
       <c r="N106" s="1"/>
       <c r="O106" s="1"/>
     </row>
-    <row r="107" spans="1:15">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A107" s="1"/>
-      <c r="B107" s="39"/>
+      <c r="B107" s="37"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
@@ -5505,9 +4960,9 @@
       <c r="N107" s="1"/>
       <c r="O107" s="1"/>
     </row>
-    <row r="108" spans="1:15">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A108" s="1"/>
-      <c r="B108" s="39"/>
+      <c r="B108" s="37"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
@@ -5522,9 +4977,9 @@
       <c r="N108" s="1"/>
       <c r="O108" s="1"/>
     </row>
-    <row r="109" spans="1:15">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A109" s="1"/>
-      <c r="B109" s="39"/>
+      <c r="B109" s="37"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
@@ -5539,9 +4994,9 @@
       <c r="N109" s="1"/>
       <c r="O109" s="1"/>
     </row>
-    <row r="110" spans="1:15">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A110" s="1"/>
-      <c r="B110" s="39"/>
+      <c r="B110" s="37"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
@@ -5556,9 +5011,9 @@
       <c r="N110" s="1"/>
       <c r="O110" s="1"/>
     </row>
-    <row r="111" spans="1:15">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A111" s="1"/>
-      <c r="B111" s="39"/>
+      <c r="B111" s="37"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
@@ -5573,9 +5028,9 @@
       <c r="N111" s="1"/>
       <c r="O111" s="1"/>
     </row>
-    <row r="112" spans="1:15">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A112" s="1"/>
-      <c r="B112" s="39"/>
+      <c r="B112" s="37"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
@@ -5590,9 +5045,9 @@
       <c r="N112" s="1"/>
       <c r="O112" s="1"/>
     </row>
-    <row r="113" spans="1:15">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A113" s="1"/>
-      <c r="B113" s="39"/>
+      <c r="B113" s="37"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
@@ -5607,9 +5062,9 @@
       <c r="N113" s="1"/>
       <c r="O113" s="1"/>
     </row>
-    <row r="114" spans="1:15">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A114" s="1"/>
-      <c r="B114" s="39"/>
+      <c r="B114" s="37"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
@@ -5624,9 +5079,9 @@
       <c r="N114" s="1"/>
       <c r="O114" s="1"/>
     </row>
-    <row r="115" spans="1:15">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A115" s="1"/>
-      <c r="B115" s="39"/>
+      <c r="B115" s="37"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
@@ -5641,9 +5096,9 @@
       <c r="N115" s="1"/>
       <c r="O115" s="1"/>
     </row>
-    <row r="116" spans="1:15">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A116" s="1"/>
-      <c r="B116" s="39"/>
+      <c r="B116" s="37"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
@@ -5658,9 +5113,9 @@
       <c r="N116" s="1"/>
       <c r="O116" s="1"/>
     </row>
-    <row r="117" spans="1:15">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A117" s="1"/>
-      <c r="B117" s="39"/>
+      <c r="B117" s="37"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
@@ -5675,9 +5130,9 @@
       <c r="N117" s="1"/>
       <c r="O117" s="1"/>
     </row>
-    <row r="118" spans="1:15">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A118" s="1"/>
-      <c r="B118" s="39"/>
+      <c r="B118" s="37"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
@@ -5692,9 +5147,9 @@
       <c r="N118" s="1"/>
       <c r="O118" s="1"/>
     </row>
-    <row r="119" spans="1:15">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A119" s="1"/>
-      <c r="B119" s="39"/>
+      <c r="B119" s="37"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
@@ -5709,9 +5164,9 @@
       <c r="N119" s="1"/>
       <c r="O119" s="1"/>
     </row>
-    <row r="120" spans="1:15">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A120" s="1"/>
-      <c r="B120" s="39"/>
+      <c r="B120" s="37"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
@@ -5726,9 +5181,9 @@
       <c r="N120" s="1"/>
       <c r="O120" s="1"/>
     </row>
-    <row r="121" spans="1:15">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A121" s="1"/>
-      <c r="B121" s="39"/>
+      <c r="B121" s="37"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
@@ -5743,9 +5198,9 @@
       <c r="N121" s="1"/>
       <c r="O121" s="1"/>
     </row>
-    <row r="122" spans="1:15">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A122" s="1"/>
-      <c r="B122" s="39"/>
+      <c r="B122" s="37"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
@@ -5760,9 +5215,9 @@
       <c r="N122" s="1"/>
       <c r="O122" s="1"/>
     </row>
-    <row r="123" spans="1:15">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A123" s="1"/>
-      <c r="B123" s="39"/>
+      <c r="B123" s="37"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
@@ -5777,9 +5232,9 @@
       <c r="N123" s="1"/>
       <c r="O123" s="1"/>
     </row>
-    <row r="124" spans="1:15">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A124" s="1"/>
-      <c r="B124" s="39"/>
+      <c r="B124" s="37"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
@@ -5794,9 +5249,9 @@
       <c r="N124" s="1"/>
       <c r="O124" s="1"/>
     </row>
-    <row r="125" spans="1:15">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A125" s="1"/>
-      <c r="B125" s="39"/>
+      <c r="B125" s="37"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
@@ -5811,9 +5266,9 @@
       <c r="N125" s="1"/>
       <c r="O125" s="1"/>
     </row>
-    <row r="126" spans="1:15">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A126" s="1"/>
-      <c r="B126" s="39"/>
+      <c r="B126" s="37"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
@@ -5828,9 +5283,9 @@
       <c r="N126" s="1"/>
       <c r="O126" s="1"/>
     </row>
-    <row r="127" spans="1:15">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A127" s="1"/>
-      <c r="B127" s="39"/>
+      <c r="B127" s="37"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
@@ -5845,9 +5300,9 @@
       <c r="N127" s="1"/>
       <c r="O127" s="1"/>
     </row>
-    <row r="128" spans="1:15">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A128" s="1"/>
-      <c r="B128" s="39"/>
+      <c r="B128" s="37"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
@@ -5862,9 +5317,9 @@
       <c r="N128" s="1"/>
       <c r="O128" s="1"/>
     </row>
-    <row r="129" spans="1:15">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A129" s="1"/>
-      <c r="B129" s="39"/>
+      <c r="B129" s="37"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
@@ -5879,9 +5334,9 @@
       <c r="N129" s="1"/>
       <c r="O129" s="1"/>
     </row>
-    <row r="130" spans="1:15">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A130" s="1"/>
-      <c r="B130" s="39"/>
+      <c r="B130" s="37"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
@@ -5896,9 +5351,9 @@
       <c r="N130" s="1"/>
       <c r="O130" s="1"/>
     </row>
-    <row r="131" spans="1:15">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A131" s="1"/>
-      <c r="B131" s="39"/>
+      <c r="B131" s="37"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
@@ -5913,9 +5368,9 @@
       <c r="N131" s="1"/>
       <c r="O131" s="1"/>
     </row>
-    <row r="132" spans="1:15">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A132" s="1"/>
-      <c r="B132" s="39"/>
+      <c r="B132" s="37"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
@@ -5930,9 +5385,9 @@
       <c r="N132" s="1"/>
       <c r="O132" s="1"/>
     </row>
-    <row r="133" spans="1:15">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A133" s="1"/>
-      <c r="B133" s="39"/>
+      <c r="B133" s="37"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
@@ -5947,9 +5402,9 @@
       <c r="N133" s="1"/>
       <c r="O133" s="1"/>
     </row>
-    <row r="134" spans="1:15">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A134" s="1"/>
-      <c r="B134" s="39"/>
+      <c r="B134" s="37"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
@@ -5964,9 +5419,9 @@
       <c r="N134" s="1"/>
       <c r="O134" s="1"/>
     </row>
-    <row r="135" spans="1:15">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A135" s="1"/>
-      <c r="B135" s="39"/>
+      <c r="B135" s="37"/>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
@@ -5981,9 +5436,9 @@
       <c r="N135" s="1"/>
       <c r="O135" s="1"/>
     </row>
-    <row r="136" spans="1:15">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A136" s="1"/>
-      <c r="B136" s="39"/>
+      <c r="B136" s="37"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
@@ -5998,9 +5453,9 @@
       <c r="N136" s="1"/>
       <c r="O136" s="1"/>
     </row>
-    <row r="137" spans="1:15">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A137" s="1"/>
-      <c r="B137" s="39"/>
+      <c r="B137" s="37"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
@@ -6015,9 +5470,9 @@
       <c r="N137" s="1"/>
       <c r="O137" s="1"/>
     </row>
-    <row r="138" spans="1:15">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A138" s="1"/>
-      <c r="B138" s="39"/>
+      <c r="B138" s="37"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
@@ -6032,9 +5487,9 @@
       <c r="N138" s="1"/>
       <c r="O138" s="1"/>
     </row>
-    <row r="139" spans="1:15">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A139" s="1"/>
-      <c r="B139" s="39"/>
+      <c r="B139" s="37"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
@@ -6049,9 +5504,9 @@
       <c r="N139" s="1"/>
       <c r="O139" s="1"/>
     </row>
-    <row r="140" spans="1:15">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A140" s="1"/>
-      <c r="B140" s="39"/>
+      <c r="B140" s="37"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
@@ -6066,9 +5521,9 @@
       <c r="N140" s="1"/>
       <c r="O140" s="1"/>
     </row>
-    <row r="141" spans="1:15">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A141" s="1"/>
-      <c r="B141" s="39"/>
+      <c r="B141" s="37"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
@@ -6083,9 +5538,9 @@
       <c r="N141" s="1"/>
       <c r="O141" s="1"/>
     </row>
-    <row r="142" spans="1:15">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A142" s="1"/>
-      <c r="B142" s="39"/>
+      <c r="B142" s="37"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
@@ -6100,9 +5555,9 @@
       <c r="N142" s="1"/>
       <c r="O142" s="1"/>
     </row>
-    <row r="143" spans="1:15">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A143" s="1"/>
-      <c r="B143" s="39"/>
+      <c r="B143" s="37"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
       <c r="E143" s="1"/>
@@ -6117,9 +5572,9 @@
       <c r="N143" s="1"/>
       <c r="O143" s="1"/>
     </row>
-    <row r="144" spans="1:15">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A144" s="1"/>
-      <c r="B144" s="39"/>
+      <c r="B144" s="37"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
@@ -6134,9 +5589,9 @@
       <c r="N144" s="1"/>
       <c r="O144" s="1"/>
     </row>
-    <row r="145" spans="1:15">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A145" s="1"/>
-      <c r="B145" s="39"/>
+      <c r="B145" s="37"/>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
       <c r="E145" s="1"/>
@@ -6151,9 +5606,9 @@
       <c r="N145" s="1"/>
       <c r="O145" s="1"/>
     </row>
-    <row r="146" spans="1:15">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A146" s="1"/>
-      <c r="B146" s="39"/>
+      <c r="B146" s="37"/>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
       <c r="E146" s="1"/>
@@ -6168,9 +5623,9 @@
       <c r="N146" s="1"/>
       <c r="O146" s="1"/>
     </row>
-    <row r="147" spans="1:15">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A147" s="1"/>
-      <c r="B147" s="39"/>
+      <c r="B147" s="37"/>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
       <c r="E147" s="1"/>
@@ -6185,9 +5640,9 @@
       <c r="N147" s="1"/>
       <c r="O147" s="1"/>
     </row>
-    <row r="148" spans="1:15">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A148" s="1"/>
-      <c r="B148" s="39"/>
+      <c r="B148" s="37"/>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
       <c r="E148" s="1"/>
@@ -6202,9 +5657,9 @@
       <c r="N148" s="1"/>
       <c r="O148" s="1"/>
     </row>
-    <row r="149" spans="1:15">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A149" s="1"/>
-      <c r="B149" s="39"/>
+      <c r="B149" s="37"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
@@ -6219,9 +5674,9 @@
       <c r="N149" s="1"/>
       <c r="O149" s="1"/>
     </row>
-    <row r="150" spans="1:15">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A150" s="1"/>
-      <c r="B150" s="39"/>
+      <c r="B150" s="37"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
       <c r="E150" s="1"/>
@@ -6236,9 +5691,9 @@
       <c r="N150" s="1"/>
       <c r="O150" s="1"/>
     </row>
-    <row r="151" spans="1:15">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A151" s="1"/>
-      <c r="B151" s="39"/>
+      <c r="B151" s="37"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
       <c r="E151" s="1"/>
@@ -6253,9 +5708,9 @@
       <c r="N151" s="1"/>
       <c r="O151" s="1"/>
     </row>
-    <row r="152" spans="1:15">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A152" s="1"/>
-      <c r="B152" s="39"/>
+      <c r="B152" s="37"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
       <c r="E152" s="1"/>
@@ -6270,9 +5725,9 @@
       <c r="N152" s="1"/>
       <c r="O152" s="1"/>
     </row>
-    <row r="153" spans="1:15">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A153" s="1"/>
-      <c r="B153" s="39"/>
+      <c r="B153" s="37"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
       <c r="E153" s="1"/>
@@ -6287,9 +5742,9 @@
       <c r="N153" s="1"/>
       <c r="O153" s="1"/>
     </row>
-    <row r="154" spans="1:15">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A154" s="1"/>
-      <c r="B154" s="39"/>
+      <c r="B154" s="37"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
       <c r="E154" s="1"/>
@@ -6304,9 +5759,9 @@
       <c r="N154" s="1"/>
       <c r="O154" s="1"/>
     </row>
-    <row r="155" spans="1:15">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A155" s="1"/>
-      <c r="B155" s="39"/>
+      <c r="B155" s="37"/>
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
       <c r="E155" s="1"/>
@@ -6321,9 +5776,9 @@
       <c r="N155" s="1"/>
       <c r="O155" s="1"/>
     </row>
-    <row r="156" spans="1:15">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A156" s="1"/>
-      <c r="B156" s="39"/>
+      <c r="B156" s="37"/>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
       <c r="E156" s="1"/>
@@ -6338,9 +5793,9 @@
       <c r="N156" s="1"/>
       <c r="O156" s="1"/>
     </row>
-    <row r="157" spans="1:15">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A157" s="1"/>
-      <c r="B157" s="39"/>
+      <c r="B157" s="37"/>
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
       <c r="E157" s="1"/>
@@ -6355,9 +5810,9 @@
       <c r="N157" s="1"/>
       <c r="O157" s="1"/>
     </row>
-    <row r="158" spans="1:15">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A158" s="1"/>
-      <c r="B158" s="39"/>
+      <c r="B158" s="37"/>
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
       <c r="E158" s="1"/>
@@ -6372,9 +5827,9 @@
       <c r="N158" s="1"/>
       <c r="O158" s="1"/>
     </row>
-    <row r="159" spans="1:15">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A159" s="1"/>
-      <c r="B159" s="39"/>
+      <c r="B159" s="37"/>
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
       <c r="E159" s="1"/>
@@ -6389,9 +5844,9 @@
       <c r="N159" s="1"/>
       <c r="O159" s="1"/>
     </row>
-    <row r="160" spans="1:15">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A160" s="1"/>
-      <c r="B160" s="39"/>
+      <c r="B160" s="37"/>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
       <c r="E160" s="1"/>
@@ -6406,9 +5861,9 @@
       <c r="N160" s="1"/>
       <c r="O160" s="1"/>
     </row>
-    <row r="161" spans="1:15">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A161" s="1"/>
-      <c r="B161" s="39"/>
+      <c r="B161" s="37"/>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
       <c r="E161" s="1"/>
@@ -6423,9 +5878,9 @@
       <c r="N161" s="1"/>
       <c r="O161" s="1"/>
     </row>
-    <row r="162" spans="1:15">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A162" s="1"/>
-      <c r="B162" s="39"/>
+      <c r="B162" s="37"/>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
       <c r="E162" s="1"/>
@@ -6440,9 +5895,9 @@
       <c r="N162" s="1"/>
       <c r="O162" s="1"/>
     </row>
-    <row r="163" spans="1:15">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A163" s="1"/>
-      <c r="B163" s="39"/>
+      <c r="B163" s="37"/>
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
       <c r="E163" s="1"/>
@@ -6457,9 +5912,9 @@
       <c r="N163" s="1"/>
       <c r="O163" s="1"/>
     </row>
-    <row r="164" spans="1:15">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A164" s="1"/>
-      <c r="B164" s="39"/>
+      <c r="B164" s="37"/>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
       <c r="E164" s="1"/>
@@ -6474,9 +5929,9 @@
       <c r="N164" s="1"/>
       <c r="O164" s="1"/>
     </row>
-    <row r="165" spans="1:15">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A165" s="1"/>
-      <c r="B165" s="39"/>
+      <c r="B165" s="37"/>
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
       <c r="E165" s="1"/>
@@ -6491,9 +5946,9 @@
       <c r="N165" s="1"/>
       <c r="O165" s="1"/>
     </row>
-    <row r="166" spans="1:15">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A166" s="1"/>
-      <c r="B166" s="39"/>
+      <c r="B166" s="37"/>
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
       <c r="E166" s="1"/>
@@ -6508,9 +5963,9 @@
       <c r="N166" s="1"/>
       <c r="O166" s="1"/>
     </row>
-    <row r="167" spans="1:15">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A167" s="1"/>
-      <c r="B167" s="39"/>
+      <c r="B167" s="37"/>
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
       <c r="E167" s="1"/>
@@ -6525,9 +5980,9 @@
       <c r="N167" s="1"/>
       <c r="O167" s="1"/>
     </row>
-    <row r="168" spans="1:15">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A168" s="1"/>
-      <c r="B168" s="39"/>
+      <c r="B168" s="37"/>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
       <c r="E168" s="1"/>
@@ -6542,9 +5997,9 @@
       <c r="N168" s="1"/>
       <c r="O168" s="1"/>
     </row>
-    <row r="169" spans="1:15">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A169" s="1"/>
-      <c r="B169" s="39"/>
+      <c r="B169" s="37"/>
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
       <c r="E169" s="1"/>
@@ -6559,9 +6014,9 @@
       <c r="N169" s="1"/>
       <c r="O169" s="1"/>
     </row>
-    <row r="170" spans="1:15">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A170" s="1"/>
-      <c r="B170" s="39"/>
+      <c r="B170" s="37"/>
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
       <c r="E170" s="1"/>
@@ -6576,9 +6031,9 @@
       <c r="N170" s="1"/>
       <c r="O170" s="1"/>
     </row>
-    <row r="171" spans="1:15">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A171" s="1"/>
-      <c r="B171" s="39"/>
+      <c r="B171" s="37"/>
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
       <c r="E171" s="1"/>
@@ -6593,9 +6048,9 @@
       <c r="N171" s="1"/>
       <c r="O171" s="1"/>
     </row>
-    <row r="172" spans="1:15">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A172" s="1"/>
-      <c r="B172" s="39"/>
+      <c r="B172" s="37"/>
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
       <c r="E172" s="1"/>
@@ -6610,9 +6065,9 @@
       <c r="N172" s="1"/>
       <c r="O172" s="1"/>
     </row>
-    <row r="173" spans="1:15">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A173" s="1"/>
-      <c r="B173" s="39"/>
+      <c r="B173" s="37"/>
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
       <c r="E173" s="1"/>
@@ -6627,9 +6082,9 @@
       <c r="N173" s="1"/>
       <c r="O173" s="1"/>
     </row>
-    <row r="174" spans="1:15">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A174" s="1"/>
-      <c r="B174" s="39"/>
+      <c r="B174" s="37"/>
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
       <c r="E174" s="1"/>
@@ -6644,9 +6099,9 @@
       <c r="N174" s="1"/>
       <c r="O174" s="1"/>
     </row>
-    <row r="175" spans="1:15">
+    <row r="175" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A175" s="1"/>
-      <c r="B175" s="39"/>
+      <c r="B175" s="37"/>
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
       <c r="E175" s="1"/>
@@ -6661,9 +6116,9 @@
       <c r="N175" s="1"/>
       <c r="O175" s="1"/>
     </row>
-    <row r="176" spans="1:15">
+    <row r="176" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A176" s="1"/>
-      <c r="B176" s="39"/>
+      <c r="B176" s="37"/>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
       <c r="E176" s="1"/>
@@ -6678,9 +6133,9 @@
       <c r="N176" s="1"/>
       <c r="O176" s="1"/>
     </row>
-    <row r="177" spans="1:15">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A177" s="1"/>
-      <c r="B177" s="39"/>
+      <c r="B177" s="37"/>
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
       <c r="E177" s="1"/>
@@ -6695,9 +6150,9 @@
       <c r="N177" s="1"/>
       <c r="O177" s="1"/>
     </row>
-    <row r="178" spans="1:15">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A178" s="1"/>
-      <c r="B178" s="39"/>
+      <c r="B178" s="37"/>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
       <c r="E178" s="1"/>
@@ -6712,9 +6167,9 @@
       <c r="N178" s="1"/>
       <c r="O178" s="1"/>
     </row>
-    <row r="179" spans="1:15">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A179" s="1"/>
-      <c r="B179" s="39"/>
+      <c r="B179" s="37"/>
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
       <c r="E179" s="1"/>
@@ -6729,9 +6184,9 @@
       <c r="N179" s="1"/>
       <c r="O179" s="1"/>
     </row>
-    <row r="180" spans="1:15">
+    <row r="180" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A180" s="1"/>
-      <c r="B180" s="39"/>
+      <c r="B180" s="37"/>
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
       <c r="E180" s="1"/>
@@ -6746,9 +6201,9 @@
       <c r="N180" s="1"/>
       <c r="O180" s="1"/>
     </row>
-    <row r="181" spans="1:15">
+    <row r="181" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A181" s="1"/>
-      <c r="B181" s="39"/>
+      <c r="B181" s="37"/>
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
       <c r="E181" s="1"/>
@@ -6763,9 +6218,9 @@
       <c r="N181" s="1"/>
       <c r="O181" s="1"/>
     </row>
-    <row r="182" spans="1:15">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A182" s="1"/>
-      <c r="B182" s="39"/>
+      <c r="B182" s="37"/>
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
       <c r="E182" s="1"/>
@@ -6780,9 +6235,9 @@
       <c r="N182" s="1"/>
       <c r="O182" s="1"/>
     </row>
-    <row r="183" spans="1:15">
+    <row r="183" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A183" s="1"/>
-      <c r="B183" s="39"/>
+      <c r="B183" s="37"/>
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
       <c r="E183" s="1"/>
@@ -6797,9 +6252,9 @@
       <c r="N183" s="1"/>
       <c r="O183" s="1"/>
     </row>
-    <row r="184" spans="1:15">
+    <row r="184" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A184" s="1"/>
-      <c r="B184" s="39"/>
+      <c r="B184" s="37"/>
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
       <c r="E184" s="1"/>
@@ -6814,9 +6269,9 @@
       <c r="N184" s="1"/>
       <c r="O184" s="1"/>
     </row>
-    <row r="185" spans="1:15">
+    <row r="185" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A185" s="1"/>
-      <c r="B185" s="39"/>
+      <c r="B185" s="37"/>
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
       <c r="E185" s="1"/>
@@ -6831,9 +6286,9 @@
       <c r="N185" s="1"/>
       <c r="O185" s="1"/>
     </row>
-    <row r="186" spans="1:15">
+    <row r="186" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A186" s="1"/>
-      <c r="B186" s="39"/>
+      <c r="B186" s="37"/>
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
       <c r="E186" s="1"/>
@@ -6848,9 +6303,9 @@
       <c r="N186" s="1"/>
       <c r="O186" s="1"/>
     </row>
-    <row r="187" spans="1:15">
+    <row r="187" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A187" s="1"/>
-      <c r="B187" s="39"/>
+      <c r="B187" s="37"/>
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
       <c r="E187" s="1"/>
@@ -6865,9 +6320,9 @@
       <c r="N187" s="1"/>
       <c r="O187" s="1"/>
     </row>
-    <row r="188" spans="1:15">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A188" s="1"/>
-      <c r="B188" s="39"/>
+      <c r="B188" s="37"/>
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
       <c r="E188" s="1"/>
@@ -6882,9 +6337,9 @@
       <c r="N188" s="1"/>
       <c r="O188" s="1"/>
     </row>
-    <row r="189" spans="1:15">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A189" s="1"/>
-      <c r="B189" s="39"/>
+      <c r="B189" s="37"/>
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
       <c r="E189" s="1"/>
@@ -6899,9 +6354,9 @@
       <c r="N189" s="1"/>
       <c r="O189" s="1"/>
     </row>
-    <row r="190" spans="1:15">
+    <row r="190" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A190" s="1"/>
-      <c r="B190" s="39"/>
+      <c r="B190" s="37"/>
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
       <c r="E190" s="1"/>
@@ -6916,9 +6371,9 @@
       <c r="N190" s="1"/>
       <c r="O190" s="1"/>
     </row>
-    <row r="191" spans="1:15">
+    <row r="191" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A191" s="1"/>
-      <c r="B191" s="39"/>
+      <c r="B191" s="37"/>
       <c r="C191" s="1"/>
       <c r="D191" s="1"/>
       <c r="E191" s="1"/>
@@ -6933,9 +6388,9 @@
       <c r="N191" s="1"/>
       <c r="O191" s="1"/>
     </row>
-    <row r="192" spans="1:15">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A192" s="1"/>
-      <c r="B192" s="39"/>
+      <c r="B192" s="37"/>
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
       <c r="E192" s="1"/>
@@ -6950,9 +6405,9 @@
       <c r="N192" s="1"/>
       <c r="O192" s="1"/>
     </row>
-    <row r="193" spans="1:15">
+    <row r="193" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A193" s="1"/>
-      <c r="B193" s="39"/>
+      <c r="B193" s="37"/>
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
       <c r="E193" s="1"/>
@@ -6967,9 +6422,9 @@
       <c r="N193" s="1"/>
       <c r="O193" s="1"/>
     </row>
-    <row r="194" spans="1:15">
+    <row r="194" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A194" s="1"/>
-      <c r="B194" s="39"/>
+      <c r="B194" s="37"/>
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
       <c r="E194" s="1"/>
@@ -6984,9 +6439,9 @@
       <c r="N194" s="1"/>
       <c r="O194" s="1"/>
     </row>
-    <row r="195" spans="1:15">
+    <row r="195" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A195" s="1"/>
-      <c r="B195" s="39"/>
+      <c r="B195" s="37"/>
       <c r="C195" s="1"/>
       <c r="D195" s="1"/>
       <c r="E195" s="1"/>
@@ -7001,9 +6456,9 @@
       <c r="N195" s="1"/>
       <c r="O195" s="1"/>
     </row>
-    <row r="196" spans="1:15">
+    <row r="196" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A196" s="1"/>
-      <c r="B196" s="39"/>
+      <c r="B196" s="37"/>
       <c r="C196" s="1"/>
       <c r="D196" s="1"/>
       <c r="E196" s="1"/>
@@ -7018,9 +6473,9 @@
       <c r="N196" s="1"/>
       <c r="O196" s="1"/>
     </row>
-    <row r="197" spans="1:15">
+    <row r="197" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A197" s="1"/>
-      <c r="B197" s="39"/>
+      <c r="B197" s="37"/>
       <c r="C197" s="1"/>
       <c r="D197" s="1"/>
       <c r="E197" s="1"/>
@@ -7035,9 +6490,9 @@
       <c r="N197" s="1"/>
       <c r="O197" s="1"/>
     </row>
-    <row r="198" spans="1:15">
+    <row r="198" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A198" s="1"/>
-      <c r="B198" s="39"/>
+      <c r="B198" s="37"/>
       <c r="C198" s="1"/>
       <c r="D198" s="1"/>
       <c r="E198" s="1"/>
@@ -7052,9 +6507,9 @@
       <c r="N198" s="1"/>
       <c r="O198" s="1"/>
     </row>
-    <row r="199" spans="1:15">
+    <row r="199" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A199" s="1"/>
-      <c r="B199" s="39"/>
+      <c r="B199" s="37"/>
       <c r="C199" s="1"/>
       <c r="D199" s="1"/>
       <c r="E199" s="1"/>
@@ -7069,9 +6524,9 @@
       <c r="N199" s="1"/>
       <c r="O199" s="1"/>
     </row>
-    <row r="200" spans="1:15">
+    <row r="200" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A200" s="1"/>
-      <c r="B200" s="39"/>
+      <c r="B200" s="37"/>
       <c r="C200" s="1"/>
       <c r="D200" s="1"/>
       <c r="E200" s="1"/>
@@ -7086,9 +6541,9 @@
       <c r="N200" s="1"/>
       <c r="O200" s="1"/>
     </row>
-    <row r="201" spans="1:15">
+    <row r="201" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A201" s="1"/>
-      <c r="B201" s="39"/>
+      <c r="B201" s="37"/>
       <c r="C201" s="1"/>
       <c r="D201" s="1"/>
       <c r="E201" s="1"/>
@@ -7103,9 +6558,9 @@
       <c r="N201" s="1"/>
       <c r="O201" s="1"/>
     </row>
-    <row r="202" spans="1:15">
+    <row r="202" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A202" s="1"/>
-      <c r="B202" s="39"/>
+      <c r="B202" s="37"/>
       <c r="C202" s="1"/>
       <c r="D202" s="1"/>
       <c r="E202" s="1"/>
@@ -7120,9 +6575,9 @@
       <c r="N202" s="1"/>
       <c r="O202" s="1"/>
     </row>
-    <row r="203" spans="1:15">
+    <row r="203" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A203" s="1"/>
-      <c r="B203" s="39"/>
+      <c r="B203" s="37"/>
       <c r="C203" s="1"/>
       <c r="D203" s="1"/>
       <c r="E203" s="1"/>
@@ -7137,9 +6592,9 @@
       <c r="N203" s="1"/>
       <c r="O203" s="1"/>
     </row>
-    <row r="204" spans="1:15">
+    <row r="204" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A204" s="1"/>
-      <c r="B204" s="39"/>
+      <c r="B204" s="37"/>
       <c r="C204" s="1"/>
       <c r="D204" s="1"/>
       <c r="E204" s="1"/>
@@ -7154,9 +6609,9 @@
       <c r="N204" s="1"/>
       <c r="O204" s="1"/>
     </row>
-    <row r="205" spans="1:15">
+    <row r="205" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A205" s="1"/>
-      <c r="B205" s="39"/>
+      <c r="B205" s="37"/>
       <c r="C205" s="1"/>
       <c r="D205" s="1"/>
       <c r="E205" s="1"/>
@@ -7171,9 +6626,9 @@
       <c r="N205" s="1"/>
       <c r="O205" s="1"/>
     </row>
-    <row r="206" spans="1:15">
+    <row r="206" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A206" s="1"/>
-      <c r="B206" s="39"/>
+      <c r="B206" s="37"/>
       <c r="C206" s="1"/>
       <c r="D206" s="1"/>
       <c r="E206" s="1"/>
@@ -7188,9 +6643,9 @@
       <c r="N206" s="1"/>
       <c r="O206" s="1"/>
     </row>
-    <row r="207" spans="1:15">
+    <row r="207" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A207" s="1"/>
-      <c r="B207" s="39"/>
+      <c r="B207" s="37"/>
       <c r="C207" s="1"/>
       <c r="D207" s="1"/>
       <c r="E207" s="1"/>
@@ -7205,9 +6660,9 @@
       <c r="N207" s="1"/>
       <c r="O207" s="1"/>
     </row>
-    <row r="208" spans="1:15">
+    <row r="208" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A208" s="1"/>
-      <c r="B208" s="39"/>
+      <c r="B208" s="37"/>
       <c r="C208" s="1"/>
       <c r="D208" s="1"/>
       <c r="E208" s="1"/>
@@ -7222,9 +6677,9 @@
       <c r="N208" s="1"/>
       <c r="O208" s="1"/>
     </row>
-    <row r="209" spans="1:15">
+    <row r="209" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A209" s="1"/>
-      <c r="B209" s="39"/>
+      <c r="B209" s="37"/>
       <c r="C209" s="1"/>
       <c r="D209" s="1"/>
       <c r="E209" s="1"/>
@@ -7239,9 +6694,9 @@
       <c r="N209" s="1"/>
       <c r="O209" s="1"/>
     </row>
-    <row r="210" spans="1:15">
+    <row r="210" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A210" s="1"/>
-      <c r="B210" s="39"/>
+      <c r="B210" s="37"/>
       <c r="C210" s="1"/>
       <c r="D210" s="1"/>
       <c r="E210" s="1"/>
@@ -7256,9 +6711,9 @@
       <c r="N210" s="1"/>
       <c r="O210" s="1"/>
     </row>
-    <row r="211" spans="1:15">
+    <row r="211" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A211" s="1"/>
-      <c r="B211" s="39"/>
+      <c r="B211" s="37"/>
       <c r="C211" s="1"/>
       <c r="D211" s="1"/>
       <c r="E211" s="1"/>
@@ -7273,9 +6728,9 @@
       <c r="N211" s="1"/>
       <c r="O211" s="1"/>
     </row>
-    <row r="212" spans="1:15">
+    <row r="212" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A212" s="1"/>
-      <c r="B212" s="39"/>
+      <c r="B212" s="37"/>
       <c r="C212" s="1"/>
       <c r="D212" s="1"/>
       <c r="E212" s="1"/>
@@ -7290,9 +6745,9 @@
       <c r="N212" s="1"/>
       <c r="O212" s="1"/>
     </row>
-    <row r="213" spans="1:15">
+    <row r="213" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A213" s="1"/>
-      <c r="B213" s="39"/>
+      <c r="B213" s="37"/>
       <c r="C213" s="1"/>
       <c r="D213" s="1"/>
       <c r="E213" s="1"/>
@@ -7307,9 +6762,9 @@
       <c r="N213" s="1"/>
       <c r="O213" s="1"/>
     </row>
-    <row r="214" spans="1:15">
+    <row r="214" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A214" s="1"/>
-      <c r="B214" s="39"/>
+      <c r="B214" s="37"/>
       <c r="C214" s="1"/>
       <c r="D214" s="1"/>
       <c r="E214" s="1"/>
@@ -7324,9 +6779,9 @@
       <c r="N214" s="1"/>
       <c r="O214" s="1"/>
     </row>
-    <row r="215" spans="1:15">
+    <row r="215" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A215" s="1"/>
-      <c r="B215" s="39"/>
+      <c r="B215" s="37"/>
       <c r="C215" s="1"/>
       <c r="D215" s="1"/>
       <c r="E215" s="1"/>
@@ -7341,9 +6796,9 @@
       <c r="N215" s="1"/>
       <c r="O215" s="1"/>
     </row>
-    <row r="216" spans="1:15">
+    <row r="216" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A216" s="1"/>
-      <c r="B216" s="39"/>
+      <c r="B216" s="37"/>
       <c r="C216" s="1"/>
       <c r="D216" s="1"/>
       <c r="E216" s="1"/>
@@ -7358,9 +6813,9 @@
       <c r="N216" s="1"/>
       <c r="O216" s="1"/>
     </row>
-    <row r="217" spans="1:15">
+    <row r="217" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A217" s="1"/>
-      <c r="B217" s="39"/>
+      <c r="B217" s="37"/>
       <c r="C217" s="1"/>
       <c r="D217" s="1"/>
       <c r="E217" s="1"/>
@@ -7375,9 +6830,9 @@
       <c r="N217" s="1"/>
       <c r="O217" s="1"/>
     </row>
-    <row r="218" spans="1:15">
+    <row r="218" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A218" s="1"/>
-      <c r="B218" s="39"/>
+      <c r="B218" s="37"/>
       <c r="C218" s="1"/>
       <c r="D218" s="1"/>
       <c r="E218" s="1"/>
@@ -7392,9 +6847,9 @@
       <c r="N218" s="1"/>
       <c r="O218" s="1"/>
     </row>
-    <row r="219" spans="1:15">
+    <row r="219" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A219" s="1"/>
-      <c r="B219" s="39"/>
+      <c r="B219" s="37"/>
       <c r="C219" s="1"/>
       <c r="D219" s="1"/>
       <c r="E219" s="1"/>
@@ -7409,9 +6864,9 @@
       <c r="N219" s="1"/>
       <c r="O219" s="1"/>
     </row>
-    <row r="220" spans="1:15">
+    <row r="220" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A220" s="1"/>
-      <c r="B220" s="39"/>
+      <c r="B220" s="37"/>
       <c r="C220" s="1"/>
       <c r="D220" s="1"/>
       <c r="E220" s="1"/>
@@ -7426,9 +6881,9 @@
       <c r="N220" s="1"/>
       <c r="O220" s="1"/>
     </row>
-    <row r="221" spans="1:15">
+    <row r="221" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A221" s="1"/>
-      <c r="B221" s="39"/>
+      <c r="B221" s="37"/>
       <c r="C221" s="1"/>
       <c r="D221" s="1"/>
       <c r="E221" s="1"/>
@@ -7443,9 +6898,9 @@
       <c r="N221" s="1"/>
       <c r="O221" s="1"/>
     </row>
-    <row r="222" spans="1:15">
+    <row r="222" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A222" s="1"/>
-      <c r="B222" s="39"/>
+      <c r="B222" s="37"/>
       <c r="C222" s="1"/>
       <c r="D222" s="1"/>
       <c r="E222" s="1"/>
@@ -7460,9 +6915,9 @@
       <c r="N222" s="1"/>
       <c r="O222" s="1"/>
     </row>
-    <row r="223" spans="1:15">
+    <row r="223" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A223" s="1"/>
-      <c r="B223" s="39"/>
+      <c r="B223" s="37"/>
       <c r="C223" s="1"/>
       <c r="D223" s="1"/>
       <c r="E223" s="1"/>
@@ -7477,9 +6932,9 @@
       <c r="N223" s="1"/>
       <c r="O223" s="1"/>
     </row>
-    <row r="224" spans="1:15">
+    <row r="224" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A224" s="1"/>
-      <c r="B224" s="39"/>
+      <c r="B224" s="37"/>
       <c r="C224" s="1"/>
       <c r="D224" s="1"/>
       <c r="E224" s="1"/>
@@ -7494,9 +6949,9 @@
       <c r="N224" s="1"/>
       <c r="O224" s="1"/>
     </row>
-    <row r="225" spans="1:15">
+    <row r="225" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A225" s="1"/>
-      <c r="B225" s="39"/>
+      <c r="B225" s="37"/>
       <c r="C225" s="1"/>
       <c r="D225" s="1"/>
       <c r="E225" s="1"/>
@@ -7511,9 +6966,9 @@
       <c r="N225" s="1"/>
       <c r="O225" s="1"/>
     </row>
-    <row r="226" spans="1:15">
+    <row r="226" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A226" s="1"/>
-      <c r="B226" s="39"/>
+      <c r="B226" s="37"/>
       <c r="C226" s="1"/>
       <c r="D226" s="1"/>
       <c r="E226" s="1"/>
@@ -7528,9 +6983,9 @@
       <c r="N226" s="1"/>
       <c r="O226" s="1"/>
     </row>
-    <row r="227" spans="1:15">
+    <row r="227" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A227" s="1"/>
-      <c r="B227" s="39"/>
+      <c r="B227" s="37"/>
       <c r="C227" s="1"/>
       <c r="D227" s="1"/>
       <c r="E227" s="1"/>
@@ -7545,9 +7000,9 @@
       <c r="N227" s="1"/>
       <c r="O227" s="1"/>
     </row>
-    <row r="228" spans="1:15">
+    <row r="228" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A228" s="1"/>
-      <c r="B228" s="39"/>
+      <c r="B228" s="37"/>
       <c r="C228" s="1"/>
       <c r="D228" s="1"/>
       <c r="E228" s="1"/>
@@ -7562,9 +7017,9 @@
       <c r="N228" s="1"/>
       <c r="O228" s="1"/>
     </row>
-    <row r="229" spans="1:15">
+    <row r="229" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A229" s="1"/>
-      <c r="B229" s="39"/>
+      <c r="B229" s="37"/>
       <c r="C229" s="1"/>
       <c r="D229" s="1"/>
       <c r="E229" s="1"/>
@@ -7579,9 +7034,9 @@
       <c r="N229" s="1"/>
       <c r="O229" s="1"/>
     </row>
-    <row r="230" spans="1:15">
+    <row r="230" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A230" s="1"/>
-      <c r="B230" s="39"/>
+      <c r="B230" s="37"/>
       <c r="C230" s="1"/>
       <c r="D230" s="1"/>
       <c r="E230" s="1"/>
@@ -7596,9 +7051,9 @@
       <c r="N230" s="1"/>
       <c r="O230" s="1"/>
     </row>
-    <row r="231" spans="1:15">
+    <row r="231" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A231" s="1"/>
-      <c r="B231" s="39"/>
+      <c r="B231" s="37"/>
       <c r="C231" s="1"/>
       <c r="D231" s="1"/>
       <c r="E231" s="1"/>
@@ -7613,9 +7068,9 @@
       <c r="N231" s="1"/>
       <c r="O231" s="1"/>
     </row>
-    <row r="232" spans="1:15">
+    <row r="232" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A232" s="1"/>
-      <c r="B232" s="39"/>
+      <c r="B232" s="37"/>
       <c r="C232" s="1"/>
       <c r="D232" s="1"/>
       <c r="E232" s="1"/>
@@ -7630,9 +7085,9 @@
       <c r="N232" s="1"/>
       <c r="O232" s="1"/>
     </row>
-    <row r="233" spans="1:15">
+    <row r="233" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A233" s="1"/>
-      <c r="B233" s="39"/>
+      <c r="B233" s="37"/>
       <c r="C233" s="1"/>
       <c r="D233" s="1"/>
       <c r="E233" s="1"/>
@@ -7647,9 +7102,9 @@
       <c r="N233" s="1"/>
       <c r="O233" s="1"/>
     </row>
-    <row r="234" spans="1:15">
+    <row r="234" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A234" s="1"/>
-      <c r="B234" s="39"/>
+      <c r="B234" s="37"/>
       <c r="C234" s="1"/>
       <c r="D234" s="1"/>
       <c r="E234" s="1"/>
@@ -7664,9 +7119,9 @@
       <c r="N234" s="1"/>
       <c r="O234" s="1"/>
     </row>
-    <row r="235" spans="1:15">
+    <row r="235" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A235" s="1"/>
-      <c r="B235" s="39"/>
+      <c r="B235" s="37"/>
       <c r="C235" s="1"/>
       <c r="D235" s="1"/>
       <c r="E235" s="1"/>
@@ -7681,9 +7136,9 @@
       <c r="N235" s="1"/>
       <c r="O235" s="1"/>
     </row>
-    <row r="236" spans="1:15">
+    <row r="236" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A236" s="1"/>
-      <c r="B236" s="39"/>
+      <c r="B236" s="37"/>
       <c r="C236" s="1"/>
       <c r="D236" s="1"/>
       <c r="E236" s="1"/>
@@ -7698,9 +7153,9 @@
       <c r="N236" s="1"/>
       <c r="O236" s="1"/>
     </row>
-    <row r="237" spans="1:15">
+    <row r="237" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A237" s="1"/>
-      <c r="B237" s="39"/>
+      <c r="B237" s="37"/>
       <c r="C237" s="1"/>
       <c r="D237" s="1"/>
       <c r="E237" s="1"/>
@@ -7715,9 +7170,9 @@
       <c r="N237" s="1"/>
       <c r="O237" s="1"/>
     </row>
-    <row r="238" spans="1:15">
+    <row r="238" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A238" s="1"/>
-      <c r="B238" s="39"/>
+      <c r="B238" s="37"/>
       <c r="C238" s="1"/>
       <c r="D238" s="1"/>
       <c r="E238" s="1"/>
@@ -7732,9 +7187,9 @@
       <c r="N238" s="1"/>
       <c r="O238" s="1"/>
     </row>
-    <row r="239" spans="1:15">
+    <row r="239" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A239" s="1"/>
-      <c r="B239" s="39"/>
+      <c r="B239" s="37"/>
       <c r="C239" s="1"/>
       <c r="D239" s="1"/>
       <c r="E239" s="1"/>
@@ -7749,9 +7204,9 @@
       <c r="N239" s="1"/>
       <c r="O239" s="1"/>
     </row>
-    <row r="240" spans="1:15">
+    <row r="240" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A240" s="1"/>
-      <c r="B240" s="39"/>
+      <c r="B240" s="37"/>
       <c r="C240" s="1"/>
       <c r="D240" s="1"/>
       <c r="E240" s="1"/>
@@ -7766,9 +7221,9 @@
       <c r="N240" s="1"/>
       <c r="O240" s="1"/>
     </row>
-    <row r="241" spans="1:15">
+    <row r="241" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A241" s="1"/>
-      <c r="B241" s="39"/>
+      <c r="B241" s="37"/>
       <c r="C241" s="1"/>
       <c r="D241" s="1"/>
       <c r="E241" s="1"/>
@@ -7783,9 +7238,9 @@
       <c r="N241" s="1"/>
       <c r="O241" s="1"/>
     </row>
-    <row r="242" spans="1:15">
+    <row r="242" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A242" s="1"/>
-      <c r="B242" s="39"/>
+      <c r="B242" s="37"/>
       <c r="C242" s="1"/>
       <c r="D242" s="1"/>
       <c r="E242" s="1"/>
@@ -7800,9 +7255,9 @@
       <c r="N242" s="1"/>
       <c r="O242" s="1"/>
     </row>
-    <row r="243" spans="1:15">
+    <row r="243" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A243" s="1"/>
-      <c r="B243" s="39"/>
+      <c r="B243" s="37"/>
       <c r="C243" s="1"/>
       <c r="D243" s="1"/>
       <c r="E243" s="1"/>
@@ -7817,9 +7272,9 @@
       <c r="N243" s="1"/>
       <c r="O243" s="1"/>
     </row>
-    <row r="244" spans="1:15">
+    <row r="244" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A244" s="1"/>
-      <c r="B244" s="39"/>
+      <c r="B244" s="37"/>
       <c r="C244" s="1"/>
       <c r="D244" s="1"/>
       <c r="E244" s="1"/>
@@ -7834,9 +7289,9 @@
       <c r="N244" s="1"/>
       <c r="O244" s="1"/>
     </row>
-    <row r="245" spans="1:15">
+    <row r="245" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A245" s="1"/>
-      <c r="B245" s="39"/>
+      <c r="B245" s="37"/>
       <c r="C245" s="1"/>
       <c r="D245" s="1"/>
       <c r="E245" s="1"/>
@@ -7851,9 +7306,9 @@
       <c r="N245" s="1"/>
       <c r="O245" s="1"/>
     </row>
-    <row r="246" spans="1:15">
+    <row r="246" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A246" s="1"/>
-      <c r="B246" s="39"/>
+      <c r="B246" s="37"/>
       <c r="C246" s="1"/>
       <c r="D246" s="1"/>
       <c r="E246" s="1"/>
@@ -7868,9 +7323,9 @@
       <c r="N246" s="1"/>
       <c r="O246" s="1"/>
     </row>
-    <row r="247" spans="1:15">
+    <row r="247" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A247" s="1"/>
-      <c r="B247" s="39"/>
+      <c r="B247" s="37"/>
       <c r="C247" s="1"/>
       <c r="D247" s="1"/>
       <c r="E247" s="1"/>
@@ -7885,9 +7340,9 @@
       <c r="N247" s="1"/>
       <c r="O247" s="1"/>
     </row>
-    <row r="248" spans="1:15">
+    <row r="248" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A248" s="1"/>
-      <c r="B248" s="39"/>
+      <c r="B248" s="37"/>
       <c r="C248" s="1"/>
       <c r="D248" s="1"/>
       <c r="E248" s="1"/>
@@ -7902,9 +7357,9 @@
       <c r="N248" s="1"/>
       <c r="O248" s="1"/>
     </row>
-    <row r="249" spans="1:15">
+    <row r="249" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A249" s="1"/>
-      <c r="B249" s="39"/>
+      <c r="B249" s="37"/>
       <c r="C249" s="1"/>
       <c r="D249" s="1"/>
       <c r="E249" s="1"/>
@@ -7919,9 +7374,9 @@
       <c r="N249" s="1"/>
       <c r="O249" s="1"/>
     </row>
-    <row r="250" spans="1:15">
+    <row r="250" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A250" s="1"/>
-      <c r="B250" s="39"/>
+      <c r="B250" s="37"/>
       <c r="C250" s="1"/>
       <c r="D250" s="1"/>
       <c r="E250" s="1"/>
@@ -7936,9 +7391,9 @@
       <c r="N250" s="1"/>
       <c r="O250" s="1"/>
     </row>
-    <row r="251" spans="1:15">
+    <row r="251" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A251" s="1"/>
-      <c r="B251" s="39"/>
+      <c r="B251" s="37"/>
       <c r="C251" s="1"/>
       <c r="D251" s="1"/>
       <c r="E251" s="1"/>
@@ -7953,9 +7408,9 @@
       <c r="N251" s="1"/>
       <c r="O251" s="1"/>
     </row>
-    <row r="252" spans="1:15">
+    <row r="252" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A252" s="1"/>
-      <c r="B252" s="39"/>
+      <c r="B252" s="37"/>
       <c r="C252" s="1"/>
       <c r="D252" s="1"/>
       <c r="E252" s="1"/>
@@ -7970,9 +7425,9 @@
       <c r="N252" s="1"/>
       <c r="O252" s="1"/>
     </row>
-    <row r="253" spans="1:15">
+    <row r="253" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A253" s="1"/>
-      <c r="B253" s="39"/>
+      <c r="B253" s="37"/>
       <c r="C253" s="1"/>
       <c r="D253" s="1"/>
       <c r="E253" s="1"/>
@@ -7987,9 +7442,9 @@
       <c r="N253" s="1"/>
       <c r="O253" s="1"/>
     </row>
-    <row r="254" spans="1:15">
+    <row r="254" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A254" s="1"/>
-      <c r="B254" s="39"/>
+      <c r="B254" s="37"/>
       <c r="C254" s="1"/>
       <c r="D254" s="1"/>
       <c r="E254" s="1"/>
@@ -8004,9 +7459,9 @@
       <c r="N254" s="1"/>
       <c r="O254" s="1"/>
     </row>
-    <row r="255" spans="1:15">
+    <row r="255" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A255" s="1"/>
-      <c r="B255" s="39"/>
+      <c r="B255" s="37"/>
       <c r="C255" s="1"/>
       <c r="D255" s="1"/>
       <c r="E255" s="1"/>
@@ -8021,9 +7476,9 @@
       <c r="N255" s="1"/>
       <c r="O255" s="1"/>
     </row>
-    <row r="256" spans="1:15">
+    <row r="256" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A256" s="1"/>
-      <c r="B256" s="39"/>
+      <c r="B256" s="37"/>
       <c r="C256" s="1"/>
       <c r="D256" s="1"/>
       <c r="E256" s="1"/>
@@ -8038,9 +7493,9 @@
       <c r="N256" s="1"/>
       <c r="O256" s="1"/>
     </row>
-    <row r="257" spans="1:15">
+    <row r="257" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A257" s="1"/>
-      <c r="B257" s="39"/>
+      <c r="B257" s="37"/>
       <c r="C257" s="1"/>
       <c r="D257" s="1"/>
       <c r="E257" s="1"/>
@@ -8055,9 +7510,9 @@
       <c r="N257" s="1"/>
       <c r="O257" s="1"/>
     </row>
-    <row r="258" spans="1:15">
+    <row r="258" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A258" s="1"/>
-      <c r="B258" s="39"/>
+      <c r="B258" s="37"/>
       <c r="C258" s="1"/>
       <c r="D258" s="1"/>
       <c r="E258" s="1"/>
@@ -8072,9 +7527,9 @@
       <c r="N258" s="1"/>
       <c r="O258" s="1"/>
     </row>
-    <row r="259" spans="1:15">
+    <row r="259" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A259" s="1"/>
-      <c r="B259" s="39"/>
+      <c r="B259" s="37"/>
       <c r="C259" s="1"/>
       <c r="D259" s="1"/>
       <c r="E259" s="1"/>
@@ -8089,9 +7544,9 @@
       <c r="N259" s="1"/>
       <c r="O259" s="1"/>
     </row>
-    <row r="260" spans="1:15">
+    <row r="260" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A260" s="1"/>
-      <c r="B260" s="39"/>
+      <c r="B260" s="37"/>
       <c r="C260" s="1"/>
       <c r="D260" s="1"/>
       <c r="E260" s="1"/>
@@ -8106,9 +7561,9 @@
       <c r="N260" s="1"/>
       <c r="O260" s="1"/>
     </row>
-    <row r="261" spans="1:15">
+    <row r="261" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A261" s="1"/>
-      <c r="B261" s="39"/>
+      <c r="B261" s="37"/>
       <c r="C261" s="1"/>
       <c r="D261" s="1"/>
       <c r="E261" s="1"/>
@@ -8123,9 +7578,9 @@
       <c r="N261" s="1"/>
       <c r="O261" s="1"/>
     </row>
-    <row r="262" spans="1:15">
+    <row r="262" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A262" s="1"/>
-      <c r="B262" s="39"/>
+      <c r="B262" s="37"/>
       <c r="C262" s="1"/>
       <c r="D262" s="1"/>
       <c r="E262" s="1"/>
@@ -8140,9 +7595,9 @@
       <c r="N262" s="1"/>
       <c r="O262" s="1"/>
     </row>
-    <row r="263" spans="1:15">
+    <row r="263" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A263" s="1"/>
-      <c r="B263" s="39"/>
+      <c r="B263" s="37"/>
       <c r="C263" s="1"/>
       <c r="D263" s="1"/>
       <c r="E263" s="1"/>
@@ -8157,9 +7612,9 @@
       <c r="N263" s="1"/>
       <c r="O263" s="1"/>
     </row>
-    <row r="264" spans="1:15">
+    <row r="264" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A264" s="1"/>
-      <c r="B264" s="39"/>
+      <c r="B264" s="37"/>
       <c r="C264" s="1"/>
       <c r="D264" s="1"/>
       <c r="E264" s="1"/>
@@ -8174,9 +7629,9 @@
       <c r="N264" s="1"/>
       <c r="O264" s="1"/>
     </row>
-    <row r="265" spans="1:15">
+    <row r="265" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A265" s="1"/>
-      <c r="B265" s="39"/>
+      <c r="B265" s="37"/>
       <c r="C265" s="1"/>
       <c r="D265" s="1"/>
       <c r="E265" s="1"/>
@@ -8191,9 +7646,9 @@
       <c r="N265" s="1"/>
       <c r="O265" s="1"/>
     </row>
-    <row r="266" spans="1:15">
+    <row r="266" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A266" s="1"/>
-      <c r="B266" s="39"/>
+      <c r="B266" s="37"/>
       <c r="C266" s="1"/>
       <c r="D266" s="1"/>
       <c r="E266" s="1"/>
@@ -8208,9 +7663,9 @@
       <c r="N266" s="1"/>
       <c r="O266" s="1"/>
     </row>
-    <row r="267" spans="1:15">
+    <row r="267" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A267" s="1"/>
-      <c r="B267" s="39"/>
+      <c r="B267" s="37"/>
       <c r="C267" s="1"/>
       <c r="D267" s="1"/>
       <c r="E267" s="1"/>
@@ -8225,9 +7680,9 @@
       <c r="N267" s="1"/>
       <c r="O267" s="1"/>
     </row>
-    <row r="268" spans="1:15">
+    <row r="268" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A268" s="1"/>
-      <c r="B268" s="39"/>
+      <c r="B268" s="37"/>
       <c r="C268" s="1"/>
       <c r="D268" s="1"/>
       <c r="E268" s="1"/>
@@ -8242,9 +7697,9 @@
       <c r="N268" s="1"/>
       <c r="O268" s="1"/>
     </row>
-    <row r="269" spans="1:15">
+    <row r="269" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A269" s="1"/>
-      <c r="B269" s="39"/>
+      <c r="B269" s="37"/>
       <c r="C269" s="1"/>
       <c r="D269" s="1"/>
       <c r="E269" s="1"/>
@@ -8259,9 +7714,9 @@
       <c r="N269" s="1"/>
       <c r="O269" s="1"/>
     </row>
-    <row r="270" spans="1:15">
+    <row r="270" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A270" s="1"/>
-      <c r="B270" s="39"/>
+      <c r="B270" s="37"/>
       <c r="C270" s="1"/>
       <c r="D270" s="1"/>
       <c r="E270" s="1"/>
@@ -8276,9 +7731,9 @@
       <c r="N270" s="1"/>
       <c r="O270" s="1"/>
     </row>
-    <row r="271" spans="1:15">
+    <row r="271" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A271" s="1"/>
-      <c r="B271" s="39"/>
+      <c r="B271" s="37"/>
       <c r="C271" s="1"/>
       <c r="D271" s="1"/>
       <c r="E271" s="1"/>
@@ -8293,9 +7748,9 @@
       <c r="N271" s="1"/>
       <c r="O271" s="1"/>
     </row>
-    <row r="272" spans="1:15">
+    <row r="272" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A272" s="1"/>
-      <c r="B272" s="39"/>
+      <c r="B272" s="37"/>
       <c r="C272" s="1"/>
       <c r="D272" s="1"/>
       <c r="E272" s="1"/>
@@ -8310,9 +7765,9 @@
       <c r="N272" s="1"/>
       <c r="O272" s="1"/>
     </row>
-    <row r="273" spans="1:15">
+    <row r="273" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A273" s="1"/>
-      <c r="B273" s="39"/>
+      <c r="B273" s="37"/>
       <c r="C273" s="1"/>
       <c r="D273" s="1"/>
       <c r="E273" s="1"/>
@@ -8327,9 +7782,9 @@
       <c r="N273" s="1"/>
       <c r="O273" s="1"/>
     </row>
-    <row r="274" spans="1:15">
+    <row r="274" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A274" s="1"/>
-      <c r="B274" s="39"/>
+      <c r="B274" s="37"/>
       <c r="C274" s="1"/>
       <c r="D274" s="1"/>
       <c r="E274" s="1"/>
@@ -8344,9 +7799,9 @@
       <c r="N274" s="1"/>
       <c r="O274" s="1"/>
     </row>
-    <row r="275" spans="1:15">
+    <row r="275" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A275" s="1"/>
-      <c r="B275" s="39"/>
+      <c r="B275" s="37"/>
       <c r="C275" s="1"/>
       <c r="D275" s="1"/>
       <c r="E275" s="1"/>
@@ -8361,9 +7816,9 @@
       <c r="N275" s="1"/>
       <c r="O275" s="1"/>
     </row>
-    <row r="276" spans="1:15">
+    <row r="276" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A276" s="1"/>
-      <c r="B276" s="39"/>
+      <c r="B276" s="37"/>
       <c r="C276" s="1"/>
       <c r="D276" s="1"/>
       <c r="E276" s="1"/>
@@ -8378,9 +7833,9 @@
       <c r="N276" s="1"/>
       <c r="O276" s="1"/>
     </row>
-    <row r="277" spans="1:15">
+    <row r="277" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A277" s="1"/>
-      <c r="B277" s="39"/>
+      <c r="B277" s="37"/>
       <c r="C277" s="1"/>
       <c r="D277" s="1"/>
       <c r="E277" s="1"/>
@@ -8395,9 +7850,9 @@
       <c r="N277" s="1"/>
       <c r="O277" s="1"/>
     </row>
-    <row r="278" spans="1:15">
+    <row r="278" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A278" s="1"/>
-      <c r="B278" s="39"/>
+      <c r="B278" s="37"/>
       <c r="C278" s="1"/>
       <c r="D278" s="1"/>
       <c r="E278" s="1"/>
@@ -8412,9 +7867,9 @@
       <c r="N278" s="1"/>
       <c r="O278" s="1"/>
     </row>
-    <row r="279" spans="1:15">
+    <row r="279" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A279" s="1"/>
-      <c r="B279" s="39"/>
+      <c r="B279" s="37"/>
       <c r="C279" s="1"/>
       <c r="D279" s="1"/>
       <c r="E279" s="1"/>
@@ -8429,9 +7884,9 @@
       <c r="N279" s="1"/>
       <c r="O279" s="1"/>
     </row>
-    <row r="280" spans="1:15">
+    <row r="280" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A280" s="1"/>
-      <c r="B280" s="39"/>
+      <c r="B280" s="37"/>
       <c r="C280" s="1"/>
       <c r="D280" s="1"/>
       <c r="E280" s="1"/>
@@ -8446,9 +7901,9 @@
       <c r="N280" s="1"/>
       <c r="O280" s="1"/>
     </row>
-    <row r="281" spans="1:15">
+    <row r="281" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A281" s="1"/>
-      <c r="B281" s="39"/>
+      <c r="B281" s="37"/>
       <c r="C281" s="1"/>
       <c r="D281" s="1"/>
       <c r="E281" s="1"/>
@@ -8463,9 +7918,9 @@
       <c r="N281" s="1"/>
       <c r="O281" s="1"/>
     </row>
-    <row r="282" spans="1:15">
+    <row r="282" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A282" s="1"/>
-      <c r="B282" s="39"/>
+      <c r="B282" s="37"/>
       <c r="C282" s="1"/>
       <c r="D282" s="1"/>
       <c r="E282" s="1"/>
@@ -8480,9 +7935,9 @@
       <c r="N282" s="1"/>
       <c r="O282" s="1"/>
     </row>
-    <row r="283" spans="1:15">
+    <row r="283" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A283" s="1"/>
-      <c r="B283" s="39"/>
+      <c r="B283" s="37"/>
       <c r="C283" s="1"/>
       <c r="D283" s="1"/>
       <c r="E283" s="1"/>
@@ -8497,9 +7952,9 @@
       <c r="N283" s="1"/>
       <c r="O283" s="1"/>
     </row>
-    <row r="284" spans="1:15">
+    <row r="284" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A284" s="1"/>
-      <c r="B284" s="39"/>
+      <c r="B284" s="37"/>
       <c r="C284" s="1"/>
       <c r="D284" s="1"/>
       <c r="E284" s="1"/>
@@ -8514,9 +7969,9 @@
       <c r="N284" s="1"/>
       <c r="O284" s="1"/>
     </row>
-    <row r="285" spans="1:15">
+    <row r="285" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A285" s="1"/>
-      <c r="B285" s="39"/>
+      <c r="B285" s="37"/>
       <c r="C285" s="1"/>
       <c r="D285" s="1"/>
       <c r="E285" s="1"/>
@@ -8531,9 +7986,9 @@
       <c r="N285" s="1"/>
       <c r="O285" s="1"/>
     </row>
-    <row r="286" spans="1:15">
+    <row r="286" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A286" s="1"/>
-      <c r="B286" s="39"/>
+      <c r="B286" s="37"/>
       <c r="C286" s="1"/>
       <c r="D286" s="1"/>
       <c r="E286" s="1"/>
@@ -8548,9 +8003,9 @@
       <c r="N286" s="1"/>
       <c r="O286" s="1"/>
     </row>
-    <row r="287" spans="1:15">
+    <row r="287" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A287" s="1"/>
-      <c r="B287" s="39"/>
+      <c r="B287" s="37"/>
       <c r="C287" s="1"/>
       <c r="D287" s="1"/>
       <c r="E287" s="1"/>
@@ -8565,9 +8020,9 @@
       <c r="N287" s="1"/>
       <c r="O287" s="1"/>
     </row>
-    <row r="288" spans="1:15">
+    <row r="288" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A288" s="1"/>
-      <c r="B288" s="39"/>
+      <c r="B288" s="37"/>
       <c r="C288" s="1"/>
       <c r="D288" s="1"/>
       <c r="E288" s="1"/>
@@ -8582,9 +8037,9 @@
       <c r="N288" s="1"/>
       <c r="O288" s="1"/>
     </row>
-    <row r="289" spans="1:15">
+    <row r="289" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A289" s="1"/>
-      <c r="B289" s="39"/>
+      <c r="B289" s="37"/>
       <c r="C289" s="1"/>
       <c r="D289" s="1"/>
       <c r="E289" s="1"/>
@@ -8599,9 +8054,9 @@
       <c r="N289" s="1"/>
       <c r="O289" s="1"/>
     </row>
-    <row r="290" spans="1:15">
+    <row r="290" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A290" s="1"/>
-      <c r="B290" s="39"/>
+      <c r="B290" s="37"/>
       <c r="C290" s="1"/>
       <c r="D290" s="1"/>
       <c r="E290" s="1"/>
@@ -8616,9 +8071,9 @@
       <c r="N290" s="1"/>
       <c r="O290" s="1"/>
     </row>
-    <row r="291" spans="1:15">
+    <row r="291" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A291" s="1"/>
-      <c r="B291" s="39"/>
+      <c r="B291" s="37"/>
       <c r="C291" s="1"/>
       <c r="D291" s="1"/>
       <c r="E291" s="1"/>
@@ -8633,9 +8088,9 @@
       <c r="N291" s="1"/>
       <c r="O291" s="1"/>
     </row>
-    <row r="292" spans="1:15">
+    <row r="292" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A292" s="1"/>
-      <c r="B292" s="39"/>
+      <c r="B292" s="37"/>
       <c r="C292" s="1"/>
       <c r="D292" s="1"/>
       <c r="E292" s="1"/>
@@ -8650,9 +8105,9 @@
       <c r="N292" s="1"/>
       <c r="O292" s="1"/>
     </row>
-    <row r="293" spans="1:15">
+    <row r="293" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A293" s="1"/>
-      <c r="B293" s="39"/>
+      <c r="B293" s="37"/>
       <c r="C293" s="1"/>
       <c r="D293" s="1"/>
       <c r="E293" s="1"/>
@@ -8667,9 +8122,9 @@
       <c r="N293" s="1"/>
       <c r="O293" s="1"/>
     </row>
-    <row r="294" spans="1:15">
+    <row r="294" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A294" s="1"/>
-      <c r="B294" s="39"/>
+      <c r="B294" s="37"/>
       <c r="C294" s="1"/>
       <c r="D294" s="1"/>
       <c r="E294" s="1"/>
@@ -8686,662 +8141,660 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="D13:D17"/>
+    <mergeCell ref="D24:D25"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A13:A17"/>
     <mergeCell ref="A21:A27"/>
-    <mergeCell ref="A28:A32"/>
-    <mergeCell ref="B13:B17"/>
-    <mergeCell ref="D13:D17"/>
-    <mergeCell ref="D24:D25"/>
   </mergeCells>
+  <phoneticPr fontId="11" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>42736</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"SaaS,库存,供应链,饮食通,饮食通老客户上线"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2 O5 O12 O20 O3:O4 O6:O7 O8:O9 O10:O11 O13:O17 O18:O19 O21:O1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2 O5 O12 O20 O3:O4 O6:O7 O8:O9 O10:O11 O13:O17 O18:O19 O21:O1048576" xr:uid="{00000000-0002-0000-0100-000002000000}">
       <formula1>"新品牌,老品牌"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.625" style="13"/>
-    <col min="2" max="2" width="27.625" style="13" customWidth="1"/>
-    <col min="3" max="3" width="19.125" style="14" customWidth="1"/>
-    <col min="4" max="4" width="35.25" style="15" customWidth="1"/>
-    <col min="5" max="5" width="13.5083333333333" customWidth="1"/>
+    <col min="1" max="1" width="8.625" style="11"/>
+    <col min="2" max="2" width="27.625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="19.125" style="12" customWidth="1"/>
+    <col min="4" max="4" width="35.25" style="13" customWidth="1"/>
+    <col min="5" max="5" width="13.5" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="11.375" style="16" customWidth="1"/>
+    <col min="7" max="7" width="11.375" style="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="E1" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="F1" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="G1" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="G1" s="20" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" s="9">
+        <v>51</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="12">
+        <v>43087</v>
+      </c>
+      <c r="D2" s="20" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="10">
-        <v>51</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="14">
-        <v>43087</v>
-      </c>
-      <c r="D2" s="22" t="s">
+      <c r="E2" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="G2" s="23" t="s">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="58">
+        <v>52</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="12">
+        <v>43092</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="9">
-        <v>52</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="14">
-        <v>43092</v>
-      </c>
-      <c r="D3" s="22" t="s">
+      <c r="G3" s="21" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="58"/>
+      <c r="B4" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="C4" s="12">
+        <v>43098</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="G3" s="23" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="9"/>
-      <c r="B4" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="C4" s="14">
-        <v>43098</v>
-      </c>
-      <c r="D4" s="22" t="s">
+      <c r="G4" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="E4" s="1" t="s">
+    </row>
+    <row r="5" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A5" s="57">
+        <v>1</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="12">
+        <v>43102</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="G4" s="25" t="s">
+      <c r="G5" s="25" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="5" ht="14.25" spans="1:7">
-      <c r="A5" s="10">
-        <v>1</v>
-      </c>
-      <c r="B5" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="14">
-        <v>43102</v>
-      </c>
-      <c r="D5" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="G5" s="27" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="6" ht="14.25" spans="1:7">
-      <c r="A6" s="9"/>
-      <c r="B6" s="24"/>
-      <c r="D6" s="28"/>
+    <row r="6" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A6" s="58"/>
+      <c r="B6" s="22"/>
+      <c r="D6" s="26"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="29"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="9"/>
-      <c r="B7" s="24"/>
-      <c r="D7" s="22"/>
+      <c r="G6" s="27"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="58"/>
+      <c r="B7" s="22"/>
+      <c r="D7" s="20"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="29"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="10">
+      <c r="G7" s="27"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="57">
         <v>4</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="C8" s="12">
+        <v>43123</v>
+      </c>
+      <c r="D8" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="C8" s="14">
+      <c r="E8" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G8" s="27" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" s="58"/>
+      <c r="B9" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="12">
         <v>43123</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D9" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="G8" s="29" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="9"/>
-      <c r="B9" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="14">
-        <v>43123</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>142</v>
-      </c>
       <c r="E9" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="G9" s="29" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="9"/>
-      <c r="B10" s="24"/>
-      <c r="D10" s="22"/>
+        <v>133</v>
+      </c>
+      <c r="G9" s="27" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" s="58"/>
+      <c r="B10" s="22"/>
+      <c r="D10" s="20"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="29"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="10">
+      <c r="G10" s="27"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" s="57">
         <v>6</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="C11" s="12">
+        <v>43137</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G11" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="C11" s="14">
-        <v>43137</v>
-      </c>
-      <c r="D11" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="G11" s="29" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="9"/>
-      <c r="B12" s="24"/>
-      <c r="D12" s="22"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" s="58"/>
+      <c r="B12" s="22"/>
+      <c r="D12" s="20"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="29"/>
-    </row>
-    <row r="13" ht="14.25" spans="1:7">
-      <c r="A13" s="11">
+      <c r="G12" s="27"/>
+    </row>
+    <row r="13" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A13" s="63">
         <v>13</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C13" s="12">
         <v>43189</v>
       </c>
-      <c r="D13" s="31" t="s">
+      <c r="D13" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="G13" s="29" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="11"/>
-      <c r="B14" s="24"/>
-      <c r="D14" s="22"/>
+      <c r="G13" s="27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" s="63"/>
+      <c r="B14" s="22"/>
+      <c r="D14" s="20"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="29"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="11">
+      <c r="G14" s="27"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15" s="10">
         <v>14</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C15" s="12">
         <v>43194</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="G15" s="29" t="s">
+      <c r="G15" s="27" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" s="10">
+        <v>15</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C16" s="12">
+        <v>43203</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G16" s="27" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17" s="57">
+        <v>16</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" s="12">
+        <v>43206</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G17" s="27" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="11">
-        <v>15</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="C16" s="14">
-        <v>43203</v>
-      </c>
-      <c r="D16" s="22" t="s">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18" s="58"/>
+      <c r="B18" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" s="12">
+        <v>43207</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="G16" s="29" t="s">
+      <c r="G18" s="27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A19" s="58"/>
+      <c r="B19" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C19" s="12">
+        <v>43209</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G19" s="27" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A20" s="58"/>
+      <c r="B20" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C20" s="12">
+        <v>43209</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G20" s="27" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="10">
-        <v>16</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="C17" s="14">
-        <v>43206</v>
-      </c>
-      <c r="D17" s="22" t="s">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A21" s="59"/>
+      <c r="B21" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="C21" s="12">
+        <v>43211</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="G17" s="29" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="9"/>
-      <c r="B18" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="C18" s="14">
-        <v>43207</v>
-      </c>
-      <c r="D18" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="G18" s="29" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="9"/>
-      <c r="B19" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="C19" s="14">
-        <v>43209</v>
-      </c>
-      <c r="D19" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="G19" s="29" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="9"/>
-      <c r="B20" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="C20" s="14">
-        <v>43209</v>
-      </c>
-      <c r="D20" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="G20" s="29" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="12"/>
-      <c r="B21" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="C21" s="14">
-        <v>43211</v>
-      </c>
-      <c r="D21" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="G21" s="29" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
-      <c r="D22" s="22"/>
+      <c r="G21" s="27" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="D22" s="20"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-      <c r="G22" s="29"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
-      <c r="D23" s="22"/>
+      <c r="G22" s="27"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="D23" s="20"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="29"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
-      <c r="D24" s="22"/>
+      <c r="G23" s="27"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="D24" s="20"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
-      <c r="G24" s="29"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
-      <c r="D25" s="22"/>
+      <c r="G24" s="27"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="D25" s="20"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
-      <c r="G25" s="29"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
-      <c r="D26" s="22"/>
+      <c r="G25" s="27"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="D26" s="20"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
-      <c r="G26" s="29"/>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11"/>
-      <c r="D27" s="22"/>
+      <c r="G26" s="27"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="D27" s="20"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
-      <c r="G27" s="29"/>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="11"/>
-      <c r="B28" s="11"/>
-      <c r="D28" s="22"/>
+      <c r="G27" s="27"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A28" s="10"/>
+      <c r="B28" s="10"/>
+      <c r="D28" s="20"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
-      <c r="G28" s="29"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="11"/>
-      <c r="B29" s="11"/>
-      <c r="D29" s="22"/>
+      <c r="G28" s="27"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A29" s="10"/>
+      <c r="B29" s="10"/>
+      <c r="D29" s="20"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
-      <c r="G29" s="29"/>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="11"/>
-      <c r="B30" s="11"/>
-      <c r="D30" s="22"/>
+      <c r="G29" s="27"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A30" s="10"/>
+      <c r="B30" s="10"/>
+      <c r="D30" s="20"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
-      <c r="G30" s="29"/>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="11"/>
-      <c r="B31" s="11"/>
-      <c r="D31" s="22"/>
+      <c r="G30" s="27"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
+      <c r="D31" s="20"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
-      <c r="G31" s="29"/>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="11"/>
-      <c r="B32" s="11"/>
-      <c r="D32" s="22"/>
+      <c r="G31" s="27"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A32" s="10"/>
+      <c r="B32" s="10"/>
+      <c r="D32" s="20"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
-      <c r="G32" s="29"/>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="11"/>
-      <c r="B33" s="11"/>
-      <c r="D33" s="22"/>
+      <c r="G32" s="27"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
+      <c r="D33" s="20"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
-      <c r="G33" s="29"/>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="11"/>
-      <c r="B34" s="11"/>
-      <c r="D34" s="22"/>
+      <c r="G33" s="27"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A34" s="10"/>
+      <c r="B34" s="10"/>
+      <c r="D34" s="20"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
-      <c r="G34" s="29"/>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="11"/>
-      <c r="B35" s="11"/>
-      <c r="D35" s="22"/>
+      <c r="G34" s="27"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A35" s="10"/>
+      <c r="B35" s="10"/>
+      <c r="D35" s="20"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
-      <c r="G35" s="29"/>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="11"/>
-      <c r="B36" s="11"/>
-      <c r="D36" s="22"/>
+      <c r="G35" s="27"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A36" s="10"/>
+      <c r="B36" s="10"/>
+      <c r="D36" s="20"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
-      <c r="G36" s="29"/>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="11"/>
-      <c r="B37" s="11"/>
-      <c r="D37" s="22"/>
+      <c r="G36" s="27"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A37" s="10"/>
+      <c r="B37" s="10"/>
+      <c r="D37" s="20"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
-      <c r="G37" s="29"/>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="11"/>
-      <c r="B38" s="11"/>
-      <c r="D38" s="22"/>
+      <c r="G37" s="27"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A38" s="10"/>
+      <c r="B38" s="10"/>
+      <c r="D38" s="20"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
-      <c r="G38" s="29"/>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="11"/>
-      <c r="B39" s="11"/>
-      <c r="D39" s="22"/>
+      <c r="G38" s="27"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A39" s="10"/>
+      <c r="B39" s="10"/>
+      <c r="D39" s="20"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
-      <c r="G39" s="29"/>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="11"/>
-      <c r="B40" s="11"/>
-      <c r="D40" s="22"/>
+      <c r="G39" s="27"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A40" s="10"/>
+      <c r="B40" s="10"/>
+      <c r="D40" s="20"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
-      <c r="G40" s="29"/>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="11"/>
-      <c r="B41" s="11"/>
-      <c r="D41" s="22"/>
+      <c r="G40" s="27"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A41" s="10"/>
+      <c r="B41" s="10"/>
+      <c r="D41" s="20"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
-      <c r="G41" s="29"/>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="11"/>
-      <c r="B42" s="11"/>
-      <c r="D42" s="22"/>
+      <c r="G41" s="27"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A42" s="10"/>
+      <c r="B42" s="10"/>
+      <c r="D42" s="20"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
-      <c r="G42" s="29"/>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="11"/>
-      <c r="B43" s="11"/>
-      <c r="D43" s="22"/>
+      <c r="G42" s="27"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A43" s="10"/>
+      <c r="B43" s="10"/>
+      <c r="D43" s="20"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
-      <c r="G43" s="29"/>
-    </row>
-    <row r="44" spans="3:3">
-      <c r="C44" s="32"/>
+      <c r="G43" s="27"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C44" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A17:A21"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A17:A21"/>
   </mergeCells>
+  <phoneticPr fontId="11" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E10 E15 E18 E19 E20 E2:E5 E6:E7 E8:E9 E11:E12 E13:E14 E16:E17 E21:E1048576">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1" xr:uid="{00000000-0002-0000-0200-000000000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E10 E15 E18 E19 E20 E2:E5 E6:E7 E8:E9 E11:E12 E13:E14 E16:E17 E21:E1048576" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"单店,连锁,KA,供应链"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="saas" sqref="F15 F18 F19 F20 F2:F5 F6:F10 F11:F12 F13:F14 F16:F17 F21:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="saas" sqref="F15 F18 F19 F20 F2:F5 F6:F10 F11:F12 F13:F14 F16:F17 F21:F1048576" xr:uid="{00000000-0002-0000-0200-000002000000}">
       <formula1>"SAAS,供应链,SAAS+微信,SAAS+供应链,SAAS+微信+供应链"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15.125" style="1" customWidth="1"/>
@@ -9350,216 +8803,216 @@
     <col min="5" max="5" width="65" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="E1" s="8" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="58" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="57" t="s">
         <v>32</v>
       </c>
       <c r="C2" s="2">
         <v>43084</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="E2" s="11" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="58"/>
+      <c r="B3" s="58"/>
       <c r="C3" s="2">
         <v>43091</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="E3" s="11" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="58"/>
+      <c r="B4" s="58"/>
       <c r="C4" s="2">
         <v>43099</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="E4" s="11" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="59"/>
+      <c r="B5" s="59"/>
       <c r="C5" s="2">
         <v>43100</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="E5" s="11" t="s">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="57" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="57" t="s">
         <v>32</v>
       </c>
       <c r="C6" s="2">
         <v>43101</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E6" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="E6" s="11" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="59"/>
+      <c r="B7" s="59"/>
       <c r="C7" s="2">
         <v>43120</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" s="57" t="s">
         <v>166</v>
       </c>
-      <c r="E7" s="11" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="57" t="s">
         <v>32</v>
       </c>
       <c r="C8" s="2">
         <v>43163</v>
       </c>
       <c r="D8" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E8" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="E8" s="11" t="s">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="59"/>
+      <c r="B9" s="59"/>
+      <c r="E9" s="10"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="10" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="E9" s="11"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="10" t="s">
         <v>32</v>
       </c>
       <c r="C10" s="2">
         <v>43197</v>
       </c>
       <c r="D10" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="E10" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="E10" s="11" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5">
-      <c r="B11" s="11" t="s">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B11" s="10" t="s">
         <v>32</v>
       </c>
       <c r="C11" s="2">
         <v>43204</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5">
-      <c r="B12" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B12" s="10" t="s">
         <v>32</v>
       </c>
       <c r="C12" s="2">
         <v>43211</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5">
-      <c r="B13" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B13" s="10" t="s">
         <v>32</v>
       </c>
       <c r="C13" s="2">
         <v>43220</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5">
-      <c r="B14" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B14" s="10" t="s">
         <v>32</v>
       </c>
       <c r="C14" s="2">
         <v>43221</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5">
-      <c r="B15" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B15" s="10" t="s">
         <v>32</v>
       </c>
       <c r="C15" s="2">
         <v>43225</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>169</v>
+        <v>173</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -9571,8 +9024,8 @@
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B8:B9"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="203" verticalDpi="203"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/周数据/《个人上线率统计表》-高阳.xlsx
+++ b/周数据/《个人上线率统计表》-高阳.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\hualala\NanJing\周数据\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{335E444F-8CE5-48BA-AA0D-13BB14D00779}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19770" windowHeight="8370" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="19770" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="2" r:id="rId1"/>
@@ -18,12 +12,12 @@
     <sheet name="未上线项目明细" sheetId="3" r:id="rId3"/>
     <sheet name="加班明细" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173">
   <si>
     <t>个人上线率分析表</t>
   </si>
@@ -50,12 +44,6 @@
   </si>
   <si>
     <t>KA项目未上线数</t>
-  </si>
-  <si>
-    <t>项目远程上线数</t>
-  </si>
-  <si>
-    <t>远程上线占比</t>
   </si>
   <si>
     <t>立项总计</t>
@@ -395,6 +383,9 @@
     <t>京茶山手作茶物（湖塘吾悦广场店）</t>
   </si>
   <si>
+    <t>常州</t>
+  </si>
+  <si>
     <t>陈总</t>
   </si>
   <si>
@@ -546,24 +537,20 @@
   </si>
   <si>
     <t>南京市建邺区庐山路130号/天荟茶饮设备迁移实施培训</t>
-  </si>
-  <si>
-    <t>南京</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>常州</t>
-    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -576,14 +563,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -591,21 +576,18 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -613,14 +595,12 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -628,7 +608,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -636,27 +615,155 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -665,13 +772,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39994506668294322"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39991454817346722"/>
+        <fgColor theme="4" tint="0.399945066682943"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -689,13 +796,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39994506668294322"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -707,18 +814,174 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39994506668294322"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -867,7 +1130,7 @@
         <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.39994506668294322"/>
+        <color theme="4" tint="0.399975585192419"/>
       </bottom>
       <diagonal/>
     </border>
@@ -902,20 +1165,262 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -927,7 +1432,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -936,16 +1441,22 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -957,7 +1468,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -999,19 +1510,19 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="8" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1020,13 +1531,25 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1044,78 +1567,80 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1373,2321 +1898,2157 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="5.125" style="11" customWidth="1"/>
-    <col min="2" max="2" width="8.125" style="11" customWidth="1"/>
-    <col min="3" max="4" width="16.25" style="11" customWidth="1"/>
-    <col min="5" max="5" width="17.75" style="11" customWidth="1"/>
-    <col min="6" max="6" width="15.875" style="11" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5" style="11" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="17.875" style="11" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="17.875" style="11" customWidth="1"/>
-    <col min="10" max="10" width="17.875" style="39" customWidth="1"/>
-    <col min="11" max="11" width="16" style="11" customWidth="1"/>
-    <col min="12" max="12" width="17.875" style="11" customWidth="1"/>
-    <col min="13" max="13" width="18.625" style="11" customWidth="1"/>
+    <col min="1" max="1" width="5.125" style="13" customWidth="1"/>
+    <col min="2" max="2" width="8.125" style="13" customWidth="1"/>
+    <col min="3" max="4" width="16.25" style="13" customWidth="1"/>
+    <col min="5" max="5" width="17.75" style="13" customWidth="1"/>
+    <col min="6" max="6" width="15.875" style="13" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5083333333333" style="13" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="17.875" style="13" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="16" style="13" customWidth="1"/>
+    <col min="10" max="10" width="17.875" style="13" customWidth="1"/>
+    <col min="11" max="11" width="18.625" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="51" t="s">
+    <row r="1" ht="14.25" spans="1:11">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="54"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="40" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="53"/>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="42" t="s">
+      <c r="E2" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="43" t="s">
+      <c r="F2" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="43" t="s">
+      <c r="G2" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="43" t="s">
+      <c r="H2" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="46" t="s">
+      <c r="I2" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="47" t="s">
+      <c r="J2" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="48" t="s">
+      <c r="K2" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="48" t="s">
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="46">
         <v>12</v>
       </c>
-      <c r="M2" s="49" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A3" s="40">
+      <c r="B3" s="50">
+        <v>52</v>
+      </c>
+      <c r="C3" s="48">
+        <v>1</v>
+      </c>
+      <c r="D3" s="48">
+        <v>0</v>
+      </c>
+      <c r="E3" s="48">
+        <f>C3-D3</f>
+        <v>1</v>
+      </c>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49">
+        <f>F3-G3</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="54">
+        <f>C3+G3</f>
+        <v>1</v>
+      </c>
+      <c r="J3" s="54">
+        <f>D3+G3</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="55">
+        <f>J3/I3*100%</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="51">
+        <v>1</v>
+      </c>
+      <c r="B4" s="50">
+        <v>1</v>
+      </c>
+      <c r="C4" s="48">
+        <v>5</v>
+      </c>
+      <c r="D4" s="48">
+        <v>4</v>
+      </c>
+      <c r="E4" s="48">
+        <f>C4-D4</f>
+        <v>1</v>
+      </c>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49">
+        <f>F4-G4</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="54">
+        <v>5</v>
+      </c>
+      <c r="J4" s="54">
+        <f>D4+G4</f>
+        <v>4</v>
+      </c>
+      <c r="K4" s="55">
+        <f>J4/I4*100%</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="52"/>
+      <c r="B5" s="50">
+        <v>2</v>
+      </c>
+      <c r="C5" s="48">
+        <v>1</v>
+      </c>
+      <c r="D5" s="48">
+        <v>1</v>
+      </c>
+      <c r="E5" s="48">
+        <v>1</v>
+      </c>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49">
+        <f>F5-G5</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="54">
+        <f>C5+G5</f>
+        <v>1</v>
+      </c>
+      <c r="J5" s="54">
+        <f>D5+G5</f>
+        <v>1</v>
+      </c>
+      <c r="K5" s="55">
+        <f>J5/I5*100%</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="52"/>
+      <c r="B6" s="50">
+        <v>3</v>
+      </c>
+      <c r="C6" s="48">
+        <v>1</v>
+      </c>
+      <c r="D6" s="48">
+        <v>1</v>
+      </c>
+      <c r="E6" s="48">
+        <f>C6-D6</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49">
+        <f>F6-G6</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="54">
+        <f>C6+G6</f>
+        <v>1</v>
+      </c>
+      <c r="J6" s="54">
+        <f>D6+G6</f>
+        <v>1</v>
+      </c>
+      <c r="K6" s="55">
+        <f>J6/I6*100%</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="52"/>
+      <c r="B7" s="50">
+        <v>5</v>
+      </c>
+      <c r="C7" s="48">
+        <v>3</v>
+      </c>
+      <c r="D7" s="48">
+        <v>2</v>
+      </c>
+      <c r="E7" s="48">
+        <v>1</v>
+      </c>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49">
+        <f>F7-G7</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="54">
+        <v>3</v>
+      </c>
+      <c r="J7" s="54">
+        <f>D7+G7</f>
+        <v>2</v>
+      </c>
+      <c r="K7" s="55">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="46">
+        <v>2</v>
+      </c>
+      <c r="B8" s="50">
+        <v>6</v>
+      </c>
+      <c r="C8" s="48">
+        <v>3</v>
+      </c>
+      <c r="D8" s="48">
+        <v>1</v>
+      </c>
+      <c r="E8" s="48">
+        <v>2</v>
+      </c>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="54">
+        <v>3</v>
+      </c>
+      <c r="J8" s="54">
+        <v>2</v>
+      </c>
+      <c r="K8" s="56">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="51">
+        <v>3</v>
+      </c>
+      <c r="B9" s="50">
+        <v>10</v>
+      </c>
+      <c r="C9" s="48">
+        <v>1</v>
+      </c>
+      <c r="D9" s="48">
+        <v>1</v>
+      </c>
+      <c r="E9" s="48">
+        <f t="shared" ref="E9:E12" si="0">C9-D9</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49">
+        <f t="shared" ref="H9:H14" si="1">F9-G9</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="54">
+        <v>1</v>
+      </c>
+      <c r="J9" s="54">
+        <f t="shared" ref="J9:J14" si="2">D9+G9</f>
+        <v>1</v>
+      </c>
+      <c r="K9" s="55">
+        <f>J9/I9*100%</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="52"/>
+      <c r="B10" s="50">
         <v>12</v>
       </c>
-      <c r="B3" s="44">
-        <v>52</v>
-      </c>
-      <c r="C3" s="42">
+      <c r="C10" s="48">
         <v>1</v>
       </c>
-      <c r="D3" s="42">
+      <c r="D10" s="48">
+        <v>1</v>
+      </c>
+      <c r="E10" s="48">
         <v>0</v>
       </c>
-      <c r="E3" s="42">
-        <f t="shared" ref="E3:E7" si="0">C3-D3</f>
-        <v>1</v>
-      </c>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43">
-        <f t="shared" ref="H3:H8" si="1">F3-G3</f>
-        <v>0</v>
-      </c>
-      <c r="I3" s="46">
-        <v>0</v>
-      </c>
-      <c r="J3" s="47" t="e">
-        <f t="shared" ref="J3:J13" si="2">I3/L3*100%</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K3" s="48">
-        <f t="shared" ref="K3:K7" si="3">C3+G3</f>
-        <v>1</v>
-      </c>
-      <c r="L3" s="48">
-        <f t="shared" ref="L3:L8" si="4">D3+G3</f>
-        <v>0</v>
-      </c>
-      <c r="M3" s="49">
-        <f>L3/K3*100%</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A4" s="55">
-        <v>1</v>
-      </c>
-      <c r="B4" s="44">
-        <v>1</v>
-      </c>
-      <c r="C4" s="42">
-        <v>5</v>
-      </c>
-      <c r="D4" s="42">
-        <v>2</v>
-      </c>
-      <c r="E4" s="42">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43">
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I4" s="46">
+      <c r="I10" s="54">
+        <f t="shared" ref="I10:I14" si="3">C10+G10</f>
+        <v>1</v>
+      </c>
+      <c r="J10" s="54">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K10" s="55">
+        <f t="shared" ref="K10:K20" si="4">J10/I10*100%</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="52"/>
+      <c r="B11" s="50">
+        <v>13</v>
+      </c>
+      <c r="C11" s="48">
+        <v>5</v>
+      </c>
+      <c r="D11" s="48">
+        <v>5</v>
+      </c>
+      <c r="E11" s="48">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J4" s="47">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K4" s="48">
-        <v>5</v>
-      </c>
-      <c r="L4" s="48">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="M4" s="49">
-        <f>L4/K4*100%</f>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A5" s="56"/>
-      <c r="B5" s="44">
-        <v>2</v>
-      </c>
-      <c r="C5" s="42">
-        <v>3</v>
-      </c>
-      <c r="D5" s="42">
-        <v>2</v>
-      </c>
-      <c r="E5" s="42">
-        <v>1</v>
-      </c>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43">
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="49">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I5" s="46">
-        <v>0</v>
-      </c>
-      <c r="J5" s="47">
+      <c r="I11" s="54">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="J11" s="54">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K5" s="48">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="L5" s="48">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="M5" s="49">
-        <f>L5/K5*100%</f>
-        <v>0.66666666666666663</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A6" s="56"/>
-      <c r="B6" s="44">
-        <v>3</v>
-      </c>
-      <c r="C6" s="42">
-        <v>1</v>
-      </c>
-      <c r="D6" s="42">
-        <v>1</v>
-      </c>
-      <c r="E6" s="42">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I6" s="46">
-        <v>0</v>
-      </c>
-      <c r="J6" s="47">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K6" s="48">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="L6" s="48">
+        <v>5</v>
+      </c>
+      <c r="K11" s="55">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M6" s="49">
-        <f>L6/K6*100%</f>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="51">
+        <v>4</v>
+      </c>
+      <c r="B12" s="50">
+        <v>14</v>
+      </c>
+      <c r="C12" s="48">
+        <v>2</v>
+      </c>
+      <c r="D12" s="48">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A7" s="56"/>
-      <c r="B7" s="44">
-        <v>4</v>
-      </c>
-      <c r="C7" s="42">
-        <v>3</v>
-      </c>
-      <c r="D7" s="42">
+      <c r="E12" s="48">
         <v>1</v>
       </c>
-      <c r="E7" s="42">
-        <f t="shared" si="0"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="54">
+        <v>1</v>
+      </c>
+      <c r="J12" s="54">
+        <v>1</v>
+      </c>
+      <c r="K12" s="56">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="52"/>
+      <c r="B13" s="50">
+        <v>15</v>
+      </c>
+      <c r="C13" s="48">
+        <v>1</v>
+      </c>
+      <c r="D13" s="48">
+        <v>1</v>
+      </c>
+      <c r="E13" s="48">
+        <v>0</v>
+      </c>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="54">
+        <v>1</v>
+      </c>
+      <c r="J13" s="54">
+        <v>1</v>
+      </c>
+      <c r="K13" s="56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="52"/>
+      <c r="B14" s="50">
+        <v>16</v>
+      </c>
+      <c r="C14" s="48">
         <v>2</v>
       </c>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43">
-        <f t="shared" si="1"/>
+      <c r="D14" s="48">
+        <v>1</v>
+      </c>
+      <c r="E14" s="48">
+        <v>1</v>
+      </c>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="54">
+        <v>1</v>
+      </c>
+      <c r="J14" s="54">
+        <v>1</v>
+      </c>
+      <c r="K14" s="56">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="51">
+        <v>5</v>
+      </c>
+      <c r="B15" s="50">
+        <v>17</v>
+      </c>
+      <c r="C15" s="48">
+        <v>7</v>
+      </c>
+      <c r="D15" s="48">
+        <v>7</v>
+      </c>
+      <c r="E15" s="48">
+        <f t="shared" ref="E15:E19" si="5">C15-D15</f>
         <v>0</v>
       </c>
-      <c r="I7" s="46">
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="49">
+        <f t="shared" ref="H15:H20" si="6">F15-G15</f>
         <v>0</v>
       </c>
-      <c r="J7" s="47">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K7" s="48">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="L7" s="48">
+      <c r="I15" s="54">
+        <f t="shared" ref="I15:I19" si="7">C15+G15</f>
+        <v>7</v>
+      </c>
+      <c r="J15" s="54">
+        <f t="shared" ref="J15:J20" si="8">D15+G15</f>
+        <v>7</v>
+      </c>
+      <c r="K15" s="55">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M7" s="49">
-        <f>L7/K7*100%</f>
-        <v>0.33333333333333331</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A8" s="56"/>
-      <c r="B8" s="44">
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="52"/>
+      <c r="B16" s="50">
+        <v>18</v>
+      </c>
+      <c r="C16" s="48">
         <v>5</v>
       </c>
-      <c r="C8" s="42">
-        <v>3</v>
-      </c>
-      <c r="D8" s="42">
-        <v>1</v>
-      </c>
-      <c r="E8" s="42">
-        <v>2</v>
-      </c>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43">
-        <f t="shared" si="1"/>
+      <c r="D16" s="48">
+        <v>5</v>
+      </c>
+      <c r="E16" s="48">
         <v>0</v>
       </c>
-      <c r="I8" s="46">
+      <c r="F16" s="49"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="49">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J8" s="47">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K8" s="48">
-        <v>3</v>
-      </c>
-      <c r="L8" s="48">
+      <c r="I16" s="54">
+        <v>5</v>
+      </c>
+      <c r="J16" s="54">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="K16" s="55">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M8" s="49">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A9" s="56"/>
-      <c r="B9" s="44">
-        <v>6</v>
-      </c>
-      <c r="C9" s="42">
-        <v>3</v>
-      </c>
-      <c r="D9" s="42">
-        <v>2</v>
-      </c>
-      <c r="E9" s="42">
-        <v>1</v>
-      </c>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="46">
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="52"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="48">
         <v>0</v>
       </c>
-      <c r="J9" s="47">
-        <f t="shared" si="2"/>
+      <c r="D17" s="48">
         <v>0</v>
       </c>
-      <c r="K9" s="48">
-        <v>3</v>
-      </c>
-      <c r="L9" s="48">
-        <v>2</v>
-      </c>
-      <c r="M9" s="50">
-        <v>0.67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A10" s="55">
-        <v>3</v>
-      </c>
-      <c r="B10" s="44">
-        <v>10</v>
-      </c>
-      <c r="C10" s="42">
-        <v>1</v>
-      </c>
-      <c r="D10" s="42">
-        <v>1</v>
-      </c>
-      <c r="E10" s="42">
-        <f t="shared" ref="E10:E12" si="5">C10-D10</f>
+      <c r="E17" s="48">
         <v>0</v>
       </c>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43">
-        <f t="shared" ref="H10:H12" si="6">F10-G10</f>
-        <v>0</v>
-      </c>
-      <c r="I10" s="46">
-        <v>0</v>
-      </c>
-      <c r="J10" s="47">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K10" s="48">
-        <v>1</v>
-      </c>
-      <c r="L10" s="48">
-        <f t="shared" ref="L10:L12" si="7">D10+G10</f>
-        <v>1</v>
-      </c>
-      <c r="M10" s="49">
-        <f>L10/K10*100%</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A11" s="56"/>
-      <c r="B11" s="44">
-        <v>12</v>
-      </c>
-      <c r="C11" s="42">
-        <v>1</v>
-      </c>
-      <c r="D11" s="42">
-        <v>1</v>
-      </c>
-      <c r="E11" s="42">
-        <v>0</v>
-      </c>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43">
+      <c r="F17" s="49"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I11" s="46">
+      <c r="I17" s="54">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J11" s="47">
-        <f t="shared" si="2"/>
+      <c r="J17" s="54">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K11" s="48">
-        <f t="shared" ref="K11:K12" si="8">C11+G11</f>
-        <v>1</v>
-      </c>
-      <c r="L11" s="48">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="M11" s="49">
-        <f t="shared" ref="M11:M20" si="9">L11/K11*100%</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A12" s="56"/>
-      <c r="B12" s="44">
-        <v>13</v>
-      </c>
-      <c r="C12" s="42">
-        <v>5</v>
-      </c>
-      <c r="D12" s="42">
-        <v>5</v>
-      </c>
-      <c r="E12" s="42">
+      <c r="K17" s="55" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="52"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="48">
+        <v>0</v>
+      </c>
+      <c r="D18" s="48">
+        <v>0</v>
+      </c>
+      <c r="E18" s="48">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43">
+      <c r="F18" s="49"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="49">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I12" s="46">
+      <c r="I18" s="54">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J12" s="47">
-        <f t="shared" si="2"/>
+      <c r="J18" s="54">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K12" s="48">
+      <c r="K18" s="55" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="52"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="48">
+        <v>0</v>
+      </c>
+      <c r="D19" s="48">
+        <v>0</v>
+      </c>
+      <c r="E19" s="48">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F19" s="49"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="49">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="54">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="54">
         <f t="shared" si="8"/>
-        <v>5</v>
-      </c>
-      <c r="L12" s="48">
-        <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
-      <c r="M12" s="49">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A13" s="55">
-        <v>4</v>
-      </c>
-      <c r="B13" s="44">
-        <v>14</v>
-      </c>
-      <c r="C13" s="42">
-        <v>2</v>
-      </c>
-      <c r="D13" s="42">
         <v>0</v>
       </c>
-      <c r="E13" s="42">
+      <c r="K19" s="55" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="52"/>
+      <c r="B20" s="50"/>
+      <c r="C20" s="48">
         <v>0</v>
       </c>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="46">
+      <c r="D20" s="48">
         <v>0</v>
       </c>
-      <c r="J13" s="47" t="e">
-        <f t="shared" si="2"/>
+      <c r="E20" s="48">
+        <v>0</v>
+      </c>
+      <c r="F20" s="49"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="49">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I20" s="54">
+        <v>0</v>
+      </c>
+      <c r="J20" s="54">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K20" s="55" t="e">
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
-      </c>
-      <c r="K13" s="48">
-        <v>0</v>
-      </c>
-      <c r="L13" s="48">
-        <v>0</v>
-      </c>
-      <c r="M13" s="50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A14" s="56"/>
-      <c r="B14" s="44">
-        <v>15</v>
-      </c>
-      <c r="C14" s="42">
-        <v>1</v>
-      </c>
-      <c r="D14" s="42">
-        <v>0</v>
-      </c>
-      <c r="E14" s="42">
-        <v>1</v>
-      </c>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="47"/>
-      <c r="K14" s="48">
-        <v>1</v>
-      </c>
-      <c r="L14" s="48">
-        <v>0</v>
-      </c>
-      <c r="M14" s="50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A15" s="56"/>
-      <c r="B15" s="44">
-        <v>16</v>
-      </c>
-      <c r="C15" s="42">
-        <v>2</v>
-      </c>
-      <c r="D15" s="42">
-        <v>0</v>
-      </c>
-      <c r="E15" s="42">
-        <v>2</v>
-      </c>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="47"/>
-      <c r="K15" s="48">
-        <v>2</v>
-      </c>
-      <c r="L15" s="48">
-        <v>2</v>
-      </c>
-      <c r="M15" s="50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A16" s="55">
-        <v>5</v>
-      </c>
-      <c r="B16" s="44">
-        <v>17</v>
-      </c>
-      <c r="C16" s="42">
-        <v>7</v>
-      </c>
-      <c r="D16" s="42">
-        <v>7</v>
-      </c>
-      <c r="E16" s="42">
-        <f t="shared" ref="E16:E20" si="10">C16-D16</f>
-        <v>0</v>
-      </c>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43">
-        <f t="shared" ref="H16:H21" si="11">F16-G16</f>
-        <v>0</v>
-      </c>
-      <c r="I16" s="46">
-        <v>0</v>
-      </c>
-      <c r="J16" s="47">
-        <f t="shared" ref="J16:J21" si="12">I16/L16*100%</f>
-        <v>0</v>
-      </c>
-      <c r="K16" s="48">
-        <f t="shared" ref="K16:K20" si="13">C16+G16</f>
-        <v>7</v>
-      </c>
-      <c r="L16" s="48">
-        <f t="shared" ref="L16:L21" si="14">D16+G16</f>
-        <v>7</v>
-      </c>
-      <c r="M16" s="49">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A17" s="56"/>
-      <c r="B17" s="44">
-        <v>18</v>
-      </c>
-      <c r="C17" s="42">
-        <v>5</v>
-      </c>
-      <c r="D17" s="42">
-        <v>5</v>
-      </c>
-      <c r="E17" s="42">
-        <v>0</v>
-      </c>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="43">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="I17" s="46">
-        <v>0</v>
-      </c>
-      <c r="J17" s="47">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="K17" s="48">
-        <v>5</v>
-      </c>
-      <c r="L17" s="48">
-        <f t="shared" si="14"/>
-        <v>5</v>
-      </c>
-      <c r="M17" s="49">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A18" s="45"/>
-      <c r="B18" s="44"/>
-      <c r="C18" s="42">
-        <v>0</v>
-      </c>
-      <c r="D18" s="42">
-        <v>0</v>
-      </c>
-      <c r="E18" s="42">
-        <v>0</v>
-      </c>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="43">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="I18" s="46">
-        <v>0</v>
-      </c>
-      <c r="J18" s="47" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K18" s="48">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="L18" s="48">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="M18" s="49" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A19" s="45"/>
-      <c r="B19" s="44"/>
-      <c r="C19" s="42">
-        <v>0</v>
-      </c>
-      <c r="D19" s="42">
-        <v>0</v>
-      </c>
-      <c r="E19" s="42">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="F19" s="43"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="43">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="I19" s="46">
-        <v>0</v>
-      </c>
-      <c r="J19" s="47" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K19" s="48">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="L19" s="48">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="M19" s="49" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A20" s="45"/>
-      <c r="B20" s="44"/>
-      <c r="C20" s="42">
-        <v>0</v>
-      </c>
-      <c r="D20" s="42">
-        <v>0</v>
-      </c>
-      <c r="E20" s="42">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="F20" s="43"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="43">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="I20" s="46">
-        <v>0</v>
-      </c>
-      <c r="J20" s="47" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K20" s="48">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="L20" s="48">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="M20" s="49" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A21" s="45"/>
-      <c r="B21" s="44"/>
-      <c r="C21" s="42">
-        <v>0</v>
-      </c>
-      <c r="D21" s="42">
-        <v>0</v>
-      </c>
-      <c r="E21" s="42">
-        <v>0</v>
-      </c>
-      <c r="F21" s="43"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="43">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="I21" s="46">
-        <v>0</v>
-      </c>
-      <c r="J21" s="47" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K21" s="48">
-        <v>0</v>
-      </c>
-      <c r="L21" s="48">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="M21" s="49">
-        <v>0.33</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A15:A16"/>
   </mergeCells>
-  <phoneticPr fontId="11" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:P294"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="12.875" customWidth="1"/>
-    <col min="2" max="2" width="15.625" style="32" customWidth="1"/>
-    <col min="3" max="3" width="11.5" customWidth="1"/>
+    <col min="1" max="1" width="12.8416666666667" style="13" customWidth="1"/>
+    <col min="2" max="2" width="15.625" style="34" customWidth="1"/>
+    <col min="3" max="3" width="11.4833333333333" customWidth="1"/>
     <col min="4" max="4" width="27.5" customWidth="1"/>
     <col min="5" max="5" width="20.875" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="10.25" customWidth="1"/>
+    <col min="7" max="7" width="10.2666666666667" customWidth="1"/>
     <col min="8" max="8" width="28.25" customWidth="1"/>
-    <col min="9" max="9" width="9.875" customWidth="1"/>
-    <col min="10" max="10" width="13.875" customWidth="1"/>
-    <col min="11" max="11" width="18" customWidth="1"/>
+    <col min="9" max="9" width="9.86666666666667" customWidth="1"/>
+    <col min="10" max="10" width="13.9166666666667" customWidth="1"/>
+    <col min="11" max="11" width="17.975" customWidth="1"/>
     <col min="12" max="14" width="15" customWidth="1"/>
+    <col min="15" max="16384" width="9.73333333333333"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="31" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="33" t="s">
+    <row r="1" s="33" customFormat="1" ht="28.5" spans="1:15">
+      <c r="A1" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="D1" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="E1" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="F1" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="G1" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="H1" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="35" t="s">
+      <c r="I1" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="36" t="s">
+      <c r="J1" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="38" t="s">
+      <c r="K1" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="35" t="s">
+      <c r="L1" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="35" t="s">
+      <c r="M1" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="33" t="s">
+      <c r="N1" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="33" t="s">
+      <c r="O1" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="33" t="s">
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="10">
+        <v>1</v>
+      </c>
+      <c r="B2" s="39">
+        <v>43102</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="33" t="s">
+      <c r="D2" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A2" s="57">
-        <v>1</v>
-      </c>
-      <c r="B2" s="37">
-        <v>43102</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="G2" s="1">
         <v>76120259</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="K2" s="1">
         <v>15189553449</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N2" s="1">
         <v>18018066077</v>
       </c>
       <c r="O2" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="9"/>
+      <c r="B3" s="39">
+        <v>43102</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A3" s="58"/>
-      <c r="B3" s="37">
-        <v>43102</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="G3" s="1">
         <v>76118738</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K3" s="1">
         <v>15189553449</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="N3" s="1">
         <v>13528537677</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A4" s="57">
-        <v>2</v>
-      </c>
-      <c r="B4" s="37">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="9"/>
+      <c r="B4" s="39">
         <v>43105</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="G4" s="1">
         <v>76121072</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K4" s="1">
         <v>15189553449</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N4" s="1">
         <v>18226974951</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A5" s="59"/>
-      <c r="B5" s="37">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="12"/>
+      <c r="B5" s="39">
         <v>43105</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="G5" s="1">
         <v>76112895</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K5" s="1">
         <v>15189553449</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N5" s="1">
         <v>15077880787</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A6" s="10">
-        <v>3</v>
-      </c>
-      <c r="B6" s="37">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="11">
+        <v>2</v>
+      </c>
+      <c r="B6" s="39">
         <v>43112</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="G6" s="1">
         <v>76123362</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K6" s="1">
         <v>15189553449</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N6" s="1">
         <v>13337727177</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A7" s="10">
-        <v>4</v>
-      </c>
-      <c r="B7" s="37">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="11">
+        <v>3</v>
+      </c>
+      <c r="B7" s="39">
         <v>43120</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="G7" s="1">
         <v>76126655</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K7" s="1">
         <v>15189553449</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N7" s="1">
         <v>13851488518</v>
       </c>
       <c r="O7" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="11">
+        <v>5</v>
+      </c>
+      <c r="B8" s="39">
+        <v>43130</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A8" s="10">
-        <v>5</v>
-      </c>
-      <c r="B8" s="37">
-        <v>43130</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="G8" s="1">
         <v>76129193</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K8" s="1">
         <v>15189553449</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N8" s="1">
         <v>18651618831</v>
       </c>
       <c r="O8" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="11"/>
+      <c r="B9" s="39">
+        <v>43132</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A9" s="57">
-        <v>6</v>
-      </c>
-      <c r="B9" s="37">
-        <v>43132</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="G9" s="1">
         <v>76128311</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K9" s="1">
         <v>15189553449</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N9" s="1">
         <v>17351787770</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A10" s="59"/>
-      <c r="B10" s="37">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="12">
+        <v>6</v>
+      </c>
+      <c r="B10" s="39">
         <v>43137</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="G10" s="1">
         <v>76128381</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K10" s="1">
         <v>15189553449</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N10" s="1">
         <v>13665586009</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A11" s="10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="11">
         <v>10</v>
       </c>
-      <c r="B11" s="37">
+      <c r="B11" s="39">
         <v>43165</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="G11" s="1">
         <v>76132691</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K11" s="1">
         <v>15189553449</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N11" s="1">
         <v>15851877626</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" ht="19" customHeight="1" spans="1:15">
+      <c r="A12" s="11">
         <v>12</v>
       </c>
-      <c r="B12" s="37">
+      <c r="B12" s="39">
         <v>43182</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="G12" s="1">
         <v>76137879</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K12" s="1">
         <v>15189553449</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N12" s="1">
         <v>15951994226</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A13" s="57">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="10">
         <v>13</v>
       </c>
-      <c r="B13" s="60">
+      <c r="B13" s="40">
         <v>43185</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="D13" s="57" t="s">
-        <v>66</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="G13" s="1">
         <v>76135775</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K13" s="1">
         <v>15189553449</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N13" s="1">
         <v>13057568768</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A14" s="58"/>
-      <c r="B14" s="61"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="9"/>
+      <c r="B14" s="41"/>
       <c r="C14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="D14" s="58"/>
-      <c r="E14" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="G14" s="1">
         <v>76123026</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K14" s="1">
         <v>15189553449</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N14" s="1">
         <v>13057568768</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A15" s="58"/>
-      <c r="B15" s="61"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="9"/>
+      <c r="B15" s="41"/>
       <c r="C15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="D15" s="58"/>
-      <c r="E15" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="G15" s="1">
         <v>76138561</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K15" s="1">
         <v>15189553449</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N15" s="1">
         <v>18651827008</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A16" s="58"/>
-      <c r="B16" s="61"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="9"/>
+      <c r="B16" s="41"/>
       <c r="C16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="D16" s="58"/>
-      <c r="E16" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="G16" s="1">
         <v>76138565</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K16" s="1">
         <v>15189553449</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N16" s="1">
         <v>13915975966</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A17" s="59"/>
-      <c r="B17" s="62"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="12"/>
+      <c r="B17" s="42"/>
       <c r="C17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="12"/>
+      <c r="E17" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="D17" s="59"/>
-      <c r="E17" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="G17" s="1">
         <v>76135771</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K17" s="1">
         <v>15189553449</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N17" s="1">
         <v>13057651361</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A18" s="10">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="11">
         <v>14</v>
       </c>
-      <c r="B18" s="37">
+      <c r="B18" s="39">
         <v>43198</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="G18" s="1">
         <v>76155860</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K18" s="1">
         <v>15189553449</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N18" s="1">
         <v>15005160358</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A19" s="10">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="11">
         <v>15</v>
       </c>
-      <c r="B19" s="37">
+      <c r="B19" s="39">
         <v>43199</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="G19" s="1">
         <v>76152878</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K19" s="1">
         <v>15189553449</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="N19" s="1">
         <v>15071236167</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A20" s="10">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="11">
         <v>16</v>
       </c>
-      <c r="B20" s="37">
+      <c r="B20" s="39">
         <v>43210</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="G20" s="1">
         <v>76159290</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K20" s="1">
         <v>15189553449</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N20" s="1">
         <v>17342701977</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A21" s="57">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="10">
         <v>17</v>
       </c>
-      <c r="B21" s="37">
+      <c r="B21" s="39">
         <v>43213</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="G21" s="1">
         <v>76159011</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K21" s="1">
         <v>15189553449</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N21" s="1">
         <v>15805191899</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A22" s="58"/>
-      <c r="B22" s="37">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" s="9"/>
+      <c r="B22" s="39">
         <v>43215</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D22" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="G22" s="1">
         <v>76138830</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K22" s="1">
         <v>15189553449</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="N22" s="1">
         <v>18020275119</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="P22" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A23" s="58"/>
-      <c r="B23" s="37">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" s="9"/>
+      <c r="B23" s="39">
         <v>43215</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G23" s="1">
         <v>76132999</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K23" s="1">
         <v>15189553449</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="N23" s="1">
         <v>18020275119</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="P23" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A24" s="58"/>
-      <c r="B24" s="37">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" s="9"/>
+      <c r="B24" s="39">
         <v>43218</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="D24" s="57" t="s">
-        <v>66</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="G24" s="1">
         <v>76161101</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K24" s="1">
         <v>15189553449</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N24" s="1">
         <v>18502527718</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A25" s="58"/>
-      <c r="B25" s="37">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" s="9"/>
+      <c r="B25" s="39">
         <v>43218</v>
       </c>
       <c r="C25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="12"/>
+      <c r="E25" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="D25" s="59"/>
-      <c r="E25" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="G25" s="1">
         <v>76159399</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K25" s="1">
         <v>15189553449</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N25" s="1">
         <v>18751981936</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A26" s="58"/>
-      <c r="B26" s="37">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26" s="9"/>
+      <c r="B26" s="39">
         <v>43218</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D26" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="G26" s="1">
         <v>76157763</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K26" s="1">
         <v>15189553449</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="N26" s="1">
         <v>13263366335</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A27" s="59"/>
-      <c r="B27" s="37">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27" s="12"/>
+      <c r="B27" s="39">
         <v>43219</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G27" s="1">
         <v>76160160</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K27" s="1">
         <v>15189553449</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N27" s="1">
         <v>15051626196</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A28" s="57">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28" s="10">
         <v>18</v>
       </c>
-      <c r="B28" s="37">
+      <c r="B28" s="39">
         <v>43224</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G28" s="1">
         <v>76162769</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K28" s="1">
         <v>15189553449</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N28" s="1">
         <v>13912196802</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A29" s="58"/>
-      <c r="B29" s="37">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" s="9"/>
+      <c r="B29" s="39">
         <v>43226</v>
       </c>
       <c r="C29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="G29" s="1">
         <v>76167212</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K29" s="1">
         <v>15189553449</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N29" s="1">
         <v>13057581993</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A30" s="58"/>
-      <c r="B30" s="37">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30" s="9"/>
+      <c r="B30" s="39">
         <v>43229</v>
       </c>
       <c r="C30" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="G30" s="1">
         <v>76162973</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K30" s="1">
         <v>15189553449</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N30" s="1">
         <v>15895867930</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A31" s="58"/>
-      <c r="B31" s="37">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="A31" s="9"/>
+      <c r="B31" s="39">
         <v>43229</v>
       </c>
       <c r="C31" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="G31" s="1">
         <v>76162958</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K31" s="1">
         <v>15189553449</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="N31" s="1">
         <v>15952031799</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A32" s="59"/>
-      <c r="B32" s="37">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="A32" s="12"/>
+      <c r="B32" s="39">
         <v>43229</v>
       </c>
       <c r="C32" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F32" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="F32" s="64" t="s">
-        <v>175</v>
       </c>
       <c r="G32" s="1">
         <v>76167603</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="I32" s="64" t="s">
-        <v>174</v>
+        <v>120</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>121</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K32" s="1">
         <v>15189553449</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N32" s="1">
         <v>15961157058</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A33" s="1"/>
-      <c r="B33" s="37"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
+      <c r="A33" s="11"/>
+      <c r="B33" s="39"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -3702,9 +4063,9 @@
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A34" s="1"/>
-      <c r="B34" s="37"/>
+    <row r="34" spans="1:15">
+      <c r="A34" s="11"/>
+      <c r="B34" s="39"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -3719,9 +4080,9 @@
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A35" s="1"/>
-      <c r="B35" s="37"/>
+    <row r="35" spans="1:15">
+      <c r="A35" s="11"/>
+      <c r="B35" s="39"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -3736,9 +4097,9 @@
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A36" s="1"/>
-      <c r="B36" s="37"/>
+    <row r="36" spans="1:15">
+      <c r="A36" s="11"/>
+      <c r="B36" s="39"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -3753,9 +4114,9 @@
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A37" s="1"/>
-      <c r="B37" s="37"/>
+    <row r="37" spans="1:15">
+      <c r="A37" s="11"/>
+      <c r="B37" s="39"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -3770,9 +4131,9 @@
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A38" s="1"/>
-      <c r="B38" s="37"/>
+    <row r="38" spans="1:15">
+      <c r="A38" s="11"/>
+      <c r="B38" s="39"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -3787,9 +4148,9 @@
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A39" s="1"/>
-      <c r="B39" s="37"/>
+    <row r="39" spans="1:15">
+      <c r="A39" s="11"/>
+      <c r="B39" s="39"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -3804,9 +4165,9 @@
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A40" s="1"/>
-      <c r="B40" s="37"/>
+    <row r="40" spans="1:15">
+      <c r="A40" s="11"/>
+      <c r="B40" s="39"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -3821,9 +4182,9 @@
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A41" s="1"/>
-      <c r="B41" s="37"/>
+    <row r="41" spans="1:15">
+      <c r="A41" s="11"/>
+      <c r="B41" s="39"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -3838,9 +4199,9 @@
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A42" s="1"/>
-      <c r="B42" s="37"/>
+    <row r="42" spans="1:15">
+      <c r="A42" s="11"/>
+      <c r="B42" s="39"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -3855,9 +4216,9 @@
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A43" s="1"/>
-      <c r="B43" s="37"/>
+    <row r="43" spans="1:15">
+      <c r="A43" s="11"/>
+      <c r="B43" s="39"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -3872,9 +4233,9 @@
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A44" s="1"/>
-      <c r="B44" s="37"/>
+    <row r="44" spans="1:15">
+      <c r="A44" s="11"/>
+      <c r="B44" s="39"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -3889,9 +4250,9 @@
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A45" s="1"/>
-      <c r="B45" s="37"/>
+    <row r="45" spans="1:15">
+      <c r="A45" s="11"/>
+      <c r="B45" s="39"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -3906,9 +4267,9 @@
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A46" s="1"/>
-      <c r="B46" s="37"/>
+    <row r="46" spans="1:15">
+      <c r="A46" s="11"/>
+      <c r="B46" s="39"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -3923,9 +4284,9 @@
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A47" s="1"/>
-      <c r="B47" s="37"/>
+    <row r="47" spans="1:15">
+      <c r="A47" s="11"/>
+      <c r="B47" s="39"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -3940,9 +4301,9 @@
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A48" s="1"/>
-      <c r="B48" s="37"/>
+    <row r="48" spans="1:15">
+      <c r="A48" s="11"/>
+      <c r="B48" s="39"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -3957,9 +4318,9 @@
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A49" s="1"/>
-      <c r="B49" s="37"/>
+    <row r="49" spans="1:15">
+      <c r="A49" s="11"/>
+      <c r="B49" s="39"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -3974,9 +4335,9 @@
       <c r="N49" s="1"/>
       <c r="O49" s="1"/>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A50" s="1"/>
-      <c r="B50" s="37"/>
+    <row r="50" spans="1:15">
+      <c r="A50" s="11"/>
+      <c r="B50" s="39"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
@@ -3991,9 +4352,9 @@
       <c r="N50" s="1"/>
       <c r="O50" s="1"/>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A51" s="1"/>
-      <c r="B51" s="37"/>
+    <row r="51" spans="1:15">
+      <c r="A51" s="11"/>
+      <c r="B51" s="39"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -4008,9 +4369,9 @@
       <c r="N51" s="1"/>
       <c r="O51" s="1"/>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A52" s="1"/>
-      <c r="B52" s="37"/>
+    <row r="52" spans="1:15">
+      <c r="A52" s="11"/>
+      <c r="B52" s="39"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -4025,9 +4386,9 @@
       <c r="N52" s="1"/>
       <c r="O52" s="1"/>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A53" s="1"/>
-      <c r="B53" s="37"/>
+    <row r="53" spans="1:15">
+      <c r="A53" s="11"/>
+      <c r="B53" s="39"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -4042,9 +4403,9 @@
       <c r="N53" s="1"/>
       <c r="O53" s="1"/>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A54" s="1"/>
-      <c r="B54" s="37"/>
+    <row r="54" spans="1:15">
+      <c r="A54" s="11"/>
+      <c r="B54" s="39"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
@@ -4059,9 +4420,9 @@
       <c r="N54" s="1"/>
       <c r="O54" s="1"/>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A55" s="1"/>
-      <c r="B55" s="37"/>
+    <row r="55" spans="1:15">
+      <c r="A55" s="11"/>
+      <c r="B55" s="39"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -4076,9 +4437,9 @@
       <c r="N55" s="1"/>
       <c r="O55" s="1"/>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A56" s="1"/>
-      <c r="B56" s="37"/>
+    <row r="56" spans="1:15">
+      <c r="A56" s="11"/>
+      <c r="B56" s="39"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
@@ -4093,9 +4454,9 @@
       <c r="N56" s="1"/>
       <c r="O56" s="1"/>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A57" s="1"/>
-      <c r="B57" s="37"/>
+    <row r="57" spans="1:15">
+      <c r="A57" s="11"/>
+      <c r="B57" s="39"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
@@ -4110,9 +4471,9 @@
       <c r="N57" s="1"/>
       <c r="O57" s="1"/>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A58" s="1"/>
-      <c r="B58" s="37"/>
+    <row r="58" spans="1:15">
+      <c r="A58" s="11"/>
+      <c r="B58" s="39"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
@@ -4127,9 +4488,9 @@
       <c r="N58" s="1"/>
       <c r="O58" s="1"/>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A59" s="1"/>
-      <c r="B59" s="37"/>
+    <row r="59" spans="1:15">
+      <c r="A59" s="11"/>
+      <c r="B59" s="39"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
@@ -4144,9 +4505,9 @@
       <c r="N59" s="1"/>
       <c r="O59" s="1"/>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A60" s="1"/>
-      <c r="B60" s="37"/>
+    <row r="60" spans="1:15">
+      <c r="A60" s="11"/>
+      <c r="B60" s="39"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
@@ -4161,9 +4522,9 @@
       <c r="N60" s="1"/>
       <c r="O60" s="1"/>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A61" s="1"/>
-      <c r="B61" s="37"/>
+    <row r="61" spans="1:15">
+      <c r="A61" s="11"/>
+      <c r="B61" s="39"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
@@ -4178,9 +4539,9 @@
       <c r="N61" s="1"/>
       <c r="O61" s="1"/>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A62" s="1"/>
-      <c r="B62" s="37"/>
+    <row r="62" spans="1:15">
+      <c r="A62" s="11"/>
+      <c r="B62" s="39"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
@@ -4195,9 +4556,9 @@
       <c r="N62" s="1"/>
       <c r="O62" s="1"/>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A63" s="1"/>
-      <c r="B63" s="37"/>
+    <row r="63" spans="1:15">
+      <c r="A63" s="11"/>
+      <c r="B63" s="39"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
@@ -4212,9 +4573,9 @@
       <c r="N63" s="1"/>
       <c r="O63" s="1"/>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A64" s="1"/>
-      <c r="B64" s="37"/>
+    <row r="64" spans="1:15">
+      <c r="A64" s="11"/>
+      <c r="B64" s="39"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
@@ -4229,9 +4590,9 @@
       <c r="N64" s="1"/>
       <c r="O64" s="1"/>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A65" s="1"/>
-      <c r="B65" s="37"/>
+    <row r="65" spans="1:15">
+      <c r="A65" s="11"/>
+      <c r="B65" s="39"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
@@ -4246,9 +4607,9 @@
       <c r="N65" s="1"/>
       <c r="O65" s="1"/>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A66" s="1"/>
-      <c r="B66" s="37"/>
+    <row r="66" spans="1:15">
+      <c r="A66" s="11"/>
+      <c r="B66" s="39"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
@@ -4263,9 +4624,9 @@
       <c r="N66" s="1"/>
       <c r="O66" s="1"/>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A67" s="1"/>
-      <c r="B67" s="37"/>
+    <row r="67" spans="1:15">
+      <c r="A67" s="11"/>
+      <c r="B67" s="39"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
@@ -4280,9 +4641,9 @@
       <c r="N67" s="1"/>
       <c r="O67" s="1"/>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A68" s="1"/>
-      <c r="B68" s="37"/>
+    <row r="68" spans="1:15">
+      <c r="A68" s="11"/>
+      <c r="B68" s="39"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
@@ -4297,9 +4658,9 @@
       <c r="N68" s="1"/>
       <c r="O68" s="1"/>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A69" s="1"/>
-      <c r="B69" s="37"/>
+    <row r="69" spans="1:15">
+      <c r="A69" s="11"/>
+      <c r="B69" s="39"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
@@ -4314,9 +4675,9 @@
       <c r="N69" s="1"/>
       <c r="O69" s="1"/>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A70" s="1"/>
-      <c r="B70" s="37"/>
+    <row r="70" spans="1:15">
+      <c r="A70" s="11"/>
+      <c r="B70" s="39"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
@@ -4331,9 +4692,9 @@
       <c r="N70" s="1"/>
       <c r="O70" s="1"/>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A71" s="1"/>
-      <c r="B71" s="37"/>
+    <row r="71" spans="1:15">
+      <c r="A71" s="11"/>
+      <c r="B71" s="39"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
@@ -4348,9 +4709,9 @@
       <c r="N71" s="1"/>
       <c r="O71" s="1"/>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A72" s="1"/>
-      <c r="B72" s="37"/>
+    <row r="72" spans="1:15">
+      <c r="A72" s="11"/>
+      <c r="B72" s="39"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
@@ -4365,9 +4726,9 @@
       <c r="N72" s="1"/>
       <c r="O72" s="1"/>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A73" s="1"/>
-      <c r="B73" s="37"/>
+    <row r="73" spans="1:15">
+      <c r="A73" s="11"/>
+      <c r="B73" s="39"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
@@ -4382,9 +4743,9 @@
       <c r="N73" s="1"/>
       <c r="O73" s="1"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A74" s="1"/>
-      <c r="B74" s="37"/>
+    <row r="74" spans="1:15">
+      <c r="A74" s="11"/>
+      <c r="B74" s="39"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
@@ -4399,9 +4760,9 @@
       <c r="N74" s="1"/>
       <c r="O74" s="1"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A75" s="1"/>
-      <c r="B75" s="37"/>
+    <row r="75" spans="1:15">
+      <c r="A75" s="11"/>
+      <c r="B75" s="39"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
@@ -4416,9 +4777,9 @@
       <c r="N75" s="1"/>
       <c r="O75" s="1"/>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A76" s="1"/>
-      <c r="B76" s="37"/>
+    <row r="76" spans="1:15">
+      <c r="A76" s="11"/>
+      <c r="B76" s="39"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
@@ -4433,9 +4794,9 @@
       <c r="N76" s="1"/>
       <c r="O76" s="1"/>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A77" s="1"/>
-      <c r="B77" s="37"/>
+    <row r="77" spans="1:15">
+      <c r="A77" s="11"/>
+      <c r="B77" s="39"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
@@ -4450,9 +4811,9 @@
       <c r="N77" s="1"/>
       <c r="O77" s="1"/>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A78" s="1"/>
-      <c r="B78" s="37"/>
+    <row r="78" spans="1:15">
+      <c r="A78" s="11"/>
+      <c r="B78" s="39"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
@@ -4467,9 +4828,9 @@
       <c r="N78" s="1"/>
       <c r="O78" s="1"/>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A79" s="1"/>
-      <c r="B79" s="37"/>
+    <row r="79" spans="1:15">
+      <c r="A79" s="11"/>
+      <c r="B79" s="39"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
@@ -4484,9 +4845,9 @@
       <c r="N79" s="1"/>
       <c r="O79" s="1"/>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A80" s="1"/>
-      <c r="B80" s="37"/>
+    <row r="80" spans="1:15">
+      <c r="A80" s="11"/>
+      <c r="B80" s="39"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
@@ -4501,9 +4862,9 @@
       <c r="N80" s="1"/>
       <c r="O80" s="1"/>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A81" s="1"/>
-      <c r="B81" s="37"/>
+    <row r="81" spans="1:15">
+      <c r="A81" s="11"/>
+      <c r="B81" s="39"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
@@ -4518,9 +4879,9 @@
       <c r="N81" s="1"/>
       <c r="O81" s="1"/>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A82" s="1"/>
-      <c r="B82" s="37"/>
+    <row r="82" spans="1:15">
+      <c r="A82" s="11"/>
+      <c r="B82" s="39"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
@@ -4535,9 +4896,9 @@
       <c r="N82" s="1"/>
       <c r="O82" s="1"/>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A83" s="1"/>
-      <c r="B83" s="37"/>
+    <row r="83" spans="1:15">
+      <c r="A83" s="11"/>
+      <c r="B83" s="39"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
@@ -4552,9 +4913,9 @@
       <c r="N83" s="1"/>
       <c r="O83" s="1"/>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A84" s="1"/>
-      <c r="B84" s="37"/>
+    <row r="84" spans="1:15">
+      <c r="A84" s="11"/>
+      <c r="B84" s="39"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
@@ -4569,9 +4930,9 @@
       <c r="N84" s="1"/>
       <c r="O84" s="1"/>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A85" s="1"/>
-      <c r="B85" s="37"/>
+    <row r="85" spans="1:15">
+      <c r="A85" s="11"/>
+      <c r="B85" s="39"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
@@ -4586,9 +4947,9 @@
       <c r="N85" s="1"/>
       <c r="O85" s="1"/>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A86" s="1"/>
-      <c r="B86" s="37"/>
+    <row r="86" spans="1:15">
+      <c r="A86" s="11"/>
+      <c r="B86" s="39"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
@@ -4603,9 +4964,9 @@
       <c r="N86" s="1"/>
       <c r="O86" s="1"/>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A87" s="1"/>
-      <c r="B87" s="37"/>
+    <row r="87" spans="1:15">
+      <c r="A87" s="11"/>
+      <c r="B87" s="39"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
@@ -4620,9 +4981,9 @@
       <c r="N87" s="1"/>
       <c r="O87" s="1"/>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A88" s="1"/>
-      <c r="B88" s="37"/>
+    <row r="88" spans="1:15">
+      <c r="A88" s="11"/>
+      <c r="B88" s="39"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
@@ -4637,9 +4998,9 @@
       <c r="N88" s="1"/>
       <c r="O88" s="1"/>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A89" s="1"/>
-      <c r="B89" s="37"/>
+    <row r="89" spans="1:15">
+      <c r="A89" s="11"/>
+      <c r="B89" s="39"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
@@ -4654,9 +5015,9 @@
       <c r="N89" s="1"/>
       <c r="O89" s="1"/>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A90" s="1"/>
-      <c r="B90" s="37"/>
+    <row r="90" spans="1:15">
+      <c r="A90" s="11"/>
+      <c r="B90" s="39"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
@@ -4671,9 +5032,9 @@
       <c r="N90" s="1"/>
       <c r="O90" s="1"/>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A91" s="1"/>
-      <c r="B91" s="37"/>
+    <row r="91" spans="1:15">
+      <c r="A91" s="11"/>
+      <c r="B91" s="39"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
@@ -4688,9 +5049,9 @@
       <c r="N91" s="1"/>
       <c r="O91" s="1"/>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A92" s="1"/>
-      <c r="B92" s="37"/>
+    <row r="92" spans="1:15">
+      <c r="A92" s="11"/>
+      <c r="B92" s="39"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
@@ -4705,9 +5066,9 @@
       <c r="N92" s="1"/>
       <c r="O92" s="1"/>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A93" s="1"/>
-      <c r="B93" s="37"/>
+    <row r="93" spans="1:15">
+      <c r="A93" s="11"/>
+      <c r="B93" s="39"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
@@ -4722,9 +5083,9 @@
       <c r="N93" s="1"/>
       <c r="O93" s="1"/>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A94" s="1"/>
-      <c r="B94" s="37"/>
+    <row r="94" spans="1:15">
+      <c r="A94" s="11"/>
+      <c r="B94" s="39"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
@@ -4739,9 +5100,9 @@
       <c r="N94" s="1"/>
       <c r="O94" s="1"/>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A95" s="1"/>
-      <c r="B95" s="37"/>
+    <row r="95" spans="1:15">
+      <c r="A95" s="11"/>
+      <c r="B95" s="39"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
@@ -4756,9 +5117,9 @@
       <c r="N95" s="1"/>
       <c r="O95" s="1"/>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A96" s="1"/>
-      <c r="B96" s="37"/>
+    <row r="96" spans="1:15">
+      <c r="A96" s="11"/>
+      <c r="B96" s="39"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
@@ -4773,9 +5134,9 @@
       <c r="N96" s="1"/>
       <c r="O96" s="1"/>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A97" s="1"/>
-      <c r="B97" s="37"/>
+    <row r="97" spans="1:15">
+      <c r="A97" s="11"/>
+      <c r="B97" s="39"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
@@ -4790,9 +5151,9 @@
       <c r="N97" s="1"/>
       <c r="O97" s="1"/>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A98" s="1"/>
-      <c r="B98" s="37"/>
+    <row r="98" spans="1:15">
+      <c r="A98" s="11"/>
+      <c r="B98" s="39"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
@@ -4807,9 +5168,9 @@
       <c r="N98" s="1"/>
       <c r="O98" s="1"/>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A99" s="1"/>
-      <c r="B99" s="37"/>
+    <row r="99" spans="1:15">
+      <c r="A99" s="11"/>
+      <c r="B99" s="39"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
@@ -4824,9 +5185,9 @@
       <c r="N99" s="1"/>
       <c r="O99" s="1"/>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A100" s="1"/>
-      <c r="B100" s="37"/>
+    <row r="100" spans="1:15">
+      <c r="A100" s="11"/>
+      <c r="B100" s="39"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
@@ -4841,9 +5202,9 @@
       <c r="N100" s="1"/>
       <c r="O100" s="1"/>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A101" s="1"/>
-      <c r="B101" s="37"/>
+    <row r="101" spans="1:15">
+      <c r="A101" s="11"/>
+      <c r="B101" s="39"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
@@ -4858,9 +5219,9 @@
       <c r="N101" s="1"/>
       <c r="O101" s="1"/>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A102" s="1"/>
-      <c r="B102" s="37"/>
+    <row r="102" spans="1:15">
+      <c r="A102" s="11"/>
+      <c r="B102" s="39"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
@@ -4875,9 +5236,9 @@
       <c r="N102" s="1"/>
       <c r="O102" s="1"/>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A103" s="1"/>
-      <c r="B103" s="37"/>
+    <row r="103" spans="1:15">
+      <c r="A103" s="11"/>
+      <c r="B103" s="39"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
@@ -4892,9 +5253,9 @@
       <c r="N103" s="1"/>
       <c r="O103" s="1"/>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A104" s="1"/>
-      <c r="B104" s="37"/>
+    <row r="104" spans="1:15">
+      <c r="A104" s="11"/>
+      <c r="B104" s="39"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
@@ -4909,9 +5270,9 @@
       <c r="N104" s="1"/>
       <c r="O104" s="1"/>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A105" s="1"/>
-      <c r="B105" s="37"/>
+    <row r="105" spans="1:15">
+      <c r="A105" s="11"/>
+      <c r="B105" s="39"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
@@ -4926,9 +5287,9 @@
       <c r="N105" s="1"/>
       <c r="O105" s="1"/>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A106" s="1"/>
-      <c r="B106" s="37"/>
+    <row r="106" spans="1:15">
+      <c r="A106" s="11"/>
+      <c r="B106" s="39"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
@@ -4943,9 +5304,9 @@
       <c r="N106" s="1"/>
       <c r="O106" s="1"/>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A107" s="1"/>
-      <c r="B107" s="37"/>
+    <row r="107" spans="1:15">
+      <c r="A107" s="11"/>
+      <c r="B107" s="39"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
@@ -4960,9 +5321,9 @@
       <c r="N107" s="1"/>
       <c r="O107" s="1"/>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A108" s="1"/>
-      <c r="B108" s="37"/>
+    <row r="108" spans="1:15">
+      <c r="A108" s="11"/>
+      <c r="B108" s="39"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
@@ -4977,9 +5338,9 @@
       <c r="N108" s="1"/>
       <c r="O108" s="1"/>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A109" s="1"/>
-      <c r="B109" s="37"/>
+    <row r="109" spans="1:15">
+      <c r="A109" s="11"/>
+      <c r="B109" s="39"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
@@ -4994,9 +5355,9 @@
       <c r="N109" s="1"/>
       <c r="O109" s="1"/>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A110" s="1"/>
-      <c r="B110" s="37"/>
+    <row r="110" spans="1:15">
+      <c r="A110" s="11"/>
+      <c r="B110" s="39"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
@@ -5011,9 +5372,9 @@
       <c r="N110" s="1"/>
       <c r="O110" s="1"/>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A111" s="1"/>
-      <c r="B111" s="37"/>
+    <row r="111" spans="1:15">
+      <c r="A111" s="11"/>
+      <c r="B111" s="39"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
@@ -5028,9 +5389,9 @@
       <c r="N111" s="1"/>
       <c r="O111" s="1"/>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A112" s="1"/>
-      <c r="B112" s="37"/>
+    <row r="112" spans="1:15">
+      <c r="A112" s="11"/>
+      <c r="B112" s="39"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
@@ -5045,9 +5406,9 @@
       <c r="N112" s="1"/>
       <c r="O112" s="1"/>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A113" s="1"/>
-      <c r="B113" s="37"/>
+    <row r="113" spans="1:15">
+      <c r="A113" s="11"/>
+      <c r="B113" s="39"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
@@ -5062,9 +5423,9 @@
       <c r="N113" s="1"/>
       <c r="O113" s="1"/>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A114" s="1"/>
-      <c r="B114" s="37"/>
+    <row r="114" spans="1:15">
+      <c r="A114" s="11"/>
+      <c r="B114" s="39"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
@@ -5079,9 +5440,9 @@
       <c r="N114" s="1"/>
       <c r="O114" s="1"/>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A115" s="1"/>
-      <c r="B115" s="37"/>
+    <row r="115" spans="1:15">
+      <c r="A115" s="11"/>
+      <c r="B115" s="39"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
@@ -5096,9 +5457,9 @@
       <c r="N115" s="1"/>
       <c r="O115" s="1"/>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A116" s="1"/>
-      <c r="B116" s="37"/>
+    <row r="116" spans="1:15">
+      <c r="A116" s="11"/>
+      <c r="B116" s="39"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
@@ -5113,9 +5474,9 @@
       <c r="N116" s="1"/>
       <c r="O116" s="1"/>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A117" s="1"/>
-      <c r="B117" s="37"/>
+    <row r="117" spans="1:15">
+      <c r="A117" s="11"/>
+      <c r="B117" s="39"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
@@ -5130,9 +5491,9 @@
       <c r="N117" s="1"/>
       <c r="O117" s="1"/>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A118" s="1"/>
-      <c r="B118" s="37"/>
+    <row r="118" spans="1:15">
+      <c r="A118" s="11"/>
+      <c r="B118" s="39"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
@@ -5147,9 +5508,9 @@
       <c r="N118" s="1"/>
       <c r="O118" s="1"/>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A119" s="1"/>
-      <c r="B119" s="37"/>
+    <row r="119" spans="1:15">
+      <c r="A119" s="11"/>
+      <c r="B119" s="39"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
@@ -5164,9 +5525,9 @@
       <c r="N119" s="1"/>
       <c r="O119" s="1"/>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A120" s="1"/>
-      <c r="B120" s="37"/>
+    <row r="120" spans="1:15">
+      <c r="A120" s="11"/>
+      <c r="B120" s="39"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
@@ -5181,9 +5542,9 @@
       <c r="N120" s="1"/>
       <c r="O120" s="1"/>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A121" s="1"/>
-      <c r="B121" s="37"/>
+    <row r="121" spans="1:15">
+      <c r="A121" s="11"/>
+      <c r="B121" s="39"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
@@ -5198,9 +5559,9 @@
       <c r="N121" s="1"/>
       <c r="O121" s="1"/>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A122" s="1"/>
-      <c r="B122" s="37"/>
+    <row r="122" spans="1:15">
+      <c r="A122" s="11"/>
+      <c r="B122" s="39"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
@@ -5215,9 +5576,9 @@
       <c r="N122" s="1"/>
       <c r="O122" s="1"/>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A123" s="1"/>
-      <c r="B123" s="37"/>
+    <row r="123" spans="1:15">
+      <c r="A123" s="11"/>
+      <c r="B123" s="39"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
@@ -5232,9 +5593,9 @@
       <c r="N123" s="1"/>
       <c r="O123" s="1"/>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A124" s="1"/>
-      <c r="B124" s="37"/>
+    <row r="124" spans="1:15">
+      <c r="A124" s="11"/>
+      <c r="B124" s="39"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
@@ -5249,9 +5610,9 @@
       <c r="N124" s="1"/>
       <c r="O124" s="1"/>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A125" s="1"/>
-      <c r="B125" s="37"/>
+    <row r="125" spans="1:15">
+      <c r="A125" s="11"/>
+      <c r="B125" s="39"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
@@ -5266,9 +5627,9 @@
       <c r="N125" s="1"/>
       <c r="O125" s="1"/>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A126" s="1"/>
-      <c r="B126" s="37"/>
+    <row r="126" spans="1:15">
+      <c r="A126" s="11"/>
+      <c r="B126" s="39"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
@@ -5283,9 +5644,9 @@
       <c r="N126" s="1"/>
       <c r="O126" s="1"/>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A127" s="1"/>
-      <c r="B127" s="37"/>
+    <row r="127" spans="1:15">
+      <c r="A127" s="11"/>
+      <c r="B127" s="39"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
@@ -5300,9 +5661,9 @@
       <c r="N127" s="1"/>
       <c r="O127" s="1"/>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A128" s="1"/>
-      <c r="B128" s="37"/>
+    <row r="128" spans="1:15">
+      <c r="A128" s="11"/>
+      <c r="B128" s="39"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
@@ -5317,9 +5678,9 @@
       <c r="N128" s="1"/>
       <c r="O128" s="1"/>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A129" s="1"/>
-      <c r="B129" s="37"/>
+    <row r="129" spans="1:15">
+      <c r="A129" s="11"/>
+      <c r="B129" s="39"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
@@ -5334,9 +5695,9 @@
       <c r="N129" s="1"/>
       <c r="O129" s="1"/>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A130" s="1"/>
-      <c r="B130" s="37"/>
+    <row r="130" spans="1:15">
+      <c r="A130" s="11"/>
+      <c r="B130" s="39"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
@@ -5351,9 +5712,9 @@
       <c r="N130" s="1"/>
       <c r="O130" s="1"/>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A131" s="1"/>
-      <c r="B131" s="37"/>
+    <row r="131" spans="1:15">
+      <c r="A131" s="11"/>
+      <c r="B131" s="39"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
@@ -5368,9 +5729,9 @@
       <c r="N131" s="1"/>
       <c r="O131" s="1"/>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A132" s="1"/>
-      <c r="B132" s="37"/>
+    <row r="132" spans="1:15">
+      <c r="A132" s="11"/>
+      <c r="B132" s="39"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
@@ -5385,9 +5746,9 @@
       <c r="N132" s="1"/>
       <c r="O132" s="1"/>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A133" s="1"/>
-      <c r="B133" s="37"/>
+    <row r="133" spans="1:15">
+      <c r="A133" s="11"/>
+      <c r="B133" s="39"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
@@ -5402,9 +5763,9 @@
       <c r="N133" s="1"/>
       <c r="O133" s="1"/>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A134" s="1"/>
-      <c r="B134" s="37"/>
+    <row r="134" spans="1:15">
+      <c r="A134" s="11"/>
+      <c r="B134" s="39"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
@@ -5419,9 +5780,9 @@
       <c r="N134" s="1"/>
       <c r="O134" s="1"/>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A135" s="1"/>
-      <c r="B135" s="37"/>
+    <row r="135" spans="1:15">
+      <c r="A135" s="11"/>
+      <c r="B135" s="39"/>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
@@ -5436,9 +5797,9 @@
       <c r="N135" s="1"/>
       <c r="O135" s="1"/>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A136" s="1"/>
-      <c r="B136" s="37"/>
+    <row r="136" spans="1:15">
+      <c r="A136" s="11"/>
+      <c r="B136" s="39"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
@@ -5453,9 +5814,9 @@
       <c r="N136" s="1"/>
       <c r="O136" s="1"/>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A137" s="1"/>
-      <c r="B137" s="37"/>
+    <row r="137" spans="1:15">
+      <c r="A137" s="11"/>
+      <c r="B137" s="39"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
@@ -5470,9 +5831,9 @@
       <c r="N137" s="1"/>
       <c r="O137" s="1"/>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A138" s="1"/>
-      <c r="B138" s="37"/>
+    <row r="138" spans="1:15">
+      <c r="A138" s="11"/>
+      <c r="B138" s="39"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
@@ -5487,9 +5848,9 @@
       <c r="N138" s="1"/>
       <c r="O138" s="1"/>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A139" s="1"/>
-      <c r="B139" s="37"/>
+    <row r="139" spans="1:15">
+      <c r="A139" s="11"/>
+      <c r="B139" s="39"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
@@ -5504,9 +5865,9 @@
       <c r="N139" s="1"/>
       <c r="O139" s="1"/>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A140" s="1"/>
-      <c r="B140" s="37"/>
+    <row r="140" spans="1:15">
+      <c r="A140" s="11"/>
+      <c r="B140" s="39"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
@@ -5521,9 +5882,9 @@
       <c r="N140" s="1"/>
       <c r="O140" s="1"/>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A141" s="1"/>
-      <c r="B141" s="37"/>
+    <row r="141" spans="1:15">
+      <c r="A141" s="11"/>
+      <c r="B141" s="39"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
@@ -5538,9 +5899,9 @@
       <c r="N141" s="1"/>
       <c r="O141" s="1"/>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A142" s="1"/>
-      <c r="B142" s="37"/>
+    <row r="142" spans="1:15">
+      <c r="A142" s="11"/>
+      <c r="B142" s="39"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
@@ -5555,9 +5916,9 @@
       <c r="N142" s="1"/>
       <c r="O142" s="1"/>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A143" s="1"/>
-      <c r="B143" s="37"/>
+    <row r="143" spans="1:15">
+      <c r="A143" s="11"/>
+      <c r="B143" s="39"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
       <c r="E143" s="1"/>
@@ -5572,9 +5933,9 @@
       <c r="N143" s="1"/>
       <c r="O143" s="1"/>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A144" s="1"/>
-      <c r="B144" s="37"/>
+    <row r="144" spans="1:15">
+      <c r="A144" s="11"/>
+      <c r="B144" s="39"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
@@ -5589,9 +5950,9 @@
       <c r="N144" s="1"/>
       <c r="O144" s="1"/>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A145" s="1"/>
-      <c r="B145" s="37"/>
+    <row r="145" spans="1:15">
+      <c r="A145" s="11"/>
+      <c r="B145" s="39"/>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
       <c r="E145" s="1"/>
@@ -5606,9 +5967,9 @@
       <c r="N145" s="1"/>
       <c r="O145" s="1"/>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A146" s="1"/>
-      <c r="B146" s="37"/>
+    <row r="146" spans="1:15">
+      <c r="A146" s="11"/>
+      <c r="B146" s="39"/>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
       <c r="E146" s="1"/>
@@ -5623,9 +5984,9 @@
       <c r="N146" s="1"/>
       <c r="O146" s="1"/>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A147" s="1"/>
-      <c r="B147" s="37"/>
+    <row r="147" spans="1:15">
+      <c r="A147" s="11"/>
+      <c r="B147" s="39"/>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
       <c r="E147" s="1"/>
@@ -5640,9 +6001,9 @@
       <c r="N147" s="1"/>
       <c r="O147" s="1"/>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A148" s="1"/>
-      <c r="B148" s="37"/>
+    <row r="148" spans="1:15">
+      <c r="A148" s="11"/>
+      <c r="B148" s="39"/>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
       <c r="E148" s="1"/>
@@ -5657,9 +6018,9 @@
       <c r="N148" s="1"/>
       <c r="O148" s="1"/>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A149" s="1"/>
-      <c r="B149" s="37"/>
+    <row r="149" spans="1:15">
+      <c r="A149" s="11"/>
+      <c r="B149" s="39"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
@@ -5674,9 +6035,9 @@
       <c r="N149" s="1"/>
       <c r="O149" s="1"/>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A150" s="1"/>
-      <c r="B150" s="37"/>
+    <row r="150" spans="1:15">
+      <c r="A150" s="11"/>
+      <c r="B150" s="39"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
       <c r="E150" s="1"/>
@@ -5691,9 +6052,9 @@
       <c r="N150" s="1"/>
       <c r="O150" s="1"/>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A151" s="1"/>
-      <c r="B151" s="37"/>
+    <row r="151" spans="1:15">
+      <c r="A151" s="11"/>
+      <c r="B151" s="39"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
       <c r="E151" s="1"/>
@@ -5708,9 +6069,9 @@
       <c r="N151" s="1"/>
       <c r="O151" s="1"/>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A152" s="1"/>
-      <c r="B152" s="37"/>
+    <row r="152" spans="1:15">
+      <c r="A152" s="11"/>
+      <c r="B152" s="39"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
       <c r="E152" s="1"/>
@@ -5725,9 +6086,9 @@
       <c r="N152" s="1"/>
       <c r="O152" s="1"/>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A153" s="1"/>
-      <c r="B153" s="37"/>
+    <row r="153" spans="1:15">
+      <c r="A153" s="11"/>
+      <c r="B153" s="39"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
       <c r="E153" s="1"/>
@@ -5742,9 +6103,9 @@
       <c r="N153" s="1"/>
       <c r="O153" s="1"/>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A154" s="1"/>
-      <c r="B154" s="37"/>
+    <row r="154" spans="1:15">
+      <c r="A154" s="11"/>
+      <c r="B154" s="39"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
       <c r="E154" s="1"/>
@@ -5759,9 +6120,9 @@
       <c r="N154" s="1"/>
       <c r="O154" s="1"/>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A155" s="1"/>
-      <c r="B155" s="37"/>
+    <row r="155" spans="1:15">
+      <c r="A155" s="11"/>
+      <c r="B155" s="39"/>
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
       <c r="E155" s="1"/>
@@ -5776,9 +6137,9 @@
       <c r="N155" s="1"/>
       <c r="O155" s="1"/>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A156" s="1"/>
-      <c r="B156" s="37"/>
+    <row r="156" spans="1:15">
+      <c r="A156" s="11"/>
+      <c r="B156" s="39"/>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
       <c r="E156" s="1"/>
@@ -5793,9 +6154,9 @@
       <c r="N156" s="1"/>
       <c r="O156" s="1"/>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A157" s="1"/>
-      <c r="B157" s="37"/>
+    <row r="157" spans="1:15">
+      <c r="A157" s="11"/>
+      <c r="B157" s="39"/>
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
       <c r="E157" s="1"/>
@@ -5810,9 +6171,9 @@
       <c r="N157" s="1"/>
       <c r="O157" s="1"/>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A158" s="1"/>
-      <c r="B158" s="37"/>
+    <row r="158" spans="1:15">
+      <c r="A158" s="11"/>
+      <c r="B158" s="39"/>
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
       <c r="E158" s="1"/>
@@ -5827,9 +6188,9 @@
       <c r="N158" s="1"/>
       <c r="O158" s="1"/>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A159" s="1"/>
-      <c r="B159" s="37"/>
+    <row r="159" spans="1:15">
+      <c r="A159" s="11"/>
+      <c r="B159" s="39"/>
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
       <c r="E159" s="1"/>
@@ -5844,9 +6205,9 @@
       <c r="N159" s="1"/>
       <c r="O159" s="1"/>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A160" s="1"/>
-      <c r="B160" s="37"/>
+    <row r="160" spans="1:15">
+      <c r="A160" s="11"/>
+      <c r="B160" s="39"/>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
       <c r="E160" s="1"/>
@@ -5861,9 +6222,9 @@
       <c r="N160" s="1"/>
       <c r="O160" s="1"/>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A161" s="1"/>
-      <c r="B161" s="37"/>
+    <row r="161" spans="1:15">
+      <c r="A161" s="11"/>
+      <c r="B161" s="39"/>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
       <c r="E161" s="1"/>
@@ -5878,9 +6239,9 @@
       <c r="N161" s="1"/>
       <c r="O161" s="1"/>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A162" s="1"/>
-      <c r="B162" s="37"/>
+    <row r="162" spans="1:15">
+      <c r="A162" s="11"/>
+      <c r="B162" s="39"/>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
       <c r="E162" s="1"/>
@@ -5895,9 +6256,9 @@
       <c r="N162" s="1"/>
       <c r="O162" s="1"/>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A163" s="1"/>
-      <c r="B163" s="37"/>
+    <row r="163" spans="1:15">
+      <c r="A163" s="11"/>
+      <c r="B163" s="39"/>
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
       <c r="E163" s="1"/>
@@ -5912,9 +6273,9 @@
       <c r="N163" s="1"/>
       <c r="O163" s="1"/>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A164" s="1"/>
-      <c r="B164" s="37"/>
+    <row r="164" spans="1:15">
+      <c r="A164" s="11"/>
+      <c r="B164" s="39"/>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
       <c r="E164" s="1"/>
@@ -5929,9 +6290,9 @@
       <c r="N164" s="1"/>
       <c r="O164" s="1"/>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A165" s="1"/>
-      <c r="B165" s="37"/>
+    <row r="165" spans="1:15">
+      <c r="A165" s="11"/>
+      <c r="B165" s="39"/>
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
       <c r="E165" s="1"/>
@@ -5946,9 +6307,9 @@
       <c r="N165" s="1"/>
       <c r="O165" s="1"/>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A166" s="1"/>
-      <c r="B166" s="37"/>
+    <row r="166" spans="1:15">
+      <c r="A166" s="11"/>
+      <c r="B166" s="39"/>
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
       <c r="E166" s="1"/>
@@ -5963,9 +6324,9 @@
       <c r="N166" s="1"/>
       <c r="O166" s="1"/>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A167" s="1"/>
-      <c r="B167" s="37"/>
+    <row r="167" spans="1:15">
+      <c r="A167" s="11"/>
+      <c r="B167" s="39"/>
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
       <c r="E167" s="1"/>
@@ -5980,9 +6341,9 @@
       <c r="N167" s="1"/>
       <c r="O167" s="1"/>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A168" s="1"/>
-      <c r="B168" s="37"/>
+    <row r="168" spans="1:15">
+      <c r="A168" s="11"/>
+      <c r="B168" s="39"/>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
       <c r="E168" s="1"/>
@@ -5997,9 +6358,9 @@
       <c r="N168" s="1"/>
       <c r="O168" s="1"/>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A169" s="1"/>
-      <c r="B169" s="37"/>
+    <row r="169" spans="1:15">
+      <c r="A169" s="11"/>
+      <c r="B169" s="39"/>
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
       <c r="E169" s="1"/>
@@ -6014,9 +6375,9 @@
       <c r="N169" s="1"/>
       <c r="O169" s="1"/>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A170" s="1"/>
-      <c r="B170" s="37"/>
+    <row r="170" spans="1:15">
+      <c r="A170" s="11"/>
+      <c r="B170" s="39"/>
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
       <c r="E170" s="1"/>
@@ -6031,9 +6392,9 @@
       <c r="N170" s="1"/>
       <c r="O170" s="1"/>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A171" s="1"/>
-      <c r="B171" s="37"/>
+    <row r="171" spans="1:15">
+      <c r="A171" s="11"/>
+      <c r="B171" s="39"/>
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
       <c r="E171" s="1"/>
@@ -6048,9 +6409,9 @@
       <c r="N171" s="1"/>
       <c r="O171" s="1"/>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A172" s="1"/>
-      <c r="B172" s="37"/>
+    <row r="172" spans="1:15">
+      <c r="A172" s="11"/>
+      <c r="B172" s="39"/>
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
       <c r="E172" s="1"/>
@@ -6065,9 +6426,9 @@
       <c r="N172" s="1"/>
       <c r="O172" s="1"/>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A173" s="1"/>
-      <c r="B173" s="37"/>
+    <row r="173" spans="1:15">
+      <c r="A173" s="11"/>
+      <c r="B173" s="39"/>
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
       <c r="E173" s="1"/>
@@ -6082,9 +6443,9 @@
       <c r="N173" s="1"/>
       <c r="O173" s="1"/>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A174" s="1"/>
-      <c r="B174" s="37"/>
+    <row r="174" spans="1:15">
+      <c r="A174" s="11"/>
+      <c r="B174" s="39"/>
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
       <c r="E174" s="1"/>
@@ -6099,9 +6460,9 @@
       <c r="N174" s="1"/>
       <c r="O174" s="1"/>
     </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A175" s="1"/>
-      <c r="B175" s="37"/>
+    <row r="175" spans="1:15">
+      <c r="A175" s="11"/>
+      <c r="B175" s="39"/>
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
       <c r="E175" s="1"/>
@@ -6116,9 +6477,9 @@
       <c r="N175" s="1"/>
       <c r="O175" s="1"/>
     </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A176" s="1"/>
-      <c r="B176" s="37"/>
+    <row r="176" spans="1:15">
+      <c r="A176" s="11"/>
+      <c r="B176" s="39"/>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
       <c r="E176" s="1"/>
@@ -6133,9 +6494,9 @@
       <c r="N176" s="1"/>
       <c r="O176" s="1"/>
     </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A177" s="1"/>
-      <c r="B177" s="37"/>
+    <row r="177" spans="1:15">
+      <c r="A177" s="11"/>
+      <c r="B177" s="39"/>
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
       <c r="E177" s="1"/>
@@ -6150,9 +6511,9 @@
       <c r="N177" s="1"/>
       <c r="O177" s="1"/>
     </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A178" s="1"/>
-      <c r="B178" s="37"/>
+    <row r="178" spans="1:15">
+      <c r="A178" s="11"/>
+      <c r="B178" s="39"/>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
       <c r="E178" s="1"/>
@@ -6167,9 +6528,9 @@
       <c r="N178" s="1"/>
       <c r="O178" s="1"/>
     </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A179" s="1"/>
-      <c r="B179" s="37"/>
+    <row r="179" spans="1:15">
+      <c r="A179" s="11"/>
+      <c r="B179" s="39"/>
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
       <c r="E179" s="1"/>
@@ -6184,9 +6545,9 @@
       <c r="N179" s="1"/>
       <c r="O179" s="1"/>
     </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A180" s="1"/>
-      <c r="B180" s="37"/>
+    <row r="180" spans="1:15">
+      <c r="A180" s="11"/>
+      <c r="B180" s="39"/>
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
       <c r="E180" s="1"/>
@@ -6201,9 +6562,9 @@
       <c r="N180" s="1"/>
       <c r="O180" s="1"/>
     </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A181" s="1"/>
-      <c r="B181" s="37"/>
+    <row r="181" spans="1:15">
+      <c r="A181" s="11"/>
+      <c r="B181" s="39"/>
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
       <c r="E181" s="1"/>
@@ -6218,9 +6579,9 @@
       <c r="N181" s="1"/>
       <c r="O181" s="1"/>
     </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A182" s="1"/>
-      <c r="B182" s="37"/>
+    <row r="182" spans="1:15">
+      <c r="A182" s="11"/>
+      <c r="B182" s="39"/>
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
       <c r="E182" s="1"/>
@@ -6235,9 +6596,9 @@
       <c r="N182" s="1"/>
       <c r="O182" s="1"/>
     </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A183" s="1"/>
-      <c r="B183" s="37"/>
+    <row r="183" spans="1:15">
+      <c r="A183" s="11"/>
+      <c r="B183" s="39"/>
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
       <c r="E183" s="1"/>
@@ -6252,9 +6613,9 @@
       <c r="N183" s="1"/>
       <c r="O183" s="1"/>
     </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A184" s="1"/>
-      <c r="B184" s="37"/>
+    <row r="184" spans="1:15">
+      <c r="A184" s="11"/>
+      <c r="B184" s="39"/>
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
       <c r="E184" s="1"/>
@@ -6269,9 +6630,9 @@
       <c r="N184" s="1"/>
       <c r="O184" s="1"/>
     </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A185" s="1"/>
-      <c r="B185" s="37"/>
+    <row r="185" spans="1:15">
+      <c r="A185" s="11"/>
+      <c r="B185" s="39"/>
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
       <c r="E185" s="1"/>
@@ -6286,9 +6647,9 @@
       <c r="N185" s="1"/>
       <c r="O185" s="1"/>
     </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A186" s="1"/>
-      <c r="B186" s="37"/>
+    <row r="186" spans="1:15">
+      <c r="A186" s="11"/>
+      <c r="B186" s="39"/>
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
       <c r="E186" s="1"/>
@@ -6303,9 +6664,9 @@
       <c r="N186" s="1"/>
       <c r="O186" s="1"/>
     </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A187" s="1"/>
-      <c r="B187" s="37"/>
+    <row r="187" spans="1:15">
+      <c r="A187" s="11"/>
+      <c r="B187" s="39"/>
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
       <c r="E187" s="1"/>
@@ -6320,9 +6681,9 @@
       <c r="N187" s="1"/>
       <c r="O187" s="1"/>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A188" s="1"/>
-      <c r="B188" s="37"/>
+    <row r="188" spans="1:15">
+      <c r="A188" s="11"/>
+      <c r="B188" s="39"/>
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
       <c r="E188" s="1"/>
@@ -6337,9 +6698,9 @@
       <c r="N188" s="1"/>
       <c r="O188" s="1"/>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A189" s="1"/>
-      <c r="B189" s="37"/>
+    <row r="189" spans="1:15">
+      <c r="A189" s="11"/>
+      <c r="B189" s="39"/>
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
       <c r="E189" s="1"/>
@@ -6354,9 +6715,9 @@
       <c r="N189" s="1"/>
       <c r="O189" s="1"/>
     </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A190" s="1"/>
-      <c r="B190" s="37"/>
+    <row r="190" spans="1:15">
+      <c r="A190" s="11"/>
+      <c r="B190" s="39"/>
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
       <c r="E190" s="1"/>
@@ -6371,9 +6732,9 @@
       <c r="N190" s="1"/>
       <c r="O190" s="1"/>
     </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A191" s="1"/>
-      <c r="B191" s="37"/>
+    <row r="191" spans="1:15">
+      <c r="A191" s="11"/>
+      <c r="B191" s="39"/>
       <c r="C191" s="1"/>
       <c r="D191" s="1"/>
       <c r="E191" s="1"/>
@@ -6388,9 +6749,9 @@
       <c r="N191" s="1"/>
       <c r="O191" s="1"/>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A192" s="1"/>
-      <c r="B192" s="37"/>
+    <row r="192" spans="1:15">
+      <c r="A192" s="11"/>
+      <c r="B192" s="39"/>
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
       <c r="E192" s="1"/>
@@ -6405,9 +6766,9 @@
       <c r="N192" s="1"/>
       <c r="O192" s="1"/>
     </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A193" s="1"/>
-      <c r="B193" s="37"/>
+    <row r="193" spans="1:15">
+      <c r="A193" s="11"/>
+      <c r="B193" s="39"/>
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
       <c r="E193" s="1"/>
@@ -6422,9 +6783,9 @@
       <c r="N193" s="1"/>
       <c r="O193" s="1"/>
     </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A194" s="1"/>
-      <c r="B194" s="37"/>
+    <row r="194" spans="1:15">
+      <c r="A194" s="11"/>
+      <c r="B194" s="39"/>
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
       <c r="E194" s="1"/>
@@ -6439,9 +6800,9 @@
       <c r="N194" s="1"/>
       <c r="O194" s="1"/>
     </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A195" s="1"/>
-      <c r="B195" s="37"/>
+    <row r="195" spans="1:15">
+      <c r="A195" s="11"/>
+      <c r="B195" s="39"/>
       <c r="C195" s="1"/>
       <c r="D195" s="1"/>
       <c r="E195" s="1"/>
@@ -6456,9 +6817,9 @@
       <c r="N195" s="1"/>
       <c r="O195" s="1"/>
     </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A196" s="1"/>
-      <c r="B196" s="37"/>
+    <row r="196" spans="1:15">
+      <c r="A196" s="11"/>
+      <c r="B196" s="39"/>
       <c r="C196" s="1"/>
       <c r="D196" s="1"/>
       <c r="E196" s="1"/>
@@ -6473,9 +6834,9 @@
       <c r="N196" s="1"/>
       <c r="O196" s="1"/>
     </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A197" s="1"/>
-      <c r="B197" s="37"/>
+    <row r="197" spans="1:15">
+      <c r="A197" s="11"/>
+      <c r="B197" s="39"/>
       <c r="C197" s="1"/>
       <c r="D197" s="1"/>
       <c r="E197" s="1"/>
@@ -6490,9 +6851,9 @@
       <c r="N197" s="1"/>
       <c r="O197" s="1"/>
     </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A198" s="1"/>
-      <c r="B198" s="37"/>
+    <row r="198" spans="1:15">
+      <c r="A198" s="11"/>
+      <c r="B198" s="39"/>
       <c r="C198" s="1"/>
       <c r="D198" s="1"/>
       <c r="E198" s="1"/>
@@ -6507,9 +6868,9 @@
       <c r="N198" s="1"/>
       <c r="O198" s="1"/>
     </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A199" s="1"/>
-      <c r="B199" s="37"/>
+    <row r="199" spans="1:15">
+      <c r="A199" s="11"/>
+      <c r="B199" s="39"/>
       <c r="C199" s="1"/>
       <c r="D199" s="1"/>
       <c r="E199" s="1"/>
@@ -6524,9 +6885,9 @@
       <c r="N199" s="1"/>
       <c r="O199" s="1"/>
     </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A200" s="1"/>
-      <c r="B200" s="37"/>
+    <row r="200" spans="1:15">
+      <c r="A200" s="11"/>
+      <c r="B200" s="39"/>
       <c r="C200" s="1"/>
       <c r="D200" s="1"/>
       <c r="E200" s="1"/>
@@ -6541,9 +6902,9 @@
       <c r="N200" s="1"/>
       <c r="O200" s="1"/>
     </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A201" s="1"/>
-      <c r="B201" s="37"/>
+    <row r="201" spans="1:15">
+      <c r="A201" s="11"/>
+      <c r="B201" s="39"/>
       <c r="C201" s="1"/>
       <c r="D201" s="1"/>
       <c r="E201" s="1"/>
@@ -6558,9 +6919,9 @@
       <c r="N201" s="1"/>
       <c r="O201" s="1"/>
     </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A202" s="1"/>
-      <c r="B202" s="37"/>
+    <row r="202" spans="1:15">
+      <c r="A202" s="11"/>
+      <c r="B202" s="39"/>
       <c r="C202" s="1"/>
       <c r="D202" s="1"/>
       <c r="E202" s="1"/>
@@ -6575,9 +6936,9 @@
       <c r="N202" s="1"/>
       <c r="O202" s="1"/>
     </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A203" s="1"/>
-      <c r="B203" s="37"/>
+    <row r="203" spans="1:15">
+      <c r="A203" s="11"/>
+      <c r="B203" s="39"/>
       <c r="C203" s="1"/>
       <c r="D203" s="1"/>
       <c r="E203" s="1"/>
@@ -6592,9 +6953,9 @@
       <c r="N203" s="1"/>
       <c r="O203" s="1"/>
     </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A204" s="1"/>
-      <c r="B204" s="37"/>
+    <row r="204" spans="1:15">
+      <c r="A204" s="11"/>
+      <c r="B204" s="39"/>
       <c r="C204" s="1"/>
       <c r="D204" s="1"/>
       <c r="E204" s="1"/>
@@ -6609,9 +6970,9 @@
       <c r="N204" s="1"/>
       <c r="O204" s="1"/>
     </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A205" s="1"/>
-      <c r="B205" s="37"/>
+    <row r="205" spans="1:15">
+      <c r="A205" s="11"/>
+      <c r="B205" s="39"/>
       <c r="C205" s="1"/>
       <c r="D205" s="1"/>
       <c r="E205" s="1"/>
@@ -6626,9 +6987,9 @@
       <c r="N205" s="1"/>
       <c r="O205" s="1"/>
     </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A206" s="1"/>
-      <c r="B206" s="37"/>
+    <row r="206" spans="1:15">
+      <c r="A206" s="11"/>
+      <c r="B206" s="39"/>
       <c r="C206" s="1"/>
       <c r="D206" s="1"/>
       <c r="E206" s="1"/>
@@ -6643,9 +7004,9 @@
       <c r="N206" s="1"/>
       <c r="O206" s="1"/>
     </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A207" s="1"/>
-      <c r="B207" s="37"/>
+    <row r="207" spans="1:15">
+      <c r="A207" s="11"/>
+      <c r="B207" s="39"/>
       <c r="C207" s="1"/>
       <c r="D207" s="1"/>
       <c r="E207" s="1"/>
@@ -6660,9 +7021,9 @@
       <c r="N207" s="1"/>
       <c r="O207" s="1"/>
     </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A208" s="1"/>
-      <c r="B208" s="37"/>
+    <row r="208" spans="1:15">
+      <c r="A208" s="11"/>
+      <c r="B208" s="39"/>
       <c r="C208" s="1"/>
       <c r="D208" s="1"/>
       <c r="E208" s="1"/>
@@ -6677,9 +7038,9 @@
       <c r="N208" s="1"/>
       <c r="O208" s="1"/>
     </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A209" s="1"/>
-      <c r="B209" s="37"/>
+    <row r="209" spans="1:15">
+      <c r="A209" s="11"/>
+      <c r="B209" s="39"/>
       <c r="C209" s="1"/>
       <c r="D209" s="1"/>
       <c r="E209" s="1"/>
@@ -6694,9 +7055,9 @@
       <c r="N209" s="1"/>
       <c r="O209" s="1"/>
     </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A210" s="1"/>
-      <c r="B210" s="37"/>
+    <row r="210" spans="1:15">
+      <c r="A210" s="11"/>
+      <c r="B210" s="39"/>
       <c r="C210" s="1"/>
       <c r="D210" s="1"/>
       <c r="E210" s="1"/>
@@ -6711,9 +7072,9 @@
       <c r="N210" s="1"/>
       <c r="O210" s="1"/>
     </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A211" s="1"/>
-      <c r="B211" s="37"/>
+    <row r="211" spans="1:15">
+      <c r="A211" s="11"/>
+      <c r="B211" s="39"/>
       <c r="C211" s="1"/>
       <c r="D211" s="1"/>
       <c r="E211" s="1"/>
@@ -6728,9 +7089,9 @@
       <c r="N211" s="1"/>
       <c r="O211" s="1"/>
     </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A212" s="1"/>
-      <c r="B212" s="37"/>
+    <row r="212" spans="1:15">
+      <c r="A212" s="11"/>
+      <c r="B212" s="39"/>
       <c r="C212" s="1"/>
       <c r="D212" s="1"/>
       <c r="E212" s="1"/>
@@ -6745,9 +7106,9 @@
       <c r="N212" s="1"/>
       <c r="O212" s="1"/>
     </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A213" s="1"/>
-      <c r="B213" s="37"/>
+    <row r="213" spans="1:15">
+      <c r="A213" s="11"/>
+      <c r="B213" s="39"/>
       <c r="C213" s="1"/>
       <c r="D213" s="1"/>
       <c r="E213" s="1"/>
@@ -6762,9 +7123,9 @@
       <c r="N213" s="1"/>
       <c r="O213" s="1"/>
     </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A214" s="1"/>
-      <c r="B214" s="37"/>
+    <row r="214" spans="1:15">
+      <c r="A214" s="11"/>
+      <c r="B214" s="39"/>
       <c r="C214" s="1"/>
       <c r="D214" s="1"/>
       <c r="E214" s="1"/>
@@ -6779,9 +7140,9 @@
       <c r="N214" s="1"/>
       <c r="O214" s="1"/>
     </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A215" s="1"/>
-      <c r="B215" s="37"/>
+    <row r="215" spans="1:15">
+      <c r="A215" s="11"/>
+      <c r="B215" s="39"/>
       <c r="C215" s="1"/>
       <c r="D215" s="1"/>
       <c r="E215" s="1"/>
@@ -6796,9 +7157,9 @@
       <c r="N215" s="1"/>
       <c r="O215" s="1"/>
     </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A216" s="1"/>
-      <c r="B216" s="37"/>
+    <row r="216" spans="1:15">
+      <c r="A216" s="11"/>
+      <c r="B216" s="39"/>
       <c r="C216" s="1"/>
       <c r="D216" s="1"/>
       <c r="E216" s="1"/>
@@ -6813,9 +7174,9 @@
       <c r="N216" s="1"/>
       <c r="O216" s="1"/>
     </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A217" s="1"/>
-      <c r="B217" s="37"/>
+    <row r="217" spans="1:15">
+      <c r="A217" s="11"/>
+      <c r="B217" s="39"/>
       <c r="C217" s="1"/>
       <c r="D217" s="1"/>
       <c r="E217" s="1"/>
@@ -6830,9 +7191,9 @@
       <c r="N217" s="1"/>
       <c r="O217" s="1"/>
     </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A218" s="1"/>
-      <c r="B218" s="37"/>
+    <row r="218" spans="1:15">
+      <c r="A218" s="11"/>
+      <c r="B218" s="39"/>
       <c r="C218" s="1"/>
       <c r="D218" s="1"/>
       <c r="E218" s="1"/>
@@ -6847,9 +7208,9 @@
       <c r="N218" s="1"/>
       <c r="O218" s="1"/>
     </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A219" s="1"/>
-      <c r="B219" s="37"/>
+    <row r="219" spans="1:15">
+      <c r="A219" s="11"/>
+      <c r="B219" s="39"/>
       <c r="C219" s="1"/>
       <c r="D219" s="1"/>
       <c r="E219" s="1"/>
@@ -6864,9 +7225,9 @@
       <c r="N219" s="1"/>
       <c r="O219" s="1"/>
     </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A220" s="1"/>
-      <c r="B220" s="37"/>
+    <row r="220" spans="1:15">
+      <c r="A220" s="11"/>
+      <c r="B220" s="39"/>
       <c r="C220" s="1"/>
       <c r="D220" s="1"/>
       <c r="E220" s="1"/>
@@ -6881,9 +7242,9 @@
       <c r="N220" s="1"/>
       <c r="O220" s="1"/>
     </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A221" s="1"/>
-      <c r="B221" s="37"/>
+    <row r="221" spans="1:15">
+      <c r="A221" s="11"/>
+      <c r="B221" s="39"/>
       <c r="C221" s="1"/>
       <c r="D221" s="1"/>
       <c r="E221" s="1"/>
@@ -6898,9 +7259,9 @@
       <c r="N221" s="1"/>
       <c r="O221" s="1"/>
     </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A222" s="1"/>
-      <c r="B222" s="37"/>
+    <row r="222" spans="1:15">
+      <c r="A222" s="11"/>
+      <c r="B222" s="39"/>
       <c r="C222" s="1"/>
       <c r="D222" s="1"/>
       <c r="E222" s="1"/>
@@ -6915,9 +7276,9 @@
       <c r="N222" s="1"/>
       <c r="O222" s="1"/>
     </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A223" s="1"/>
-      <c r="B223" s="37"/>
+    <row r="223" spans="1:15">
+      <c r="A223" s="11"/>
+      <c r="B223" s="39"/>
       <c r="C223" s="1"/>
       <c r="D223" s="1"/>
       <c r="E223" s="1"/>
@@ -6932,9 +7293,9 @@
       <c r="N223" s="1"/>
       <c r="O223" s="1"/>
     </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A224" s="1"/>
-      <c r="B224" s="37"/>
+    <row r="224" spans="1:15">
+      <c r="A224" s="11"/>
+      <c r="B224" s="39"/>
       <c r="C224" s="1"/>
       <c r="D224" s="1"/>
       <c r="E224" s="1"/>
@@ -6949,9 +7310,9 @@
       <c r="N224" s="1"/>
       <c r="O224" s="1"/>
     </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A225" s="1"/>
-      <c r="B225" s="37"/>
+    <row r="225" spans="1:15">
+      <c r="A225" s="11"/>
+      <c r="B225" s="39"/>
       <c r="C225" s="1"/>
       <c r="D225" s="1"/>
       <c r="E225" s="1"/>
@@ -6966,9 +7327,9 @@
       <c r="N225" s="1"/>
       <c r="O225" s="1"/>
     </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A226" s="1"/>
-      <c r="B226" s="37"/>
+    <row r="226" spans="1:15">
+      <c r="A226" s="11"/>
+      <c r="B226" s="39"/>
       <c r="C226" s="1"/>
       <c r="D226" s="1"/>
       <c r="E226" s="1"/>
@@ -6983,9 +7344,9 @@
       <c r="N226" s="1"/>
       <c r="O226" s="1"/>
     </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A227" s="1"/>
-      <c r="B227" s="37"/>
+    <row r="227" spans="1:15">
+      <c r="A227" s="11"/>
+      <c r="B227" s="39"/>
       <c r="C227" s="1"/>
       <c r="D227" s="1"/>
       <c r="E227" s="1"/>
@@ -7000,9 +7361,9 @@
       <c r="N227" s="1"/>
       <c r="O227" s="1"/>
     </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A228" s="1"/>
-      <c r="B228" s="37"/>
+    <row r="228" spans="1:15">
+      <c r="A228" s="11"/>
+      <c r="B228" s="39"/>
       <c r="C228" s="1"/>
       <c r="D228" s="1"/>
       <c r="E228" s="1"/>
@@ -7017,9 +7378,9 @@
       <c r="N228" s="1"/>
       <c r="O228" s="1"/>
     </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A229" s="1"/>
-      <c r="B229" s="37"/>
+    <row r="229" spans="1:15">
+      <c r="A229" s="11"/>
+      <c r="B229" s="39"/>
       <c r="C229" s="1"/>
       <c r="D229" s="1"/>
       <c r="E229" s="1"/>
@@ -7034,9 +7395,9 @@
       <c r="N229" s="1"/>
       <c r="O229" s="1"/>
     </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A230" s="1"/>
-      <c r="B230" s="37"/>
+    <row r="230" spans="1:15">
+      <c r="A230" s="11"/>
+      <c r="B230" s="39"/>
       <c r="C230" s="1"/>
       <c r="D230" s="1"/>
       <c r="E230" s="1"/>
@@ -7051,9 +7412,9 @@
       <c r="N230" s="1"/>
       <c r="O230" s="1"/>
     </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A231" s="1"/>
-      <c r="B231" s="37"/>
+    <row r="231" spans="1:15">
+      <c r="A231" s="11"/>
+      <c r="B231" s="39"/>
       <c r="C231" s="1"/>
       <c r="D231" s="1"/>
       <c r="E231" s="1"/>
@@ -7068,9 +7429,9 @@
       <c r="N231" s="1"/>
       <c r="O231" s="1"/>
     </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A232" s="1"/>
-      <c r="B232" s="37"/>
+    <row r="232" spans="1:15">
+      <c r="A232" s="11"/>
+      <c r="B232" s="39"/>
       <c r="C232" s="1"/>
       <c r="D232" s="1"/>
       <c r="E232" s="1"/>
@@ -7085,9 +7446,9 @@
       <c r="N232" s="1"/>
       <c r="O232" s="1"/>
     </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A233" s="1"/>
-      <c r="B233" s="37"/>
+    <row r="233" spans="1:15">
+      <c r="A233" s="11"/>
+      <c r="B233" s="39"/>
       <c r="C233" s="1"/>
       <c r="D233" s="1"/>
       <c r="E233" s="1"/>
@@ -7102,9 +7463,9 @@
       <c r="N233" s="1"/>
       <c r="O233" s="1"/>
     </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A234" s="1"/>
-      <c r="B234" s="37"/>
+    <row r="234" spans="1:15">
+      <c r="A234" s="11"/>
+      <c r="B234" s="39"/>
       <c r="C234" s="1"/>
       <c r="D234" s="1"/>
       <c r="E234" s="1"/>
@@ -7119,9 +7480,9 @@
       <c r="N234" s="1"/>
       <c r="O234" s="1"/>
     </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A235" s="1"/>
-      <c r="B235" s="37"/>
+    <row r="235" spans="1:15">
+      <c r="A235" s="11"/>
+      <c r="B235" s="39"/>
       <c r="C235" s="1"/>
       <c r="D235" s="1"/>
       <c r="E235" s="1"/>
@@ -7136,9 +7497,9 @@
       <c r="N235" s="1"/>
       <c r="O235" s="1"/>
     </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A236" s="1"/>
-      <c r="B236" s="37"/>
+    <row r="236" spans="1:15">
+      <c r="A236" s="11"/>
+      <c r="B236" s="39"/>
       <c r="C236" s="1"/>
       <c r="D236" s="1"/>
       <c r="E236" s="1"/>
@@ -7153,9 +7514,9 @@
       <c r="N236" s="1"/>
       <c r="O236" s="1"/>
     </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A237" s="1"/>
-      <c r="B237" s="37"/>
+    <row r="237" spans="1:15">
+      <c r="A237" s="11"/>
+      <c r="B237" s="39"/>
       <c r="C237" s="1"/>
       <c r="D237" s="1"/>
       <c r="E237" s="1"/>
@@ -7170,9 +7531,9 @@
       <c r="N237" s="1"/>
       <c r="O237" s="1"/>
     </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A238" s="1"/>
-      <c r="B238" s="37"/>
+    <row r="238" spans="1:15">
+      <c r="A238" s="11"/>
+      <c r="B238" s="39"/>
       <c r="C238" s="1"/>
       <c r="D238" s="1"/>
       <c r="E238" s="1"/>
@@ -7187,9 +7548,9 @@
       <c r="N238" s="1"/>
       <c r="O238" s="1"/>
     </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A239" s="1"/>
-      <c r="B239" s="37"/>
+    <row r="239" spans="1:15">
+      <c r="A239" s="11"/>
+      <c r="B239" s="39"/>
       <c r="C239" s="1"/>
       <c r="D239" s="1"/>
       <c r="E239" s="1"/>
@@ -7204,9 +7565,9 @@
       <c r="N239" s="1"/>
       <c r="O239" s="1"/>
     </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A240" s="1"/>
-      <c r="B240" s="37"/>
+    <row r="240" spans="1:15">
+      <c r="A240" s="11"/>
+      <c r="B240" s="39"/>
       <c r="C240" s="1"/>
       <c r="D240" s="1"/>
       <c r="E240" s="1"/>
@@ -7221,9 +7582,9 @@
       <c r="N240" s="1"/>
       <c r="O240" s="1"/>
     </row>
-    <row r="241" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A241" s="1"/>
-      <c r="B241" s="37"/>
+    <row r="241" spans="1:15">
+      <c r="A241" s="11"/>
+      <c r="B241" s="39"/>
       <c r="C241" s="1"/>
       <c r="D241" s="1"/>
       <c r="E241" s="1"/>
@@ -7238,9 +7599,9 @@
       <c r="N241" s="1"/>
       <c r="O241" s="1"/>
     </row>
-    <row r="242" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A242" s="1"/>
-      <c r="B242" s="37"/>
+    <row r="242" spans="1:15">
+      <c r="A242" s="11"/>
+      <c r="B242" s="39"/>
       <c r="C242" s="1"/>
       <c r="D242" s="1"/>
       <c r="E242" s="1"/>
@@ -7255,9 +7616,9 @@
       <c r="N242" s="1"/>
       <c r="O242" s="1"/>
     </row>
-    <row r="243" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A243" s="1"/>
-      <c r="B243" s="37"/>
+    <row r="243" spans="1:15">
+      <c r="A243" s="11"/>
+      <c r="B243" s="39"/>
       <c r="C243" s="1"/>
       <c r="D243" s="1"/>
       <c r="E243" s="1"/>
@@ -7272,9 +7633,9 @@
       <c r="N243" s="1"/>
       <c r="O243" s="1"/>
     </row>
-    <row r="244" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A244" s="1"/>
-      <c r="B244" s="37"/>
+    <row r="244" spans="1:15">
+      <c r="A244" s="11"/>
+      <c r="B244" s="39"/>
       <c r="C244" s="1"/>
       <c r="D244" s="1"/>
       <c r="E244" s="1"/>
@@ -7289,9 +7650,9 @@
       <c r="N244" s="1"/>
       <c r="O244" s="1"/>
     </row>
-    <row r="245" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A245" s="1"/>
-      <c r="B245" s="37"/>
+    <row r="245" spans="1:15">
+      <c r="A245" s="11"/>
+      <c r="B245" s="39"/>
       <c r="C245" s="1"/>
       <c r="D245" s="1"/>
       <c r="E245" s="1"/>
@@ -7306,9 +7667,9 @@
       <c r="N245" s="1"/>
       <c r="O245" s="1"/>
     </row>
-    <row r="246" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A246" s="1"/>
-      <c r="B246" s="37"/>
+    <row r="246" spans="1:15">
+      <c r="A246" s="11"/>
+      <c r="B246" s="39"/>
       <c r="C246" s="1"/>
       <c r="D246" s="1"/>
       <c r="E246" s="1"/>
@@ -7323,9 +7684,9 @@
       <c r="N246" s="1"/>
       <c r="O246" s="1"/>
     </row>
-    <row r="247" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A247" s="1"/>
-      <c r="B247" s="37"/>
+    <row r="247" spans="1:15">
+      <c r="A247" s="11"/>
+      <c r="B247" s="39"/>
       <c r="C247" s="1"/>
       <c r="D247" s="1"/>
       <c r="E247" s="1"/>
@@ -7340,9 +7701,9 @@
       <c r="N247" s="1"/>
       <c r="O247" s="1"/>
     </row>
-    <row r="248" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A248" s="1"/>
-      <c r="B248" s="37"/>
+    <row r="248" spans="1:15">
+      <c r="A248" s="11"/>
+      <c r="B248" s="39"/>
       <c r="C248" s="1"/>
       <c r="D248" s="1"/>
       <c r="E248" s="1"/>
@@ -7357,9 +7718,9 @@
       <c r="N248" s="1"/>
       <c r="O248" s="1"/>
     </row>
-    <row r="249" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A249" s="1"/>
-      <c r="B249" s="37"/>
+    <row r="249" spans="1:15">
+      <c r="A249" s="11"/>
+      <c r="B249" s="39"/>
       <c r="C249" s="1"/>
       <c r="D249" s="1"/>
       <c r="E249" s="1"/>
@@ -7374,9 +7735,9 @@
       <c r="N249" s="1"/>
       <c r="O249" s="1"/>
     </row>
-    <row r="250" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A250" s="1"/>
-      <c r="B250" s="37"/>
+    <row r="250" spans="1:15">
+      <c r="A250" s="11"/>
+      <c r="B250" s="39"/>
       <c r="C250" s="1"/>
       <c r="D250" s="1"/>
       <c r="E250" s="1"/>
@@ -7391,9 +7752,9 @@
       <c r="N250" s="1"/>
       <c r="O250" s="1"/>
     </row>
-    <row r="251" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A251" s="1"/>
-      <c r="B251" s="37"/>
+    <row r="251" spans="1:15">
+      <c r="A251" s="11"/>
+      <c r="B251" s="39"/>
       <c r="C251" s="1"/>
       <c r="D251" s="1"/>
       <c r="E251" s="1"/>
@@ -7408,9 +7769,9 @@
       <c r="N251" s="1"/>
       <c r="O251" s="1"/>
     </row>
-    <row r="252" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A252" s="1"/>
-      <c r="B252" s="37"/>
+    <row r="252" spans="1:15">
+      <c r="A252" s="11"/>
+      <c r="B252" s="39"/>
       <c r="C252" s="1"/>
       <c r="D252" s="1"/>
       <c r="E252" s="1"/>
@@ -7425,9 +7786,9 @@
       <c r="N252" s="1"/>
       <c r="O252" s="1"/>
     </row>
-    <row r="253" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A253" s="1"/>
-      <c r="B253" s="37"/>
+    <row r="253" spans="1:15">
+      <c r="A253" s="11"/>
+      <c r="B253" s="39"/>
       <c r="C253" s="1"/>
       <c r="D253" s="1"/>
       <c r="E253" s="1"/>
@@ -7442,9 +7803,9 @@
       <c r="N253" s="1"/>
       <c r="O253" s="1"/>
     </row>
-    <row r="254" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A254" s="1"/>
-      <c r="B254" s="37"/>
+    <row r="254" spans="1:15">
+      <c r="A254" s="11"/>
+      <c r="B254" s="39"/>
       <c r="C254" s="1"/>
       <c r="D254" s="1"/>
       <c r="E254" s="1"/>
@@ -7459,9 +7820,9 @@
       <c r="N254" s="1"/>
       <c r="O254" s="1"/>
     </row>
-    <row r="255" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A255" s="1"/>
-      <c r="B255" s="37"/>
+    <row r="255" spans="1:15">
+      <c r="A255" s="11"/>
+      <c r="B255" s="39"/>
       <c r="C255" s="1"/>
       <c r="D255" s="1"/>
       <c r="E255" s="1"/>
@@ -7476,9 +7837,9 @@
       <c r="N255" s="1"/>
       <c r="O255" s="1"/>
     </row>
-    <row r="256" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A256" s="1"/>
-      <c r="B256" s="37"/>
+    <row r="256" spans="1:15">
+      <c r="A256" s="11"/>
+      <c r="B256" s="39"/>
       <c r="C256" s="1"/>
       <c r="D256" s="1"/>
       <c r="E256" s="1"/>
@@ -7493,9 +7854,9 @@
       <c r="N256" s="1"/>
       <c r="O256" s="1"/>
     </row>
-    <row r="257" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A257" s="1"/>
-      <c r="B257" s="37"/>
+    <row r="257" spans="1:15">
+      <c r="A257" s="11"/>
+      <c r="B257" s="39"/>
       <c r="C257" s="1"/>
       <c r="D257" s="1"/>
       <c r="E257" s="1"/>
@@ -7510,9 +7871,9 @@
       <c r="N257" s="1"/>
       <c r="O257" s="1"/>
     </row>
-    <row r="258" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A258" s="1"/>
-      <c r="B258" s="37"/>
+    <row r="258" spans="1:15">
+      <c r="A258" s="11"/>
+      <c r="B258" s="39"/>
       <c r="C258" s="1"/>
       <c r="D258" s="1"/>
       <c r="E258" s="1"/>
@@ -7527,9 +7888,9 @@
       <c r="N258" s="1"/>
       <c r="O258" s="1"/>
     </row>
-    <row r="259" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A259" s="1"/>
-      <c r="B259" s="37"/>
+    <row r="259" spans="1:15">
+      <c r="A259" s="11"/>
+      <c r="B259" s="39"/>
       <c r="C259" s="1"/>
       <c r="D259" s="1"/>
       <c r="E259" s="1"/>
@@ -7544,9 +7905,9 @@
       <c r="N259" s="1"/>
       <c r="O259" s="1"/>
     </row>
-    <row r="260" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A260" s="1"/>
-      <c r="B260" s="37"/>
+    <row r="260" spans="1:15">
+      <c r="A260" s="11"/>
+      <c r="B260" s="39"/>
       <c r="C260" s="1"/>
       <c r="D260" s="1"/>
       <c r="E260" s="1"/>
@@ -7561,9 +7922,9 @@
       <c r="N260" s="1"/>
       <c r="O260" s="1"/>
     </row>
-    <row r="261" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A261" s="1"/>
-      <c r="B261" s="37"/>
+    <row r="261" spans="1:15">
+      <c r="A261" s="11"/>
+      <c r="B261" s="39"/>
       <c r="C261" s="1"/>
       <c r="D261" s="1"/>
       <c r="E261" s="1"/>
@@ -7578,9 +7939,9 @@
       <c r="N261" s="1"/>
       <c r="O261" s="1"/>
     </row>
-    <row r="262" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A262" s="1"/>
-      <c r="B262" s="37"/>
+    <row r="262" spans="1:15">
+      <c r="A262" s="11"/>
+      <c r="B262" s="39"/>
       <c r="C262" s="1"/>
       <c r="D262" s="1"/>
       <c r="E262" s="1"/>
@@ -7595,9 +7956,9 @@
       <c r="N262" s="1"/>
       <c r="O262" s="1"/>
     </row>
-    <row r="263" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A263" s="1"/>
-      <c r="B263" s="37"/>
+    <row r="263" spans="1:15">
+      <c r="A263" s="11"/>
+      <c r="B263" s="39"/>
       <c r="C263" s="1"/>
       <c r="D263" s="1"/>
       <c r="E263" s="1"/>
@@ -7612,9 +7973,9 @@
       <c r="N263" s="1"/>
       <c r="O263" s="1"/>
     </row>
-    <row r="264" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A264" s="1"/>
-      <c r="B264" s="37"/>
+    <row r="264" spans="1:15">
+      <c r="A264" s="11"/>
+      <c r="B264" s="39"/>
       <c r="C264" s="1"/>
       <c r="D264" s="1"/>
       <c r="E264" s="1"/>
@@ -7629,9 +7990,9 @@
       <c r="N264" s="1"/>
       <c r="O264" s="1"/>
     </row>
-    <row r="265" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A265" s="1"/>
-      <c r="B265" s="37"/>
+    <row r="265" spans="1:15">
+      <c r="A265" s="11"/>
+      <c r="B265" s="39"/>
       <c r="C265" s="1"/>
       <c r="D265" s="1"/>
       <c r="E265" s="1"/>
@@ -7646,9 +8007,9 @@
       <c r="N265" s="1"/>
       <c r="O265" s="1"/>
     </row>
-    <row r="266" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A266" s="1"/>
-      <c r="B266" s="37"/>
+    <row r="266" spans="1:15">
+      <c r="A266" s="11"/>
+      <c r="B266" s="39"/>
       <c r="C266" s="1"/>
       <c r="D266" s="1"/>
       <c r="E266" s="1"/>
@@ -7663,9 +8024,9 @@
       <c r="N266" s="1"/>
       <c r="O266" s="1"/>
     </row>
-    <row r="267" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A267" s="1"/>
-      <c r="B267" s="37"/>
+    <row r="267" spans="1:15">
+      <c r="A267" s="11"/>
+      <c r="B267" s="39"/>
       <c r="C267" s="1"/>
       <c r="D267" s="1"/>
       <c r="E267" s="1"/>
@@ -7680,9 +8041,9 @@
       <c r="N267" s="1"/>
       <c r="O267" s="1"/>
     </row>
-    <row r="268" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A268" s="1"/>
-      <c r="B268" s="37"/>
+    <row r="268" spans="1:15">
+      <c r="A268" s="11"/>
+      <c r="B268" s="39"/>
       <c r="C268" s="1"/>
       <c r="D268" s="1"/>
       <c r="E268" s="1"/>
@@ -7697,9 +8058,9 @@
       <c r="N268" s="1"/>
       <c r="O268" s="1"/>
     </row>
-    <row r="269" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A269" s="1"/>
-      <c r="B269" s="37"/>
+    <row r="269" spans="1:15">
+      <c r="A269" s="11"/>
+      <c r="B269" s="39"/>
       <c r="C269" s="1"/>
       <c r="D269" s="1"/>
       <c r="E269" s="1"/>
@@ -7714,9 +8075,9 @@
       <c r="N269" s="1"/>
       <c r="O269" s="1"/>
     </row>
-    <row r="270" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A270" s="1"/>
-      <c r="B270" s="37"/>
+    <row r="270" spans="1:15">
+      <c r="A270" s="11"/>
+      <c r="B270" s="39"/>
       <c r="C270" s="1"/>
       <c r="D270" s="1"/>
       <c r="E270" s="1"/>
@@ -7731,9 +8092,9 @@
       <c r="N270" s="1"/>
       <c r="O270" s="1"/>
     </row>
-    <row r="271" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A271" s="1"/>
-      <c r="B271" s="37"/>
+    <row r="271" spans="1:15">
+      <c r="A271" s="11"/>
+      <c r="B271" s="39"/>
       <c r="C271" s="1"/>
       <c r="D271" s="1"/>
       <c r="E271" s="1"/>
@@ -7748,9 +8109,9 @@
       <c r="N271" s="1"/>
       <c r="O271" s="1"/>
     </row>
-    <row r="272" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A272" s="1"/>
-      <c r="B272" s="37"/>
+    <row r="272" spans="1:15">
+      <c r="A272" s="11"/>
+      <c r="B272" s="39"/>
       <c r="C272" s="1"/>
       <c r="D272" s="1"/>
       <c r="E272" s="1"/>
@@ -7765,9 +8126,9 @@
       <c r="N272" s="1"/>
       <c r="O272" s="1"/>
     </row>
-    <row r="273" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A273" s="1"/>
-      <c r="B273" s="37"/>
+    <row r="273" spans="1:15">
+      <c r="A273" s="11"/>
+      <c r="B273" s="39"/>
       <c r="C273" s="1"/>
       <c r="D273" s="1"/>
       <c r="E273" s="1"/>
@@ -7782,9 +8143,9 @@
       <c r="N273" s="1"/>
       <c r="O273" s="1"/>
     </row>
-    <row r="274" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A274" s="1"/>
-      <c r="B274" s="37"/>
+    <row r="274" spans="1:15">
+      <c r="A274" s="11"/>
+      <c r="B274" s="39"/>
       <c r="C274" s="1"/>
       <c r="D274" s="1"/>
       <c r="E274" s="1"/>
@@ -7799,9 +8160,9 @@
       <c r="N274" s="1"/>
       <c r="O274" s="1"/>
     </row>
-    <row r="275" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A275" s="1"/>
-      <c r="B275" s="37"/>
+    <row r="275" spans="1:15">
+      <c r="A275" s="11"/>
+      <c r="B275" s="39"/>
       <c r="C275" s="1"/>
       <c r="D275" s="1"/>
       <c r="E275" s="1"/>
@@ -7816,9 +8177,9 @@
       <c r="N275" s="1"/>
       <c r="O275" s="1"/>
     </row>
-    <row r="276" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A276" s="1"/>
-      <c r="B276" s="37"/>
+    <row r="276" spans="1:15">
+      <c r="A276" s="11"/>
+      <c r="B276" s="39"/>
       <c r="C276" s="1"/>
       <c r="D276" s="1"/>
       <c r="E276" s="1"/>
@@ -7833,9 +8194,9 @@
       <c r="N276" s="1"/>
       <c r="O276" s="1"/>
     </row>
-    <row r="277" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A277" s="1"/>
-      <c r="B277" s="37"/>
+    <row r="277" spans="1:15">
+      <c r="A277" s="11"/>
+      <c r="B277" s="39"/>
       <c r="C277" s="1"/>
       <c r="D277" s="1"/>
       <c r="E277" s="1"/>
@@ -7850,9 +8211,9 @@
       <c r="N277" s="1"/>
       <c r="O277" s="1"/>
     </row>
-    <row r="278" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A278" s="1"/>
-      <c r="B278" s="37"/>
+    <row r="278" spans="1:15">
+      <c r="A278" s="11"/>
+      <c r="B278" s="39"/>
       <c r="C278" s="1"/>
       <c r="D278" s="1"/>
       <c r="E278" s="1"/>
@@ -7867,9 +8228,9 @@
       <c r="N278" s="1"/>
       <c r="O278" s="1"/>
     </row>
-    <row r="279" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A279" s="1"/>
-      <c r="B279" s="37"/>
+    <row r="279" spans="1:15">
+      <c r="A279" s="11"/>
+      <c r="B279" s="39"/>
       <c r="C279" s="1"/>
       <c r="D279" s="1"/>
       <c r="E279" s="1"/>
@@ -7884,9 +8245,9 @@
       <c r="N279" s="1"/>
       <c r="O279" s="1"/>
     </row>
-    <row r="280" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A280" s="1"/>
-      <c r="B280" s="37"/>
+    <row r="280" spans="1:15">
+      <c r="A280" s="11"/>
+      <c r="B280" s="39"/>
       <c r="C280" s="1"/>
       <c r="D280" s="1"/>
       <c r="E280" s="1"/>
@@ -7901,9 +8262,9 @@
       <c r="N280" s="1"/>
       <c r="O280" s="1"/>
     </row>
-    <row r="281" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A281" s="1"/>
-      <c r="B281" s="37"/>
+    <row r="281" spans="1:15">
+      <c r="A281" s="11"/>
+      <c r="B281" s="39"/>
       <c r="C281" s="1"/>
       <c r="D281" s="1"/>
       <c r="E281" s="1"/>
@@ -7918,9 +8279,9 @@
       <c r="N281" s="1"/>
       <c r="O281" s="1"/>
     </row>
-    <row r="282" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A282" s="1"/>
-      <c r="B282" s="37"/>
+    <row r="282" spans="1:15">
+      <c r="A282" s="11"/>
+      <c r="B282" s="39"/>
       <c r="C282" s="1"/>
       <c r="D282" s="1"/>
       <c r="E282" s="1"/>
@@ -7935,9 +8296,9 @@
       <c r="N282" s="1"/>
       <c r="O282" s="1"/>
     </row>
-    <row r="283" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A283" s="1"/>
-      <c r="B283" s="37"/>
+    <row r="283" spans="1:15">
+      <c r="A283" s="11"/>
+      <c r="B283" s="39"/>
       <c r="C283" s="1"/>
       <c r="D283" s="1"/>
       <c r="E283" s="1"/>
@@ -7952,9 +8313,9 @@
       <c r="N283" s="1"/>
       <c r="O283" s="1"/>
     </row>
-    <row r="284" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A284" s="1"/>
-      <c r="B284" s="37"/>
+    <row r="284" spans="1:15">
+      <c r="A284" s="11"/>
+      <c r="B284" s="39"/>
       <c r="C284" s="1"/>
       <c r="D284" s="1"/>
       <c r="E284" s="1"/>
@@ -7969,9 +8330,9 @@
       <c r="N284" s="1"/>
       <c r="O284" s="1"/>
     </row>
-    <row r="285" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A285" s="1"/>
-      <c r="B285" s="37"/>
+    <row r="285" spans="1:15">
+      <c r="A285" s="11"/>
+      <c r="B285" s="39"/>
       <c r="C285" s="1"/>
       <c r="D285" s="1"/>
       <c r="E285" s="1"/>
@@ -7986,9 +8347,9 @@
       <c r="N285" s="1"/>
       <c r="O285" s="1"/>
     </row>
-    <row r="286" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A286" s="1"/>
-      <c r="B286" s="37"/>
+    <row r="286" spans="1:15">
+      <c r="A286" s="11"/>
+      <c r="B286" s="39"/>
       <c r="C286" s="1"/>
       <c r="D286" s="1"/>
       <c r="E286" s="1"/>
@@ -8003,9 +8364,9 @@
       <c r="N286" s="1"/>
       <c r="O286" s="1"/>
     </row>
-    <row r="287" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A287" s="1"/>
-      <c r="B287" s="37"/>
+    <row r="287" spans="1:15">
+      <c r="A287" s="11"/>
+      <c r="B287" s="39"/>
       <c r="C287" s="1"/>
       <c r="D287" s="1"/>
       <c r="E287" s="1"/>
@@ -8020,9 +8381,9 @@
       <c r="N287" s="1"/>
       <c r="O287" s="1"/>
     </row>
-    <row r="288" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A288" s="1"/>
-      <c r="B288" s="37"/>
+    <row r="288" spans="1:15">
+      <c r="A288" s="11"/>
+      <c r="B288" s="39"/>
       <c r="C288" s="1"/>
       <c r="D288" s="1"/>
       <c r="E288" s="1"/>
@@ -8037,9 +8398,9 @@
       <c r="N288" s="1"/>
       <c r="O288" s="1"/>
     </row>
-    <row r="289" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A289" s="1"/>
-      <c r="B289" s="37"/>
+    <row r="289" spans="1:15">
+      <c r="A289" s="11"/>
+      <c r="B289" s="39"/>
       <c r="C289" s="1"/>
       <c r="D289" s="1"/>
       <c r="E289" s="1"/>
@@ -8054,9 +8415,9 @@
       <c r="N289" s="1"/>
       <c r="O289" s="1"/>
     </row>
-    <row r="290" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A290" s="1"/>
-      <c r="B290" s="37"/>
+    <row r="290" spans="1:15">
+      <c r="A290" s="11"/>
+      <c r="B290" s="39"/>
       <c r="C290" s="1"/>
       <c r="D290" s="1"/>
       <c r="E290" s="1"/>
@@ -8071,9 +8432,9 @@
       <c r="N290" s="1"/>
       <c r="O290" s="1"/>
     </row>
-    <row r="291" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A291" s="1"/>
-      <c r="B291" s="37"/>
+    <row r="291" spans="1:15">
+      <c r="A291" s="11"/>
+      <c r="B291" s="39"/>
       <c r="C291" s="1"/>
       <c r="D291" s="1"/>
       <c r="E291" s="1"/>
@@ -8088,9 +8449,9 @@
       <c r="N291" s="1"/>
       <c r="O291" s="1"/>
     </row>
-    <row r="292" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A292" s="1"/>
-      <c r="B292" s="37"/>
+    <row r="292" spans="1:15">
+      <c r="A292" s="11"/>
+      <c r="B292" s="39"/>
       <c r="C292" s="1"/>
       <c r="D292" s="1"/>
       <c r="E292" s="1"/>
@@ -8105,9 +8466,9 @@
       <c r="N292" s="1"/>
       <c r="O292" s="1"/>
     </row>
-    <row r="293" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A293" s="1"/>
-      <c r="B293" s="37"/>
+    <row r="293" spans="1:15">
+      <c r="A293" s="11"/>
+      <c r="B293" s="39"/>
       <c r="C293" s="1"/>
       <c r="D293" s="1"/>
       <c r="E293" s="1"/>
@@ -8122,9 +8483,9 @@
       <c r="N293" s="1"/>
       <c r="O293" s="1"/>
     </row>
-    <row r="294" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A294" s="1"/>
-      <c r="B294" s="37"/>
+    <row r="294" spans="1:15">
+      <c r="A294" s="11"/>
+      <c r="B294" s="39"/>
       <c r="C294" s="1"/>
       <c r="D294" s="1"/>
       <c r="E294" s="1"/>
@@ -8140,661 +8501,662 @@
       <c r="O294" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="A21:A27"/>
     <mergeCell ref="A28:A32"/>
     <mergeCell ref="B13:B17"/>
     <mergeCell ref="D13:D17"/>
     <mergeCell ref="D24:D25"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="A21:A27"/>
   </mergeCells>
-  <phoneticPr fontId="11" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1">
       <formula1>42736</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
       <formula1>"SaaS,库存,供应链,饮食通,饮食通老客户上线"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2 O5 O12 O20 O3:O4 O6:O7 O8:O9 O10:O11 O13:O17 O18:O19 O21:O1048576" xr:uid="{00000000-0002-0000-0100-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2 O5 O12 O20 O3:O4 O6:O7 O8:O9 O10:O11 O13:O17 O18:O19 O21:O1048576">
       <formula1>"新品牌,老品牌"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="8.625" style="11"/>
-    <col min="2" max="2" width="27.625" style="11" customWidth="1"/>
-    <col min="3" max="3" width="19.125" style="12" customWidth="1"/>
-    <col min="4" max="4" width="35.25" style="13" customWidth="1"/>
-    <col min="5" max="5" width="13.5" customWidth="1"/>
+    <col min="1" max="1" width="8.625" style="13"/>
+    <col min="2" max="2" width="27.625" style="13" customWidth="1"/>
+    <col min="3" max="3" width="19.125" style="14" customWidth="1"/>
+    <col min="4" max="4" width="35.25" style="15" customWidth="1"/>
+    <col min="5" max="5" width="13.5083333333333" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="11.375" style="14" customWidth="1"/>
+    <col min="7" max="7" width="11.375" style="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="16" t="s">
+      <c r="B1" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="E1" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="F1" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="G1" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="G1" s="18" t="s">
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="10">
+        <v>51</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="14">
+        <v>43087</v>
+      </c>
+      <c r="D2" s="22" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="9">
-        <v>51</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="12">
-        <v>43087</v>
-      </c>
-      <c r="D2" s="20" t="s">
+      <c r="E2" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="G2" s="21" t="s">
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="9">
+        <v>52</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="14">
+        <v>43092</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="58">
-        <v>52</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="12">
-        <v>43092</v>
-      </c>
-      <c r="D3" s="20" t="s">
+      <c r="G3" s="23" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="9"/>
+      <c r="B4" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" s="14">
+        <v>43098</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="G3" s="21" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="58"/>
-      <c r="B4" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="C4" s="12">
-        <v>43098</v>
-      </c>
-      <c r="D4" s="20" t="s">
+      <c r="G4" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="E4" s="1" t="s">
+    </row>
+    <row r="5" ht="14.25" spans="1:7">
+      <c r="A5" s="10">
+        <v>1</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="14">
+        <v>43102</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="G4" s="23" t="s">
+      <c r="G5" s="27" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="57">
-        <v>1</v>
-      </c>
-      <c r="B5" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="12">
-        <v>43102</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="G5" s="25" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="58"/>
-      <c r="B6" s="22"/>
-      <c r="D6" s="26"/>
+    <row r="6" ht="14.25" spans="1:7">
+      <c r="A6" s="9"/>
+      <c r="B6" s="24"/>
+      <c r="D6" s="28"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="27"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="58"/>
-      <c r="B7" s="22"/>
-      <c r="D7" s="20"/>
+      <c r="G6" s="29"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="9"/>
+      <c r="B7" s="24"/>
+      <c r="D7" s="22"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="27"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="57">
+      <c r="G7" s="29"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="10">
         <v>4</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="C8" s="14">
+        <v>43123</v>
+      </c>
+      <c r="D8" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="C8" s="12">
+      <c r="E8" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G8" s="29" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="9"/>
+      <c r="B9" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="14">
         <v>43123</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D9" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="G8" s="27" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="58"/>
-      <c r="B9" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="12">
-        <v>43123</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>141</v>
-      </c>
       <c r="E9" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="G9" s="27" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="58"/>
-      <c r="B10" s="22"/>
-      <c r="D10" s="20"/>
+        <v>132</v>
+      </c>
+      <c r="G9" s="29" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="9"/>
+      <c r="B10" s="24"/>
+      <c r="D10" s="22"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="27"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="57">
+      <c r="G10" s="29"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="10">
         <v>6</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="C11" s="14">
+        <v>43137</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G11" s="29" t="s">
         <v>142</v>
       </c>
-      <c r="C11" s="12">
-        <v>43137</v>
-      </c>
-      <c r="D11" s="28" t="s">
-        <v>129</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="G11" s="27" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="58"/>
-      <c r="B12" s="22"/>
-      <c r="D12" s="20"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="9"/>
+      <c r="B12" s="24"/>
+      <c r="D12" s="22"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="27"/>
-    </row>
-    <row r="13" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A13" s="63">
+      <c r="G12" s="29"/>
+    </row>
+    <row r="13" ht="14.25" spans="1:7">
+      <c r="A13" s="11">
         <v>13</v>
       </c>
-      <c r="B13" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="C13" s="12">
+      <c r="B13" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="14">
         <v>43189</v>
       </c>
-      <c r="D13" s="29" t="s">
+      <c r="D13" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="G13" s="27" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="63"/>
-      <c r="B14" s="22"/>
-      <c r="D14" s="20"/>
+      <c r="G13" s="29" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="11"/>
+      <c r="B14" s="24"/>
+      <c r="D14" s="22"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="27"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="10">
+      <c r="G14" s="29"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="11">
         <v>14</v>
       </c>
-      <c r="B15" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="C15" s="12">
+      <c r="B15" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="14">
         <v>43194</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="D15" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="G15" s="27" t="s">
+      <c r="G15" s="29" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="11">
+        <v>15</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C16" s="14">
+        <v>43203</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G16" s="29" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="10">
+        <v>16</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17" s="14">
+        <v>43206</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G17" s="29" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="10">
-        <v>15</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="C16" s="12">
-        <v>43203</v>
-      </c>
-      <c r="D16" s="20" t="s">
+    <row r="18" spans="1:7">
+      <c r="A18" s="9"/>
+      <c r="B18" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" s="14">
+        <v>43207</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="G16" s="27" t="s">
+      <c r="G18" s="29" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="9"/>
+      <c r="B19" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="C19" s="14">
+        <v>43209</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G19" s="29" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="9"/>
+      <c r="B20" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="C20" s="14">
+        <v>43209</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G20" s="29" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="57">
-        <v>16</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="C17" s="12">
-        <v>43206</v>
-      </c>
-      <c r="D17" s="20" t="s">
+    <row r="21" spans="1:7">
+      <c r="A21" s="12"/>
+      <c r="B21" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="C21" s="14">
+        <v>43211</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="G17" s="27" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="58"/>
-      <c r="B18" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C18" s="12">
-        <v>43207</v>
-      </c>
-      <c r="D18" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="G18" s="27" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="58"/>
-      <c r="B19" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="C19" s="12">
-        <v>43209</v>
-      </c>
-      <c r="D19" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="G19" s="27" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" s="58"/>
-      <c r="B20" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="C20" s="12">
-        <v>43209</v>
-      </c>
-      <c r="D20" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="G20" s="27" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="59"/>
-      <c r="B21" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="C21" s="12">
-        <v>43211</v>
-      </c>
-      <c r="D21" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="G21" s="27" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
-      <c r="D22" s="20"/>
+      <c r="G21" s="29" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
+      <c r="D22" s="22"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-      <c r="G22" s="27"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
-      <c r="D23" s="20"/>
+      <c r="G22" s="29"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="D23" s="22"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="27"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10"/>
-      <c r="D24" s="20"/>
+      <c r="G23" s="29"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="D24" s="22"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
-      <c r="G24" s="27"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A25" s="10"/>
-      <c r="B25" s="10"/>
-      <c r="D25" s="20"/>
+      <c r="G24" s="29"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="D25" s="22"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
-      <c r="G25" s="27"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A26" s="10"/>
-      <c r="B26" s="10"/>
-      <c r="D26" s="20"/>
+      <c r="G25" s="29"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
+      <c r="D26" s="22"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
-      <c r="G26" s="27"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A27" s="10"/>
-      <c r="B27" s="10"/>
-      <c r="D27" s="20"/>
+      <c r="G26" s="29"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
+      <c r="D27" s="22"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
-      <c r="G27" s="27"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A28" s="10"/>
-      <c r="B28" s="10"/>
-      <c r="D28" s="20"/>
+      <c r="G27" s="29"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="11"/>
+      <c r="B28" s="11"/>
+      <c r="D28" s="22"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
-      <c r="G28" s="27"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A29" s="10"/>
-      <c r="B29" s="10"/>
-      <c r="D29" s="20"/>
+      <c r="G28" s="29"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
+      <c r="D29" s="22"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
-      <c r="G29" s="27"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A30" s="10"/>
-      <c r="B30" s="10"/>
-      <c r="D30" s="20"/>
+      <c r="G29" s="29"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="11"/>
+      <c r="B30" s="11"/>
+      <c r="D30" s="22"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
-      <c r="G30" s="27"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A31" s="10"/>
-      <c r="B31" s="10"/>
-      <c r="D31" s="20"/>
+      <c r="G30" s="29"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="11"/>
+      <c r="B31" s="11"/>
+      <c r="D31" s="22"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
-      <c r="G31" s="27"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A32" s="10"/>
-      <c r="B32" s="10"/>
-      <c r="D32" s="20"/>
+      <c r="G31" s="29"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="11"/>
+      <c r="B32" s="11"/>
+      <c r="D32" s="22"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
-      <c r="G32" s="27"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A33" s="10"/>
-      <c r="B33" s="10"/>
-      <c r="D33" s="20"/>
+      <c r="G32" s="29"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="11"/>
+      <c r="B33" s="11"/>
+      <c r="D33" s="22"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
-      <c r="G33" s="27"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A34" s="10"/>
-      <c r="B34" s="10"/>
-      <c r="D34" s="20"/>
+      <c r="G33" s="29"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="11"/>
+      <c r="B34" s="11"/>
+      <c r="D34" s="22"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
-      <c r="G34" s="27"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A35" s="10"/>
-      <c r="B35" s="10"/>
-      <c r="D35" s="20"/>
+      <c r="G34" s="29"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="11"/>
+      <c r="B35" s="11"/>
+      <c r="D35" s="22"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
-      <c r="G35" s="27"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A36" s="10"/>
-      <c r="B36" s="10"/>
-      <c r="D36" s="20"/>
+      <c r="G35" s="29"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="11"/>
+      <c r="B36" s="11"/>
+      <c r="D36" s="22"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
-      <c r="G36" s="27"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A37" s="10"/>
-      <c r="B37" s="10"/>
-      <c r="D37" s="20"/>
+      <c r="G36" s="29"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="11"/>
+      <c r="B37" s="11"/>
+      <c r="D37" s="22"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
-      <c r="G37" s="27"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A38" s="10"/>
-      <c r="B38" s="10"/>
-      <c r="D38" s="20"/>
+      <c r="G37" s="29"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="11"/>
+      <c r="B38" s="11"/>
+      <c r="D38" s="22"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
-      <c r="G38" s="27"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A39" s="10"/>
-      <c r="B39" s="10"/>
-      <c r="D39" s="20"/>
+      <c r="G38" s="29"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="11"/>
+      <c r="B39" s="11"/>
+      <c r="D39" s="22"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
-      <c r="G39" s="27"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A40" s="10"/>
-      <c r="B40" s="10"/>
-      <c r="D40" s="20"/>
+      <c r="G39" s="29"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="11"/>
+      <c r="B40" s="11"/>
+      <c r="D40" s="22"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
-      <c r="G40" s="27"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A41" s="10"/>
-      <c r="B41" s="10"/>
-      <c r="D41" s="20"/>
+      <c r="G40" s="29"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="11"/>
+      <c r="B41" s="11"/>
+      <c r="D41" s="22"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
-      <c r="G41" s="27"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A42" s="10"/>
-      <c r="B42" s="10"/>
-      <c r="D42" s="20"/>
+      <c r="G41" s="29"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="11"/>
+      <c r="B42" s="11"/>
+      <c r="D42" s="22"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
-      <c r="G42" s="27"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A43" s="10"/>
-      <c r="B43" s="10"/>
-      <c r="D43" s="20"/>
+      <c r="G42" s="29"/>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="11"/>
+      <c r="B43" s="11"/>
+      <c r="D43" s="22"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
-      <c r="G43" s="27"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="C44" s="30"/>
+      <c r="G43" s="29"/>
+    </row>
+    <row r="44" spans="3:3">
+      <c r="C44" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A17:A21"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A17:A21"/>
   </mergeCells>
-  <phoneticPr fontId="11" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1" xr:uid="{00000000-0002-0000-0200-000000000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E10 E15 E18 E19 E20 E2:E5 E6:E7 E8:E9 E11:E12 E13:E14 E16:E17 E21:E1048576" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E10 E15 E18 E19 E20 E2:E5 E6:E7 E8:E9 E11:E12 E13:E14 E16:E17 E21:E1048576">
       <formula1>"单店,连锁,KA,供应链"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="saas" sqref="F15 F18 F19 F20 F2:F5 F6:F10 F11:F12 F13:F14 F16:F17 F21:F1048576" xr:uid="{00000000-0002-0000-0200-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="saas" sqref="F15 F18 F19 F20 F2:F5 F6:F10 F11:F12 F13:F14 F16:F17 F21:F1048576">
       <formula1>"SAAS,供应链,SAAS+微信,SAAS+供应链,SAAS+微信+供应链"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15.125" style="1" customWidth="1"/>
@@ -8803,216 +9165,216 @@
     <col min="5" max="5" width="65" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" ht="14.25" spans="1:5">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="E1" s="8" t="s">
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="9" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="58" t="s">
-        <v>155</v>
-      </c>
-      <c r="B2" s="57" t="s">
-        <v>32</v>
+      <c r="B2" s="10" t="s">
+        <v>30</v>
       </c>
       <c r="C2" s="2">
         <v>43084</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="58"/>
-      <c r="B3" s="58"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
       <c r="C3" s="2">
         <v>43091</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="E3" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="E3" s="10" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="58"/>
-      <c r="B4" s="58"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
       <c r="C4" s="2">
         <v>43099</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E4" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="E4" s="10" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="59"/>
-      <c r="B5" s="59"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
       <c r="C5" s="2">
         <v>43100</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E5" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="E5" s="10" t="s">
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="10" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="57" t="s">
-        <v>162</v>
-      </c>
-      <c r="B6" s="57" t="s">
-        <v>32</v>
+      <c r="B6" s="10" t="s">
+        <v>30</v>
       </c>
       <c r="C6" s="2">
         <v>43101</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E6" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="E6" s="10" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="59"/>
-      <c r="B7" s="59"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
       <c r="C7" s="2">
         <v>43120</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="E7" s="10" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="57" t="s">
-        <v>166</v>
-      </c>
-      <c r="B8" s="57" t="s">
-        <v>32</v>
+      <c r="B8" s="10" t="s">
+        <v>30</v>
       </c>
       <c r="C8" s="2">
         <v>43163</v>
       </c>
       <c r="D8" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E8" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="E8" s="10" t="s">
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="E9" s="11"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="11" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="59"/>
-      <c r="B9" s="59"/>
-      <c r="E9" s="10"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>32</v>
+      <c r="B10" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="C10" s="2">
         <v>43197</v>
       </c>
       <c r="D10" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E10" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="E10" s="10" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B11" s="10" t="s">
-        <v>32</v>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="C11" s="2">
         <v>43204</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B12" s="10" t="s">
-        <v>32</v>
+        <v>169</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="C12" s="2">
         <v>43211</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B13" s="10" t="s">
-        <v>32</v>
+        <v>170</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="C13" s="2">
         <v>43220</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B14" s="10" t="s">
-        <v>32</v>
+        <v>171</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="C14" s="2">
         <v>43221</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B15" s="10" t="s">
-        <v>32</v>
+        <v>171</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="C15" s="2">
         <v>43225</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>168</v>
+        <v>172</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -9024,8 +9386,8 @@
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B8:B9"/>
   </mergeCells>
-  <phoneticPr fontId="11" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="203" verticalDpi="203"/>
+  <headerFooter/>
 </worksheet>
 </file>